--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Screening and Treatment" sheetId="4" r:id="rId3"/>
     <sheet name="CIN Transition" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="239">
   <si>
     <t>Age</t>
   </si>
@@ -951,6 +951,18 @@
   </si>
   <si>
     <t>P. Schuman et al., Longitudinal study of cervical squamous intraepithelial lesions in human immunodeficiency virus (HIV)-seropositive and at-risk HIV-seronegative women. J Infect Dis 188, 128-136 (2003).</t>
+  </si>
+  <si>
+    <t>HPV Prevalence and Odds Ratios when HIV positive</t>
+  </si>
+  <si>
+    <t>Adjusted Odds Ratio</t>
+  </si>
+  <si>
+    <t>Palefsky et al. (1999 , JNCI)</t>
+  </si>
+  <si>
+    <t>Reflects persistence/reactivation of pre-existing HPV types</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1519,9 +1531,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1553,15 +1562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1620,17 +1620,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1914,8 +1930,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1924,7 +1940,10 @@
     <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" customWidth="1"/>
     <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" style="37"/>
+    <col min="6" max="6" width="19.26953125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="37"/>
+    <col min="9" max="9" width="27.08984375" style="37" customWidth="1"/>
     <col min="11" max="11" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
@@ -1947,17 +1966,17 @@
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
       <c r="T1" s="38"/>
-      <c r="U1" s="67"/>
+      <c r="U1" s="66"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1975,17 +1994,17 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
       <c r="T2" s="38"/>
-      <c r="U2" s="67"/>
+      <c r="U2" s="66"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -2017,10 +2036,10 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="9"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
     </row>
     <row r="4" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
@@ -2041,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="39"/>
-      <c r="K4" s="63"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -2051,7 +2070,7 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="66"/>
+      <c r="V4" s="65"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
@@ -2252,7 +2271,7 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="62"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2325,29 +2344,35 @@
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
     </row>
     <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="F18" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="2"/>
@@ -2356,21 +2381,32 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:21" ht="45.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="F19" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="L19" s="117"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="2"/>
@@ -2382,19 +2418,32 @@
       <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="49" t="e">
-        <f>1/V4</f>
-        <v>#DIV/0!</v>
+      <c r="B20" s="48">
+        <f>1/G20</f>
+        <v>1</v>
       </c>
       <c r="C20" s="42">
+        <f>1/H20</f>
         <v>1</v>
       </c>
       <c r="D20" s="42">
+        <f>1/I20</f>
         <v>1</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="F20" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="118">
+        <v>1</v>
+      </c>
+      <c r="H20" s="56">
+        <v>1</v>
+      </c>
+      <c r="I20" s="56">
+        <v>1</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="L20" s="117"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="2"/>
@@ -2402,28 +2451,37 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="31" x14ac:dyDescent="0.35">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:21" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="49" t="e">
-        <f>1/V5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="49" t="e">
-        <f>1/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="49" t="e">
-        <f>1/X5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
+      <c r="B21" s="48">
+        <f t="shared" ref="B21:B23" si="0">1/G21</f>
+        <v>0.32051282051282048</v>
+      </c>
+      <c r="C21" s="42">
+        <f t="shared" ref="C21:C23" si="1">1/H21</f>
+        <v>0.42372881355932207</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" ref="D21:D23" si="2">1/I21</f>
+        <v>0.24271844660194175</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="56">
+        <v>3.12</v>
+      </c>
+      <c r="H21" s="56">
+        <v>2.36</v>
+      </c>
+      <c r="I21" s="56">
+        <v>4.12</v>
+      </c>
+      <c r="J21" s="52"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2431,103 +2489,122 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" s="55" t="s">
+    <row r="22" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="49" t="e">
-        <f>1/V6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22" s="49" t="e">
-        <f>1/W6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="49" t="e">
-        <f>1/X6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="55" t="s">
+      <c r="B22" s="48">
+        <f t="shared" si="0"/>
+        <v>0.17301038062283736</v>
+      </c>
+      <c r="C22" s="42">
+        <f t="shared" si="1"/>
+        <v>0.23980815347721823</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="2"/>
+        <v>0.12376237623762376</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="56">
+        <v>5.78</v>
+      </c>
+      <c r="H22" s="56">
+        <v>4.17</v>
+      </c>
+      <c r="I22" s="56">
+        <v>8.08</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="49" t="e">
-        <f>1/V7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="49" t="e">
-        <f>1/W7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="49" t="e">
-        <f>1/X7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="B23" s="48">
+        <f t="shared" si="0"/>
+        <v>9.8716683119447174E-2</v>
+      </c>
+      <c r="C23" s="42">
+        <f t="shared" si="1"/>
+        <v>0.13661202185792348</v>
+      </c>
+      <c r="D23" s="42">
+        <f t="shared" si="2"/>
+        <v>7.1225071225071226E-2</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="56">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H23" s="56">
+        <v>7.32</v>
+      </c>
+      <c r="I23" s="56">
+        <v>14.04</v>
+      </c>
+      <c r="J23" s="39"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="2"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="F24" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="K25" s="62"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="F25" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="61"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="K26" s="62"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="K26" s="61"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
-      <c r="K27" s="62"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2559,10 +2636,10 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
       <c r="O29" s="38"/>
       <c r="P29" s="38"/>
       <c r="Q29" s="38"/>
@@ -2584,10 +2661,10 @@
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
       <c r="O30" s="38"/>
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
@@ -2609,10 +2686,10 @@
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
       <c r="O31" s="38"/>
       <c r="P31" s="38"/>
       <c r="Q31" s="38"/>
@@ -2622,12 +2699,12 @@
       <c r="U31" s="38"/>
     </row>
     <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2637,10 +2714,10 @@
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="41" t="s">
@@ -2670,7 +2747,7 @@
       <c r="D34" s="42">
         <v>1</v>
       </c>
-      <c r="K34" s="62"/>
+      <c r="K34" s="61"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2713,8 +2790,8 @@
         <v>15.2</v>
       </c>
       <c r="K36" s="2"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -2726,8 +2803,8 @@
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -2735,12 +2812,12 @@
     </row>
     <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="39"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -2774,7 +2851,7 @@
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
-      <c r="K41" s="62"/>
+      <c r="K41" s="61"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2795,13 +2872,13 @@
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
       <c r="T42" s="38"/>
@@ -2820,26 +2897,26 @@
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
       <c r="T43" s="38"/>
       <c r="U43" s="38"/>
     </row>
     <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="56"/>
-      <c r="B44" s="69" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2849,17 +2926,17 @@
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:21" ht="31" x14ac:dyDescent="0.35">
-      <c r="A45" s="57"/>
-      <c r="B45" s="60" t="s">
+      <c r="A45" s="56"/>
+      <c r="B45" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="60" t="s">
         <v>191</v>
       </c>
       <c r="K45" s="2"/>
@@ -2871,19 +2948,19 @@
       <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="59">
+      <c r="B46" s="58">
         <v>2</v>
       </c>
-      <c r="C46" s="59">
+      <c r="C46" s="58">
         <v>3</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="58">
         <v>3.2</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="57">
         <f t="array" ref="E46:E49">0.7*B46:B49+0.2*C46:C49 +0.1*D46:D49</f>
         <v>2.3200000000000003</v>
       </c>
@@ -2896,19 +2973,19 @@
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="59">
+      <c r="B47" s="58">
         <v>1.8</v>
       </c>
-      <c r="C47" s="59">
+      <c r="C47" s="58">
         <v>2.8</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="58">
         <v>3</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="57">
         <v>2.12</v>
       </c>
       <c r="K47" s="9"/>
@@ -2920,19 +2997,19 @@
       <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="59">
+      <c r="B48" s="58">
         <v>1.7</v>
       </c>
-      <c r="C48" s="59">
+      <c r="C48" s="58">
         <v>2.6</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="58">
         <v>2.8</v>
       </c>
-      <c r="E48" s="58">
+      <c r="E48" s="57">
         <v>1.99</v>
       </c>
       <c r="K48" s="9"/>
@@ -2944,19 +3021,19 @@
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="59">
+      <c r="B49" s="58">
         <v>1.5</v>
       </c>
-      <c r="C49" s="59">
+      <c r="C49" s="58">
         <v>2.4</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D49" s="58">
         <v>2.5</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="57">
         <v>1.7799999999999998</v>
       </c>
       <c r="K49" s="9"/>
@@ -2996,7 +3073,7 @@
       <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K52" s="62"/>
+      <c r="K52" s="61"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -3092,10 +3169,11 @@
       <c r="Q60" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3203,120 +3281,120 @@
       <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>194</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="68">
         <v>1.8098080000000002E-2</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="68">
         <v>2.3311134000000001E-2</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="68">
         <v>0.10089910600000002</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="68">
         <v>2.1976240000000001E-2</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="68">
         <v>2.8306377000000004E-2</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="68">
         <v>0.10089910600000002</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="68">
         <v>2.6677040000000003E-2</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="68">
         <v>3.4361216999999999E-2</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="68">
         <v>0.10089910600000002</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="68">
         <v>3.2318E-2</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="68">
         <v>4.1627024999999998E-2</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="68">
         <v>0.10089910600000002</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:23" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="68">
         <v>1.8098080000000002E-2</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="68">
         <v>2.3311134000000001E-2</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="68">
         <v>0.10089910600000002</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="68">
         <v>5.8760000000000001E-3</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="68">
         <v>1.5137100000000001E-2</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="68">
         <v>6.5518900000000005E-2</v>
       </c>
       <c r="E11" s="39"/>
@@ -3370,120 +3448,120 @@
       <c r="W17" s="38"/>
     </row>
     <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="55" t="s">
         <v>194</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="68">
         <v>1.6014704604402373E-2</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="68">
         <v>1.9269924863845597E-2</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="68">
         <v>6.6828048101634521E-2</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="72">
+      <c r="B21" s="68">
         <v>1.9446427019631455E-2</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="68">
         <v>2.3399194477526798E-2</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="68">
         <v>6.6828048101634521E-2</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="68">
         <v>2.3606090553242462E-2</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="68">
         <v>2.8404369766837342E-2</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="68">
         <v>6.6828048101634521E-2</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="68">
         <v>2.8597686793575668E-2</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="68">
         <v>3.4410580114009999E-2</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="68">
         <v>6.6828048101634521E-2</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="68">
         <v>1.6014704604402373E-2</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="68">
         <v>1.9269924863845597E-2</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="68">
         <v>6.6828048101634521E-2</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="68">
         <v>5.1995794170137579E-3</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="68">
         <v>1.2512938223276362E-2</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="68">
         <v>4.3394836429632801E-2</v>
       </c>
       <c r="E25" s="39"/>
@@ -3563,10 +3641,10 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -3577,10 +3655,10 @@
       <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="72">
+      <c r="B33" s="68">
         <v>0.02</v>
       </c>
       <c r="C33" s="39"/>
@@ -3593,10 +3671,10 @@
       <c r="J33" s="39"/>
     </row>
     <row r="34" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="68">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C34" s="39"/>
@@ -3696,10 +3774,10 @@
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -3710,10 +3788,10 @@
       <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="72">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="C42" s="39"/>
@@ -3726,10 +3804,10 @@
       <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="77">
+      <c r="B43" s="73">
         <v>0.1333</v>
       </c>
       <c r="C43" s="39"/>
@@ -3742,10 +3820,10 @@
       <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="77">
+      <c r="B44" s="73">
         <v>0.17460000000000001</v>
       </c>
       <c r="C44" s="39"/>
@@ -3872,208 +3950,208 @@
       <c r="W52" s="38"/>
     </row>
     <row r="53" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="74" t="s">
+      <c r="D53" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="74" t="s">
+      <c r="E53" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="73">
+      <c r="A54" s="69">
         <v>1</v>
       </c>
-      <c r="B54" s="58">
+      <c r="B54" s="57">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C54" s="58">
+      <c r="C54" s="57">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D54" s="58">
+      <c r="D54" s="57">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="57">
         <v>2.93E-2</v>
       </c>
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="58">
+      <c r="B55" s="57">
         <f>3-2</f>
         <v>1</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="57">
         <v>1.4E-3</v>
       </c>
-      <c r="D55" s="58">
+      <c r="D55" s="57">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="57">
         <v>1.95E-2</v>
       </c>
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="58">
+      <c r="B56" s="57">
         <f>20-4</f>
         <v>16</v>
       </c>
-      <c r="C56" s="58">
+      <c r="C56" s="57">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D56" s="58">
+      <c r="D56" s="57">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E56" s="57">
         <v>7.6E-3</v>
       </c>
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B57" s="57">
         <f t="shared" ref="B57:B62" si="0">20-4</f>
         <v>16</v>
       </c>
-      <c r="C57" s="58">
+      <c r="C57" s="57">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D57" s="58">
+      <c r="D57" s="57">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="57">
         <v>7.6E-3</v>
       </c>
       <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B58" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C58" s="58">
+      <c r="C58" s="57">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D58" s="58">
+      <c r="D58" s="57">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="57">
         <v>7.6E-3</v>
       </c>
       <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="58">
+      <c r="B59" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C59" s="58">
+      <c r="C59" s="57">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D59" s="58">
+      <c r="D59" s="57">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E59" s="58">
+      <c r="E59" s="57">
         <v>7.6E-3</v>
       </c>
       <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="58">
+      <c r="B60" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C60" s="58">
+      <c r="C60" s="57">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D60" s="58">
+      <c r="D60" s="57">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E60" s="58">
+      <c r="E60" s="57">
         <v>7.6E-3</v>
       </c>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="58">
+      <c r="B61" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C61" s="58">
+      <c r="C61" s="57">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D61" s="58">
+      <c r="D61" s="57">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E61" s="58">
+      <c r="E61" s="57">
         <v>7.6E-3</v>
       </c>
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="58">
+      <c r="B62" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="57">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D62" s="58">
+      <c r="D62" s="57">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E62" s="57">
         <v>7.6E-3</v>
       </c>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="75">
+      <c r="B63" s="55"/>
+      <c r="C63" s="71">
         <f>AVERAGE(C54:C56)</f>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D63" s="75">
+      <c r="D63" s="71">
         <f>AVERAGE(D54:D56)</f>
         <v>6.9666666666666661E-3</v>
       </c>
-      <c r="E63" s="75">
+      <c r="E63" s="71">
         <f>AVERAGE(E54:E56)</f>
         <v>1.8800000000000001E-2</v>
       </c>
@@ -4201,12 +4279,12 @@
       <c r="W71" s="38"/>
     </row>
     <row r="72" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="57"/>
-      <c r="B72" s="47" t="s">
+      <c r="A72" s="56"/>
+      <c r="B72" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="39" t="s">
@@ -4217,16 +4295,16 @@
       <c r="J72" s="39"/>
     </row>
     <row r="73" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="56" t="s">
+      <c r="D73" s="55" t="s">
         <v>1</v>
       </c>
       <c r="E73" s="39"/>
@@ -4234,23 +4312,23 @@
       <c r="G73" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="48" t="s">
+      <c r="H73" s="47" t="s">
         <v>36</v>
       </c>
       <c r="I73" s="39"/>
       <c r="J73" s="39"/>
     </row>
     <row r="74" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="57" t="s">
+      <c r="A74" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="58">
+      <c r="B74" s="57">
         <v>4.03</v>
       </c>
-      <c r="C74" s="58">
+      <c r="C74" s="57">
         <v>1.46</v>
       </c>
-      <c r="D74" s="58">
+      <c r="D74" s="57">
         <v>11.1</v>
       </c>
       <c r="E74" s="39"/>
@@ -4265,16 +4343,16 @@
       <c r="J74" s="39"/>
     </row>
     <row r="75" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="58">
+      <c r="B75" s="57">
         <v>2.44</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="57">
         <v>1.3</v>
       </c>
-      <c r="D75" s="58">
+      <c r="D75" s="57">
         <v>4.55</v>
       </c>
       <c r="E75" s="39"/>
@@ -4289,16 +4367,16 @@
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="57" t="s">
+      <c r="A76" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="58">
+      <c r="B76" s="57">
         <v>1.47</v>
       </c>
-      <c r="C76" s="58">
+      <c r="C76" s="57">
         <v>0.95</v>
       </c>
-      <c r="D76" s="58">
+      <c r="D76" s="57">
         <v>2.29</v>
       </c>
       <c r="E76" s="39"/>
@@ -4311,16 +4389,16 @@
       <c r="J76" s="39"/>
     </row>
     <row r="77" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="58">
+      <c r="B77" s="57">
         <v>0.89</v>
       </c>
-      <c r="C77" s="58">
+      <c r="C77" s="57">
         <v>0.46</v>
       </c>
-      <c r="D77" s="58">
+      <c r="D77" s="57">
         <v>1.72</v>
       </c>
       <c r="E77" s="39"/>
@@ -4354,7 +4432,7 @@
       <c r="G79" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H79" s="48" t="s">
+      <c r="H79" s="47" t="s">
         <v>36</v>
       </c>
       <c r="I79" s="39"/>
@@ -4554,16 +4632,16 @@
       <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="39"/>
@@ -4620,7 +4698,7 @@
       <c r="B7" s="41">
         <v>0.38</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="74">
         <v>0.26</v>
       </c>
       <c r="D7" s="41">
@@ -4720,10 +4798,10 @@
       <c r="J12" s="39"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="62"/>
+      <c r="N12" s="61"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="62"/>
+      <c r="Q12" s="61"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -4746,17 +4824,17 @@
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
       <c r="K13" s="38"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="75"/>
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
@@ -4773,29 +4851,29 @@
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
       <c r="K14" s="38"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="3"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="57"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
@@ -4803,31 +4881,31 @@
       <c r="J15" s="39"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="78" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="39"/>
@@ -4849,19 +4927,19 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="57">
         <v>0.91</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="57">
         <v>0.95</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <v>0.88</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <v>0.89</v>
       </c>
       <c r="F17" s="39"/>
@@ -4883,19 +4961,19 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <v>0.83</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="57">
         <v>0.91</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="56">
         <v>0.91</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="56">
         <v>0.89</v>
       </c>
       <c r="F18" s="39"/>
@@ -4917,19 +4995,19 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="56">
         <v>0.71</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="56">
         <v>0.78</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="56">
         <v>0.97</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="56">
         <v>0.97</v>
       </c>
       <c r="F19" s="39"/>
@@ -4939,19 +5017,19 @@
       <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="56">
         <v>0.76</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="56">
         <v>0.84</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="56">
         <v>0.86</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="56">
         <v>0.87</v>
       </c>
       <c r="F20" s="39"/>
@@ -5120,7 +5198,7 @@
       <c r="X27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="60.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="79" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="39"/>
@@ -5258,25 +5336,25 @@
       <c r="X34" s="9"/>
     </row>
     <row r="35" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
       <c r="R35" s="9"/>
       <c r="S35" s="6"/>
       <c r="T35" s="9"/>
@@ -5286,25 +5364,25 @@
       <c r="X35" s="9"/>
     </row>
     <row r="36" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
       <c r="R36" s="9"/>
       <c r="S36" s="6"/>
       <c r="T36" s="9"/>
@@ -5314,11 +5392,11 @@
       <c r="X36" s="9"/>
     </row>
     <row r="37" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="57"/>
-      <c r="B37" s="56" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -5335,13 +5413,13 @@
       <c r="X37" s="9"/>
     </row>
     <row r="38" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="78" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="39"/>
@@ -5360,14 +5438,14 @@
       <c r="X38" s="9"/>
     </row>
     <row r="39" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="58">
+      <c r="B39" s="57">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="57">
         <f>1/10</f>
         <v>0.1</v>
       </c>
@@ -5380,14 +5458,14 @@
       <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="58">
+      <c r="B40" s="57">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C40" s="58">
+      <c r="C40" s="57">
         <f>1/5</f>
         <v>0.2</v>
       </c>
@@ -5502,10 +5580,10 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:24" ht="31" x14ac:dyDescent="0.35">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="89">
+      <c r="B48" s="85">
         <v>0.09</v>
       </c>
       <c r="C48" s="39"/>
@@ -5599,8 +5677,8 @@
       <c r="Q54" s="38"/>
     </row>
     <row r="55" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="57"/>
-      <c r="B55" s="56" t="s">
+      <c r="A55" s="56"/>
+      <c r="B55" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="39"/>
@@ -5613,10 +5691,10 @@
       <c r="J55" s="39"/>
     </row>
     <row r="56" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="58">
+      <c r="B56" s="57">
         <v>25</v>
       </c>
       <c r="C56" s="39"/>
@@ -5629,10 +5707,10 @@
       <c r="J56" s="39"/>
     </row>
     <row r="57" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B57" s="57">
         <v>55</v>
       </c>
       <c r="C57" s="39"/>
@@ -9111,7 +9189,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -9155,18 +9233,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -9189,16 +9267,16 @@
       <c r="AD1" s="11"/>
     </row>
     <row r="2" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
@@ -9221,52 +9299,52 @@
       <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
       <c r="L3" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:75" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="L4" s="103" t="s">
+      <c r="J4" s="86"/>
+      <c r="L4" s="99" t="s">
         <v>123</v>
       </c>
       <c r="M4" s="16" t="s">
@@ -9460,45 +9538,45 @@
       </c>
     </row>
     <row r="5" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="88">
         <f t="array" ref="B5:B20">((N31:N46+O31:O46) +N31:N46)/2</f>
         <v>0.24213857142857145</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="95">
         <f t="array" ref="C5:C20">(S31:S46*2+T31:T46)/2</f>
         <v>5.2163571428571434E-2</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="88">
         <v>0.12019611111111113</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="95">
         <f t="array" ref="E5:E20">AC31:AC46</f>
         <v>1.3352380952380953E-3</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="88">
         <f t="array" ref="F5:F20">M31:M46</f>
         <v>0.59184142857142863</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="95">
         <f t="array" ref="G5:G20">(Q31:Q46+R31:R46)/2</f>
         <v>0.12170142857142857</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="88">
         <f t="array" ref="H5:H20">(W31:W46+2*U31:U46)/2</f>
         <v>0.29137350000000001</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="95">
         <f t="array" ref="I5:I20">(AB31:AB46+2*AA31:AA46)/2</f>
         <v>7.1309142857142863E-2</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="L5" s="103" t="s">
+      <c r="J5" s="86"/>
+      <c r="L5" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="M5" s="102">
+      <c r="M5" s="98">
         <v>0.59145199999999998</v>
       </c>
       <c r="N5" s="18">
@@ -9689,38 +9767,38 @@
       </c>
     </row>
     <row r="6" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="88">
         <v>0.24213857142857145</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="95">
         <v>5.2163571428571434E-2</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="88">
         <v>0.12019611111111113</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="95">
         <v>1.3352380952380953E-3</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="88">
         <v>0.59184142857142863</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I6" s="99">
+      <c r="I6" s="95">
         <v>7.1309142857142863E-2</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="L6" s="104" t="s">
+      <c r="J6" s="86"/>
+      <c r="L6" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="102">
+      <c r="M6" s="98">
         <v>0.59145199999999998</v>
       </c>
       <c r="N6" s="18">
@@ -9911,38 +9989,38 @@
       </c>
     </row>
     <row r="7" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="88">
         <v>0.24213857142857145</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="95">
         <v>5.2163571428571434E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="88">
         <v>0.12019611111111113</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="95">
         <v>1.3352380952380953E-3</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="88">
         <v>0.59184142857142863</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I7" s="99">
+      <c r="I7" s="95">
         <v>7.1309142857142863E-2</v>
       </c>
-      <c r="J7" s="90"/>
-      <c r="L7" s="104" t="s">
+      <c r="J7" s="86"/>
+      <c r="L7" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="98">
         <v>0.59145199999999998</v>
       </c>
       <c r="N7" s="18">
@@ -10133,38 +10211,38 @@
       </c>
     </row>
     <row r="8" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="88">
         <v>0.24213857142857145</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="95">
         <v>5.2163571428571434E-2</v>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="88">
         <v>0.12019611111111113</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="95">
         <v>1.3352380952380953E-3</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="88">
         <v>0.59184142857142863</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I8" s="99">
+      <c r="I8" s="95">
         <v>7.1309142857142863E-2</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="L8" s="103" t="s">
+      <c r="J8" s="86"/>
+      <c r="L8" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="98">
         <v>0.59145199999999998</v>
       </c>
       <c r="N8" s="18">
@@ -10355,38 +10433,38 @@
       </c>
     </row>
     <row r="9" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="88">
         <v>0.24213857142857145</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="95">
         <v>5.2163571428571434E-2</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="88">
         <v>0.12019611111111113</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="95">
         <v>1.3352380952380953E-3</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="88">
         <v>0.59184142857142863</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="95">
         <v>7.1309142857142863E-2</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="L9" s="103" t="s">
+      <c r="J9" s="86"/>
+      <c r="L9" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M9" s="98">
         <v>0.59145199999999998</v>
       </c>
       <c r="N9" s="18">
@@ -10577,35 +10655,35 @@
       </c>
     </row>
     <row r="10" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="88">
         <v>0.12906128571428571</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="95">
         <v>6.0662303571428572E-2</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="88">
         <v>0.19646522222222224</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="95">
         <v>1.4111071428571429E-2</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="88">
         <v>0.43680510714285714</v>
       </c>
-      <c r="G10" s="99">
+      <c r="G10" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I10" s="99">
+      <c r="I10" s="95">
         <v>5.3409928571428567E-2</v>
       </c>
-      <c r="J10" s="90"/>
-      <c r="L10" s="103" t="s">
+      <c r="J10" s="86"/>
+      <c r="L10" s="99" t="s">
         <v>167</v>
       </c>
       <c r="M10" s="29">
@@ -10799,35 +10877,35 @@
       </c>
     </row>
     <row r="11" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="88">
         <v>0.12906128571428571</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="95">
         <v>6.0662303571428572E-2</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="88">
         <v>0.19646522222222224</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="95">
         <v>1.4111071428571429E-2</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="88">
         <v>0.43680510714285714</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I11" s="99">
+      <c r="I11" s="95">
         <v>5.3409928571428567E-2</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="L11" s="103" t="s">
+      <c r="J11" s="86"/>
+      <c r="L11" s="99" t="s">
         <v>3</v>
       </c>
       <c r="M11" s="29">
@@ -11021,35 +11099,35 @@
       </c>
     </row>
     <row r="12" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="88">
         <v>0.12906128571428571</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="95">
         <v>6.0662303571428572E-2</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="88">
         <v>0.19646522222222224</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="95">
         <v>1.4111071428571429E-2</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="88">
         <v>0.43680510714285714</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I12" s="99">
+      <c r="I12" s="95">
         <v>5.3409928571428567E-2</v>
       </c>
-      <c r="J12" s="90"/>
-      <c r="L12" s="103" t="s">
+      <c r="J12" s="86"/>
+      <c r="L12" s="99" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="29">
@@ -11243,35 +11321,35 @@
       </c>
     </row>
     <row r="13" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="88">
         <v>0.12906128571428571</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="95">
         <v>6.0662303571428572E-2</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="88">
         <v>0.19646522222222224</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="95">
         <v>1.4111071428571429E-2</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="88">
         <v>0.43680510714285714</v>
       </c>
-      <c r="G13" s="99">
+      <c r="G13" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I13" s="99">
+      <c r="I13" s="95">
         <v>5.3409928571428567E-2</v>
       </c>
-      <c r="J13" s="90"/>
-      <c r="L13" s="103" t="s">
+      <c r="J13" s="86"/>
+      <c r="L13" s="99" t="s">
         <v>5</v>
       </c>
       <c r="M13" s="29">
@@ -11465,35 +11543,35 @@
       </c>
     </row>
     <row r="14" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="88">
         <v>0.12906128571428571</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="95">
         <v>6.0662303571428572E-2</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="88">
         <v>0.19646522222222224</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="95">
         <v>1.4111071428571429E-2</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="88">
         <v>0.43680510714285714</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I14" s="99">
+      <c r="I14" s="95">
         <v>5.3409928571428567E-2</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="L14" s="103" t="s">
+      <c r="J14" s="86"/>
+      <c r="L14" s="99" t="s">
         <v>6</v>
       </c>
       <c r="M14" s="29">
@@ -11687,35 +11765,35 @@
       </c>
     </row>
     <row r="15" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="88">
         <v>9.6256928571428563E-2</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="95">
         <v>7.5478500000000004E-2</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="88">
         <v>0.25986325000000005</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="95">
         <v>3.2381464285714284E-2</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="88">
         <v>0.2642221785714286</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I15" s="99">
+      <c r="I15" s="95">
         <v>1.9593678571428571E-2</v>
       </c>
-      <c r="J15" s="90"/>
-      <c r="L15" s="103" t="s">
+      <c r="J15" s="86"/>
+      <c r="L15" s="99" t="s">
         <v>107</v>
       </c>
       <c r="M15" s="29">
@@ -11909,35 +11987,35 @@
       </c>
     </row>
     <row r="16" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="88">
         <v>9.6256928571428563E-2</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="95">
         <v>7.5478500000000004E-2</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="88">
         <v>0.25986325000000005</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="95">
         <v>3.2381464285714284E-2</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="88">
         <v>0.2642221785714286</v>
       </c>
-      <c r="G16" s="99">
+      <c r="G16" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I16" s="95">
         <v>1.9593678571428571E-2</v>
       </c>
-      <c r="J16" s="90"/>
-      <c r="L16" s="103" t="s">
+      <c r="J16" s="86"/>
+      <c r="L16" s="99" t="s">
         <v>108</v>
       </c>
       <c r="M16" s="29">
@@ -12131,35 +12209,35 @@
       </c>
     </row>
     <row r="17" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="92">
+      <c r="B17" s="88">
         <v>9.6256928571428563E-2</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="95">
         <v>7.5478500000000004E-2</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="88">
         <v>0.25986325000000005</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="95">
         <v>3.2381464285714284E-2</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="88">
         <v>0.2642221785714286</v>
       </c>
-      <c r="G17" s="99">
+      <c r="G17" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I17" s="99">
+      <c r="I17" s="95">
         <v>1.9593678571428571E-2</v>
       </c>
-      <c r="J17" s="90"/>
-      <c r="L17" s="103" t="s">
+      <c r="J17" s="86"/>
+      <c r="L17" s="99" t="s">
         <v>118</v>
       </c>
       <c r="M17" s="29">
@@ -12353,35 +12431,35 @@
       </c>
     </row>
     <row r="18" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="92">
+      <c r="B18" s="88">
         <v>9.6256928571428563E-2</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="95">
         <v>7.5478500000000004E-2</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="88">
         <v>0.25986325000000005</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="95">
         <v>3.2381464285714284E-2</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="88">
         <v>0.2642221785714286</v>
       </c>
-      <c r="G18" s="99">
+      <c r="G18" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H18" s="92">
+      <c r="H18" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I18" s="99">
+      <c r="I18" s="95">
         <v>1.9593678571428571E-2</v>
       </c>
-      <c r="J18" s="90"/>
-      <c r="L18" s="103" t="s">
+      <c r="J18" s="86"/>
+      <c r="L18" s="99" t="s">
         <v>119</v>
       </c>
       <c r="M18" s="29">
@@ -12575,35 +12653,35 @@
       </c>
     </row>
     <row r="19" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="92">
+      <c r="B19" s="88">
         <v>9.6256928571428563E-2</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="95">
         <v>7.5478500000000004E-2</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="88">
         <v>0.29776118518518513</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="95">
         <v>3.8157761904761903E-2</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="88">
         <v>0.23315357142857146</v>
       </c>
-      <c r="G19" s="99">
+      <c r="G19" s="95">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H19" s="92">
+      <c r="H19" s="88">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I19" s="99">
+      <c r="I19" s="95">
         <v>9.9361666666666678E-3</v>
       </c>
-      <c r="J19" s="90"/>
-      <c r="L19" s="103" t="s">
+      <c r="J19" s="86"/>
+      <c r="L19" s="99" t="s">
         <v>168</v>
       </c>
       <c r="M19" s="34">
@@ -12797,35 +12875,35 @@
       </c>
     </row>
     <row r="20" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="94">
         <v>9.6256928571428563E-2</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C20" s="96">
         <v>7.5478500000000004E-2</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="94">
         <v>0.29776118518518513</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="96">
         <v>3.8157761904761903E-2</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="94">
         <v>0.23315357142857146</v>
       </c>
-      <c r="G20" s="100">
+      <c r="G20" s="96">
         <v>0.12170142857142857</v>
       </c>
-      <c r="H20" s="98">
+      <c r="H20" s="94">
         <v>0.29137350000000001</v>
       </c>
-      <c r="I20" s="100">
+      <c r="I20" s="96">
         <v>9.9361666666666678E-3</v>
       </c>
-      <c r="J20" s="90"/>
-      <c r="L20" s="103" t="s">
+      <c r="J20" s="86"/>
+      <c r="L20" s="99" t="s">
         <v>169</v>
       </c>
       <c r="M20" s="34">
@@ -13019,121 +13097,121 @@
       </c>
     </row>
     <row r="21" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
       <c r="L23" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:75" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="G24" s="94" t="s">
+      <c r="G24" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="101" t="s">
+      <c r="H24" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="I24" s="94" t="s">
+      <c r="I24" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="J24" s="90"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="109" t="s">
+      <c r="J24" s="86"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="105" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="92">
+      <c r="B25" s="88">
         <f t="array" ref="B25:B40">((N50:N65+O50:O65) +N50:N65)/2</f>
         <v>0.14676349999999999</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="95">
         <f t="array" ref="C25:C40">(S50:S65*2+T50:T65)/2</f>
         <v>3.0508500000000001E-2</v>
       </c>
-      <c r="D25" s="92">
+      <c r="D25" s="88">
         <f t="array" ref="D25:D40">X50:X65</f>
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="95">
         <f t="array" ref="E25:E40">AC50:AC65</f>
         <v>7.5533333333333323E-4</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="88">
         <f t="array" ref="F25:F40">M50:M65</f>
         <v>0.78637999999999997</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="95">
         <f t="array" ref="G25:G40">(Q50:Q65+R50:R65)/2</f>
         <v>0.1615095</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="88">
         <f t="array" ref="H25:H40">(W50:W65+2*U50:U65)/2</f>
         <v>0.46084099999999995</v>
       </c>
-      <c r="I25" s="99">
+      <c r="I25" s="95">
         <f t="array" ref="I25:I40">(AB50:AB65+2*AA50:AA65)/2</f>
         <v>0.12066450000000001</v>
       </c>
-      <c r="J25" s="90"/>
-      <c r="L25" s="103" t="s">
+      <c r="J25" s="86"/>
+      <c r="L25" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="103">
+      <c r="M25" s="99">
         <f>0.5/0.7</f>
         <v>0.7142857142857143</v>
       </c>
@@ -13142,38 +13220,38 @@
       </c>
     </row>
     <row r="26" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="92">
+      <c r="B26" s="88">
         <v>0.14676349999999999</v>
       </c>
-      <c r="C26" s="99">
+      <c r="C26" s="95">
         <v>3.0508500000000001E-2</v>
       </c>
-      <c r="D26" s="92">
+      <c r="D26" s="88">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="E26" s="99">
+      <c r="E26" s="95">
         <v>7.5533333333333323E-4</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="88">
         <v>0.78637999999999997</v>
       </c>
-      <c r="G26" s="99">
+      <c r="G26" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="88">
         <v>0.46084099999999995</v>
       </c>
-      <c r="I26" s="99">
+      <c r="I26" s="95">
         <v>0.12066450000000001</v>
       </c>
-      <c r="J26" s="90"/>
-      <c r="L26" s="103" t="s">
+      <c r="J26" s="86"/>
+      <c r="L26" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="M26" s="103">
+      <c r="M26" s="99">
         <f>0.2/0.7</f>
         <v>0.28571428571428575</v>
       </c>
@@ -13182,216 +13260,216 @@
       </c>
     </row>
     <row r="27" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="92">
+      <c r="B27" s="88">
         <v>0.14676349999999999</v>
       </c>
-      <c r="C27" s="99">
+      <c r="C27" s="95">
         <v>3.0508500000000001E-2</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="88">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="E27" s="99">
+      <c r="E27" s="95">
         <v>7.5533333333333323E-4</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="88">
         <v>0.78637999999999997</v>
       </c>
-      <c r="G27" s="99">
+      <c r="G27" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="88">
         <v>0.46084099999999995</v>
       </c>
-      <c r="I27" s="99">
+      <c r="I27" s="95">
         <v>0.12066450000000001</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="L27" s="103" t="s">
+      <c r="J27" s="86"/>
+      <c r="L27" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="M27" s="103">
+      <c r="M27" s="99">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="92">
+      <c r="B28" s="88">
         <v>0.14676349999999999</v>
       </c>
-      <c r="C28" s="99">
+      <c r="C28" s="95">
         <v>3.0508500000000001E-2</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="88">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="95">
         <v>7.5533333333333323E-4</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="88">
         <v>0.78637999999999997</v>
       </c>
-      <c r="G28" s="99">
+      <c r="G28" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="88">
         <v>0.46084099999999995</v>
       </c>
-      <c r="I28" s="99">
+      <c r="I28" s="95">
         <v>0.12066450000000001</v>
       </c>
-      <c r="J28" s="90"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="92">
+      <c r="B29" s="88">
         <v>0.14676349999999999</v>
       </c>
-      <c r="C29" s="99">
+      <c r="C29" s="95">
         <v>3.0508500000000001E-2</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="88">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="E29" s="99">
+      <c r="E29" s="95">
         <v>7.5533333333333323E-4</v>
       </c>
-      <c r="F29" s="92">
+      <c r="F29" s="88">
         <v>0.78637999999999997</v>
       </c>
-      <c r="G29" s="99">
+      <c r="G29" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H29" s="92">
+      <c r="H29" s="88">
         <v>0.46084099999999995</v>
       </c>
-      <c r="I29" s="99">
+      <c r="I29" s="95">
         <v>0.12066450000000001</v>
       </c>
-      <c r="J29" s="90"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="1:75" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="92">
+      <c r="B30" s="88">
         <v>7.678299999999999E-2</v>
       </c>
-      <c r="C30" s="99">
+      <c r="C30" s="95">
         <v>3.5521374999999994E-2</v>
       </c>
-      <c r="D30" s="92">
+      <c r="D30" s="88">
         <v>0.1312325</v>
       </c>
-      <c r="E30" s="99">
+      <c r="E30" s="95">
         <v>8.0052500000000002E-3</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="88">
         <v>0.62775775</v>
       </c>
-      <c r="G30" s="99">
+      <c r="G30" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H30" s="92">
+      <c r="H30" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I30" s="99">
+      <c r="I30" s="95">
         <v>9.0632875000000002E-2</v>
       </c>
-      <c r="J30" s="90"/>
-      <c r="L30" s="108" t="s">
+      <c r="J30" s="86"/>
+      <c r="L30" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="M30" s="108" t="s">
+      <c r="M30" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="N30" s="108" t="s">
+      <c r="N30" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="O30" s="108" t="s">
+      <c r="O30" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="P30" s="108" t="s">
+      <c r="P30" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="Q30" s="108" t="s">
+      <c r="Q30" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="R30" s="108" t="s">
+      <c r="R30" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="S30" s="108" t="s">
+      <c r="S30" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="T30" s="108" t="s">
+      <c r="T30" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="U30" s="108" t="s">
+      <c r="U30" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="V30" s="108" t="s">
+      <c r="V30" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="W30" s="108" t="s">
+      <c r="W30" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="X30" s="108" t="s">
+      <c r="X30" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="Y30" s="108" t="s">
+      <c r="Y30" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="Z30" s="108" t="s">
+      <c r="Z30" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="AA30" s="108" t="s">
+      <c r="AA30" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="AB30" s="108" t="s">
+      <c r="AB30" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="AC30" s="94" t="s">
+      <c r="AC30" s="90" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="92">
+      <c r="B31" s="88">
         <v>7.678299999999999E-2</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C31" s="95">
         <v>3.5521374999999994E-2</v>
       </c>
-      <c r="D31" s="92">
+      <c r="D31" s="88">
         <v>0.1312325</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="95">
         <v>8.0052500000000002E-3</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="88">
         <v>0.62775775</v>
       </c>
-      <c r="G31" s="99">
+      <c r="G31" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H31" s="92">
+      <c r="H31" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I31" s="99">
+      <c r="I31" s="95">
         <v>9.0632875000000002E-2</v>
       </c>
-      <c r="J31" s="90"/>
-      <c r="L31" s="103" t="s">
+      <c r="J31" s="86"/>
+      <c r="L31" s="99" t="s">
         <v>170</v>
       </c>
       <c r="M31" s="10">
@@ -13458,41 +13536,41 @@
         <f t="array" ref="AB31:AB46">M25*AE5:AE20+M26*AZ5:AZ20+M27*BU5:BU20</f>
         <v>3.7457142857142862E-2</v>
       </c>
-      <c r="AC31" s="105">
+      <c r="AC31" s="101">
         <f t="array" ref="AC31:AC46">M25*AG5:AG20+M26*BB5:BB20+M27*BW5:BW20</f>
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
     <row r="32" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="92">
+      <c r="B32" s="88">
         <v>7.678299999999999E-2</v>
       </c>
-      <c r="C32" s="99">
+      <c r="C32" s="95">
         <v>3.5521374999999994E-2</v>
       </c>
-      <c r="D32" s="92">
+      <c r="D32" s="88">
         <v>0.1312325</v>
       </c>
-      <c r="E32" s="99">
+      <c r="E32" s="95">
         <v>8.0052500000000002E-3</v>
       </c>
-      <c r="F32" s="92">
+      <c r="F32" s="88">
         <v>0.62775775</v>
       </c>
-      <c r="G32" s="99">
+      <c r="G32" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H32" s="92">
+      <c r="H32" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I32" s="99">
+      <c r="I32" s="95">
         <v>9.0632875000000002E-2</v>
       </c>
-      <c r="J32" s="90"/>
-      <c r="L32" s="104" t="s">
+      <c r="J32" s="86"/>
+      <c r="L32" s="100" t="s">
         <v>171</v>
       </c>
       <c r="M32" s="10">
@@ -13543,40 +13621,40 @@
       <c r="AB32" s="10">
         <v>3.7457142857142862E-2</v>
       </c>
-      <c r="AC32" s="105">
+      <c r="AC32" s="101">
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="92">
+      <c r="B33" s="88">
         <v>7.678299999999999E-2</v>
       </c>
-      <c r="C33" s="99">
+      <c r="C33" s="95">
         <v>3.5521374999999994E-2</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="88">
         <v>0.1312325</v>
       </c>
-      <c r="E33" s="99">
+      <c r="E33" s="95">
         <v>8.0052500000000002E-3</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="88">
         <v>0.62775775</v>
       </c>
-      <c r="G33" s="99">
+      <c r="G33" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H33" s="92">
+      <c r="H33" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I33" s="99">
+      <c r="I33" s="95">
         <v>9.0632875000000002E-2</v>
       </c>
-      <c r="J33" s="90"/>
-      <c r="L33" s="104" t="s">
+      <c r="J33" s="86"/>
+      <c r="L33" s="100" t="s">
         <v>166</v>
       </c>
       <c r="M33" s="10">
@@ -13627,40 +13705,40 @@
       <c r="AB33" s="10">
         <v>3.7457142857142862E-2</v>
       </c>
-      <c r="AC33" s="105">
+      <c r="AC33" s="101">
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="92">
+      <c r="B34" s="88">
         <v>7.678299999999999E-2</v>
       </c>
-      <c r="C34" s="99">
+      <c r="C34" s="95">
         <v>3.5521374999999994E-2</v>
       </c>
-      <c r="D34" s="92">
+      <c r="D34" s="88">
         <v>0.1312325</v>
       </c>
-      <c r="E34" s="99">
+      <c r="E34" s="95">
         <v>8.0052500000000002E-3</v>
       </c>
-      <c r="F34" s="92">
+      <c r="F34" s="88">
         <v>0.62775775</v>
       </c>
-      <c r="G34" s="99">
+      <c r="G34" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H34" s="92">
+      <c r="H34" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I34" s="99">
+      <c r="I34" s="95">
         <v>9.0632875000000002E-2</v>
       </c>
-      <c r="J34" s="90"/>
-      <c r="L34" s="103" t="s">
+      <c r="J34" s="86"/>
+      <c r="L34" s="99" t="s">
         <v>105</v>
       </c>
       <c r="M34" s="10">
@@ -13711,40 +13789,40 @@
       <c r="AB34" s="10">
         <v>3.7457142857142862E-2</v>
       </c>
-      <c r="AC34" s="105">
+      <c r="AC34" s="101">
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="92">
+      <c r="B35" s="88">
         <v>5.6984E-2</v>
       </c>
-      <c r="C35" s="99">
+      <c r="C35" s="95">
         <v>4.4296500000000003E-2</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="88">
         <v>0.17620050000000001</v>
       </c>
-      <c r="E35" s="99">
+      <c r="E35" s="95">
         <v>1.8433249999999998E-2</v>
       </c>
-      <c r="F35" s="92">
+      <c r="F35" s="88">
         <v>0.40971574999999999</v>
       </c>
-      <c r="G35" s="99">
+      <c r="G35" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H35" s="92">
+      <c r="H35" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I35" s="99">
+      <c r="I35" s="95">
         <v>3.3547999999999994E-2</v>
       </c>
-      <c r="J35" s="90"/>
-      <c r="L35" s="103" t="s">
+      <c r="J35" s="86"/>
+      <c r="L35" s="99" t="s">
         <v>106</v>
       </c>
       <c r="M35" s="10">
@@ -13795,40 +13873,40 @@
       <c r="AB35" s="10">
         <v>3.7457142857142862E-2</v>
       </c>
-      <c r="AC35" s="105">
+      <c r="AC35" s="101">
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="92">
+      <c r="B36" s="88">
         <v>5.6984E-2</v>
       </c>
-      <c r="C36" s="99">
+      <c r="C36" s="95">
         <v>4.4296500000000003E-2</v>
       </c>
-      <c r="D36" s="92">
+      <c r="D36" s="88">
         <v>0.17620050000000001</v>
       </c>
-      <c r="E36" s="99">
+      <c r="E36" s="95">
         <v>1.8433249999999998E-2</v>
       </c>
-      <c r="F36" s="92">
+      <c r="F36" s="88">
         <v>0.40971574999999999</v>
       </c>
-      <c r="G36" s="99">
+      <c r="G36" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H36" s="92">
+      <c r="H36" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I36" s="99">
+      <c r="I36" s="95">
         <v>3.3547999999999994E-2</v>
       </c>
-      <c r="J36" s="90"/>
-      <c r="L36" s="103" t="s">
+      <c r="J36" s="86"/>
+      <c r="L36" s="99" t="s">
         <v>167</v>
       </c>
       <c r="M36" s="10">
@@ -13879,40 +13957,40 @@
       <c r="AB36" s="10">
         <v>3.182385714285714E-2</v>
       </c>
-      <c r="AC36" s="105">
+      <c r="AC36" s="101">
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="92">
+      <c r="B37" s="88">
         <v>5.6984E-2</v>
       </c>
-      <c r="C37" s="99">
+      <c r="C37" s="95">
         <v>4.4296500000000003E-2</v>
       </c>
-      <c r="D37" s="92">
+      <c r="D37" s="88">
         <v>0.17620050000000001</v>
       </c>
-      <c r="E37" s="99">
+      <c r="E37" s="95">
         <v>1.8433249999999998E-2</v>
       </c>
-      <c r="F37" s="92">
+      <c r="F37" s="88">
         <v>0.40971574999999999</v>
       </c>
-      <c r="G37" s="99">
+      <c r="G37" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H37" s="92">
+      <c r="H37" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I37" s="99">
+      <c r="I37" s="95">
         <v>3.3547999999999994E-2</v>
       </c>
-      <c r="J37" s="90"/>
-      <c r="L37" s="103" t="s">
+      <c r="J37" s="86"/>
+      <c r="L37" s="99" t="s">
         <v>3</v>
       </c>
       <c r="M37" s="10">
@@ -13963,40 +14041,40 @@
       <c r="AB37" s="10">
         <v>3.182385714285714E-2</v>
       </c>
-      <c r="AC37" s="105">
+      <c r="AC37" s="101">
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="92">
+      <c r="B38" s="88">
         <v>5.6984E-2</v>
       </c>
-      <c r="C38" s="99">
+      <c r="C38" s="95">
         <v>4.4296500000000003E-2</v>
       </c>
-      <c r="D38" s="92">
+      <c r="D38" s="88">
         <v>0.17620050000000001</v>
       </c>
-      <c r="E38" s="99">
+      <c r="E38" s="95">
         <v>1.8433249999999998E-2</v>
       </c>
-      <c r="F38" s="92">
+      <c r="F38" s="88">
         <v>0.40971574999999999</v>
       </c>
-      <c r="G38" s="99">
+      <c r="G38" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H38" s="92">
+      <c r="H38" s="88">
         <v>0.460841</v>
       </c>
-      <c r="I38" s="99">
+      <c r="I38" s="95">
         <v>3.3547999999999994E-2</v>
       </c>
-      <c r="J38" s="90"/>
-      <c r="L38" s="103" t="s">
+      <c r="J38" s="86"/>
+      <c r="L38" s="99" t="s">
         <v>4</v>
       </c>
       <c r="M38" s="10">
@@ -14047,40 +14125,40 @@
       <c r="AB38" s="10">
         <v>3.182385714285714E-2</v>
       </c>
-      <c r="AC38" s="105">
+      <c r="AC38" s="101">
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="92">
+      <c r="B39" s="88">
         <v>5.6984E-2</v>
       </c>
-      <c r="C39" s="99">
+      <c r="C39" s="95">
         <v>4.4296500000000003E-2</v>
       </c>
-      <c r="D39" s="92">
+      <c r="D39" s="88">
         <v>0.20378033333333334</v>
       </c>
-      <c r="E39" s="99">
+      <c r="E39" s="95">
         <v>2.1746999999999999E-2</v>
       </c>
-      <c r="F39" s="92">
+      <c r="F39" s="88">
         <v>0.36699399999999999</v>
       </c>
-      <c r="G39" s="99">
+      <c r="G39" s="95">
         <v>0.1615095</v>
       </c>
-      <c r="H39" s="92">
+      <c r="H39" s="88">
         <v>0.46084099999999995</v>
       </c>
-      <c r="I39" s="99">
+      <c r="I39" s="95">
         <v>1.7070999999999999E-2</v>
       </c>
-      <c r="J39" s="90"/>
-      <c r="L39" s="103" t="s">
+      <c r="J39" s="86"/>
+      <c r="L39" s="99" t="s">
         <v>5</v>
       </c>
       <c r="M39" s="10">
@@ -14131,40 +14209,40 @@
       <c r="AB39" s="10">
         <v>3.182385714285714E-2</v>
       </c>
-      <c r="AC39" s="105">
+      <c r="AC39" s="101">
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="98">
+      <c r="B40" s="94">
         <v>5.6984E-2</v>
       </c>
-      <c r="C40" s="100">
+      <c r="C40" s="96">
         <v>4.4296500000000003E-2</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D40" s="94">
         <v>0.20378033333333334</v>
       </c>
-      <c r="E40" s="100">
+      <c r="E40" s="96">
         <v>2.1746999999999999E-2</v>
       </c>
-      <c r="F40" s="98">
+      <c r="F40" s="94">
         <v>0.36699399999999999</v>
       </c>
-      <c r="G40" s="100">
+      <c r="G40" s="96">
         <v>0.1615095</v>
       </c>
-      <c r="H40" s="98">
+      <c r="H40" s="94">
         <v>0.46084099999999995</v>
       </c>
-      <c r="I40" s="100">
+      <c r="I40" s="96">
         <v>1.7070999999999999E-2</v>
       </c>
-      <c r="J40" s="90"/>
-      <c r="L40" s="103" t="s">
+      <c r="J40" s="86"/>
+      <c r="L40" s="99" t="s">
         <v>6</v>
       </c>
       <c r="M40" s="10">
@@ -14215,13 +14293,13 @@
       <c r="AB40" s="10">
         <v>3.182385714285714E-2</v>
       </c>
-      <c r="AC40" s="105">
+      <c r="AC40" s="101">
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J41" s="90"/>
-      <c r="L41" s="103" t="s">
+      <c r="J41" s="86"/>
+      <c r="L41" s="99" t="s">
         <v>107</v>
       </c>
       <c r="M41" s="10">
@@ -14272,13 +14350,13 @@
       <c r="AB41" s="10">
         <v>9.3192142857142866E-3</v>
       </c>
-      <c r="AC41" s="105">
+      <c r="AC41" s="101">
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J42" s="90"/>
-      <c r="L42" s="103" t="s">
+      <c r="J42" s="86"/>
+      <c r="L42" s="99" t="s">
         <v>108</v>
       </c>
       <c r="M42" s="10">
@@ -14329,24 +14407,24 @@
       <c r="AB42" s="10">
         <v>9.3192142857142866E-3</v>
       </c>
-      <c r="AC42" s="105">
+      <c r="AC42" s="101">
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="L43" s="103" t="s">
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="L43" s="99" t="s">
         <v>118</v>
       </c>
       <c r="M43" s="10">
@@ -14397,40 +14475,40 @@
       <c r="AB43" s="10">
         <v>9.3192142857142866E-3</v>
       </c>
-      <c r="AC43" s="105">
+      <c r="AC43" s="101">
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="101" t="s">
+      <c r="D44" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="E44" s="94" t="s">
+      <c r="E44" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="F44" s="101" t="s">
+      <c r="F44" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="G44" s="94" t="s">
+      <c r="G44" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="101" t="s">
+      <c r="H44" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="I44" s="94" t="s">
+      <c r="I44" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="J44" s="90"/>
-      <c r="L44" s="103" t="s">
+      <c r="J44" s="86"/>
+      <c r="L44" s="99" t="s">
         <v>119</v>
       </c>
       <c r="M44" s="10">
@@ -14481,48 +14559,48 @@
       <c r="AB44" s="10">
         <v>9.3192142857142866E-3</v>
       </c>
-      <c r="AC44" s="105">
+      <c r="AC44" s="101">
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="92">
+      <c r="B45" s="88">
         <f t="array" ref="B45:B60">0.8*B25:B40</f>
         <v>0.1174108</v>
       </c>
-      <c r="C45" s="99">
+      <c r="C45" s="95">
         <f t="array" ref="C45:C60">0.8*C25:C40</f>
         <v>2.4406800000000003E-2</v>
       </c>
-      <c r="D45" s="92">
+      <c r="D45" s="88">
         <f t="array" ref="D45:D60">0.8*D25:D40</f>
         <v>6.3116000000000005E-2</v>
       </c>
-      <c r="E45" s="99">
+      <c r="E45" s="95">
         <f t="array" ref="E45:E60">0.8*E25:E40</f>
         <v>6.0426666666666665E-4</v>
       </c>
-      <c r="F45" s="92">
+      <c r="F45" s="88">
         <f t="array" ref="F45:F60">0.8*F25:F40</f>
         <v>0.629104</v>
       </c>
-      <c r="G45" s="99">
+      <c r="G45" s="95">
         <f t="array" ref="G45:G60">0.8*G25:G40</f>
         <v>0.12920760000000001</v>
       </c>
-      <c r="H45" s="92">
+      <c r="H45" s="88">
         <f t="array" ref="H45:H60">0.8*H25:H40</f>
         <v>0.36867279999999997</v>
       </c>
-      <c r="I45" s="99">
+      <c r="I45" s="95">
         <f t="array" ref="I45:I60">0.8*I25:I40</f>
         <v>9.6531600000000009E-2</v>
       </c>
-      <c r="J45" s="90"/>
-      <c r="L45" s="103" t="s">
+      <c r="J45" s="86"/>
+      <c r="L45" s="99" t="s">
         <v>168</v>
       </c>
       <c r="M45" s="10">
@@ -14573,268 +14651,268 @@
       <c r="AB45" s="10">
         <v>4.9669047619047627E-3</v>
       </c>
-      <c r="AC45" s="105">
+      <c r="AC45" s="101">
         <v>3.8157761904761903E-2</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="92">
+      <c r="B46" s="88">
         <v>0.1174108</v>
       </c>
-      <c r="C46" s="99">
+      <c r="C46" s="95">
         <v>2.4406800000000003E-2</v>
       </c>
-      <c r="D46" s="92">
+      <c r="D46" s="88">
         <v>6.3116000000000005E-2</v>
       </c>
-      <c r="E46" s="99">
+      <c r="E46" s="95">
         <v>6.0426666666666665E-4</v>
       </c>
-      <c r="F46" s="92">
+      <c r="F46" s="88">
         <v>0.629104</v>
       </c>
-      <c r="G46" s="99">
+      <c r="G46" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H46" s="92">
+      <c r="H46" s="88">
         <v>0.36867279999999997</v>
       </c>
-      <c r="I46" s="99">
+      <c r="I46" s="95">
         <v>9.6531600000000009E-2</v>
       </c>
-      <c r="J46" s="90"/>
-      <c r="L46" s="103" t="s">
+      <c r="J46" s="86"/>
+      <c r="L46" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="M46" s="106">
+      <c r="M46" s="102">
         <v>0.23315357142857146</v>
       </c>
-      <c r="N46" s="106">
+      <c r="N46" s="102">
         <v>9.2900999999999997E-2</v>
       </c>
-      <c r="O46" s="106">
+      <c r="O46" s="102">
         <v>6.7118571428571435E-3</v>
       </c>
-      <c r="P46" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="106">
+      <c r="P46" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="102">
         <v>0.17677857142857142</v>
       </c>
-      <c r="R46" s="106">
+      <c r="R46" s="102">
         <v>6.6624285714285719E-2</v>
       </c>
-      <c r="S46" s="106">
+      <c r="S46" s="102">
         <v>5.3369857142857142E-2</v>
       </c>
-      <c r="T46" s="106">
+      <c r="T46" s="102">
         <v>4.4217285714285723E-2</v>
       </c>
-      <c r="U46" s="106">
+      <c r="U46" s="102">
         <v>0.24541728571428573</v>
       </c>
-      <c r="V46" s="106">
+      <c r="V46" s="102">
         <v>2.6168428571428575E-2</v>
       </c>
-      <c r="W46" s="106">
+      <c r="W46" s="102">
         <v>9.1912428571428589E-2</v>
       </c>
-      <c r="X46" s="106">
+      <c r="X46" s="102">
         <v>0.32461285714285715</v>
       </c>
-      <c r="Y46" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="106">
+      <c r="Y46" s="102">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="102">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="102">
         <v>7.4527142857142865E-3</v>
       </c>
-      <c r="AB46" s="106">
+      <c r="AB46" s="102">
         <v>4.9669047619047627E-3</v>
       </c>
-      <c r="AC46" s="107">
+      <c r="AC46" s="103">
         <v>3.8157761904761903E-2</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="92">
+      <c r="B47" s="88">
         <v>0.1174108</v>
       </c>
-      <c r="C47" s="99">
+      <c r="C47" s="95">
         <v>2.4406800000000003E-2</v>
       </c>
-      <c r="D47" s="92">
+      <c r="D47" s="88">
         <v>6.3116000000000005E-2</v>
       </c>
-      <c r="E47" s="99">
+      <c r="E47" s="95">
         <v>6.0426666666666665E-4</v>
       </c>
-      <c r="F47" s="92">
+      <c r="F47" s="88">
         <v>0.629104</v>
       </c>
-      <c r="G47" s="99">
+      <c r="G47" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H47" s="92">
+      <c r="H47" s="88">
         <v>0.36867279999999997</v>
       </c>
-      <c r="I47" s="99">
+      <c r="I47" s="95">
         <v>9.6531600000000009E-2</v>
       </c>
-      <c r="J47" s="90"/>
+      <c r="J47" s="86"/>
     </row>
     <row r="48" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="95" t="s">
+      <c r="A48" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="92">
+      <c r="B48" s="88">
         <v>0.1174108</v>
       </c>
-      <c r="C48" s="99">
+      <c r="C48" s="95">
         <v>2.4406800000000003E-2</v>
       </c>
-      <c r="D48" s="92">
+      <c r="D48" s="88">
         <v>6.3116000000000005E-2</v>
       </c>
-      <c r="E48" s="99">
+      <c r="E48" s="95">
         <v>6.0426666666666665E-4</v>
       </c>
-      <c r="F48" s="92">
+      <c r="F48" s="88">
         <v>0.629104</v>
       </c>
-      <c r="G48" s="99">
+      <c r="G48" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H48" s="92">
+      <c r="H48" s="88">
         <v>0.36867279999999997</v>
       </c>
-      <c r="I48" s="99">
+      <c r="I48" s="95">
         <v>9.6531600000000009E-2</v>
       </c>
-      <c r="J48" s="90"/>
+      <c r="J48" s="86"/>
     </row>
     <row r="49" spans="1:29" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="92">
+      <c r="B49" s="88">
         <v>0.1174108</v>
       </c>
-      <c r="C49" s="99">
+      <c r="C49" s="95">
         <v>2.4406800000000003E-2</v>
       </c>
-      <c r="D49" s="92">
+      <c r="D49" s="88">
         <v>6.3116000000000005E-2</v>
       </c>
-      <c r="E49" s="99">
+      <c r="E49" s="95">
         <v>6.0426666666666665E-4</v>
       </c>
-      <c r="F49" s="92">
+      <c r="F49" s="88">
         <v>0.629104</v>
       </c>
-      <c r="G49" s="99">
+      <c r="G49" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H49" s="92">
+      <c r="H49" s="88">
         <v>0.36867279999999997</v>
       </c>
-      <c r="I49" s="99">
+      <c r="I49" s="95">
         <v>9.6531600000000009E-2</v>
       </c>
-      <c r="J49" s="90"/>
-      <c r="L49" s="108" t="s">
+      <c r="J49" s="86"/>
+      <c r="L49" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="M49" s="108" t="s">
+      <c r="M49" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="N49" s="108" t="s">
+      <c r="N49" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="O49" s="108" t="s">
+      <c r="O49" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="P49" s="108" t="s">
+      <c r="P49" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="Q49" s="108" t="s">
+      <c r="Q49" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="R49" s="108" t="s">
+      <c r="R49" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="S49" s="108" t="s">
+      <c r="S49" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="T49" s="108" t="s">
+      <c r="T49" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="U49" s="108" t="s">
+      <c r="U49" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="V49" s="108" t="s">
+      <c r="V49" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="W49" s="108" t="s">
+      <c r="W49" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="X49" s="108" t="s">
+      <c r="X49" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="Y49" s="108" t="s">
+      <c r="Y49" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="Z49" s="108" t="s">
+      <c r="Z49" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="AA49" s="108" t="s">
+      <c r="AA49" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="AB49" s="108" t="s">
+      <c r="AB49" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="AC49" s="94" t="s">
+      <c r="AC49" s="90" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="92">
+      <c r="B50" s="88">
         <v>6.1426399999999992E-2</v>
       </c>
-      <c r="C50" s="99">
+      <c r="C50" s="95">
         <v>2.8417099999999997E-2</v>
       </c>
-      <c r="D50" s="92">
+      <c r="D50" s="88">
         <v>0.10498600000000001</v>
       </c>
-      <c r="E50" s="99">
+      <c r="E50" s="95">
         <v>6.4042000000000005E-3</v>
       </c>
-      <c r="F50" s="92">
+      <c r="F50" s="88">
         <v>0.50220620000000005</v>
       </c>
-      <c r="G50" s="99">
+      <c r="G50" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H50" s="92">
+      <c r="H50" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I50" s="99">
+      <c r="I50" s="95">
         <v>7.250630000000001E-2</v>
       </c>
-      <c r="J50" s="90"/>
-      <c r="L50" s="103" t="s">
+      <c r="J50" s="86"/>
+      <c r="L50" s="99" t="s">
         <v>170</v>
       </c>
       <c r="M50" s="27">
@@ -14846,7 +14924,7 @@
       <c r="O50" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P50" s="110">
+      <c r="P50" s="106">
         <f t="array" ref="P50:P65">AH26*AL6:AL21+AH27*BG6:BG21+AH28*CB6:CB21</f>
         <v>0</v>
       </c>
@@ -14874,11 +14952,11 @@
       <c r="X50" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y50" s="110">
+      <c r="Y50" s="106">
         <f t="array" ref="Y50:Y65">AH26*AW6:AW21+AH27*BR6:BR21+AH28*CM6:CM21</f>
         <v>0</v>
       </c>
-      <c r="Z50" s="110">
+      <c r="Z50" s="106">
         <f t="array" ref="Z50:Z65">AH26*AW6:AW21+AH27*BS6:BS21+AH28*CN6:CN21</f>
         <v>0</v>
       </c>
@@ -14893,35 +14971,35 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="92">
+      <c r="B51" s="88">
         <v>6.1426399999999992E-2</v>
       </c>
-      <c r="C51" s="99">
+      <c r="C51" s="95">
         <v>2.8417099999999997E-2</v>
       </c>
-      <c r="D51" s="92">
+      <c r="D51" s="88">
         <v>0.10498600000000001</v>
       </c>
-      <c r="E51" s="99">
+      <c r="E51" s="95">
         <v>6.4042000000000005E-3</v>
       </c>
-      <c r="F51" s="92">
+      <c r="F51" s="88">
         <v>0.50220620000000005</v>
       </c>
-      <c r="G51" s="99">
+      <c r="G51" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H51" s="92">
+      <c r="H51" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I51" s="99">
+      <c r="I51" s="95">
         <v>7.250630000000001E-2</v>
       </c>
-      <c r="J51" s="90"/>
-      <c r="L51" s="104" t="s">
+      <c r="J51" s="86"/>
+      <c r="L51" s="100" t="s">
         <v>171</v>
       </c>
       <c r="M51" s="27">
@@ -14933,7 +15011,7 @@
       <c r="O51" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P51" s="110">
+      <c r="P51" s="106">
         <v>0</v>
       </c>
       <c r="Q51" s="27">
@@ -14960,10 +15038,10 @@
       <c r="X51" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y51" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="110">
+      <c r="Y51" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="106">
         <v>0</v>
       </c>
       <c r="AA51" s="27">
@@ -14977,35 +15055,35 @@
       </c>
     </row>
     <row r="52" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="95" t="s">
+      <c r="A52" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="92">
+      <c r="B52" s="88">
         <v>6.1426399999999992E-2</v>
       </c>
-      <c r="C52" s="99">
+      <c r="C52" s="95">
         <v>2.8417099999999997E-2</v>
       </c>
-      <c r="D52" s="92">
+      <c r="D52" s="88">
         <v>0.10498600000000001</v>
       </c>
-      <c r="E52" s="99">
+      <c r="E52" s="95">
         <v>6.4042000000000005E-3</v>
       </c>
-      <c r="F52" s="92">
+      <c r="F52" s="88">
         <v>0.50220620000000005</v>
       </c>
-      <c r="G52" s="99">
+      <c r="G52" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H52" s="92">
+      <c r="H52" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I52" s="99">
+      <c r="I52" s="95">
         <v>7.250630000000001E-2</v>
       </c>
-      <c r="J52" s="90"/>
-      <c r="L52" s="104" t="s">
+      <c r="J52" s="86"/>
+      <c r="L52" s="100" t="s">
         <v>166</v>
       </c>
       <c r="M52" s="27">
@@ -15017,7 +15095,7 @@
       <c r="O52" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P52" s="110">
+      <c r="P52" s="106">
         <v>0</v>
       </c>
       <c r="Q52" s="27">
@@ -15044,10 +15122,10 @@
       <c r="X52" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y52" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="110">
+      <c r="Y52" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="106">
         <v>0</v>
       </c>
       <c r="AA52" s="27">
@@ -15061,35 +15139,35 @@
       </c>
     </row>
     <row r="53" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="92">
+      <c r="B53" s="88">
         <v>6.1426399999999992E-2</v>
       </c>
-      <c r="C53" s="99">
+      <c r="C53" s="95">
         <v>2.8417099999999997E-2</v>
       </c>
-      <c r="D53" s="92">
+      <c r="D53" s="88">
         <v>0.10498600000000001</v>
       </c>
-      <c r="E53" s="99">
+      <c r="E53" s="95">
         <v>6.4042000000000005E-3</v>
       </c>
-      <c r="F53" s="92">
+      <c r="F53" s="88">
         <v>0.50220620000000005</v>
       </c>
-      <c r="G53" s="99">
+      <c r="G53" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H53" s="92">
+      <c r="H53" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I53" s="99">
+      <c r="I53" s="95">
         <v>7.250630000000001E-2</v>
       </c>
-      <c r="J53" s="90"/>
-      <c r="L53" s="103" t="s">
+      <c r="J53" s="86"/>
+      <c r="L53" s="99" t="s">
         <v>105</v>
       </c>
       <c r="M53" s="27">
@@ -15101,7 +15179,7 @@
       <c r="O53" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P53" s="110">
+      <c r="P53" s="106">
         <v>0</v>
       </c>
       <c r="Q53" s="27">
@@ -15128,10 +15206,10 @@
       <c r="X53" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y53" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="110">
+      <c r="Y53" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="106">
         <v>0</v>
       </c>
       <c r="AA53" s="27">
@@ -15145,35 +15223,35 @@
       </c>
     </row>
     <row r="54" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="92">
+      <c r="B54" s="88">
         <v>6.1426399999999992E-2</v>
       </c>
-      <c r="C54" s="99">
+      <c r="C54" s="95">
         <v>2.8417099999999997E-2</v>
       </c>
-      <c r="D54" s="92">
+      <c r="D54" s="88">
         <v>0.10498600000000001</v>
       </c>
-      <c r="E54" s="99">
+      <c r="E54" s="95">
         <v>6.4042000000000005E-3</v>
       </c>
-      <c r="F54" s="92">
+      <c r="F54" s="88">
         <v>0.50220620000000005</v>
       </c>
-      <c r="G54" s="99">
+      <c r="G54" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H54" s="92">
+      <c r="H54" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I54" s="99">
+      <c r="I54" s="95">
         <v>7.250630000000001E-2</v>
       </c>
-      <c r="J54" s="90"/>
-      <c r="L54" s="103" t="s">
+      <c r="J54" s="86"/>
+      <c r="L54" s="99" t="s">
         <v>106</v>
       </c>
       <c r="M54" s="27">
@@ -15185,7 +15263,7 @@
       <c r="O54" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P54" s="110">
+      <c r="P54" s="106">
         <v>0</v>
       </c>
       <c r="Q54" s="27">
@@ -15212,10 +15290,10 @@
       <c r="X54" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y54" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="110">
+      <c r="Y54" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="106">
         <v>0</v>
       </c>
       <c r="AA54" s="27">
@@ -15229,35 +15307,35 @@
       </c>
     </row>
     <row r="55" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="95" t="s">
+      <c r="A55" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="92">
+      <c r="B55" s="88">
         <v>4.5587200000000001E-2</v>
       </c>
-      <c r="C55" s="99">
+      <c r="C55" s="95">
         <v>3.5437200000000002E-2</v>
       </c>
-      <c r="D55" s="92">
+      <c r="D55" s="88">
         <v>0.14096040000000001</v>
       </c>
-      <c r="E55" s="99">
+      <c r="E55" s="95">
         <v>1.4746599999999999E-2</v>
       </c>
-      <c r="F55" s="92">
+      <c r="F55" s="88">
         <v>0.32777260000000003</v>
       </c>
-      <c r="G55" s="99">
+      <c r="G55" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H55" s="92">
+      <c r="H55" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I55" s="99">
+      <c r="I55" s="95">
         <v>2.6838399999999998E-2</v>
       </c>
-      <c r="J55" s="90"/>
-      <c r="L55" s="103" t="s">
+      <c r="J55" s="86"/>
+      <c r="L55" s="99" t="s">
         <v>167</v>
       </c>
       <c r="M55" s="27">
@@ -15269,7 +15347,7 @@
       <c r="O55" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P55" s="110">
+      <c r="P55" s="106">
         <v>0</v>
       </c>
       <c r="Q55" s="27">
@@ -15296,10 +15374,10 @@
       <c r="X55" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y55" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="110">
+      <c r="Y55" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="106">
         <v>0</v>
       </c>
       <c r="AA55" s="27">
@@ -15313,35 +15391,35 @@
       </c>
     </row>
     <row r="56" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="95" t="s">
+      <c r="A56" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="92">
+      <c r="B56" s="88">
         <v>4.5587200000000001E-2</v>
       </c>
-      <c r="C56" s="99">
+      <c r="C56" s="95">
         <v>3.5437200000000002E-2</v>
       </c>
-      <c r="D56" s="92">
+      <c r="D56" s="88">
         <v>0.14096040000000001</v>
       </c>
-      <c r="E56" s="99">
+      <c r="E56" s="95">
         <v>1.4746599999999999E-2</v>
       </c>
-      <c r="F56" s="92">
+      <c r="F56" s="88">
         <v>0.32777260000000003</v>
       </c>
-      <c r="G56" s="99">
+      <c r="G56" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H56" s="92">
+      <c r="H56" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I56" s="99">
+      <c r="I56" s="95">
         <v>2.6838399999999998E-2</v>
       </c>
-      <c r="J56" s="90"/>
-      <c r="L56" s="103" t="s">
+      <c r="J56" s="86"/>
+      <c r="L56" s="99" t="s">
         <v>3</v>
       </c>
       <c r="M56" s="27">
@@ -15353,7 +15431,7 @@
       <c r="O56" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P56" s="110">
+      <c r="P56" s="106">
         <v>0</v>
       </c>
       <c r="Q56" s="27">
@@ -15380,10 +15458,10 @@
       <c r="X56" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y56" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="110">
+      <c r="Y56" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="106">
         <v>0</v>
       </c>
       <c r="AA56" s="27">
@@ -15397,35 +15475,35 @@
       </c>
     </row>
     <row r="57" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="95" t="s">
+      <c r="A57" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="92">
+      <c r="B57" s="88">
         <v>4.5587200000000001E-2</v>
       </c>
-      <c r="C57" s="99">
+      <c r="C57" s="95">
         <v>3.5437200000000002E-2</v>
       </c>
-      <c r="D57" s="92">
+      <c r="D57" s="88">
         <v>0.14096040000000001</v>
       </c>
-      <c r="E57" s="99">
+      <c r="E57" s="95">
         <v>1.4746599999999999E-2</v>
       </c>
-      <c r="F57" s="92">
+      <c r="F57" s="88">
         <v>0.32777260000000003</v>
       </c>
-      <c r="G57" s="99">
+      <c r="G57" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H57" s="92">
+      <c r="H57" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I57" s="99">
+      <c r="I57" s="95">
         <v>2.6838399999999998E-2</v>
       </c>
-      <c r="J57" s="90"/>
-      <c r="L57" s="103" t="s">
+      <c r="J57" s="86"/>
+      <c r="L57" s="99" t="s">
         <v>4</v>
       </c>
       <c r="M57" s="27">
@@ -15437,7 +15515,7 @@
       <c r="O57" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P57" s="110">
+      <c r="P57" s="106">
         <v>0</v>
       </c>
       <c r="Q57" s="27">
@@ -15464,10 +15542,10 @@
       <c r="X57" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y57" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="110">
+      <c r="Y57" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="106">
         <v>0</v>
       </c>
       <c r="AA57" s="27">
@@ -15481,35 +15559,35 @@
       </c>
     </row>
     <row r="58" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="92">
+      <c r="B58" s="88">
         <v>4.5587200000000001E-2</v>
       </c>
-      <c r="C58" s="99">
+      <c r="C58" s="95">
         <v>3.5437200000000002E-2</v>
       </c>
-      <c r="D58" s="92">
+      <c r="D58" s="88">
         <v>0.14096040000000001</v>
       </c>
-      <c r="E58" s="99">
+      <c r="E58" s="95">
         <v>1.4746599999999999E-2</v>
       </c>
-      <c r="F58" s="92">
+      <c r="F58" s="88">
         <v>0.32777260000000003</v>
       </c>
-      <c r="G58" s="99">
+      <c r="G58" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H58" s="92">
+      <c r="H58" s="88">
         <v>0.36867280000000002</v>
       </c>
-      <c r="I58" s="99">
+      <c r="I58" s="95">
         <v>2.6838399999999998E-2</v>
       </c>
-      <c r="J58" s="90"/>
-      <c r="L58" s="103" t="s">
+      <c r="J58" s="86"/>
+      <c r="L58" s="99" t="s">
         <v>5</v>
       </c>
       <c r="M58" s="27">
@@ -15521,7 +15599,7 @@
       <c r="O58" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P58" s="110">
+      <c r="P58" s="106">
         <v>0</v>
       </c>
       <c r="Q58" s="27">
@@ -15548,10 +15626,10 @@
       <c r="X58" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y58" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="110">
+      <c r="Y58" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="106">
         <v>0</v>
       </c>
       <c r="AA58" s="27">
@@ -15565,35 +15643,35 @@
       </c>
     </row>
     <row r="59" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="92">
+      <c r="B59" s="88">
         <v>4.5587200000000001E-2</v>
       </c>
-      <c r="C59" s="99">
+      <c r="C59" s="95">
         <v>3.5437200000000002E-2</v>
       </c>
-      <c r="D59" s="92">
+      <c r="D59" s="88">
         <v>0.1630242666666667</v>
       </c>
-      <c r="E59" s="99">
+      <c r="E59" s="95">
         <v>1.7397599999999999E-2</v>
       </c>
-      <c r="F59" s="92">
+      <c r="F59" s="88">
         <v>0.2935952</v>
       </c>
-      <c r="G59" s="99">
+      <c r="G59" s="95">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H59" s="92">
+      <c r="H59" s="88">
         <v>0.36867279999999997</v>
       </c>
-      <c r="I59" s="99">
+      <c r="I59" s="95">
         <v>1.36568E-2</v>
       </c>
-      <c r="J59" s="90"/>
-      <c r="L59" s="103" t="s">
+      <c r="J59" s="86"/>
+      <c r="L59" s="99" t="s">
         <v>6</v>
       </c>
       <c r="M59" s="27">
@@ -15605,7 +15683,7 @@
       <c r="O59" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P59" s="110">
+      <c r="P59" s="106">
         <v>0</v>
       </c>
       <c r="Q59" s="27">
@@ -15632,10 +15710,10 @@
       <c r="X59" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y59" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="110">
+      <c r="Y59" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="106">
         <v>0</v>
       </c>
       <c r="AA59" s="27">
@@ -15649,35 +15727,35 @@
       </c>
     </row>
     <row r="60" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="B60" s="98">
+      <c r="B60" s="94">
         <v>4.5587200000000001E-2</v>
       </c>
-      <c r="C60" s="100">
+      <c r="C60" s="96">
         <v>3.5437200000000002E-2</v>
       </c>
-      <c r="D60" s="98">
+      <c r="D60" s="94">
         <v>0.1630242666666667</v>
       </c>
-      <c r="E60" s="100">
+      <c r="E60" s="96">
         <v>1.7397599999999999E-2</v>
       </c>
-      <c r="F60" s="98">
+      <c r="F60" s="94">
         <v>0.2935952</v>
       </c>
-      <c r="G60" s="100">
+      <c r="G60" s="96">
         <v>0.12920760000000001</v>
       </c>
-      <c r="H60" s="98">
+      <c r="H60" s="94">
         <v>0.36867279999999997</v>
       </c>
-      <c r="I60" s="100">
+      <c r="I60" s="96">
         <v>1.36568E-2</v>
       </c>
-      <c r="J60" s="90"/>
-      <c r="L60" s="103" t="s">
+      <c r="J60" s="86"/>
+      <c r="L60" s="99" t="s">
         <v>107</v>
       </c>
       <c r="M60" s="27">
@@ -15689,7 +15767,7 @@
       <c r="O60" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P60" s="110">
+      <c r="P60" s="106">
         <v>0</v>
       </c>
       <c r="Q60" s="27">
@@ -15716,10 +15794,10 @@
       <c r="X60" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y60" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="110">
+      <c r="Y60" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="106">
         <v>0</v>
       </c>
       <c r="AA60" s="27">
@@ -15733,8 +15811,8 @@
       </c>
     </row>
     <row r="61" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J61" s="90"/>
-      <c r="L61" s="103" t="s">
+      <c r="J61" s="86"/>
+      <c r="L61" s="99" t="s">
         <v>108</v>
       </c>
       <c r="M61" s="27">
@@ -15746,7 +15824,7 @@
       <c r="O61" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P61" s="110">
+      <c r="P61" s="106">
         <v>0</v>
       </c>
       <c r="Q61" s="27">
@@ -15773,10 +15851,10 @@
       <c r="X61" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y61" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="110">
+      <c r="Y61" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="106">
         <v>0</v>
       </c>
       <c r="AA61" s="27">
@@ -15790,8 +15868,8 @@
       </c>
     </row>
     <row r="62" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J62" s="90"/>
-      <c r="L62" s="103" t="s">
+      <c r="J62" s="86"/>
+      <c r="L62" s="99" t="s">
         <v>118</v>
       </c>
       <c r="M62" s="27">
@@ -15803,7 +15881,7 @@
       <c r="O62" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P62" s="110">
+      <c r="P62" s="106">
         <v>0</v>
       </c>
       <c r="Q62" s="27">
@@ -15830,10 +15908,10 @@
       <c r="X62" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y62" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="110">
+      <c r="Y62" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="106">
         <v>0</v>
       </c>
       <c r="AA62" s="27">
@@ -15847,8 +15925,8 @@
       </c>
     </row>
     <row r="63" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J63" s="90"/>
-      <c r="L63" s="103" t="s">
+      <c r="J63" s="86"/>
+      <c r="L63" s="99" t="s">
         <v>119</v>
       </c>
       <c r="M63" s="27">
@@ -15860,7 +15938,7 @@
       <c r="O63" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P63" s="110">
+      <c r="P63" s="106">
         <v>0</v>
       </c>
       <c r="Q63" s="27">
@@ -15887,10 +15965,10 @@
       <c r="X63" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y63" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="110">
+      <c r="Y63" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="106">
         <v>0</v>
       </c>
       <c r="AA63" s="27">
@@ -15904,8 +15982,8 @@
       </c>
     </row>
     <row r="64" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J64" s="90"/>
-      <c r="L64" s="103" t="s">
+      <c r="J64" s="86"/>
+      <c r="L64" s="99" t="s">
         <v>168</v>
       </c>
       <c r="M64" s="27">
@@ -15917,7 +15995,7 @@
       <c r="O64" s="27">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="P64" s="110">
+      <c r="P64" s="106">
         <v>0</v>
       </c>
       <c r="Q64" s="27">
@@ -15944,10 +16022,10 @@
       <c r="X64" s="27">
         <v>0.20378033333333334</v>
       </c>
-      <c r="Y64" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="110">
+      <c r="Y64" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="106">
         <v>0</v>
       </c>
       <c r="AA64" s="27">
@@ -15961,8 +16039,8 @@
       </c>
     </row>
     <row r="65" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J65" s="90"/>
-      <c r="L65" s="103" t="s">
+      <c r="J65" s="86"/>
+      <c r="L65" s="99" t="s">
         <v>169</v>
       </c>
       <c r="M65" s="27">
@@ -15974,7 +16052,7 @@
       <c r="O65" s="27">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="P65" s="110">
+      <c r="P65" s="106">
         <v>0</v>
       </c>
       <c r="Q65" s="27">
@@ -16001,10 +16079,10 @@
       <c r="X65" s="27">
         <v>0.20378033333333334</v>
       </c>
-      <c r="Y65" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="110">
+      <c r="Y65" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="106">
         <v>0</v>
       </c>
       <c r="AA65" s="27">
@@ -16018,33 +16096,33 @@
       </c>
     </row>
     <row r="66" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J66" s="90"/>
+      <c r="J66" s="86"/>
     </row>
     <row r="67" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J67" s="90"/>
+      <c r="J67" s="86"/>
     </row>
     <row r="68" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J68" s="90"/>
+      <c r="J68" s="86"/>
     </row>
     <row r="69" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J69" s="90"/>
+      <c r="J69" s="86"/>
     </row>
     <row r="70" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J70" s="90"/>
+      <c r="J70" s="86"/>
     </row>
     <row r="71" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="114" t="s">
+      <c r="A71" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="88"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="92"/>
+      <c r="J71" s="88"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
@@ -16070,128 +16148,128 @@
       <c r="AG71" s="11"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="111"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="86"/>
     </row>
     <row r="73" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="113">
+      <c r="B73" s="108">
         <f>0.6</f>
         <v>0.6</v>
       </c>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
     </row>
     <row r="74" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="112" t="s">
+      <c r="A74" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="113">
+      <c r="B74" s="108">
         <f>0.55</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
     </row>
     <row r="75" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="113">
+      <c r="B75" s="108">
         <f>0.45</f>
         <v>0.45</v>
       </c>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
     </row>
     <row r="76" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="112" t="s">
+      <c r="A76" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="113">
+      <c r="B76" s="108">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="90"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
     </row>
     <row r="77" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="90"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
+      <c r="A77" s="86"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
     </row>
     <row r="78" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="90"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
+      <c r="A78" s="86"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="86"/>
     </row>
     <row r="79" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="90"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="I79" s="86"/>
+      <c r="J79" s="86"/>
     </row>
     <row r="80" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="90"/>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="86"/>
+      <c r="J80" s="86"/>
     </row>
     <row r="81" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="90"/>
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
+      <c r="A81" s="86"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="86"/>
     </row>
     <row r="82" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="92"/>
-      <c r="G82" s="92"/>
-      <c r="H82" s="92"/>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="88"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="88"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
@@ -16215,18 +16293,18 @@
       <c r="AE82" s="11"/>
     </row>
     <row r="83" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="115" t="s">
+      <c r="A83" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="92"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
@@ -16254,144 +16332,144 @@
         <v>115</v>
       </c>
       <c r="B84" s="116"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="90"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="90"/>
-      <c r="H84" s="90"/>
-      <c r="I84" s="90"/>
-      <c r="J84" s="90"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="86"/>
     </row>
     <row r="85" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="96">
+      <c r="B85" s="92">
         <v>1</v>
       </c>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="90"/>
-      <c r="H85" s="90"/>
-      <c r="I85" s="90"/>
-      <c r="J85" s="90"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="86"/>
     </row>
     <row r="86" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="95" t="s">
+      <c r="A86" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="96">
+      <c r="B86" s="92">
         <v>1.8</v>
       </c>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="90"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="86"/>
+      <c r="I86" s="86"/>
+      <c r="J86" s="86"/>
     </row>
     <row r="87" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="95" t="s">
+      <c r="A87" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="96">
+      <c r="B87" s="92">
         <v>2.6</v>
       </c>
-      <c r="C87" s="90"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="90"/>
-      <c r="H87" s="90"/>
-      <c r="I87" s="90"/>
-      <c r="J87" s="90"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="86"/>
+      <c r="I87" s="86"/>
+      <c r="J87" s="86"/>
     </row>
     <row r="88" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="95" t="s">
+      <c r="A88" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="96">
+      <c r="B88" s="92">
         <v>5.5</v>
       </c>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="86"/>
+      <c r="I88" s="86"/>
+      <c r="J88" s="86"/>
     </row>
     <row r="89" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="90"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
+      <c r="A89" s="86"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="86"/>
+      <c r="I89" s="86"/>
+      <c r="J89" s="86"/>
     </row>
     <row r="90" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="90"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="90"/>
-      <c r="I90" s="90"/>
-      <c r="J90" s="90"/>
+      <c r="A90" s="86"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="86"/>
+      <c r="F90" s="86"/>
+      <c r="G90" s="86"/>
+      <c r="H90" s="86"/>
+      <c r="I90" s="86"/>
+      <c r="J90" s="86"/>
     </row>
     <row r="91" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="90"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="86"/>
+      <c r="J91" s="86"/>
     </row>
     <row r="92" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E92" s="90"/>
-      <c r="F92" s="90"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="90"/>
-      <c r="I92" s="90"/>
-      <c r="J92" s="90"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="86"/>
+      <c r="J92" s="86"/>
     </row>
     <row r="93" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="90"/>
-      <c r="H93" s="90"/>
-      <c r="I93" s="90"/>
-      <c r="J93" s="90"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="86"/>
+      <c r="I93" s="86"/>
+      <c r="J93" s="86"/>
     </row>
     <row r="94" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="109" t="s">
         <v>233</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="92"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
@@ -16415,18 +16493,18 @@
       <c r="AE94" s="11"/>
     </row>
     <row r="95" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="115" t="s">
+      <c r="A95" s="110" t="s">
         <v>234</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="92"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
@@ -16450,218 +16528,218 @@
       <c r="AE95" s="11"/>
     </row>
     <row r="96" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="95" t="s">
+      <c r="A96" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="95"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="90"/>
-      <c r="H96" s="90"/>
-      <c r="I96" s="90"/>
-      <c r="J96" s="90"/>
+      <c r="B96" s="91"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
+      <c r="H96" s="86"/>
+      <c r="I96" s="86"/>
+      <c r="J96" s="86"/>
     </row>
     <row r="97" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="95" t="s">
+      <c r="A97" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B97" s="96">
+      <c r="B97" s="92">
         <v>1</v>
       </c>
-      <c r="C97" s="90"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="90"/>
-      <c r="G97" s="90"/>
-      <c r="H97" s="90"/>
-      <c r="I97" s="90"/>
-      <c r="J97" s="90"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="86"/>
+      <c r="H97" s="86"/>
+      <c r="I97" s="86"/>
+      <c r="J97" s="86"/>
     </row>
     <row r="98" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="95" t="s">
+      <c r="A98" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="96">
+      <c r="B98" s="92">
         <v>1.75</v>
       </c>
-      <c r="C98" s="90"/>
-      <c r="D98" s="90"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="90"/>
-      <c r="G98" s="90"/>
-      <c r="H98" s="90"/>
-      <c r="I98" s="90"/>
-      <c r="J98" s="90"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="86"/>
+      <c r="I98" s="86"/>
+      <c r="J98" s="86"/>
     </row>
     <row r="99" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="95" t="s">
+      <c r="A99" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="96">
+      <c r="B99" s="92">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C99" s="90"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="90"/>
-      <c r="J99" s="90"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="86"/>
+      <c r="F99" s="86"/>
+      <c r="G99" s="86"/>
+      <c r="H99" s="86"/>
+      <c r="I99" s="86"/>
+      <c r="J99" s="86"/>
     </row>
     <row r="100" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="95" t="s">
+      <c r="A100" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B100" s="96">
+      <c r="B100" s="92">
         <v>2.66</v>
       </c>
-      <c r="C100" s="90"/>
-      <c r="E100" s="90"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
-      <c r="H100" s="90"/>
-      <c r="I100" s="90"/>
-      <c r="J100" s="90"/>
+      <c r="C100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="86"/>
+      <c r="I100" s="86"/>
+      <c r="J100" s="86"/>
     </row>
     <row r="101" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="90"/>
-      <c r="H101" s="90"/>
-      <c r="I101" s="90"/>
-      <c r="J101" s="90"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="86"/>
+      <c r="H101" s="86"/>
+      <c r="I101" s="86"/>
+      <c r="J101" s="86"/>
     </row>
     <row r="102" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C102" s="90"/>
-      <c r="D102" s="90"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="90"/>
-      <c r="H102" s="90"/>
-      <c r="I102" s="90"/>
-      <c r="J102" s="90"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="86"/>
+      <c r="J102" s="86"/>
     </row>
     <row r="103" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C103" s="90"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="90"/>
-      <c r="H103" s="90"/>
-      <c r="I103" s="90"/>
-      <c r="J103" s="90"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="86"/>
+      <c r="J103" s="86"/>
     </row>
     <row r="104" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="90"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="90"/>
-      <c r="J104" s="90"/>
+      <c r="A104" s="86"/>
+      <c r="B104" s="86"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="86"/>
+      <c r="H104" s="86"/>
+      <c r="I104" s="86"/>
+      <c r="J104" s="86"/>
     </row>
     <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="90"/>
-      <c r="H105" s="90"/>
-      <c r="I105" s="90"/>
-      <c r="J105" s="90"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="86"/>
+      <c r="H105" s="86"/>
+      <c r="I105" s="86"/>
+      <c r="J105" s="86"/>
     </row>
     <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
+      <c r="C106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="86"/>
+      <c r="J106" s="86"/>
     </row>
     <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C107" s="90"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="90"/>
-      <c r="H107" s="90"/>
-      <c r="I107" s="90"/>
-      <c r="J107" s="90"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="86"/>
+      <c r="H107" s="86"/>
+      <c r="I107" s="86"/>
+      <c r="J107" s="86"/>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C108" s="90"/>
-      <c r="D108" s="90"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="90"/>
-      <c r="H108" s="90"/>
-      <c r="I108" s="90"/>
-      <c r="J108" s="90"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="86"/>
+      <c r="E108" s="86"/>
+      <c r="F108" s="86"/>
+      <c r="G108" s="86"/>
+      <c r="H108" s="86"/>
+      <c r="I108" s="86"/>
+      <c r="J108" s="86"/>
     </row>
     <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C109" s="90"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="90"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="90"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="86"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="86"/>
+      <c r="J109" s="86"/>
     </row>
     <row r="110" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="90"/>
-      <c r="B110" s="90"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="93"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="90"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="90"/>
+      <c r="A110" s="86"/>
+      <c r="B110" s="86"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="86"/>
+      <c r="F110" s="86"/>
+      <c r="G110" s="86"/>
+      <c r="H110" s="86"/>
+      <c r="I110" s="86"/>
+      <c r="J110" s="86"/>
     </row>
     <row r="111" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="90"/>
-      <c r="B111" s="90"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="90"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="90"/>
-      <c r="H111" s="90"/>
-      <c r="I111" s="90"/>
-      <c r="J111" s="90"/>
+      <c r="A111" s="86"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="86"/>
+      <c r="F111" s="86"/>
+      <c r="G111" s="86"/>
+      <c r="H111" s="86"/>
+      <c r="I111" s="86"/>
+      <c r="J111" s="86"/>
     </row>
     <row r="112" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="90"/>
-      <c r="B112" s="90"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="90"/>
-      <c r="E112" s="90"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="90"/>
-      <c r="H112" s="90"/>
-      <c r="I112" s="90"/>
-      <c r="J112" s="90"/>
+      <c r="A112" s="86"/>
+      <c r="B112" s="86"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="86"/>
+      <c r="E112" s="86"/>
+      <c r="F112" s="86"/>
+      <c r="G112" s="86"/>
+      <c r="H112" s="86"/>
+      <c r="I112" s="86"/>
+      <c r="J112" s="86"/>
     </row>
     <row r="113" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="90"/>
-      <c r="B113" s="90"/>
-      <c r="C113" s="90"/>
-      <c r="D113" s="90"/>
-      <c r="E113" s="90"/>
-      <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
-      <c r="H113" s="90"/>
-      <c r="I113" s="90"/>
-      <c r="J113" s="90"/>
+      <c r="A113" s="86"/>
+      <c r="B113" s="86"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="86"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="86"/>
+      <c r="I113" s="86"/>
+      <c r="J113" s="86"/>
     </row>
   </sheetData>
   <sortState ref="F107:H120">

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CISNET\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Screening and Treatment" sheetId="4" r:id="rId3"/>
     <sheet name="CIN Transition" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1625,6 +1625,10 @@
     <xf numFmtId="2" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1643,10 +1647,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1930,30 +1930,30 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="37"/>
-    <col min="9" max="9" width="27.08984375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="37"/>
+    <col min="9" max="9" width="27.140625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="20" max="20" width="15.54296875" customWidth="1"/>
-    <col min="21" max="22" width="49.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.54296875" customWidth="1"/>
-    <col min="25" max="25" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" customWidth="1"/>
+    <col min="21" max="22" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>207</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>206</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>67</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="W3" s="61"/>
       <c r="X3" s="61"/>
     </row>
-    <row r="4" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>71</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>68</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -2135,7 +2135,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -2163,7 +2163,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -2185,7 +2185,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -2214,7 +2214,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -2238,7 +2238,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -2262,7 +2262,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -2280,7 +2280,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -2298,7 +2298,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2309,7 +2309,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2320,7 +2320,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2332,7 +2332,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>208</v>
       </c>
@@ -2357,22 +2357,22 @@
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
     </row>
-    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="111" t="s">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="F18" s="111" t="s">
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="F18" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="2"/>
@@ -2380,7 +2380,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="45.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>20</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="52"/>
-      <c r="L19" s="117"/>
+      <c r="L19" s="111"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="2"/>
@@ -2414,7 +2414,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="F20" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="118">
+      <c r="G20" s="112">
         <v>1</v>
       </c>
       <c r="H20" s="56">
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="52"/>
-      <c r="L20" s="117"/>
+      <c r="L20" s="111"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="2"/>
@@ -2451,7 +2451,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>22</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>4.12</v>
       </c>
       <c r="J21" s="52"/>
-      <c r="K21" s="119"/>
+      <c r="K21" s="113"/>
       <c r="L21" s="52"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2489,7 +2489,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>72</v>
       </c>
@@ -2521,7 +2521,7 @@
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
     </row>
-    <row r="23" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>23</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -2567,12 +2567,12 @@
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="120"/>
+      <c r="K24" s="114"/>
       <c r="L24" s="52"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -2585,7 +2585,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -2595,7 +2595,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -2609,7 +2609,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -2623,7 +2623,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>208</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="T29" s="38"/>
       <c r="U29" s="38"/>
     </row>
-    <row r="30" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>79</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="T30" s="38"/>
       <c r="U30" s="38"/>
     </row>
-    <row r="31" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>80</v>
       </c>
@@ -2698,13 +2698,13 @@
       <c r="T31" s="38"/>
       <c r="U31" s="38"/>
     </row>
-    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="111" t="s">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2713,7 +2713,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>75</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>76</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>77</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>78</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -2810,7 +2810,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="50"/>
       <c r="C38" s="50"/>
@@ -2823,7 +2823,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -2836,7 +2836,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2845,7 +2845,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -2859,7 +2859,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>209</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="T42" s="38"/>
       <c r="U42" s="38"/>
     </row>
-    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>210</v>
       </c>
@@ -2909,14 +2909,14 @@
       <c r="T43" s="38"/>
       <c r="U43" s="38"/>
     </row>
-    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="114"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="118"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2925,7 +2925,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
       <c r="B45" s="59" t="s">
         <v>19</v>
@@ -2947,7 +2947,7 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
         <v>81</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
         <v>82</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
         <v>112</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>83</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -3058,7 +3058,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -3072,7 +3072,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K52" s="61"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3081,7 +3081,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3090,7 +3090,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3099,7 +3099,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3108,7 +3108,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3117,7 +3117,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3126,7 +3126,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -3140,7 +3140,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -3154,7 +3154,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -3185,21 +3185,21 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>211</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="V1" s="38"/>
       <c r="W1" s="38"/>
     </row>
-    <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>212</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="V2" s="38"/>
       <c r="W2" s="38"/>
     </row>
-    <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>213</v>
       </c>
@@ -3280,17 +3280,17 @@
       <c r="V3" s="38"/>
       <c r="W3" s="38"/>
     </row>
-    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="55" t="s">
         <v>192</v>
@@ -3304,7 +3304,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
     </row>
-    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
         <v>197</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
     </row>
-    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
         <v>198</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
     </row>
-    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>199</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
         <v>200</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
     </row>
-    <row r="10" spans="1:23" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>196</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
     </row>
-    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>21</v>
       </c>
@@ -3400,27 +3400,27 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
     </row>
-    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
     </row>
-    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
     </row>
-    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
     </row>
-    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
     </row>
-    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>214</v>
       </c>
@@ -3447,17 +3447,17 @@
       <c r="V17" s="38"/>
       <c r="W17" s="38"/>
     </row>
-    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="111" t="s">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
-    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" s="55" t="s">
         <v>192</v>
@@ -3471,7 +3471,7 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
     </row>
-    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>197</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
     </row>
-    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>198</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
         <v>199</v>
       </c>
@@ -3519,7 +3519,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
     </row>
-    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>200</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
-    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
         <v>196</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
     </row>
-    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
         <v>21</v>
       </c>
@@ -3567,17 +3567,17 @@
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
     </row>
-    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
     </row>
-    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -3589,7 +3589,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -3601,7 +3601,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -3613,7 +3613,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>215</v>
       </c>
@@ -3640,11 +3640,11 @@
       <c r="V31" s="38"/>
       <c r="W31" s="38"/>
     </row>
-    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="111" t="s">
+    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="111"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -3654,7 +3654,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
     </row>
-    <row r="33" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>16</v>
       </c>
@@ -3670,7 +3670,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
     </row>
-    <row r="34" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>17</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
     </row>
-    <row r="35" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -3698,7 +3698,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -3710,7 +3710,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
     </row>
-    <row r="37" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -3722,7 +3722,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
     </row>
-    <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -3734,7 +3734,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
     </row>
-    <row r="39" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -3746,7 +3746,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>217</v>
       </c>
@@ -3773,11 +3773,11 @@
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
     </row>
-    <row r="41" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="111" t="s">
+    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -3787,7 +3787,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
     </row>
-    <row r="42" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
         <v>10</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
     </row>
-    <row r="43" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
         <v>13</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
     </row>
-    <row r="44" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
         <v>14</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -3847,7 +3847,7 @@
       <c r="I45" s="39"/>
       <c r="J45" s="39"/>
     </row>
-    <row r="46" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -3859,7 +3859,7 @@
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
     </row>
-    <row r="47" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -3871,7 +3871,7 @@
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
     </row>
-    <row r="48" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -3883,7 +3883,7 @@
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -3895,7 +3895,7 @@
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
     </row>
-    <row r="51" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>216</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="V51" s="38"/>
       <c r="W51" s="38"/>
     </row>
-    <row r="52" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">
         <v>9</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="V52" s="38"/>
       <c r="W52" s="38"/>
     </row>
-    <row r="53" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
         <v>7</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="F53" s="39"/>
     </row>
-    <row r="54" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="69">
         <v>1</v>
       </c>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="F54" s="39"/>
     </row>
-    <row r="55" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="69" t="s">
         <v>11</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="F55" s="39"/>
     </row>
-    <row r="56" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="69" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="F56" s="39"/>
     </row>
-    <row r="57" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="69" t="s">
         <v>12</v>
       </c>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="F57" s="39"/>
     </row>
-    <row r="58" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="69" t="s">
         <v>12</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="F58" s="39"/>
     </row>
-    <row r="59" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="69" t="s">
         <v>12</v>
       </c>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="F59" s="39"/>
     </row>
-    <row r="60" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="69" t="s">
         <v>12</v>
       </c>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="F60" s="39"/>
     </row>
-    <row r="61" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="69" t="s">
         <v>12</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="F61" s="39"/>
     </row>
-    <row r="62" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="69" t="s">
         <v>12</v>
       </c>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="F62" s="39"/>
     </row>
-    <row r="63" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="70" t="s">
         <v>122</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="F63" s="39"/>
     </row>
-    <row r="64" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -4165,7 +4165,7 @@
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
     </row>
-    <row r="65" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -4173,7 +4173,7 @@
       <c r="E65" s="39"/>
       <c r="F65" s="39"/>
     </row>
-    <row r="66" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -4181,7 +4181,7 @@
       <c r="E66" s="39"/>
       <c r="F66" s="39"/>
     </row>
-    <row r="67" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -4189,7 +4189,7 @@
       <c r="E67" s="39"/>
       <c r="F67" s="39"/>
     </row>
-    <row r="68" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -4197,7 +4197,7 @@
       <c r="E68" s="39"/>
       <c r="F68" s="39"/>
     </row>
-    <row r="69" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="45" t="s">
         <v>218</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="V69" s="38"/>
       <c r="W69" s="38"/>
     </row>
-    <row r="70" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="46" t="s">
         <v>213</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="V70" s="38"/>
       <c r="W70" s="38"/>
     </row>
-    <row r="71" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
         <v>39</v>
       </c>
@@ -4278,13 +4278,13 @@
       <c r="V71" s="38"/>
       <c r="W71" s="38"/>
     </row>
-    <row r="72" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
-      <c r="B72" s="111" t="s">
+      <c r="B72" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="111"/>
-      <c r="D72" s="111"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="39" t="s">
@@ -4294,7 +4294,7 @@
       <c r="I72" s="39"/>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>25</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="I73" s="39"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
         <v>26</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="I74" s="39"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
         <v>27</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="I75" s="39"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="56" t="s">
         <v>28</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="56" t="s">
         <v>29</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="I77" s="39"/>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -4422,7 +4422,7 @@
       <c r="I78" s="39"/>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -4438,7 +4438,7 @@
       <c r="I79" s="39"/>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -4455,7 +4455,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -4472,7 +4472,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="39"/>
     </row>
-    <row r="82" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -4484,7 +4484,7 @@
       <c r="I82" s="39"/>
       <c r="J82" s="39"/>
     </row>
-    <row r="83" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -4496,7 +4496,7 @@
       <c r="I83" s="39"/>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -4508,7 +4508,7 @@
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -4520,7 +4520,7 @@
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
     </row>
-    <row r="86" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -4532,7 +4532,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="39"/>
     </row>
-    <row r="87" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -4566,28 +4566,28 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.1796875" customWidth="1"/>
-    <col min="20" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" customWidth="1"/>
+    <col min="20" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
     <col min="26" max="26" width="32" customWidth="1"/>
-    <col min="27" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.453125" customWidth="1"/>
+    <col min="27" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>219</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="Q1" s="38"/>
       <c r="R1" s="38"/>
     </row>
-    <row r="2" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>48</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
     </row>
-    <row r="3" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>40</v>
       </c>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>41</v>
       </c>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>42</v>
       </c>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>43</v>
       </c>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>44</v>
       </c>
@@ -4706,14 +4706,14 @@
       </c>
       <c r="E7" s="39"/>
     </row>
-    <row r="8" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -4737,7 +4737,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -4761,7 +4761,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -4785,7 +4785,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -4810,7 +4810,7 @@
       <c r="W12" s="2"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>220</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="V13" s="75"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="55" t="s">
         <v>54</v>
@@ -4892,7 +4892,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>49</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
         <v>50</v>
       </c>
@@ -4960,7 +4960,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
         <v>51</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
         <v>52</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
         <v>53</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -5064,7 +5064,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -5083,7 +5083,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -5103,7 +5103,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -5122,7 +5122,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -5141,7 +5141,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>221</v>
       </c>
@@ -5169,7 +5169,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>59</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:27" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>60</v>
       </c>
@@ -5218,7 +5218,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>0.16</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="X29" s="9"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -5259,7 +5259,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -5278,7 +5278,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -5297,7 +5297,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -5316,7 +5316,7 @@
       <c r="W33" s="6"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -5335,7 +5335,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="80" t="s">
         <v>223</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="83" t="s">
         <v>65</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
       <c r="B37" s="55" t="s">
         <v>64</v>
@@ -5412,7 +5412,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
         <v>49</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
         <v>63</v>
       </c>
@@ -5457,7 +5457,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="78" t="s">
         <v>62</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
     </row>
-    <row r="41" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -5489,7 +5489,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
     </row>
-    <row r="42" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -5501,7 +5501,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
     </row>
-    <row r="43" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -5513,7 +5513,7 @@
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
     </row>
-    <row r="44" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -5525,7 +5525,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -5537,7 +5537,7 @@
       <c r="I45" s="39"/>
       <c r="J45" s="39"/>
     </row>
-    <row r="46" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>222</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="38"/>
     </row>
-    <row r="47" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
         <v>120</v>
       </c>
@@ -5579,7 +5579,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
     </row>
-    <row r="48" spans="1:24" ht="31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="84" t="s">
         <v>121</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -5607,7 +5607,7 @@
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
     </row>
-    <row r="50" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -5619,7 +5619,7 @@
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
     </row>
-    <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -5631,7 +5631,7 @@
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
     </row>
-    <row r="52" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -5643,7 +5643,7 @@
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
     </row>
-    <row r="53" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -5655,7 +5655,7 @@
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>225</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="38"/>
     </row>
-    <row r="55" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
       <c r="B55" s="55" t="s">
         <v>0</v>
@@ -5690,7 +5690,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
     </row>
-    <row r="56" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
         <v>66</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
     </row>
-    <row r="57" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>224</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
     </row>
-    <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -5734,7 +5734,7 @@
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
     </row>
-    <row r="59" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -5746,7 +5746,7 @@
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
     </row>
-    <row r="60" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -5758,7 +5758,7 @@
       <c r="I60" s="39"/>
       <c r="J60" s="39"/>
     </row>
-    <row r="61" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -5770,7 +5770,7 @@
       <c r="I61" s="39"/>
       <c r="J61" s="39"/>
     </row>
-    <row r="62" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -5782,7 +5782,7 @@
       <c r="I62" s="39"/>
       <c r="J62" s="39"/>
     </row>
-    <row r="63" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -5794,7 +5794,7 @@
       <c r="I63" s="39"/>
       <c r="J63" s="39"/>
     </row>
-    <row r="64" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -5806,7 +5806,7 @@
       <c r="I64" s="39"/>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -5818,7 +5818,7 @@
       <c r="I65" s="39"/>
       <c r="J65" s="39"/>
     </row>
-    <row r="66" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -5830,7 +5830,7 @@
       <c r="I66" s="39"/>
       <c r="J66" s="39"/>
     </row>
-    <row r="67" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -5842,7 +5842,7 @@
       <c r="I67" s="39"/>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -5854,7 +5854,7 @@
       <c r="I68" s="39"/>
       <c r="J68" s="39"/>
     </row>
-    <row r="69" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -5866,7 +5866,7 @@
       <c r="I69" s="39"/>
       <c r="J69" s="39"/>
     </row>
-    <row r="70" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -5878,7 +5878,7 @@
       <c r="I70" s="39"/>
       <c r="J70" s="39"/>
     </row>
-    <row r="71" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -5890,7 +5890,7 @@
       <c r="I71" s="39"/>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -5902,7 +5902,7 @@
       <c r="I72" s="39"/>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -5914,7 +5914,7 @@
       <c r="I73" s="39"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -5926,7 +5926,7 @@
       <c r="I74" s="39"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -5938,7 +5938,7 @@
       <c r="I75" s="39"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -5950,7 +5950,7 @@
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -5962,7 +5962,7 @@
       <c r="I77" s="39"/>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -5974,7 +5974,7 @@
       <c r="I78" s="39"/>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -5986,7 +5986,7 @@
       <c r="I79" s="39"/>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -5998,7 +5998,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -6010,7 +6010,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="39"/>
     </row>
-    <row r="82" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -6022,7 +6022,7 @@
       <c r="I82" s="39"/>
       <c r="J82" s="39"/>
     </row>
-    <row r="83" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -6034,7 +6034,7 @@
       <c r="I83" s="39"/>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -6046,7 +6046,7 @@
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -6058,7 +6058,7 @@
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
     </row>
-    <row r="86" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -6070,7 +6070,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="39"/>
     </row>
-    <row r="87" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -6082,7 +6082,7 @@
       <c r="I87" s="39"/>
       <c r="J87" s="39"/>
     </row>
-    <row r="88" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -6094,7 +6094,7 @@
       <c r="I88" s="39"/>
       <c r="J88" s="39"/>
     </row>
-    <row r="89" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -6106,7 +6106,7 @@
       <c r="I89" s="39"/>
       <c r="J89" s="39"/>
     </row>
-    <row r="90" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -6118,7 +6118,7 @@
       <c r="I90" s="39"/>
       <c r="J90" s="39"/>
     </row>
-    <row r="91" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -6130,7 +6130,7 @@
       <c r="I91" s="39"/>
       <c r="J91" s="39"/>
     </row>
-    <row r="92" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -6142,7 +6142,7 @@
       <c r="I92" s="39"/>
       <c r="J92" s="39"/>
     </row>
-    <row r="93" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -6154,7 +6154,7 @@
       <c r="I93" s="39"/>
       <c r="J93" s="39"/>
     </row>
-    <row r="94" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -6166,7 +6166,7 @@
       <c r="I94" s="39"/>
       <c r="J94" s="39"/>
     </row>
-    <row r="95" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -6178,7 +6178,7 @@
       <c r="I95" s="39"/>
       <c r="J95" s="39"/>
     </row>
-    <row r="96" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -6190,7 +6190,7 @@
       <c r="I96" s="39"/>
       <c r="J96" s="39"/>
     </row>
-    <row r="97" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -6202,7 +6202,7 @@
       <c r="I97" s="39"/>
       <c r="J97" s="39"/>
     </row>
-    <row r="98" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -6214,7 +6214,7 @@
       <c r="I98" s="39"/>
       <c r="J98" s="39"/>
     </row>
-    <row r="99" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -6226,7 +6226,7 @@
       <c r="I99" s="39"/>
       <c r="J99" s="39"/>
     </row>
-    <row r="100" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -6238,7 +6238,7 @@
       <c r="I100" s="39"/>
       <c r="J100" s="39"/>
     </row>
-    <row r="101" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -6250,7 +6250,7 @@
       <c r="I101" s="39"/>
       <c r="J101" s="39"/>
     </row>
-    <row r="102" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -6262,7 +6262,7 @@
       <c r="I102" s="39"/>
       <c r="J102" s="39"/>
     </row>
-    <row r="103" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
@@ -6274,7 +6274,7 @@
       <c r="I103" s="39"/>
       <c r="J103" s="39"/>
     </row>
-    <row r="104" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
@@ -6286,7 +6286,7 @@
       <c r="I104" s="39"/>
       <c r="J104" s="39"/>
     </row>
-    <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="39"/>
       <c r="C105" s="39"/>
@@ -6298,7 +6298,7 @@
       <c r="I105" s="39"/>
       <c r="J105" s="39"/>
     </row>
-    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="39"/>
       <c r="C106" s="39"/>
@@ -6310,7 +6310,7 @@
       <c r="I106" s="39"/>
       <c r="J106" s="39"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
@@ -6322,7 +6322,7 @@
       <c r="I107" s="39"/>
       <c r="J107" s="39"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
@@ -6334,7 +6334,7 @@
       <c r="I108" s="39"/>
       <c r="J108" s="39"/>
     </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="39"/>
@@ -6346,7 +6346,7 @@
       <c r="I109" s="39"/>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
@@ -6358,7 +6358,7 @@
       <c r="I110" s="39"/>
       <c r="J110" s="39"/>
     </row>
-    <row r="111" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
@@ -6370,7 +6370,7 @@
       <c r="I111" s="39"/>
       <c r="J111" s="39"/>
     </row>
-    <row r="112" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
@@ -6382,7 +6382,7 @@
       <c r="I112" s="39"/>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
@@ -6394,7 +6394,7 @@
       <c r="I113" s="39"/>
       <c r="J113" s="39"/>
     </row>
-    <row r="114" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
@@ -6406,7 +6406,7 @@
       <c r="I114" s="39"/>
       <c r="J114" s="39"/>
     </row>
-    <row r="115" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
@@ -6418,7 +6418,7 @@
       <c r="I115" s="39"/>
       <c r="J115" s="39"/>
     </row>
-    <row r="116" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
@@ -6430,7 +6430,7 @@
       <c r="I116" s="39"/>
       <c r="J116" s="39"/>
     </row>
-    <row r="117" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
@@ -6442,7 +6442,7 @@
       <c r="I117" s="39"/>
       <c r="J117" s="39"/>
     </row>
-    <row r="118" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
@@ -6454,7 +6454,7 @@
       <c r="I118" s="39"/>
       <c r="J118" s="39"/>
     </row>
-    <row r="119" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
@@ -6466,7 +6466,7 @@
       <c r="I119" s="39"/>
       <c r="J119" s="39"/>
     </row>
-    <row r="120" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
@@ -6478,7 +6478,7 @@
       <c r="I120" s="39"/>
       <c r="J120" s="39"/>
     </row>
-    <row r="121" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
@@ -6490,7 +6490,7 @@
       <c r="I121" s="39"/>
       <c r="J121" s="39"/>
     </row>
-    <row r="122" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="39"/>
       <c r="C122" s="39"/>
@@ -6502,7 +6502,7 @@
       <c r="I122" s="39"/>
       <c r="J122" s="39"/>
     </row>
-    <row r="123" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
@@ -6514,7 +6514,7 @@
       <c r="I123" s="39"/>
       <c r="J123" s="39"/>
     </row>
-    <row r="124" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
@@ -6526,7 +6526,7 @@
       <c r="I124" s="39"/>
       <c r="J124" s="39"/>
     </row>
-    <row r="125" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="39"/>
       <c r="C125" s="39"/>
@@ -6538,7 +6538,7 @@
       <c r="I125" s="39"/>
       <c r="J125" s="39"/>
     </row>
-    <row r="126" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
@@ -6550,7 +6550,7 @@
       <c r="I126" s="39"/>
       <c r="J126" s="39"/>
     </row>
-    <row r="127" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
@@ -6562,7 +6562,7 @@
       <c r="I127" s="39"/>
       <c r="J127" s="39"/>
     </row>
-    <row r="128" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
       <c r="B128" s="39"/>
       <c r="C128" s="39"/>
@@ -6574,7 +6574,7 @@
       <c r="I128" s="39"/>
       <c r="J128" s="39"/>
     </row>
-    <row r="129" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
@@ -6586,7 +6586,7 @@
       <c r="I129" s="39"/>
       <c r="J129" s="39"/>
     </row>
-    <row r="130" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
@@ -6598,7 +6598,7 @@
       <c r="I130" s="39"/>
       <c r="J130" s="39"/>
     </row>
-    <row r="131" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
       <c r="B131" s="39"/>
       <c r="C131" s="39"/>
@@ -6610,7 +6610,7 @@
       <c r="I131" s="39"/>
       <c r="J131" s="39"/>
     </row>
-    <row r="132" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="39"/>
       <c r="C132" s="39"/>
@@ -6622,7 +6622,7 @@
       <c r="I132" s="39"/>
       <c r="J132" s="39"/>
     </row>
-    <row r="133" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="39"/>
       <c r="C133" s="39"/>
@@ -6634,7 +6634,7 @@
       <c r="I133" s="39"/>
       <c r="J133" s="39"/>
     </row>
-    <row r="134" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="39"/>
       <c r="C134" s="39"/>
@@ -6646,7 +6646,7 @@
       <c r="I134" s="39"/>
       <c r="J134" s="39"/>
     </row>
-    <row r="135" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
@@ -6658,7 +6658,7 @@
       <c r="I135" s="39"/>
       <c r="J135" s="39"/>
     </row>
-    <row r="136" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="39"/>
       <c r="C136" s="39"/>
@@ -6670,7 +6670,7 @@
       <c r="I136" s="39"/>
       <c r="J136" s="39"/>
     </row>
-    <row r="137" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="39"/>
       <c r="C137" s="39"/>
@@ -6682,7 +6682,7 @@
       <c r="I137" s="39"/>
       <c r="J137" s="39"/>
     </row>
-    <row r="138" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="39"/>
       <c r="C138" s="39"/>
@@ -6694,7 +6694,7 @@
       <c r="I138" s="39"/>
       <c r="J138" s="39"/>
     </row>
-    <row r="139" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
       <c r="B139" s="39"/>
       <c r="C139" s="39"/>
@@ -6706,7 +6706,7 @@
       <c r="I139" s="39"/>
       <c r="J139" s="39"/>
     </row>
-    <row r="140" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="39"/>
       <c r="C140" s="39"/>
@@ -6718,7 +6718,7 @@
       <c r="I140" s="39"/>
       <c r="J140" s="39"/>
     </row>
-    <row r="141" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="39"/>
       <c r="C141" s="39"/>
@@ -6730,7 +6730,7 @@
       <c r="I141" s="39"/>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
       <c r="B142" s="39"/>
       <c r="C142" s="39"/>
@@ -6742,7 +6742,7 @@
       <c r="I142" s="39"/>
       <c r="J142" s="39"/>
     </row>
-    <row r="143" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="39"/>
       <c r="B143" s="39"/>
       <c r="C143" s="39"/>
@@ -6754,7 +6754,7 @@
       <c r="I143" s="39"/>
       <c r="J143" s="39"/>
     </row>
-    <row r="144" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="39"/>
       <c r="C144" s="39"/>
@@ -6766,7 +6766,7 @@
       <c r="I144" s="39"/>
       <c r="J144" s="39"/>
     </row>
-    <row r="145" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="39"/>
       <c r="B145" s="39"/>
       <c r="C145" s="39"/>
@@ -6778,7 +6778,7 @@
       <c r="I145" s="39"/>
       <c r="J145" s="39"/>
     </row>
-    <row r="146" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="39"/>
       <c r="B146" s="39"/>
       <c r="C146" s="39"/>
@@ -6790,7 +6790,7 @@
       <c r="I146" s="39"/>
       <c r="J146" s="39"/>
     </row>
-    <row r="147" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="39"/>
       <c r="B147" s="39"/>
       <c r="C147" s="39"/>
@@ -6802,7 +6802,7 @@
       <c r="I147" s="39"/>
       <c r="J147" s="39"/>
     </row>
-    <row r="148" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="39"/>
       <c r="B148" s="39"/>
       <c r="C148" s="39"/>
@@ -6814,7 +6814,7 @@
       <c r="I148" s="39"/>
       <c r="J148" s="39"/>
     </row>
-    <row r="149" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
       <c r="B149" s="39"/>
       <c r="C149" s="39"/>
@@ -6826,7 +6826,7 @@
       <c r="I149" s="39"/>
       <c r="J149" s="39"/>
     </row>
-    <row r="150" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="39"/>
       <c r="B150" s="39"/>
       <c r="C150" s="39"/>
@@ -6838,7 +6838,7 @@
       <c r="I150" s="39"/>
       <c r="J150" s="39"/>
     </row>
-    <row r="151" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
       <c r="B151" s="39"/>
       <c r="C151" s="39"/>
@@ -6850,7 +6850,7 @@
       <c r="I151" s="39"/>
       <c r="J151" s="39"/>
     </row>
-    <row r="152" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="39"/>
       <c r="B152" s="39"/>
       <c r="C152" s="39"/>
@@ -6862,7 +6862,7 @@
       <c r="I152" s="39"/>
       <c r="J152" s="39"/>
     </row>
-    <row r="153" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
       <c r="B153" s="39"/>
       <c r="C153" s="39"/>
@@ -6874,7 +6874,7 @@
       <c r="I153" s="39"/>
       <c r="J153" s="39"/>
     </row>
-    <row r="154" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
       <c r="B154" s="39"/>
       <c r="C154" s="39"/>
@@ -6886,7 +6886,7 @@
       <c r="I154" s="39"/>
       <c r="J154" s="39"/>
     </row>
-    <row r="155" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
       <c r="B155" s="39"/>
       <c r="C155" s="39"/>
@@ -6898,7 +6898,7 @@
       <c r="I155" s="39"/>
       <c r="J155" s="39"/>
     </row>
-    <row r="156" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
       <c r="B156" s="39"/>
       <c r="C156" s="39"/>
@@ -6910,7 +6910,7 @@
       <c r="I156" s="39"/>
       <c r="J156" s="39"/>
     </row>
-    <row r="157" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="39"/>
       <c r="B157" s="39"/>
       <c r="C157" s="39"/>
@@ -6922,7 +6922,7 @@
       <c r="I157" s="39"/>
       <c r="J157" s="39"/>
     </row>
-    <row r="158" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="39"/>
       <c r="B158" s="39"/>
       <c r="C158" s="39"/>
@@ -6934,7 +6934,7 @@
       <c r="I158" s="39"/>
       <c r="J158" s="39"/>
     </row>
-    <row r="159" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="39"/>
       <c r="C159" s="39"/>
@@ -6946,7 +6946,7 @@
       <c r="I159" s="39"/>
       <c r="J159" s="39"/>
     </row>
-    <row r="160" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="39"/>
       <c r="B160" s="39"/>
       <c r="C160" s="39"/>
@@ -6958,7 +6958,7 @@
       <c r="I160" s="39"/>
       <c r="J160" s="39"/>
     </row>
-    <row r="161" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="39"/>
       <c r="B161" s="39"/>
       <c r="C161" s="39"/>
@@ -6970,7 +6970,7 @@
       <c r="I161" s="39"/>
       <c r="J161" s="39"/>
     </row>
-    <row r="162" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
       <c r="B162" s="39"/>
       <c r="C162" s="39"/>
@@ -6982,7 +6982,7 @@
       <c r="I162" s="39"/>
       <c r="J162" s="39"/>
     </row>
-    <row r="163" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="39"/>
       <c r="B163" s="39"/>
       <c r="C163" s="39"/>
@@ -6994,7 +6994,7 @@
       <c r="I163" s="39"/>
       <c r="J163" s="39"/>
     </row>
-    <row r="164" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="39"/>
       <c r="B164" s="39"/>
       <c r="C164" s="39"/>
@@ -7006,7 +7006,7 @@
       <c r="I164" s="39"/>
       <c r="J164" s="39"/>
     </row>
-    <row r="165" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="39"/>
       <c r="B165" s="39"/>
       <c r="C165" s="39"/>
@@ -7018,7 +7018,7 @@
       <c r="I165" s="39"/>
       <c r="J165" s="39"/>
     </row>
-    <row r="166" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="39"/>
       <c r="B166" s="39"/>
       <c r="C166" s="39"/>
@@ -7030,7 +7030,7 @@
       <c r="I166" s="39"/>
       <c r="J166" s="39"/>
     </row>
-    <row r="167" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="B167" s="39"/>
       <c r="C167" s="39"/>
@@ -7042,7 +7042,7 @@
       <c r="I167" s="39"/>
       <c r="J167" s="39"/>
     </row>
-    <row r="168" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
       <c r="B168" s="39"/>
       <c r="C168" s="39"/>
@@ -7054,7 +7054,7 @@
       <c r="I168" s="39"/>
       <c r="J168" s="39"/>
     </row>
-    <row r="169" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
       <c r="B169" s="39"/>
       <c r="C169" s="39"/>
@@ -7066,7 +7066,7 @@
       <c r="I169" s="39"/>
       <c r="J169" s="39"/>
     </row>
-    <row r="170" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="39"/>
       <c r="B170" s="39"/>
       <c r="C170" s="39"/>
@@ -7078,7 +7078,7 @@
       <c r="I170" s="39"/>
       <c r="J170" s="39"/>
     </row>
-    <row r="171" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="39"/>
       <c r="B171" s="39"/>
       <c r="C171" s="39"/>
@@ -7090,7 +7090,7 @@
       <c r="I171" s="39"/>
       <c r="J171" s="39"/>
     </row>
-    <row r="172" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="39"/>
       <c r="B172" s="39"/>
       <c r="C172" s="39"/>
@@ -7102,7 +7102,7 @@
       <c r="I172" s="39"/>
       <c r="J172" s="39"/>
     </row>
-    <row r="173" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="39"/>
       <c r="B173" s="39"/>
       <c r="C173" s="39"/>
@@ -7114,7 +7114,7 @@
       <c r="I173" s="39"/>
       <c r="J173" s="39"/>
     </row>
-    <row r="174" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="39"/>
       <c r="B174" s="39"/>
       <c r="C174" s="39"/>
@@ -7126,7 +7126,7 @@
       <c r="I174" s="39"/>
       <c r="J174" s="39"/>
     </row>
-    <row r="175" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="39"/>
       <c r="B175" s="39"/>
       <c r="C175" s="39"/>
@@ -7138,7 +7138,7 @@
       <c r="I175" s="39"/>
       <c r="J175" s="39"/>
     </row>
-    <row r="176" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="39"/>
       <c r="B176" s="39"/>
       <c r="C176" s="39"/>
@@ -7150,7 +7150,7 @@
       <c r="I176" s="39"/>
       <c r="J176" s="39"/>
     </row>
-    <row r="177" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="39"/>
       <c r="B177" s="39"/>
       <c r="C177" s="39"/>
@@ -7162,7 +7162,7 @@
       <c r="I177" s="39"/>
       <c r="J177" s="39"/>
     </row>
-    <row r="178" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="39"/>
       <c r="B178" s="39"/>
       <c r="C178" s="39"/>
@@ -7174,7 +7174,7 @@
       <c r="I178" s="39"/>
       <c r="J178" s="39"/>
     </row>
-    <row r="179" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="39"/>
       <c r="B179" s="39"/>
       <c r="C179" s="39"/>
@@ -7186,7 +7186,7 @@
       <c r="I179" s="39"/>
       <c r="J179" s="39"/>
     </row>
-    <row r="180" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="39"/>
       <c r="B180" s="39"/>
       <c r="C180" s="39"/>
@@ -7198,7 +7198,7 @@
       <c r="I180" s="39"/>
       <c r="J180" s="39"/>
     </row>
-    <row r="181" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="39"/>
       <c r="B181" s="39"/>
       <c r="C181" s="39"/>
@@ -7210,7 +7210,7 @@
       <c r="I181" s="39"/>
       <c r="J181" s="39"/>
     </row>
-    <row r="182" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="39"/>
       <c r="B182" s="39"/>
       <c r="C182" s="39"/>
@@ -7222,7 +7222,7 @@
       <c r="I182" s="39"/>
       <c r="J182" s="39"/>
     </row>
-    <row r="183" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="39"/>
       <c r="B183" s="39"/>
       <c r="C183" s="39"/>
@@ -7234,7 +7234,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="39"/>
     </row>
-    <row r="184" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="39"/>
       <c r="B184" s="39"/>
       <c r="C184" s="39"/>
@@ -7246,7 +7246,7 @@
       <c r="I184" s="39"/>
       <c r="J184" s="39"/>
     </row>
-    <row r="185" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="39"/>
       <c r="B185" s="39"/>
       <c r="C185" s="39"/>
@@ -7258,7 +7258,7 @@
       <c r="I185" s="39"/>
       <c r="J185" s="39"/>
     </row>
-    <row r="186" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="39"/>
       <c r="B186" s="39"/>
       <c r="C186" s="39"/>
@@ -7270,7 +7270,7 @@
       <c r="I186" s="39"/>
       <c r="J186" s="39"/>
     </row>
-    <row r="187" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="39"/>
       <c r="B187" s="39"/>
       <c r="C187" s="39"/>
@@ -7282,7 +7282,7 @@
       <c r="I187" s="39"/>
       <c r="J187" s="39"/>
     </row>
-    <row r="188" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="39"/>
       <c r="B188" s="39"/>
       <c r="C188" s="39"/>
@@ -7294,7 +7294,7 @@
       <c r="I188" s="39"/>
       <c r="J188" s="39"/>
     </row>
-    <row r="189" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="39"/>
       <c r="C189" s="39"/>
@@ -7306,7 +7306,7 @@
       <c r="I189" s="39"/>
       <c r="J189" s="39"/>
     </row>
-    <row r="190" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="39"/>
       <c r="B190" s="39"/>
       <c r="C190" s="39"/>
@@ -7318,7 +7318,7 @@
       <c r="I190" s="39"/>
       <c r="J190" s="39"/>
     </row>
-    <row r="191" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="39"/>
       <c r="B191" s="39"/>
       <c r="C191" s="39"/>
@@ -7330,7 +7330,7 @@
       <c r="I191" s="39"/>
       <c r="J191" s="39"/>
     </row>
-    <row r="192" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="39"/>
       <c r="B192" s="39"/>
       <c r="C192" s="39"/>
@@ -7342,7 +7342,7 @@
       <c r="I192" s="39"/>
       <c r="J192" s="39"/>
     </row>
-    <row r="193" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="39"/>
       <c r="B193" s="39"/>
       <c r="C193" s="39"/>
@@ -7354,7 +7354,7 @@
       <c r="I193" s="39"/>
       <c r="J193" s="39"/>
     </row>
-    <row r="194" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="39"/>
       <c r="B194" s="39"/>
       <c r="C194" s="39"/>
@@ -7366,7 +7366,7 @@
       <c r="I194" s="39"/>
       <c r="J194" s="39"/>
     </row>
-    <row r="195" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="39"/>
       <c r="B195" s="39"/>
       <c r="C195" s="39"/>
@@ -7378,7 +7378,7 @@
       <c r="I195" s="39"/>
       <c r="J195" s="39"/>
     </row>
-    <row r="196" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="39"/>
       <c r="B196" s="39"/>
       <c r="C196" s="39"/>
@@ -7390,7 +7390,7 @@
       <c r="I196" s="39"/>
       <c r="J196" s="39"/>
     </row>
-    <row r="197" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="39"/>
       <c r="B197" s="39"/>
       <c r="C197" s="39"/>
@@ -7402,7 +7402,7 @@
       <c r="I197" s="39"/>
       <c r="J197" s="39"/>
     </row>
-    <row r="198" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="39"/>
       <c r="B198" s="39"/>
       <c r="C198" s="39"/>
@@ -7414,7 +7414,7 @@
       <c r="I198" s="39"/>
       <c r="J198" s="39"/>
     </row>
-    <row r="199" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="39"/>
       <c r="B199" s="39"/>
       <c r="C199" s="39"/>
@@ -7426,7 +7426,7 @@
       <c r="I199" s="39"/>
       <c r="J199" s="39"/>
     </row>
-    <row r="200" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="39"/>
       <c r="B200" s="39"/>
       <c r="C200" s="39"/>
@@ -7438,7 +7438,7 @@
       <c r="I200" s="39"/>
       <c r="J200" s="39"/>
     </row>
-    <row r="201" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="39"/>
       <c r="B201" s="39"/>
       <c r="C201" s="39"/>
@@ -7450,7 +7450,7 @@
       <c r="I201" s="39"/>
       <c r="J201" s="39"/>
     </row>
-    <row r="202" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="39"/>
       <c r="B202" s="39"/>
       <c r="C202" s="39"/>
@@ -7462,7 +7462,7 @@
       <c r="I202" s="39"/>
       <c r="J202" s="39"/>
     </row>
-    <row r="203" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="39"/>
       <c r="B203" s="39"/>
       <c r="C203" s="39"/>
@@ -7474,7 +7474,7 @@
       <c r="I203" s="39"/>
       <c r="J203" s="39"/>
     </row>
-    <row r="204" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="39"/>
       <c r="B204" s="39"/>
       <c r="C204" s="39"/>
@@ -7486,7 +7486,7 @@
       <c r="I204" s="39"/>
       <c r="J204" s="39"/>
     </row>
-    <row r="205" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="39"/>
       <c r="B205" s="39"/>
       <c r="C205" s="39"/>
@@ -7498,7 +7498,7 @@
       <c r="I205" s="39"/>
       <c r="J205" s="39"/>
     </row>
-    <row r="206" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
       <c r="B206" s="39"/>
       <c r="C206" s="39"/>
@@ -7510,7 +7510,7 @@
       <c r="I206" s="39"/>
       <c r="J206" s="39"/>
     </row>
-    <row r="207" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="39"/>
       <c r="B207" s="39"/>
       <c r="C207" s="39"/>
@@ -7522,7 +7522,7 @@
       <c r="I207" s="39"/>
       <c r="J207" s="39"/>
     </row>
-    <row r="208" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="39"/>
       <c r="B208" s="39"/>
       <c r="C208" s="39"/>
@@ -7534,7 +7534,7 @@
       <c r="I208" s="39"/>
       <c r="J208" s="39"/>
     </row>
-    <row r="209" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
       <c r="B209" s="39"/>
       <c r="C209" s="39"/>
@@ -7546,7 +7546,7 @@
       <c r="I209" s="39"/>
       <c r="J209" s="39"/>
     </row>
-    <row r="210" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="39"/>
       <c r="B210" s="39"/>
       <c r="C210" s="39"/>
@@ -7558,7 +7558,7 @@
       <c r="I210" s="39"/>
       <c r="J210" s="39"/>
     </row>
-    <row r="211" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
       <c r="B211" s="39"/>
       <c r="C211" s="39"/>
@@ -7570,7 +7570,7 @@
       <c r="I211" s="39"/>
       <c r="J211" s="39"/>
     </row>
-    <row r="212" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
       <c r="B212" s="39"/>
       <c r="C212" s="39"/>
@@ -7582,7 +7582,7 @@
       <c r="I212" s="39"/>
       <c r="J212" s="39"/>
     </row>
-    <row r="213" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="39"/>
       <c r="C213" s="39"/>
@@ -7594,7 +7594,7 @@
       <c r="I213" s="39"/>
       <c r="J213" s="39"/>
     </row>
-    <row r="214" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="39"/>
       <c r="B214" s="39"/>
       <c r="C214" s="39"/>
@@ -7606,7 +7606,7 @@
       <c r="I214" s="39"/>
       <c r="J214" s="39"/>
     </row>
-    <row r="215" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="39"/>
       <c r="B215" s="39"/>
       <c r="C215" s="39"/>
@@ -7618,7 +7618,7 @@
       <c r="I215" s="39"/>
       <c r="J215" s="39"/>
     </row>
-    <row r="216" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="39"/>
       <c r="B216" s="39"/>
       <c r="C216" s="39"/>
@@ -7630,7 +7630,7 @@
       <c r="I216" s="39"/>
       <c r="J216" s="39"/>
     </row>
-    <row r="217" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="39"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
@@ -7642,7 +7642,7 @@
       <c r="I217" s="39"/>
       <c r="J217" s="39"/>
     </row>
-    <row r="218" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="39"/>
       <c r="B218" s="39"/>
       <c r="C218" s="39"/>
@@ -7654,7 +7654,7 @@
       <c r="I218" s="39"/>
       <c r="J218" s="39"/>
     </row>
-    <row r="219" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="39"/>
       <c r="B219" s="39"/>
       <c r="C219" s="39"/>
@@ -7666,7 +7666,7 @@
       <c r="I219" s="39"/>
       <c r="J219" s="39"/>
     </row>
-    <row r="220" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="39"/>
       <c r="B220" s="39"/>
       <c r="C220" s="39"/>
@@ -7678,7 +7678,7 @@
       <c r="I220" s="39"/>
       <c r="J220" s="39"/>
     </row>
-    <row r="221" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="39"/>
       <c r="B221" s="39"/>
       <c r="C221" s="39"/>
@@ -7690,7 +7690,7 @@
       <c r="I221" s="39"/>
       <c r="J221" s="39"/>
     </row>
-    <row r="222" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="39"/>
       <c r="B222" s="39"/>
       <c r="C222" s="39"/>
@@ -7702,7 +7702,7 @@
       <c r="I222" s="39"/>
       <c r="J222" s="39"/>
     </row>
-    <row r="223" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="39"/>
       <c r="B223" s="39"/>
       <c r="C223" s="39"/>
@@ -7714,7 +7714,7 @@
       <c r="I223" s="39"/>
       <c r="J223" s="39"/>
     </row>
-    <row r="224" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="39"/>
       <c r="B224" s="39"/>
       <c r="C224" s="39"/>
@@ -7726,7 +7726,7 @@
       <c r="I224" s="39"/>
       <c r="J224" s="39"/>
     </row>
-    <row r="225" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="39"/>
       <c r="B225" s="39"/>
       <c r="C225" s="39"/>
@@ -7738,7 +7738,7 @@
       <c r="I225" s="39"/>
       <c r="J225" s="39"/>
     </row>
-    <row r="226" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="39"/>
       <c r="B226" s="39"/>
       <c r="C226" s="39"/>
@@ -7750,7 +7750,7 @@
       <c r="I226" s="39"/>
       <c r="J226" s="39"/>
     </row>
-    <row r="227" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="39"/>
       <c r="B227" s="39"/>
       <c r="C227" s="39"/>
@@ -7762,7 +7762,7 @@
       <c r="I227" s="39"/>
       <c r="J227" s="39"/>
     </row>
-    <row r="228" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="39"/>
       <c r="B228" s="39"/>
       <c r="C228" s="39"/>
@@ -7774,7 +7774,7 @@
       <c r="I228" s="39"/>
       <c r="J228" s="39"/>
     </row>
-    <row r="229" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="39"/>
       <c r="B229" s="39"/>
       <c r="C229" s="39"/>
@@ -7786,7 +7786,7 @@
       <c r="I229" s="39"/>
       <c r="J229" s="39"/>
     </row>
-    <row r="230" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="39"/>
       <c r="B230" s="39"/>
       <c r="C230" s="39"/>
@@ -7798,7 +7798,7 @@
       <c r="I230" s="39"/>
       <c r="J230" s="39"/>
     </row>
-    <row r="231" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="39"/>
       <c r="B231" s="39"/>
       <c r="C231" s="39"/>
@@ -7810,7 +7810,7 @@
       <c r="I231" s="39"/>
       <c r="J231" s="39"/>
     </row>
-    <row r="232" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="39"/>
       <c r="B232" s="39"/>
       <c r="C232" s="39"/>
@@ -7822,7 +7822,7 @@
       <c r="I232" s="39"/>
       <c r="J232" s="39"/>
     </row>
-    <row r="233" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="39"/>
       <c r="B233" s="39"/>
       <c r="C233" s="39"/>
@@ -7834,7 +7834,7 @@
       <c r="I233" s="39"/>
       <c r="J233" s="39"/>
     </row>
-    <row r="234" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="39"/>
       <c r="B234" s="39"/>
       <c r="C234" s="39"/>
@@ -7846,7 +7846,7 @@
       <c r="I234" s="39"/>
       <c r="J234" s="39"/>
     </row>
-    <row r="235" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="39"/>
       <c r="B235" s="39"/>
       <c r="C235" s="39"/>
@@ -7858,7 +7858,7 @@
       <c r="I235" s="39"/>
       <c r="J235" s="39"/>
     </row>
-    <row r="236" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="39"/>
       <c r="B236" s="39"/>
       <c r="C236" s="39"/>
@@ -7870,7 +7870,7 @@
       <c r="I236" s="39"/>
       <c r="J236" s="39"/>
     </row>
-    <row r="237" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="39"/>
       <c r="B237" s="39"/>
       <c r="C237" s="39"/>
@@ -7882,7 +7882,7 @@
       <c r="I237" s="39"/>
       <c r="J237" s="39"/>
     </row>
-    <row r="238" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="39"/>
       <c r="B238" s="39"/>
       <c r="C238" s="39"/>
@@ -7894,7 +7894,7 @@
       <c r="I238" s="39"/>
       <c r="J238" s="39"/>
     </row>
-    <row r="239" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="39"/>
       <c r="B239" s="39"/>
       <c r="C239" s="39"/>
@@ -7906,7 +7906,7 @@
       <c r="I239" s="39"/>
       <c r="J239" s="39"/>
     </row>
-    <row r="240" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="39"/>
       <c r="B240" s="39"/>
       <c r="C240" s="39"/>
@@ -7918,7 +7918,7 @@
       <c r="I240" s="39"/>
       <c r="J240" s="39"/>
     </row>
-    <row r="241" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="39"/>
       <c r="B241" s="39"/>
       <c r="C241" s="39"/>
@@ -7930,7 +7930,7 @@
       <c r="I241" s="39"/>
       <c r="J241" s="39"/>
     </row>
-    <row r="242" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="39"/>
       <c r="B242" s="39"/>
       <c r="C242" s="39"/>
@@ -7942,7 +7942,7 @@
       <c r="I242" s="39"/>
       <c r="J242" s="39"/>
     </row>
-    <row r="243" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="39"/>
       <c r="B243" s="39"/>
       <c r="C243" s="39"/>
@@ -7954,7 +7954,7 @@
       <c r="I243" s="39"/>
       <c r="J243" s="39"/>
     </row>
-    <row r="244" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="39"/>
       <c r="B244" s="39"/>
       <c r="C244" s="39"/>
@@ -7966,7 +7966,7 @@
       <c r="I244" s="39"/>
       <c r="J244" s="39"/>
     </row>
-    <row r="245" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="39"/>
       <c r="B245" s="39"/>
       <c r="C245" s="39"/>
@@ -7978,7 +7978,7 @@
       <c r="I245" s="39"/>
       <c r="J245" s="39"/>
     </row>
-    <row r="246" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="39"/>
       <c r="B246" s="39"/>
       <c r="C246" s="39"/>
@@ -7990,7 +7990,7 @@
       <c r="I246" s="39"/>
       <c r="J246" s="39"/>
     </row>
-    <row r="247" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="39"/>
       <c r="B247" s="39"/>
       <c r="C247" s="39"/>
@@ -8002,7 +8002,7 @@
       <c r="I247" s="39"/>
       <c r="J247" s="39"/>
     </row>
-    <row r="248" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="39"/>
       <c r="B248" s="39"/>
       <c r="C248" s="39"/>
@@ -8014,7 +8014,7 @@
       <c r="I248" s="39"/>
       <c r="J248" s="39"/>
     </row>
-    <row r="249" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="39"/>
       <c r="B249" s="39"/>
       <c r="C249" s="39"/>
@@ -8026,7 +8026,7 @@
       <c r="I249" s="39"/>
       <c r="J249" s="39"/>
     </row>
-    <row r="250" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="39"/>
       <c r="B250" s="39"/>
       <c r="C250" s="39"/>
@@ -8038,7 +8038,7 @@
       <c r="I250" s="39"/>
       <c r="J250" s="39"/>
     </row>
-    <row r="251" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="39"/>
       <c r="B251" s="39"/>
       <c r="C251" s="39"/>
@@ -8050,7 +8050,7 @@
       <c r="I251" s="39"/>
       <c r="J251" s="39"/>
     </row>
-    <row r="252" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="39"/>
       <c r="B252" s="39"/>
       <c r="C252" s="39"/>
@@ -8062,7 +8062,7 @@
       <c r="I252" s="39"/>
       <c r="J252" s="39"/>
     </row>
-    <row r="253" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="39"/>
       <c r="B253" s="39"/>
       <c r="C253" s="39"/>
@@ -8074,7 +8074,7 @@
       <c r="I253" s="39"/>
       <c r="J253" s="39"/>
     </row>
-    <row r="254" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="39"/>
       <c r="B254" s="39"/>
       <c r="C254" s="39"/>
@@ -8086,7 +8086,7 @@
       <c r="I254" s="39"/>
       <c r="J254" s="39"/>
     </row>
-    <row r="255" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="39"/>
       <c r="B255" s="39"/>
       <c r="C255" s="39"/>
@@ -8098,7 +8098,7 @@
       <c r="I255" s="39"/>
       <c r="J255" s="39"/>
     </row>
-    <row r="256" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="39"/>
       <c r="B256" s="39"/>
       <c r="C256" s="39"/>
@@ -8110,7 +8110,7 @@
       <c r="I256" s="39"/>
       <c r="J256" s="39"/>
     </row>
-    <row r="257" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="39"/>
       <c r="B257" s="39"/>
       <c r="C257" s="39"/>
@@ -8122,7 +8122,7 @@
       <c r="I257" s="39"/>
       <c r="J257" s="39"/>
     </row>
-    <row r="258" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="39"/>
       <c r="B258" s="39"/>
       <c r="C258" s="39"/>
@@ -8134,7 +8134,7 @@
       <c r="I258" s="39"/>
       <c r="J258" s="39"/>
     </row>
-    <row r="259" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="39"/>
       <c r="B259" s="39"/>
       <c r="C259" s="39"/>
@@ -8146,7 +8146,7 @@
       <c r="I259" s="39"/>
       <c r="J259" s="39"/>
     </row>
-    <row r="260" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="39"/>
       <c r="B260" s="39"/>
       <c r="C260" s="39"/>
@@ -8158,7 +8158,7 @@
       <c r="I260" s="39"/>
       <c r="J260" s="39"/>
     </row>
-    <row r="261" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="39"/>
       <c r="B261" s="39"/>
       <c r="C261" s="39"/>
@@ -8170,7 +8170,7 @@
       <c r="I261" s="39"/>
       <c r="J261" s="39"/>
     </row>
-    <row r="262" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="39"/>
       <c r="B262" s="39"/>
       <c r="C262" s="39"/>
@@ -8182,7 +8182,7 @@
       <c r="I262" s="39"/>
       <c r="J262" s="39"/>
     </row>
-    <row r="263" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="39"/>
       <c r="B263" s="39"/>
       <c r="C263" s="39"/>
@@ -8194,7 +8194,7 @@
       <c r="I263" s="39"/>
       <c r="J263" s="39"/>
     </row>
-    <row r="264" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="39"/>
       <c r="B264" s="39"/>
       <c r="C264" s="39"/>
@@ -8206,7 +8206,7 @@
       <c r="I264" s="39"/>
       <c r="J264" s="39"/>
     </row>
-    <row r="265" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="39"/>
       <c r="B265" s="39"/>
       <c r="C265" s="39"/>
@@ -8218,7 +8218,7 @@
       <c r="I265" s="39"/>
       <c r="J265" s="39"/>
     </row>
-    <row r="266" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="39"/>
       <c r="B266" s="39"/>
       <c r="C266" s="39"/>
@@ -8230,7 +8230,7 @@
       <c r="I266" s="39"/>
       <c r="J266" s="39"/>
     </row>
-    <row r="267" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="39"/>
       <c r="B267" s="39"/>
       <c r="C267" s="39"/>
@@ -8242,7 +8242,7 @@
       <c r="I267" s="39"/>
       <c r="J267" s="39"/>
     </row>
-    <row r="268" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="39"/>
       <c r="B268" s="39"/>
       <c r="C268" s="39"/>
@@ -8254,7 +8254,7 @@
       <c r="I268" s="39"/>
       <c r="J268" s="39"/>
     </row>
-    <row r="269" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="39"/>
       <c r="B269" s="39"/>
       <c r="C269" s="39"/>
@@ -8266,7 +8266,7 @@
       <c r="I269" s="39"/>
       <c r="J269" s="39"/>
     </row>
-    <row r="270" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="39"/>
       <c r="B270" s="39"/>
       <c r="C270" s="39"/>
@@ -8278,7 +8278,7 @@
       <c r="I270" s="39"/>
       <c r="J270" s="39"/>
     </row>
-    <row r="271" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="39"/>
       <c r="B271" s="39"/>
       <c r="C271" s="39"/>
@@ -8290,7 +8290,7 @@
       <c r="I271" s="39"/>
       <c r="J271" s="39"/>
     </row>
-    <row r="272" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="39"/>
       <c r="B272" s="39"/>
       <c r="C272" s="39"/>
@@ -8302,7 +8302,7 @@
       <c r="I272" s="39"/>
       <c r="J272" s="39"/>
     </row>
-    <row r="273" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="39"/>
       <c r="B273" s="39"/>
       <c r="C273" s="39"/>
@@ -8314,7 +8314,7 @@
       <c r="I273" s="39"/>
       <c r="J273" s="39"/>
     </row>
-    <row r="274" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="39"/>
       <c r="B274" s="39"/>
       <c r="C274" s="39"/>
@@ -8326,7 +8326,7 @@
       <c r="I274" s="39"/>
       <c r="J274" s="39"/>
     </row>
-    <row r="275" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="39"/>
       <c r="B275" s="39"/>
       <c r="C275" s="39"/>
@@ -8338,7 +8338,7 @@
       <c r="I275" s="39"/>
       <c r="J275" s="39"/>
     </row>
-    <row r="276" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="39"/>
       <c r="B276" s="39"/>
       <c r="C276" s="39"/>
@@ -8350,7 +8350,7 @@
       <c r="I276" s="39"/>
       <c r="J276" s="39"/>
     </row>
-    <row r="277" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="39"/>
       <c r="B277" s="39"/>
       <c r="C277" s="39"/>
@@ -8362,7 +8362,7 @@
       <c r="I277" s="39"/>
       <c r="J277" s="39"/>
     </row>
-    <row r="278" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="39"/>
       <c r="B278" s="39"/>
       <c r="C278" s="39"/>
@@ -8374,7 +8374,7 @@
       <c r="I278" s="39"/>
       <c r="J278" s="39"/>
     </row>
-    <row r="279" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="39"/>
       <c r="B279" s="39"/>
       <c r="C279" s="39"/>
@@ -8386,7 +8386,7 @@
       <c r="I279" s="39"/>
       <c r="J279" s="39"/>
     </row>
-    <row r="280" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="39"/>
       <c r="C280" s="39"/>
@@ -8398,7 +8398,7 @@
       <c r="I280" s="39"/>
       <c r="J280" s="39"/>
     </row>
-    <row r="281" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="39"/>
       <c r="B281" s="39"/>
       <c r="C281" s="39"/>
@@ -8410,7 +8410,7 @@
       <c r="I281" s="39"/>
       <c r="J281" s="39"/>
     </row>
-    <row r="282" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="39"/>
       <c r="B282" s="39"/>
       <c r="C282" s="39"/>
@@ -8422,7 +8422,7 @@
       <c r="I282" s="39"/>
       <c r="J282" s="39"/>
     </row>
-    <row r="283" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="39"/>
       <c r="B283" s="39"/>
       <c r="C283" s="39"/>
@@ -8434,7 +8434,7 @@
       <c r="I283" s="39"/>
       <c r="J283" s="39"/>
     </row>
-    <row r="284" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="39"/>
       <c r="B284" s="39"/>
       <c r="C284" s="39"/>
@@ -8446,7 +8446,7 @@
       <c r="I284" s="39"/>
       <c r="J284" s="39"/>
     </row>
-    <row r="285" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="39"/>
       <c r="B285" s="39"/>
       <c r="C285" s="39"/>
@@ -8458,7 +8458,7 @@
       <c r="I285" s="39"/>
       <c r="J285" s="39"/>
     </row>
-    <row r="286" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="39"/>
       <c r="B286" s="39"/>
       <c r="C286" s="39"/>
@@ -8470,7 +8470,7 @@
       <c r="I286" s="39"/>
       <c r="J286" s="39"/>
     </row>
-    <row r="287" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="39"/>
       <c r="B287" s="39"/>
       <c r="C287" s="39"/>
@@ -8482,7 +8482,7 @@
       <c r="I287" s="39"/>
       <c r="J287" s="39"/>
     </row>
-    <row r="288" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="39"/>
       <c r="B288" s="39"/>
       <c r="C288" s="39"/>
@@ -8494,7 +8494,7 @@
       <c r="I288" s="39"/>
       <c r="J288" s="39"/>
     </row>
-    <row r="289" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="39"/>
       <c r="B289" s="39"/>
       <c r="C289" s="39"/>
@@ -8506,7 +8506,7 @@
       <c r="I289" s="39"/>
       <c r="J289" s="39"/>
     </row>
-    <row r="290" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="39"/>
       <c r="B290" s="39"/>
       <c r="C290" s="39"/>
@@ -8518,7 +8518,7 @@
       <c r="I290" s="39"/>
       <c r="J290" s="39"/>
     </row>
-    <row r="291" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="39"/>
       <c r="B291" s="39"/>
       <c r="C291" s="39"/>
@@ -8530,7 +8530,7 @@
       <c r="I291" s="39"/>
       <c r="J291" s="39"/>
     </row>
-    <row r="292" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="39"/>
       <c r="B292" s="39"/>
       <c r="C292" s="39"/>
@@ -8542,7 +8542,7 @@
       <c r="I292" s="39"/>
       <c r="J292" s="39"/>
     </row>
-    <row r="293" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="39"/>
       <c r="B293" s="39"/>
       <c r="C293" s="39"/>
@@ -8554,7 +8554,7 @@
       <c r="I293" s="39"/>
       <c r="J293" s="39"/>
     </row>
-    <row r="294" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="39"/>
       <c r="B294" s="39"/>
       <c r="C294" s="39"/>
@@ -8566,7 +8566,7 @@
       <c r="I294" s="39"/>
       <c r="J294" s="39"/>
     </row>
-    <row r="295" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="39"/>
       <c r="B295" s="39"/>
       <c r="C295" s="39"/>
@@ -8578,7 +8578,7 @@
       <c r="I295" s="39"/>
       <c r="J295" s="39"/>
     </row>
-    <row r="296" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="39"/>
       <c r="B296" s="39"/>
       <c r="C296" s="39"/>
@@ -8590,7 +8590,7 @@
       <c r="I296" s="39"/>
       <c r="J296" s="39"/>
     </row>
-    <row r="297" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="39"/>
       <c r="B297" s="39"/>
       <c r="C297" s="39"/>
@@ -8602,7 +8602,7 @@
       <c r="I297" s="39"/>
       <c r="J297" s="39"/>
     </row>
-    <row r="298" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="39"/>
       <c r="B298" s="39"/>
       <c r="C298" s="39"/>
@@ -8614,7 +8614,7 @@
       <c r="I298" s="39"/>
       <c r="J298" s="39"/>
     </row>
-    <row r="299" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="39"/>
       <c r="B299" s="39"/>
       <c r="C299" s="39"/>
@@ -8626,7 +8626,7 @@
       <c r="I299" s="39"/>
       <c r="J299" s="39"/>
     </row>
-    <row r="300" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="39"/>
       <c r="B300" s="39"/>
       <c r="C300" s="39"/>
@@ -8638,7 +8638,7 @@
       <c r="I300" s="39"/>
       <c r="J300" s="39"/>
     </row>
-    <row r="301" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="39"/>
       <c r="B301" s="39"/>
       <c r="C301" s="39"/>
@@ -8650,7 +8650,7 @@
       <c r="I301" s="39"/>
       <c r="J301" s="39"/>
     </row>
-    <row r="302" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="39"/>
       <c r="B302" s="39"/>
       <c r="C302" s="39"/>
@@ -8662,7 +8662,7 @@
       <c r="I302" s="39"/>
       <c r="J302" s="39"/>
     </row>
-    <row r="303" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="39"/>
       <c r="B303" s="39"/>
       <c r="C303" s="39"/>
@@ -8674,7 +8674,7 @@
       <c r="I303" s="39"/>
       <c r="J303" s="39"/>
     </row>
-    <row r="304" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="39"/>
       <c r="B304" s="39"/>
       <c r="C304" s="39"/>
@@ -8686,7 +8686,7 @@
       <c r="I304" s="39"/>
       <c r="J304" s="39"/>
     </row>
-    <row r="305" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="39"/>
       <c r="B305" s="39"/>
       <c r="C305" s="39"/>
@@ -8698,7 +8698,7 @@
       <c r="I305" s="39"/>
       <c r="J305" s="39"/>
     </row>
-    <row r="306" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="39"/>
       <c r="B306" s="39"/>
       <c r="C306" s="39"/>
@@ -8710,7 +8710,7 @@
       <c r="I306" s="39"/>
       <c r="J306" s="39"/>
     </row>
-    <row r="307" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="39"/>
       <c r="B307" s="39"/>
       <c r="C307" s="39"/>
@@ -8722,7 +8722,7 @@
       <c r="I307" s="39"/>
       <c r="J307" s="39"/>
     </row>
-    <row r="308" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="39"/>
       <c r="B308" s="39"/>
       <c r="C308" s="39"/>
@@ -8734,7 +8734,7 @@
       <c r="I308" s="39"/>
       <c r="J308" s="39"/>
     </row>
-    <row r="309" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="39"/>
       <c r="B309" s="39"/>
       <c r="C309" s="39"/>
@@ -8746,7 +8746,7 @@
       <c r="I309" s="39"/>
       <c r="J309" s="39"/>
     </row>
-    <row r="310" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="39"/>
       <c r="B310" s="39"/>
       <c r="C310" s="39"/>
@@ -8758,7 +8758,7 @@
       <c r="I310" s="39"/>
       <c r="J310" s="39"/>
     </row>
-    <row r="311" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="39"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
@@ -8770,7 +8770,7 @@
       <c r="I311" s="39"/>
       <c r="J311" s="39"/>
     </row>
-    <row r="312" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="39"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
@@ -8782,7 +8782,7 @@
       <c r="I312" s="39"/>
       <c r="J312" s="39"/>
     </row>
-    <row r="313" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="39"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
@@ -8794,7 +8794,7 @@
       <c r="I313" s="39"/>
       <c r="J313" s="39"/>
     </row>
-    <row r="314" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="39"/>
       <c r="B314" s="39"/>
       <c r="C314" s="39"/>
@@ -8806,7 +8806,7 @@
       <c r="I314" s="39"/>
       <c r="J314" s="39"/>
     </row>
-    <row r="315" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="39"/>
       <c r="B315" s="39"/>
       <c r="C315" s="39"/>
@@ -8818,7 +8818,7 @@
       <c r="I315" s="39"/>
       <c r="J315" s="39"/>
     </row>
-    <row r="316" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="39"/>
       <c r="B316" s="39"/>
       <c r="C316" s="39"/>
@@ -8830,7 +8830,7 @@
       <c r="I316" s="39"/>
       <c r="J316" s="39"/>
     </row>
-    <row r="317" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="39"/>
       <c r="B317" s="39"/>
       <c r="C317" s="39"/>
@@ -8842,7 +8842,7 @@
       <c r="I317" s="39"/>
       <c r="J317" s="39"/>
     </row>
-    <row r="318" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="39"/>
       <c r="B318" s="39"/>
       <c r="C318" s="39"/>
@@ -8854,7 +8854,7 @@
       <c r="I318" s="39"/>
       <c r="J318" s="39"/>
     </row>
-    <row r="319" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="39"/>
       <c r="B319" s="39"/>
       <c r="C319" s="39"/>
@@ -8866,7 +8866,7 @@
       <c r="I319" s="39"/>
       <c r="J319" s="39"/>
     </row>
-    <row r="320" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="39"/>
       <c r="B320" s="39"/>
       <c r="C320" s="39"/>
@@ -8878,7 +8878,7 @@
       <c r="I320" s="39"/>
       <c r="J320" s="39"/>
     </row>
-    <row r="321" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="39"/>
       <c r="B321" s="39"/>
       <c r="C321" s="39"/>
@@ -8890,7 +8890,7 @@
       <c r="I321" s="39"/>
       <c r="J321" s="39"/>
     </row>
-    <row r="322" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="39"/>
       <c r="B322" s="39"/>
       <c r="C322" s="39"/>
@@ -8902,7 +8902,7 @@
       <c r="I322" s="39"/>
       <c r="J322" s="39"/>
     </row>
-    <row r="323" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="39"/>
       <c r="B323" s="39"/>
       <c r="C323" s="39"/>
@@ -8914,7 +8914,7 @@
       <c r="I323" s="39"/>
       <c r="J323" s="39"/>
     </row>
-    <row r="324" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="39"/>
       <c r="B324" s="39"/>
       <c r="C324" s="39"/>
@@ -8926,7 +8926,7 @@
       <c r="I324" s="39"/>
       <c r="J324" s="39"/>
     </row>
-    <row r="325" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="39"/>
       <c r="B325" s="39"/>
       <c r="C325" s="39"/>
@@ -8938,7 +8938,7 @@
       <c r="I325" s="39"/>
       <c r="J325" s="39"/>
     </row>
-    <row r="326" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="39"/>
       <c r="B326" s="39"/>
       <c r="C326" s="39"/>
@@ -8950,7 +8950,7 @@
       <c r="I326" s="39"/>
       <c r="J326" s="39"/>
     </row>
-    <row r="327" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="39"/>
       <c r="B327" s="39"/>
       <c r="C327" s="39"/>
@@ -8962,7 +8962,7 @@
       <c r="I327" s="39"/>
       <c r="J327" s="39"/>
     </row>
-    <row r="328" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="39"/>
       <c r="B328" s="39"/>
       <c r="C328" s="39"/>
@@ -8974,7 +8974,7 @@
       <c r="I328" s="39"/>
       <c r="J328" s="39"/>
     </row>
-    <row r="329" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="39"/>
       <c r="B329" s="39"/>
       <c r="C329" s="39"/>
@@ -8986,7 +8986,7 @@
       <c r="I329" s="39"/>
       <c r="J329" s="39"/>
     </row>
-    <row r="330" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="39"/>
       <c r="B330" s="39"/>
       <c r="C330" s="39"/>
@@ -8998,7 +8998,7 @@
       <c r="I330" s="39"/>
       <c r="J330" s="39"/>
     </row>
-    <row r="331" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="39"/>
       <c r="C331" s="39"/>
@@ -9010,7 +9010,7 @@
       <c r="I331" s="39"/>
       <c r="J331" s="39"/>
     </row>
-    <row r="332" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="39"/>
       <c r="B332" s="39"/>
       <c r="C332" s="39"/>
@@ -9022,7 +9022,7 @@
       <c r="I332" s="39"/>
       <c r="J332" s="39"/>
     </row>
-    <row r="333" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="39"/>
       <c r="B333" s="39"/>
       <c r="C333" s="39"/>
@@ -9034,7 +9034,7 @@
       <c r="I333" s="39"/>
       <c r="J333" s="39"/>
     </row>
-    <row r="334" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="39"/>
       <c r="B334" s="39"/>
       <c r="C334" s="39"/>
@@ -9046,7 +9046,7 @@
       <c r="I334" s="39"/>
       <c r="J334" s="39"/>
     </row>
-    <row r="335" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="39"/>
       <c r="B335" s="39"/>
       <c r="C335" s="39"/>
@@ -9058,7 +9058,7 @@
       <c r="I335" s="39"/>
       <c r="J335" s="39"/>
     </row>
-    <row r="336" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="39"/>
       <c r="B336" s="39"/>
       <c r="C336" s="39"/>
@@ -9070,7 +9070,7 @@
       <c r="I336" s="39"/>
       <c r="J336" s="39"/>
     </row>
-    <row r="337" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="39"/>
       <c r="B337" s="39"/>
       <c r="C337" s="39"/>
@@ -9082,7 +9082,7 @@
       <c r="I337" s="39"/>
       <c r="J337" s="39"/>
     </row>
-    <row r="338" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="39"/>
       <c r="B338" s="39"/>
       <c r="C338" s="39"/>
@@ -9094,7 +9094,7 @@
       <c r="I338" s="39"/>
       <c r="J338" s="39"/>
     </row>
-    <row r="339" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="39"/>
       <c r="B339" s="39"/>
       <c r="C339" s="39"/>
@@ -9106,7 +9106,7 @@
       <c r="I339" s="39"/>
       <c r="J339" s="39"/>
     </row>
-    <row r="340" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="39"/>
       <c r="B340" s="39"/>
       <c r="C340" s="39"/>
@@ -9118,7 +9118,7 @@
       <c r="I340" s="39"/>
       <c r="J340" s="39"/>
     </row>
-    <row r="341" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" s="39"/>
       <c r="B341" s="39"/>
       <c r="C341" s="39"/>
@@ -9130,7 +9130,7 @@
       <c r="I341" s="39"/>
       <c r="J341" s="39"/>
     </row>
-    <row r="342" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="39"/>
       <c r="B342" s="39"/>
       <c r="C342" s="39"/>
@@ -9142,7 +9142,7 @@
       <c r="I342" s="39"/>
       <c r="J342" s="39"/>
     </row>
-    <row r="343" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="39"/>
       <c r="B343" s="39"/>
       <c r="C343" s="39"/>
@@ -9154,7 +9154,7 @@
       <c r="I343" s="39"/>
       <c r="J343" s="39"/>
     </row>
-    <row r="344" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="39"/>
       <c r="C344" s="39"/>
@@ -9166,7 +9166,7 @@
       <c r="I344" s="39"/>
       <c r="J344" s="39"/>
     </row>
-    <row r="345" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="39"/>
       <c r="B345" s="39"/>
       <c r="C345" s="39"/>
@@ -9189,50 +9189,50 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW113"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="10"/>
-    <col min="2" max="2" width="13.81640625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="10"/>
-    <col min="5" max="5" width="12.26953125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="10" customWidth="1"/>
-    <col min="7" max="10" width="8.7265625" style="10"/>
-    <col min="11" max="11" width="29.26953125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="10"/>
-    <col min="13" max="13" width="17.81640625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="8.7265625" style="10"/>
-    <col min="20" max="20" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="8.7265625" style="10"/>
-    <col min="26" max="26" width="10.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="8.7265625" style="10"/>
-    <col min="32" max="32" width="10.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="8.7265625" style="10"/>
-    <col min="35" max="35" width="10.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.7265625" style="10"/>
-    <col min="37" max="37" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="8.7265625" style="10"/>
-    <col min="41" max="41" width="10.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="46" width="8.7265625" style="10"/>
-    <col min="47" max="47" width="10.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="52" width="8.7265625" style="10"/>
-    <col min="53" max="53" width="10.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="8.7265625" style="10"/>
-    <col min="56" max="56" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="61" width="8.7265625" style="10"/>
-    <col min="62" max="62" width="9.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="63" max="67" width="8.7265625" style="10"/>
-    <col min="68" max="68" width="9.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="69" max="73" width="8.7265625" style="10"/>
-    <col min="74" max="74" width="10.81640625" style="10" customWidth="1"/>
-    <col min="75" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="8.7109375" style="10"/>
+    <col min="2" max="2" width="13.85546875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="10"/>
+    <col min="5" max="5" width="12.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="10" customWidth="1"/>
+    <col min="7" max="10" width="8.7109375" style="10"/>
+    <col min="11" max="11" width="29.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="10"/>
+    <col min="13" max="13" width="17.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="8.7109375" style="10"/>
+    <col min="20" max="20" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="8.7109375" style="10"/>
+    <col min="26" max="26" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="8.7109375" style="10"/>
+    <col min="32" max="32" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="8.7109375" style="10"/>
+    <col min="35" max="35" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" style="10"/>
+    <col min="37" max="37" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="8.7109375" style="10"/>
+    <col min="41" max="41" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="8.7109375" style="10"/>
+    <col min="47" max="47" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="52" width="8.7109375" style="10"/>
+    <col min="53" max="53" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8.7109375" style="10"/>
+    <col min="56" max="56" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="57" max="61" width="8.7109375" style="10"/>
+    <col min="62" max="62" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="63" max="67" width="8.7109375" style="10"/>
+    <col min="68" max="68" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="69" max="73" width="8.7109375" style="10"/>
+    <col min="74" max="74" width="10.85546875" style="10" customWidth="1"/>
+    <col min="75" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
         <v>227</v>
       </c>
@@ -9266,7 +9266,7 @@
       <c r="AC1" s="11"/>
       <c r="AD1" s="11"/>
     </row>
-    <row r="2" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -9298,7 +9298,7 @@
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
     </row>
-    <row r="3" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
         <v>228</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:75" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:75" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="90" t="s">
         <v>123</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91" t="s">
         <v>170</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="93" t="s">
         <v>171</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="93" t="s">
         <v>166</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="91" t="s">
         <v>105</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
         <v>106</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
         <v>167</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
         <v>3</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
         <v>4</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>5</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
         <v>6</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="91" t="s">
         <v>107</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="91" t="s">
         <v>108</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="91" t="s">
         <v>118</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="91" t="s">
         <v>119</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="91" t="s">
         <v>168</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="91" t="s">
         <v>169</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="86"/>
       <c r="C21" s="86"/>
@@ -13108,7 +13108,7 @@
       <c r="I21" s="86"/>
       <c r="J21" s="86"/>
     </row>
-    <row r="22" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
@@ -13120,7 +13120,7 @@
       <c r="I22" s="86"/>
       <c r="J22" s="86"/>
     </row>
-    <row r="23" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
         <v>229</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:75" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:75" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
         <v>123</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="91" t="s">
         <v>170</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="s">
         <v>171</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="s">
         <v>166</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="91" t="s">
         <v>105</v>
       </c>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="J28" s="86"/>
     </row>
-    <row r="29" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="91" t="s">
         <v>106</v>
       </c>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="J29" s="86"/>
     </row>
-    <row r="30" spans="1:75" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:75" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="91" t="s">
         <v>167</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="91" t="s">
         <v>3</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="91" t="s">
         <v>4</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="91" t="s">
         <v>5</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="91" t="s">
         <v>6</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="91" t="s">
         <v>107</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="91" t="s">
         <v>108</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="91" t="s">
         <v>118</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="91" t="s">
         <v>119</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="91" t="s">
         <v>168</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="91" t="s">
         <v>169</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J41" s="86"/>
       <c r="L41" s="99" t="s">
         <v>107</v>
@@ -14354,7 +14354,7 @@
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J42" s="86"/>
       <c r="L42" s="99" t="s">
         <v>108</v>
@@ -14411,7 +14411,7 @@
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="89" t="s">
         <v>230</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
         <v>123</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="91" t="s">
         <v>170</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>3.8157761904761903E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="s">
         <v>171</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>3.8157761904761903E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="s">
         <v>166</v>
       </c>
@@ -14769,7 +14769,7 @@
       </c>
       <c r="J47" s="86"/>
     </row>
-    <row r="48" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="91" t="s">
         <v>105</v>
       </c>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="J48" s="86"/>
     </row>
-    <row r="49" spans="1:29" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="91" t="s">
         <v>106</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="91" t="s">
         <v>167</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="s">
         <v>3</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="91" t="s">
         <v>4</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="91" t="s">
         <v>5</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="91" t="s">
         <v>6</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="91" t="s">
         <v>107</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="91" t="s">
         <v>108</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="91" t="s">
         <v>118</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="91" t="s">
         <v>119</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="91" t="s">
         <v>168</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="91" t="s">
         <v>169</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J61" s="86"/>
       <c r="L61" s="99" t="s">
         <v>108</v>
@@ -15867,7 +15867,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J62" s="86"/>
       <c r="L62" s="99" t="s">
         <v>118</v>
@@ -15924,7 +15924,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J63" s="86"/>
       <c r="L63" s="99" t="s">
         <v>119</v>
@@ -15981,7 +15981,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J64" s="86"/>
       <c r="L64" s="99" t="s">
         <v>168</v>
@@ -16038,7 +16038,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J65" s="86"/>
       <c r="L65" s="99" t="s">
         <v>169</v>
@@ -16095,22 +16095,22 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J66" s="86"/>
     </row>
-    <row r="67" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J67" s="86"/>
     </row>
-    <row r="68" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J68" s="86"/>
     </row>
-    <row r="69" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J69" s="86"/>
     </row>
-    <row r="70" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J70" s="86"/>
     </row>
-    <row r="71" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="109" t="s">
         <v>231</v>
       </c>
@@ -16147,17 +16147,17 @@
       <c r="AF71" s="11"/>
       <c r="AG71" s="11"/>
     </row>
-    <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="115" t="s">
+    <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="115"/>
+      <c r="B72" s="119"/>
       <c r="C72" s="86"/>
       <c r="D72" s="86"/>
       <c r="I72" s="86"/>
       <c r="J72" s="86"/>
     </row>
-    <row r="73" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="107" t="s">
         <v>83</v>
       </c>
@@ -16170,7 +16170,7 @@
       <c r="G73" s="86"/>
       <c r="H73" s="86"/>
     </row>
-    <row r="74" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="107" t="s">
         <v>112</v>
       </c>
@@ -16183,7 +16183,7 @@
       <c r="G74" s="86"/>
       <c r="H74" s="86"/>
     </row>
-    <row r="75" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="107" t="s">
         <v>82</v>
       </c>
@@ -16196,7 +16196,7 @@
       <c r="G75" s="86"/>
       <c r="H75" s="86"/>
     </row>
-    <row r="76" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="107" t="s">
         <v>114</v>
       </c>
@@ -16209,7 +16209,7 @@
       <c r="G76" s="86"/>
       <c r="H76" s="86"/>
     </row>
-    <row r="77" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="86"/>
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
@@ -16217,7 +16217,7 @@
       <c r="I77" s="86"/>
       <c r="J77" s="86"/>
     </row>
-    <row r="78" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="86"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
@@ -16225,7 +16225,7 @@
       <c r="I78" s="86"/>
       <c r="J78" s="86"/>
     </row>
-    <row r="79" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
@@ -16233,7 +16233,7 @@
       <c r="I79" s="86"/>
       <c r="J79" s="86"/>
     </row>
-    <row r="80" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -16245,7 +16245,7 @@
       <c r="I80" s="86"/>
       <c r="J80" s="86"/>
     </row>
-    <row r="81" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
@@ -16257,7 +16257,7 @@
       <c r="I81" s="86"/>
       <c r="J81" s="86"/>
     </row>
-    <row r="82" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="88" t="s">
         <v>232</v>
       </c>
@@ -16292,7 +16292,7 @@
       <c r="AD82" s="11"/>
       <c r="AE82" s="11"/>
     </row>
-    <row r="83" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="110" t="s">
         <v>117</v>
       </c>
@@ -16327,11 +16327,11 @@
       <c r="AD83" s="11"/>
       <c r="AE83" s="11"/>
     </row>
-    <row r="84" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="116" t="s">
+    <row r="84" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="116"/>
+      <c r="B84" s="120"/>
       <c r="C84" s="86"/>
       <c r="D84" s="86"/>
       <c r="E84" s="86"/>
@@ -16341,7 +16341,7 @@
       <c r="I84" s="86"/>
       <c r="J84" s="86"/>
     </row>
-    <row r="85" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="91" t="s">
         <v>83</v>
       </c>
@@ -16357,7 +16357,7 @@
       <c r="I85" s="86"/>
       <c r="J85" s="86"/>
     </row>
-    <row r="86" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="91" t="s">
         <v>112</v>
       </c>
@@ -16373,7 +16373,7 @@
       <c r="I86" s="86"/>
       <c r="J86" s="86"/>
     </row>
-    <row r="87" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="91" t="s">
         <v>82</v>
       </c>
@@ -16389,7 +16389,7 @@
       <c r="I87" s="86"/>
       <c r="J87" s="86"/>
     </row>
-    <row r="88" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="91" t="s">
         <v>81</v>
       </c>
@@ -16405,7 +16405,7 @@
       <c r="I88" s="86"/>
       <c r="J88" s="86"/>
     </row>
-    <row r="89" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
@@ -16417,7 +16417,7 @@
       <c r="I89" s="86"/>
       <c r="J89" s="86"/>
     </row>
-    <row r="90" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
@@ -16429,7 +16429,7 @@
       <c r="I90" s="86"/>
       <c r="J90" s="86"/>
     </row>
-    <row r="91" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
@@ -16441,7 +16441,7 @@
       <c r="I91" s="86"/>
       <c r="J91" s="86"/>
     </row>
-    <row r="92" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E92" s="86"/>
       <c r="F92" s="86"/>
       <c r="G92" s="86"/>
@@ -16449,7 +16449,7 @@
       <c r="I92" s="86"/>
       <c r="J92" s="86"/>
     </row>
-    <row r="93" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E93" s="86"/>
       <c r="F93" s="86"/>
       <c r="G93" s="86"/>
@@ -16457,7 +16457,7 @@
       <c r="I93" s="86"/>
       <c r="J93" s="86"/>
     </row>
-    <row r="94" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="109" t="s">
         <v>233</v>
       </c>
@@ -16492,7 +16492,7 @@
       <c r="AD94" s="11"/>
       <c r="AE94" s="11"/>
     </row>
-    <row r="95" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="110" t="s">
         <v>234</v>
       </c>
@@ -16527,7 +16527,7 @@
       <c r="AD95" s="11"/>
       <c r="AE95" s="11"/>
     </row>
-    <row r="96" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="91" t="s">
         <v>116</v>
       </c>
@@ -16539,7 +16539,7 @@
       <c r="I96" s="86"/>
       <c r="J96" s="86"/>
     </row>
-    <row r="97" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="91" t="s">
         <v>83</v>
       </c>
@@ -16555,7 +16555,7 @@
       <c r="I97" s="86"/>
       <c r="J97" s="86"/>
     </row>
-    <row r="98" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="91" t="s">
         <v>112</v>
       </c>
@@ -16571,7 +16571,7 @@
       <c r="I98" s="86"/>
       <c r="J98" s="86"/>
     </row>
-    <row r="99" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="91" t="s">
         <v>82</v>
       </c>
@@ -16587,7 +16587,7 @@
       <c r="I99" s="86"/>
       <c r="J99" s="86"/>
     </row>
-    <row r="100" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="91" t="s">
         <v>81</v>
       </c>
@@ -16602,7 +16602,7 @@
       <c r="I100" s="86"/>
       <c r="J100" s="86"/>
     </row>
-    <row r="101" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C101" s="86"/>
       <c r="D101" s="86"/>
       <c r="E101" s="86"/>
@@ -16612,7 +16612,7 @@
       <c r="I101" s="86"/>
       <c r="J101" s="86"/>
     </row>
-    <row r="102" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C102" s="86"/>
       <c r="D102" s="86"/>
       <c r="E102" s="86"/>
@@ -16622,7 +16622,7 @@
       <c r="I102" s="86"/>
       <c r="J102" s="86"/>
     </row>
-    <row r="103" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C103" s="86"/>
       <c r="D103" s="86"/>
       <c r="E103" s="86"/>
@@ -16632,7 +16632,7 @@
       <c r="I103" s="86"/>
       <c r="J103" s="86"/>
     </row>
-    <row r="104" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="86"/>
       <c r="B104" s="86"/>
       <c r="C104" s="86"/>
@@ -16644,7 +16644,7 @@
       <c r="I104" s="86"/>
       <c r="J104" s="86"/>
     </row>
-    <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C105" s="86"/>
       <c r="D105" s="86"/>
       <c r="E105" s="86"/>
@@ -16654,7 +16654,7 @@
       <c r="I105" s="86"/>
       <c r="J105" s="86"/>
     </row>
-    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="86"/>
       <c r="E106" s="86"/>
       <c r="F106" s="86"/>
@@ -16663,7 +16663,7 @@
       <c r="I106" s="86"/>
       <c r="J106" s="86"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C107" s="86"/>
       <c r="D107" s="86"/>
       <c r="E107" s="86"/>
@@ -16673,7 +16673,7 @@
       <c r="I107" s="86"/>
       <c r="J107" s="86"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C108" s="86"/>
       <c r="D108" s="86"/>
       <c r="E108" s="86"/>
@@ -16683,7 +16683,7 @@
       <c r="I108" s="86"/>
       <c r="J108" s="86"/>
     </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C109" s="86"/>
       <c r="D109" s="86"/>
       <c r="E109" s="86"/>
@@ -16693,7 +16693,7 @@
       <c r="I109" s="86"/>
       <c r="J109" s="86"/>
     </row>
-    <row r="110" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="86"/>
       <c r="B110" s="86"/>
       <c r="C110" s="86"/>
@@ -16705,7 +16705,7 @@
       <c r="I110" s="86"/>
       <c r="J110" s="86"/>
     </row>
-    <row r="111" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="86"/>
       <c r="B111" s="86"/>
       <c r="C111" s="86"/>
@@ -16717,7 +16717,7 @@
       <c r="I111" s="86"/>
       <c r="J111" s="86"/>
     </row>
-    <row r="112" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="86"/>
       <c r="B112" s="86"/>
       <c r="C112" s="86"/>
@@ -16729,7 +16729,7 @@
       <c r="I112" s="86"/>
       <c r="J112" s="86"/>
     </row>
-    <row r="113" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="86"/>
       <c r="B113" s="86"/>
       <c r="C113" s="86"/>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -894,21 +894,6 @@
   </si>
   <si>
     <r>
-      <t>Vaccine types (non-16/18 or non-4v, 9v covered)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Note: #s might be flipped with below, also I think highlighted zeros are wrong</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Non-Vaccine Types (other high risk). </t>
     </r>
     <r>
@@ -963,6 +948,21 @@
   </si>
   <si>
     <t>Reflects persistence/reactivation of pre-existing HPV types</t>
+  </si>
+  <si>
+    <r>
+      <t>Vaccine types (non-16/18 or non-4v, 9v covered, other high risk)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Note: #s might be flipped with below, also I think highlighted zeros are wrong</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1930,7 +1930,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -2365,7 +2365,7 @@
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
       <c r="F18" s="115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G18" s="115"/>
       <c r="H18" s="115"/>
@@ -2397,7 +2397,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H19" s="55" t="s">
         <v>1</v>
@@ -2561,7 +2561,7 @@
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="F24" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -2578,7 +2578,7 @@
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="F25" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K25" s="61"/>
       <c r="L25" s="2"/>
@@ -3185,7 +3185,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -9189,8 +9189,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="23" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="86"/>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
@@ -16112,7 +16112,7 @@
     </row>
     <row r="71" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71" s="88"/>
       <c r="C71" s="88"/>
@@ -16259,7 +16259,7 @@
     </row>
     <row r="82" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B82" s="88"/>
       <c r="C82" s="88"/>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="94" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -16494,7 +16494,7 @@
     </row>
     <row r="95" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -893,21 +893,6 @@
     <t>Vaccine types (16/18).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Non-Vaccine Types (other high risk). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Note: #s might be flipped with below, also I think highlighted zeros are wrong</t>
-    </r>
-  </si>
-  <si>
     <t>Natural immunity clearance mulitpliers for HIV-positive.</t>
   </si>
   <si>
@@ -961,8 +946,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> --&gt; Note: #s might be flipped with below, also I think highlighted zeros are wrong</t>
+      <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Vaccine Types (other high risk). </t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1088,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1122,6 +1110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,7 +1612,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1647,6 +1640,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2358,21 +2352,21 @@
       <c r="U17" s="38"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="F18" s="115" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="F18" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="2"/>
@@ -2397,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H19" s="55" t="s">
         <v>1</v>
@@ -2406,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="52"/>
-      <c r="L19" s="111"/>
+      <c r="L19" s="110"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="2"/>
@@ -2433,7 +2427,7 @@
       <c r="F20" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="112">
+      <c r="G20" s="111">
         <v>1</v>
       </c>
       <c r="H20" s="56">
@@ -2443,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="52"/>
-      <c r="L20" s="111"/>
+      <c r="L20" s="110"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="2"/>
@@ -2480,7 +2474,7 @@
         <v>4.12</v>
       </c>
       <c r="J21" s="52"/>
-      <c r="K21" s="113"/>
+      <c r="K21" s="112"/>
       <c r="L21" s="52"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2561,13 +2555,13 @@
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="F24" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="114"/>
+      <c r="K24" s="113"/>
       <c r="L24" s="52"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2578,7 +2572,7 @@
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="F25" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K25" s="61"/>
       <c r="L25" s="2"/>
@@ -2699,12 +2693,12 @@
       <c r="U31" s="38"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2911,12 +2905,12 @@
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="118"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3281,12 +3275,12 @@
       <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
@@ -3448,12 +3442,12 @@
       <c r="W17" s="38"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
@@ -3641,10 +3635,10 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="115"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -3774,10 +3768,10 @@
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="115"/>
+      <c r="B41" s="114"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -4280,11 +4274,11 @@
     </row>
     <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
-      <c r="B72" s="115" t="s">
+      <c r="B72" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="39" t="s">
@@ -9189,8 +9183,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13122,7 +13116,7 @@
     </row>
     <row r="23" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="86"/>
@@ -14413,7 +14407,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="89" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
@@ -14924,7 +14918,7 @@
       <c r="O50" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P50" s="106">
+      <c r="P50" s="120">
         <f t="array" ref="P50:P65">AH26*AL6:AL21+AH27*BG6:BG21+AH28*CB6:CB21</f>
         <v>0</v>
       </c>
@@ -14952,11 +14946,11 @@
       <c r="X50" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y50" s="106">
+      <c r="Y50" s="120">
         <f t="array" ref="Y50:Y65">AH26*AW6:AW21+AH27*BR6:BR21+AH28*CM6:CM21</f>
         <v>0</v>
       </c>
-      <c r="Z50" s="106">
+      <c r="Z50" s="120">
         <f t="array" ref="Z50:Z65">AH26*AW6:AW21+AH27*BS6:BS21+AH28*CN6:CN21</f>
         <v>0</v>
       </c>
@@ -15011,7 +15005,7 @@
       <c r="O51" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P51" s="106">
+      <c r="P51" s="120">
         <v>0</v>
       </c>
       <c r="Q51" s="27">
@@ -15038,10 +15032,10 @@
       <c r="X51" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y51" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="106">
+      <c r="Y51" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="120">
         <v>0</v>
       </c>
       <c r="AA51" s="27">
@@ -15095,7 +15089,7 @@
       <c r="O52" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P52" s="106">
+      <c r="P52" s="120">
         <v>0</v>
       </c>
       <c r="Q52" s="27">
@@ -15122,10 +15116,10 @@
       <c r="X52" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y52" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="106">
+      <c r="Y52" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="120">
         <v>0</v>
       </c>
       <c r="AA52" s="27">
@@ -15179,7 +15173,7 @@
       <c r="O53" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P53" s="106">
+      <c r="P53" s="120">
         <v>0</v>
       </c>
       <c r="Q53" s="27">
@@ -15206,10 +15200,10 @@
       <c r="X53" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y53" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="106">
+      <c r="Y53" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="120">
         <v>0</v>
       </c>
       <c r="AA53" s="27">
@@ -15263,7 +15257,7 @@
       <c r="O54" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P54" s="106">
+      <c r="P54" s="120">
         <v>0</v>
       </c>
       <c r="Q54" s="27">
@@ -15290,10 +15284,10 @@
       <c r="X54" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y54" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="106">
+      <c r="Y54" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="120">
         <v>0</v>
       </c>
       <c r="AA54" s="27">
@@ -15347,7 +15341,7 @@
       <c r="O55" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P55" s="106">
+      <c r="P55" s="120">
         <v>0</v>
       </c>
       <c r="Q55" s="27">
@@ -15374,10 +15368,10 @@
       <c r="X55" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y55" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="106">
+      <c r="Y55" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="120">
         <v>0</v>
       </c>
       <c r="AA55" s="27">
@@ -15431,7 +15425,7 @@
       <c r="O56" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P56" s="106">
+      <c r="P56" s="120">
         <v>0</v>
       </c>
       <c r="Q56" s="27">
@@ -15458,10 +15452,10 @@
       <c r="X56" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y56" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="106">
+      <c r="Y56" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="120">
         <v>0</v>
       </c>
       <c r="AA56" s="27">
@@ -15515,7 +15509,7 @@
       <c r="O57" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P57" s="106">
+      <c r="P57" s="120">
         <v>0</v>
       </c>
       <c r="Q57" s="27">
@@ -15542,10 +15536,10 @@
       <c r="X57" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y57" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="106">
+      <c r="Y57" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="120">
         <v>0</v>
       </c>
       <c r="AA57" s="27">
@@ -15599,7 +15593,7 @@
       <c r="O58" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P58" s="106">
+      <c r="P58" s="120">
         <v>0</v>
       </c>
       <c r="Q58" s="27">
@@ -15626,10 +15620,10 @@
       <c r="X58" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y58" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="106">
+      <c r="Y58" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="120">
         <v>0</v>
       </c>
       <c r="AA58" s="27">
@@ -15683,7 +15677,7 @@
       <c r="O59" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P59" s="106">
+      <c r="P59" s="120">
         <v>0</v>
       </c>
       <c r="Q59" s="27">
@@ -15710,10 +15704,10 @@
       <c r="X59" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y59" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="106">
+      <c r="Y59" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="120">
         <v>0</v>
       </c>
       <c r="AA59" s="27">
@@ -15767,7 +15761,7 @@
       <c r="O60" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P60" s="106">
+      <c r="P60" s="120">
         <v>0</v>
       </c>
       <c r="Q60" s="27">
@@ -15794,10 +15788,10 @@
       <c r="X60" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y60" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="106">
+      <c r="Y60" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="120">
         <v>0</v>
       </c>
       <c r="AA60" s="27">
@@ -15824,7 +15818,7 @@
       <c r="O61" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P61" s="106">
+      <c r="P61" s="120">
         <v>0</v>
       </c>
       <c r="Q61" s="27">
@@ -15851,10 +15845,10 @@
       <c r="X61" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y61" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="106">
+      <c r="Y61" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="120">
         <v>0</v>
       </c>
       <c r="AA61" s="27">
@@ -15881,7 +15875,7 @@
       <c r="O62" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P62" s="106">
+      <c r="P62" s="120">
         <v>0</v>
       </c>
       <c r="Q62" s="27">
@@ -15908,10 +15902,10 @@
       <c r="X62" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y62" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="106">
+      <c r="Y62" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="120">
         <v>0</v>
       </c>
       <c r="AA62" s="27">
@@ -15938,7 +15932,7 @@
       <c r="O63" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P63" s="106">
+      <c r="P63" s="120">
         <v>0</v>
       </c>
       <c r="Q63" s="27">
@@ -15965,10 +15959,10 @@
       <c r="X63" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y63" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="106">
+      <c r="Y63" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="120">
         <v>0</v>
       </c>
       <c r="AA63" s="27">
@@ -15995,7 +15989,7 @@
       <c r="O64" s="27">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="P64" s="106">
+      <c r="P64" s="120">
         <v>0</v>
       </c>
       <c r="Q64" s="27">
@@ -16022,10 +16016,10 @@
       <c r="X64" s="27">
         <v>0.20378033333333334</v>
       </c>
-      <c r="Y64" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="106">
+      <c r="Y64" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="120">
         <v>0</v>
       </c>
       <c r="AA64" s="27">
@@ -16052,7 +16046,7 @@
       <c r="O65" s="27">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="P65" s="106">
+      <c r="P65" s="120">
         <v>0</v>
       </c>
       <c r="Q65" s="27">
@@ -16079,10 +16073,10 @@
       <c r="X65" s="27">
         <v>0.20378033333333334</v>
       </c>
-      <c r="Y65" s="106">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="106">
+      <c r="Y65" s="120">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="120">
         <v>0</v>
       </c>
       <c r="AA65" s="27">
@@ -16111,8 +16105,8 @@
       <c r="J70" s="86"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="109" t="s">
-        <v>230</v>
+      <c r="A71" s="108" t="s">
+        <v>229</v>
       </c>
       <c r="B71" s="88"/>
       <c r="C71" s="88"/>
@@ -16148,20 +16142,20 @@
       <c r="AG71" s="11"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="119" t="s">
+      <c r="A72" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="119"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="86"/>
       <c r="D72" s="86"/>
       <c r="I72" s="86"/>
       <c r="J72" s="86"/>
     </row>
     <row r="73" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="107" t="s">
+      <c r="A73" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="108">
+      <c r="B73" s="107">
         <f>0.6</f>
         <v>0.6</v>
       </c>
@@ -16171,10 +16165,10 @@
       <c r="H73" s="86"/>
     </row>
     <row r="74" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="107" t="s">
+      <c r="A74" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="108">
+      <c r="B74" s="107">
         <f>0.55</f>
         <v>0.55000000000000004</v>
       </c>
@@ -16184,10 +16178,10 @@
       <c r="H74" s="86"/>
     </row>
     <row r="75" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="107" t="s">
+      <c r="A75" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="108">
+      <c r="B75" s="107">
         <f>0.45</f>
         <v>0.45</v>
       </c>
@@ -16197,10 +16191,10 @@
       <c r="H75" s="86"/>
     </row>
     <row r="76" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="107" t="s">
+      <c r="A76" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="108">
+      <c r="B76" s="107">
         <f>0.3</f>
         <v>0.3</v>
       </c>
@@ -16259,7 +16253,7 @@
     </row>
     <row r="82" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" s="88"/>
       <c r="C82" s="88"/>
@@ -16293,7 +16287,7 @@
       <c r="AE82" s="11"/>
     </row>
     <row r="83" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="110" t="s">
+      <c r="A83" s="109" t="s">
         <v>117</v>
       </c>
       <c r="B83" s="88"/>
@@ -16328,10 +16322,10 @@
       <c r="AE83" s="11"/>
     </row>
     <row r="84" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="120" t="s">
+      <c r="A84" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="120"/>
+      <c r="B84" s="119"/>
       <c r="C84" s="86"/>
       <c r="D84" s="86"/>
       <c r="E84" s="86"/>
@@ -16458,8 +16452,8 @@
       <c r="J93" s="86"/>
     </row>
     <row r="94" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="109" t="s">
-        <v>232</v>
+      <c r="A94" s="108" t="s">
+        <v>231</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -16493,8 +16487,8 @@
       <c r="AE94" s="11"/>
     </row>
     <row r="95" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="110" t="s">
-        <v>233</v>
+      <c r="A95" s="109" t="s">
+        <v>232</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -9,25 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
     <sheet name="Cervical Cancer" sheetId="2" r:id="rId2"/>
     <sheet name="Screening and Treatment" sheetId="4" r:id="rId3"/>
     <sheet name="CIN Transition" sheetId="7" r:id="rId4"/>
+    <sheet name="CIN transitions by type" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
   <si>
     <t>Age</t>
   </si>
@@ -935,19 +942,128 @@
     <t>Reflects persistence/reactivation of pre-existing HPV types</t>
   </si>
   <si>
+    <t>HPV to CIN1</t>
+  </si>
+  <si>
+    <t>Other 9v HR</t>
+  </si>
+  <si>
+    <t>CIN3 to cancer</t>
+  </si>
+  <si>
+    <t>Weighted averages for 9v types</t>
+  </si>
+  <si>
+    <t>Weighted averages for non-9v hr types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumptions: </t>
+  </si>
+  <si>
+    <t>We assume the type distribution for CIN2 to be the average of the type distributions for low- and high-grade lesions</t>
+  </si>
+  <si>
+    <t>Source for the type distributions = Africa-specific estimates from Guan P et al. Human papillomavirus types in 115,789 HPV-positive women: a meta-analysis from cervical infection to cancer. Int J Cancer. 2012 Nov 15;131(10):2349-59. doi: 10.1002/ijc.27485. Limitation is that these include HIV+ and HIV-, and the transitions in this table are specific to HIV-</t>
+  </si>
+  <si>
+    <t>`10-25</t>
+  </si>
+  <si>
+    <t>`25-45</t>
+  </si>
+  <si>
+    <t>`50-70</t>
+  </si>
+  <si>
+    <t>70+</t>
+  </si>
+  <si>
+    <t>Type distributions by stage of infection (based on distributions from Guan et al. 2012 -  see below)</t>
+  </si>
+  <si>
     <r>
-      <t>Vaccine types (non-16/18 or non-4v, 9v covered, other high risk)</t>
+      <t xml:space="preserve">Data provided by CCNSW - expanded age groups from 25 to 5-year groups, assuming same rates within each component age group. Color coding: </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Blue = regression from a state</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>green = persistence</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>red = progression</t>
     </r>
+  </si>
+  <si>
+    <t>Relative risks by age (ref = 10-25 yo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We assume that all regression flows out of a compartment flow into the neighboring compartment, and similarly for all progression flows. For example, to calculate progression from CIN1 to CIN2, we add the flows specified for CIN1 --&gt; CIN2 and CIN1 --&gt; CIN3. </t>
+  </si>
+  <si>
+    <t>We assume that the progression rates for the 9v types other than 18 are 95% of the rates for HPV18 for HPV --&gt; CIN1, 90% for CIN1 --&gt; CIN2, 85% for CIN2 --&gt; CIN3, and 75% for CIN3 --&gt; cervical cancer. For regression, we take the inverse (1.05%, 1.10%, 1.15%, and 1.25%). This is based on data from Gilham et al. 2019 (https://www.ncbi.nlm.nih.gov/pubmed/31219027), which reported that the risk of CIN3 for 9v types other than 18 is ~85% of the risk for 18.  But given that a lower proportion of cases are attributable to 18 at earlier stages of disease, we phase it in so that the rates are more simlar at earlier stages. For progression from CIN3, the rates for other 9v types had to be 75% of the rates for 18 in order for the rates for the non-9v types to be &gt;0 using the weighted average approach.</t>
+  </si>
+  <si>
+    <t>We calculate the rates for other non-9v types by assuming that the CCSNW rates for other high-risk types (not 16/18) is a weighted average of the estimates for the non-16/18 9v types and the other high-risk types: non-9v hr rates = (reported ohr rates - (9v-hr * proportion of non-16/18 cases that are vaccine-type)) / (1 - proportion of non-16/18 cases that are vaccine type)</t>
+  </si>
+  <si>
+    <t>We will treat the relative rates by age to be fixed in the model -- from the calculated progression and regression rates for 9v and other hr types, below, we calculate the relative rates for ages 25-45, 50-70, and 70+ relative to 10-25. The age associatoins are similar for 9v and other hr types, so we will average/round these relative risks. These will go into the model as inputs, and we will calibrate the rates for the 10-25 group.</t>
+  </si>
+  <si>
+    <t>`==&gt;</t>
+  </si>
+  <si>
+    <t>combined relative risks by age (ref = 10-25 yo)</t>
+  </si>
+  <si>
+    <t>INPUT FOR CALIBRATION</t>
+  </si>
+  <si>
+    <t>INPUTS (TREAT AS FIXED)</t>
+  </si>
+  <si>
+    <t>Vaccine types (non-16/18 or non-4v, 9v covered, other high risk)</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Vaccine Types (other high risk). </t>
@@ -957,10 +1073,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,21 +1191,57 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,8 +1272,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1463,11 +1622,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1617,11 +1829,104 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1645,7 +1950,872 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1928,26 +3098,26 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="37"/>
-    <col min="9" max="9" width="27.140625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="37"/>
+    <col min="9" max="9" width="27.1796875" style="37" customWidth="1"/>
+    <col min="11" max="11" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" customWidth="1"/>
-    <col min="21" max="22" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.453125" customWidth="1"/>
+    <col min="21" max="22" width="49.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.453125" customWidth="1"/>
+    <col min="25" max="25" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>207</v>
       </c>
@@ -1975,7 +3145,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>206</v>
       </c>
@@ -2003,7 +3173,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>67</v>
       </c>
@@ -2035,7 +3205,7 @@
       <c r="W3" s="61"/>
       <c r="X3" s="61"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>71</v>
       </c>
@@ -2068,7 +3238,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>68</v>
       </c>
@@ -2101,7 +3271,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -2129,7 +3299,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -2157,7 +3327,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -2179,7 +3349,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -2208,7 +3378,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -2232,7 +3402,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -2256,7 +3426,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -2274,7 +3444,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -2292,7 +3462,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2303,7 +3473,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2314,7 +3484,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2326,7 +3496,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>208</v>
       </c>
@@ -2351,19 +3521,19 @@
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="F18" s="114" t="s">
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="F18" s="181" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
       <c r="J18" s="52"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
@@ -2374,7 +3544,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="45.5" x14ac:dyDescent="0.35">
       <c r="A19" s="47" t="s">
         <v>20</v>
       </c>
@@ -2408,7 +3578,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="41" t="s">
         <v>21</v>
       </c>
@@ -2445,7 +3615,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="54" t="s">
         <v>22</v>
       </c>
@@ -2483,7 +3653,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="54" t="s">
         <v>72</v>
       </c>
@@ -2515,7 +3685,7 @@
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
     </row>
-    <row r="23" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
         <v>23</v>
       </c>
@@ -2549,7 +3719,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="52"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -2566,7 +3736,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="52"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -2579,7 +3749,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="52"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -2589,7 +3759,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="52"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -2603,7 +3773,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -2617,7 +3787,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
         <v>208</v>
       </c>
@@ -2642,7 +3812,7 @@
       <c r="T29" s="38"/>
       <c r="U29" s="38"/>
     </row>
-    <row r="30" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
         <v>79</v>
       </c>
@@ -2667,7 +3837,7 @@
       <c r="T30" s="38"/>
       <c r="U30" s="38"/>
     </row>
-    <row r="31" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
         <v>80</v>
       </c>
@@ -2692,13 +3862,13 @@
       <c r="T31" s="38"/>
       <c r="U31" s="38"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="114" t="s">
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2707,7 +3877,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="49" t="s">
         <v>75</v>
       </c>
@@ -2728,7 +3898,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="41" t="s">
         <v>76</v>
       </c>
@@ -2749,7 +3919,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="41" t="s">
         <v>77</v>
       </c>
@@ -2770,7 +3940,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>78</v>
       </c>
@@ -2791,7 +3961,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -2804,7 +3974,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="39"/>
       <c r="B38" s="50"/>
       <c r="C38" s="50"/>
@@ -2817,7 +3987,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -2830,7 +4000,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2839,7 +4009,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -2853,7 +4023,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="44" t="s">
         <v>209</v>
       </c>
@@ -2878,7 +4048,7 @@
       <c r="T42" s="38"/>
       <c r="U42" s="38"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="46" t="s">
         <v>210</v>
       </c>
@@ -2903,14 +4073,14 @@
       <c r="T43" s="38"/>
       <c r="U43" s="38"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="55"/>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="117"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="184"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2919,7 +4089,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="31" x14ac:dyDescent="0.35">
       <c r="A45" s="56"/>
       <c r="B45" s="59" t="s">
         <v>19</v>
@@ -2941,7 +4111,7 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="56" t="s">
         <v>81</v>
       </c>
@@ -2966,7 +4136,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="56" t="s">
         <v>82</v>
       </c>
@@ -2990,7 +4160,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="56" t="s">
         <v>112</v>
       </c>
@@ -3014,7 +4184,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="56" t="s">
         <v>83</v>
       </c>
@@ -3038,7 +4208,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -3052,7 +4222,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -3066,7 +4236,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K52" s="61"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3075,7 +4245,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3084,7 +4254,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3093,7 +4263,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3102,7 +4272,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3111,7 +4281,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3120,7 +4290,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -3134,7 +4304,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -3148,7 +4318,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -3183,17 +4353,17 @@
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>211</v>
       </c>
@@ -3220,7 +4390,7 @@
       <c r="V1" s="38"/>
       <c r="W1" s="38"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>212</v>
       </c>
@@ -3247,7 +4417,7 @@
       <c r="V2" s="38"/>
       <c r="W2" s="38"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>213</v>
       </c>
@@ -3274,17 +4444,17 @@
       <c r="V3" s="38"/>
       <c r="W3" s="38"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="181" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="55"/>
       <c r="B5" s="55" t="s">
         <v>192</v>
@@ -3298,7 +4468,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
         <v>197</v>
       </c>
@@ -3314,7 +4484,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
         <v>198</v>
       </c>
@@ -3330,7 +4500,7 @@
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
         <v>199</v>
       </c>
@@ -3346,7 +4516,7 @@
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
         <v>200</v>
       </c>
@@ -3362,7 +4532,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
     </row>
-    <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
         <v>196</v>
       </c>
@@ -3378,7 +4548,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="55" t="s">
         <v>21</v>
       </c>
@@ -3394,27 +4564,27 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>214</v>
       </c>
@@ -3441,17 +4611,17 @@
       <c r="V17" s="38"/>
       <c r="W17" s="38"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="181" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="55"/>
       <c r="B19" s="55" t="s">
         <v>192</v>
@@ -3465,7 +4635,7 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
         <v>197</v>
       </c>
@@ -3481,7 +4651,7 @@
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
         <v>198</v>
       </c>
@@ -3497,7 +4667,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="55" t="s">
         <v>199</v>
       </c>
@@ -3513,7 +4683,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="55" t="s">
         <v>200</v>
       </c>
@@ -3529,7 +4699,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="55" t="s">
         <v>196</v>
       </c>
@@ -3545,7 +4715,7 @@
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="55" t="s">
         <v>21</v>
       </c>
@@ -3561,17 +4731,17 @@
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -3583,7 +4753,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -3595,7 +4765,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -3607,7 +4777,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="44" t="s">
         <v>215</v>
       </c>
@@ -3634,11 +4804,11 @@
       <c r="V31" s="38"/>
       <c r="W31" s="38"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="114" t="s">
+    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="114"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -3648,7 +4818,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
         <v>16</v>
       </c>
@@ -3664,7 +4834,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="56" t="s">
         <v>17</v>
       </c>
@@ -3680,7 +4850,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -3692,7 +4862,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -3704,7 +4874,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -3716,7 +4886,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -3728,7 +4898,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -3740,7 +4910,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="44" t="s">
         <v>217</v>
       </c>
@@ -3767,11 +4937,11 @@
       <c r="V40" s="38"/>
       <c r="W40" s="38"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="114" t="s">
+    <row r="41" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="114"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -3781,7 +4951,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="56" t="s">
         <v>10</v>
       </c>
@@ -3797,7 +4967,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="56" t="s">
         <v>13</v>
       </c>
@@ -3813,7 +4983,7 @@
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
     </row>
-    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="56" t="s">
         <v>14</v>
       </c>
@@ -3829,7 +4999,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -3841,7 +5011,7 @@
       <c r="I45" s="39"/>
       <c r="J45" s="39"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -3853,7 +5023,7 @@
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -3865,7 +5035,7 @@
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -3877,7 +5047,7 @@
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -3889,7 +5059,7 @@
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
     </row>
-    <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="44" t="s">
         <v>216</v>
       </c>
@@ -3916,7 +5086,7 @@
       <c r="V51" s="38"/>
       <c r="W51" s="38"/>
     </row>
-    <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="46" t="s">
         <v>9</v>
       </c>
@@ -3943,7 +5113,7 @@
       <c r="V52" s="38"/>
       <c r="W52" s="38"/>
     </row>
-    <row r="53" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="55" t="s">
         <v>7</v>
       </c>
@@ -3961,7 +5131,7 @@
       </c>
       <c r="F53" s="39"/>
     </row>
-    <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="69">
         <v>1</v>
       </c>
@@ -3980,7 +5150,7 @@
       </c>
       <c r="F54" s="39"/>
     </row>
-    <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="69" t="s">
         <v>11</v>
       </c>
@@ -3999,7 +5169,7 @@
       </c>
       <c r="F55" s="39"/>
     </row>
-    <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="69" t="s">
         <v>12</v>
       </c>
@@ -4018,7 +5188,7 @@
       </c>
       <c r="F56" s="39"/>
     </row>
-    <row r="57" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="69" t="s">
         <v>12</v>
       </c>
@@ -4037,7 +5207,7 @@
       </c>
       <c r="F57" s="39"/>
     </row>
-    <row r="58" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="69" t="s">
         <v>12</v>
       </c>
@@ -4056,7 +5226,7 @@
       </c>
       <c r="F58" s="39"/>
     </row>
-    <row r="59" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="69" t="s">
         <v>12</v>
       </c>
@@ -4075,7 +5245,7 @@
       </c>
       <c r="F59" s="39"/>
     </row>
-    <row r="60" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="69" t="s">
         <v>12</v>
       </c>
@@ -4094,7 +5264,7 @@
       </c>
       <c r="F60" s="39"/>
     </row>
-    <row r="61" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="69" t="s">
         <v>12</v>
       </c>
@@ -4113,7 +5283,7 @@
       </c>
       <c r="F61" s="39"/>
     </row>
-    <row r="62" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="69" t="s">
         <v>12</v>
       </c>
@@ -4132,7 +5302,7 @@
       </c>
       <c r="F62" s="39"/>
     </row>
-    <row r="63" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="70" t="s">
         <v>122</v>
       </c>
@@ -4151,7 +5321,7 @@
       </c>
       <c r="F63" s="39"/>
     </row>
-    <row r="64" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -4159,7 +5329,7 @@
       <c r="E64" s="39"/>
       <c r="F64" s="39"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -4167,7 +5337,7 @@
       <c r="E65" s="39"/>
       <c r="F65" s="39"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -4175,7 +5345,7 @@
       <c r="E66" s="39"/>
       <c r="F66" s="39"/>
     </row>
-    <row r="67" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -4183,7 +5353,7 @@
       <c r="E67" s="39"/>
       <c r="F67" s="39"/>
     </row>
-    <row r="68" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -4191,7 +5361,7 @@
       <c r="E68" s="39"/>
       <c r="F68" s="39"/>
     </row>
-    <row r="69" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="45" t="s">
         <v>218</v>
       </c>
@@ -4218,7 +5388,7 @@
       <c r="V69" s="38"/>
       <c r="W69" s="38"/>
     </row>
-    <row r="70" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="46" t="s">
         <v>213</v>
       </c>
@@ -4245,7 +5415,7 @@
       <c r="V70" s="38"/>
       <c r="W70" s="38"/>
     </row>
-    <row r="71" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="46" t="s">
         <v>39</v>
       </c>
@@ -4272,13 +5442,13 @@
       <c r="V71" s="38"/>
       <c r="W71" s="38"/>
     </row>
-    <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="56"/>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
+      <c r="C72" s="181"/>
+      <c r="D72" s="181"/>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="39" t="s">
@@ -4288,7 +5458,7 @@
       <c r="I72" s="39"/>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="55" t="s">
         <v>25</v>
       </c>
@@ -4312,7 +5482,7 @@
       <c r="I73" s="39"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
         <v>26</v>
       </c>
@@ -4336,7 +5506,7 @@
       <c r="I74" s="39"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
         <v>27</v>
       </c>
@@ -4360,7 +5530,7 @@
       <c r="I75" s="39"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
         <v>28</v>
       </c>
@@ -4382,7 +5552,7 @@
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
         <v>29</v>
       </c>
@@ -4402,7 +5572,7 @@
       <c r="I77" s="39"/>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -4416,7 +5586,7 @@
       <c r="I78" s="39"/>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -4432,7 +5602,7 @@
       <c r="I79" s="39"/>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -4449,7 +5619,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -4466,7 +5636,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="39"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -4478,7 +5648,7 @@
       <c r="I82" s="39"/>
       <c r="J82" s="39"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -4490,7 +5660,7 @@
       <c r="I83" s="39"/>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -4502,7 +5672,7 @@
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -4514,7 +5684,7 @@
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -4526,7 +5696,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="39"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -4560,28 +5730,28 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" customWidth="1"/>
-    <col min="20" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.1796875" customWidth="1"/>
+    <col min="20" max="23" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.453125" customWidth="1"/>
     <col min="26" max="26" width="32" customWidth="1"/>
-    <col min="27" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" customWidth="1"/>
+    <col min="27" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>219</v>
       </c>
@@ -4603,7 +5773,7 @@
       <c r="Q1" s="38"/>
       <c r="R1" s="38"/>
     </row>
-    <row r="2" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>48</v>
       </c>
@@ -4625,7 +5795,7 @@
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
     </row>
-    <row r="3" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>40</v>
       </c>
@@ -4640,7 +5810,7 @@
       </c>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>41</v>
       </c>
@@ -4655,7 +5825,7 @@
       </c>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>42</v>
       </c>
@@ -4670,7 +5840,7 @@
       </c>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>43</v>
       </c>
@@ -4685,7 +5855,7 @@
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>44</v>
       </c>
@@ -4700,14 +5870,14 @@
       </c>
       <c r="E7" s="39"/>
     </row>
-    <row r="8" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -4731,7 +5901,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -4755,7 +5925,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -4779,7 +5949,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -4804,7 +5974,7 @@
       <c r="W12" s="2"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>220</v>
       </c>
@@ -4831,7 +6001,7 @@
       <c r="V13" s="75"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>58</v>
       </c>
@@ -4858,7 +6028,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
       <c r="B15" s="55" t="s">
         <v>54</v>
@@ -4886,7 +6056,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
         <v>49</v>
       </c>
@@ -4920,7 +6090,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="78" t="s">
         <v>50</v>
       </c>
@@ -4954,7 +6124,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="78" t="s">
         <v>51</v>
       </c>
@@ -4988,7 +6158,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
         <v>52</v>
       </c>
@@ -5010,7 +6180,7 @@
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="78" t="s">
         <v>53</v>
       </c>
@@ -5039,7 +6209,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -5058,7 +6228,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -5077,7 +6247,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -5097,7 +6267,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -5116,7 +6286,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -5135,7 +6305,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="45" t="s">
         <v>221</v>
       </c>
@@ -5163,7 +6333,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="46" t="s">
         <v>59</v>
       </c>
@@ -5191,7 +6361,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A28" s="79" t="s">
         <v>60</v>
       </c>
@@ -5212,7 +6382,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="42">
         <v>0.16</v>
       </c>
@@ -5234,7 +6404,7 @@
       <c r="X29" s="9"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -5253,7 +6423,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -5272,7 +6442,7 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -5291,7 +6461,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="9"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -5310,7 +6480,7 @@
       <c r="W33" s="6"/>
       <c r="X33" s="9"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -5329,7 +6499,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="80" t="s">
         <v>223</v>
       </c>
@@ -5357,7 +6527,7 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="83" t="s">
         <v>65</v>
       </c>
@@ -5385,7 +6555,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="56"/>
       <c r="B37" s="55" t="s">
         <v>64</v>
@@ -5406,7 +6576,7 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="55" t="s">
         <v>49</v>
       </c>
@@ -5431,7 +6601,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="78" t="s">
         <v>63</v>
       </c>
@@ -5451,7 +6621,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="78" t="s">
         <v>62</v>
       </c>
@@ -5471,7 +6641,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -5483,7 +6653,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -5495,7 +6665,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -5507,7 +6677,7 @@
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -5519,7 +6689,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -5531,7 +6701,7 @@
       <c r="I45" s="39"/>
       <c r="J45" s="39"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="45" t="s">
         <v>222</v>
       </c>
@@ -5552,7 +6722,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="38"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="46" t="s">
         <v>120</v>
       </c>
@@ -5573,7 +6743,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
     </row>
-    <row r="48" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="31" x14ac:dyDescent="0.35">
       <c r="A48" s="84" t="s">
         <v>121</v>
       </c>
@@ -5589,7 +6759,7 @@
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -5601,7 +6771,7 @@
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -5613,7 +6783,7 @@
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
     </row>
-    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -5625,7 +6795,7 @@
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
     </row>
-    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -5637,7 +6807,7 @@
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -5649,7 +6819,7 @@
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
     </row>
-    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="44" t="s">
         <v>225</v>
       </c>
@@ -5670,7 +6840,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="38"/>
     </row>
-    <row r="55" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="56"/>
       <c r="B55" s="55" t="s">
         <v>0</v>
@@ -5684,7 +6854,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
     </row>
-    <row r="56" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="55" t="s">
         <v>66</v>
       </c>
@@ -5700,7 +6870,7 @@
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
     </row>
-    <row r="57" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
         <v>224</v>
       </c>
@@ -5716,7 +6886,7 @@
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
     </row>
-    <row r="58" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -5728,7 +6898,7 @@
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
     </row>
-    <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -5740,7 +6910,7 @@
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
     </row>
-    <row r="60" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -5752,7 +6922,7 @@
       <c r="I60" s="39"/>
       <c r="J60" s="39"/>
     </row>
-    <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -5764,7 +6934,7 @@
       <c r="I61" s="39"/>
       <c r="J61" s="39"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -5776,7 +6946,7 @@
       <c r="I62" s="39"/>
       <c r="J62" s="39"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -5788,7 +6958,7 @@
       <c r="I63" s="39"/>
       <c r="J63" s="39"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -5800,7 +6970,7 @@
       <c r="I64" s="39"/>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -5812,7 +6982,7 @@
       <c r="I65" s="39"/>
       <c r="J65" s="39"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -5824,7 +6994,7 @@
       <c r="I66" s="39"/>
       <c r="J66" s="39"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -5836,7 +7006,7 @@
       <c r="I67" s="39"/>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -5848,7 +7018,7 @@
       <c r="I68" s="39"/>
       <c r="J68" s="39"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -5860,7 +7030,7 @@
       <c r="I69" s="39"/>
       <c r="J69" s="39"/>
     </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -5872,7 +7042,7 @@
       <c r="I70" s="39"/>
       <c r="J70" s="39"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -5884,7 +7054,7 @@
       <c r="I71" s="39"/>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -5896,7 +7066,7 @@
       <c r="I72" s="39"/>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -5908,7 +7078,7 @@
       <c r="I73" s="39"/>
       <c r="J73" s="39"/>
     </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -5920,7 +7090,7 @@
       <c r="I74" s="39"/>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -5932,7 +7102,7 @@
       <c r="I75" s="39"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -5944,7 +7114,7 @@
       <c r="I76" s="39"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -5956,7 +7126,7 @@
       <c r="I77" s="39"/>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -5968,7 +7138,7 @@
       <c r="I78" s="39"/>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -5980,7 +7150,7 @@
       <c r="I79" s="39"/>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -5992,7 +7162,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -6004,7 +7174,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="39"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -6016,7 +7186,7 @@
       <c r="I82" s="39"/>
       <c r="J82" s="39"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -6028,7 +7198,7 @@
       <c r="I83" s="39"/>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -6040,7 +7210,7 @@
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -6052,7 +7222,7 @@
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -6064,7 +7234,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="39"/>
     </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -6076,7 +7246,7 @@
       <c r="I87" s="39"/>
       <c r="J87" s="39"/>
     </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -6088,7 +7258,7 @@
       <c r="I88" s="39"/>
       <c r="J88" s="39"/>
     </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -6100,7 +7270,7 @@
       <c r="I89" s="39"/>
       <c r="J89" s="39"/>
     </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -6112,7 +7282,7 @@
       <c r="I90" s="39"/>
       <c r="J90" s="39"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -6124,7 +7294,7 @@
       <c r="I91" s="39"/>
       <c r="J91" s="39"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -6136,7 +7306,7 @@
       <c r="I92" s="39"/>
       <c r="J92" s="39"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -6148,7 +7318,7 @@
       <c r="I93" s="39"/>
       <c r="J93" s="39"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -6160,7 +7330,7 @@
       <c r="I94" s="39"/>
       <c r="J94" s="39"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -6172,7 +7342,7 @@
       <c r="I95" s="39"/>
       <c r="J95" s="39"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -6184,7 +7354,7 @@
       <c r="I96" s="39"/>
       <c r="J96" s="39"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -6196,7 +7366,7 @@
       <c r="I97" s="39"/>
       <c r="J97" s="39"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -6208,7 +7378,7 @@
       <c r="I98" s="39"/>
       <c r="J98" s="39"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -6220,7 +7390,7 @@
       <c r="I99" s="39"/>
       <c r="J99" s="39"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -6232,7 +7402,7 @@
       <c r="I100" s="39"/>
       <c r="J100" s="39"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -6244,7 +7414,7 @@
       <c r="I101" s="39"/>
       <c r="J101" s="39"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -6256,7 +7426,7 @@
       <c r="I102" s="39"/>
       <c r="J102" s="39"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
@@ -6268,7 +7438,7 @@
       <c r="I103" s="39"/>
       <c r="J103" s="39"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
@@ -6280,7 +7450,7 @@
       <c r="I104" s="39"/>
       <c r="J104" s="39"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="39"/>
       <c r="B105" s="39"/>
       <c r="C105" s="39"/>
@@ -6292,7 +7462,7 @@
       <c r="I105" s="39"/>
       <c r="J105" s="39"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="39"/>
       <c r="B106" s="39"/>
       <c r="C106" s="39"/>
@@ -6304,7 +7474,7 @@
       <c r="I106" s="39"/>
       <c r="J106" s="39"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
@@ -6316,7 +7486,7 @@
       <c r="I107" s="39"/>
       <c r="J107" s="39"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
@@ -6328,7 +7498,7 @@
       <c r="I108" s="39"/>
       <c r="J108" s="39"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="39"/>
@@ -6340,7 +7510,7 @@
       <c r="I109" s="39"/>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
@@ -6352,7 +7522,7 @@
       <c r="I110" s="39"/>
       <c r="J110" s="39"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
@@ -6364,7 +7534,7 @@
       <c r="I111" s="39"/>
       <c r="J111" s="39"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
@@ -6376,7 +7546,7 @@
       <c r="I112" s="39"/>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
@@ -6388,7 +7558,7 @@
       <c r="I113" s="39"/>
       <c r="J113" s="39"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
@@ -6400,7 +7570,7 @@
       <c r="I114" s="39"/>
       <c r="J114" s="39"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
@@ -6412,7 +7582,7 @@
       <c r="I115" s="39"/>
       <c r="J115" s="39"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
@@ -6424,7 +7594,7 @@
       <c r="I116" s="39"/>
       <c r="J116" s="39"/>
     </row>
-    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
@@ -6436,7 +7606,7 @@
       <c r="I117" s="39"/>
       <c r="J117" s="39"/>
     </row>
-    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
@@ -6448,7 +7618,7 @@
       <c r="I118" s="39"/>
       <c r="J118" s="39"/>
     </row>
-    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
@@ -6460,7 +7630,7 @@
       <c r="I119" s="39"/>
       <c r="J119" s="39"/>
     </row>
-    <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
@@ -6472,7 +7642,7 @@
       <c r="I120" s="39"/>
       <c r="J120" s="39"/>
     </row>
-    <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="39"/>
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
@@ -6484,7 +7654,7 @@
       <c r="I121" s="39"/>
       <c r="J121" s="39"/>
     </row>
-    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="39"/>
       <c r="B122" s="39"/>
       <c r="C122" s="39"/>
@@ -6496,7 +7666,7 @@
       <c r="I122" s="39"/>
       <c r="J122" s="39"/>
     </row>
-    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
@@ -6508,7 +7678,7 @@
       <c r="I123" s="39"/>
       <c r="J123" s="39"/>
     </row>
-    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
@@ -6520,7 +7690,7 @@
       <c r="I124" s="39"/>
       <c r="J124" s="39"/>
     </row>
-    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="39"/>
       <c r="B125" s="39"/>
       <c r="C125" s="39"/>
@@ -6532,7 +7702,7 @@
       <c r="I125" s="39"/>
       <c r="J125" s="39"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="39"/>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
@@ -6544,7 +7714,7 @@
       <c r="I126" s="39"/>
       <c r="J126" s="39"/>
     </row>
-    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="39"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
@@ -6556,7 +7726,7 @@
       <c r="I127" s="39"/>
       <c r="J127" s="39"/>
     </row>
-    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="39"/>
       <c r="B128" s="39"/>
       <c r="C128" s="39"/>
@@ -6568,7 +7738,7 @@
       <c r="I128" s="39"/>
       <c r="J128" s="39"/>
     </row>
-    <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="39"/>
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
@@ -6580,7 +7750,7 @@
       <c r="I129" s="39"/>
       <c r="J129" s="39"/>
     </row>
-    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="39"/>
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
@@ -6592,7 +7762,7 @@
       <c r="I130" s="39"/>
       <c r="J130" s="39"/>
     </row>
-    <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="39"/>
       <c r="B131" s="39"/>
       <c r="C131" s="39"/>
@@ -6604,7 +7774,7 @@
       <c r="I131" s="39"/>
       <c r="J131" s="39"/>
     </row>
-    <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="39"/>
       <c r="B132" s="39"/>
       <c r="C132" s="39"/>
@@ -6616,7 +7786,7 @@
       <c r="I132" s="39"/>
       <c r="J132" s="39"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="39"/>
       <c r="B133" s="39"/>
       <c r="C133" s="39"/>
@@ -6628,7 +7798,7 @@
       <c r="I133" s="39"/>
       <c r="J133" s="39"/>
     </row>
-    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="39"/>
       <c r="B134" s="39"/>
       <c r="C134" s="39"/>
@@ -6640,7 +7810,7 @@
       <c r="I134" s="39"/>
       <c r="J134" s="39"/>
     </row>
-    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="39"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
@@ -6652,7 +7822,7 @@
       <c r="I135" s="39"/>
       <c r="J135" s="39"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="39"/>
       <c r="B136" s="39"/>
       <c r="C136" s="39"/>
@@ -6664,7 +7834,7 @@
       <c r="I136" s="39"/>
       <c r="J136" s="39"/>
     </row>
-    <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="39"/>
       <c r="B137" s="39"/>
       <c r="C137" s="39"/>
@@ -6676,7 +7846,7 @@
       <c r="I137" s="39"/>
       <c r="J137" s="39"/>
     </row>
-    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="39"/>
       <c r="B138" s="39"/>
       <c r="C138" s="39"/>
@@ -6688,7 +7858,7 @@
       <c r="I138" s="39"/>
       <c r="J138" s="39"/>
     </row>
-    <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="39"/>
       <c r="B139" s="39"/>
       <c r="C139" s="39"/>
@@ -6700,7 +7870,7 @@
       <c r="I139" s="39"/>
       <c r="J139" s="39"/>
     </row>
-    <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="39"/>
       <c r="B140" s="39"/>
       <c r="C140" s="39"/>
@@ -6712,7 +7882,7 @@
       <c r="I140" s="39"/>
       <c r="J140" s="39"/>
     </row>
-    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="39"/>
       <c r="B141" s="39"/>
       <c r="C141" s="39"/>
@@ -6724,7 +7894,7 @@
       <c r="I141" s="39"/>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="39"/>
       <c r="B142" s="39"/>
       <c r="C142" s="39"/>
@@ -6736,7 +7906,7 @@
       <c r="I142" s="39"/>
       <c r="J142" s="39"/>
     </row>
-    <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="39"/>
       <c r="B143" s="39"/>
       <c r="C143" s="39"/>
@@ -6748,7 +7918,7 @@
       <c r="I143" s="39"/>
       <c r="J143" s="39"/>
     </row>
-    <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="39"/>
       <c r="B144" s="39"/>
       <c r="C144" s="39"/>
@@ -6760,7 +7930,7 @@
       <c r="I144" s="39"/>
       <c r="J144" s="39"/>
     </row>
-    <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="39"/>
       <c r="B145" s="39"/>
       <c r="C145" s="39"/>
@@ -6772,7 +7942,7 @@
       <c r="I145" s="39"/>
       <c r="J145" s="39"/>
     </row>
-    <row r="146" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="39"/>
       <c r="B146" s="39"/>
       <c r="C146" s="39"/>
@@ -6784,7 +7954,7 @@
       <c r="I146" s="39"/>
       <c r="J146" s="39"/>
     </row>
-    <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="39"/>
       <c r="B147" s="39"/>
       <c r="C147" s="39"/>
@@ -6796,7 +7966,7 @@
       <c r="I147" s="39"/>
       <c r="J147" s="39"/>
     </row>
-    <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="39"/>
       <c r="B148" s="39"/>
       <c r="C148" s="39"/>
@@ -6808,7 +7978,7 @@
       <c r="I148" s="39"/>
       <c r="J148" s="39"/>
     </row>
-    <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="39"/>
       <c r="B149" s="39"/>
       <c r="C149" s="39"/>
@@ -6820,7 +7990,7 @@
       <c r="I149" s="39"/>
       <c r="J149" s="39"/>
     </row>
-    <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="39"/>
       <c r="B150" s="39"/>
       <c r="C150" s="39"/>
@@ -6832,7 +8002,7 @@
       <c r="I150" s="39"/>
       <c r="J150" s="39"/>
     </row>
-    <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="39"/>
       <c r="B151" s="39"/>
       <c r="C151" s="39"/>
@@ -6844,7 +8014,7 @@
       <c r="I151" s="39"/>
       <c r="J151" s="39"/>
     </row>
-    <row r="152" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="39"/>
       <c r="B152" s="39"/>
       <c r="C152" s="39"/>
@@ -6856,7 +8026,7 @@
       <c r="I152" s="39"/>
       <c r="J152" s="39"/>
     </row>
-    <row r="153" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="39"/>
       <c r="B153" s="39"/>
       <c r="C153" s="39"/>
@@ -6868,7 +8038,7 @@
       <c r="I153" s="39"/>
       <c r="J153" s="39"/>
     </row>
-    <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="39"/>
       <c r="B154" s="39"/>
       <c r="C154" s="39"/>
@@ -6880,7 +8050,7 @@
       <c r="I154" s="39"/>
       <c r="J154" s="39"/>
     </row>
-    <row r="155" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="39"/>
       <c r="B155" s="39"/>
       <c r="C155" s="39"/>
@@ -6892,7 +8062,7 @@
       <c r="I155" s="39"/>
       <c r="J155" s="39"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="39"/>
       <c r="B156" s="39"/>
       <c r="C156" s="39"/>
@@ -6904,7 +8074,7 @@
       <c r="I156" s="39"/>
       <c r="J156" s="39"/>
     </row>
-    <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="39"/>
       <c r="B157" s="39"/>
       <c r="C157" s="39"/>
@@ -6916,7 +8086,7 @@
       <c r="I157" s="39"/>
       <c r="J157" s="39"/>
     </row>
-    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="39"/>
       <c r="B158" s="39"/>
       <c r="C158" s="39"/>
@@ -6928,7 +8098,7 @@
       <c r="I158" s="39"/>
       <c r="J158" s="39"/>
     </row>
-    <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="39"/>
       <c r="B159" s="39"/>
       <c r="C159" s="39"/>
@@ -6940,7 +8110,7 @@
       <c r="I159" s="39"/>
       <c r="J159" s="39"/>
     </row>
-    <row r="160" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="39"/>
       <c r="B160" s="39"/>
       <c r="C160" s="39"/>
@@ -6952,7 +8122,7 @@
       <c r="I160" s="39"/>
       <c r="J160" s="39"/>
     </row>
-    <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="39"/>
       <c r="B161" s="39"/>
       <c r="C161" s="39"/>
@@ -6964,7 +8134,7 @@
       <c r="I161" s="39"/>
       <c r="J161" s="39"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="39"/>
       <c r="B162" s="39"/>
       <c r="C162" s="39"/>
@@ -6976,7 +8146,7 @@
       <c r="I162" s="39"/>
       <c r="J162" s="39"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="39"/>
       <c r="B163" s="39"/>
       <c r="C163" s="39"/>
@@ -6988,7 +8158,7 @@
       <c r="I163" s="39"/>
       <c r="J163" s="39"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="39"/>
       <c r="B164" s="39"/>
       <c r="C164" s="39"/>
@@ -7000,7 +8170,7 @@
       <c r="I164" s="39"/>
       <c r="J164" s="39"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="39"/>
       <c r="B165" s="39"/>
       <c r="C165" s="39"/>
@@ -7012,7 +8182,7 @@
       <c r="I165" s="39"/>
       <c r="J165" s="39"/>
     </row>
-    <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="39"/>
       <c r="B166" s="39"/>
       <c r="C166" s="39"/>
@@ -7024,7 +8194,7 @@
       <c r="I166" s="39"/>
       <c r="J166" s="39"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="39"/>
       <c r="B167" s="39"/>
       <c r="C167" s="39"/>
@@ -7036,7 +8206,7 @@
       <c r="I167" s="39"/>
       <c r="J167" s="39"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="39"/>
       <c r="B168" s="39"/>
       <c r="C168" s="39"/>
@@ -7048,7 +8218,7 @@
       <c r="I168" s="39"/>
       <c r="J168" s="39"/>
     </row>
-    <row r="169" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="39"/>
       <c r="B169" s="39"/>
       <c r="C169" s="39"/>
@@ -7060,7 +8230,7 @@
       <c r="I169" s="39"/>
       <c r="J169" s="39"/>
     </row>
-    <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="39"/>
       <c r="B170" s="39"/>
       <c r="C170" s="39"/>
@@ -7072,7 +8242,7 @@
       <c r="I170" s="39"/>
       <c r="J170" s="39"/>
     </row>
-    <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="39"/>
       <c r="B171" s="39"/>
       <c r="C171" s="39"/>
@@ -7084,7 +8254,7 @@
       <c r="I171" s="39"/>
       <c r="J171" s="39"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="39"/>
       <c r="B172" s="39"/>
       <c r="C172" s="39"/>
@@ -7096,7 +8266,7 @@
       <c r="I172" s="39"/>
       <c r="J172" s="39"/>
     </row>
-    <row r="173" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="39"/>
       <c r="B173" s="39"/>
       <c r="C173" s="39"/>
@@ -7108,7 +8278,7 @@
       <c r="I173" s="39"/>
       <c r="J173" s="39"/>
     </row>
-    <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="39"/>
       <c r="B174" s="39"/>
       <c r="C174" s="39"/>
@@ -7120,7 +8290,7 @@
       <c r="I174" s="39"/>
       <c r="J174" s="39"/>
     </row>
-    <row r="175" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="39"/>
       <c r="B175" s="39"/>
       <c r="C175" s="39"/>
@@ -7132,7 +8302,7 @@
       <c r="I175" s="39"/>
       <c r="J175" s="39"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="39"/>
       <c r="B176" s="39"/>
       <c r="C176" s="39"/>
@@ -7144,7 +8314,7 @@
       <c r="I176" s="39"/>
       <c r="J176" s="39"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="39"/>
       <c r="B177" s="39"/>
       <c r="C177" s="39"/>
@@ -7156,7 +8326,7 @@
       <c r="I177" s="39"/>
       <c r="J177" s="39"/>
     </row>
-    <row r="178" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="39"/>
       <c r="B178" s="39"/>
       <c r="C178" s="39"/>
@@ -7168,7 +8338,7 @@
       <c r="I178" s="39"/>
       <c r="J178" s="39"/>
     </row>
-    <row r="179" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="39"/>
       <c r="B179" s="39"/>
       <c r="C179" s="39"/>
@@ -7180,7 +8350,7 @@
       <c r="I179" s="39"/>
       <c r="J179" s="39"/>
     </row>
-    <row r="180" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="39"/>
       <c r="B180" s="39"/>
       <c r="C180" s="39"/>
@@ -7192,7 +8362,7 @@
       <c r="I180" s="39"/>
       <c r="J180" s="39"/>
     </row>
-    <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="39"/>
       <c r="B181" s="39"/>
       <c r="C181" s="39"/>
@@ -7204,7 +8374,7 @@
       <c r="I181" s="39"/>
       <c r="J181" s="39"/>
     </row>
-    <row r="182" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="39"/>
       <c r="B182" s="39"/>
       <c r="C182" s="39"/>
@@ -7216,7 +8386,7 @@
       <c r="I182" s="39"/>
       <c r="J182" s="39"/>
     </row>
-    <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="39"/>
       <c r="B183" s="39"/>
       <c r="C183" s="39"/>
@@ -7228,7 +8398,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="39"/>
     </row>
-    <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="39"/>
       <c r="B184" s="39"/>
       <c r="C184" s="39"/>
@@ -7240,7 +8410,7 @@
       <c r="I184" s="39"/>
       <c r="J184" s="39"/>
     </row>
-    <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="39"/>
       <c r="B185" s="39"/>
       <c r="C185" s="39"/>
@@ -7252,7 +8422,7 @@
       <c r="I185" s="39"/>
       <c r="J185" s="39"/>
     </row>
-    <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="39"/>
       <c r="B186" s="39"/>
       <c r="C186" s="39"/>
@@ -7264,7 +8434,7 @@
       <c r="I186" s="39"/>
       <c r="J186" s="39"/>
     </row>
-    <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="39"/>
       <c r="B187" s="39"/>
       <c r="C187" s="39"/>
@@ -7276,7 +8446,7 @@
       <c r="I187" s="39"/>
       <c r="J187" s="39"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="39"/>
       <c r="B188" s="39"/>
       <c r="C188" s="39"/>
@@ -7288,7 +8458,7 @@
       <c r="I188" s="39"/>
       <c r="J188" s="39"/>
     </row>
-    <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="39"/>
       <c r="B189" s="39"/>
       <c r="C189" s="39"/>
@@ -7300,7 +8470,7 @@
       <c r="I189" s="39"/>
       <c r="J189" s="39"/>
     </row>
-    <row r="190" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="39"/>
       <c r="B190" s="39"/>
       <c r="C190" s="39"/>
@@ -7312,7 +8482,7 @@
       <c r="I190" s="39"/>
       <c r="J190" s="39"/>
     </row>
-    <row r="191" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="39"/>
       <c r="B191" s="39"/>
       <c r="C191" s="39"/>
@@ -7324,7 +8494,7 @@
       <c r="I191" s="39"/>
       <c r="J191" s="39"/>
     </row>
-    <row r="192" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="39"/>
       <c r="B192" s="39"/>
       <c r="C192" s="39"/>
@@ -7336,7 +8506,7 @@
       <c r="I192" s="39"/>
       <c r="J192" s="39"/>
     </row>
-    <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="39"/>
       <c r="B193" s="39"/>
       <c r="C193" s="39"/>
@@ -7348,7 +8518,7 @@
       <c r="I193" s="39"/>
       <c r="J193" s="39"/>
     </row>
-    <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="39"/>
       <c r="B194" s="39"/>
       <c r="C194" s="39"/>
@@ -7360,7 +8530,7 @@
       <c r="I194" s="39"/>
       <c r="J194" s="39"/>
     </row>
-    <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="39"/>
       <c r="B195" s="39"/>
       <c r="C195" s="39"/>
@@ -7372,7 +8542,7 @@
       <c r="I195" s="39"/>
       <c r="J195" s="39"/>
     </row>
-    <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="39"/>
       <c r="B196" s="39"/>
       <c r="C196" s="39"/>
@@ -7384,7 +8554,7 @@
       <c r="I196" s="39"/>
       <c r="J196" s="39"/>
     </row>
-    <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="39"/>
       <c r="B197" s="39"/>
       <c r="C197" s="39"/>
@@ -7396,7 +8566,7 @@
       <c r="I197" s="39"/>
       <c r="J197" s="39"/>
     </row>
-    <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="39"/>
       <c r="B198" s="39"/>
       <c r="C198" s="39"/>
@@ -7408,7 +8578,7 @@
       <c r="I198" s="39"/>
       <c r="J198" s="39"/>
     </row>
-    <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="39"/>
       <c r="B199" s="39"/>
       <c r="C199" s="39"/>
@@ -7420,7 +8590,7 @@
       <c r="I199" s="39"/>
       <c r="J199" s="39"/>
     </row>
-    <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="39"/>
       <c r="B200" s="39"/>
       <c r="C200" s="39"/>
@@ -7432,7 +8602,7 @@
       <c r="I200" s="39"/>
       <c r="J200" s="39"/>
     </row>
-    <row r="201" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="39"/>
       <c r="B201" s="39"/>
       <c r="C201" s="39"/>
@@ -7444,7 +8614,7 @@
       <c r="I201" s="39"/>
       <c r="J201" s="39"/>
     </row>
-    <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="39"/>
       <c r="B202" s="39"/>
       <c r="C202" s="39"/>
@@ -7456,7 +8626,7 @@
       <c r="I202" s="39"/>
       <c r="J202" s="39"/>
     </row>
-    <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="39"/>
       <c r="B203" s="39"/>
       <c r="C203" s="39"/>
@@ -7468,7 +8638,7 @@
       <c r="I203" s="39"/>
       <c r="J203" s="39"/>
     </row>
-    <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="39"/>
       <c r="B204" s="39"/>
       <c r="C204" s="39"/>
@@ -7480,7 +8650,7 @@
       <c r="I204" s="39"/>
       <c r="J204" s="39"/>
     </row>
-    <row r="205" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="39"/>
       <c r="B205" s="39"/>
       <c r="C205" s="39"/>
@@ -7492,7 +8662,7 @@
       <c r="I205" s="39"/>
       <c r="J205" s="39"/>
     </row>
-    <row r="206" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="39"/>
       <c r="B206" s="39"/>
       <c r="C206" s="39"/>
@@ -7504,7 +8674,7 @@
       <c r="I206" s="39"/>
       <c r="J206" s="39"/>
     </row>
-    <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="39"/>
       <c r="B207" s="39"/>
       <c r="C207" s="39"/>
@@ -7516,7 +8686,7 @@
       <c r="I207" s="39"/>
       <c r="J207" s="39"/>
     </row>
-    <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="39"/>
       <c r="B208" s="39"/>
       <c r="C208" s="39"/>
@@ -7528,7 +8698,7 @@
       <c r="I208" s="39"/>
       <c r="J208" s="39"/>
     </row>
-    <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="39"/>
       <c r="B209" s="39"/>
       <c r="C209" s="39"/>
@@ -7540,7 +8710,7 @@
       <c r="I209" s="39"/>
       <c r="J209" s="39"/>
     </row>
-    <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="39"/>
       <c r="B210" s="39"/>
       <c r="C210" s="39"/>
@@ -7552,7 +8722,7 @@
       <c r="I210" s="39"/>
       <c r="J210" s="39"/>
     </row>
-    <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="39"/>
       <c r="B211" s="39"/>
       <c r="C211" s="39"/>
@@ -7564,7 +8734,7 @@
       <c r="I211" s="39"/>
       <c r="J211" s="39"/>
     </row>
-    <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="39"/>
       <c r="B212" s="39"/>
       <c r="C212" s="39"/>
@@ -7576,7 +8746,7 @@
       <c r="I212" s="39"/>
       <c r="J212" s="39"/>
     </row>
-    <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="39"/>
       <c r="B213" s="39"/>
       <c r="C213" s="39"/>
@@ -7588,7 +8758,7 @@
       <c r="I213" s="39"/>
       <c r="J213" s="39"/>
     </row>
-    <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="39"/>
       <c r="B214" s="39"/>
       <c r="C214" s="39"/>
@@ -7600,7 +8770,7 @@
       <c r="I214" s="39"/>
       <c r="J214" s="39"/>
     </row>
-    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="39"/>
       <c r="B215" s="39"/>
       <c r="C215" s="39"/>
@@ -7612,7 +8782,7 @@
       <c r="I215" s="39"/>
       <c r="J215" s="39"/>
     </row>
-    <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="39"/>
       <c r="B216" s="39"/>
       <c r="C216" s="39"/>
@@ -7624,7 +8794,7 @@
       <c r="I216" s="39"/>
       <c r="J216" s="39"/>
     </row>
-    <row r="217" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="39"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
@@ -7636,7 +8806,7 @@
       <c r="I217" s="39"/>
       <c r="J217" s="39"/>
     </row>
-    <row r="218" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="39"/>
       <c r="B218" s="39"/>
       <c r="C218" s="39"/>
@@ -7648,7 +8818,7 @@
       <c r="I218" s="39"/>
       <c r="J218" s="39"/>
     </row>
-    <row r="219" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="39"/>
       <c r="B219" s="39"/>
       <c r="C219" s="39"/>
@@ -7660,7 +8830,7 @@
       <c r="I219" s="39"/>
       <c r="J219" s="39"/>
     </row>
-    <row r="220" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="39"/>
       <c r="B220" s="39"/>
       <c r="C220" s="39"/>
@@ -7672,7 +8842,7 @@
       <c r="I220" s="39"/>
       <c r="J220" s="39"/>
     </row>
-    <row r="221" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="39"/>
       <c r="B221" s="39"/>
       <c r="C221" s="39"/>
@@ -7684,7 +8854,7 @@
       <c r="I221" s="39"/>
       <c r="J221" s="39"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="39"/>
       <c r="B222" s="39"/>
       <c r="C222" s="39"/>
@@ -7696,7 +8866,7 @@
       <c r="I222" s="39"/>
       <c r="J222" s="39"/>
     </row>
-    <row r="223" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="39"/>
       <c r="B223" s="39"/>
       <c r="C223" s="39"/>
@@ -7708,7 +8878,7 @@
       <c r="I223" s="39"/>
       <c r="J223" s="39"/>
     </row>
-    <row r="224" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="39"/>
       <c r="B224" s="39"/>
       <c r="C224" s="39"/>
@@ -7720,7 +8890,7 @@
       <c r="I224" s="39"/>
       <c r="J224" s="39"/>
     </row>
-    <row r="225" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="39"/>
       <c r="B225" s="39"/>
       <c r="C225" s="39"/>
@@ -7732,7 +8902,7 @@
       <c r="I225" s="39"/>
       <c r="J225" s="39"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="39"/>
       <c r="B226" s="39"/>
       <c r="C226" s="39"/>
@@ -7744,7 +8914,7 @@
       <c r="I226" s="39"/>
       <c r="J226" s="39"/>
     </row>
-    <row r="227" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="39"/>
       <c r="B227" s="39"/>
       <c r="C227" s="39"/>
@@ -7756,7 +8926,7 @@
       <c r="I227" s="39"/>
       <c r="J227" s="39"/>
     </row>
-    <row r="228" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="39"/>
       <c r="B228" s="39"/>
       <c r="C228" s="39"/>
@@ -7768,7 +8938,7 @@
       <c r="I228" s="39"/>
       <c r="J228" s="39"/>
     </row>
-    <row r="229" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="39"/>
       <c r="B229" s="39"/>
       <c r="C229" s="39"/>
@@ -7780,7 +8950,7 @@
       <c r="I229" s="39"/>
       <c r="J229" s="39"/>
     </row>
-    <row r="230" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="39"/>
       <c r="B230" s="39"/>
       <c r="C230" s="39"/>
@@ -7792,7 +8962,7 @@
       <c r="I230" s="39"/>
       <c r="J230" s="39"/>
     </row>
-    <row r="231" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="39"/>
       <c r="B231" s="39"/>
       <c r="C231" s="39"/>
@@ -7804,7 +8974,7 @@
       <c r="I231" s="39"/>
       <c r="J231" s="39"/>
     </row>
-    <row r="232" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="39"/>
       <c r="B232" s="39"/>
       <c r="C232" s="39"/>
@@ -7816,7 +8986,7 @@
       <c r="I232" s="39"/>
       <c r="J232" s="39"/>
     </row>
-    <row r="233" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="39"/>
       <c r="B233" s="39"/>
       <c r="C233" s="39"/>
@@ -7828,7 +8998,7 @@
       <c r="I233" s="39"/>
       <c r="J233" s="39"/>
     </row>
-    <row r="234" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="39"/>
       <c r="B234" s="39"/>
       <c r="C234" s="39"/>
@@ -7840,7 +9010,7 @@
       <c r="I234" s="39"/>
       <c r="J234" s="39"/>
     </row>
-    <row r="235" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="39"/>
       <c r="B235" s="39"/>
       <c r="C235" s="39"/>
@@ -7852,7 +9022,7 @@
       <c r="I235" s="39"/>
       <c r="J235" s="39"/>
     </row>
-    <row r="236" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="39"/>
       <c r="B236" s="39"/>
       <c r="C236" s="39"/>
@@ -7864,7 +9034,7 @@
       <c r="I236" s="39"/>
       <c r="J236" s="39"/>
     </row>
-    <row r="237" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="39"/>
       <c r="B237" s="39"/>
       <c r="C237" s="39"/>
@@ -7876,7 +9046,7 @@
       <c r="I237" s="39"/>
       <c r="J237" s="39"/>
     </row>
-    <row r="238" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="39"/>
       <c r="B238" s="39"/>
       <c r="C238" s="39"/>
@@ -7888,7 +9058,7 @@
       <c r="I238" s="39"/>
       <c r="J238" s="39"/>
     </row>
-    <row r="239" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="39"/>
       <c r="B239" s="39"/>
       <c r="C239" s="39"/>
@@ -7900,7 +9070,7 @@
       <c r="I239" s="39"/>
       <c r="J239" s="39"/>
     </row>
-    <row r="240" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="39"/>
       <c r="B240" s="39"/>
       <c r="C240" s="39"/>
@@ -7912,7 +9082,7 @@
       <c r="I240" s="39"/>
       <c r="J240" s="39"/>
     </row>
-    <row r="241" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="39"/>
       <c r="B241" s="39"/>
       <c r="C241" s="39"/>
@@ -7924,7 +9094,7 @@
       <c r="I241" s="39"/>
       <c r="J241" s="39"/>
     </row>
-    <row r="242" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="39"/>
       <c r="B242" s="39"/>
       <c r="C242" s="39"/>
@@ -7936,7 +9106,7 @@
       <c r="I242" s="39"/>
       <c r="J242" s="39"/>
     </row>
-    <row r="243" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="39"/>
       <c r="B243" s="39"/>
       <c r="C243" s="39"/>
@@ -7948,7 +9118,7 @@
       <c r="I243" s="39"/>
       <c r="J243" s="39"/>
     </row>
-    <row r="244" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="39"/>
       <c r="B244" s="39"/>
       <c r="C244" s="39"/>
@@ -7960,7 +9130,7 @@
       <c r="I244" s="39"/>
       <c r="J244" s="39"/>
     </row>
-    <row r="245" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="39"/>
       <c r="B245" s="39"/>
       <c r="C245" s="39"/>
@@ -7972,7 +9142,7 @@
       <c r="I245" s="39"/>
       <c r="J245" s="39"/>
     </row>
-    <row r="246" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="39"/>
       <c r="B246" s="39"/>
       <c r="C246" s="39"/>
@@ -7984,7 +9154,7 @@
       <c r="I246" s="39"/>
       <c r="J246" s="39"/>
     </row>
-    <row r="247" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="39"/>
       <c r="B247" s="39"/>
       <c r="C247" s="39"/>
@@ -7996,7 +9166,7 @@
       <c r="I247" s="39"/>
       <c r="J247" s="39"/>
     </row>
-    <row r="248" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="39"/>
       <c r="B248" s="39"/>
       <c r="C248" s="39"/>
@@ -8008,7 +9178,7 @@
       <c r="I248" s="39"/>
       <c r="J248" s="39"/>
     </row>
-    <row r="249" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="39"/>
       <c r="B249" s="39"/>
       <c r="C249" s="39"/>
@@ -8020,7 +9190,7 @@
       <c r="I249" s="39"/>
       <c r="J249" s="39"/>
     </row>
-    <row r="250" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="39"/>
       <c r="B250" s="39"/>
       <c r="C250" s="39"/>
@@ -8032,7 +9202,7 @@
       <c r="I250" s="39"/>
       <c r="J250" s="39"/>
     </row>
-    <row r="251" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="39"/>
       <c r="B251" s="39"/>
       <c r="C251" s="39"/>
@@ -8044,7 +9214,7 @@
       <c r="I251" s="39"/>
       <c r="J251" s="39"/>
     </row>
-    <row r="252" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="39"/>
       <c r="B252" s="39"/>
       <c r="C252" s="39"/>
@@ -8056,7 +9226,7 @@
       <c r="I252" s="39"/>
       <c r="J252" s="39"/>
     </row>
-    <row r="253" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="39"/>
       <c r="B253" s="39"/>
       <c r="C253" s="39"/>
@@ -8068,7 +9238,7 @@
       <c r="I253" s="39"/>
       <c r="J253" s="39"/>
     </row>
-    <row r="254" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="39"/>
       <c r="B254" s="39"/>
       <c r="C254" s="39"/>
@@ -8080,7 +9250,7 @@
       <c r="I254" s="39"/>
       <c r="J254" s="39"/>
     </row>
-    <row r="255" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="39"/>
       <c r="B255" s="39"/>
       <c r="C255" s="39"/>
@@ -8092,7 +9262,7 @@
       <c r="I255" s="39"/>
       <c r="J255" s="39"/>
     </row>
-    <row r="256" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="39"/>
       <c r="B256" s="39"/>
       <c r="C256" s="39"/>
@@ -8104,7 +9274,7 @@
       <c r="I256" s="39"/>
       <c r="J256" s="39"/>
     </row>
-    <row r="257" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="39"/>
       <c r="B257" s="39"/>
       <c r="C257" s="39"/>
@@ -8116,7 +9286,7 @@
       <c r="I257" s="39"/>
       <c r="J257" s="39"/>
     </row>
-    <row r="258" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="39"/>
       <c r="B258" s="39"/>
       <c r="C258" s="39"/>
@@ -8128,7 +9298,7 @@
       <c r="I258" s="39"/>
       <c r="J258" s="39"/>
     </row>
-    <row r="259" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="39"/>
       <c r="B259" s="39"/>
       <c r="C259" s="39"/>
@@ -8140,7 +9310,7 @@
       <c r="I259" s="39"/>
       <c r="J259" s="39"/>
     </row>
-    <row r="260" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="39"/>
       <c r="B260" s="39"/>
       <c r="C260" s="39"/>
@@ -8152,7 +9322,7 @@
       <c r="I260" s="39"/>
       <c r="J260" s="39"/>
     </row>
-    <row r="261" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="39"/>
       <c r="B261" s="39"/>
       <c r="C261" s="39"/>
@@ -8164,7 +9334,7 @@
       <c r="I261" s="39"/>
       <c r="J261" s="39"/>
     </row>
-    <row r="262" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="39"/>
       <c r="B262" s="39"/>
       <c r="C262" s="39"/>
@@ -8176,7 +9346,7 @@
       <c r="I262" s="39"/>
       <c r="J262" s="39"/>
     </row>
-    <row r="263" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="39"/>
       <c r="B263" s="39"/>
       <c r="C263" s="39"/>
@@ -8188,7 +9358,7 @@
       <c r="I263" s="39"/>
       <c r="J263" s="39"/>
     </row>
-    <row r="264" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="39"/>
       <c r="B264" s="39"/>
       <c r="C264" s="39"/>
@@ -8200,7 +9370,7 @@
       <c r="I264" s="39"/>
       <c r="J264" s="39"/>
     </row>
-    <row r="265" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="39"/>
       <c r="B265" s="39"/>
       <c r="C265" s="39"/>
@@ -8212,7 +9382,7 @@
       <c r="I265" s="39"/>
       <c r="J265" s="39"/>
     </row>
-    <row r="266" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="39"/>
       <c r="B266" s="39"/>
       <c r="C266" s="39"/>
@@ -8224,7 +9394,7 @@
       <c r="I266" s="39"/>
       <c r="J266" s="39"/>
     </row>
-    <row r="267" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="39"/>
       <c r="B267" s="39"/>
       <c r="C267" s="39"/>
@@ -8236,7 +9406,7 @@
       <c r="I267" s="39"/>
       <c r="J267" s="39"/>
     </row>
-    <row r="268" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="39"/>
       <c r="B268" s="39"/>
       <c r="C268" s="39"/>
@@ -8248,7 +9418,7 @@
       <c r="I268" s="39"/>
       <c r="J268" s="39"/>
     </row>
-    <row r="269" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="39"/>
       <c r="B269" s="39"/>
       <c r="C269" s="39"/>
@@ -8260,7 +9430,7 @@
       <c r="I269" s="39"/>
       <c r="J269" s="39"/>
     </row>
-    <row r="270" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="39"/>
       <c r="B270" s="39"/>
       <c r="C270" s="39"/>
@@ -8272,7 +9442,7 @@
       <c r="I270" s="39"/>
       <c r="J270" s="39"/>
     </row>
-    <row r="271" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="39"/>
       <c r="B271" s="39"/>
       <c r="C271" s="39"/>
@@ -8284,7 +9454,7 @@
       <c r="I271" s="39"/>
       <c r="J271" s="39"/>
     </row>
-    <row r="272" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="39"/>
       <c r="B272" s="39"/>
       <c r="C272" s="39"/>
@@ -8296,7 +9466,7 @@
       <c r="I272" s="39"/>
       <c r="J272" s="39"/>
     </row>
-    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="39"/>
       <c r="B273" s="39"/>
       <c r="C273" s="39"/>
@@ -8308,7 +9478,7 @@
       <c r="I273" s="39"/>
       <c r="J273" s="39"/>
     </row>
-    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="39"/>
       <c r="B274" s="39"/>
       <c r="C274" s="39"/>
@@ -8320,7 +9490,7 @@
       <c r="I274" s="39"/>
       <c r="J274" s="39"/>
     </row>
-    <row r="275" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="39"/>
       <c r="B275" s="39"/>
       <c r="C275" s="39"/>
@@ -8332,7 +9502,7 @@
       <c r="I275" s="39"/>
       <c r="J275" s="39"/>
     </row>
-    <row r="276" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="39"/>
       <c r="B276" s="39"/>
       <c r="C276" s="39"/>
@@ -8344,7 +9514,7 @@
       <c r="I276" s="39"/>
       <c r="J276" s="39"/>
     </row>
-    <row r="277" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="39"/>
       <c r="B277" s="39"/>
       <c r="C277" s="39"/>
@@ -8356,7 +9526,7 @@
       <c r="I277" s="39"/>
       <c r="J277" s="39"/>
     </row>
-    <row r="278" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="39"/>
       <c r="B278" s="39"/>
       <c r="C278" s="39"/>
@@ -8368,7 +9538,7 @@
       <c r="I278" s="39"/>
       <c r="J278" s="39"/>
     </row>
-    <row r="279" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="39"/>
       <c r="B279" s="39"/>
       <c r="C279" s="39"/>
@@ -8380,7 +9550,7 @@
       <c r="I279" s="39"/>
       <c r="J279" s="39"/>
     </row>
-    <row r="280" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="39"/>
       <c r="B280" s="39"/>
       <c r="C280" s="39"/>
@@ -8392,7 +9562,7 @@
       <c r="I280" s="39"/>
       <c r="J280" s="39"/>
     </row>
-    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="39"/>
       <c r="B281" s="39"/>
       <c r="C281" s="39"/>
@@ -8404,7 +9574,7 @@
       <c r="I281" s="39"/>
       <c r="J281" s="39"/>
     </row>
-    <row r="282" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="39"/>
       <c r="B282" s="39"/>
       <c r="C282" s="39"/>
@@ -8416,7 +9586,7 @@
       <c r="I282" s="39"/>
       <c r="J282" s="39"/>
     </row>
-    <row r="283" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="39"/>
       <c r="B283" s="39"/>
       <c r="C283" s="39"/>
@@ -8428,7 +9598,7 @@
       <c r="I283" s="39"/>
       <c r="J283" s="39"/>
     </row>
-    <row r="284" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="39"/>
       <c r="B284" s="39"/>
       <c r="C284" s="39"/>
@@ -8440,7 +9610,7 @@
       <c r="I284" s="39"/>
       <c r="J284" s="39"/>
     </row>
-    <row r="285" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="39"/>
       <c r="B285" s="39"/>
       <c r="C285" s="39"/>
@@ -8452,7 +9622,7 @@
       <c r="I285" s="39"/>
       <c r="J285" s="39"/>
     </row>
-    <row r="286" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="39"/>
       <c r="B286" s="39"/>
       <c r="C286" s="39"/>
@@ -8464,7 +9634,7 @@
       <c r="I286" s="39"/>
       <c r="J286" s="39"/>
     </row>
-    <row r="287" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="39"/>
       <c r="B287" s="39"/>
       <c r="C287" s="39"/>
@@ -8476,7 +9646,7 @@
       <c r="I287" s="39"/>
       <c r="J287" s="39"/>
     </row>
-    <row r="288" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="39"/>
       <c r="B288" s="39"/>
       <c r="C288" s="39"/>
@@ -8488,7 +9658,7 @@
       <c r="I288" s="39"/>
       <c r="J288" s="39"/>
     </row>
-    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="39"/>
       <c r="B289" s="39"/>
       <c r="C289" s="39"/>
@@ -8500,7 +9670,7 @@
       <c r="I289" s="39"/>
       <c r="J289" s="39"/>
     </row>
-    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="39"/>
       <c r="B290" s="39"/>
       <c r="C290" s="39"/>
@@ -8512,7 +9682,7 @@
       <c r="I290" s="39"/>
       <c r="J290" s="39"/>
     </row>
-    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="39"/>
       <c r="B291" s="39"/>
       <c r="C291" s="39"/>
@@ -8524,7 +9694,7 @@
       <c r="I291" s="39"/>
       <c r="J291" s="39"/>
     </row>
-    <row r="292" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="39"/>
       <c r="B292" s="39"/>
       <c r="C292" s="39"/>
@@ -8536,7 +9706,7 @@
       <c r="I292" s="39"/>
       <c r="J292" s="39"/>
     </row>
-    <row r="293" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="39"/>
       <c r="B293" s="39"/>
       <c r="C293" s="39"/>
@@ -8548,7 +9718,7 @@
       <c r="I293" s="39"/>
       <c r="J293" s="39"/>
     </row>
-    <row r="294" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="39"/>
       <c r="B294" s="39"/>
       <c r="C294" s="39"/>
@@ -8560,7 +9730,7 @@
       <c r="I294" s="39"/>
       <c r="J294" s="39"/>
     </row>
-    <row r="295" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="39"/>
       <c r="B295" s="39"/>
       <c r="C295" s="39"/>
@@ -8572,7 +9742,7 @@
       <c r="I295" s="39"/>
       <c r="J295" s="39"/>
     </row>
-    <row r="296" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="39"/>
       <c r="B296" s="39"/>
       <c r="C296" s="39"/>
@@ -8584,7 +9754,7 @@
       <c r="I296" s="39"/>
       <c r="J296" s="39"/>
     </row>
-    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="39"/>
       <c r="B297" s="39"/>
       <c r="C297" s="39"/>
@@ -8596,7 +9766,7 @@
       <c r="I297" s="39"/>
       <c r="J297" s="39"/>
     </row>
-    <row r="298" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="39"/>
       <c r="B298" s="39"/>
       <c r="C298" s="39"/>
@@ -8608,7 +9778,7 @@
       <c r="I298" s="39"/>
       <c r="J298" s="39"/>
     </row>
-    <row r="299" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="39"/>
       <c r="B299" s="39"/>
       <c r="C299" s="39"/>
@@ -8620,7 +9790,7 @@
       <c r="I299" s="39"/>
       <c r="J299" s="39"/>
     </row>
-    <row r="300" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="39"/>
       <c r="B300" s="39"/>
       <c r="C300" s="39"/>
@@ -8632,7 +9802,7 @@
       <c r="I300" s="39"/>
       <c r="J300" s="39"/>
     </row>
-    <row r="301" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="39"/>
       <c r="B301" s="39"/>
       <c r="C301" s="39"/>
@@ -8644,7 +9814,7 @@
       <c r="I301" s="39"/>
       <c r="J301" s="39"/>
     </row>
-    <row r="302" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="39"/>
       <c r="B302" s="39"/>
       <c r="C302" s="39"/>
@@ -8656,7 +9826,7 @@
       <c r="I302" s="39"/>
       <c r="J302" s="39"/>
     </row>
-    <row r="303" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="39"/>
       <c r="B303" s="39"/>
       <c r="C303" s="39"/>
@@ -8668,7 +9838,7 @@
       <c r="I303" s="39"/>
       <c r="J303" s="39"/>
     </row>
-    <row r="304" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="39"/>
       <c r="B304" s="39"/>
       <c r="C304" s="39"/>
@@ -8680,7 +9850,7 @@
       <c r="I304" s="39"/>
       <c r="J304" s="39"/>
     </row>
-    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="39"/>
       <c r="B305" s="39"/>
       <c r="C305" s="39"/>
@@ -8692,7 +9862,7 @@
       <c r="I305" s="39"/>
       <c r="J305" s="39"/>
     </row>
-    <row r="306" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="39"/>
       <c r="B306" s="39"/>
       <c r="C306" s="39"/>
@@ -8704,7 +9874,7 @@
       <c r="I306" s="39"/>
       <c r="J306" s="39"/>
     </row>
-    <row r="307" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="39"/>
       <c r="B307" s="39"/>
       <c r="C307" s="39"/>
@@ -8716,7 +9886,7 @@
       <c r="I307" s="39"/>
       <c r="J307" s="39"/>
     </row>
-    <row r="308" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="39"/>
       <c r="B308" s="39"/>
       <c r="C308" s="39"/>
@@ -8728,7 +9898,7 @@
       <c r="I308" s="39"/>
       <c r="J308" s="39"/>
     </row>
-    <row r="309" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="39"/>
       <c r="B309" s="39"/>
       <c r="C309" s="39"/>
@@ -8740,7 +9910,7 @@
       <c r="I309" s="39"/>
       <c r="J309" s="39"/>
     </row>
-    <row r="310" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="39"/>
       <c r="B310" s="39"/>
       <c r="C310" s="39"/>
@@ -8752,7 +9922,7 @@
       <c r="I310" s="39"/>
       <c r="J310" s="39"/>
     </row>
-    <row r="311" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="39"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
@@ -8764,7 +9934,7 @@
       <c r="I311" s="39"/>
       <c r="J311" s="39"/>
     </row>
-    <row r="312" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="39"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
@@ -8776,7 +9946,7 @@
       <c r="I312" s="39"/>
       <c r="J312" s="39"/>
     </row>
-    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="39"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
@@ -8788,7 +9958,7 @@
       <c r="I313" s="39"/>
       <c r="J313" s="39"/>
     </row>
-    <row r="314" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="39"/>
       <c r="B314" s="39"/>
       <c r="C314" s="39"/>
@@ -8800,7 +9970,7 @@
       <c r="I314" s="39"/>
       <c r="J314" s="39"/>
     </row>
-    <row r="315" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="39"/>
       <c r="B315" s="39"/>
       <c r="C315" s="39"/>
@@ -8812,7 +9982,7 @@
       <c r="I315" s="39"/>
       <c r="J315" s="39"/>
     </row>
-    <row r="316" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="39"/>
       <c r="B316" s="39"/>
       <c r="C316" s="39"/>
@@ -8824,7 +9994,7 @@
       <c r="I316" s="39"/>
       <c r="J316" s="39"/>
     </row>
-    <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="39"/>
       <c r="B317" s="39"/>
       <c r="C317" s="39"/>
@@ -8836,7 +10006,7 @@
       <c r="I317" s="39"/>
       <c r="J317" s="39"/>
     </row>
-    <row r="318" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="39"/>
       <c r="B318" s="39"/>
       <c r="C318" s="39"/>
@@ -8848,7 +10018,7 @@
       <c r="I318" s="39"/>
       <c r="J318" s="39"/>
     </row>
-    <row r="319" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="39"/>
       <c r="B319" s="39"/>
       <c r="C319" s="39"/>
@@ -8860,7 +10030,7 @@
       <c r="I319" s="39"/>
       <c r="J319" s="39"/>
     </row>
-    <row r="320" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="39"/>
       <c r="B320" s="39"/>
       <c r="C320" s="39"/>
@@ -8872,7 +10042,7 @@
       <c r="I320" s="39"/>
       <c r="J320" s="39"/>
     </row>
-    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="39"/>
       <c r="B321" s="39"/>
       <c r="C321" s="39"/>
@@ -8884,7 +10054,7 @@
       <c r="I321" s="39"/>
       <c r="J321" s="39"/>
     </row>
-    <row r="322" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="39"/>
       <c r="B322" s="39"/>
       <c r="C322" s="39"/>
@@ -8896,7 +10066,7 @@
       <c r="I322" s="39"/>
       <c r="J322" s="39"/>
     </row>
-    <row r="323" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="39"/>
       <c r="B323" s="39"/>
       <c r="C323" s="39"/>
@@ -8908,7 +10078,7 @@
       <c r="I323" s="39"/>
       <c r="J323" s="39"/>
     </row>
-    <row r="324" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="39"/>
       <c r="B324" s="39"/>
       <c r="C324" s="39"/>
@@ -8920,7 +10090,7 @@
       <c r="I324" s="39"/>
       <c r="J324" s="39"/>
     </row>
-    <row r="325" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="39"/>
       <c r="B325" s="39"/>
       <c r="C325" s="39"/>
@@ -8932,7 +10102,7 @@
       <c r="I325" s="39"/>
       <c r="J325" s="39"/>
     </row>
-    <row r="326" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="39"/>
       <c r="B326" s="39"/>
       <c r="C326" s="39"/>
@@ -8944,7 +10114,7 @@
       <c r="I326" s="39"/>
       <c r="J326" s="39"/>
     </row>
-    <row r="327" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="39"/>
       <c r="B327" s="39"/>
       <c r="C327" s="39"/>
@@ -8956,7 +10126,7 @@
       <c r="I327" s="39"/>
       <c r="J327" s="39"/>
     </row>
-    <row r="328" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="39"/>
       <c r="B328" s="39"/>
       <c r="C328" s="39"/>
@@ -8968,7 +10138,7 @@
       <c r="I328" s="39"/>
       <c r="J328" s="39"/>
     </row>
-    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="39"/>
       <c r="B329" s="39"/>
       <c r="C329" s="39"/>
@@ -8980,7 +10150,7 @@
       <c r="I329" s="39"/>
       <c r="J329" s="39"/>
     </row>
-    <row r="330" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="39"/>
       <c r="B330" s="39"/>
       <c r="C330" s="39"/>
@@ -8992,7 +10162,7 @@
       <c r="I330" s="39"/>
       <c r="J330" s="39"/>
     </row>
-    <row r="331" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="39"/>
       <c r="B331" s="39"/>
       <c r="C331" s="39"/>
@@ -9004,7 +10174,7 @@
       <c r="I331" s="39"/>
       <c r="J331" s="39"/>
     </row>
-    <row r="332" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="39"/>
       <c r="B332" s="39"/>
       <c r="C332" s="39"/>
@@ -9016,7 +10186,7 @@
       <c r="I332" s="39"/>
       <c r="J332" s="39"/>
     </row>
-    <row r="333" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="39"/>
       <c r="B333" s="39"/>
       <c r="C333" s="39"/>
@@ -9028,7 +10198,7 @@
       <c r="I333" s="39"/>
       <c r="J333" s="39"/>
     </row>
-    <row r="334" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="39"/>
       <c r="B334" s="39"/>
       <c r="C334" s="39"/>
@@ -9040,7 +10210,7 @@
       <c r="I334" s="39"/>
       <c r="J334" s="39"/>
     </row>
-    <row r="335" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="39"/>
       <c r="B335" s="39"/>
       <c r="C335" s="39"/>
@@ -9052,7 +10222,7 @@
       <c r="I335" s="39"/>
       <c r="J335" s="39"/>
     </row>
-    <row r="336" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="39"/>
       <c r="B336" s="39"/>
       <c r="C336" s="39"/>
@@ -9064,7 +10234,7 @@
       <c r="I336" s="39"/>
       <c r="J336" s="39"/>
     </row>
-    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="39"/>
       <c r="B337" s="39"/>
       <c r="C337" s="39"/>
@@ -9076,7 +10246,7 @@
       <c r="I337" s="39"/>
       <c r="J337" s="39"/>
     </row>
-    <row r="338" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="39"/>
       <c r="B338" s="39"/>
       <c r="C338" s="39"/>
@@ -9088,7 +10258,7 @@
       <c r="I338" s="39"/>
       <c r="J338" s="39"/>
     </row>
-    <row r="339" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="39"/>
       <c r="B339" s="39"/>
       <c r="C339" s="39"/>
@@ -9100,7 +10270,7 @@
       <c r="I339" s="39"/>
       <c r="J339" s="39"/>
     </row>
-    <row r="340" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="39"/>
       <c r="B340" s="39"/>
       <c r="C340" s="39"/>
@@ -9112,7 +10282,7 @@
       <c r="I340" s="39"/>
       <c r="J340" s="39"/>
     </row>
-    <row r="341" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="39"/>
       <c r="B341" s="39"/>
       <c r="C341" s="39"/>
@@ -9124,7 +10294,7 @@
       <c r="I341" s="39"/>
       <c r="J341" s="39"/>
     </row>
-    <row r="342" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="39"/>
       <c r="B342" s="39"/>
       <c r="C342" s="39"/>
@@ -9136,7 +10306,7 @@
       <c r="I342" s="39"/>
       <c r="J342" s="39"/>
     </row>
-    <row r="343" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="39"/>
       <c r="B343" s="39"/>
       <c r="C343" s="39"/>
@@ -9148,7 +10318,7 @@
       <c r="I343" s="39"/>
       <c r="J343" s="39"/>
     </row>
-    <row r="344" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="39"/>
       <c r="B344" s="39"/>
       <c r="C344" s="39"/>
@@ -9160,7 +10330,7 @@
       <c r="I344" s="39"/>
       <c r="J344" s="39"/>
     </row>
-    <row r="345" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="39"/>
       <c r="B345" s="39"/>
       <c r="C345" s="39"/>
@@ -9183,50 +10353,50 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="I19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="10"/>
-    <col min="2" max="2" width="13.85546875" style="10" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="10"/>
-    <col min="5" max="5" width="12.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="10" customWidth="1"/>
-    <col min="7" max="10" width="8.7109375" style="10"/>
-    <col min="11" max="11" width="29.28515625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="10"/>
-    <col min="13" max="13" width="17.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="8.7109375" style="10"/>
-    <col min="20" max="20" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="8.7109375" style="10"/>
-    <col min="26" max="26" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="8.7109375" style="10"/>
-    <col min="32" max="32" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="10"/>
-    <col min="35" max="35" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" style="10"/>
-    <col min="37" max="37" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="8.7109375" style="10"/>
-    <col min="41" max="41" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="46" width="8.7109375" style="10"/>
-    <col min="47" max="47" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="52" width="8.7109375" style="10"/>
-    <col min="53" max="53" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="8.7109375" style="10"/>
-    <col min="56" max="56" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="61" width="8.7109375" style="10"/>
-    <col min="62" max="62" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="63" max="67" width="8.7109375" style="10"/>
-    <col min="68" max="68" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="69" max="73" width="8.7109375" style="10"/>
-    <col min="74" max="74" width="10.85546875" style="10" customWidth="1"/>
-    <col min="75" max="16384" width="8.7109375" style="10"/>
+    <col min="1" max="1" width="8.7265625" style="10"/>
+    <col min="2" max="2" width="13.81640625" style="10" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="10"/>
+    <col min="5" max="5" width="12.26953125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="10" customWidth="1"/>
+    <col min="7" max="10" width="8.7265625" style="10"/>
+    <col min="11" max="11" width="29.26953125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="10"/>
+    <col min="13" max="13" width="17.81640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="8.7265625" style="10"/>
+    <col min="20" max="20" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="8.7265625" style="10"/>
+    <col min="26" max="26" width="10.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="8.7265625" style="10"/>
+    <col min="32" max="32" width="10.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="8.7265625" style="10"/>
+    <col min="35" max="35" width="10.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7265625" style="10"/>
+    <col min="37" max="37" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="8.7265625" style="10"/>
+    <col min="41" max="41" width="10.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="8.7265625" style="10"/>
+    <col min="47" max="47" width="10.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="52" width="8.7265625" style="10"/>
+    <col min="53" max="53" width="10.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8.7265625" style="10"/>
+    <col min="56" max="56" width="10.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="57" max="61" width="8.7265625" style="10"/>
+    <col min="62" max="62" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="63" max="67" width="8.7265625" style="10"/>
+    <col min="68" max="68" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="69" max="73" width="8.7265625" style="10"/>
+    <col min="74" max="74" width="10.81640625" style="10" customWidth="1"/>
+    <col min="75" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="88" t="s">
         <v>227</v>
       </c>
@@ -9260,7 +10430,7 @@
       <c r="AC1" s="11"/>
       <c r="AD1" s="11"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -9292,7 +10462,7 @@
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
     </row>
-    <row r="3" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="89" t="s">
         <v>228</v>
       </c>
@@ -9309,7 +10479,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:75" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="90" t="s">
         <v>123</v>
       </c>
@@ -9531,7 +10701,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="91" t="s">
         <v>170</v>
       </c>
@@ -9760,7 +10930,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="93" t="s">
         <v>171</v>
       </c>
@@ -9982,7 +11152,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="93" t="s">
         <v>166</v>
       </c>
@@ -10204,7 +11374,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="91" t="s">
         <v>105</v>
       </c>
@@ -10426,7 +11596,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="91" t="s">
         <v>106</v>
       </c>
@@ -10648,7 +11818,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="91" t="s">
         <v>167</v>
       </c>
@@ -10870,7 +12040,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="91" t="s">
         <v>3</v>
       </c>
@@ -11092,7 +12262,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="91" t="s">
         <v>4</v>
       </c>
@@ -11314,7 +12484,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="91" t="s">
         <v>5</v>
       </c>
@@ -11536,7 +12706,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="91" t="s">
         <v>6</v>
       </c>
@@ -11758,7 +12928,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="91" t="s">
         <v>107</v>
       </c>
@@ -11980,7 +13150,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="91" t="s">
         <v>108</v>
       </c>
@@ -12202,7 +13372,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="91" t="s">
         <v>118</v>
       </c>
@@ -12424,7 +13594,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="91" t="s">
         <v>119</v>
       </c>
@@ -12646,7 +13816,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="91" t="s">
         <v>168</v>
       </c>
@@ -12868,7 +14038,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="91" t="s">
         <v>169</v>
       </c>
@@ -13090,7 +14260,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="86"/>
       <c r="B21" s="86"/>
       <c r="C21" s="86"/>
@@ -13102,7 +14272,7 @@
       <c r="I21" s="86"/>
       <c r="J21" s="86"/>
     </row>
-    <row r="22" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
@@ -13113,10 +14283,11 @@
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
       <c r="J22" s="86"/>
-    </row>
-    <row r="23" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="89" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="86"/>
@@ -13131,7 +14302,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:75" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="90" t="s">
         <v>123</v>
       </c>
@@ -13165,7 +14336,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="91" t="s">
         <v>170</v>
       </c>
@@ -13213,7 +14384,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="93" t="s">
         <v>171</v>
       </c>
@@ -13253,7 +14424,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="93" t="s">
         <v>166</v>
       </c>
@@ -13290,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="91" t="s">
         <v>105</v>
       </c>
@@ -13320,7 +14491,7 @@
       </c>
       <c r="J28" s="86"/>
     </row>
-    <row r="29" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="91" t="s">
         <v>106</v>
       </c>
@@ -13350,7 +14521,7 @@
       </c>
       <c r="J29" s="86"/>
     </row>
-    <row r="30" spans="1:75" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A30" s="91" t="s">
         <v>167</v>
       </c>
@@ -13434,7 +14605,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="91" t="s">
         <v>3</v>
       </c>
@@ -13535,7 +14706,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="91" t="s">
         <v>4</v>
       </c>
@@ -13619,7 +14790,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="91" t="s">
         <v>5</v>
       </c>
@@ -13703,7 +14874,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="91" t="s">
         <v>6</v>
       </c>
@@ -13787,7 +14958,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="91" t="s">
         <v>107</v>
       </c>
@@ -13871,7 +15042,7 @@
         <v>1.3352380952380953E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="91" t="s">
         <v>108</v>
       </c>
@@ -13955,7 +15126,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="91" t="s">
         <v>118</v>
       </c>
@@ -14039,7 +15210,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="91" t="s">
         <v>119</v>
       </c>
@@ -14123,7 +15294,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="91" t="s">
         <v>168</v>
       </c>
@@ -14207,7 +15378,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="91" t="s">
         <v>169</v>
       </c>
@@ -14291,7 +15462,7 @@
         <v>1.4111071428571429E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J41" s="86"/>
       <c r="L41" s="99" t="s">
         <v>107</v>
@@ -14348,7 +15519,7 @@
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J42" s="86"/>
       <c r="L42" s="99" t="s">
         <v>108</v>
@@ -14405,9 +15576,9 @@
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="89" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
@@ -14473,7 +15644,7 @@
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A44" s="90" t="s">
         <v>123</v>
       </c>
@@ -14557,7 +15728,7 @@
         <v>3.2381464285714284E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="91" t="s">
         <v>170</v>
       </c>
@@ -14649,7 +15820,7 @@
         <v>3.8157761904761903E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="93" t="s">
         <v>171</v>
       </c>
@@ -14733,7 +15904,7 @@
         <v>3.8157761904761903E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="93" t="s">
         <v>166</v>
       </c>
@@ -14763,7 +15934,7 @@
       </c>
       <c r="J47" s="86"/>
     </row>
-    <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="91" t="s">
         <v>105</v>
       </c>
@@ -14793,7 +15964,7 @@
       </c>
       <c r="J48" s="86"/>
     </row>
-    <row r="49" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A49" s="91" t="s">
         <v>106</v>
       </c>
@@ -14877,7 +16048,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="91" t="s">
         <v>167</v>
       </c>
@@ -14918,7 +16089,7 @@
       <c r="O50" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P50" s="120">
+      <c r="P50" s="187">
         <f t="array" ref="P50:P65">AH26*AL6:AL21+AH27*BG6:BG21+AH28*CB6:CB21</f>
         <v>0</v>
       </c>
@@ -14946,11 +16117,11 @@
       <c r="X50" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y50" s="120">
+      <c r="Y50" s="187">
         <f t="array" ref="Y50:Y65">AH26*AW6:AW21+AH27*BR6:BR21+AH28*CM6:CM21</f>
         <v>0</v>
       </c>
-      <c r="Z50" s="120">
+      <c r="Z50" s="187">
         <f t="array" ref="Z50:Z65">AH26*AW6:AW21+AH27*BS6:BS21+AH28*CN6:CN21</f>
         <v>0</v>
       </c>
@@ -14964,7 +16135,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="91" t="s">
         <v>3</v>
       </c>
@@ -15005,7 +16176,7 @@
       <c r="O51" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P51" s="120">
+      <c r="P51" s="187">
         <v>0</v>
       </c>
       <c r="Q51" s="27">
@@ -15032,10 +16203,10 @@
       <c r="X51" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y51" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="120">
+      <c r="Y51" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="187">
         <v>0</v>
       </c>
       <c r="AA51" s="27">
@@ -15048,7 +16219,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="91" t="s">
         <v>4</v>
       </c>
@@ -15089,7 +16260,7 @@
       <c r="O52" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P52" s="120">
+      <c r="P52" s="187">
         <v>0</v>
       </c>
       <c r="Q52" s="27">
@@ -15116,10 +16287,10 @@
       <c r="X52" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y52" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="120">
+      <c r="Y52" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="187">
         <v>0</v>
       </c>
       <c r="AA52" s="27">
@@ -15132,7 +16303,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="91" t="s">
         <v>5</v>
       </c>
@@ -15173,7 +16344,7 @@
       <c r="O53" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P53" s="120">
+      <c r="P53" s="187">
         <v>0</v>
       </c>
       <c r="Q53" s="27">
@@ -15200,10 +16371,10 @@
       <c r="X53" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y53" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="120">
+      <c r="Y53" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="187">
         <v>0</v>
       </c>
       <c r="AA53" s="27">
@@ -15216,7 +16387,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="91" t="s">
         <v>6</v>
       </c>
@@ -15257,7 +16428,7 @@
       <c r="O54" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P54" s="120">
+      <c r="P54" s="187">
         <v>0</v>
       </c>
       <c r="Q54" s="27">
@@ -15284,10 +16455,10 @@
       <c r="X54" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y54" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="120">
+      <c r="Y54" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="187">
         <v>0</v>
       </c>
       <c r="AA54" s="27">
@@ -15300,7 +16471,7 @@
         <v>7.5533333333333323E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="91" t="s">
         <v>107</v>
       </c>
@@ -15341,7 +16512,7 @@
       <c r="O55" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P55" s="120">
+      <c r="P55" s="187">
         <v>0</v>
       </c>
       <c r="Q55" s="27">
@@ -15368,10 +16539,10 @@
       <c r="X55" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y55" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="120">
+      <c r="Y55" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="187">
         <v>0</v>
       </c>
       <c r="AA55" s="27">
@@ -15384,7 +16555,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="91" t="s">
         <v>108</v>
       </c>
@@ -15425,7 +16596,7 @@
       <c r="O56" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P56" s="120">
+      <c r="P56" s="187">
         <v>0</v>
       </c>
       <c r="Q56" s="27">
@@ -15452,10 +16623,10 @@
       <c r="X56" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y56" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="120">
+      <c r="Y56" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="187">
         <v>0</v>
       </c>
       <c r="AA56" s="27">
@@ -15468,7 +16639,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="91" t="s">
         <v>118</v>
       </c>
@@ -15509,7 +16680,7 @@
       <c r="O57" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P57" s="120">
+      <c r="P57" s="187">
         <v>0</v>
       </c>
       <c r="Q57" s="27">
@@ -15536,10 +16707,10 @@
       <c r="X57" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y57" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="120">
+      <c r="Y57" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="187">
         <v>0</v>
       </c>
       <c r="AA57" s="27">
@@ -15552,7 +16723,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="91" t="s">
         <v>119</v>
       </c>
@@ -15593,7 +16764,7 @@
       <c r="O58" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P58" s="120">
+      <c r="P58" s="187">
         <v>0</v>
       </c>
       <c r="Q58" s="27">
@@ -15620,10 +16791,10 @@
       <c r="X58" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y58" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="120">
+      <c r="Y58" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="187">
         <v>0</v>
       </c>
       <c r="AA58" s="27">
@@ -15636,7 +16807,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="91" t="s">
         <v>168</v>
       </c>
@@ -15677,7 +16848,7 @@
       <c r="O59" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P59" s="120">
+      <c r="P59" s="187">
         <v>0</v>
       </c>
       <c r="Q59" s="27">
@@ -15704,10 +16875,10 @@
       <c r="X59" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y59" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="120">
+      <c r="Y59" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="187">
         <v>0</v>
       </c>
       <c r="AA59" s="27">
@@ -15720,7 +16891,7 @@
         <v>8.0052500000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="91" t="s">
         <v>169</v>
       </c>
@@ -15761,7 +16932,7 @@
       <c r="O60" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P60" s="120">
+      <c r="P60" s="187">
         <v>0</v>
       </c>
       <c r="Q60" s="27">
@@ -15788,10 +16959,10 @@
       <c r="X60" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y60" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="120">
+      <c r="Y60" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="187">
         <v>0</v>
       </c>
       <c r="AA60" s="27">
@@ -15804,7 +16975,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J61" s="86"/>
       <c r="L61" s="99" t="s">
         <v>108</v>
@@ -15818,7 +16989,7 @@
       <c r="O61" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P61" s="120">
+      <c r="P61" s="187">
         <v>0</v>
       </c>
       <c r="Q61" s="27">
@@ -15845,10 +17016,10 @@
       <c r="X61" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y61" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="120">
+      <c r="Y61" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="187">
         <v>0</v>
       </c>
       <c r="AA61" s="27">
@@ -15861,7 +17032,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J62" s="86"/>
       <c r="L62" s="99" t="s">
         <v>118</v>
@@ -15875,7 +17046,7 @@
       <c r="O62" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P62" s="120">
+      <c r="P62" s="187">
         <v>0</v>
       </c>
       <c r="Q62" s="27">
@@ -15902,10 +17073,10 @@
       <c r="X62" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y62" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="120">
+      <c r="Y62" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="187">
         <v>0</v>
       </c>
       <c r="AA62" s="27">
@@ -15918,7 +17089,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J63" s="86"/>
       <c r="L63" s="99" t="s">
         <v>119</v>
@@ -15932,7 +17103,7 @@
       <c r="O63" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P63" s="120">
+      <c r="P63" s="187">
         <v>0</v>
       </c>
       <c r="Q63" s="27">
@@ -15959,10 +17130,10 @@
       <c r="X63" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y63" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="120">
+      <c r="Y63" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="187">
         <v>0</v>
       </c>
       <c r="AA63" s="27">
@@ -15975,7 +17146,7 @@
         <v>1.8433249999999998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J64" s="86"/>
       <c r="L64" s="99" t="s">
         <v>168</v>
@@ -15989,7 +17160,7 @@
       <c r="O64" s="27">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="P64" s="120">
+      <c r="P64" s="187">
         <v>0</v>
       </c>
       <c r="Q64" s="27">
@@ -16016,10 +17187,10 @@
       <c r="X64" s="27">
         <v>0.20378033333333334</v>
       </c>
-      <c r="Y64" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="120">
+      <c r="Y64" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="187">
         <v>0</v>
       </c>
       <c r="AA64" s="27">
@@ -16032,7 +17203,7 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J65" s="86"/>
       <c r="L65" s="99" t="s">
         <v>169</v>
@@ -16046,7 +17217,7 @@
       <c r="O65" s="27">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="P65" s="120">
+      <c r="P65" s="187">
         <v>0</v>
       </c>
       <c r="Q65" s="27">
@@ -16073,10 +17244,10 @@
       <c r="X65" s="27">
         <v>0.20378033333333334</v>
       </c>
-      <c r="Y65" s="120">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="120">
+      <c r="Y65" s="187">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="187">
         <v>0</v>
       </c>
       <c r="AA65" s="27">
@@ -16089,22 +17260,22 @@
         <v>2.1746999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J66" s="86"/>
     </row>
-    <row r="67" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J67" s="86"/>
     </row>
-    <row r="68" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J68" s="86"/>
     </row>
-    <row r="69" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J69" s="86"/>
     </row>
-    <row r="70" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="J70" s="86"/>
     </row>
-    <row r="71" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="108" t="s">
         <v>229</v>
       </c>
@@ -16141,17 +17312,17 @@
       <c r="AF71" s="11"/>
       <c r="AG71" s="11"/>
     </row>
-    <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="118" t="s">
+    <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="118"/>
+      <c r="B72" s="185"/>
       <c r="C72" s="86"/>
       <c r="D72" s="86"/>
       <c r="I72" s="86"/>
       <c r="J72" s="86"/>
     </row>
-    <row r="73" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="106" t="s">
         <v>83</v>
       </c>
@@ -16164,7 +17335,7 @@
       <c r="G73" s="86"/>
       <c r="H73" s="86"/>
     </row>
-    <row r="74" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="106" t="s">
         <v>112</v>
       </c>
@@ -16177,7 +17348,7 @@
       <c r="G74" s="86"/>
       <c r="H74" s="86"/>
     </row>
-    <row r="75" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="106" t="s">
         <v>82</v>
       </c>
@@ -16190,7 +17361,7 @@
       <c r="G75" s="86"/>
       <c r="H75" s="86"/>
     </row>
-    <row r="76" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="106" t="s">
         <v>114</v>
       </c>
@@ -16203,7 +17374,7 @@
       <c r="G76" s="86"/>
       <c r="H76" s="86"/>
     </row>
-    <row r="77" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="86"/>
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
@@ -16211,7 +17382,7 @@
       <c r="I77" s="86"/>
       <c r="J77" s="86"/>
     </row>
-    <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="86"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
@@ -16219,7 +17390,7 @@
       <c r="I78" s="86"/>
       <c r="J78" s="86"/>
     </row>
-    <row r="79" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
@@ -16227,7 +17398,7 @@
       <c r="I79" s="86"/>
       <c r="J79" s="86"/>
     </row>
-    <row r="80" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -16239,7 +17410,7 @@
       <c r="I80" s="86"/>
       <c r="J80" s="86"/>
     </row>
-    <row r="81" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
@@ -16251,7 +17422,7 @@
       <c r="I81" s="86"/>
       <c r="J81" s="86"/>
     </row>
-    <row r="82" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="88" t="s">
         <v>230</v>
       </c>
@@ -16286,7 +17457,7 @@
       <c r="AD82" s="11"/>
       <c r="AE82" s="11"/>
     </row>
-    <row r="83" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="109" t="s">
         <v>117</v>
       </c>
@@ -16321,11 +17492,11 @@
       <c r="AD83" s="11"/>
       <c r="AE83" s="11"/>
     </row>
-    <row r="84" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="119" t="s">
+    <row r="84" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="119"/>
+      <c r="B84" s="186"/>
       <c r="C84" s="86"/>
       <c r="D84" s="86"/>
       <c r="E84" s="86"/>
@@ -16335,7 +17506,7 @@
       <c r="I84" s="86"/>
       <c r="J84" s="86"/>
     </row>
-    <row r="85" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="91" t="s">
         <v>83</v>
       </c>
@@ -16351,7 +17522,7 @@
       <c r="I85" s="86"/>
       <c r="J85" s="86"/>
     </row>
-    <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="91" t="s">
         <v>112</v>
       </c>
@@ -16367,7 +17538,7 @@
       <c r="I86" s="86"/>
       <c r="J86" s="86"/>
     </row>
-    <row r="87" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="91" t="s">
         <v>82</v>
       </c>
@@ -16383,7 +17554,7 @@
       <c r="I87" s="86"/>
       <c r="J87" s="86"/>
     </row>
-    <row r="88" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="91" t="s">
         <v>81</v>
       </c>
@@ -16399,7 +17570,7 @@
       <c r="I88" s="86"/>
       <c r="J88" s="86"/>
     </row>
-    <row r="89" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
@@ -16411,7 +17582,7 @@
       <c r="I89" s="86"/>
       <c r="J89" s="86"/>
     </row>
-    <row r="90" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
@@ -16423,7 +17594,7 @@
       <c r="I90" s="86"/>
       <c r="J90" s="86"/>
     </row>
-    <row r="91" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
@@ -16435,7 +17606,7 @@
       <c r="I91" s="86"/>
       <c r="J91" s="86"/>
     </row>
-    <row r="92" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E92" s="86"/>
       <c r="F92" s="86"/>
       <c r="G92" s="86"/>
@@ -16443,7 +17614,7 @@
       <c r="I92" s="86"/>
       <c r="J92" s="86"/>
     </row>
-    <row r="93" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E93" s="86"/>
       <c r="F93" s="86"/>
       <c r="G93" s="86"/>
@@ -16451,7 +17622,7 @@
       <c r="I93" s="86"/>
       <c r="J93" s="86"/>
     </row>
-    <row r="94" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="108" t="s">
         <v>231</v>
       </c>
@@ -16486,7 +17657,7 @@
       <c r="AD94" s="11"/>
       <c r="AE94" s="11"/>
     </row>
-    <row r="95" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="109" t="s">
         <v>232</v>
       </c>
@@ -16521,7 +17692,7 @@
       <c r="AD95" s="11"/>
       <c r="AE95" s="11"/>
     </row>
-    <row r="96" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="91" t="s">
         <v>116</v>
       </c>
@@ -16533,7 +17704,7 @@
       <c r="I96" s="86"/>
       <c r="J96" s="86"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="91" t="s">
         <v>83</v>
       </c>
@@ -16549,7 +17720,7 @@
       <c r="I97" s="86"/>
       <c r="J97" s="86"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="91" t="s">
         <v>112</v>
       </c>
@@ -16565,7 +17736,7 @@
       <c r="I98" s="86"/>
       <c r="J98" s="86"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="91" t="s">
         <v>82</v>
       </c>
@@ -16581,7 +17752,7 @@
       <c r="I99" s="86"/>
       <c r="J99" s="86"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="91" t="s">
         <v>81</v>
       </c>
@@ -16596,7 +17767,7 @@
       <c r="I100" s="86"/>
       <c r="J100" s="86"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C101" s="86"/>
       <c r="D101" s="86"/>
       <c r="E101" s="86"/>
@@ -16606,7 +17777,7 @@
       <c r="I101" s="86"/>
       <c r="J101" s="86"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C102" s="86"/>
       <c r="D102" s="86"/>
       <c r="E102" s="86"/>
@@ -16616,7 +17787,7 @@
       <c r="I102" s="86"/>
       <c r="J102" s="86"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C103" s="86"/>
       <c r="D103" s="86"/>
       <c r="E103" s="86"/>
@@ -16626,7 +17797,7 @@
       <c r="I103" s="86"/>
       <c r="J103" s="86"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="86"/>
       <c r="B104" s="86"/>
       <c r="C104" s="86"/>
@@ -16638,7 +17809,7 @@
       <c r="I104" s="86"/>
       <c r="J104" s="86"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C105" s="86"/>
       <c r="D105" s="86"/>
       <c r="E105" s="86"/>
@@ -16648,7 +17819,7 @@
       <c r="I105" s="86"/>
       <c r="J105" s="86"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C106" s="86"/>
       <c r="E106" s="86"/>
       <c r="F106" s="86"/>
@@ -16657,7 +17828,7 @@
       <c r="I106" s="86"/>
       <c r="J106" s="86"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C107" s="86"/>
       <c r="D107" s="86"/>
       <c r="E107" s="86"/>
@@ -16667,7 +17838,7 @@
       <c r="I107" s="86"/>
       <c r="J107" s="86"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C108" s="86"/>
       <c r="D108" s="86"/>
       <c r="E108" s="86"/>
@@ -16677,7 +17848,7 @@
       <c r="I108" s="86"/>
       <c r="J108" s="86"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C109" s="86"/>
       <c r="D109" s="86"/>
       <c r="E109" s="86"/>
@@ -16687,7 +17858,7 @@
       <c r="I109" s="86"/>
       <c r="J109" s="86"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="86"/>
       <c r="B110" s="86"/>
       <c r="C110" s="86"/>
@@ -16699,7 +17870,7 @@
       <c r="I110" s="86"/>
       <c r="J110" s="86"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="86"/>
       <c r="B111" s="86"/>
       <c r="C111" s="86"/>
@@ -16711,7 +17882,7 @@
       <c r="I111" s="86"/>
       <c r="J111" s="86"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="86"/>
       <c r="B112" s="86"/>
       <c r="C112" s="86"/>
@@ -16723,7 +17894,7 @@
       <c r="I112" s="86"/>
       <c r="J112" s="86"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="86"/>
       <c r="B113" s="86"/>
       <c r="C113" s="86"/>
@@ -16746,4 +17917,2319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="175" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="176" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="177" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="177" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="177" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="174" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+    </row>
+    <row r="10" spans="1:65" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="T10" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="W10" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="X10" s="118" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y10" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z10" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA10" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB10" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC10" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE10" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF10" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG10" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH10" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI10" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ10" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK10" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL10" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM10" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN10" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO10" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP10" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ10" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR10" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS10" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT10" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU10" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV10" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW10" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX10" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY10" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ10" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA10" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB10" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC10" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD10" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE10" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF10" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG10" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH10" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI10" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ10" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK10" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL10" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM10" s="120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="B11" s="163" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="134">
+        <v>0.59145199999999998</v>
+      </c>
+      <c r="D11" s="125">
+        <v>0.13264633333333339</v>
+      </c>
+      <c r="E11" s="128">
+        <v>0.20903799999999997</v>
+      </c>
+      <c r="F11" s="128">
+        <v>6.6664000000000001E-2</v>
+      </c>
+      <c r="G11" s="129">
+        <v>0</v>
+      </c>
+      <c r="H11" s="134">
+        <v>0.17660799999999999</v>
+      </c>
+      <c r="I11" s="135">
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="J11" s="125">
+        <v>0.73117633333333332</v>
+      </c>
+      <c r="K11" s="128">
+        <v>3.4812000000000003E-2</v>
+      </c>
+      <c r="L11" s="129">
+        <v>3.4812000000000003E-2</v>
+      </c>
+      <c r="M11" s="134">
+        <v>0.24519100000000002</v>
+      </c>
+      <c r="N11" s="135">
+        <v>2.6141000000000001E-2</v>
+      </c>
+      <c r="O11" s="135">
+        <v>9.1818999999999998E-2</v>
+      </c>
+      <c r="P11" s="125">
+        <v>0.50452233333333341</v>
+      </c>
+      <c r="Q11" s="129">
+        <v>0.13212699999999999</v>
+      </c>
+      <c r="R11" s="140">
+        <v>0</v>
+      </c>
+      <c r="S11" s="141">
+        <v>0</v>
+      </c>
+      <c r="T11" s="141">
+        <v>5.2525999999999996E-2</v>
+      </c>
+      <c r="U11" s="141">
+        <v>3.7418E-2</v>
+      </c>
+      <c r="V11" s="144">
+        <v>0.90851966666666673</v>
+      </c>
+      <c r="W11" s="145">
+        <v>1.3366666666666666E-3</v>
+      </c>
+      <c r="X11" s="134">
+        <v>0.59281499999999998</v>
+      </c>
+      <c r="Y11" s="125">
+        <v>0.13221333333333338</v>
+      </c>
+      <c r="Z11" s="128">
+        <v>0.20834800000000001</v>
+      </c>
+      <c r="AA11" s="128">
+        <v>6.6423999999999997E-2</v>
+      </c>
+      <c r="AB11" s="129">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="134">
+        <v>0.17720499999999997</v>
+      </c>
+      <c r="AD11" s="135">
+        <v>2.2474000000000004E-2</v>
+      </c>
+      <c r="AE11" s="125">
+        <v>0.73075133333333342</v>
+      </c>
+      <c r="AF11" s="128">
+        <v>3.4685000000000001E-2</v>
+      </c>
+      <c r="AG11" s="129">
+        <v>3.4685000000000001E-2</v>
+      </c>
+      <c r="AH11" s="134">
+        <v>0.24598299999999998</v>
+      </c>
+      <c r="AI11" s="135">
+        <v>2.6237E-2</v>
+      </c>
+      <c r="AJ11" s="135">
+        <v>9.2146000000000006E-2</v>
+      </c>
+      <c r="AK11" s="125">
+        <v>0.50376433333333337</v>
+      </c>
+      <c r="AL11" s="122">
+        <v>0.13167000000000001</v>
+      </c>
+      <c r="AM11" s="140">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="141">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="141">
+        <v>5.2716999999999993E-2</v>
+      </c>
+      <c r="AP11" s="141">
+        <v>3.7554999999999998E-2</v>
+      </c>
+      <c r="AQ11" s="144">
+        <v>0.90819666666666665</v>
+      </c>
+      <c r="AR11" s="145">
+        <v>1.3316666666666668E-3</v>
+      </c>
+      <c r="AS11" s="134">
+        <v>0.78637999999999997</v>
+      </c>
+      <c r="AT11" s="125">
+        <v>4.7047333333333406E-2</v>
+      </c>
+      <c r="AU11" s="128">
+        <v>0.12715399999999999</v>
+      </c>
+      <c r="AV11" s="128">
+        <v>3.9218999999999997E-2</v>
+      </c>
+      <c r="AW11" s="129">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="134">
+        <v>0.284721</v>
+      </c>
+      <c r="AY11" s="135">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AZ11" s="125">
+        <v>0.63610333333333335</v>
+      </c>
+      <c r="BA11" s="128">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="BB11" s="129">
+        <v>2.0338999999999999E-2</v>
+      </c>
+      <c r="BC11" s="134">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="BD11" s="135">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="BE11" s="135">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="BF11" s="125">
+        <v>0.33890733333333328</v>
+      </c>
+      <c r="BG11" s="129">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="BH11" s="140">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="141">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="141">
+        <v>8.8842000000000018E-2</v>
+      </c>
+      <c r="BK11" s="141">
+        <v>6.3644999999999993E-2</v>
+      </c>
+      <c r="BL11" s="144">
+        <v>0.84655800000000003</v>
+      </c>
+      <c r="BM11" s="145">
+        <v>7.5533333333333323E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="B12" s="164" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="136">
+        <v>0.43646124999999997</v>
+      </c>
+      <c r="D12" s="126">
+        <v>0.41889249999999995</v>
+      </c>
+      <c r="E12" s="130">
+        <v>0.119132</v>
+      </c>
+      <c r="F12" s="130">
+        <v>2.0116999999999999E-2</v>
+      </c>
+      <c r="G12" s="131">
+        <v>0</v>
+      </c>
+      <c r="H12" s="136">
+        <v>0.17660799999999999</v>
+      </c>
+      <c r="I12" s="137">
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="J12" s="126">
+        <v>0.71429199999999993</v>
+      </c>
+      <c r="K12" s="130">
+        <v>4.0140000000000002E-2</v>
+      </c>
+      <c r="L12" s="131">
+        <v>4.1170749999999999E-2</v>
+      </c>
+      <c r="M12" s="136">
+        <v>0.24519099999999999</v>
+      </c>
+      <c r="N12" s="137">
+        <v>2.6141000000000001E-2</v>
+      </c>
+      <c r="O12" s="137">
+        <v>9.1818999999999998E-2</v>
+      </c>
+      <c r="P12" s="126">
+        <v>0.41614674999999995</v>
+      </c>
+      <c r="Q12" s="131">
+        <v>0.215305</v>
+      </c>
+      <c r="R12" s="142">
+        <v>0</v>
+      </c>
+      <c r="S12" s="137">
+        <v>0</v>
+      </c>
+      <c r="T12" s="137">
+        <v>3.7458999999999999E-2</v>
+      </c>
+      <c r="U12" s="137">
+        <v>3.1790499999999999E-2</v>
+      </c>
+      <c r="V12" s="126">
+        <v>0.91122724999999993</v>
+      </c>
+      <c r="W12" s="131">
+        <v>1.4126E-2</v>
+      </c>
+      <c r="X12" s="136">
+        <v>0.43766475000000005</v>
+      </c>
+      <c r="Y12" s="126">
+        <v>0.41817850000000001</v>
+      </c>
+      <c r="Z12" s="130">
+        <v>0.118717</v>
+      </c>
+      <c r="AA12" s="130">
+        <v>2.0042499999999998E-2</v>
+      </c>
+      <c r="AB12" s="131">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="136">
+        <v>0.177205</v>
+      </c>
+      <c r="AD12" s="137">
+        <v>2.2474000000000001E-2</v>
+      </c>
+      <c r="AE12" s="126">
+        <v>0.71390849999999995</v>
+      </c>
+      <c r="AF12" s="130">
+        <v>3.9994000000000002E-2</v>
+      </c>
+      <c r="AG12" s="131">
+        <v>4.1021250000000002E-2</v>
+      </c>
+      <c r="AH12" s="136">
+        <v>0.24598300000000001</v>
+      </c>
+      <c r="AI12" s="137">
+        <v>2.6237E-2</v>
+      </c>
+      <c r="AJ12" s="137">
+        <v>9.2146000000000006E-2</v>
+      </c>
+      <c r="AK12" s="126">
+        <v>0.41563824999999999</v>
+      </c>
+      <c r="AL12" s="123">
+        <v>0.2145985</v>
+      </c>
+      <c r="AM12" s="142">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="137">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="137">
+        <v>3.7595499999999997E-2</v>
+      </c>
+      <c r="AP12" s="137">
+        <v>3.1907249999999998E-2</v>
+      </c>
+      <c r="AQ12" s="126">
+        <v>0.91102624999999993</v>
+      </c>
+      <c r="AR12" s="131">
+        <v>1.4073749999999999E-2</v>
+      </c>
+      <c r="AS12" s="136">
+        <v>0.62775775</v>
+      </c>
+      <c r="AT12" s="126">
+        <v>0.28420100000000004</v>
+      </c>
+      <c r="AU12" s="130">
+        <v>7.0921999999999999E-2</v>
+      </c>
+      <c r="AV12" s="130">
+        <v>1.1722E-2</v>
+      </c>
+      <c r="AW12" s="131">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="136">
+        <v>0.284721</v>
+      </c>
+      <c r="AY12" s="137">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AZ12" s="126">
+        <v>0.62401899999999999</v>
+      </c>
+      <c r="BA12" s="130">
+        <v>2.3477999999999999E-2</v>
+      </c>
+      <c r="BB12" s="131">
+        <v>2.4086749999999997E-2</v>
+      </c>
+      <c r="BC12" s="136">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="BD12" s="137">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="BE12" s="137">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="BF12" s="126">
+        <v>0.28137224999999993</v>
+      </c>
+      <c r="BG12" s="131">
+        <v>0.1312325</v>
+      </c>
+      <c r="BH12" s="142">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="137">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="137">
+        <v>6.3570000000000002E-2</v>
+      </c>
+      <c r="BK12" s="137">
+        <v>5.4125749999999993E-2</v>
+      </c>
+      <c r="BL12" s="126">
+        <v>0.86890174999999992</v>
+      </c>
+      <c r="BM12" s="131">
+        <v>8.0052500000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="B13" s="164" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="136">
+        <v>0.26398274999999999</v>
+      </c>
+      <c r="D13" s="126">
+        <v>0.62208375000000005</v>
+      </c>
+      <c r="E13" s="130">
+        <v>9.2994999999999994E-2</v>
+      </c>
+      <c r="F13" s="130">
+        <v>6.7190000000000001E-3</v>
+      </c>
+      <c r="G13" s="131">
+        <v>0</v>
+      </c>
+      <c r="H13" s="136">
+        <v>0.17660799999999999</v>
+      </c>
+      <c r="I13" s="137">
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="J13" s="126">
+        <v>0.68909249999999989</v>
+      </c>
+      <c r="K13" s="130">
+        <v>5.3425E-2</v>
+      </c>
+      <c r="L13" s="131">
+        <v>4.4262999999999997E-2</v>
+      </c>
+      <c r="M13" s="136">
+        <v>0.24519099999999999</v>
+      </c>
+      <c r="N13" s="137">
+        <v>2.6141000000000001E-2</v>
+      </c>
+      <c r="O13" s="137">
+        <v>9.1818999999999998E-2</v>
+      </c>
+      <c r="P13" s="126">
+        <v>0.3386087499999999</v>
+      </c>
+      <c r="Q13" s="131">
+        <v>0.28402075000000004</v>
+      </c>
+      <c r="R13" s="142">
+        <v>0</v>
+      </c>
+      <c r="S13" s="137">
+        <v>0</v>
+      </c>
+      <c r="T13" s="137">
+        <v>1.4918499999999999E-2</v>
+      </c>
+      <c r="U13" s="137">
+        <v>9.3095000000000001E-3</v>
+      </c>
+      <c r="V13" s="126">
+        <v>0.92913724999999991</v>
+      </c>
+      <c r="W13" s="131">
+        <v>3.2415249999999993E-2</v>
+      </c>
+      <c r="X13" s="136">
+        <v>0.26482074999999999</v>
+      </c>
+      <c r="Y13" s="126">
+        <v>0.62159975000000001</v>
+      </c>
+      <c r="Z13" s="130">
+        <v>9.2665999999999998E-2</v>
+      </c>
+      <c r="AA13" s="130">
+        <v>6.6940000000000003E-3</v>
+      </c>
+      <c r="AB13" s="131">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="136">
+        <v>0.177205</v>
+      </c>
+      <c r="AD13" s="137">
+        <v>2.2474000000000001E-2</v>
+      </c>
+      <c r="AE13" s="126">
+        <v>0.68876649999999995</v>
+      </c>
+      <c r="AF13" s="130">
+        <v>5.3232000000000002E-2</v>
+      </c>
+      <c r="AG13" s="131">
+        <v>4.4103000000000003E-2</v>
+      </c>
+      <c r="AH13" s="136">
+        <v>0.24598300000000001</v>
+      </c>
+      <c r="AI13" s="137">
+        <v>2.6237E-2</v>
+      </c>
+      <c r="AJ13" s="137">
+        <v>9.2146000000000006E-2</v>
+      </c>
+      <c r="AK13" s="126">
+        <v>0.33828224999999995</v>
+      </c>
+      <c r="AL13" s="123">
+        <v>0.28313224999999997</v>
+      </c>
+      <c r="AM13" s="142">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="137">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="137">
+        <v>1.4973E-2</v>
+      </c>
+      <c r="AP13" s="137">
+        <v>9.3434999999999994E-3</v>
+      </c>
+      <c r="AQ13" s="126">
+        <v>0.92916699999999997</v>
+      </c>
+      <c r="AR13" s="131">
+        <v>3.2296999999999999E-2</v>
+      </c>
+      <c r="AS13" s="136">
+        <v>0.40971574999999999</v>
+      </c>
+      <c r="AT13" s="126">
+        <v>0.51712974999999994</v>
+      </c>
+      <c r="AU13" s="130">
+        <v>5.5032999999999999E-2</v>
+      </c>
+      <c r="AV13" s="130">
+        <v>3.9020000000000001E-3</v>
+      </c>
+      <c r="AW13" s="131">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="136">
+        <v>0.284721</v>
+      </c>
+      <c r="AY13" s="137">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AZ13" s="126">
+        <v>0.60550850000000001</v>
+      </c>
+      <c r="BA13" s="130">
+        <v>3.134E-2</v>
+      </c>
+      <c r="BB13" s="131">
+        <v>2.5912999999999999E-2</v>
+      </c>
+      <c r="BC13" s="136">
+        <v>0.38433200000000001</v>
+      </c>
+      <c r="BD13" s="137">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="BE13" s="137">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="BF13" s="126">
+        <v>0.22758199999999995</v>
+      </c>
+      <c r="BG13" s="131">
+        <v>0.17620050000000001</v>
+      </c>
+      <c r="BH13" s="142">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="137">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="137">
+        <v>2.5549999999999996E-2</v>
+      </c>
+      <c r="BK13" s="137">
+        <v>1.5996E-2</v>
+      </c>
+      <c r="BL13" s="126">
+        <v>0.92580125000000002</v>
+      </c>
+      <c r="BM13" s="131">
+        <v>1.8433249999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="165" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="138">
+        <v>0.23293700000000003</v>
+      </c>
+      <c r="D14" s="127">
+        <v>0.63785533333333333</v>
+      </c>
+      <c r="E14" s="132">
+        <v>9.2994999999999994E-2</v>
+      </c>
+      <c r="F14" s="132">
+        <v>6.7190000000000001E-3</v>
+      </c>
+      <c r="G14" s="133">
+        <v>0</v>
+      </c>
+      <c r="H14" s="138">
+        <v>0.17660799999999999</v>
+      </c>
+      <c r="I14" s="139">
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="J14" s="127">
+        <v>0.6738183333333333</v>
+      </c>
+      <c r="K14" s="132">
+        <v>5.3425E-2</v>
+      </c>
+      <c r="L14" s="133">
+        <v>4.4262999999999997E-2</v>
+      </c>
+      <c r="M14" s="138">
+        <v>0.24519100000000002</v>
+      </c>
+      <c r="N14" s="139">
+        <v>2.6141000000000001E-2</v>
+      </c>
+      <c r="O14" s="139">
+        <v>9.1818999999999998E-2</v>
+      </c>
+      <c r="P14" s="127">
+        <v>0.28246066666666664</v>
+      </c>
+      <c r="Q14" s="133">
+        <v>0.32489466666666661</v>
+      </c>
+      <c r="R14" s="143">
+        <v>0</v>
+      </c>
+      <c r="S14" s="139">
+        <v>0</v>
+      </c>
+      <c r="T14" s="139">
+        <v>7.4450000000000002E-3</v>
+      </c>
+      <c r="U14" s="139">
+        <v>4.9616666666666672E-3</v>
+      </c>
+      <c r="V14" s="127">
+        <v>0.919902</v>
+      </c>
+      <c r="W14" s="133">
+        <v>3.8197666666666664E-2</v>
+      </c>
+      <c r="X14" s="138">
+        <v>0.23369500000000001</v>
+      </c>
+      <c r="Y14" s="127">
+        <v>0.63745133333333326</v>
+      </c>
+      <c r="Z14" s="132">
+        <v>9.2665999999999984E-2</v>
+      </c>
+      <c r="AA14" s="132">
+        <v>6.6940000000000012E-3</v>
+      </c>
+      <c r="AB14" s="133">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="138">
+        <v>0.17720499999999997</v>
+      </c>
+      <c r="AD14" s="139">
+        <v>2.2474000000000004E-2</v>
+      </c>
+      <c r="AE14" s="127">
+        <v>0.67349233333333325</v>
+      </c>
+      <c r="AF14" s="132">
+        <v>5.3232000000000002E-2</v>
+      </c>
+      <c r="AG14" s="133">
+        <v>4.4103000000000003E-2</v>
+      </c>
+      <c r="AH14" s="138">
+        <v>0.24598299999999998</v>
+      </c>
+      <c r="AI14" s="139">
+        <v>2.6237E-2</v>
+      </c>
+      <c r="AJ14" s="139">
+        <v>9.2146000000000006E-2</v>
+      </c>
+      <c r="AK14" s="127">
+        <v>0.28223199999999998</v>
+      </c>
+      <c r="AL14" s="124">
+        <v>0.3239083333333333</v>
+      </c>
+      <c r="AM14" s="143">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="139">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="139">
+        <v>7.4720000000000003E-3</v>
+      </c>
+      <c r="AP14" s="139">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="AQ14" s="127">
+        <v>0.9199963333333333</v>
+      </c>
+      <c r="AR14" s="133">
+        <v>3.8058000000000002E-2</v>
+      </c>
+      <c r="AS14" s="138">
+        <v>0.36699399999999999</v>
+      </c>
+      <c r="AT14" s="127">
+        <v>0.54457733333333325</v>
+      </c>
+      <c r="AU14" s="132">
+        <v>5.5032999999999999E-2</v>
+      </c>
+      <c r="AV14" s="132">
+        <v>3.9020000000000005E-3</v>
+      </c>
+      <c r="AW14" s="133">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="138">
+        <v>0.284721</v>
+      </c>
+      <c r="AY14" s="139">
+        <v>3.8297999999999999E-2</v>
+      </c>
+      <c r="AZ14" s="127">
+        <v>0.59023433333333319</v>
+      </c>
+      <c r="BA14" s="132">
+        <v>3.134E-2</v>
+      </c>
+      <c r="BB14" s="133">
+        <v>2.5913000000000002E-2</v>
+      </c>
+      <c r="BC14" s="138">
+        <v>0.38433199999999995</v>
+      </c>
+      <c r="BD14" s="139">
+        <v>4.4648E-2</v>
+      </c>
+      <c r="BE14" s="139">
+        <v>0.15301799999999999</v>
+      </c>
+      <c r="BF14" s="127">
+        <v>0.18472799999999998</v>
+      </c>
+      <c r="BG14" s="133">
+        <v>0.20378033333333334</v>
+      </c>
+      <c r="BH14" s="143">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="139">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="139">
+        <v>1.2801999999999999E-2</v>
+      </c>
+      <c r="BK14" s="139">
+        <v>8.5379999999999987E-3</v>
+      </c>
+      <c r="BL14" s="127">
+        <v>0.92741933333333326</v>
+      </c>
+      <c r="BM14" s="133">
+        <v>2.1746999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="B16" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="117"/>
+      <c r="M16" s="117"/>
+    </row>
+    <row r="17" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="159"/>
+      <c r="C17" s="160" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="161" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="161" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="161" t="s">
+        <v>239</v>
+      </c>
+      <c r="M17" s="117"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B18" s="157">
+        <v>16</v>
+      </c>
+      <c r="C18" s="159">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D18" s="159">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E18" s="159">
+        <f>AVERAGE(D18,F18)</f>
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="F18" s="159">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B19" s="157">
+        <v>18</v>
+      </c>
+      <c r="C19" s="159">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D19" s="159">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E19" s="159">
+        <f>AVERAGE(D19,F19)</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="F19" s="159">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B20" s="157" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="159">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D20" s="159">
+        <v>0.42</v>
+      </c>
+      <c r="E20" s="159">
+        <f>AVERAGE(D20,F20)</f>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F20" s="159">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B21" s="158" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="159">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D21" s="159">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E21" s="159">
+        <f>AVERAGE(D21,F21)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="159">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+    </row>
+    <row r="24" spans="1:22" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="N24" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="P24" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q24" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="R24" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="S24" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="T24" s="90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="151" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="152">
+        <f t="array" ref="C25:C28">(C$18/SUM(C$18:C$20))*(E11:E14 + F11:F14 +G11:G14) + (C19/SUM(C$18:C$20))*(Z11:Z14 + AA11:AA14 + AB11:AB14) + (C$20/SUM(C$18:C$20))*(Z11:Z14+AA11:AA14 +AB11:AB14)*0.95</f>
+        <v>0.26629438006872852</v>
+      </c>
+      <c r="D25" s="153">
+        <f t="array" ref="D25:D28">(D18/SUM(D18:D20))*(K11:K14 + L11:L14) + (D19/SUM(D18:D20))*(AF11:AF14 + AG11:AG14) + (D20/SUM(D18:D20))*(AF11:AF14 + AG11:AG14)*0.9</f>
+        <v>6.5091508196721312E-2</v>
+      </c>
+      <c r="E25" s="152">
+        <f t="array" ref="E25:E28">(E18/SUM(E18:E20))*(Q11:Q14 ) + (E19/SUM(E18:E20))*(AL11:AL14) + (E20/SUM(E18:E20))*(AL11:AL14)*0.85</f>
+        <v>0.12056888000000002</v>
+      </c>
+      <c r="F25" s="153">
+        <f t="array" ref="F25:F28">(F18/SUM(F18:F20))*W11:W14 + (F19/SUM(F18:F20))*AR11:AR14 + (F20/SUM(F18:F20))*AR11:AR14*0.75</f>
+        <v>1.1592048652995578E-3</v>
+      </c>
+      <c r="G25" s="152">
+        <f t="array" ref="G25:G28">(C18/SUM(C18:C20))*(C11:C14) + (C19/SUM(C18:C20))*(X11:X14)+ (C20/SUM(C18:C20))*(X11:X14)*1.05</f>
+        <v>0.61125012542955315</v>
+      </c>
+      <c r="H25" s="153">
+        <f t="array" ref="H25:H28">(D18/SUM(D18:D20))*(I11:I14 + H11:H14) + (D19/SUM(D18:D20))*(AD11:AD14 + AC11:AC14) + (D20/SUM(D18:D20))*(AD11:AD14 + AC11:AC14)*1.1</f>
+        <v>0.21200753353204171</v>
+      </c>
+      <c r="I25" s="152">
+        <f t="array" ref="I25:I28">(E18/SUM(E18:E20))*(O11:O14 + N11:N14 + M11:M14) + (E19/SUM(E18:E20))*(AJ11:AJ14 + AI11:AI14 + AH11:AH14) + (E20/SUM(E18:E20))*(AJ11:AJ14 + AI11:AI14 + AH11:AH14)*1.15</f>
+        <v>0.39510134639999994</v>
+      </c>
+      <c r="J25" s="153">
+        <f t="array" ref="J25:J28">(F18/SUM(F18:F20))*(U11:U14 + T11:T14 + S11:S14 + R11:R14) + (F19/SUM(F18:F20))*(AP11:AP14 + AO11:AO14 +AN11:AN14 + AM11:AM14) + (F20/SUM(F18:F20))*(AP11:AP14 + AO11:AO14 +AN11:AN14 + AM11:AM14)*1.25</f>
+        <v>0.10196696743063932</v>
+      </c>
+      <c r="L25" s="151" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" s="154">
+        <f t="array" ref="M25:M28">((AU11:AU14 + AV11:AV14 + AW11:AW14) - (Z11:Z14+AA11:AA14 +AB11:AB14)*0.95*(C20/SUM(C20:C21)))/(1-(C20/SUM(C20:C21)))</f>
+        <v>8.3035614354066964E-2</v>
+      </c>
+      <c r="N25" s="153">
+        <f t="array" ref="N25:N28">((BA11:BA14+BB11:BB14)-(AF11:AF14+AG11:AG14)*0.9*(D20/SUM(D20:D21)))/(1-(D20/SUM(D20:D21)))</f>
+        <v>1.2905659574468088E-2</v>
+      </c>
+      <c r="O25" s="168">
+        <f t="array" ref="O25:O28">(BG11:BG14 - (AL11:AL14)*0.85*(E20/SUM(E20:E21)))/(1-(E20/SUM(E20:E21)))</f>
+        <v>2.2489154000000015E-2</v>
+      </c>
+      <c r="P25" s="171">
+        <f t="array" ref="P25:P28" xml:space="preserve"> (BM11:BM14 - (AR11:AR14*0.75*(F20/SUM(F20:F21))))/(1-(F20/SUM(F20:F21)))</f>
+        <v>1.3753898635477535E-4</v>
+      </c>
+      <c r="Q25" s="168">
+        <f t="array" ref="Q25:Q28">(AS11:AS14 - (X11:X14)*1.05*(C20/SUM(C20:C21)))/(1-(C20/SUM(C20:C21)))</f>
+        <v>0.9306960861244018</v>
+      </c>
+      <c r="R25" s="153">
+        <f t="array" ref="R25:R28" xml:space="preserve"> ((AY11:AY14+AX11:AX14) - (AD11:AD14 + AC11:AC14)*1.1*(D20/SUM(D20:D21)))/(1-(D20/SUM(D20:D21)))</f>
+        <v>0.45498338297872343</v>
+      </c>
+      <c r="S25" s="168">
+        <f t="array" ref="S25:S28">((BE11:BE14 + BD11:BD14 + BC11:BC14) - (AJ11:AJ14 + AI11:AI14 + AH11:AH14)*1.15*(E20/SUM(E20:E21)))/(1-(E20/SUM(E20:E21)))</f>
+        <v>0.86036288679999984</v>
+      </c>
+      <c r="T25" s="153">
+        <f t="array" ref="T25:T28">((BK11:BK14 + BJ11:BJ14 + BI11:BI14 + BH11:BH14) - (AP11:AP14 + AO11:AO14 +AN11:AN14 + AM11:AM14)*1.25*(F20/SUM(F20:F21)))/(1-(F20/SUM(F20:F21)))</f>
+        <v>0.25311154970760236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="149" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="86">
+        <v>0.13448278127147767</v>
+      </c>
+      <c r="D26" s="114">
+        <v>7.6018235842026827E-2</v>
+      </c>
+      <c r="E26" s="86">
+        <v>0.19649362910000001</v>
+      </c>
+      <c r="F26" s="114">
+        <v>1.2250866857659831E-2</v>
+      </c>
+      <c r="G26" s="86">
+        <v>0.45123068281786938</v>
+      </c>
+      <c r="H26" s="114">
+        <v>0.21200753353204171</v>
+      </c>
+      <c r="I26" s="86">
+        <v>0.3951013464</v>
+      </c>
+      <c r="J26" s="114">
+        <v>7.8506747135102528E-2</v>
+      </c>
+      <c r="L26" s="149" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" s="86">
+        <v>3.9348954066985652E-2</v>
+      </c>
+      <c r="N26" s="114">
+        <v>1.5204356382978696E-2</v>
+      </c>
+      <c r="O26" s="169">
+        <v>4.3823507700000049E-2</v>
+      </c>
+      <c r="P26" s="172">
+        <v>1.5331615497076036E-3</v>
+      </c>
+      <c r="Q26" s="86">
+        <v>0.7758467275119616</v>
+      </c>
+      <c r="R26" s="114">
+        <v>0.45498338297872337</v>
+      </c>
+      <c r="S26" s="169">
+        <v>0.86036288679999995</v>
+      </c>
+      <c r="T26" s="114">
+        <v>0.19591044956140347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="149" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="86">
+        <v>9.6298402061855651E-2</v>
+      </c>
+      <c r="D27" s="114">
+        <v>9.1330877794336823E-2</v>
+      </c>
+      <c r="E27" s="86">
+        <v>0.25923174485</v>
+      </c>
+      <c r="F27" s="114">
+        <v>2.8113170386007233E-2</v>
+      </c>
+      <c r="G27" s="86">
+        <v>0.27300446786941579</v>
+      </c>
+      <c r="H27" s="114">
+        <v>0.21200753353204171</v>
+      </c>
+      <c r="I27" s="86">
+        <v>0.3951013464</v>
+      </c>
+      <c r="J27" s="114">
+        <v>2.746671079613993E-2</v>
+      </c>
+      <c r="L27" s="149" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" s="86">
+        <v>2.7719267942583732E-2</v>
+      </c>
+      <c r="N27" s="114">
+        <v>1.851023404255318E-2</v>
+      </c>
+      <c r="O27" s="169">
+        <v>6.6099553450000056E-2</v>
+      </c>
+      <c r="P27" s="172">
+        <v>3.7394312865497051E-3</v>
+      </c>
+      <c r="Q27" s="86">
+        <v>0.52562163086124392</v>
+      </c>
+      <c r="R27" s="114">
+        <v>0.45498338297872337</v>
+      </c>
+      <c r="S27" s="169">
+        <v>0.86036288679999995</v>
+      </c>
+      <c r="T27" s="114">
+        <v>6.9845782163742695E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="115">
+        <v>9.6298402061855637E-2</v>
+      </c>
+      <c r="D28" s="116">
+        <v>9.1330877794336823E-2</v>
+      </c>
+      <c r="E28" s="115">
+        <v>0.29655627033333332</v>
+      </c>
+      <c r="F28" s="116">
+        <v>3.3127995174909532E-2</v>
+      </c>
+      <c r="G28" s="115">
+        <v>0.24091268041237113</v>
+      </c>
+      <c r="H28" s="116">
+        <v>0.21200753353204171</v>
+      </c>
+      <c r="I28" s="115">
+        <v>0.39510134639999994</v>
+      </c>
+      <c r="J28" s="116">
+        <v>1.4065155609167674E-2</v>
+      </c>
+      <c r="L28" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" s="115">
+        <v>2.7719267942583746E-2</v>
+      </c>
+      <c r="N28" s="116">
+        <v>1.851023404255318E-2</v>
+      </c>
+      <c r="O28" s="170">
+        <v>8.1587024333333438E-2</v>
+      </c>
+      <c r="P28" s="173">
+        <v>4.4974035087719244E-3</v>
+      </c>
+      <c r="Q28" s="115">
+        <v>0.47406109090909082</v>
+      </c>
+      <c r="R28" s="116">
+        <v>0.45498338297872343</v>
+      </c>
+      <c r="S28" s="170">
+        <v>0.86036288679999984</v>
+      </c>
+      <c r="T28" s="116">
+        <v>3.599701754385963E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="148" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="146" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="148" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="148" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="147" t="s">
+        <v>175</v>
+      </c>
+      <c r="N31" s="146" t="s">
+        <v>180</v>
+      </c>
+      <c r="O31" s="148" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="R31" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="S31" s="148" t="s">
+        <v>185</v>
+      </c>
+      <c r="T31" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B32" s="178" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="179">
+        <f t="shared" ref="C32:J34" si="0">C26/C$25</f>
+        <v>0.50501546910891892</v>
+      </c>
+      <c r="D32" s="179">
+        <f t="shared" si="0"/>
+        <v>1.1678671757348511</v>
+      </c>
+      <c r="E32" s="179">
+        <f t="shared" si="0"/>
+        <v>1.6297209454048174</v>
+      </c>
+      <c r="F32" s="179">
+        <f t="shared" si="0"/>
+        <v>10.568336300498535</v>
+      </c>
+      <c r="G32" s="179">
+        <f t="shared" si="0"/>
+        <v>0.73820955455963155</v>
+      </c>
+      <c r="H32" s="179">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="179">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J32" s="179">
+        <f t="shared" si="0"/>
+        <v>0.76992333020499926</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="178" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" s="179">
+        <f t="shared" ref="M32:T32" si="1">M26/M$25</f>
+        <v>0.47388044724038819</v>
+      </c>
+      <c r="N32" s="179">
+        <f t="shared" si="1"/>
+        <v>1.1781154070620485</v>
+      </c>
+      <c r="O32" s="179">
+        <f t="shared" si="1"/>
+        <v>1.9486507896206331</v>
+      </c>
+      <c r="P32" s="179">
+        <f t="shared" si="1"/>
+        <v>11.147105197888296</v>
+      </c>
+      <c r="Q32" s="179">
+        <f t="shared" si="1"/>
+        <v>0.83361984548869994</v>
+      </c>
+      <c r="R32" s="179">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="S32" s="179">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="T32" s="179">
+        <f t="shared" si="1"/>
+        <v>0.77400833659199542</v>
+      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B33" s="166" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="179">
+        <f t="shared" si="0"/>
+        <v>0.36162386167143962</v>
+      </c>
+      <c r="D33" s="179">
+        <f t="shared" si="0"/>
+        <v>1.4031150963396666</v>
+      </c>
+      <c r="E33" s="179">
+        <f t="shared" si="0"/>
+        <v>2.1500717668605693</v>
+      </c>
+      <c r="F33" s="179">
+        <f t="shared" si="0"/>
+        <v>24.252115590234624</v>
+      </c>
+      <c r="G33" s="179">
+        <f t="shared" si="0"/>
+        <v>0.44663298461912493</v>
+      </c>
+      <c r="H33" s="179">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="179">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J33" s="179">
+        <f t="shared" si="0"/>
+        <v>0.26936871310626676</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="166" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" s="179">
+        <f t="shared" ref="M33:T33" si="2">M27/M$25</f>
+        <v>0.3338238436387998</v>
+      </c>
+      <c r="N33" s="179">
+        <f t="shared" si="2"/>
+        <v>1.434272610070461</v>
+      </c>
+      <c r="O33" s="179">
+        <f t="shared" si="2"/>
+        <v>2.9391747439676927</v>
+      </c>
+      <c r="P33" s="179">
+        <f t="shared" si="2"/>
+        <v>27.188155050845133</v>
+      </c>
+      <c r="Q33" s="179">
+        <f t="shared" si="2"/>
+        <v>0.56476183654111389</v>
+      </c>
+      <c r="R33" s="179">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="S33" s="179">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="T33" s="179">
+        <f t="shared" si="2"/>
+        <v>0.27594861729711434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B34" s="167" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="179">
+        <f t="shared" si="0"/>
+        <v>0.36162386167143956</v>
+      </c>
+      <c r="D34" s="179">
+        <f t="shared" si="0"/>
+        <v>1.4031150963396666</v>
+      </c>
+      <c r="E34" s="179">
+        <f t="shared" si="0"/>
+        <v>2.4596419103613907</v>
+      </c>
+      <c r="F34" s="179">
+        <f t="shared" si="0"/>
+        <v>28.578205774135281</v>
+      </c>
+      <c r="G34" s="179">
+        <f t="shared" si="0"/>
+        <v>0.39413109362238719</v>
+      </c>
+      <c r="H34" s="179">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="179">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="179">
+        <f t="shared" si="0"/>
+        <v>0.13793835360196596</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="167" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" s="179">
+        <f t="shared" ref="M34:T34" si="3">M28/M$25</f>
+        <v>0.33382384363879997</v>
+      </c>
+      <c r="N34" s="179">
+        <f t="shared" si="3"/>
+        <v>1.434272610070461</v>
+      </c>
+      <c r="O34" s="179">
+        <f t="shared" si="3"/>
+        <v>3.627838749885095</v>
+      </c>
+      <c r="P34" s="179">
+        <f t="shared" si="3"/>
+        <v>32.699117740849736</v>
+      </c>
+      <c r="Q34" s="179">
+        <f t="shared" si="3"/>
+        <v>0.50936186148925666</v>
+      </c>
+      <c r="R34" s="179">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S34" s="179">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T34" s="179">
+        <f t="shared" si="3"/>
+        <v>0.14221799671110955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+    </row>
+    <row r="37" spans="1:22" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="148" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="146" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="148" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="148" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" s="146" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="151" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="180">
+        <f>AVERAGE(C32,M32)</f>
+        <v>0.48944795817465359</v>
+      </c>
+      <c r="D38" s="180">
+        <f t="shared" ref="D38:J38" si="4">AVERAGE(D32,N32)</f>
+        <v>1.1729912913984499</v>
+      </c>
+      <c r="E38" s="180">
+        <f t="shared" si="4"/>
+        <v>1.7891858675127252</v>
+      </c>
+      <c r="F38" s="180">
+        <f t="shared" si="4"/>
+        <v>10.857720749193415</v>
+      </c>
+      <c r="G38" s="180">
+        <f t="shared" si="4"/>
+        <v>0.78591470002416575</v>
+      </c>
+      <c r="H38" s="180">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="180">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J38" s="180">
+        <f t="shared" si="4"/>
+        <v>0.77196583339849734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B39" s="155" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="180">
+        <f t="shared" ref="C39:C40" si="5">AVERAGE(C33,M33)</f>
+        <v>0.34772385265511974</v>
+      </c>
+      <c r="D39" s="180">
+        <f t="shared" ref="D39:D40" si="6">AVERAGE(D33,N33)</f>
+        <v>1.4186938532050637</v>
+      </c>
+      <c r="E39" s="180">
+        <f t="shared" ref="E39:E40" si="7">AVERAGE(E33,O33)</f>
+        <v>2.5446232554141313</v>
+      </c>
+      <c r="F39" s="180">
+        <f t="shared" ref="F39:F40" si="8">AVERAGE(F33,P33)</f>
+        <v>25.720135320539878</v>
+      </c>
+      <c r="G39" s="180">
+        <f>AVERAGE(G33,Q33)</f>
+        <v>0.50569741058011941</v>
+      </c>
+      <c r="H39" s="180">
+        <f t="shared" ref="H39:H40" si="9">AVERAGE(H33,R33)</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="180">
+        <f t="shared" ref="I39:I40" si="10">AVERAGE(I33,S33)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J39" s="180">
+        <f t="shared" ref="J39:J40" si="11">AVERAGE(J33,T33)</f>
+        <v>0.27265866520169058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B40" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="180">
+        <f t="shared" si="5"/>
+        <v>0.34772385265511974</v>
+      </c>
+      <c r="D40" s="180">
+        <f t="shared" si="6"/>
+        <v>1.4186938532050637</v>
+      </c>
+      <c r="E40" s="180">
+        <f t="shared" si="7"/>
+        <v>3.0437403301232431</v>
+      </c>
+      <c r="F40" s="180">
+        <f t="shared" si="8"/>
+        <v>30.638661757492507</v>
+      </c>
+      <c r="G40" s="180">
+        <f t="shared" ref="G40" si="12">AVERAGE(G34,Q34)</f>
+        <v>0.45174647755582192</v>
+      </c>
+      <c r="H40" s="180">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="180">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="180">
+        <f t="shared" si="11"/>
+        <v>0.14007817515653775</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F11:F13">
+    <cfRule type="cellIs" dxfId="71" priority="65" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J13">
+    <cfRule type="cellIs" dxfId="70" priority="64" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11:AK13">
+    <cfRule type="cellIs" dxfId="69" priority="61" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K13">
+    <cfRule type="cellIs" dxfId="68" priority="63" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP11:AP13">
+    <cfRule type="cellIs" dxfId="67" priority="60" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11:AJ13 AL11:AO13 AR11:AR13">
+    <cfRule type="cellIs" dxfId="66" priority="62" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D13">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ11:AQ13">
+    <cfRule type="cellIs" dxfId="64" priority="59" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11:AD13 AG11:AG13">
+    <cfRule type="cellIs" dxfId="63" priority="58" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:O13 Q11:T13 W11:W13">
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11:P13">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11:U13">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:V13">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11:AE13">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:I13 L11:L13">
+    <cfRule type="cellIs" dxfId="57" priority="68" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL11:BL13">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC11:BE13 BG11:BI13 BM11:BM13">
+    <cfRule type="cellIs" dxfId="55" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C13 G11:G13 E11:E13">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ11:AZ13">
+    <cfRule type="cellIs" dxfId="53" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA11:BA13">
+    <cfRule type="cellIs" dxfId="52" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11:X13 AB11:AB13 Z11:Z13">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y13">
+    <cfRule type="cellIs" dxfId="50" priority="56" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA13">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AF13">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF11:BF13">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK11:BK13">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX11:AY13 BB11:BB13">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS11:AS13 AW11:AW13 AU11:AU13">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT11:AT13">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV11:AV13">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC10:BI10 BK10:BM10">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX10:BB10">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10:AG10">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS10:AW10">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10:AB10">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10:AR10">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:W10">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:L10">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:G10">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ11:BJ13">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ10">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP14">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR14 AL14:AO14 AH14:AJ14">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ14">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14 AC14:AD14">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14 Q14:T14 M14:O14">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14 H14:I14">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL14">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM14 BG14:BI14 BC14:BE14">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14 G14 C14">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ14">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA14">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14 AB14 X14">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF14">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK14">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB14 AX14:AY14">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU14 AW14 AS14">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13700" tabRatio="796" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="265">
   <si>
     <t>Age</t>
   </si>
@@ -1036,9 +1036,6 @@
     </r>
   </si>
   <si>
-    <t>Relative risks by age (ref = 10-25 yo)</t>
-  </si>
-  <si>
     <t xml:space="preserve">We assume that all regression flows out of a compartment flow into the neighboring compartment, and similarly for all progression flows. For example, to calculate progression from CIN1 to CIN2, we add the flows specified for CIN1 --&gt; CIN2 and CIN1 --&gt; CIN3. </t>
   </si>
   <si>
@@ -1067,6 +1064,18 @@
   </si>
   <si>
     <t xml:space="preserve">Non-Vaccine Types (other high risk). </t>
+  </si>
+  <si>
+    <t>`10-24</t>
+  </si>
+  <si>
+    <t>`25-49</t>
+  </si>
+  <si>
+    <t>`50-69</t>
+  </si>
+  <si>
+    <t>Relative risks by age (ref = 10-24 yo)</t>
   </si>
 </sst>
 </file>
@@ -1927,6 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1945,7 +1955,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3522,18 +3531,18 @@
       <c r="U17" s="38"/>
     </row>
     <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="181" t="s">
+      <c r="A18" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="181"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="F18" s="181" t="s">
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="F18" s="182" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
       <c r="J18" s="52"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
@@ -3863,12 +3872,12 @@
       <c r="U31" s="38"/>
     </row>
     <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="181"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4075,12 +4084,12 @@
     </row>
     <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="55"/>
-      <c r="B44" s="182" t="s">
+      <c r="B44" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="183"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="184"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="185"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -4445,12 +4454,12 @@
       <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
@@ -4612,12 +4621,12 @@
       <c r="W17" s="38"/>
     </row>
     <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="181" t="s">
+      <c r="A18" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="181"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
@@ -4805,10 +4814,10 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="181"/>
+      <c r="B32" s="182"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -4938,10 +4947,10 @@
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="181"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -5444,11 +5453,11 @@
     </row>
     <row r="72" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="56"/>
-      <c r="B72" s="181" t="s">
+      <c r="B72" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="181"/>
-      <c r="D72" s="181"/>
+      <c r="C72" s="182"/>
+      <c r="D72" s="182"/>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="39" t="s">
@@ -10353,8 +10362,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW113"/>
   <sheetViews>
-    <sheetView topLeftCell="I19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14287,7 +14296,7 @@
     </row>
     <row r="23" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="86"/>
@@ -15578,7 +15587,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
@@ -16089,7 +16098,7 @@
       <c r="O50" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P50" s="187">
+      <c r="P50" s="181">
         <f t="array" ref="P50:P65">AH26*AL6:AL21+AH27*BG6:BG21+AH28*CB6:CB21</f>
         <v>0</v>
       </c>
@@ -16117,11 +16126,11 @@
       <c r="X50" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y50" s="187">
+      <c r="Y50" s="181">
         <f t="array" ref="Y50:Y65">AH26*AW6:AW21+AH27*BR6:BR21+AH28*CM6:CM21</f>
         <v>0</v>
       </c>
-      <c r="Z50" s="187">
+      <c r="Z50" s="181">
         <f t="array" ref="Z50:Z65">AH26*AW6:AW21+AH27*BS6:BS21+AH28*CN6:CN21</f>
         <v>0</v>
       </c>
@@ -16176,7 +16185,7 @@
       <c r="O51" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P51" s="187">
+      <c r="P51" s="181">
         <v>0</v>
       </c>
       <c r="Q51" s="27">
@@ -16203,10 +16212,10 @@
       <c r="X51" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y51" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="187">
+      <c r="Y51" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="181">
         <v>0</v>
       </c>
       <c r="AA51" s="27">
@@ -16260,7 +16269,7 @@
       <c r="O52" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P52" s="187">
+      <c r="P52" s="181">
         <v>0</v>
       </c>
       <c r="Q52" s="27">
@@ -16287,10 +16296,10 @@
       <c r="X52" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y52" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="187">
+      <c r="Y52" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="181">
         <v>0</v>
       </c>
       <c r="AA52" s="27">
@@ -16344,7 +16353,7 @@
       <c r="O53" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P53" s="187">
+      <c r="P53" s="181">
         <v>0</v>
       </c>
       <c r="Q53" s="27">
@@ -16371,10 +16380,10 @@
       <c r="X53" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y53" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="187">
+      <c r="Y53" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="181">
         <v>0</v>
       </c>
       <c r="AA53" s="27">
@@ -16428,7 +16437,7 @@
       <c r="O54" s="27">
         <v>3.9218999999999997E-2</v>
       </c>
-      <c r="P54" s="187">
+      <c r="P54" s="181">
         <v>0</v>
       </c>
       <c r="Q54" s="27">
@@ -16455,10 +16464,10 @@
       <c r="X54" s="27">
         <v>7.8895000000000007E-2</v>
       </c>
-      <c r="Y54" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="187">
+      <c r="Y54" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="181">
         <v>0</v>
       </c>
       <c r="AA54" s="27">
@@ -16512,7 +16521,7 @@
       <c r="O55" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P55" s="187">
+      <c r="P55" s="181">
         <v>0</v>
       </c>
       <c r="Q55" s="27">
@@ -16539,10 +16548,10 @@
       <c r="X55" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y55" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="187">
+      <c r="Y55" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="181">
         <v>0</v>
       </c>
       <c r="AA55" s="27">
@@ -16596,7 +16605,7 @@
       <c r="O56" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P56" s="187">
+      <c r="P56" s="181">
         <v>0</v>
       </c>
       <c r="Q56" s="27">
@@ -16623,10 +16632,10 @@
       <c r="X56" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y56" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="187">
+      <c r="Y56" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="181">
         <v>0</v>
       </c>
       <c r="AA56" s="27">
@@ -16680,7 +16689,7 @@
       <c r="O57" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P57" s="187">
+      <c r="P57" s="181">
         <v>0</v>
       </c>
       <c r="Q57" s="27">
@@ -16707,10 +16716,10 @@
       <c r="X57" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y57" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="187">
+      <c r="Y57" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="181">
         <v>0</v>
       </c>
       <c r="AA57" s="27">
@@ -16764,7 +16773,7 @@
       <c r="O58" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P58" s="187">
+      <c r="P58" s="181">
         <v>0</v>
       </c>
       <c r="Q58" s="27">
@@ -16791,10 +16800,10 @@
       <c r="X58" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y58" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="187">
+      <c r="Y58" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="181">
         <v>0</v>
       </c>
       <c r="AA58" s="27">
@@ -16848,7 +16857,7 @@
       <c r="O59" s="27">
         <v>1.1722E-2</v>
       </c>
-      <c r="P59" s="187">
+      <c r="P59" s="181">
         <v>0</v>
       </c>
       <c r="Q59" s="27">
@@ -16875,10 +16884,10 @@
       <c r="X59" s="27">
         <v>0.1312325</v>
       </c>
-      <c r="Y59" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="187">
+      <c r="Y59" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="181">
         <v>0</v>
       </c>
       <c r="AA59" s="27">
@@ -16932,7 +16941,7 @@
       <c r="O60" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P60" s="187">
+      <c r="P60" s="181">
         <v>0</v>
       </c>
       <c r="Q60" s="27">
@@ -16959,10 +16968,10 @@
       <c r="X60" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y60" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="187">
+      <c r="Y60" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="181">
         <v>0</v>
       </c>
       <c r="AA60" s="27">
@@ -16989,7 +16998,7 @@
       <c r="O61" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P61" s="187">
+      <c r="P61" s="181">
         <v>0</v>
       </c>
       <c r="Q61" s="27">
@@ -17016,10 +17025,10 @@
       <c r="X61" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y61" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="187">
+      <c r="Y61" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="181">
         <v>0</v>
       </c>
       <c r="AA61" s="27">
@@ -17046,7 +17055,7 @@
       <c r="O62" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P62" s="187">
+      <c r="P62" s="181">
         <v>0</v>
       </c>
       <c r="Q62" s="27">
@@ -17073,10 +17082,10 @@
       <c r="X62" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y62" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="187">
+      <c r="Y62" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="181">
         <v>0</v>
       </c>
       <c r="AA62" s="27">
@@ -17103,7 +17112,7 @@
       <c r="O63" s="27">
         <v>3.9020000000000001E-3</v>
       </c>
-      <c r="P63" s="187">
+      <c r="P63" s="181">
         <v>0</v>
       </c>
       <c r="Q63" s="27">
@@ -17130,10 +17139,10 @@
       <c r="X63" s="27">
         <v>0.17620050000000001</v>
       </c>
-      <c r="Y63" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="187">
+      <c r="Y63" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="181">
         <v>0</v>
       </c>
       <c r="AA63" s="27">
@@ -17160,7 +17169,7 @@
       <c r="O64" s="27">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="P64" s="187">
+      <c r="P64" s="181">
         <v>0</v>
       </c>
       <c r="Q64" s="27">
@@ -17187,10 +17196,10 @@
       <c r="X64" s="27">
         <v>0.20378033333333334</v>
       </c>
-      <c r="Y64" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="187">
+      <c r="Y64" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="181">
         <v>0</v>
       </c>
       <c r="AA64" s="27">
@@ -17217,7 +17226,7 @@
       <c r="O65" s="27">
         <v>3.9020000000000005E-3</v>
       </c>
-      <c r="P65" s="187">
+      <c r="P65" s="181">
         <v>0</v>
       </c>
       <c r="Q65" s="27">
@@ -17244,10 +17253,10 @@
       <c r="X65" s="27">
         <v>0.20378033333333334</v>
       </c>
-      <c r="Y65" s="187">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="187">
+      <c r="Y65" s="181">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="181">
         <v>0</v>
       </c>
       <c r="AA65" s="27">
@@ -17313,10 +17322,10 @@
       <c r="AG71" s="11"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="185" t="s">
+      <c r="A72" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="185"/>
+      <c r="B72" s="186"/>
       <c r="C72" s="86"/>
       <c r="D72" s="86"/>
       <c r="I72" s="86"/>
@@ -17493,10 +17502,10 @@
       <c r="AE83" s="11"/>
     </row>
     <row r="84" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="186" t="s">
+      <c r="A84" s="187" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="186"/>
+      <c r="B84" s="187"/>
       <c r="C84" s="86"/>
       <c r="D84" s="86"/>
       <c r="E84" s="86"/>
@@ -17923,8 +17932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17956,17 +17965,17 @@
     </row>
     <row r="2" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="176" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="177" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
@@ -17981,10 +17990,10 @@
     </row>
     <row r="7" spans="1:65" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="174" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -19170,10 +19179,10 @@
     </row>
     <row r="25" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C25" s="152">
         <f t="array" ref="C25:C28">(C$18/SUM(C$18:C$20))*(E11:E14 + F11:F14 +G11:G14) + (C19/SUM(C$18:C$20))*(Z11:Z14 + AA11:AA14 + AB11:AB14) + (C$20/SUM(C$18:C$20))*(Z11:Z14+AA11:AA14 +AB11:AB14)*0.95</f>
@@ -19208,7 +19217,7 @@
         <v>0.10196696743063932</v>
       </c>
       <c r="L25" s="151" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="M25" s="154">
         <f t="array" ref="M25:M28">((AU11:AU14 + AV11:AV14 + AW11:AW14) - (Z11:Z14+AA11:AA14 +AB11:AB14)*0.95*(C20/SUM(C20:C21)))/(1-(C20/SUM(C20:C21)))</f>
@@ -19245,7 +19254,7 @@
     </row>
     <row r="26" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="149" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C26" s="86">
         <v>0.13448278127147767</v>
@@ -19272,7 +19281,7 @@
         <v>7.8506747135102528E-2</v>
       </c>
       <c r="L26" s="149" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="M26" s="86">
         <v>3.9348954066985652E-2</v>
@@ -19301,7 +19310,7 @@
     </row>
     <row r="27" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="149" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C27" s="86">
         <v>9.6298402061855651E-2</v>
@@ -19328,7 +19337,7 @@
         <v>2.746671079613993E-2</v>
       </c>
       <c r="L27" s="149" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M27" s="86">
         <v>2.7719267942583732E-2</v>
@@ -19413,7 +19422,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B30" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="77.5" x14ac:dyDescent="0.35">
@@ -19477,7 +19486,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B32" s="178" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C32" s="179">
         <f t="shared" ref="C32:J34" si="0">C26/C$25</f>
@@ -19513,7 +19522,7 @@
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="178" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="M32" s="179">
         <f t="shared" ref="M32:T32" si="1">M26/M$25</f>
@@ -19552,7 +19561,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B33" s="166" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C33" s="179">
         <f t="shared" si="0"/>
@@ -19588,7 +19597,7 @@
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="166" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M33" s="179">
         <f t="shared" ref="M33:T33" si="2">M27/M$25</f>
@@ -19702,7 +19711,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -19756,10 +19765,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B38" s="151" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C38" s="180">
         <f>AVERAGE(C32,M32)</f>
@@ -19796,7 +19805,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B39" s="155" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C39" s="180">
         <f t="shared" ref="C39:C40" si="5">AVERAGE(C33,M33)</f>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -1292,12 +1292,6 @@
     <t>HIV+ Proportion by 16/18, other 9v, other hr</t>
   </si>
   <si>
-    <t>• Normal cytology: Average of Bruni and Van Aardt 2013. Both are South Africa. Bruni estimates sum to 100 (they don’t say how they accounted for multiple infection, but they seem to have), and they are consistent with data from van Aardt, which included 845 women.
-• Low-grade lesions: average of Bruni and Clifford 2005. Guan estimates almost centainly underestimate given lack of data for all types, and Dartell has small N (though it is between Bruni and Guan).
-• High-grade lesions: average of Bruni, Dartell, and van Aardt 2013. 
-• CC: average of Bruni, de Sanjose for Africa, Denny, van Aardt (2015). Denny and van Aardt both have small sample sizesbut are South Africa-specific)</t>
-  </si>
-  <si>
     <t>Multiple infection was commnon (2.6 types per person on average among HIV-negative and 4.8 among HIV-positive), BUT they report the prevalence of vaccine types combined!!! For this, they present the prevalence of infection with vaccine types alone (i.e. not in combination with other types)</t>
   </si>
   <si>
@@ -1405,6 +1399,12 @@
   </si>
   <si>
     <t>Africa - approximated from figure</t>
+  </si>
+  <si>
+    <t>• Normal cytology: Average of Bruni and Van Aardt (2013). Both are South Africa. Bruni estimates sum to 100 (they don’t say how they accounted for multiple infection, but they seem to have), and they are consistent with data from van Aardt, which included 845 women.
+• Low-grade lesions: average of Bruni and Clifford 2005. Guan estimates almost centainly underestimate given lack of data for all types, and Dartell has small N (though it is between Bruni and Guan).
+• High-grade lesions: average of Bruni, Dartell, and van Aardt (2016). 
+• CC: average of Bruni, de Sanjose for Africa, Denny, van Aardt (2015). Denny and van Aardt both have small sample sizesbut are South Africa-specific)</t>
   </si>
 </sst>
 </file>
@@ -1584,37 +1584,44 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2190,7 +2197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2502,6 +2509,49 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="29" fillId="23" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="23" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2520,16 +2570,40 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2541,50 +2615,24 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2594,50 +2642,6 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="29" fillId="23" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="23" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4870,7 +4874,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5356,7 +5359,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9434,18 +9436,18 @@
       <c r="U17" s="38"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="217" t="s">
+      <c r="A18" s="246" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="217"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="F18" s="217" t="s">
+      <c r="B18" s="246"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
+      <c r="F18" s="246" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="246"/>
       <c r="J18" s="52"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
@@ -9775,12 +9777,12 @@
       <c r="U31" s="38"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="217"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="217"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="246"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -9987,12 +9989,12 @@
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
-      <c r="B44" s="218" t="s">
+      <c r="B44" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="219"/>
-      <c r="D44" s="219"/>
-      <c r="E44" s="220"/>
+      <c r="C44" s="248"/>
+      <c r="D44" s="248"/>
+      <c r="E44" s="249"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -10357,12 +10359,12 @@
       <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="246" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
@@ -10524,12 +10526,12 @@
       <c r="W17" s="38"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="217" t="s">
+      <c r="A18" s="246" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="217"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
@@ -10717,10 +10719,10 @@
       <c r="W31" s="38"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="217"/>
+      <c r="B32" s="246"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -10850,10 +10852,10 @@
       <c r="W40" s="38"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="217" t="s">
+      <c r="A41" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="217"/>
+      <c r="B41" s="246"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -11356,11 +11358,11 @@
     </row>
     <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
-      <c r="B72" s="217" t="s">
+      <c r="B72" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="217"/>
-      <c r="D72" s="217"/>
+      <c r="C72" s="246"/>
+      <c r="D72" s="246"/>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="39" t="s">
@@ -23225,10 +23227,10 @@
       <c r="AG71" s="11"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="221" t="s">
+      <c r="A72" s="250" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="221"/>
+      <c r="B72" s="250"/>
       <c r="C72" s="86"/>
       <c r="D72" s="86"/>
       <c r="I72" s="86"/>
@@ -23405,10 +23407,10 @@
       <c r="AE83" s="11"/>
     </row>
     <row r="84" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="222" t="s">
+      <c r="A84" s="251" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="222"/>
+      <c r="B84" s="251"/>
       <c r="C84" s="86"/>
       <c r="D84" s="86"/>
       <c r="E84" s="86"/>
@@ -26165,21 +26167,21 @@
     <col min="1" max="6" width="14.42578125" style="182"/>
     <col min="7" max="7" width="24.140625" style="182" customWidth="1"/>
     <col min="8" max="34" width="14.42578125" style="182"/>
-    <col min="35" max="38" width="14.42578125" style="249"/>
+    <col min="35" max="38" width="14.42578125" style="226"/>
     <col min="39" max="16384" width="14.42578125" style="182"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="207"/>
-      <c r="C1" s="233" t="s">
+      <c r="C1" s="268" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="234" t="s">
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="269" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="224"/>
+      <c r="G1" s="253"/>
       <c r="H1" s="214" t="s">
         <v>267</v>
       </c>
@@ -26196,108 +26198,108 @@
       <c r="Q1" s="211"/>
       <c r="R1" s="211"/>
       <c r="S1" s="211"/>
-      <c r="T1" s="235" t="s">
+      <c r="T1" s="270" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="236" t="s">
+      <c r="U1" s="253"/>
+      <c r="V1" s="253"/>
+      <c r="W1" s="253"/>
+      <c r="X1" s="253"/>
+      <c r="Y1" s="271" t="s">
         <v>270</v>
       </c>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="237" t="s">
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="253"/>
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="272" t="s">
         <v>271</v>
       </c>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="238" t="s">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="253"/>
+      <c r="AG1" s="265" t="s">
         <v>272</v>
       </c>
-      <c r="AH1" s="224"/>
-      <c r="AI1" s="286" t="s">
-        <v>365</v>
-      </c>
-      <c r="AJ1" s="266"/>
-      <c r="AK1" s="266"/>
-      <c r="AL1" s="266"/>
-      <c r="AM1" s="285" t="s">
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="266" t="s">
         <v>364</v>
       </c>
-      <c r="AN1" s="285"/>
-      <c r="AO1" s="285"/>
-      <c r="AP1" s="256" t="s">
+      <c r="AJ1" s="262"/>
+      <c r="AK1" s="262"/>
+      <c r="AL1" s="262"/>
+      <c r="AM1" s="280" t="s">
         <v>363</v>
       </c>
-      <c r="AQ1" s="256"/>
+      <c r="AN1" s="280"/>
+      <c r="AO1" s="280"/>
+      <c r="AP1" s="281" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ1" s="281"/>
     </row>
     <row r="2" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="183" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="224" t="s">
+      <c r="C2" s="253" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="282" t="s">
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="257" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="224"/>
-      <c r="H2" s="282" t="s">
+      <c r="G2" s="253"/>
+      <c r="H2" s="257" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="224"/>
-      <c r="J2" s="282" t="s">
+      <c r="I2" s="253"/>
+      <c r="J2" s="257" t="s">
         <v>277</v>
       </c>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="282" t="s">
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="257" t="s">
         <v>278</v>
       </c>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="282" t="s">
+      <c r="U2" s="253"/>
+      <c r="V2" s="253"/>
+      <c r="W2" s="253"/>
+      <c r="X2" s="253"/>
+      <c r="Y2" s="257" t="s">
         <v>279</v>
       </c>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="282" t="s">
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="253"/>
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="257" t="s">
         <v>280</v>
       </c>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="282" t="s">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="253"/>
+      <c r="AG2" s="257" t="s">
         <v>281</v>
       </c>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="284" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="267" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ2" s="262"/>
+      <c r="AK2" s="262"/>
+      <c r="AL2" s="262"/>
       <c r="AM2" s="182" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AP2" s="182" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -26305,115 +26307,115 @@
         <v>282</v>
       </c>
       <c r="B3" s="207"/>
-      <c r="C3" s="232" t="s">
+      <c r="C3" s="264" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="232" t="s">
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="264" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="224"/>
-      <c r="H3" s="225" t="s">
+      <c r="G3" s="253"/>
+      <c r="H3" s="252" t="s">
         <v>284</v>
       </c>
-      <c r="I3" s="224"/>
-      <c r="J3" s="225" t="s">
+      <c r="I3" s="253"/>
+      <c r="J3" s="252" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="224"/>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="225" t="s">
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="252" t="s">
         <v>285</v>
       </c>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="225" t="s">
+      <c r="U3" s="253"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="252" t="s">
         <v>286</v>
       </c>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="225" t="s">
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="252" t="s">
         <v>287</v>
       </c>
-      <c r="AB3" s="224"/>
-      <c r="AC3" s="225" t="s">
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="252" t="s">
         <v>286</v>
       </c>
-      <c r="AD3" s="224"/>
-      <c r="AE3" s="225" t="s">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="252" t="s">
         <v>288</v>
       </c>
-      <c r="AF3" s="224"/>
-      <c r="AG3" s="225" t="s">
+      <c r="AF3" s="253"/>
+      <c r="AG3" s="252" t="s">
         <v>289</v>
       </c>
-      <c r="AH3" s="224"/>
-      <c r="AI3" s="279" t="s">
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="261" t="s">
         <v>287</v>
       </c>
-      <c r="AJ3" s="266"/>
-      <c r="AK3" s="279" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL3" s="266"/>
+      <c r="AJ3" s="262"/>
+      <c r="AK3" s="261" t="s">
+        <v>369</v>
+      </c>
+      <c r="AL3" s="262"/>
       <c r="AM3" s="182" t="s">
+        <v>347</v>
+      </c>
+      <c r="AP3" s="182" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="228" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="207"/>
+      <c r="C4" s="230" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="256">
+        <v>181</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="257" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="252"/>
+      <c r="J4" s="228" t="s">
+        <v>353</v>
+      </c>
+      <c r="T4" s="228" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y4" s="228" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA4" s="183"/>
+      <c r="AC4" s="228" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE4" s="183"/>
+      <c r="AG4" s="228" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI4" s="229" t="s">
         <v>348</v>
       </c>
-      <c r="AP3" s="182" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="252" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="254" t="s">
-        <v>357</v>
-      </c>
-      <c r="F4" s="283">
-        <v>181</v>
-      </c>
-      <c r="G4" s="283"/>
-      <c r="H4" s="282" t="s">
-        <v>355</v>
-      </c>
-      <c r="I4" s="225"/>
-      <c r="J4" s="252" t="s">
-        <v>354</v>
-      </c>
-      <c r="T4" s="252" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y4" s="252" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA4" s="183"/>
-      <c r="AC4" s="252" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE4" s="183"/>
-      <c r="AG4" s="252" t="s">
-        <v>350</v>
-      </c>
-      <c r="AI4" s="253" t="s">
-        <v>349</v>
-      </c>
-      <c r="AK4" s="250"/>
+      <c r="AK4" s="227"/>
       <c r="AM4" s="182" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AP4" s="182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15" x14ac:dyDescent="0.25">
@@ -26421,145 +26423,145 @@
         <v>290</v>
       </c>
       <c r="B5" s="207"/>
-      <c r="C5" s="232" t="s">
+      <c r="C5" s="264" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="225" t="s">
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="252" t="s">
         <v>292</v>
       </c>
-      <c r="G5" s="224"/>
-      <c r="H5" s="225" t="s">
+      <c r="G5" s="253"/>
+      <c r="H5" s="252" t="s">
         <v>293</v>
       </c>
-      <c r="I5" s="224"/>
-      <c r="J5" s="225" t="s">
+      <c r="I5" s="253"/>
+      <c r="J5" s="252" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="224"/>
-      <c r="L5" s="225" t="s">
+      <c r="K5" s="253"/>
+      <c r="L5" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="224"/>
-      <c r="N5" s="281" t="s">
-        <v>343</v>
-      </c>
-      <c r="O5" s="281"/>
-      <c r="P5" s="225" t="s">
+      <c r="M5" s="253"/>
+      <c r="N5" s="258" t="s">
+        <v>342</v>
+      </c>
+      <c r="O5" s="258"/>
+      <c r="P5" s="252" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="224"/>
-      <c r="R5" s="225" t="s">
+      <c r="Q5" s="253"/>
+      <c r="R5" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="224"/>
-      <c r="T5" s="225" t="s">
+      <c r="S5" s="253"/>
+      <c r="T5" s="252" t="s">
         <v>294</v>
       </c>
-      <c r="U5" s="224"/>
-      <c r="V5" s="224"/>
-      <c r="W5" s="224"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="225" t="s">
+      <c r="U5" s="253"/>
+      <c r="V5" s="253"/>
+      <c r="W5" s="253"/>
+      <c r="X5" s="253"/>
+      <c r="Y5" s="252" t="s">
         <v>295</v>
       </c>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="224"/>
-      <c r="AB5" s="224"/>
-      <c r="AC5" s="225" t="s">
+      <c r="Z5" s="253"/>
+      <c r="AA5" s="253"/>
+      <c r="AB5" s="253"/>
+      <c r="AC5" s="252" t="s">
         <v>296</v>
       </c>
-      <c r="AD5" s="224"/>
-      <c r="AE5" s="224"/>
-      <c r="AF5" s="224"/>
-      <c r="AG5" s="225" t="s">
+      <c r="AD5" s="253"/>
+      <c r="AE5" s="253"/>
+      <c r="AF5" s="253"/>
+      <c r="AG5" s="252" t="s">
         <v>296</v>
       </c>
-      <c r="AH5" s="224"/>
-      <c r="AI5" s="279" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ5" s="266"/>
-      <c r="AK5" s="266"/>
-      <c r="AL5" s="266"/>
+      <c r="AH5" s="253"/>
+      <c r="AI5" s="261" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ5" s="262"/>
+      <c r="AK5" s="262"/>
+      <c r="AL5" s="262"/>
       <c r="AM5" s="182" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AP5" s="182" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AQ5" s="182" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="183" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="252" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="280" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="224"/>
-      <c r="H6" s="225" t="s">
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="277" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="253"/>
+      <c r="H6" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="I6" s="224"/>
-      <c r="J6" s="225" t="s">
+      <c r="I6" s="253"/>
+      <c r="J6" s="252" t="s">
         <v>301</v>
       </c>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="225"/>
-      <c r="P6" s="225" t="s">
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252" t="s">
         <v>302</v>
       </c>
-      <c r="Q6" s="224"/>
-      <c r="R6" s="224"/>
-      <c r="S6" s="224"/>
-      <c r="T6" s="225" t="s">
+      <c r="Q6" s="253"/>
+      <c r="R6" s="253"/>
+      <c r="S6" s="253"/>
+      <c r="T6" s="252" t="s">
         <v>303</v>
       </c>
-      <c r="U6" s="224"/>
-      <c r="V6" s="225" t="s">
+      <c r="U6" s="253"/>
+      <c r="V6" s="252" t="s">
         <v>304</v>
       </c>
-      <c r="W6" s="224"/>
-      <c r="X6" s="224"/>
-      <c r="Y6" s="225" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z6" s="224"/>
-      <c r="AA6" s="224"/>
-      <c r="AB6" s="224"/>
-      <c r="AC6" s="225" t="s">
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="252" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z6" s="253"/>
+      <c r="AA6" s="253"/>
+      <c r="AB6" s="253"/>
+      <c r="AC6" s="252" t="s">
         <v>306</v>
       </c>
-      <c r="AD6" s="224"/>
-      <c r="AE6" s="224"/>
-      <c r="AF6" s="224"/>
-      <c r="AG6" s="225" t="s">
+      <c r="AD6" s="253"/>
+      <c r="AE6" s="253"/>
+      <c r="AF6" s="253"/>
+      <c r="AG6" s="252" t="s">
         <v>307</v>
       </c>
-      <c r="AH6" s="224"/>
-      <c r="AI6" s="279" t="s">
-        <v>338</v>
-      </c>
-      <c r="AJ6" s="266"/>
-      <c r="AK6" s="266"/>
-      <c r="AL6" s="266"/>
+      <c r="AH6" s="253"/>
+      <c r="AI6" s="261" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ6" s="262"/>
+      <c r="AK6" s="262"/>
+      <c r="AL6" s="262"/>
       <c r="AM6" s="182" t="s">
-        <v>337</v>
-      </c>
-      <c r="AP6" s="243" t="s">
         <v>336</v>
+      </c>
+      <c r="AP6" s="221" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="51" x14ac:dyDescent="0.2">
@@ -26662,23 +26664,23 @@
       <c r="AH7" s="206" t="s">
         <v>312</v>
       </c>
-      <c r="AI7" s="278" t="s">
+      <c r="AI7" s="245" t="s">
         <v>309</v>
       </c>
-      <c r="AJ7" s="278" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK7" s="278" t="s">
+      <c r="AJ7" s="245" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK7" s="245" t="s">
         <v>309</v>
       </c>
-      <c r="AL7" s="278" t="s">
-        <v>367</v>
-      </c>
-      <c r="AM7" s="278" t="s">
+      <c r="AL7" s="245" t="s">
+        <v>366</v>
+      </c>
+      <c r="AM7" s="245" t="s">
         <v>309</v>
       </c>
-      <c r="AN7" s="278" t="s">
-        <v>367</v>
+      <c r="AN7" s="245" t="s">
+        <v>366</v>
       </c>
       <c r="AO7" s="206" t="s">
         <v>312</v>
@@ -26690,50 +26692,50 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="247" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="264" t="s">
+    <row r="8" spans="1:43" s="225" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="236" t="s">
         <v>317</v>
       </c>
-      <c r="B8" s="263"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="263"/>
-      <c r="L8" s="263"/>
-      <c r="M8" s="263"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
-      <c r="AI8" s="262"/>
-      <c r="AJ8" s="262"/>
-      <c r="AK8" s="262"/>
-      <c r="AL8" s="262"/>
-      <c r="AM8" s="262"/>
-      <c r="AN8" s="262"/>
-      <c r="AO8" s="262"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="235"/>
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="235"/>
+      <c r="AH8" s="235"/>
+      <c r="AI8" s="234"/>
+      <c r="AJ8" s="234"/>
+      <c r="AK8" s="234"/>
+      <c r="AL8" s="234"/>
+      <c r="AM8" s="234"/>
+      <c r="AN8" s="234"/>
+      <c r="AO8" s="234"/>
     </row>
     <row r="9" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="194" t="s">
@@ -26746,7 +26748,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="199">
-        <f>C9/(SUM(C$9:C$26))</f>
+        <f t="shared" ref="D9:D26" si="0">C9/(SUM(C$9:C$26))</f>
         <v>9.8522167487684748E-2</v>
       </c>
       <c r="E9" s="203">
@@ -26792,11 +26794,11 @@
       <c r="AM9" s="182">
         <v>10.97</v>
       </c>
-      <c r="AN9" s="275">
+      <c r="AN9" s="242">
         <f>AM9/SUM(AM9:AM26)</f>
         <v>0.10812142716341418</v>
       </c>
-      <c r="AO9" s="275">
+      <c r="AO9" s="242">
         <f>AN9</f>
         <v>0.10812142716341418</v>
       </c>
@@ -26812,7 +26814,7 @@
         <v>1.2</v>
       </c>
       <c r="D10" s="199">
-        <f>C10/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>5.9113300492610842E-2</v>
       </c>
       <c r="E10" s="203">
@@ -26857,17 +26859,17 @@
       <c r="AM10" s="182">
         <v>5.78</v>
       </c>
-      <c r="AN10" s="275">
+      <c r="AN10" s="242">
         <f>AM10/SUM(AM9:AM26)</f>
         <v>5.6968263355016771E-2</v>
       </c>
-      <c r="AO10" s="275">
+      <c r="AO10" s="242">
         <f>AN10</f>
         <v>5.6968263355016771E-2</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="276" t="s">
         <v>320</v>
       </c>
       <c r="B11" s="183">
@@ -26877,17 +26879,17 @@
         <v>0.9</v>
       </c>
       <c r="D11" s="199">
-        <f>C11/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E11" s="229">
+      <c r="E11" s="274">
         <f>SUM(D11:D15)</f>
         <v>0.30541871921182273</v>
       </c>
       <c r="H11" s="183">
         <v>7.3</v>
       </c>
-      <c r="I11" s="229">
+      <c r="I11" s="274">
         <f>(SUM(H11:H15)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.38227528089887641</v>
       </c>
@@ -26901,38 +26903,38 @@
         <f>V11/SUM(V9:V26)</f>
         <v>7.2289156626506035E-2</v>
       </c>
-      <c r="X11" s="230">
+      <c r="X11" s="275">
         <f>SUM(W11:W15)</f>
         <v>0.37349397590361455</v>
       </c>
       <c r="Y11" s="183">
         <v>6.5</v>
       </c>
-      <c r="Z11" s="225">
+      <c r="Z11" s="252">
         <f>SUM(Y11:Y15)/100</f>
         <v>0.36799999999999999</v>
       </c>
       <c r="AA11" s="183">
         <v>8</v>
       </c>
-      <c r="AB11" s="225">
+      <c r="AB11" s="252">
         <f>SUM(AA11:AA15)/100</f>
         <v>0.318</v>
       </c>
       <c r="AM11" s="182">
         <v>4.29</v>
       </c>
-      <c r="AN11" s="275">
-        <f>AM11/SUM(AM$9:AM$26)</f>
+      <c r="AN11" s="242">
+        <f t="shared" ref="AN11:AN26" si="1">AM11/SUM(AM$9:AM$26)</f>
         <v>4.2282672974571271E-2</v>
       </c>
-      <c r="AO11" s="274">
+      <c r="AO11" s="279">
         <f>SUM(AN11:AN15)</f>
         <v>0.30829883698009075</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="231"/>
+      <c r="A12" s="276"/>
       <c r="B12" s="183">
         <v>33</v>
       </c>
@@ -26940,14 +26942,14 @@
         <v>0.9</v>
       </c>
       <c r="D12" s="199">
-        <f>C12/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E12" s="224"/>
+      <c r="E12" s="253"/>
       <c r="H12" s="183">
         <v>6.6</v>
       </c>
-      <c r="I12" s="224"/>
+      <c r="I12" s="253"/>
       <c r="T12" s="183">
         <v>0.7</v>
       </c>
@@ -26958,26 +26960,26 @@
         <f>V12/SUM(V9:V26)</f>
         <v>4.8192771084337359E-2</v>
       </c>
-      <c r="X12" s="224"/>
+      <c r="X12" s="253"/>
       <c r="Y12" s="183">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z12" s="224"/>
+      <c r="Z12" s="253"/>
       <c r="AA12" s="183">
         <v>4.7</v>
       </c>
-      <c r="AB12" s="224"/>
+      <c r="AB12" s="253"/>
       <c r="AM12" s="182">
         <v>6.03</v>
       </c>
-      <c r="AN12" s="275">
-        <f>AM12/SUM(AM$9:AM$26)</f>
+      <c r="AN12" s="242">
+        <f t="shared" si="1"/>
         <v>5.9432288586635143E-2</v>
       </c>
-      <c r="AO12" s="231"/>
+      <c r="AO12" s="276"/>
     </row>
     <row r="13" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="231"/>
+      <c r="A13" s="276"/>
       <c r="B13" s="183">
         <v>45</v>
       </c>
@@ -26985,14 +26987,14 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="199">
-        <f>C13/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>7.3891625615763554E-2</v>
       </c>
-      <c r="E13" s="224"/>
+      <c r="E13" s="253"/>
       <c r="H13" s="183">
         <v>6.1</v>
       </c>
-      <c r="I13" s="224"/>
+      <c r="I13" s="253"/>
       <c r="T13" s="183">
         <v>0.7</v>
       </c>
@@ -27003,26 +27005,26 @@
         <f>V13/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X13" s="224"/>
+      <c r="X13" s="253"/>
       <c r="Y13" s="183">
         <v>5.9</v>
       </c>
-      <c r="Z13" s="224"/>
+      <c r="Z13" s="253"/>
       <c r="AA13" s="183">
         <v>4.8</v>
       </c>
-      <c r="AB13" s="224"/>
+      <c r="AB13" s="253"/>
       <c r="AM13" s="182">
         <v>7.46</v>
       </c>
-      <c r="AN13" s="275">
-        <f>AM13/SUM(AM$9:AM$26)</f>
+      <c r="AN13" s="242">
+        <f t="shared" si="1"/>
         <v>7.3526512911492231E-2</v>
       </c>
-      <c r="AO13" s="231"/>
+      <c r="AO13" s="276"/>
     </row>
     <row r="14" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="231"/>
+      <c r="A14" s="276"/>
       <c r="B14" s="183">
         <v>52</v>
       </c>
@@ -27030,14 +27032,14 @@
         <v>1.3</v>
       </c>
       <c r="D14" s="199">
-        <f>C14/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>6.4039408866995079E-2</v>
       </c>
-      <c r="E14" s="224"/>
+      <c r="E14" s="253"/>
       <c r="H14" s="183">
         <v>12.9</v>
       </c>
-      <c r="I14" s="224"/>
+      <c r="I14" s="253"/>
       <c r="T14" s="183">
         <v>3.2</v>
       </c>
@@ -27048,26 +27050,26 @@
         <f>V14/SUM(V9:V26)</f>
         <v>0.18072289156626509</v>
       </c>
-      <c r="X14" s="224"/>
+      <c r="X14" s="253"/>
       <c r="Y14" s="183">
         <v>8.6</v>
       </c>
-      <c r="Z14" s="224"/>
+      <c r="Z14" s="253"/>
       <c r="AA14" s="183">
         <v>8</v>
       </c>
-      <c r="AB14" s="224"/>
+      <c r="AB14" s="253"/>
       <c r="AM14" s="182">
         <v>5.64</v>
       </c>
-      <c r="AN14" s="275">
-        <f>AM14/SUM(AM$9:AM$26)</f>
+      <c r="AN14" s="242">
+        <f t="shared" si="1"/>
         <v>5.5588409225310477E-2</v>
       </c>
-      <c r="AO14" s="231"/>
+      <c r="AO14" s="276"/>
     </row>
     <row r="15" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="231"/>
+      <c r="A15" s="276"/>
       <c r="B15" s="183">
         <v>58</v>
       </c>
@@ -27075,14 +27077,14 @@
         <v>1.6</v>
       </c>
       <c r="D15" s="199">
-        <f>C15/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>7.8817733990147798E-2</v>
       </c>
-      <c r="E15" s="224"/>
+      <c r="E15" s="253"/>
       <c r="H15" s="183">
         <v>11</v>
       </c>
-      <c r="I15" s="224"/>
+      <c r="I15" s="253"/>
       <c r="T15" s="183">
         <v>0.6</v>
       </c>
@@ -27093,26 +27095,26 @@
         <f>V15/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X15" s="224"/>
+      <c r="X15" s="253"/>
       <c r="Y15" s="183">
         <v>10.7</v>
       </c>
-      <c r="Z15" s="224"/>
+      <c r="Z15" s="253"/>
       <c r="AA15" s="183">
         <v>6.3</v>
       </c>
-      <c r="AB15" s="224"/>
+      <c r="AB15" s="253"/>
       <c r="AM15" s="182">
         <v>7.86</v>
       </c>
-      <c r="AN15" s="275">
-        <f>AM15/SUM(AM$9:AM$26)</f>
+      <c r="AN15" s="242">
+        <f t="shared" si="1"/>
         <v>7.7468953282081629E-2</v>
       </c>
-      <c r="AO15" s="231"/>
+      <c r="AO15" s="276"/>
     </row>
     <row r="16" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="226" t="s">
+      <c r="A16" s="273" t="s">
         <v>321</v>
       </c>
       <c r="B16" s="183">
@@ -27122,44 +27124,44 @@
         <v>0.2</v>
       </c>
       <c r="D16" s="199">
-        <f>C16/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>9.8522167487684748E-3</v>
       </c>
-      <c r="E16" s="229">
+      <c r="E16" s="274">
         <f>SUM(D16:D26)</f>
         <v>0.53694581280788167</v>
       </c>
-      <c r="I16" s="229">
+      <c r="I16" s="274">
         <f>(SUM(H16:H26)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.39272471910112366</v>
       </c>
       <c r="W16" s="202"/>
-      <c r="X16" s="230">
+      <c r="X16" s="275">
         <f>SUM(V16:V26)/SUM(V9:V26)</f>
         <v>0.46987951807228928</v>
       </c>
-      <c r="Z16" s="223">
+      <c r="Z16" s="255">
         <f>1-SUM(Z9:Z15)</f>
         <v>0.41799999999999993</v>
       </c>
-      <c r="AB16" s="223">
+      <c r="AB16" s="255">
         <f>1-SUM(AB9:AB15)</f>
         <v>0.39400000000000002</v>
       </c>
       <c r="AM16" s="182">
         <v>1.9</v>
       </c>
-      <c r="AN16" s="275">
-        <f>AM16/SUM(AM$9:AM$26)</f>
+      <c r="AN16" s="242">
+        <f t="shared" si="1"/>
         <v>1.872659176029963E-2</v>
       </c>
-      <c r="AO16" s="274">
+      <c r="AO16" s="279">
         <f>SUM(AN16:AN26)</f>
         <v>0.52661147250147844</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="224"/>
+      <c r="A17" s="253"/>
       <c r="B17" s="183">
         <v>35</v>
       </c>
@@ -27167,14 +27169,14 @@
         <v>1.9</v>
       </c>
       <c r="D17" s="199">
-        <f>C17/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>9.3596059113300503E-2</v>
       </c>
-      <c r="E17" s="224"/>
+      <c r="E17" s="253"/>
       <c r="H17" s="183">
         <v>10.4</v>
       </c>
-      <c r="I17" s="224"/>
+      <c r="I17" s="253"/>
       <c r="T17" s="183">
         <v>1.9</v>
       </c>
@@ -27185,26 +27187,26 @@
         <f>V17/SUM(V9:V26)</f>
         <v>0.13253012048192775</v>
       </c>
-      <c r="X17" s="224"/>
+      <c r="X17" s="253"/>
       <c r="Y17" s="183">
         <v>6.6</v>
       </c>
-      <c r="Z17" s="224"/>
+      <c r="Z17" s="253"/>
       <c r="AA17" s="183">
         <v>3.4</v>
       </c>
-      <c r="AB17" s="224"/>
+      <c r="AB17" s="253"/>
       <c r="AM17" s="182">
         <v>6.59</v>
       </c>
-      <c r="AN17" s="275">
-        <f>AM17/SUM(AM$9:AM$26)</f>
+      <c r="AN17" s="242">
+        <f t="shared" si="1"/>
         <v>6.4951705105460292E-2</v>
       </c>
-      <c r="AO17" s="274"/>
+      <c r="AO17" s="279"/>
     </row>
     <row r="18" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="224"/>
+      <c r="A18" s="253"/>
       <c r="B18" s="183">
         <v>39</v>
       </c>
@@ -27212,14 +27214,14 @@
         <v>0.7</v>
       </c>
       <c r="D18" s="199">
-        <f>C18/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E18" s="224"/>
+      <c r="E18" s="253"/>
       <c r="H18" s="183">
         <v>6.1</v>
       </c>
-      <c r="I18" s="224"/>
+      <c r="I18" s="253"/>
       <c r="T18" s="183">
         <v>0.6</v>
       </c>
@@ -27230,23 +27232,23 @@
         <f>V18/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X18" s="224"/>
-      <c r="Z18" s="224"/>
+      <c r="X18" s="253"/>
+      <c r="Z18" s="253"/>
       <c r="AA18" s="183">
         <v>5.2</v>
       </c>
-      <c r="AB18" s="224"/>
+      <c r="AB18" s="253"/>
       <c r="AM18" s="182">
         <v>5</v>
       </c>
-      <c r="AN18" s="275">
-        <f>AM18/SUM(AM$9:AM$26)</f>
+      <c r="AN18" s="242">
+        <f t="shared" si="1"/>
         <v>4.9280504632367446E-2</v>
       </c>
-      <c r="AO18" s="274"/>
+      <c r="AO18" s="279"/>
     </row>
     <row r="19" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="224"/>
+      <c r="A19" s="253"/>
       <c r="B19" s="183">
         <v>51</v>
       </c>
@@ -27254,14 +27256,14 @@
         <v>1</v>
       </c>
       <c r="D19" s="199">
-        <f>C19/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>4.9261083743842374E-2</v>
       </c>
-      <c r="E19" s="224"/>
+      <c r="E19" s="253"/>
       <c r="H19" s="183">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I19" s="224"/>
+      <c r="I19" s="253"/>
       <c r="T19" s="183">
         <v>2.1</v>
       </c>
@@ -27272,23 +27274,23 @@
         <f>V19/SUM(V9:V26)</f>
         <v>9.6385542168674718E-2</v>
       </c>
-      <c r="X19" s="224"/>
-      <c r="Z19" s="224"/>
+      <c r="X19" s="253"/>
+      <c r="Z19" s="253"/>
       <c r="AA19" s="183">
         <v>7.1</v>
       </c>
-      <c r="AB19" s="224"/>
+      <c r="AB19" s="253"/>
       <c r="AM19" s="182">
         <v>9.2899999999999991</v>
       </c>
-      <c r="AN19" s="275">
-        <f>AM19/SUM(AM$9:AM$26)</f>
+      <c r="AN19" s="242">
+        <f t="shared" si="1"/>
         <v>9.1563177606938703E-2</v>
       </c>
-      <c r="AO19" s="274"/>
+      <c r="AO19" s="279"/>
     </row>
     <row r="20" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="224"/>
+      <c r="A20" s="253"/>
       <c r="B20" s="183">
         <v>53</v>
       </c>
@@ -27296,11 +27298,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D20" s="199">
-        <f>C20/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>0.11330049261083744</v>
       </c>
-      <c r="E20" s="224"/>
-      <c r="I20" s="224"/>
+      <c r="E20" s="253"/>
+      <c r="I20" s="253"/>
       <c r="T20" s="183">
         <v>0.6</v>
       </c>
@@ -27311,20 +27313,20 @@
         <f>V20/SUM(V9:V26)</f>
         <v>2.4096385542168679E-2</v>
       </c>
-      <c r="X20" s="224"/>
-      <c r="Z20" s="224"/>
-      <c r="AB20" s="224"/>
+      <c r="X20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AB20" s="253"/>
       <c r="AM20" s="182">
         <v>9.1300000000000008</v>
       </c>
-      <c r="AN20" s="275">
-        <f>AM20/SUM(AM$9:AM$26)</f>
+      <c r="AN20" s="242">
+        <f t="shared" si="1"/>
         <v>8.9986201458702966E-2</v>
       </c>
-      <c r="AO20" s="274"/>
+      <c r="AO20" s="279"/>
     </row>
     <row r="21" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="224"/>
+      <c r="A21" s="253"/>
       <c r="B21" s="183">
         <v>56</v>
       </c>
@@ -27332,14 +27334,14 @@
         <v>0.8</v>
       </c>
       <c r="D21" s="199">
-        <f>C21/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E21" s="224"/>
+      <c r="E21" s="253"/>
       <c r="H21" s="183">
         <v>8</v>
       </c>
-      <c r="I21" s="224"/>
+      <c r="I21" s="253"/>
       <c r="T21" s="183">
         <v>0.9</v>
       </c>
@@ -27350,23 +27352,23 @@
         <f>V21/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X21" s="224"/>
-      <c r="Z21" s="224"/>
+      <c r="X21" s="253"/>
+      <c r="Z21" s="253"/>
       <c r="AA21" s="183">
         <v>5.2</v>
       </c>
-      <c r="AB21" s="224"/>
+      <c r="AB21" s="253"/>
       <c r="AM21" s="182">
         <v>4.05</v>
       </c>
-      <c r="AN21" s="275">
-        <f>AM21/SUM(AM$9:AM$26)</f>
+      <c r="AN21" s="242">
+        <f t="shared" si="1"/>
         <v>3.9917208752217631E-2</v>
       </c>
-      <c r="AO21" s="274"/>
+      <c r="AO21" s="279"/>
     </row>
     <row r="22" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="224"/>
+      <c r="A22" s="253"/>
       <c r="B22" s="183">
         <v>59</v>
       </c>
@@ -27374,14 +27376,14 @@
         <v>0.9</v>
       </c>
       <c r="D22" s="199">
-        <f>C22/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E22" s="224"/>
+      <c r="E22" s="253"/>
       <c r="H22" s="183">
         <v>5</v>
       </c>
-      <c r="I22" s="224"/>
+      <c r="I22" s="253"/>
       <c r="T22" s="183">
         <v>0.1</v>
       </c>
@@ -27392,23 +27394,23 @@
         <f>V22/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X22" s="224"/>
-      <c r="Z22" s="224"/>
+      <c r="X22" s="253"/>
+      <c r="Z22" s="253"/>
       <c r="AA22" s="183">
         <v>3.2</v>
       </c>
-      <c r="AB22" s="224"/>
+      <c r="AB22" s="253"/>
       <c r="AM22" s="182">
         <v>2.94</v>
       </c>
-      <c r="AN22" s="275">
-        <f>AM22/SUM(AM$9:AM$26)</f>
+      <c r="AN22" s="242">
+        <f t="shared" si="1"/>
         <v>2.8976936723832059E-2</v>
       </c>
-      <c r="AO22" s="274"/>
+      <c r="AO22" s="279"/>
     </row>
     <row r="23" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="224"/>
+      <c r="A23" s="253"/>
       <c r="B23" s="183">
         <v>66</v>
       </c>
@@ -27416,11 +27418,11 @@
         <v>0.7</v>
       </c>
       <c r="D23" s="199">
-        <f>C23/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E23" s="224"/>
-      <c r="I23" s="224"/>
+      <c r="E23" s="253"/>
+      <c r="I23" s="253"/>
       <c r="T23" s="183">
         <v>1.6</v>
       </c>
@@ -27431,20 +27433,20 @@
         <f>V23/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X23" s="224"/>
-      <c r="Z23" s="224"/>
-      <c r="AB23" s="224"/>
+      <c r="X23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AB23" s="253"/>
       <c r="AM23" s="182">
         <v>5.43</v>
       </c>
-      <c r="AN23" s="275">
-        <f>AM23/SUM(AM$9:AM$26)</f>
+      <c r="AN23" s="242">
+        <f t="shared" si="1"/>
         <v>5.3518628030751046E-2</v>
       </c>
-      <c r="AO23" s="274"/>
+      <c r="AO23" s="279"/>
     </row>
     <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="224"/>
+      <c r="A24" s="253"/>
       <c r="B24" s="183">
         <v>68</v>
       </c>
@@ -27452,14 +27454,14 @@
         <v>1.2</v>
       </c>
       <c r="D24" s="199">
-        <f>C24/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>5.9113300492610842E-2</v>
       </c>
-      <c r="E24" s="224"/>
+      <c r="E24" s="253"/>
       <c r="H24" s="183">
         <v>6.9</v>
       </c>
-      <c r="I24" s="224"/>
+      <c r="I24" s="253"/>
       <c r="T24" s="183">
         <v>1.1000000000000001</v>
       </c>
@@ -27470,23 +27472,23 @@
         <f>V24/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X24" s="224"/>
-      <c r="Z24" s="224"/>
+      <c r="X24" s="253"/>
+      <c r="Z24" s="253"/>
       <c r="AA24" s="183">
         <v>3.1</v>
       </c>
-      <c r="AB24" s="224"/>
+      <c r="AB24" s="253"/>
       <c r="AM24" s="182">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AN24" s="275">
-        <f>AM24/SUM(AM$9:AM$26)</f>
+      <c r="AN24" s="242">
+        <f t="shared" si="1"/>
         <v>4.5338064261778048E-2</v>
       </c>
-      <c r="AO24" s="274"/>
+      <c r="AO24" s="279"/>
     </row>
     <row r="25" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="224"/>
+      <c r="A25" s="253"/>
       <c r="B25" s="183">
         <v>73</v>
       </c>
@@ -27494,26 +27496,26 @@
         <v>0.8</v>
       </c>
       <c r="D25" s="199">
-        <f>C25/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="I25" s="224"/>
+      <c r="E25" s="253"/>
+      <c r="I25" s="253"/>
       <c r="W25" s="202"/>
-      <c r="X25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AB25" s="224"/>
+      <c r="X25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AB25" s="253"/>
       <c r="AM25" s="182">
         <v>2.4</v>
       </c>
-      <c r="AN25" s="275">
-        <f>AM25/SUM(AM$9:AM$26)</f>
+      <c r="AN25" s="242">
+        <f t="shared" si="1"/>
         <v>2.3654642223536373E-2</v>
       </c>
-      <c r="AO25" s="274"/>
+      <c r="AO25" s="279"/>
     </row>
     <row r="26" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="224"/>
+      <c r="A26" s="253"/>
       <c r="B26" s="183">
         <v>82</v>
       </c>
@@ -27521,11 +27523,11 @@
         <v>0.4</v>
       </c>
       <c r="D26" s="199">
-        <f>C26/(SUM(C$9:C$26))</f>
+        <f t="shared" si="0"/>
         <v>1.970443349753695E-2</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="I26" s="224"/>
+      <c r="E26" s="253"/>
+      <c r="I26" s="253"/>
       <c r="T26" s="183">
         <v>0.3</v>
       </c>
@@ -27536,63 +27538,63 @@
         <f>V26/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X26" s="224"/>
-      <c r="Z26" s="224"/>
-      <c r="AB26" s="224"/>
+      <c r="X26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AB26" s="253"/>
       <c r="AM26" s="182">
         <v>2.1</v>
       </c>
-      <c r="AN26" s="275">
-        <f>AM26/SUM(AM$9:AM$26)</f>
+      <c r="AN26" s="242">
+        <f t="shared" si="1"/>
         <v>2.0697811945594329E-2</v>
       </c>
-      <c r="AO26" s="274"/>
-      <c r="AP26" s="275"/>
-    </row>
-    <row r="27" spans="1:42" s="247" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="264" t="s">
+      <c r="AO26" s="279"/>
+      <c r="AP26" s="242"/>
+    </row>
+    <row r="27" spans="1:42" s="225" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="B27" s="263"/>
-      <c r="C27" s="263"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="276"/>
-      <c r="F27" s="263"/>
-      <c r="G27" s="263"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="263"/>
-      <c r="K27" s="263"/>
-      <c r="L27" s="263"/>
-      <c r="M27" s="263"/>
-      <c r="N27" s="263"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="263"/>
-      <c r="Q27" s="263"/>
-      <c r="R27" s="263"/>
-      <c r="S27" s="263"/>
-      <c r="T27" s="263"/>
-      <c r="U27" s="263"/>
-      <c r="V27" s="263"/>
-      <c r="W27" s="263"/>
-      <c r="X27" s="263"/>
-      <c r="Y27" s="263"/>
-      <c r="Z27" s="263"/>
-      <c r="AA27" s="263"/>
-      <c r="AB27" s="263"/>
-      <c r="AC27" s="263"/>
-      <c r="AD27" s="263"/>
-      <c r="AE27" s="263"/>
-      <c r="AF27" s="263"/>
-      <c r="AG27" s="263"/>
-      <c r="AH27" s="263"/>
-      <c r="AI27" s="262"/>
-      <c r="AJ27" s="262"/>
-      <c r="AK27" s="262"/>
-      <c r="AL27" s="262"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="244"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="235"/>
+      <c r="L27" s="235"/>
+      <c r="M27" s="235"/>
+      <c r="N27" s="235"/>
+      <c r="O27" s="235"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="235"/>
+      <c r="R27" s="235"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="235"/>
+      <c r="U27" s="235"/>
+      <c r="V27" s="235"/>
+      <c r="W27" s="235"/>
+      <c r="X27" s="235"/>
+      <c r="Y27" s="235"/>
+      <c r="Z27" s="235"/>
+      <c r="AA27" s="235"/>
+      <c r="AB27" s="235"/>
+      <c r="AC27" s="235"/>
+      <c r="AD27" s="235"/>
+      <c r="AE27" s="235"/>
+      <c r="AF27" s="235"/>
+      <c r="AG27" s="235"/>
+      <c r="AH27" s="235"/>
+      <c r="AI27" s="234"/>
+      <c r="AJ27" s="234"/>
+      <c r="AK27" s="234"/>
+      <c r="AL27" s="234"/>
     </row>
     <row r="28" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="226" t="s">
+      <c r="A28" s="273" t="s">
         <v>323</v>
       </c>
       <c r="B28" s="183">
@@ -27602,7 +27604,7 @@
         <v>12.3</v>
       </c>
       <c r="D28" s="199">
-        <f>C28/(SUM(C$28:C$46))</f>
+        <f t="shared" ref="D28:D46" si="2">C28/(SUM(C$28:C$46))</f>
         <v>9.5869056897895572E-2</v>
       </c>
       <c r="E28" s="203">
@@ -27653,7 +27655,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="224"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="183">
         <v>18</v>
       </c>
@@ -27661,7 +27663,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D29" s="199">
-        <f>C29/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
       <c r="E29" s="203">
@@ -27712,7 +27714,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="224"/>
+      <c r="A30" s="253"/>
       <c r="B30" s="183">
         <v>31</v>
       </c>
@@ -27720,17 +27722,17 @@
         <v>3.5</v>
       </c>
       <c r="D30" s="199">
-        <f>C30/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E30" s="229">
+      <c r="E30" s="274">
         <f>SUM(D30:D34)</f>
         <v>0.30085736554949344</v>
       </c>
       <c r="H30" s="200">
         <v>8.4</v>
       </c>
-      <c r="I30" s="223">
+      <c r="I30" s="255">
         <f>(SUM(H30:H34)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.30589562547966231</v>
       </c>
@@ -27744,34 +27746,34 @@
         <f>V30/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X30" s="230">
+      <c r="X30" s="275">
         <f>SUM(W30:W34)</f>
         <v>0.44139650872817959</v>
       </c>
       <c r="Y30" s="183">
         <v>6.5</v>
       </c>
-      <c r="Z30" s="225">
+      <c r="Z30" s="252">
         <f>SUM(Y30:Y34)/100</f>
         <v>0.42</v>
       </c>
       <c r="AA30" s="183">
         <v>9.5</v>
       </c>
-      <c r="AB30" s="225">
+      <c r="AB30" s="252">
         <f>SUM(AA30:AA34)/100</f>
         <v>0.35100000000000003</v>
       </c>
       <c r="AG30" s="183">
         <v>6.1</v>
       </c>
-      <c r="AH30" s="225">
+      <c r="AH30" s="252">
         <f>SUM(AG30:AG34)/100</f>
         <v>0.317</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="224"/>
+      <c r="A31" s="253"/>
       <c r="B31" s="183">
         <v>33</v>
       </c>
@@ -27779,14 +27781,14 @@
         <v>7</v>
       </c>
       <c r="D31" s="199">
-        <f>C31/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>5.4559625876851141E-2</v>
       </c>
-      <c r="E31" s="224"/>
+      <c r="E31" s="253"/>
       <c r="H31" s="200">
         <v>10</v>
       </c>
-      <c r="I31" s="224"/>
+      <c r="I31" s="253"/>
       <c r="T31" s="183">
         <v>3.2</v>
       </c>
@@ -27797,22 +27799,22 @@
         <f>V31/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X31" s="224"/>
+      <c r="X31" s="253"/>
       <c r="Y31" s="183">
         <v>8.5</v>
       </c>
-      <c r="Z31" s="224"/>
+      <c r="Z31" s="253"/>
       <c r="AA31" s="183">
         <v>6.1</v>
       </c>
-      <c r="AB31" s="224"/>
+      <c r="AB31" s="253"/>
       <c r="AG31" s="183">
         <v>5.9</v>
       </c>
-      <c r="AH31" s="224"/>
+      <c r="AH31" s="253"/>
     </row>
     <row r="32" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="224"/>
+      <c r="A32" s="253"/>
       <c r="B32" s="183">
         <v>45</v>
       </c>
@@ -27820,14 +27822,14 @@
         <v>5.3</v>
       </c>
       <c r="D32" s="199">
-        <f>C32/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E32" s="224"/>
+      <c r="E32" s="253"/>
       <c r="H32" s="200">
         <v>11.3</v>
       </c>
-      <c r="I32" s="224"/>
+      <c r="I32" s="253"/>
       <c r="T32" s="183">
         <v>3.2</v>
       </c>
@@ -27838,22 +27840,22 @@
         <f>V32/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X32" s="224"/>
+      <c r="X32" s="253"/>
       <c r="Y32" s="183">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z32" s="224"/>
+      <c r="Z32" s="253"/>
       <c r="AA32" s="183">
         <v>4.3</v>
       </c>
-      <c r="AB32" s="224"/>
+      <c r="AB32" s="253"/>
       <c r="AG32" s="183">
         <v>2.9</v>
       </c>
-      <c r="AH32" s="224"/>
+      <c r="AH32" s="253"/>
     </row>
     <row r="33" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="224"/>
+      <c r="A33" s="253"/>
       <c r="B33" s="183">
         <v>52</v>
       </c>
@@ -27861,14 +27863,14 @@
         <v>17.5</v>
       </c>
       <c r="D33" s="199">
-        <f>C33/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>0.13639906469212784</v>
       </c>
-      <c r="E33" s="224"/>
+      <c r="E33" s="253"/>
       <c r="H33" s="200">
         <v>16.8</v>
       </c>
-      <c r="I33" s="224"/>
+      <c r="I33" s="253"/>
       <c r="T33" s="183">
         <v>14.5</v>
       </c>
@@ -27879,22 +27881,22 @@
         <f>V33/SUM(V28:V45)</f>
         <v>0.16209476309226933</v>
       </c>
-      <c r="X33" s="224"/>
+      <c r="X33" s="253"/>
       <c r="Y33" s="183">
         <v>11.8</v>
       </c>
-      <c r="Z33" s="224"/>
+      <c r="Z33" s="253"/>
       <c r="AA33" s="183">
         <v>8.1</v>
       </c>
-      <c r="AB33" s="224"/>
+      <c r="AB33" s="253"/>
       <c r="AG33" s="183">
         <v>6.8</v>
       </c>
-      <c r="AH33" s="224"/>
+      <c r="AH33" s="253"/>
     </row>
     <row r="34" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="224"/>
+      <c r="A34" s="253"/>
       <c r="B34" s="183">
         <v>58</v>
       </c>
@@ -27902,14 +27904,14 @@
         <v>5.3</v>
       </c>
       <c r="D34" s="199">
-        <f>C34/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E34" s="224"/>
+      <c r="E34" s="253"/>
       <c r="H34" s="200">
         <v>15.2</v>
       </c>
-      <c r="I34" s="224"/>
+      <c r="I34" s="253"/>
       <c r="T34" s="183">
         <v>8.1</v>
       </c>
@@ -27920,22 +27922,22 @@
         <f>V34/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X34" s="224"/>
+      <c r="X34" s="253"/>
       <c r="Y34" s="183">
         <v>10.8</v>
       </c>
-      <c r="Z34" s="224"/>
+      <c r="Z34" s="253"/>
       <c r="AA34" s="183">
         <v>7.1</v>
       </c>
-      <c r="AB34" s="224"/>
+      <c r="AB34" s="253"/>
       <c r="AG34" s="183">
         <v>10</v>
       </c>
-      <c r="AH34" s="224"/>
+      <c r="AH34" s="253"/>
     </row>
     <row r="35" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="226" t="s">
+      <c r="A35" s="273" t="s">
         <v>321</v>
       </c>
       <c r="B35" s="183">
@@ -27945,37 +27947,37 @@
         <v>0</v>
       </c>
       <c r="D35" s="199">
-        <f>C35/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="229">
+      <c r="E35" s="274">
         <f>SUM(D35:D46)</f>
         <v>0.53468433359314127</v>
       </c>
-      <c r="I35" s="223">
+      <c r="I35" s="255">
         <f>(SUM(H35:H46)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.34010437452033765</v>
       </c>
       <c r="W35" s="202"/>
-      <c r="X35" s="230">
+      <c r="X35" s="275">
         <f>SUM(V35:V45)/SUM(V28:V45)</f>
         <v>0.399002493765586</v>
       </c>
-      <c r="Z35" s="225">
+      <c r="Z35" s="252">
         <f>1-SUM(Z28:Z34)</f>
         <v>0.32899999999999996</v>
       </c>
-      <c r="AB35" s="225">
+      <c r="AB35" s="252">
         <f>1-SUM(AB28:AB34)</f>
         <v>0.31099999999999994</v>
       </c>
-      <c r="AH35" s="225">
+      <c r="AH35" s="252">
         <f>1-SUM(AH28:AH34)</f>
         <v>0.42700000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="224"/>
+      <c r="A36" s="253"/>
       <c r="B36" s="183">
         <v>35</v>
       </c>
@@ -27983,14 +27985,14 @@
         <v>12.3</v>
       </c>
       <c r="D36" s="199">
-        <f>C36/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>9.5869056897895572E-2</v>
       </c>
-      <c r="E36" s="224"/>
+      <c r="E36" s="253"/>
       <c r="H36" s="200">
         <v>15.8</v>
       </c>
-      <c r="I36" s="224"/>
+      <c r="I36" s="253"/>
       <c r="T36" s="183">
         <v>12.9</v>
       </c>
@@ -28001,22 +28003,22 @@
         <f>V36/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X36" s="224"/>
+      <c r="X36" s="253"/>
       <c r="Y36" s="183">
         <v>7.9</v>
       </c>
-      <c r="Z36" s="224"/>
+      <c r="Z36" s="253"/>
       <c r="AA36" s="183">
         <v>4.7</v>
       </c>
-      <c r="AB36" s="224"/>
+      <c r="AB36" s="253"/>
       <c r="AG36" s="183">
         <v>6.5</v>
       </c>
-      <c r="AH36" s="224"/>
+      <c r="AH36" s="253"/>
     </row>
     <row r="37" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="224"/>
+      <c r="A37" s="253"/>
       <c r="B37" s="183">
         <v>39</v>
       </c>
@@ -28024,14 +28026,14 @@
         <v>1.8</v>
       </c>
       <c r="D37" s="199">
-        <f>C37/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E37" s="224"/>
+      <c r="E37" s="253"/>
       <c r="H37" s="200">
         <v>9.5</v>
       </c>
-      <c r="I37" s="224"/>
+      <c r="I37" s="253"/>
       <c r="T37" s="183">
         <v>6.5</v>
       </c>
@@ -28042,19 +28044,19 @@
         <f>V37/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="224"/>
-      <c r="Z37" s="224"/>
+      <c r="X37" s="253"/>
+      <c r="Z37" s="253"/>
       <c r="AA37" s="183">
         <v>6.8</v>
       </c>
-      <c r="AB37" s="224"/>
+      <c r="AB37" s="253"/>
       <c r="AG37" s="183">
         <v>2</v>
       </c>
-      <c r="AH37" s="224"/>
+      <c r="AH37" s="253"/>
     </row>
     <row r="38" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="224"/>
+      <c r="A38" s="253"/>
       <c r="B38" s="183">
         <v>51</v>
       </c>
@@ -28062,14 +28064,14 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D38" s="199">
-        <f>C38/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E38" s="224"/>
+      <c r="E38" s="253"/>
       <c r="H38" s="200">
         <v>13.2</v>
       </c>
-      <c r="I38" s="224"/>
+      <c r="I38" s="253"/>
       <c r="T38" s="183">
         <v>12.9</v>
       </c>
@@ -28080,19 +28082,19 @@
         <f>V38/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X38" s="224"/>
-      <c r="Z38" s="224"/>
+      <c r="X38" s="253"/>
+      <c r="Z38" s="253"/>
       <c r="AA38" s="183">
         <v>11.8</v>
       </c>
-      <c r="AB38" s="224"/>
+      <c r="AB38" s="253"/>
       <c r="AG38" s="183">
         <v>1.9</v>
       </c>
-      <c r="AH38" s="224"/>
+      <c r="AH38" s="253"/>
     </row>
     <row r="39" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="224"/>
+      <c r="A39" s="253"/>
       <c r="B39" s="183">
         <v>53</v>
       </c>
@@ -28100,11 +28102,11 @@
         <v>15.8</v>
       </c>
       <c r="D39" s="199">
-        <f>C39/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>0.12314886983632115</v>
       </c>
-      <c r="E39" s="224"/>
-      <c r="I39" s="224"/>
+      <c r="E39" s="253"/>
+      <c r="I39" s="253"/>
       <c r="T39" s="183">
         <v>6.5</v>
       </c>
@@ -28115,16 +28117,16 @@
         <f>V39/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X39" s="224"/>
-      <c r="Z39" s="224"/>
-      <c r="AB39" s="224"/>
+      <c r="X39" s="253"/>
+      <c r="Z39" s="253"/>
+      <c r="AB39" s="253"/>
       <c r="AG39" s="183">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AH39" s="224"/>
+      <c r="AH39" s="253"/>
     </row>
     <row r="40" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="224"/>
+      <c r="A40" s="253"/>
       <c r="B40" s="183">
         <v>56</v>
       </c>
@@ -28132,14 +28134,14 @@
         <v>3.5</v>
       </c>
       <c r="D40" s="199">
-        <f>C40/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E40" s="224"/>
+      <c r="E40" s="253"/>
       <c r="H40" s="200">
         <v>11.8</v>
       </c>
-      <c r="I40" s="224"/>
+      <c r="I40" s="253"/>
       <c r="T40" s="183">
         <v>9.6999999999999993</v>
       </c>
@@ -28150,19 +28152,19 @@
         <f>V40/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X40" s="224"/>
-      <c r="Z40" s="224"/>
+      <c r="X40" s="253"/>
+      <c r="Z40" s="253"/>
       <c r="AA40" s="183">
         <v>8.6</v>
       </c>
-      <c r="AB40" s="224"/>
+      <c r="AB40" s="253"/>
       <c r="AG40" s="183">
         <v>4</v>
       </c>
-      <c r="AH40" s="224"/>
+      <c r="AH40" s="253"/>
     </row>
     <row r="41" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="224"/>
+      <c r="A41" s="253"/>
       <c r="B41" s="183">
         <v>59</v>
       </c>
@@ -28170,14 +28172,14 @@
         <v>3.5</v>
       </c>
       <c r="D41" s="199">
-        <f>C41/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E41" s="224"/>
+      <c r="E41" s="253"/>
       <c r="H41" s="200">
         <v>8.9</v>
       </c>
-      <c r="I41" s="224"/>
+      <c r="I41" s="253"/>
       <c r="T41" s="183">
         <v>1.6</v>
       </c>
@@ -28188,19 +28190,19 @@
         <f>V41/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="224"/>
-      <c r="Z41" s="224"/>
+      <c r="X41" s="253"/>
+      <c r="Z41" s="253"/>
       <c r="AA41" s="183">
         <v>5.3</v>
       </c>
-      <c r="AB41" s="224"/>
+      <c r="AB41" s="253"/>
       <c r="AG41" s="183">
         <v>2.8</v>
       </c>
-      <c r="AH41" s="224"/>
+      <c r="AH41" s="253"/>
     </row>
     <row r="42" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="224"/>
+      <c r="A42" s="253"/>
       <c r="B42" s="183">
         <v>66</v>
       </c>
@@ -28208,11 +28210,11 @@
         <v>3.5</v>
       </c>
       <c r="D42" s="199">
-        <f>C42/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E42" s="224"/>
-      <c r="I42" s="224"/>
+      <c r="E42" s="253"/>
+      <c r="I42" s="253"/>
       <c r="T42" s="183">
         <v>6.5</v>
       </c>
@@ -28223,16 +28225,16 @@
         <f>V42/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X42" s="224"/>
-      <c r="Z42" s="224"/>
-      <c r="AB42" s="224"/>
+      <c r="X42" s="253"/>
+      <c r="Z42" s="253"/>
+      <c r="AB42" s="253"/>
       <c r="AG42" s="183">
         <v>3</v>
       </c>
-      <c r="AH42" s="224"/>
+      <c r="AH42" s="253"/>
     </row>
     <row r="43" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="224"/>
+      <c r="A43" s="253"/>
       <c r="B43" s="183">
         <v>68</v>
       </c>
@@ -28240,14 +28242,14 @@
         <v>0</v>
       </c>
       <c r="D43" s="199">
-        <f>C43/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="224"/>
+      <c r="E43" s="253"/>
       <c r="H43" s="200">
         <v>9.4</v>
       </c>
-      <c r="I43" s="224"/>
+      <c r="I43" s="253"/>
       <c r="T43" s="183">
         <v>4.8</v>
       </c>
@@ -28258,16 +28260,16 @@
         <f>V43/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X43" s="224"/>
-      <c r="Z43" s="224"/>
+      <c r="X43" s="253"/>
+      <c r="Z43" s="253"/>
       <c r="AA43" s="183">
         <v>2.7</v>
       </c>
-      <c r="AB43" s="224"/>
-      <c r="AH43" s="224"/>
+      <c r="AB43" s="253"/>
+      <c r="AH43" s="253"/>
     </row>
     <row r="44" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="224"/>
+      <c r="A44" s="253"/>
       <c r="B44" s="183">
         <v>73</v>
       </c>
@@ -28275,19 +28277,19 @@
         <v>1.8</v>
       </c>
       <c r="D44" s="199">
-        <f>C44/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E44" s="224"/>
-      <c r="I44" s="224"/>
+      <c r="E44" s="253"/>
+      <c r="I44" s="253"/>
       <c r="W44" s="202"/>
-      <c r="X44" s="224"/>
-      <c r="Z44" s="224"/>
-      <c r="AB44" s="224"/>
-      <c r="AH44" s="224"/>
+      <c r="X44" s="253"/>
+      <c r="Z44" s="253"/>
+      <c r="AB44" s="253"/>
+      <c r="AH44" s="253"/>
     </row>
     <row r="45" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="224"/>
+      <c r="A45" s="253"/>
       <c r="B45" s="183">
         <v>82</v>
       </c>
@@ -28295,11 +28297,11 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D45" s="199">
-        <f>C45/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E45" s="224"/>
-      <c r="I45" s="224"/>
+      <c r="E45" s="253"/>
+      <c r="I45" s="253"/>
       <c r="T45" s="183">
         <v>1.6</v>
       </c>
@@ -28310,13 +28312,13 @@
         <f>V45/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="224"/>
-      <c r="Z45" s="224"/>
-      <c r="AB45" s="224"/>
-      <c r="AH45" s="224"/>
+      <c r="X45" s="253"/>
+      <c r="Z45" s="253"/>
+      <c r="AB45" s="253"/>
+      <c r="AH45" s="253"/>
     </row>
     <row r="46" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="224"/>
+      <c r="A46" s="253"/>
       <c r="B46" s="183">
         <v>82</v>
       </c>
@@ -28324,59 +28326,59 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D46" s="199">
-        <f>C46/(SUM(C$28:C$46))</f>
+        <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E46" s="224"/>
-      <c r="I46" s="224"/>
-      <c r="Z46" s="224"/>
-      <c r="AB46" s="224"/>
-      <c r="AH46" s="224"/>
-    </row>
-    <row r="47" spans="1:43" s="247" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="264" t="s">
+      <c r="E46" s="253"/>
+      <c r="I46" s="253"/>
+      <c r="Z46" s="253"/>
+      <c r="AB46" s="253"/>
+      <c r="AH46" s="253"/>
+    </row>
+    <row r="47" spans="1:43" s="225" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="236" t="s">
         <v>324</v>
       </c>
-      <c r="B47" s="263"/>
-      <c r="C47" s="263"/>
-      <c r="D47" s="277"/>
-      <c r="E47" s="276"/>
-      <c r="F47" s="263"/>
-      <c r="G47" s="263"/>
-      <c r="H47" s="263"/>
-      <c r="I47" s="263"/>
-      <c r="J47" s="263"/>
-      <c r="K47" s="263"/>
-      <c r="L47" s="263"/>
-      <c r="M47" s="263"/>
-      <c r="N47" s="263"/>
-      <c r="O47" s="263"/>
-      <c r="P47" s="263"/>
-      <c r="Q47" s="263"/>
-      <c r="R47" s="263"/>
-      <c r="S47" s="263"/>
-      <c r="T47" s="263"/>
-      <c r="U47" s="263"/>
-      <c r="V47" s="263"/>
-      <c r="W47" s="263"/>
-      <c r="X47" s="263"/>
-      <c r="Y47" s="263"/>
-      <c r="Z47" s="263"/>
-      <c r="AA47" s="263"/>
-      <c r="AB47" s="263"/>
-      <c r="AC47" s="263"/>
-      <c r="AD47" s="263"/>
-      <c r="AE47" s="263"/>
-      <c r="AF47" s="263"/>
-      <c r="AG47" s="263"/>
-      <c r="AH47" s="263"/>
-      <c r="AI47" s="262"/>
-      <c r="AJ47" s="262"/>
-      <c r="AK47" s="262"/>
-      <c r="AL47" s="262"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="244"/>
+      <c r="E47" s="243"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="235"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="235"/>
+      <c r="K47" s="235"/>
+      <c r="L47" s="235"/>
+      <c r="M47" s="235"/>
+      <c r="N47" s="235"/>
+      <c r="O47" s="235"/>
+      <c r="P47" s="235"/>
+      <c r="Q47" s="235"/>
+      <c r="R47" s="235"/>
+      <c r="S47" s="235"/>
+      <c r="T47" s="235"/>
+      <c r="U47" s="235"/>
+      <c r="V47" s="235"/>
+      <c r="W47" s="235"/>
+      <c r="X47" s="235"/>
+      <c r="Y47" s="235"/>
+      <c r="Z47" s="235"/>
+      <c r="AA47" s="235"/>
+      <c r="AB47" s="235"/>
+      <c r="AC47" s="235"/>
+      <c r="AD47" s="235"/>
+      <c r="AE47" s="235"/>
+      <c r="AF47" s="235"/>
+      <c r="AG47" s="235"/>
+      <c r="AH47" s="235"/>
+      <c r="AI47" s="234"/>
+      <c r="AJ47" s="234"/>
+      <c r="AK47" s="234"/>
+      <c r="AL47" s="234"/>
     </row>
     <row r="48" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="226" t="s">
+      <c r="A48" s="273" t="s">
         <v>323</v>
       </c>
       <c r="B48" s="183">
@@ -28386,7 +28388,7 @@
         <v>24.5</v>
       </c>
       <c r="D48" s="199">
-        <f>C48/(SUM(C$48:C$67))</f>
+        <f t="shared" ref="D48:D67" si="3">C48/(SUM(C$48:C$67))</f>
         <v>0.15971316818774448</v>
       </c>
       <c r="E48" s="203">
@@ -28428,17 +28430,17 @@
         <f>AA48/100</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AP48" s="274">
+      <c r="AP48" s="279">
         <f>79.6/(79.6+13.3)</f>
         <v>0.85683530678148545</v>
       </c>
-      <c r="AQ48" s="274">
+      <c r="AQ48" s="279">
         <f>77.8/(77.8+15.6)</f>
         <v>0.83297644539614568</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="224"/>
+      <c r="A49" s="253"/>
       <c r="B49" s="183">
         <v>18</v>
       </c>
@@ -28446,7 +28448,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D49" s="199">
-        <f>C49/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>5.9973924380704043E-2</v>
       </c>
       <c r="E49" s="203">
@@ -28488,11 +28490,11 @@
         <f>AA49/100</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AP49" s="274"/>
-      <c r="AQ49" s="274"/>
+      <c r="AP49" s="279"/>
+      <c r="AQ49" s="279"/>
     </row>
     <row r="50" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="224"/>
+      <c r="A50" s="253"/>
       <c r="B50" s="183">
         <v>31</v>
       </c>
@@ -28500,17 +28502,17 @@
         <v>14.3</v>
       </c>
       <c r="D50" s="199">
-        <f>C50/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>9.3220338983050863E-2</v>
       </c>
-      <c r="E50" s="229">
+      <c r="E50" s="274">
         <f>SUM(D50:D54)</f>
         <v>0.36571056062581492</v>
       </c>
       <c r="H50" s="200">
         <v>13.9</v>
       </c>
-      <c r="I50" s="223">
+      <c r="I50" s="255">
         <f>(SUM(H50:H54)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.27666666666666667</v>
       </c>
@@ -28524,29 +28526,29 @@
         <f>V50/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X50" s="230">
+      <c r="X50" s="275">
         <f>SUM(W50:W54)</f>
         <v>0.39491525423728807</v>
       </c>
       <c r="Y50" s="183">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Z50" s="225">
+      <c r="Z50" s="252">
         <f>SUM(Y50:Y54)/100</f>
         <v>0.43400000000000005</v>
       </c>
       <c r="AA50" s="201">
         <v>11</v>
       </c>
-      <c r="AB50" s="225">
+      <c r="AB50" s="252">
         <f>SUM(AA50:AA54)/100</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="AP50" s="274"/>
-      <c r="AQ50" s="274"/>
+      <c r="AP50" s="279"/>
+      <c r="AQ50" s="279"/>
     </row>
     <row r="51" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="224"/>
+      <c r="A51" s="253"/>
       <c r="B51" s="183">
         <v>33</v>
       </c>
@@ -28554,14 +28556,14 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D51" s="199">
-        <f>C51/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E51" s="224"/>
+      <c r="E51" s="253"/>
       <c r="H51" s="200">
         <v>14.5</v>
       </c>
-      <c r="I51" s="224"/>
+      <c r="I51" s="253"/>
       <c r="T51" s="183">
         <v>9.5</v>
       </c>
@@ -28572,20 +28574,20 @@
         <f>V51/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X51" s="224"/>
+      <c r="X51" s="253"/>
       <c r="Y51" s="183">
         <v>8.9</v>
       </c>
-      <c r="Z51" s="224"/>
+      <c r="Z51" s="253"/>
       <c r="AA51" s="201">
         <v>8.4</v>
       </c>
-      <c r="AB51" s="224"/>
-      <c r="AP51" s="274"/>
-      <c r="AQ51" s="274"/>
+      <c r="AB51" s="253"/>
+      <c r="AP51" s="279"/>
+      <c r="AQ51" s="279"/>
     </row>
     <row r="52" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="224"/>
+      <c r="A52" s="253"/>
       <c r="B52" s="183">
         <v>45</v>
       </c>
@@ -28593,14 +28595,14 @@
         <v>7.1</v>
       </c>
       <c r="D52" s="199">
-        <f>C52/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>4.6284224250325953E-2</v>
       </c>
-      <c r="E52" s="224"/>
+      <c r="E52" s="253"/>
       <c r="H52" s="200">
         <v>13</v>
       </c>
-      <c r="I52" s="224"/>
+      <c r="I52" s="253"/>
       <c r="T52" s="183">
         <v>3.6</v>
       </c>
@@ -28611,20 +28613,20 @@
         <f>V52/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X52" s="224"/>
+      <c r="X52" s="253"/>
       <c r="Y52" s="183">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z52" s="224"/>
+      <c r="Z52" s="253"/>
       <c r="AA52" s="201">
         <v>4.5</v>
       </c>
-      <c r="AB52" s="224"/>
-      <c r="AP52" s="274"/>
-      <c r="AQ52" s="274"/>
+      <c r="AB52" s="253"/>
+      <c r="AP52" s="279"/>
+      <c r="AQ52" s="279"/>
     </row>
     <row r="53" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="224"/>
+      <c r="A53" s="253"/>
       <c r="B53" s="183">
         <v>52</v>
       </c>
@@ -28632,14 +28634,14 @@
         <v>16.3</v>
       </c>
       <c r="D53" s="199">
-        <f>C53/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>0.10625814863103</v>
       </c>
-      <c r="E53" s="224"/>
+      <c r="E53" s="253"/>
       <c r="H53" s="200">
         <v>17.399999999999999</v>
       </c>
-      <c r="I53" s="224"/>
+      <c r="I53" s="253"/>
       <c r="T53" s="183">
         <v>24.1</v>
       </c>
@@ -28650,20 +28652,20 @@
         <f>V53/SUM(V48:V67)</f>
         <v>0.23559322033898303</v>
       </c>
-      <c r="X53" s="224"/>
+      <c r="X53" s="253"/>
       <c r="Y53" s="183">
         <v>11</v>
       </c>
-      <c r="Z53" s="224"/>
+      <c r="Z53" s="253"/>
       <c r="AA53" s="201">
         <v>9.6</v>
       </c>
-      <c r="AB53" s="224"/>
-      <c r="AP53" s="274"/>
-      <c r="AQ53" s="274"/>
+      <c r="AB53" s="253"/>
+      <c r="AP53" s="279"/>
+      <c r="AQ53" s="279"/>
     </row>
     <row r="54" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="224"/>
+      <c r="A54" s="253"/>
       <c r="B54" s="183">
         <v>58</v>
       </c>
@@ -28671,14 +28673,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D54" s="199">
-        <f>C54/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>6.6492829204693613E-2</v>
       </c>
-      <c r="E54" s="224"/>
+      <c r="E54" s="253"/>
       <c r="H54" s="200">
         <v>24.2</v>
       </c>
-      <c r="I54" s="224"/>
+      <c r="I54" s="253"/>
       <c r="T54" s="183">
         <v>5.0999999999999996</v>
       </c>
@@ -28689,20 +28691,20 @@
         <f>V54/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X54" s="224"/>
+      <c r="X54" s="253"/>
       <c r="Y54" s="183">
         <v>11.2</v>
       </c>
-      <c r="Z54" s="224"/>
+      <c r="Z54" s="253"/>
       <c r="AA54" s="201">
         <v>7.9</v>
       </c>
-      <c r="AB54" s="224"/>
-      <c r="AP54" s="274"/>
-      <c r="AQ54" s="274"/>
+      <c r="AB54" s="253"/>
+      <c r="AP54" s="279"/>
+      <c r="AQ54" s="279"/>
     </row>
     <row r="55" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="226" t="s">
+      <c r="A55" s="273" t="s">
         <v>321</v>
       </c>
       <c r="B55" s="183">
@@ -28712,42 +28714,42 @@
         <v>2</v>
       </c>
       <c r="D55" s="199">
-        <f>C55/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E55" s="229">
+      <c r="E55" s="274">
         <f>SUM(D55:D67)</f>
         <v>0.41460234680573665</v>
       </c>
-      <c r="I55" s="223">
+      <c r="I55" s="255">
         <f>(SUM(H55:H67)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.25433333333333324</v>
       </c>
       <c r="W55" s="202"/>
-      <c r="X55" s="230">
+      <c r="X55" s="275">
         <f>SUM(T56:T67)/SUM(T48:T67)</f>
         <v>0.32680195941217638</v>
       </c>
-      <c r="Z55" s="225">
+      <c r="Z55" s="252">
         <f>1-SUM(Z48:Z54)</f>
         <v>0.17099999999999993</v>
       </c>
       <c r="AA55" s="197"/>
-      <c r="AB55" s="225">
+      <c r="AB55" s="252">
         <f>1-SUM(AB48:AB54)</f>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="AP55" s="274">
+      <c r="AP55" s="279">
         <f>1-AP48</f>
         <v>0.14316469321851455</v>
       </c>
-      <c r="AQ55" s="274">
+      <c r="AQ55" s="279">
         <f>1-AQ48</f>
         <v>0.16702355460385432</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="224"/>
+      <c r="A56" s="253"/>
       <c r="B56" s="183">
         <v>35</v>
       </c>
@@ -28755,14 +28757,14 @@
         <v>18.399999999999999</v>
       </c>
       <c r="D56" s="199">
-        <f>C56/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>0.11994784876140809</v>
       </c>
-      <c r="E56" s="224"/>
+      <c r="E56" s="253"/>
       <c r="H56" s="200">
         <v>21.8</v>
       </c>
-      <c r="I56" s="224"/>
+      <c r="I56" s="253"/>
       <c r="T56" s="183">
         <v>13.1</v>
       </c>
@@ -28773,20 +28775,20 @@
         <f>V56/SUM(V48:V67)</f>
         <v>8.6440677966101678E-2</v>
       </c>
-      <c r="X56" s="224"/>
+      <c r="X56" s="253"/>
       <c r="Y56" s="183">
         <v>11.8</v>
       </c>
-      <c r="Z56" s="224"/>
+      <c r="Z56" s="253"/>
       <c r="AA56" s="201">
         <v>5.6</v>
       </c>
-      <c r="AB56" s="224"/>
-      <c r="AP56" s="274"/>
-      <c r="AQ56" s="274"/>
+      <c r="AB56" s="253"/>
+      <c r="AP56" s="279"/>
+      <c r="AQ56" s="279"/>
     </row>
     <row r="57" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="224"/>
+      <c r="A57" s="253"/>
       <c r="B57" s="183">
         <v>39</v>
       </c>
@@ -28794,14 +28796,14 @@
         <v>3.1</v>
       </c>
       <c r="D57" s="199">
-        <f>C57/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>2.020860495436767E-2</v>
       </c>
-      <c r="E57" s="224"/>
+      <c r="E57" s="253"/>
       <c r="H57" s="200">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I57" s="224"/>
+      <c r="I57" s="253"/>
       <c r="T57" s="183">
         <v>2.2000000000000002</v>
       </c>
@@ -28812,17 +28814,17 @@
         <f>V57/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X57" s="224"/>
-      <c r="Z57" s="224"/>
+      <c r="X57" s="253"/>
+      <c r="Z57" s="253"/>
       <c r="AA57" s="201">
         <v>4.2</v>
       </c>
-      <c r="AB57" s="224"/>
-      <c r="AP57" s="274"/>
-      <c r="AQ57" s="274"/>
+      <c r="AB57" s="253"/>
+      <c r="AP57" s="279"/>
+      <c r="AQ57" s="279"/>
     </row>
     <row r="58" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="224"/>
+      <c r="A58" s="253"/>
       <c r="B58" s="183">
         <v>51</v>
       </c>
@@ -28830,14 +28832,14 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D58" s="199">
-        <f>C58/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E58" s="224"/>
+      <c r="E58" s="253"/>
       <c r="H58" s="200">
         <v>15.8</v>
       </c>
-      <c r="I58" s="224"/>
+      <c r="I58" s="253"/>
       <c r="T58" s="183">
         <v>7.3</v>
       </c>
@@ -28848,17 +28850,17 @@
         <f>V58/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X58" s="224"/>
-      <c r="Z58" s="224"/>
+      <c r="X58" s="253"/>
+      <c r="Z58" s="253"/>
       <c r="AA58" s="201">
         <v>6.7</v>
       </c>
-      <c r="AB58" s="224"/>
-      <c r="AP58" s="274"/>
-      <c r="AQ58" s="274"/>
+      <c r="AB58" s="253"/>
+      <c r="AP58" s="279"/>
+      <c r="AQ58" s="279"/>
     </row>
     <row r="59" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="224"/>
+      <c r="A59" s="253"/>
       <c r="B59" s="183">
         <v>53</v>
       </c>
@@ -28866,11 +28868,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D59" s="199">
-        <f>C59/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E59" s="224"/>
-      <c r="I59" s="224"/>
+      <c r="E59" s="253"/>
+      <c r="I59" s="253"/>
       <c r="T59" s="183">
         <v>4.4000000000000004</v>
       </c>
@@ -28881,15 +28883,15 @@
         <f>V59/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X59" s="224"/>
-      <c r="Z59" s="224"/>
+      <c r="X59" s="253"/>
+      <c r="Z59" s="253"/>
       <c r="AA59" s="197"/>
-      <c r="AB59" s="224"/>
-      <c r="AP59" s="274"/>
-      <c r="AQ59" s="274"/>
+      <c r="AB59" s="253"/>
+      <c r="AP59" s="279"/>
+      <c r="AQ59" s="279"/>
     </row>
     <row r="60" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="224"/>
+      <c r="A60" s="253"/>
       <c r="B60" s="183">
         <v>56</v>
       </c>
@@ -28897,14 +28899,14 @@
         <v>2</v>
       </c>
       <c r="D60" s="199">
-        <f>C60/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E60" s="224"/>
+      <c r="E60" s="253"/>
       <c r="H60" s="200">
         <v>11.9</v>
       </c>
-      <c r="I60" s="224"/>
+      <c r="I60" s="253"/>
       <c r="T60" s="183">
         <v>2.9</v>
       </c>
@@ -28915,17 +28917,17 @@
         <f>V60/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="224"/>
-      <c r="Z60" s="224"/>
+      <c r="X60" s="253"/>
+      <c r="Z60" s="253"/>
       <c r="AA60" s="201">
         <v>3.4</v>
       </c>
-      <c r="AB60" s="224"/>
-      <c r="AP60" s="274"/>
-      <c r="AQ60" s="274"/>
+      <c r="AB60" s="253"/>
+      <c r="AP60" s="279"/>
+      <c r="AQ60" s="279"/>
     </row>
     <row r="61" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="224"/>
+      <c r="A61" s="253"/>
       <c r="B61" s="183">
         <v>59</v>
       </c>
@@ -28933,15 +28935,15 @@
         <v>2</v>
       </c>
       <c r="D61" s="199">
-        <f>C61/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E61" s="224"/>
-      <c r="F61" s="275"/>
+      <c r="E61" s="253"/>
+      <c r="F61" s="242"/>
       <c r="H61" s="200">
         <v>8</v>
       </c>
-      <c r="I61" s="224"/>
+      <c r="I61" s="253"/>
       <c r="T61" s="183">
         <v>0</v>
       </c>
@@ -28952,17 +28954,17 @@
         <f>V61/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X61" s="224"/>
-      <c r="Z61" s="224"/>
+      <c r="X61" s="253"/>
+      <c r="Z61" s="253"/>
       <c r="AA61" s="201">
         <v>2.9</v>
       </c>
-      <c r="AB61" s="224"/>
-      <c r="AP61" s="274"/>
-      <c r="AQ61" s="274"/>
+      <c r="AB61" s="253"/>
+      <c r="AP61" s="279"/>
+      <c r="AQ61" s="279"/>
     </row>
     <row r="62" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="224"/>
+      <c r="A62" s="253"/>
       <c r="B62" s="183">
         <v>66</v>
       </c>
@@ -28970,11 +28972,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D62" s="199">
-        <f>C62/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E62" s="224"/>
-      <c r="I62" s="224"/>
+      <c r="E62" s="253"/>
+      <c r="I62" s="253"/>
       <c r="T62" s="183">
         <v>10.199999999999999</v>
       </c>
@@ -28985,15 +28987,15 @@
         <f>V62/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X62" s="224"/>
-      <c r="Z62" s="224"/>
+      <c r="X62" s="253"/>
+      <c r="Z62" s="253"/>
       <c r="AA62" s="197"/>
-      <c r="AB62" s="224"/>
-      <c r="AP62" s="274"/>
-      <c r="AQ62" s="274"/>
+      <c r="AB62" s="253"/>
+      <c r="AP62" s="279"/>
+      <c r="AQ62" s="279"/>
     </row>
     <row r="63" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="224"/>
+      <c r="A63" s="253"/>
       <c r="B63" s="183">
         <v>68</v>
       </c>
@@ -29001,14 +29003,14 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D63" s="199">
-        <f>C63/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E63" s="224"/>
+      <c r="E63" s="253"/>
       <c r="H63" s="200">
         <v>9.1</v>
       </c>
-      <c r="I63" s="224"/>
+      <c r="I63" s="253"/>
       <c r="T63" s="183">
         <v>2.2000000000000002</v>
       </c>
@@ -29019,17 +29021,17 @@
         <f>V63/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X63" s="224"/>
-      <c r="Z63" s="224"/>
+      <c r="X63" s="253"/>
+      <c r="Z63" s="253"/>
       <c r="AA63" s="183">
         <v>2</v>
       </c>
-      <c r="AB63" s="224"/>
-      <c r="AP63" s="274"/>
-      <c r="AQ63" s="274"/>
+      <c r="AB63" s="253"/>
+      <c r="AP63" s="279"/>
+      <c r="AQ63" s="279"/>
     </row>
     <row r="64" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="224"/>
+      <c r="A64" s="253"/>
       <c r="B64" s="183">
         <v>69</v>
       </c>
@@ -29037,20 +29039,20 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D64" s="199">
-        <f>C64/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E64" s="224"/>
-      <c r="I64" s="224"/>
+      <c r="E64" s="253"/>
+      <c r="I64" s="253"/>
       <c r="W64" s="198"/>
-      <c r="X64" s="224"/>
-      <c r="Z64" s="224"/>
-      <c r="AB64" s="224"/>
-      <c r="AP64" s="274"/>
-      <c r="AQ64" s="274"/>
+      <c r="X64" s="253"/>
+      <c r="Z64" s="253"/>
+      <c r="AB64" s="253"/>
+      <c r="AP64" s="279"/>
+      <c r="AQ64" s="279"/>
     </row>
     <row r="65" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="224"/>
+      <c r="A65" s="253"/>
       <c r="B65" s="183">
         <v>70</v>
       </c>
@@ -29058,20 +29060,20 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D65" s="199">
-        <f>C65/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E65" s="224"/>
-      <c r="I65" s="224"/>
+      <c r="E65" s="253"/>
+      <c r="I65" s="253"/>
       <c r="W65" s="198"/>
-      <c r="X65" s="224"/>
-      <c r="Z65" s="224"/>
-      <c r="AB65" s="224"/>
-      <c r="AP65" s="274"/>
-      <c r="AQ65" s="274"/>
+      <c r="X65" s="253"/>
+      <c r="Z65" s="253"/>
+      <c r="AB65" s="253"/>
+      <c r="AP65" s="279"/>
+      <c r="AQ65" s="279"/>
     </row>
     <row r="66" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="224"/>
+      <c r="A66" s="253"/>
       <c r="B66" s="183">
         <v>73</v>
       </c>
@@ -29079,20 +29081,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D66" s="199">
-        <f>C66/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E66" s="224"/>
-      <c r="I66" s="224"/>
+      <c r="E66" s="253"/>
+      <c r="I66" s="253"/>
       <c r="W66" s="198"/>
-      <c r="X66" s="224"/>
-      <c r="Z66" s="224"/>
-      <c r="AB66" s="224"/>
-      <c r="AP66" s="274"/>
-      <c r="AQ66" s="274"/>
+      <c r="X66" s="253"/>
+      <c r="Z66" s="253"/>
+      <c r="AB66" s="253"/>
+      <c r="AP66" s="279"/>
+      <c r="AQ66" s="279"/>
     </row>
     <row r="67" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="224"/>
+      <c r="A67" s="253"/>
       <c r="B67" s="183">
         <v>82</v>
       </c>
@@ -29100,11 +29102,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D67" s="199">
-        <f>C67/(SUM(C$48:C$67))</f>
+        <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E67" s="224"/>
-      <c r="I67" s="224"/>
+      <c r="E67" s="253"/>
+      <c r="I67" s="253"/>
       <c r="T67" s="183">
         <v>4.4000000000000004</v>
       </c>
@@ -29115,55 +29117,55 @@
         <f>V67/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X67" s="224"/>
+      <c r="X67" s="253"/>
       <c r="AB67" s="197"/>
-      <c r="AP67" s="274"/>
-      <c r="AQ67" s="274"/>
-    </row>
-    <row r="68" spans="1:43" s="247" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="264" t="s">
+      <c r="AP67" s="279"/>
+      <c r="AQ67" s="279"/>
+    </row>
+    <row r="68" spans="1:43" s="225" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="236" t="s">
         <v>325</v>
       </c>
-      <c r="B68" s="263"/>
-      <c r="C68" s="263"/>
-      <c r="D68" s="263"/>
-      <c r="E68" s="273"/>
-      <c r="F68" s="263"/>
-      <c r="G68" s="263"/>
-      <c r="H68" s="263"/>
-      <c r="I68" s="263"/>
-      <c r="J68" s="263"/>
-      <c r="K68" s="263"/>
-      <c r="L68" s="263"/>
-      <c r="M68" s="263"/>
-      <c r="N68" s="263"/>
-      <c r="O68" s="263"/>
-      <c r="P68" s="263"/>
-      <c r="Q68" s="263"/>
-      <c r="R68" s="263"/>
-      <c r="S68" s="263"/>
-      <c r="T68" s="263"/>
-      <c r="U68" s="263"/>
-      <c r="V68" s="263"/>
-      <c r="W68" s="263"/>
-      <c r="X68" s="263"/>
-      <c r="Y68" s="263"/>
-      <c r="Z68" s="263"/>
-      <c r="AA68" s="263"/>
-      <c r="AB68" s="263"/>
-      <c r="AC68" s="263"/>
-      <c r="AD68" s="263"/>
-      <c r="AE68" s="263"/>
-      <c r="AF68" s="263"/>
-      <c r="AG68" s="263"/>
-      <c r="AH68" s="263"/>
-      <c r="AI68" s="262"/>
-      <c r="AJ68" s="262"/>
-      <c r="AK68" s="262"/>
-      <c r="AL68" s="262"/>
+      <c r="B68" s="235"/>
+      <c r="C68" s="235"/>
+      <c r="D68" s="235"/>
+      <c r="E68" s="241"/>
+      <c r="F68" s="235"/>
+      <c r="G68" s="235"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
+      <c r="J68" s="235"/>
+      <c r="K68" s="235"/>
+      <c r="L68" s="235"/>
+      <c r="M68" s="235"/>
+      <c r="N68" s="235"/>
+      <c r="O68" s="235"/>
+      <c r="P68" s="235"/>
+      <c r="Q68" s="235"/>
+      <c r="R68" s="235"/>
+      <c r="S68" s="235"/>
+      <c r="T68" s="235"/>
+      <c r="U68" s="235"/>
+      <c r="V68" s="235"/>
+      <c r="W68" s="235"/>
+      <c r="X68" s="235"/>
+      <c r="Y68" s="235"/>
+      <c r="Z68" s="235"/>
+      <c r="AA68" s="235"/>
+      <c r="AB68" s="235"/>
+      <c r="AC68" s="235"/>
+      <c r="AD68" s="235"/>
+      <c r="AE68" s="235"/>
+      <c r="AF68" s="235"/>
+      <c r="AG68" s="235"/>
+      <c r="AH68" s="235"/>
+      <c r="AI68" s="234"/>
+      <c r="AJ68" s="234"/>
+      <c r="AK68" s="234"/>
+      <c r="AL68" s="234"/>
     </row>
     <row r="69" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="226" t="s">
+      <c r="A69" s="273" t="s">
         <v>323</v>
       </c>
       <c r="B69" s="183">
@@ -29173,7 +29175,7 @@
         <v>50.7</v>
       </c>
       <c r="D69" s="191">
-        <f>C69/(SUM(C$69:C$88))</f>
+        <f t="shared" ref="D69:D88" si="4">C69/(SUM(C$69:C$88))</f>
         <v>0.50954773869346748</v>
       </c>
       <c r="E69" s="195">
@@ -29211,7 +29213,7 @@
       <c r="N69" s="193">
         <v>0.49199999999999999</v>
       </c>
-      <c r="O69" s="272">
+      <c r="O69" s="240">
         <f>N69/SUM(N69:N90)</f>
         <v>0.499492385786802</v>
       </c>
@@ -29253,23 +29255,23 @@
         <f>AE69/100</f>
         <v>0.60588169767182798</v>
       </c>
-      <c r="AI69" s="250">
+      <c r="AI69" s="227">
         <v>0.6</v>
       </c>
-      <c r="AJ69" s="271">
+      <c r="AJ69" s="239">
         <f>AI69</f>
         <v>0.6</v>
       </c>
-      <c r="AK69" s="250">
+      <c r="AK69" s="227">
         <v>0.52</v>
       </c>
-      <c r="AL69" s="271">
+      <c r="AL69" s="239">
         <f>AK69</f>
         <v>0.52</v>
       </c>
     </row>
     <row r="70" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="224"/>
+      <c r="A70" s="253"/>
       <c r="B70" s="183">
         <v>18</v>
       </c>
@@ -29277,7 +29279,7 @@
         <v>13.5</v>
       </c>
       <c r="D70" s="191">
-        <f>C70/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>0.13567839195979903</v>
       </c>
       <c r="E70" s="195">
@@ -29315,7 +29317,7 @@
       <c r="N70" s="193">
         <v>0.16200000000000001</v>
       </c>
-      <c r="O70" s="272">
+      <c r="O70" s="240">
         <f>N70/SUM(N69:N90)</f>
         <v>0.16446700507614212</v>
       </c>
@@ -29357,23 +29359,23 @@
         <f>AE70/100</f>
         <v>0.10226133452155509</v>
       </c>
-      <c r="AI70" s="250">
+      <c r="AI70" s="227">
         <v>0.158</v>
       </c>
-      <c r="AJ70" s="271">
+      <c r="AJ70" s="239">
         <f>AI70</f>
         <v>0.158</v>
       </c>
-      <c r="AK70" s="250">
+      <c r="AK70" s="227">
         <v>0.19</v>
       </c>
-      <c r="AL70" s="271">
+      <c r="AL70" s="239">
         <f>AK70</f>
         <v>0.19</v>
       </c>
     </row>
     <row r="71" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="224"/>
+      <c r="A71" s="253"/>
       <c r="B71" s="183">
         <v>31</v>
       </c>
@@ -29381,45 +29383,45 @@
         <v>2.9</v>
       </c>
       <c r="D71" s="191">
-        <f>C71/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>2.9145728643216084E-2</v>
       </c>
-      <c r="E71" s="228">
+      <c r="E71" s="278">
         <f>SUM(D71:D75)</f>
         <v>0.19296482412060306</v>
       </c>
       <c r="F71" s="183">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G71" s="226">
+      <c r="G71" s="273">
         <f>SUM(F71:F75)</f>
         <v>0.17699999999999999</v>
       </c>
       <c r="H71" s="183">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I71" s="223">
+      <c r="I71" s="255">
         <f>(SUM(H71:H75)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.17699530516431927</v>
       </c>
       <c r="J71" s="183">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K71" s="227">
+      <c r="K71" s="254">
         <f>SUM(J71:J75)/100</f>
         <v>0.217</v>
       </c>
       <c r="L71" s="183">
         <v>3.8</v>
       </c>
-      <c r="M71" s="227">
+      <c r="M71" s="254">
         <f>SUM(L71:L75)/100</f>
         <v>0.20799999999999996</v>
       </c>
       <c r="N71" s="193">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O71" s="270">
+      <c r="O71" s="259">
         <f>SUM(N71:N75)/SUM(N69:N90)</f>
         <v>0.22842639593908629</v>
       </c>
@@ -29434,14 +29436,14 @@
       <c r="Y71" s="183">
         <v>2.6</v>
       </c>
-      <c r="Z71" s="225">
+      <c r="Z71" s="252">
         <f>SUM(Y71:Y75)/100</f>
         <v>0.21899999999999997</v>
       </c>
       <c r="AA71" s="183">
         <v>4</v>
       </c>
-      <c r="AB71" s="225">
+      <c r="AB71" s="252">
         <f>SUM(AA71:AA75)/100</f>
         <v>0.21700000000000003</v>
       </c>
@@ -29449,7 +29451,7 @@
         <f>10/544*100</f>
         <v>1.8382352941176472</v>
       </c>
-      <c r="AD71" s="225">
+      <c r="AD71" s="252">
         <f>SUM(AC71:AC75)/100</f>
         <v>0.16544117647058823</v>
       </c>
@@ -29457,27 +29459,27 @@
         <f>335/8977*100</f>
         <v>3.7317589395120865</v>
       </c>
-      <c r="AF71" s="225">
+      <c r="AF71" s="252">
         <f>SUM(AE71:AE75)/100</f>
         <v>0.1853625932939735</v>
       </c>
-      <c r="AI71" s="250">
+      <c r="AI71" s="227">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AJ71" s="268">
+      <c r="AJ71" s="263">
         <f>SUM(AI71:AI75)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>0.1722342342342342</v>
       </c>
-      <c r="AK71" s="250">
+      <c r="AK71" s="227">
         <v>0.03</v>
       </c>
-      <c r="AL71" s="268">
+      <c r="AL71" s="263">
         <f>SUM(AK71:AK75)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>0.19617647058823534</v>
       </c>
     </row>
     <row r="72" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="224"/>
+      <c r="A72" s="253"/>
       <c r="B72" s="183">
         <v>33</v>
       </c>
@@ -29485,30 +29487,30 @@
         <v>7.3</v>
       </c>
       <c r="D72" s="191">
-        <f>C72/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>7.3366834170854281E-2</v>
       </c>
-      <c r="E72" s="224"/>
+      <c r="E72" s="253"/>
       <c r="F72" s="183">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G72" s="224"/>
+      <c r="G72" s="253"/>
       <c r="H72" s="183">
         <v>5.2</v>
       </c>
-      <c r="I72" s="224"/>
+      <c r="I72" s="253"/>
       <c r="J72" s="183">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K72" s="224"/>
+      <c r="K72" s="253"/>
       <c r="L72" s="183">
         <v>5.7</v>
       </c>
-      <c r="M72" s="224"/>
+      <c r="M72" s="253"/>
       <c r="N72" s="182">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O72" s="267"/>
+      <c r="O72" s="260"/>
       <c r="P72" s="188">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29520,32 +29522,32 @@
       <c r="Y72" s="183">
         <v>3.6</v>
       </c>
-      <c r="Z72" s="224"/>
+      <c r="Z72" s="253"/>
       <c r="AA72" s="183">
         <v>4.5</v>
       </c>
-      <c r="AB72" s="224"/>
+      <c r="AB72" s="253"/>
       <c r="AC72" s="189">
         <f>8/544*100</f>
         <v>1.4705882352941175</v>
       </c>
-      <c r="AD72" s="224"/>
+      <c r="AD72" s="253"/>
       <c r="AE72" s="188">
         <f>345/8977*100</f>
         <v>3.8431547287512533</v>
       </c>
-      <c r="AF72" s="224"/>
-      <c r="AI72" s="250">
+      <c r="AF72" s="253"/>
+      <c r="AI72" s="227">
         <v>4.7E-2</v>
       </c>
-      <c r="AJ72" s="266"/>
-      <c r="AK72" s="250">
+      <c r="AJ72" s="262"/>
+      <c r="AK72" s="227">
         <v>0.06</v>
       </c>
-      <c r="AL72" s="266"/>
+      <c r="AL72" s="262"/>
     </row>
     <row r="73" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="224"/>
+      <c r="A73" s="253"/>
       <c r="B73" s="183">
         <v>45</v>
       </c>
@@ -29553,30 +29555,30 @@
         <v>5.6</v>
       </c>
       <c r="D73" s="191">
-        <f>C73/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>5.6281407035175882E-2</v>
       </c>
-      <c r="E73" s="224"/>
+      <c r="E73" s="253"/>
       <c r="F73" s="183">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G73" s="224"/>
+      <c r="G73" s="253"/>
       <c r="H73" s="183">
         <v>15.5</v>
       </c>
-      <c r="I73" s="224"/>
+      <c r="I73" s="253"/>
       <c r="J73" s="183">
         <v>15.1</v>
       </c>
-      <c r="K73" s="224"/>
+      <c r="K73" s="253"/>
       <c r="L73" s="183">
         <v>4.7</v>
       </c>
-      <c r="M73" s="224"/>
+      <c r="M73" s="253"/>
       <c r="N73" s="182">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O73" s="267"/>
+      <c r="O73" s="260"/>
       <c r="P73" s="188">
         <f>13/77*100</f>
         <v>16.883116883116884</v>
@@ -29588,32 +29590,32 @@
       <c r="Y73" s="183">
         <v>11</v>
       </c>
-      <c r="Z73" s="224"/>
+      <c r="Z73" s="253"/>
       <c r="AA73" s="183">
         <v>5.3</v>
       </c>
-      <c r="AB73" s="224"/>
+      <c r="AB73" s="253"/>
       <c r="AC73" s="189">
         <f>54/544*100</f>
         <v>9.9264705882352935</v>
       </c>
-      <c r="AD73" s="224"/>
+      <c r="AD73" s="253"/>
       <c r="AE73" s="188">
         <f>528/8977*100</f>
         <v>5.8816976718280047</v>
       </c>
-      <c r="AF73" s="224"/>
-      <c r="AI73" s="250">
+      <c r="AF73" s="253"/>
+      <c r="AI73" s="227">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AJ73" s="266"/>
-      <c r="AK73" s="250">
+      <c r="AJ73" s="262"/>
+      <c r="AK73" s="227">
         <v>0.08</v>
       </c>
-      <c r="AL73" s="266"/>
+      <c r="AL73" s="262"/>
     </row>
     <row r="74" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="224"/>
+      <c r="A74" s="253"/>
       <c r="B74" s="183">
         <v>52</v>
       </c>
@@ -29621,30 +29623,30 @@
         <v>2.1</v>
       </c>
       <c r="D74" s="191">
-        <f>C74/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>2.1105527638190957E-2</v>
       </c>
-      <c r="E74" s="224"/>
+      <c r="E74" s="253"/>
       <c r="F74" s="183">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G74" s="224"/>
+      <c r="G74" s="253"/>
       <c r="H74" s="183">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I74" s="224"/>
+      <c r="I74" s="253"/>
       <c r="J74" s="183">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K74" s="224"/>
+      <c r="K74" s="253"/>
       <c r="L74" s="183">
         <v>4.7</v>
       </c>
-      <c r="M74" s="224"/>
+      <c r="M74" s="253"/>
       <c r="N74" s="182">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O74" s="267"/>
+      <c r="O74" s="260"/>
       <c r="P74" s="188">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29656,32 +29658,32 @@
       <c r="Y74" s="183">
         <v>3.4</v>
       </c>
-      <c r="Z74" s="224"/>
+      <c r="Z74" s="253"/>
       <c r="AA74" s="183">
         <v>3.5</v>
       </c>
-      <c r="AB74" s="224"/>
+      <c r="AB74" s="253"/>
       <c r="AC74" s="189">
         <f>14/544*100</f>
         <v>2.5735294117647056</v>
       </c>
-      <c r="AD74" s="224"/>
+      <c r="AD74" s="253"/>
       <c r="AE74" s="188">
         <f>253/8977*100</f>
         <v>2.8183134677509192</v>
       </c>
-      <c r="AF74" s="224"/>
-      <c r="AI74" s="250">
+      <c r="AF74" s="253"/>
+      <c r="AI74" s="227">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ74" s="266"/>
-      <c r="AK74" s="250">
+      <c r="AJ74" s="262"/>
+      <c r="AK74" s="227">
         <v>0.04</v>
       </c>
-      <c r="AL74" s="266"/>
+      <c r="AL74" s="262"/>
     </row>
     <row r="75" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="224"/>
+      <c r="A75" s="253"/>
       <c r="B75" s="183">
         <v>58</v>
       </c>
@@ -29689,30 +29691,30 @@
         <v>1.3</v>
       </c>
       <c r="D75" s="191">
-        <f>C75/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>1.3065326633165831E-2</v>
       </c>
-      <c r="E75" s="224"/>
+      <c r="E75" s="253"/>
       <c r="F75" s="183">
         <v>0</v>
       </c>
-      <c r="G75" s="224"/>
+      <c r="G75" s="253"/>
       <c r="H75" s="183">
         <v>8.1</v>
       </c>
-      <c r="I75" s="224"/>
+      <c r="I75" s="253"/>
       <c r="J75" s="183">
         <v>0</v>
       </c>
-      <c r="K75" s="224"/>
+      <c r="K75" s="253"/>
       <c r="L75" s="183">
         <v>1.9</v>
       </c>
-      <c r="M75" s="224"/>
+      <c r="M75" s="253"/>
       <c r="N75" s="182">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O75" s="267"/>
+      <c r="O75" s="260"/>
       <c r="P75" s="188">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29724,32 +29726,32 @@
       <c r="Y75" s="183">
         <v>1.3</v>
       </c>
-      <c r="Z75" s="224"/>
+      <c r="Z75" s="253"/>
       <c r="AA75" s="183">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB75" s="224"/>
+      <c r="AB75" s="253"/>
       <c r="AC75" s="189">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD75" s="224"/>
+      <c r="AD75" s="253"/>
       <c r="AE75" s="188">
         <f>203/8977*100</f>
         <v>2.2613345215550851</v>
       </c>
-      <c r="AF75" s="224"/>
-      <c r="AI75" s="250">
+      <c r="AF75" s="253"/>
+      <c r="AI75" s="227">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AJ75" s="266"/>
-      <c r="AK75" s="250">
+      <c r="AJ75" s="262"/>
+      <c r="AK75" s="227">
         <v>0.02</v>
       </c>
-      <c r="AL75" s="266"/>
+      <c r="AL75" s="262"/>
     </row>
     <row r="76" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="226" t="s">
+      <c r="A76" s="273" t="s">
         <v>321</v>
       </c>
       <c r="B76" s="183">
@@ -29759,48 +29761,48 @@
         <v>0.5</v>
       </c>
       <c r="D76" s="191">
-        <f>C76/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E76" s="228">
+      <c r="E76" s="278">
         <f>SUM(D76:D88)</f>
         <v>0.16180904522613065</v>
       </c>
-      <c r="G76" s="226">
+      <c r="G76" s="273">
         <f>SUM(F77:F89)</f>
         <v>0.16700000000000001</v>
       </c>
-      <c r="I76" s="223">
+      <c r="I76" s="255">
         <f>(SUM(H76:H90)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.11300469483568076</v>
       </c>
-      <c r="K76" s="227">
+      <c r="K76" s="254">
         <f>SUM(J76:J89)/100</f>
         <v>0.10899999999999999</v>
       </c>
-      <c r="M76" s="227">
+      <c r="M76" s="254">
         <f>SUM(L76:L89)/100</f>
         <v>0.12200000000000001</v>
       </c>
       <c r="N76" s="193"/>
-      <c r="O76" s="270">
+      <c r="O76" s="259">
         <f>SUM(N76:N90)/SUM(N69:N90)</f>
         <v>0.10761421319796954</v>
       </c>
       <c r="P76" s="188"/>
-      <c r="Q76" s="269"/>
+      <c r="Q76" s="238"/>
       <c r="R76" s="188"/>
-      <c r="S76" s="269"/>
-      <c r="Z76" s="225">
+      <c r="S76" s="238"/>
+      <c r="Z76" s="252">
         <f>1-SUM(Z69:Z75)</f>
         <v>5.1999999999999935E-2</v>
       </c>
-      <c r="AB76" s="225">
+      <c r="AB76" s="252">
         <f>1-SUM(AB69:AB75)</f>
         <v>0</v>
       </c>
       <c r="AC76" s="188"/>
-      <c r="AD76" s="225">
+      <c r="AD76" s="252">
         <f>1-SUM(AD69:AD75)</f>
         <v>0.13235294117647067</v>
       </c>
@@ -29808,21 +29810,21 @@
         <f>31/8977*100</f>
         <v>0.34532694664141694</v>
       </c>
-      <c r="AF76" s="225">
+      <c r="AF76" s="252">
         <f>1-SUM(AF69:AF75)</f>
         <v>0.10649437451264343</v>
       </c>
-      <c r="AJ76" s="268">
+      <c r="AJ76" s="263">
         <f>SUM(AI76:AI90)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>6.9765765765765764E-2</v>
       </c>
-      <c r="AL76" s="268">
+      <c r="AL76" s="263">
         <f>SUM(AK76:AK90)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>9.3823529411764722E-2</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="224"/>
+      <c r="A77" s="253"/>
       <c r="B77" s="183">
         <v>35</v>
       </c>
@@ -29830,30 +29832,30 @@
         <v>6</v>
       </c>
       <c r="D77" s="191">
-        <f>C77/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>6.0301507537688454E-2</v>
       </c>
-      <c r="E77" s="224"/>
+      <c r="E77" s="253"/>
       <c r="F77" s="183">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G77" s="224"/>
+      <c r="G77" s="253"/>
       <c r="H77" s="183">
         <v>7.7</v>
       </c>
-      <c r="I77" s="224"/>
+      <c r="I77" s="253"/>
       <c r="J77" s="183">
         <v>6.5</v>
       </c>
-      <c r="K77" s="227"/>
+      <c r="K77" s="254"/>
       <c r="L77" s="183">
         <v>9.5</v>
       </c>
-      <c r="M77" s="227"/>
+      <c r="M77" s="254"/>
       <c r="N77" s="182">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="O77" s="267"/>
+      <c r="O77" s="260"/>
       <c r="P77" s="188">
         <f>7/77*100</f>
         <v>9.0909090909090917</v>
@@ -29865,32 +29867,32 @@
       <c r="Y77" s="183">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z77" s="224"/>
+      <c r="Z77" s="253"/>
       <c r="AA77" s="183">
         <v>1.7</v>
       </c>
-      <c r="AB77" s="224"/>
+      <c r="AB77" s="253"/>
       <c r="AC77" s="189">
         <f>27/544*100</f>
         <v>4.9632352941176467</v>
       </c>
-      <c r="AD77" s="224"/>
+      <c r="AD77" s="253"/>
       <c r="AE77" s="188">
         <f>175/8977*100</f>
         <v>1.9494263116854185</v>
       </c>
-      <c r="AF77" s="224"/>
-      <c r="AI77" s="250">
+      <c r="AF77" s="253"/>
+      <c r="AI77" s="227">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ77" s="266"/>
-      <c r="AK77" s="250">
+      <c r="AJ77" s="262"/>
+      <c r="AK77" s="227">
         <v>0.05</v>
       </c>
-      <c r="AL77" s="266"/>
+      <c r="AL77" s="262"/>
     </row>
     <row r="78" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="224"/>
+      <c r="A78" s="253"/>
       <c r="B78" s="183">
         <v>39</v>
       </c>
@@ -29898,18 +29900,18 @@
         <v>0.5</v>
       </c>
       <c r="D78" s="191">
-        <f>C78/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E78" s="224"/>
-      <c r="G78" s="224"/>
+      <c r="E78" s="253"/>
+      <c r="G78" s="253"/>
       <c r="H78" s="183">
         <v>3.3</v>
       </c>
-      <c r="I78" s="224"/>
-      <c r="K78" s="227"/>
-      <c r="M78" s="227"/>
-      <c r="O78" s="267"/>
+      <c r="I78" s="253"/>
+      <c r="K78" s="254"/>
+      <c r="M78" s="254"/>
+      <c r="O78" s="260"/>
       <c r="P78" s="188">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29918,29 +29920,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z78" s="224"/>
+      <c r="Z78" s="253"/>
       <c r="AA78" s="183">
         <v>1.4</v>
       </c>
-      <c r="AB78" s="224"/>
+      <c r="AB78" s="253"/>
       <c r="AC78" s="189">
         <f>3/544*100</f>
         <v>0.55147058823529416</v>
       </c>
-      <c r="AD78" s="224"/>
+      <c r="AD78" s="253"/>
       <c r="AE78" s="188">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF78" s="224"/>
-      <c r="AI78" s="250">
+      <c r="AF78" s="253"/>
+      <c r="AI78" s="227">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ78" s="266"/>
-      <c r="AL78" s="266"/>
+      <c r="AJ78" s="262"/>
+      <c r="AL78" s="262"/>
     </row>
     <row r="79" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="224"/>
+      <c r="A79" s="253"/>
       <c r="B79" s="183">
         <v>51</v>
       </c>
@@ -29948,28 +29950,28 @@
         <v>1</v>
       </c>
       <c r="D79" s="191">
-        <f>C79/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E79" s="224"/>
+      <c r="E79" s="253"/>
       <c r="F79" s="183"/>
-      <c r="G79" s="224"/>
+      <c r="G79" s="253"/>
       <c r="H79" s="183">
         <v>4.8</v>
       </c>
-      <c r="I79" s="224"/>
+      <c r="I79" s="253"/>
       <c r="J79" s="183">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K79" s="227"/>
+      <c r="K79" s="254"/>
       <c r="L79" s="183">
         <v>0</v>
       </c>
-      <c r="M79" s="227"/>
+      <c r="M79" s="254"/>
       <c r="N79" s="182">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O79" s="267"/>
+      <c r="O79" s="260"/>
       <c r="P79" s="188">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29978,32 +29980,32 @@
         <f>4/154*100</f>
         <v>2.5974025974025974</v>
       </c>
-      <c r="Z79" s="224"/>
+      <c r="Z79" s="253"/>
       <c r="AA79" s="183">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB79" s="224"/>
+      <c r="AB79" s="253"/>
       <c r="AC79" s="189">
         <f>13/544*100</f>
         <v>2.3897058823529411</v>
       </c>
-      <c r="AD79" s="224"/>
+      <c r="AD79" s="253"/>
       <c r="AE79" s="188">
         <f>114/8977*100</f>
         <v>1.269911997326501</v>
       </c>
-      <c r="AF79" s="224"/>
-      <c r="AI79" s="250">
+      <c r="AF79" s="253"/>
+      <c r="AI79" s="227">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ79" s="266"/>
-      <c r="AK79" s="250">
+      <c r="AJ79" s="262"/>
+      <c r="AK79" s="227">
         <v>0.04</v>
       </c>
-      <c r="AL79" s="266"/>
+      <c r="AL79" s="262"/>
     </row>
     <row r="80" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="224"/>
+      <c r="A80" s="253"/>
       <c r="B80" s="183">
         <v>53</v>
       </c>
@@ -30011,35 +30013,35 @@
         <v>1.6</v>
       </c>
       <c r="D80" s="191">
-        <f>C80/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>1.6080402010050253E-2</v>
       </c>
-      <c r="E80" s="224"/>
+      <c r="E80" s="253"/>
       <c r="F80" s="183"/>
-      <c r="G80" s="224"/>
-      <c r="I80" s="224"/>
-      <c r="K80" s="227"/>
-      <c r="M80" s="227"/>
-      <c r="O80" s="267"/>
+      <c r="G80" s="253"/>
+      <c r="I80" s="253"/>
+      <c r="K80" s="254"/>
+      <c r="M80" s="254"/>
+      <c r="O80" s="260"/>
       <c r="P80" s="188"/>
       <c r="R80" s="188"/>
-      <c r="Z80" s="224"/>
-      <c r="AB80" s="224"/>
+      <c r="Z80" s="253"/>
+      <c r="AB80" s="253"/>
       <c r="AC80" s="188"/>
-      <c r="AD80" s="224"/>
+      <c r="AD80" s="253"/>
       <c r="AE80" s="188">
         <f>24/8977*100</f>
         <v>0.26734989417400024</v>
       </c>
-      <c r="AF80" s="224"/>
-      <c r="AI80" s="250">
+      <c r="AF80" s="253"/>
+      <c r="AI80" s="227">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ80" s="266"/>
-      <c r="AL80" s="266"/>
+      <c r="AJ80" s="262"/>
+      <c r="AL80" s="262"/>
     </row>
     <row r="81" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="224"/>
+      <c r="A81" s="253"/>
       <c r="B81" s="183">
         <v>56</v>
       </c>
@@ -30047,28 +30049,28 @@
         <v>0.7</v>
       </c>
       <c r="D81" s="191">
-        <f>C81/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>7.0351758793969852E-3</v>
       </c>
-      <c r="E81" s="224"/>
+      <c r="E81" s="253"/>
       <c r="F81" s="183"/>
-      <c r="G81" s="224"/>
+      <c r="G81" s="253"/>
       <c r="H81" s="183">
         <v>3</v>
       </c>
-      <c r="I81" s="224"/>
+      <c r="I81" s="253"/>
       <c r="J81" s="183">
         <v>0</v>
       </c>
-      <c r="K81" s="227"/>
+      <c r="K81" s="254"/>
       <c r="L81" s="183">
         <v>0.9</v>
       </c>
-      <c r="M81" s="227"/>
+      <c r="M81" s="254"/>
       <c r="N81" s="182">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O81" s="267"/>
+      <c r="O81" s="260"/>
       <c r="P81" s="189">
         <v>0</v>
       </c>
@@ -30076,29 +30078,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z81" s="224"/>
+      <c r="Z81" s="253"/>
       <c r="AA81" s="183">
         <v>0.9</v>
       </c>
-      <c r="AB81" s="224"/>
+      <c r="AB81" s="253"/>
       <c r="AC81" s="189">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD81" s="224"/>
+      <c r="AD81" s="253"/>
       <c r="AE81" s="188">
         <f>75/8977*100</f>
         <v>0.83546841929375071</v>
       </c>
-      <c r="AF81" s="224"/>
-      <c r="AI81" s="250">
+      <c r="AF81" s="253"/>
+      <c r="AI81" s="227">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ81" s="266"/>
-      <c r="AL81" s="266"/>
+      <c r="AJ81" s="262"/>
+      <c r="AL81" s="262"/>
     </row>
     <row r="82" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="224"/>
+      <c r="A82" s="253"/>
       <c r="B82" s="183">
         <v>59</v>
       </c>
@@ -30106,19 +30108,19 @@
         <v>0.5</v>
       </c>
       <c r="D82" s="191">
-        <f>C82/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E82" s="224"/>
+      <c r="E82" s="253"/>
       <c r="F82" s="183"/>
-      <c r="G82" s="224"/>
+      <c r="G82" s="253"/>
       <c r="H82" s="183">
         <v>3</v>
       </c>
-      <c r="I82" s="224"/>
-      <c r="K82" s="227"/>
-      <c r="M82" s="227"/>
-      <c r="O82" s="267"/>
+      <c r="I82" s="253"/>
+      <c r="K82" s="254"/>
+      <c r="M82" s="254"/>
+      <c r="O82" s="260"/>
       <c r="P82" s="188">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -30126,29 +30128,29 @@
       <c r="R82" s="189">
         <v>0</v>
       </c>
-      <c r="Z82" s="224"/>
+      <c r="Z82" s="253"/>
       <c r="AA82" s="183">
         <v>1.3</v>
       </c>
-      <c r="AB82" s="224"/>
+      <c r="AB82" s="253"/>
       <c r="AC82" s="188">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD82" s="224"/>
+      <c r="AD82" s="253"/>
       <c r="AE82" s="188">
         <f>95/8977*100</f>
         <v>1.0582599977720841</v>
       </c>
-      <c r="AF82" s="224"/>
-      <c r="AI82" s="250">
+      <c r="AF82" s="253"/>
+      <c r="AI82" s="227">
         <v>1.4E-2</v>
       </c>
-      <c r="AJ82" s="266"/>
-      <c r="AL82" s="266"/>
+      <c r="AJ82" s="262"/>
+      <c r="AL82" s="262"/>
     </row>
     <row r="83" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="224"/>
+      <c r="A83" s="253"/>
       <c r="B83" s="183">
         <v>66</v>
       </c>
@@ -30156,38 +30158,38 @@
         <v>0.5</v>
       </c>
       <c r="D83" s="191">
-        <f>C83/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E83" s="224"/>
+      <c r="E83" s="253"/>
       <c r="F83" s="183"/>
-      <c r="G83" s="224"/>
-      <c r="I83" s="224"/>
-      <c r="K83" s="227"/>
-      <c r="M83" s="227"/>
-      <c r="O83" s="267"/>
+      <c r="G83" s="253"/>
+      <c r="I83" s="253"/>
+      <c r="K83" s="254"/>
+      <c r="M83" s="254"/>
+      <c r="O83" s="260"/>
       <c r="P83" s="188"/>
       <c r="R83" s="188"/>
-      <c r="Z83" s="224"/>
-      <c r="AB83" s="224"/>
+      <c r="Z83" s="253"/>
+      <c r="AB83" s="253"/>
       <c r="AC83" s="188">
         <f>2/544*100</f>
         <v>0.36764705882352938</v>
       </c>
-      <c r="AD83" s="224"/>
+      <c r="AD83" s="253"/>
       <c r="AE83" s="188">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF83" s="224"/>
-      <c r="AI83" s="250">
+      <c r="AF83" s="253"/>
+      <c r="AI83" s="227">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ83" s="266"/>
-      <c r="AL83" s="266"/>
+      <c r="AJ83" s="262"/>
+      <c r="AL83" s="262"/>
     </row>
     <row r="84" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="224"/>
+      <c r="A84" s="253"/>
       <c r="B84" s="183">
         <v>68</v>
       </c>
@@ -30195,21 +30197,21 @@
         <v>1</v>
       </c>
       <c r="D84" s="191">
-        <f>C84/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E84" s="224"/>
+      <c r="E84" s="253"/>
       <c r="F84" s="183">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G84" s="224"/>
+      <c r="G84" s="253"/>
       <c r="H84" s="183">
         <v>3.1</v>
       </c>
-      <c r="I84" s="224"/>
-      <c r="K84" s="227"/>
-      <c r="M84" s="227"/>
-      <c r="O84" s="267"/>
+      <c r="I84" s="253"/>
+      <c r="K84" s="254"/>
+      <c r="M84" s="254"/>
+      <c r="O84" s="260"/>
       <c r="P84" s="189">
         <v>0</v>
       </c>
@@ -30217,32 +30219,32 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z84" s="224"/>
+      <c r="Z84" s="253"/>
       <c r="AA84" s="183">
         <v>0.6</v>
       </c>
-      <c r="AB84" s="224"/>
+      <c r="AB84" s="253"/>
       <c r="AC84" s="188">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD84" s="224"/>
+      <c r="AD84" s="253"/>
       <c r="AE84" s="188">
         <f>59/8977*100</f>
         <v>0.65723515651108388</v>
       </c>
-      <c r="AF84" s="224"/>
-      <c r="AI84" s="250">
+      <c r="AF84" s="253"/>
+      <c r="AI84" s="227">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ84" s="266"/>
-      <c r="AK84" s="250">
+      <c r="AJ84" s="262"/>
+      <c r="AK84" s="227">
         <v>0.02</v>
       </c>
-      <c r="AL84" s="266"/>
+      <c r="AL84" s="262"/>
     </row>
     <row r="85" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="224"/>
+      <c r="A85" s="253"/>
       <c r="B85" s="183">
         <v>69</v>
       </c>
@@ -30250,41 +30252,41 @@
         <v>1.5</v>
       </c>
       <c r="D85" s="191">
-        <f>C85/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>1.5075376884422113E-2</v>
       </c>
-      <c r="E85" s="224"/>
+      <c r="E85" s="253"/>
       <c r="F85" s="183"/>
-      <c r="G85" s="224"/>
-      <c r="I85" s="224"/>
+      <c r="G85" s="253"/>
+      <c r="I85" s="253"/>
       <c r="J85" s="183">
         <v>0</v>
       </c>
-      <c r="K85" s="227"/>
+      <c r="K85" s="254"/>
       <c r="L85" s="183">
         <v>0.9</v>
       </c>
-      <c r="M85" s="227"/>
-      <c r="O85" s="267"/>
+      <c r="M85" s="254"/>
+      <c r="O85" s="260"/>
       <c r="P85" s="188"/>
       <c r="R85" s="188"/>
-      <c r="Z85" s="224"/>
-      <c r="AB85" s="224"/>
+      <c r="Z85" s="253"/>
+      <c r="AB85" s="253"/>
       <c r="AC85" s="188">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD85" s="224"/>
+      <c r="AD85" s="253"/>
       <c r="AE85" s="188">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF85" s="224"/>
-      <c r="AJ85" s="266"/>
-      <c r="AL85" s="266"/>
+      <c r="AF85" s="253"/>
+      <c r="AJ85" s="262"/>
+      <c r="AL85" s="262"/>
     </row>
     <row r="86" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="224"/>
+      <c r="A86" s="253"/>
       <c r="B86" s="183">
         <v>70</v>
       </c>
@@ -30292,41 +30294,41 @@
         <v>0.8</v>
       </c>
       <c r="D86" s="191">
-        <f>C86/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>8.0402010050251264E-3</v>
       </c>
-      <c r="E86" s="224"/>
+      <c r="E86" s="253"/>
       <c r="F86" s="183"/>
-      <c r="G86" s="224"/>
-      <c r="I86" s="224"/>
+      <c r="G86" s="253"/>
+      <c r="I86" s="253"/>
       <c r="J86" s="183">
         <v>0</v>
       </c>
-      <c r="K86" s="227"/>
+      <c r="K86" s="254"/>
       <c r="L86" s="183">
         <v>0.9</v>
       </c>
-      <c r="M86" s="227"/>
-      <c r="O86" s="267"/>
+      <c r="M86" s="254"/>
+      <c r="O86" s="260"/>
       <c r="P86" s="188"/>
       <c r="R86" s="188"/>
-      <c r="Z86" s="224"/>
-      <c r="AB86" s="224"/>
+      <c r="Z86" s="253"/>
+      <c r="AB86" s="253"/>
       <c r="AC86" s="188"/>
-      <c r="AD86" s="224"/>
+      <c r="AD86" s="253"/>
       <c r="AE86" s="188">
         <f>9/8977*100</f>
         <v>0.10025621031525009</v>
       </c>
-      <c r="AF86" s="224"/>
-      <c r="AI86" s="250">
+      <c r="AF86" s="253"/>
+      <c r="AI86" s="227">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ86" s="266"/>
-      <c r="AL86" s="266"/>
+      <c r="AJ86" s="262"/>
+      <c r="AL86" s="262"/>
     </row>
     <row r="87" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="224"/>
+      <c r="A87" s="253"/>
       <c r="B87" s="183">
         <v>73</v>
       </c>
@@ -30334,27 +30336,27 @@
         <v>0.5</v>
       </c>
       <c r="D87" s="191">
-        <f>C87/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E87" s="224"/>
+      <c r="E87" s="253"/>
       <c r="F87" s="183">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G87" s="224"/>
-      <c r="I87" s="224"/>
+      <c r="G87" s="253"/>
+      <c r="I87" s="253"/>
       <c r="J87" s="183">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K87" s="227"/>
+      <c r="K87" s="254"/>
       <c r="L87" s="183">
         <v>0</v>
       </c>
-      <c r="M87" s="227"/>
+      <c r="M87" s="254"/>
       <c r="N87" s="182">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O87" s="267"/>
+      <c r="O87" s="260"/>
       <c r="P87" s="188">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -30363,26 +30365,26 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z87" s="224"/>
-      <c r="AB87" s="224"/>
+      <c r="Z87" s="253"/>
+      <c r="AB87" s="253"/>
       <c r="AC87" s="188">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD87" s="224"/>
+      <c r="AD87" s="253"/>
       <c r="AE87" s="188">
         <f>43/8977*100</f>
         <v>0.47900189372841706</v>
       </c>
-      <c r="AF87" s="224"/>
-      <c r="AI87" s="250">
+      <c r="AF87" s="253"/>
+      <c r="AI87" s="227">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ87" s="266"/>
-      <c r="AL87" s="266"/>
+      <c r="AJ87" s="262"/>
+      <c r="AL87" s="262"/>
     </row>
     <row r="88" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="224"/>
+      <c r="A88" s="253"/>
       <c r="B88" s="183">
         <v>82</v>
       </c>
@@ -30390,22 +30392,22 @@
         <v>1</v>
       </c>
       <c r="D88" s="191">
-        <f>C88/(SUM(C$69:C$88))</f>
+        <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E88" s="224"/>
+      <c r="E88" s="253"/>
       <c r="F88" s="183"/>
-      <c r="G88" s="224"/>
-      <c r="I88" s="224"/>
+      <c r="G88" s="253"/>
+      <c r="I88" s="253"/>
       <c r="J88" s="183">
         <v>0</v>
       </c>
-      <c r="K88" s="227"/>
+      <c r="K88" s="254"/>
       <c r="L88" s="183">
         <v>0</v>
       </c>
-      <c r="M88" s="227"/>
-      <c r="O88" s="267"/>
+      <c r="M88" s="254"/>
+      <c r="O88" s="260"/>
       <c r="P88" s="188">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -30414,20 +30416,20 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z88" s="224"/>
-      <c r="AB88" s="224"/>
+      <c r="Z88" s="253"/>
+      <c r="AB88" s="253"/>
       <c r="AC88" s="188"/>
-      <c r="AD88" s="224"/>
+      <c r="AD88" s="253"/>
       <c r="AE88" s="188">
         <f>6/8977*100</f>
         <v>6.6837473543500059E-2</v>
       </c>
-      <c r="AF88" s="224"/>
-      <c r="AJ88" s="266"/>
-      <c r="AL88" s="266"/>
+      <c r="AF88" s="253"/>
+      <c r="AJ88" s="262"/>
+      <c r="AL88" s="262"/>
     </row>
     <row r="89" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="224"/>
+      <c r="A89" s="253"/>
       <c r="B89" s="183" t="s">
         <v>326</v>
       </c>
@@ -30438,24 +30440,24 @@
         <f>0.011 + 0.006 + 0.006 + 0.006</f>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="G89" s="224"/>
-      <c r="I89" s="224"/>
-      <c r="K89" s="227"/>
-      <c r="M89" s="227"/>
-      <c r="O89" s="267"/>
+      <c r="G89" s="253"/>
+      <c r="I89" s="253"/>
+      <c r="K89" s="254"/>
+      <c r="M89" s="254"/>
+      <c r="O89" s="260"/>
       <c r="P89" s="188"/>
       <c r="R89" s="188"/>
-      <c r="Z89" s="224"/>
-      <c r="AB89" s="224"/>
+      <c r="Z89" s="253"/>
+      <c r="AB89" s="253"/>
       <c r="AC89" s="188"/>
-      <c r="AD89" s="224"/>
+      <c r="AD89" s="253"/>
       <c r="AE89" s="188"/>
-      <c r="AF89" s="224"/>
-      <c r="AI89" s="250">
+      <c r="AF89" s="253"/>
+      <c r="AI89" s="227">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ89" s="266"/>
-      <c r="AL89" s="266"/>
+      <c r="AJ89" s="262"/>
+      <c r="AL89" s="262"/>
     </row>
     <row r="90" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="183"/>
@@ -30468,7 +30470,7 @@
       <c r="F90" s="183"/>
       <c r="G90" s="183"/>
       <c r="H90" s="183"/>
-      <c r="I90" s="224"/>
+      <c r="I90" s="253"/>
       <c r="J90" s="188">
         <f>1/46*100</f>
         <v>2.1739130434782608</v>
@@ -30477,7 +30479,7 @@
         <f>2/106*100</f>
         <v>1.8867924528301887</v>
       </c>
-      <c r="O90" s="267"/>
+      <c r="O90" s="260"/>
       <c r="P90" s="189">
         <f>32/77*100</f>
         <v>41.558441558441558</v>
@@ -30487,65 +30489,65 @@
         <v>23.376623376623375</v>
       </c>
       <c r="S90" s="183"/>
-      <c r="Z90" s="224"/>
-      <c r="AB90" s="224"/>
+      <c r="Z90" s="253"/>
+      <c r="AB90" s="253"/>
       <c r="AC90" s="188">
         <f>15/544*100</f>
         <v>2.7573529411764706</v>
       </c>
-      <c r="AD90" s="224"/>
+      <c r="AD90" s="253"/>
       <c r="AE90" s="188">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF90" s="224"/>
-      <c r="AJ90" s="266"/>
-      <c r="AL90" s="266"/>
-    </row>
-    <row r="91" spans="1:38" s="247" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="264" t="s">
+      <c r="AF90" s="253"/>
+      <c r="AJ90" s="262"/>
+      <c r="AL90" s="262"/>
+    </row>
+    <row r="91" spans="1:38" s="225" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="236" t="s">
         <v>328</v>
       </c>
-      <c r="B91" s="264"/>
-      <c r="C91" s="264"/>
-      <c r="D91" s="264"/>
-      <c r="E91" s="264"/>
-      <c r="F91" s="264"/>
-      <c r="G91" s="264"/>
-      <c r="H91" s="264"/>
-      <c r="I91" s="264"/>
-      <c r="J91" s="264"/>
-      <c r="K91" s="264"/>
-      <c r="L91" s="264"/>
-      <c r="M91" s="264"/>
-      <c r="N91" s="264"/>
-      <c r="O91" s="264"/>
-      <c r="P91" s="264"/>
-      <c r="Q91" s="264"/>
-      <c r="R91" s="264"/>
-      <c r="S91" s="264"/>
-      <c r="T91" s="263"/>
-      <c r="U91" s="263"/>
-      <c r="V91" s="263"/>
-      <c r="W91" s="263"/>
-      <c r="X91" s="263"/>
-      <c r="Y91" s="263"/>
-      <c r="Z91" s="263"/>
-      <c r="AA91" s="263"/>
-      <c r="AB91" s="263"/>
-      <c r="AC91" s="263"/>
-      <c r="AD91" s="263"/>
-      <c r="AE91" s="263"/>
-      <c r="AF91" s="263"/>
-      <c r="AG91" s="263"/>
-      <c r="AH91" s="263"/>
-      <c r="AI91" s="262"/>
-      <c r="AJ91" s="262"/>
-      <c r="AK91" s="262"/>
-      <c r="AL91" s="262"/>
+      <c r="B91" s="236"/>
+      <c r="C91" s="236"/>
+      <c r="D91" s="236"/>
+      <c r="E91" s="236"/>
+      <c r="F91" s="236"/>
+      <c r="G91" s="236"/>
+      <c r="H91" s="236"/>
+      <c r="I91" s="236"/>
+      <c r="J91" s="236"/>
+      <c r="K91" s="236"/>
+      <c r="L91" s="236"/>
+      <c r="M91" s="236"/>
+      <c r="N91" s="236"/>
+      <c r="O91" s="236"/>
+      <c r="P91" s="236"/>
+      <c r="Q91" s="236"/>
+      <c r="R91" s="236"/>
+      <c r="S91" s="236"/>
+      <c r="T91" s="235"/>
+      <c r="U91" s="235"/>
+      <c r="V91" s="235"/>
+      <c r="W91" s="235"/>
+      <c r="X91" s="235"/>
+      <c r="Y91" s="235"/>
+      <c r="Z91" s="235"/>
+      <c r="AA91" s="235"/>
+      <c r="AB91" s="235"/>
+      <c r="AC91" s="235"/>
+      <c r="AD91" s="235"/>
+      <c r="AE91" s="235"/>
+      <c r="AF91" s="235"/>
+      <c r="AG91" s="235"/>
+      <c r="AH91" s="235"/>
+      <c r="AI91" s="234"/>
+      <c r="AJ91" s="234"/>
+      <c r="AK91" s="234"/>
+      <c r="AL91" s="234"/>
     </row>
     <row r="92" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="226" t="s">
+      <c r="A92" s="273" t="s">
         <v>323</v>
       </c>
       <c r="B92" s="183">
@@ -30567,7 +30569,7 @@
       </c>
     </row>
     <row r="93" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="224"/>
+      <c r="A93" s="253"/>
       <c r="B93" s="183">
         <v>18</v>
       </c>
@@ -30587,281 +30589,281 @@
       </c>
     </row>
     <row r="94" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="224"/>
+      <c r="A94" s="253"/>
       <c r="B94" s="183">
         <v>31</v>
       </c>
       <c r="H94" s="183">
         <v>6.8</v>
       </c>
-      <c r="I94" s="223">
+      <c r="I94" s="255">
         <f>(SUM(H94:H98)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.3216134598792062</v>
       </c>
       <c r="AA94" s="183">
         <v>11.8</v>
       </c>
-      <c r="AB94" s="225">
+      <c r="AB94" s="252">
         <f>SUM(AA94:AA98)/100</f>
         <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="224"/>
+      <c r="A95" s="253"/>
       <c r="B95" s="183">
         <v>33</v>
       </c>
       <c r="H95" s="183">
         <v>8.9</v>
       </c>
-      <c r="I95" s="224"/>
+      <c r="I95" s="253"/>
       <c r="AA95" s="183">
         <v>6.1</v>
       </c>
-      <c r="AB95" s="224"/>
+      <c r="AB95" s="253"/>
     </row>
     <row r="96" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="224"/>
+      <c r="A96" s="253"/>
       <c r="B96" s="183">
         <v>45</v>
       </c>
       <c r="H96" s="183">
         <v>9.9</v>
       </c>
-      <c r="I96" s="224"/>
+      <c r="I96" s="253"/>
       <c r="AA96" s="183">
         <v>4.2</v>
       </c>
-      <c r="AB96" s="224"/>
+      <c r="AB96" s="253"/>
     </row>
     <row r="97" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="224"/>
+      <c r="A97" s="253"/>
       <c r="B97" s="183">
         <v>52</v>
       </c>
       <c r="H97" s="183">
         <v>12.8</v>
       </c>
-      <c r="I97" s="224"/>
+      <c r="I97" s="253"/>
       <c r="AA97" s="183">
         <v>13.8</v>
       </c>
-      <c r="AB97" s="224"/>
+      <c r="AB97" s="253"/>
     </row>
     <row r="98" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="224"/>
+      <c r="A98" s="253"/>
       <c r="B98" s="183">
         <v>58</v>
       </c>
       <c r="H98" s="183">
         <v>14.1</v>
       </c>
-      <c r="I98" s="224"/>
+      <c r="I98" s="253"/>
       <c r="AA98" s="183">
         <v>7.9</v>
       </c>
-      <c r="AB98" s="224"/>
+      <c r="AB98" s="253"/>
     </row>
     <row r="99" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="226" t="s">
+      <c r="A99" s="273" t="s">
         <v>321</v>
       </c>
       <c r="B99" s="183">
         <v>26</v>
       </c>
-      <c r="I99" s="223">
+      <c r="I99" s="255">
         <f>(SUM(H99:H112)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.38838654012079366</v>
       </c>
-      <c r="AB99" s="225">
+      <c r="AB99" s="252">
         <f>1-SUM(AB92:AB98)</f>
         <v>0.19600000000000006</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="224"/>
+      <c r="A100" s="253"/>
       <c r="B100" s="183">
         <v>35</v>
       </c>
       <c r="H100" s="183">
         <v>16.2</v>
       </c>
-      <c r="I100" s="224"/>
+      <c r="I100" s="253"/>
       <c r="AA100" s="183">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB100" s="224"/>
+      <c r="AB100" s="253"/>
     </row>
     <row r="101" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="224"/>
+      <c r="A101" s="253"/>
       <c r="B101" s="183">
         <v>39</v>
       </c>
       <c r="H101" s="183">
         <v>6.7</v>
       </c>
-      <c r="I101" s="224"/>
+      <c r="I101" s="253"/>
       <c r="AA101" s="183">
         <v>6.8</v>
       </c>
-      <c r="AB101" s="224"/>
+      <c r="AB101" s="253"/>
     </row>
     <row r="102" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="224"/>
+      <c r="A102" s="253"/>
       <c r="B102" s="183">
         <v>51</v>
       </c>
       <c r="H102" s="183">
         <v>13.4</v>
       </c>
-      <c r="I102" s="224"/>
+      <c r="I102" s="253"/>
       <c r="AA102" s="183">
         <v>10.8</v>
       </c>
-      <c r="AB102" s="224"/>
+      <c r="AB102" s="253"/>
     </row>
     <row r="103" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="224"/>
+      <c r="A103" s="253"/>
       <c r="B103" s="183">
         <v>53</v>
       </c>
-      <c r="I103" s="224"/>
-      <c r="AB103" s="224"/>
+      <c r="I103" s="253"/>
+      <c r="AB103" s="253"/>
     </row>
     <row r="104" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="224"/>
+      <c r="A104" s="253"/>
       <c r="B104" s="183">
         <v>56</v>
       </c>
       <c r="H104" s="183">
         <v>10.7</v>
       </c>
-      <c r="I104" s="224"/>
+      <c r="I104" s="253"/>
       <c r="AA104" s="183">
         <v>7.7</v>
       </c>
-      <c r="AB104" s="224"/>
+      <c r="AB104" s="253"/>
     </row>
     <row r="105" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="224"/>
+      <c r="A105" s="253"/>
       <c r="B105" s="183">
         <v>59</v>
       </c>
       <c r="H105" s="183">
         <v>6.5</v>
       </c>
-      <c r="I105" s="224"/>
+      <c r="I105" s="253"/>
       <c r="AA105" s="183">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB105" s="224"/>
+      <c r="AB105" s="253"/>
     </row>
     <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="224"/>
+      <c r="A106" s="253"/>
       <c r="B106" s="183">
         <v>66</v>
       </c>
-      <c r="I106" s="224"/>
-      <c r="AB106" s="224"/>
+      <c r="I106" s="253"/>
+      <c r="AB106" s="253"/>
     </row>
     <row r="107" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="224"/>
+      <c r="A107" s="253"/>
       <c r="B107" s="183">
         <v>68</v>
       </c>
       <c r="H107" s="183">
         <v>9.9</v>
       </c>
-      <c r="I107" s="224"/>
+      <c r="I107" s="253"/>
       <c r="AA107" s="183">
         <v>3.3</v>
       </c>
-      <c r="AB107" s="224"/>
+      <c r="AB107" s="253"/>
     </row>
     <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="224"/>
+      <c r="A108" s="253"/>
       <c r="B108" s="183">
         <v>69</v>
       </c>
-      <c r="I108" s="224"/>
-      <c r="AB108" s="224"/>
+      <c r="I108" s="253"/>
+      <c r="AB108" s="253"/>
     </row>
     <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="224"/>
+      <c r="A109" s="253"/>
       <c r="B109" s="183">
         <v>70</v>
       </c>
-      <c r="I109" s="224"/>
-      <c r="AB109" s="224"/>
+      <c r="I109" s="253"/>
+      <c r="AB109" s="253"/>
     </row>
     <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="224"/>
+      <c r="A110" s="253"/>
       <c r="B110" s="183">
         <v>73</v>
       </c>
-      <c r="I110" s="224"/>
-      <c r="AB110" s="224"/>
+      <c r="I110" s="253"/>
+      <c r="AB110" s="253"/>
     </row>
     <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="224"/>
+      <c r="A111" s="253"/>
       <c r="B111" s="183">
         <v>82</v>
       </c>
-      <c r="I111" s="224"/>
-      <c r="AB111" s="224"/>
+      <c r="I111" s="253"/>
+      <c r="AB111" s="253"/>
     </row>
     <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="224"/>
+      <c r="A112" s="253"/>
       <c r="B112" s="183" t="s">
         <v>326</v>
       </c>
-      <c r="I112" s="224"/>
-      <c r="AB112" s="224"/>
-    </row>
-    <row r="113" spans="1:38" s="247" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="264" t="s">
+      <c r="I112" s="253"/>
+      <c r="AB112" s="253"/>
+    </row>
+    <row r="113" spans="1:38" s="225" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="B113" s="263"/>
-      <c r="C113" s="263"/>
-      <c r="D113" s="263"/>
-      <c r="E113" s="263"/>
-      <c r="F113" s="263"/>
-      <c r="G113" s="263"/>
-      <c r="H113" s="263"/>
-      <c r="I113" s="263"/>
-      <c r="J113" s="263"/>
-      <c r="K113" s="263"/>
-      <c r="L113" s="263"/>
-      <c r="M113" s="263"/>
-      <c r="N113" s="263"/>
-      <c r="O113" s="263"/>
-      <c r="P113" s="263"/>
-      <c r="Q113" s="263"/>
-      <c r="R113" s="263"/>
-      <c r="S113" s="263"/>
-      <c r="T113" s="263"/>
-      <c r="U113" s="263"/>
-      <c r="V113" s="263"/>
-      <c r="W113" s="263"/>
-      <c r="X113" s="263"/>
-      <c r="Y113" s="263"/>
-      <c r="Z113" s="263"/>
-      <c r="AA113" s="263"/>
-      <c r="AB113" s="265"/>
-      <c r="AC113" s="263"/>
-      <c r="AD113" s="263"/>
-      <c r="AE113" s="263"/>
-      <c r="AF113" s="263"/>
-      <c r="AG113" s="263"/>
-      <c r="AH113" s="263"/>
-      <c r="AI113" s="262"/>
-      <c r="AJ113" s="262"/>
-      <c r="AK113" s="262"/>
-      <c r="AL113" s="262"/>
+      <c r="B113" s="235"/>
+      <c r="C113" s="235"/>
+      <c r="D113" s="235"/>
+      <c r="E113" s="235"/>
+      <c r="F113" s="235"/>
+      <c r="G113" s="235"/>
+      <c r="H113" s="235"/>
+      <c r="I113" s="235"/>
+      <c r="J113" s="235"/>
+      <c r="K113" s="235"/>
+      <c r="L113" s="235"/>
+      <c r="M113" s="235"/>
+      <c r="N113" s="235"/>
+      <c r="O113" s="235"/>
+      <c r="P113" s="235"/>
+      <c r="Q113" s="235"/>
+      <c r="R113" s="235"/>
+      <c r="S113" s="235"/>
+      <c r="T113" s="235"/>
+      <c r="U113" s="235"/>
+      <c r="V113" s="235"/>
+      <c r="W113" s="235"/>
+      <c r="X113" s="235"/>
+      <c r="Y113" s="235"/>
+      <c r="Z113" s="235"/>
+      <c r="AA113" s="235"/>
+      <c r="AB113" s="237"/>
+      <c r="AC113" s="235"/>
+      <c r="AD113" s="235"/>
+      <c r="AE113" s="235"/>
+      <c r="AF113" s="235"/>
+      <c r="AG113" s="235"/>
+      <c r="AH113" s="235"/>
+      <c r="AI113" s="234"/>
+      <c r="AJ113" s="234"/>
+      <c r="AK113" s="234"/>
+      <c r="AL113" s="234"/>
     </row>
     <row r="114" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="226" t="s">
+      <c r="A114" s="273" t="s">
         <v>323</v>
       </c>
       <c r="B114" s="183">
@@ -30883,7 +30885,7 @@
       </c>
     </row>
     <row r="115" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="224"/>
+      <c r="A115" s="253"/>
       <c r="B115" s="183">
         <v>18</v>
       </c>
@@ -30903,281 +30905,281 @@
       </c>
     </row>
     <row r="116" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="224"/>
+      <c r="A116" s="253"/>
       <c r="B116" s="183">
         <v>31</v>
       </c>
       <c r="H116" s="183">
         <v>16.100000000000001</v>
       </c>
-      <c r="I116" s="225">
+      <c r="I116" s="252">
         <f>(SUM(H116:H120)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.32012755102040802</v>
       </c>
       <c r="AA116" s="183">
         <v>11.6</v>
       </c>
-      <c r="AB116" s="225">
+      <c r="AB116" s="252">
         <f>SUM(AA116:AA120)/100</f>
         <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="224"/>
+      <c r="A117" s="253"/>
       <c r="B117" s="183">
         <v>33</v>
       </c>
       <c r="H117" s="183">
         <v>12</v>
       </c>
-      <c r="I117" s="224"/>
+      <c r="I117" s="253"/>
       <c r="AA117" s="183">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB117" s="224"/>
+      <c r="AB117" s="253"/>
     </row>
     <row r="118" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="224"/>
+      <c r="A118" s="253"/>
       <c r="B118" s="183">
         <v>45</v>
       </c>
       <c r="H118" s="183">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I118" s="224"/>
+      <c r="I118" s="253"/>
       <c r="AA118" s="183">
         <v>5</v>
       </c>
-      <c r="AB118" s="224"/>
+      <c r="AB118" s="253"/>
     </row>
     <row r="119" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="224"/>
+      <c r="A119" s="253"/>
       <c r="B119" s="183">
         <v>52</v>
       </c>
       <c r="H119" s="183">
         <v>10.6</v>
       </c>
-      <c r="I119" s="224"/>
+      <c r="I119" s="253"/>
       <c r="AA119" s="183">
         <v>16.399999999999999</v>
       </c>
-      <c r="AB119" s="224"/>
+      <c r="AB119" s="253"/>
     </row>
     <row r="120" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="224"/>
+      <c r="A120" s="253"/>
       <c r="B120" s="183">
         <v>58</v>
       </c>
       <c r="H120" s="183">
         <v>22.1</v>
       </c>
-      <c r="I120" s="224"/>
+      <c r="I120" s="253"/>
       <c r="AA120" s="183">
         <v>12.1</v>
       </c>
-      <c r="AB120" s="224"/>
+      <c r="AB120" s="253"/>
     </row>
     <row r="121" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="226" t="s">
+      <c r="A121" s="273" t="s">
         <v>321</v>
       </c>
       <c r="B121" s="183">
         <v>26</v>
       </c>
-      <c r="I121" s="223">
+      <c r="I121" s="255">
         <f>(SUM(H121:H134)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.3028724489795917</v>
       </c>
-      <c r="AB121" s="225">
+      <c r="AB121" s="252">
         <f>1-SUM(AB114:AB120)</f>
         <v>-3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="122" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="224"/>
+      <c r="A122" s="253"/>
       <c r="B122" s="183">
         <v>35</v>
       </c>
       <c r="H122" s="183">
         <v>23.9</v>
       </c>
-      <c r="I122" s="224"/>
+      <c r="I122" s="253"/>
       <c r="AA122" s="183">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB122" s="224"/>
+      <c r="AB122" s="253"/>
     </row>
     <row r="123" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="224"/>
+      <c r="A123" s="253"/>
       <c r="B123" s="183">
         <v>39</v>
       </c>
       <c r="H123" s="183">
         <v>5.4</v>
       </c>
-      <c r="I123" s="224"/>
+      <c r="I123" s="253"/>
       <c r="AA123" s="183">
         <v>5.4</v>
       </c>
-      <c r="AB123" s="224"/>
+      <c r="AB123" s="253"/>
     </row>
     <row r="124" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="224"/>
+      <c r="A124" s="253"/>
       <c r="B124" s="183">
         <v>51</v>
       </c>
       <c r="H124" s="183">
         <v>12.9</v>
       </c>
-      <c r="I124" s="224"/>
+      <c r="I124" s="253"/>
       <c r="AA124" s="183">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB124" s="224"/>
+      <c r="AB124" s="253"/>
     </row>
     <row r="125" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="224"/>
+      <c r="A125" s="253"/>
       <c r="B125" s="183">
         <v>53</v>
       </c>
-      <c r="I125" s="224"/>
-      <c r="AB125" s="224"/>
+      <c r="I125" s="253"/>
+      <c r="AB125" s="253"/>
     </row>
     <row r="126" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="224"/>
+      <c r="A126" s="253"/>
       <c r="B126" s="183">
         <v>56</v>
       </c>
       <c r="H126" s="183">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I126" s="224"/>
+      <c r="I126" s="253"/>
       <c r="AA126" s="183">
         <v>4.3</v>
       </c>
-      <c r="AB126" s="224"/>
+      <c r="AB126" s="253"/>
     </row>
     <row r="127" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="224"/>
+      <c r="A127" s="253"/>
       <c r="B127" s="183">
         <v>59</v>
       </c>
       <c r="H127" s="183">
         <v>6.5</v>
       </c>
-      <c r="I127" s="224"/>
+      <c r="I127" s="253"/>
       <c r="AA127" s="183">
         <v>4.7</v>
       </c>
-      <c r="AB127" s="224"/>
+      <c r="AB127" s="253"/>
     </row>
     <row r="128" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="224"/>
+      <c r="A128" s="253"/>
       <c r="B128" s="183">
         <v>66</v>
       </c>
-      <c r="I128" s="224"/>
-      <c r="AB128" s="224"/>
+      <c r="I128" s="253"/>
+      <c r="AB128" s="253"/>
     </row>
     <row r="129" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="224"/>
+      <c r="A129" s="253"/>
       <c r="B129" s="183">
         <v>68</v>
       </c>
       <c r="H129" s="183">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I129" s="224"/>
+      <c r="I129" s="253"/>
       <c r="AA129" s="183">
         <v>2.9</v>
       </c>
-      <c r="AB129" s="224"/>
+      <c r="AB129" s="253"/>
     </row>
     <row r="130" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="224"/>
+      <c r="A130" s="253"/>
       <c r="B130" s="183">
         <v>69</v>
       </c>
-      <c r="I130" s="224"/>
-      <c r="AB130" s="224"/>
+      <c r="I130" s="253"/>
+      <c r="AB130" s="253"/>
     </row>
     <row r="131" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="224"/>
+      <c r="A131" s="253"/>
       <c r="B131" s="183">
         <v>70</v>
       </c>
-      <c r="I131" s="224"/>
-      <c r="AB131" s="224"/>
+      <c r="I131" s="253"/>
+      <c r="AB131" s="253"/>
     </row>
     <row r="132" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="224"/>
+      <c r="A132" s="253"/>
       <c r="B132" s="183">
         <v>73</v>
       </c>
-      <c r="I132" s="224"/>
-      <c r="AB132" s="224"/>
+      <c r="I132" s="253"/>
+      <c r="AB132" s="253"/>
     </row>
     <row r="133" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="224"/>
+      <c r="A133" s="253"/>
       <c r="B133" s="183">
         <v>82</v>
       </c>
-      <c r="I133" s="224"/>
-      <c r="AB133" s="224"/>
+      <c r="I133" s="253"/>
+      <c r="AB133" s="253"/>
     </row>
     <row r="134" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="224"/>
+      <c r="A134" s="253"/>
       <c r="B134" s="183" t="s">
         <v>326</v>
       </c>
-      <c r="I134" s="224"/>
-      <c r="AB134" s="224"/>
-    </row>
-    <row r="135" spans="1:38" s="247" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="264" t="s">
+      <c r="I134" s="253"/>
+      <c r="AB134" s="253"/>
+    </row>
+    <row r="135" spans="1:38" s="225" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="236" t="s">
         <v>330</v>
       </c>
-      <c r="B135" s="263"/>
-      <c r="C135" s="263"/>
-      <c r="D135" s="263"/>
-      <c r="E135" s="263"/>
-      <c r="F135" s="263"/>
-      <c r="G135" s="263"/>
-      <c r="H135" s="263"/>
-      <c r="I135" s="263"/>
-      <c r="J135" s="263"/>
-      <c r="K135" s="263"/>
-      <c r="L135" s="263"/>
-      <c r="M135" s="263"/>
-      <c r="N135" s="263"/>
-      <c r="O135" s="263"/>
-      <c r="P135" s="263"/>
-      <c r="Q135" s="263"/>
-      <c r="R135" s="263"/>
-      <c r="S135" s="263"/>
-      <c r="T135" s="263"/>
-      <c r="U135" s="263"/>
-      <c r="V135" s="263"/>
-      <c r="W135" s="263"/>
-      <c r="X135" s="263"/>
-      <c r="Y135" s="263"/>
-      <c r="Z135" s="263"/>
-      <c r="AA135" s="263"/>
-      <c r="AB135" s="263"/>
-      <c r="AC135" s="263"/>
-      <c r="AD135" s="263"/>
-      <c r="AE135" s="263"/>
-      <c r="AF135" s="263"/>
-      <c r="AG135" s="263"/>
-      <c r="AH135" s="263"/>
-      <c r="AI135" s="262"/>
-      <c r="AJ135" s="262"/>
-      <c r="AK135" s="262"/>
-      <c r="AL135" s="262"/>
+      <c r="B135" s="235"/>
+      <c r="C135" s="235"/>
+      <c r="D135" s="235"/>
+      <c r="E135" s="235"/>
+      <c r="F135" s="235"/>
+      <c r="G135" s="235"/>
+      <c r="H135" s="235"/>
+      <c r="I135" s="235"/>
+      <c r="J135" s="235"/>
+      <c r="K135" s="235"/>
+      <c r="L135" s="235"/>
+      <c r="M135" s="235"/>
+      <c r="N135" s="235"/>
+      <c r="O135" s="235"/>
+      <c r="P135" s="235"/>
+      <c r="Q135" s="235"/>
+      <c r="R135" s="235"/>
+      <c r="S135" s="235"/>
+      <c r="T135" s="235"/>
+      <c r="U135" s="235"/>
+      <c r="V135" s="235"/>
+      <c r="W135" s="235"/>
+      <c r="X135" s="235"/>
+      <c r="Y135" s="235"/>
+      <c r="Z135" s="235"/>
+      <c r="AA135" s="235"/>
+      <c r="AB135" s="235"/>
+      <c r="AC135" s="235"/>
+      <c r="AD135" s="235"/>
+      <c r="AE135" s="235"/>
+      <c r="AF135" s="235"/>
+      <c r="AG135" s="235"/>
+      <c r="AH135" s="235"/>
+      <c r="AI135" s="234"/>
+      <c r="AJ135" s="234"/>
+      <c r="AK135" s="234"/>
+      <c r="AL135" s="234"/>
     </row>
     <row r="136" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="226" t="s">
+      <c r="A136" s="273" t="s">
         <v>323</v>
       </c>
       <c r="B136" s="183">
@@ -31199,7 +31201,7 @@
       </c>
     </row>
     <row r="137" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="224"/>
+      <c r="A137" s="253"/>
       <c r="B137" s="183">
         <v>18</v>
       </c>
@@ -31219,316 +31221,290 @@
       </c>
     </row>
     <row r="138" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="224"/>
+      <c r="A138" s="253"/>
       <c r="B138" s="183">
         <v>31</v>
       </c>
       <c r="H138" s="183">
         <v>10.6</v>
       </c>
-      <c r="I138" s="223">
+      <c r="I138" s="255">
         <f>(SUM(H138:H142)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.23775675675675673</v>
       </c>
       <c r="AA138" s="183">
         <v>11.7</v>
       </c>
-      <c r="AB138" s="225">
+      <c r="AB138" s="252">
         <f>SUM(AA138:AA142)/100</f>
         <v>0.43599999999999994</v>
       </c>
     </row>
     <row r="139" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="224"/>
+      <c r="A139" s="253"/>
       <c r="B139" s="183">
         <v>33</v>
       </c>
       <c r="H139" s="183">
         <v>13.8</v>
       </c>
-      <c r="I139" s="224"/>
+      <c r="I139" s="253"/>
       <c r="AA139" s="183">
         <v>9.1</v>
       </c>
-      <c r="AB139" s="224"/>
+      <c r="AB139" s="253"/>
     </row>
     <row r="140" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="224"/>
+      <c r="A140" s="253"/>
       <c r="B140" s="183">
         <v>45</v>
       </c>
       <c r="H140" s="183">
         <v>6.3</v>
       </c>
-      <c r="I140" s="224"/>
+      <c r="I140" s="253"/>
       <c r="AA140" s="183">
         <v>3.6</v>
       </c>
-      <c r="AB140" s="224"/>
+      <c r="AB140" s="253"/>
     </row>
     <row r="141" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="224"/>
+      <c r="A141" s="253"/>
       <c r="B141" s="183">
         <v>52</v>
       </c>
       <c r="H141" s="183">
         <v>11.3</v>
       </c>
-      <c r="I141" s="224"/>
+      <c r="I141" s="253"/>
       <c r="AA141" s="183">
         <v>10.199999999999999</v>
       </c>
-      <c r="AB141" s="224"/>
+      <c r="AB141" s="253"/>
     </row>
     <row r="142" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="224"/>
+      <c r="A142" s="253"/>
       <c r="B142" s="183">
         <v>58</v>
       </c>
       <c r="H142" s="183">
         <v>18.8</v>
       </c>
-      <c r="I142" s="224"/>
+      <c r="I142" s="253"/>
       <c r="AA142" s="183">
         <v>9</v>
       </c>
-      <c r="AB142" s="224"/>
+      <c r="AB142" s="253"/>
     </row>
     <row r="143" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="226" t="s">
+      <c r="A143" s="273" t="s">
         <v>321</v>
       </c>
       <c r="B143" s="183">
         <v>26</v>
       </c>
-      <c r="I143" s="223">
+      <c r="I143" s="255">
         <f>(SUM(H143:H156)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.22524324324324321</v>
       </c>
-      <c r="AB143" s="225">
+      <c r="AB143" s="252">
         <f>1-SUM(AB136:AB142)</f>
         <v>-9.2000000000000082E-2</v>
       </c>
     </row>
     <row r="144" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="224"/>
+      <c r="A144" s="253"/>
       <c r="B144" s="183">
         <v>35</v>
       </c>
       <c r="H144" s="183">
         <v>23.2</v>
       </c>
-      <c r="I144" s="224"/>
+      <c r="I144" s="253"/>
       <c r="AA144" s="183">
         <v>3.6</v>
       </c>
-      <c r="AB144" s="224"/>
+      <c r="AB144" s="253"/>
     </row>
     <row r="145" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="224"/>
+      <c r="A145" s="253"/>
       <c r="B145" s="183">
         <v>39</v>
       </c>
       <c r="H145" s="183">
         <v>5.6</v>
       </c>
-      <c r="I145" s="224"/>
+      <c r="I145" s="253"/>
       <c r="AA145" s="183">
         <v>3.3</v>
       </c>
-      <c r="AB145" s="224"/>
+      <c r="AB145" s="253"/>
     </row>
     <row r="146" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="224"/>
+      <c r="A146" s="253"/>
       <c r="B146" s="183">
         <v>51</v>
       </c>
       <c r="H146" s="183">
         <v>6.9</v>
       </c>
-      <c r="I146" s="224"/>
+      <c r="I146" s="253"/>
       <c r="AA146" s="183">
         <v>5.5</v>
       </c>
-      <c r="AB146" s="224"/>
+      <c r="AB146" s="253"/>
     </row>
     <row r="147" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="224"/>
+      <c r="A147" s="253"/>
       <c r="B147" s="183">
         <v>53</v>
       </c>
-      <c r="I147" s="224"/>
-      <c r="AB147" s="224"/>
+      <c r="I147" s="253"/>
+      <c r="AB147" s="253"/>
     </row>
     <row r="148" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="224"/>
+      <c r="A148" s="253"/>
       <c r="B148" s="183">
         <v>56</v>
       </c>
       <c r="H148" s="183">
         <v>10.6</v>
       </c>
-      <c r="I148" s="224"/>
+      <c r="I148" s="253"/>
       <c r="AA148" s="183">
         <v>2.5</v>
       </c>
-      <c r="AB148" s="224"/>
+      <c r="AB148" s="253"/>
     </row>
     <row r="149" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="224"/>
+      <c r="A149" s="253"/>
       <c r="B149" s="183">
         <v>59</v>
       </c>
       <c r="H149" s="183">
         <v>3.8</v>
       </c>
-      <c r="I149" s="224"/>
+      <c r="I149" s="253"/>
       <c r="AA149" s="183">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB149" s="224"/>
+      <c r="AB149" s="253"/>
     </row>
     <row r="150" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="224"/>
+      <c r="A150" s="253"/>
       <c r="B150" s="183">
         <v>66</v>
       </c>
-      <c r="I150" s="224"/>
-      <c r="AB150" s="224"/>
+      <c r="I150" s="253"/>
+      <c r="AB150" s="253"/>
     </row>
     <row r="151" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="224"/>
+      <c r="A151" s="253"/>
       <c r="B151" s="183">
         <v>68</v>
       </c>
       <c r="H151" s="183">
         <v>7.5</v>
       </c>
-      <c r="I151" s="224"/>
+      <c r="I151" s="253"/>
       <c r="AA151" s="183">
         <v>2</v>
       </c>
-      <c r="AB151" s="224"/>
+      <c r="AB151" s="253"/>
     </row>
     <row r="152" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="224"/>
+      <c r="A152" s="253"/>
       <c r="B152" s="183">
         <v>69</v>
       </c>
-      <c r="I152" s="224"/>
-      <c r="AB152" s="224"/>
+      <c r="I152" s="253"/>
+      <c r="AB152" s="253"/>
     </row>
     <row r="153" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="224"/>
+      <c r="A153" s="253"/>
       <c r="B153" s="183">
         <v>70</v>
       </c>
-      <c r="I153" s="224"/>
-      <c r="AB153" s="224"/>
+      <c r="I153" s="253"/>
+      <c r="AB153" s="253"/>
     </row>
     <row r="154" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="224"/>
+      <c r="A154" s="253"/>
       <c r="B154" s="183">
         <v>73</v>
       </c>
-      <c r="I154" s="224"/>
-      <c r="AB154" s="224"/>
+      <c r="I154" s="253"/>
+      <c r="AB154" s="253"/>
     </row>
     <row r="155" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="224"/>
+      <c r="A155" s="253"/>
       <c r="B155" s="183">
         <v>82</v>
       </c>
-      <c r="I155" s="224"/>
-      <c r="AB155" s="224"/>
+      <c r="I155" s="253"/>
+      <c r="AB155" s="253"/>
     </row>
     <row r="156" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="224"/>
+      <c r="A156" s="253"/>
       <c r="B156" s="183" t="s">
         <v>326</v>
       </c>
-      <c r="I156" s="224"/>
-      <c r="AB156" s="224"/>
+      <c r="I156" s="253"/>
+      <c r="AB156" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="AF76:AF90"/>
-    <mergeCell ref="K76:K89"/>
-    <mergeCell ref="M76:M89"/>
-    <mergeCell ref="AB76:AB90"/>
-    <mergeCell ref="Z16:Z26"/>
-    <mergeCell ref="AB16:AB26"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="Z11:Z15"/>
-    <mergeCell ref="AB11:AB15"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="O71:O75"/>
-    <mergeCell ref="O76:O90"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AJ71:AJ75"/>
-    <mergeCell ref="AL71:AL75"/>
-    <mergeCell ref="AJ76:AJ90"/>
-    <mergeCell ref="AL76:AL90"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="E16:E26"/>
-    <mergeCell ref="I16:I26"/>
-    <mergeCell ref="X16:X26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="X11:X15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="AH35:AH46"/>
+    <mergeCell ref="AP55:AP67"/>
+    <mergeCell ref="AQ55:AQ67"/>
+    <mergeCell ref="AO11:AO15"/>
+    <mergeCell ref="AO16:AO26"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AP48:AP54"/>
+    <mergeCell ref="AQ48:AQ54"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="I116:I120"/>
+    <mergeCell ref="AB116:AB120"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="I143:I156"/>
+    <mergeCell ref="AB143:AB156"/>
+    <mergeCell ref="A121:A134"/>
+    <mergeCell ref="I121:I134"/>
+    <mergeCell ref="AB121:AB134"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="I138:I142"/>
+    <mergeCell ref="AB138:AB142"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="AB94:AB98"/>
+    <mergeCell ref="Z71:Z75"/>
+    <mergeCell ref="AB71:AB75"/>
+    <mergeCell ref="AD71:AD75"/>
+    <mergeCell ref="M71:M75"/>
+    <mergeCell ref="A99:A112"/>
+    <mergeCell ref="I99:I112"/>
+    <mergeCell ref="AB99:AB112"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="E76:E88"/>
+    <mergeCell ref="G76:G89"/>
+    <mergeCell ref="I76:I90"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="G71:G75"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="K71:K75"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="X50:X54"/>
+    <mergeCell ref="Z50:Z54"/>
+    <mergeCell ref="AB50:AB54"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="I55:I67"/>
+    <mergeCell ref="X55:X67"/>
+    <mergeCell ref="Z55:Z66"/>
+    <mergeCell ref="AB55:AB66"/>
     <mergeCell ref="A28:A34"/>
     <mergeCell ref="E30:E34"/>
     <mergeCell ref="I30:I34"/>
@@ -31542,60 +31518,86 @@
     <mergeCell ref="X35:X45"/>
     <mergeCell ref="Z35:Z46"/>
     <mergeCell ref="AB35:AB46"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="X50:X54"/>
-    <mergeCell ref="Z50:Z54"/>
-    <mergeCell ref="AB50:AB54"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="I55:I67"/>
-    <mergeCell ref="X55:X67"/>
-    <mergeCell ref="Z55:Z66"/>
-    <mergeCell ref="AB55:AB66"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="E16:E26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="O71:O75"/>
+    <mergeCell ref="O76:O90"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AJ71:AJ75"/>
+    <mergeCell ref="AL71:AL75"/>
+    <mergeCell ref="AJ76:AJ90"/>
+    <mergeCell ref="AL76:AL90"/>
+    <mergeCell ref="X16:X26"/>
+    <mergeCell ref="X11:X15"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AH35:AH46"/>
     <mergeCell ref="AF71:AF75"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="E76:E88"/>
-    <mergeCell ref="G76:G89"/>
-    <mergeCell ref="I76:I90"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="G71:G75"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="K71:K75"/>
     <mergeCell ref="Z76:Z90"/>
     <mergeCell ref="AD76:AD90"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="AB94:AB98"/>
-    <mergeCell ref="Z71:Z75"/>
-    <mergeCell ref="AB71:AB75"/>
-    <mergeCell ref="AD71:AD75"/>
-    <mergeCell ref="M71:M75"/>
-    <mergeCell ref="A99:A112"/>
-    <mergeCell ref="I99:I112"/>
-    <mergeCell ref="AB99:AB112"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="I116:I120"/>
-    <mergeCell ref="AB116:AB120"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="I143:I156"/>
-    <mergeCell ref="AB143:AB156"/>
-    <mergeCell ref="A121:A134"/>
-    <mergeCell ref="I121:I134"/>
-    <mergeCell ref="AB121:AB134"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="AB138:AB142"/>
-    <mergeCell ref="AP55:AP67"/>
-    <mergeCell ref="AQ55:AQ67"/>
-    <mergeCell ref="AO11:AO15"/>
-    <mergeCell ref="AO16:AO26"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AP48:AP54"/>
-    <mergeCell ref="AQ48:AQ54"/>
+    <mergeCell ref="AF76:AF90"/>
+    <mergeCell ref="K76:K89"/>
+    <mergeCell ref="M76:M89"/>
+    <mergeCell ref="AB76:AB90"/>
+    <mergeCell ref="Z16:Z26"/>
+    <mergeCell ref="AB16:AB26"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="Z11:Z15"/>
+    <mergeCell ref="AB11:AB15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31609,7 +31611,7 @@
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31619,9 +31621,9 @@
     <col min="20" max="16384" width="14.42578125" style="182"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="261" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="261" t="s">
-        <v>366</v>
+    <row r="1" spans="1:38" s="233" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="233" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31642,30 +31644,30 @@
       <c r="H2" s="210" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="260" t="s">
+      <c r="I2" s="285" t="s">
         <v>270</v>
       </c>
-      <c r="J2" s="260"/>
-      <c r="K2" s="259" t="s">
+      <c r="J2" s="285"/>
+      <c r="K2" s="284" t="s">
         <v>271</v>
       </c>
-      <c r="L2" s="259"/>
+      <c r="L2" s="284"/>
       <c r="M2" s="209" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="258" t="s">
-        <v>365</v>
-      </c>
-      <c r="O2" s="258"/>
-      <c r="P2" s="257" t="s">
+      <c r="N2" s="283" t="s">
         <v>364</v>
       </c>
-      <c r="Q2" s="256" t="s">
+      <c r="O2" s="283"/>
+      <c r="P2" s="232" t="s">
         <v>363</v>
       </c>
-      <c r="R2" s="256"/>
-      <c r="S2" s="255" t="s">
+      <c r="Q2" s="281" t="s">
         <v>362</v>
+      </c>
+      <c r="R2" s="281"/>
+      <c r="S2" s="231" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -31696,59 +31698,59 @@
       <c r="M3" s="183" t="s">
         <v>281</v>
       </c>
-      <c r="N3" s="250" t="s">
-        <v>361</v>
-      </c>
-      <c r="O3" s="249"/>
+      <c r="N3" s="227" t="s">
+        <v>360</v>
+      </c>
+      <c r="O3" s="226"/>
       <c r="P3" s="182" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q3" s="182" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="252" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="254" t="s">
+      <c r="A4" s="228" t="s">
         <v>357</v>
       </c>
+      <c r="B4" s="230" t="s">
+        <v>356</v>
+      </c>
       <c r="C4" s="208" t="s">
-        <v>356</v>
-      </c>
-      <c r="D4" s="252" t="s">
         <v>355</v>
       </c>
-      <c r="E4" s="252" t="s">
+      <c r="D4" s="228" t="s">
         <v>354</v>
       </c>
-      <c r="H4" s="252" t="s">
+      <c r="E4" s="228" t="s">
         <v>353</v>
       </c>
-      <c r="I4" s="252" t="s">
+      <c r="H4" s="228" t="s">
         <v>352</v>
       </c>
-      <c r="K4" s="252" t="s">
+      <c r="I4" s="228" t="s">
         <v>351</v>
       </c>
-      <c r="M4" s="252" t="s">
+      <c r="K4" s="228" t="s">
         <v>350</v>
       </c>
-      <c r="N4" s="253" t="s">
+      <c r="M4" s="228" t="s">
         <v>349</v>
       </c>
+      <c r="N4" s="229" t="s">
+        <v>348</v>
+      </c>
       <c r="P4" s="182" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="182" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA4" s="183"/>
       <c r="AE4" s="183"/>
-      <c r="AJ4" s="249"/>
-      <c r="AK4" s="250"/>
-      <c r="AL4" s="249"/>
+      <c r="AJ4" s="226"/>
+      <c r="AK4" s="227"/>
+      <c r="AL4" s="226"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="183" t="s">
@@ -31784,17 +31786,17 @@
       <c r="M5" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="N5" s="250" t="s">
+      <c r="N5" s="227" t="s">
         <v>287</v>
       </c>
-      <c r="O5" s="250" t="s">
-        <v>346</v>
+      <c r="O5" s="227" t="s">
+        <v>345</v>
       </c>
       <c r="P5" s="182" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31816,8 +31818,8 @@
       <c r="F6" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="252" t="s">
-        <v>343</v>
+      <c r="G6" s="228" t="s">
+        <v>342</v>
       </c>
       <c r="H6" s="183" t="s">
         <v>294</v>
@@ -31831,18 +31833,18 @@
       <c r="M6" s="183" t="s">
         <v>296</v>
       </c>
-      <c r="N6" s="250" t="s">
-        <v>342</v>
-      </c>
-      <c r="O6" s="249"/>
+      <c r="N6" s="227" t="s">
+        <v>341</v>
+      </c>
+      <c r="O6" s="226"/>
       <c r="P6" s="182" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="182" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R6" s="182" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="217.5" x14ac:dyDescent="0.25">
@@ -31858,13 +31860,13 @@
       <c r="D7" s="183" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="251" t="s">
+      <c r="E7" s="282" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
       <c r="H7" s="183" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I7" s="183" t="s">
         <v>305</v>
@@ -31875,18 +31877,18 @@
       <c r="M7" s="183" t="s">
         <v>307</v>
       </c>
-      <c r="N7" s="250" t="s">
-        <v>338</v>
-      </c>
-      <c r="O7" s="249"/>
+      <c r="N7" s="227" t="s">
+        <v>337</v>
+      </c>
+      <c r="O7" s="226"/>
       <c r="P7" s="182" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q7" s="243" t="s">
         <v>336</v>
       </c>
-      <c r="S7" s="248" t="s">
+      <c r="Q7" s="221" t="s">
         <v>335</v>
+      </c>
+      <c r="S7" s="192" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.2">
@@ -32021,7 +32023,7 @@
       <c r="D12" s="203">
         <v>0.38227528089887641</v>
       </c>
-      <c r="H12" s="246">
+      <c r="H12" s="224">
         <v>0.37349397590361455</v>
       </c>
       <c r="I12" s="183">
@@ -32033,11 +32035,11 @@
       <c r="P12" s="182">
         <v>0.30829883698009075</v>
       </c>
-      <c r="S12" s="245">
+      <c r="S12" s="223">
         <f>1-S13</f>
         <v>0.46822135734532</v>
       </c>
-      <c r="T12" s="243" t="s">
+      <c r="T12" s="221" t="s">
         <v>323</v>
       </c>
     </row>
@@ -32051,7 +32053,7 @@
       <c r="D13" s="203">
         <v>0.39272471910112366</v>
       </c>
-      <c r="H13" s="246">
+      <c r="H13" s="224">
         <v>0.46987951807228928</v>
       </c>
       <c r="I13" s="183">
@@ -32063,11 +32065,11 @@
       <c r="P13" s="182">
         <v>0.52661147250147844</v>
       </c>
-      <c r="S13" s="245">
+      <c r="S13" s="223">
         <f>AVERAGE(B13,P13)</f>
         <v>0.53177864265468</v>
       </c>
-      <c r="T13" s="243" t="s">
+      <c r="T13" s="221" t="s">
         <v>332</v>
       </c>
     </row>
@@ -32092,7 +32094,7 @@
       <c r="P14" s="185"/>
       <c r="Q14" s="185"/>
       <c r="R14" s="185"/>
-      <c r="S14" s="247"/>
+      <c r="S14" s="225"/>
     </row>
     <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="194" t="s">
@@ -32150,7 +32152,7 @@
       <c r="D17" s="183">
         <v>0.30589562547966231</v>
       </c>
-      <c r="H17" s="246">
+      <c r="H17" s="224">
         <v>0.44139650872817959</v>
       </c>
       <c r="I17" s="183">
@@ -32162,11 +32164,11 @@
       <c r="M17" s="183">
         <v>0.317</v>
       </c>
-      <c r="S17" s="245">
+      <c r="S17" s="223">
         <f>1-S18</f>
         <v>0.51915783320342934</v>
       </c>
-      <c r="T17" s="243" t="s">
+      <c r="T17" s="221" t="s">
         <v>323</v>
       </c>
     </row>
@@ -32180,7 +32182,7 @@
       <c r="D18" s="183">
         <v>0.34010437452033765</v>
       </c>
-      <c r="H18" s="246">
+      <c r="H18" s="224">
         <v>0.399002493765586</v>
       </c>
       <c r="I18" s="183">
@@ -32192,11 +32194,11 @@
       <c r="M18" s="183">
         <v>0.42700000000000005</v>
       </c>
-      <c r="S18" s="245">
+      <c r="S18" s="223">
         <f>AVERAGE(M18,B18)</f>
         <v>0.48084216679657066</v>
       </c>
-      <c r="T18" s="243" t="s">
+      <c r="T18" s="221" t="s">
         <v>332</v>
       </c>
     </row>
@@ -32273,7 +32275,7 @@
       <c r="D22" s="183">
         <v>0.27666666666666667</v>
       </c>
-      <c r="H22" s="246">
+      <c r="H22" s="224">
         <v>0.39491525423728807</v>
       </c>
       <c r="I22" s="183">
@@ -32282,11 +32284,11 @@
       <c r="J22" s="183">
         <v>0.41399999999999998</v>
       </c>
-      <c r="S22" s="245">
+      <c r="S22" s="223">
         <f>1-S23</f>
         <v>0.73709892344552175</v>
       </c>
-      <c r="T22" s="243" t="s">
+      <c r="T22" s="221" t="s">
         <v>323</v>
       </c>
     </row>
@@ -32300,7 +32302,7 @@
       <c r="D23" s="183">
         <v>0.25433333333333324</v>
       </c>
-      <c r="H23" s="246">
+      <c r="H23" s="224">
         <v>0.32680195941217638</v>
       </c>
       <c r="I23" s="183">
@@ -32315,11 +32317,11 @@
       <c r="R23" s="182">
         <v>0.16700000000000001</v>
       </c>
-      <c r="S23" s="245">
+      <c r="S23" s="223">
         <f>AVERAGE(B23,H23,Q23,R23)</f>
         <v>0.26290107655447825</v>
       </c>
-      <c r="T23" s="243" t="s">
+      <c r="T23" s="221" t="s">
         <v>332</v>
       </c>
     </row>
@@ -32468,11 +32470,11 @@
       <c r="O27" s="182">
         <v>0.19617647058823534</v>
       </c>
-      <c r="S27" s="245">
+      <c r="S27" s="223">
         <f>1-S28</f>
         <v>0.85780595009985727</v>
       </c>
-      <c r="T27" s="243" t="s">
+      <c r="T27" s="221" t="s">
         <v>323</v>
       </c>
     </row>
@@ -32516,28 +32518,28 @@
       <c r="O28" s="182">
         <v>9.3823529411764722E-2</v>
       </c>
-      <c r="S28" s="244">
+      <c r="S28" s="222">
         <f>AVERAGE(B28,C28,G28,K28)</f>
         <v>0.14219404990014273</v>
       </c>
-      <c r="T28" s="243" t="s">
+      <c r="T28" s="221" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="239" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="241" t="s">
+    <row r="29" spans="1:20" s="217" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="219" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
     </row>
     <row r="30" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="186" t="s">

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="796" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="359">
   <si>
     <t>Age</t>
   </si>
@@ -624,9 +624,6 @@
   </si>
   <si>
     <t>4v-Type Subgroup weighting</t>
-  </si>
-  <si>
-    <t>Monthly Undetected CC Mortality Rates</t>
   </si>
   <si>
     <r>
@@ -1352,6 +1349,15 @@
       </rPr>
       <t>Not currently used.</t>
     </r>
+  </si>
+  <si>
+    <t>Undetected CC Mortality Rates</t>
+  </si>
+  <si>
+    <t>Model appendix</t>
+  </si>
+  <si>
+    <t>Excel (monthly)</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1609,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,6 +1746,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2144,7 +2156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2487,6 +2499,9 @@
     </xf>
     <xf numFmtId="168" fontId="29" fillId="23" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2505,10 +2520,58 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2517,54 +2580,6 @@
     <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2577,8 +2592,11 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3508,7 +3526,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4037,7 +4054,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4149,7 +4165,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4700,7 +4715,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8971,7 +8985,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -8995,18 +9009,18 @@
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="241" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="F2" s="240" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="F2" s="241" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
       <c r="J2" s="51"/>
       <c r="K2" s="104"/>
       <c r="L2" s="104"/>
@@ -9034,7 +9048,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3" s="54" t="s">
         <v>1</v>
@@ -9198,7 +9212,7 @@
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="F8" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
@@ -9215,7 +9229,7 @@
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="F9" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="1"/>
@@ -9262,7 +9276,7 @@
     </row>
     <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -9336,12 +9350,12 @@
       <c r="U15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="240" t="s">
+      <c r="A16" s="241" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="240"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -9498,7 +9512,7 @@
     </row>
     <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -9523,7 +9537,7 @@
     </row>
     <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -9548,12 +9562,12 @@
     </row>
     <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="54"/>
-      <c r="B28" s="241" t="s">
+      <c r="B28" s="242" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="242"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="243"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -9588,13 +9602,13 @@
       <c r="A30" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="280">
+      <c r="B30" s="240">
         <v>2</v>
       </c>
-      <c r="C30" s="280">
+      <c r="C30" s="240">
         <v>3</v>
       </c>
-      <c r="D30" s="280">
+      <c r="D30" s="240">
         <v>3.2</v>
       </c>
       <c r="E30" s="56">
@@ -9613,13 +9627,13 @@
       <c r="A31" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="280">
+      <c r="B31" s="240">
         <v>1.8</v>
       </c>
-      <c r="C31" s="280">
+      <c r="C31" s="240">
         <v>2.8</v>
       </c>
-      <c r="D31" s="280">
+      <c r="D31" s="240">
         <v>3</v>
       </c>
       <c r="E31" s="56">
@@ -9637,13 +9651,13 @@
       <c r="A32" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="280">
+      <c r="B32" s="240">
         <v>1.7</v>
       </c>
-      <c r="C32" s="280">
+      <c r="C32" s="240">
         <v>2.6</v>
       </c>
-      <c r="D32" s="280">
+      <c r="D32" s="240">
         <v>2.8</v>
       </c>
       <c r="E32" s="56">
@@ -9661,13 +9675,13 @@
       <c r="A33" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="280">
+      <c r="B33" s="240">
         <v>1.5</v>
       </c>
-      <c r="C33" s="280">
+      <c r="C33" s="240">
         <v>2.4</v>
       </c>
-      <c r="D33" s="280">
+      <c r="D33" s="240">
         <v>2.5</v>
       </c>
       <c r="E33" s="56">
@@ -9822,8 +9836,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9838,7 +9852,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -9865,7 +9879,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -9892,7 +9906,7 @@
     </row>
     <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -9917,15 +9931,61 @@
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
     </row>
-    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="240" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+    <row r="4" spans="1:23" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="241" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="78" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.8098080000000002E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2.3311134000000001E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.10089910600000002</v>
+      </c>
+      <c r="I4" s="281">
+        <f>B6/F4</f>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="J4" s="281">
+        <f>C6/G4</f>
+        <v>12</v>
+      </c>
+      <c r="K4" s="281">
+        <f>D6/H4</f>
+        <v>9.8117816821885402</v>
+      </c>
+      <c r="L4" s="284" t="s">
+        <v>357</v>
+      </c>
+      <c r="M4">
+        <v>8.0070000000000002E-3</v>
+      </c>
+      <c r="N4">
+        <v>1.92699E-2</v>
+      </c>
+      <c r="O4">
+        <v>6.6827999999999999E-2</v>
+      </c>
+      <c r="P4" s="281">
+        <f>B6/M4</f>
+        <v>27.1233870363432</v>
+      </c>
+      <c r="Q4" s="281">
+        <f>C6/N4</f>
+        <v>14.51660921956004</v>
+      </c>
+      <c r="R4" s="281">
+        <f>D6/O4</f>
+        <v>14.814149757586641</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="54"/>
@@ -9939,7 +9999,48 @@
         <v>186</v>
       </c>
       <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="9">
+        <v>2.1976240000000001E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.8306377000000004E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.10089910600000002</v>
+      </c>
+      <c r="I5" s="281">
+        <f>B7/F5</f>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="J5" s="281">
+        <f>C7/G5</f>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="K5" s="281">
+        <f>D7/H5</f>
+        <v>9.8117816821885402</v>
+      </c>
+      <c r="M5">
+        <v>9.7230000000000007E-3</v>
+      </c>
+      <c r="N5">
+        <v>2.3399199999999998E-2</v>
+      </c>
+      <c r="O5">
+        <v>8.1147999999999998E-2</v>
+      </c>
+      <c r="P5" s="281">
+        <f>B7/M5</f>
+        <v>27.122789262573278</v>
+      </c>
+      <c r="Q5" s="281">
+        <f>C7/N5</f>
+        <v>14.516587062805566</v>
+      </c>
+      <c r="R5" s="281">
+        <f>D7/O5</f>
+        <v>12.199930990289348</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="54" t="s">
@@ -9955,7 +10056,49 @@
         <v>0.99</v>
       </c>
       <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="F6" s="9">
+        <v>2.6677040000000003E-2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3.4361216999999999E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.10089910600000002</v>
+      </c>
+      <c r="I6" s="281">
+        <f>B8/F6</f>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="J6" s="281">
+        <f>C8/G6</f>
+        <v>12</v>
+      </c>
+      <c r="K6" s="281">
+        <f>D8/H6</f>
+        <v>9.8117816821885402</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6">
+        <v>1.1802999999999999E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.84044E-2</v>
+      </c>
+      <c r="O6">
+        <v>9.8505999999999996E-2</v>
+      </c>
+      <c r="P6" s="281">
+        <f>B8/M6</f>
+        <v>27.122297720918411</v>
+      </c>
+      <c r="Q6" s="281">
+        <f>C8/N6</f>
+        <v>14.51657503767022</v>
+      </c>
+      <c r="R6" s="281">
+        <f>D8/O6</f>
+        <v>10.050149229488559</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
@@ -9971,7 +10114,49 @@
         <v>0.99</v>
       </c>
       <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="9">
+        <v>3.2318E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.1627024999999998E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.10089910600000002</v>
+      </c>
+      <c r="I7" s="281">
+        <f>B9/F7</f>
+        <v>12</v>
+      </c>
+      <c r="J7" s="281">
+        <f>C9/G7</f>
+        <v>12</v>
+      </c>
+      <c r="K7" s="281">
+        <f>D9/H7</f>
+        <v>9.8117816821885402</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7">
+        <v>1.4298999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <v>3.44106E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.119336</v>
+      </c>
+      <c r="P7" s="281">
+        <f>B9/M7</f>
+        <v>27.121896636128401</v>
+      </c>
+      <c r="Q7" s="281">
+        <f>C9/N7</f>
+        <v>14.516582099701836</v>
+      </c>
+      <c r="R7" s="281">
+        <f>D9/O7</f>
+        <v>8.2959040021452033</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="54" t="s">
@@ -9987,7 +10172,49 @@
         <v>0.99</v>
       </c>
       <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="9">
+        <v>1.8098080000000002E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2.3311134000000001E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.10089910600000002</v>
+      </c>
+      <c r="I8" s="281">
+        <f>B10/F8</f>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="J8" s="281">
+        <f>C10/G8</f>
+        <v>12</v>
+      </c>
+      <c r="K8" s="281">
+        <f>D10/H8</f>
+        <v>9.8117816821885402</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8">
+        <v>8.0070000000000002E-3</v>
+      </c>
+      <c r="N8">
+        <v>1.92699E-2</v>
+      </c>
+      <c r="O8">
+        <v>6.6827999999999999E-2</v>
+      </c>
+      <c r="P8" s="281">
+        <f>B10/M8</f>
+        <v>27.1233870363432</v>
+      </c>
+      <c r="Q8" s="281">
+        <f>C10/N8</f>
+        <v>14.51660921956004</v>
+      </c>
+      <c r="R8" s="281">
+        <f>D10/O8</f>
+        <v>14.814149757586641</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="54" t="s">
@@ -10003,7 +10230,49 @@
         <v>0.99</v>
       </c>
       <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="283">
+        <v>5.8760000000000001E-3</v>
+      </c>
+      <c r="G9" s="283">
+        <v>1.5137100000000001E-2</v>
+      </c>
+      <c r="H9" s="283">
+        <v>6.5518900000000005E-2</v>
+      </c>
+      <c r="I9" s="281">
+        <f>B11/F9</f>
+        <v>12</v>
+      </c>
+      <c r="J9" s="281">
+        <f>C11/G9</f>
+        <v>12</v>
+      </c>
+      <c r="K9" s="281">
+        <f>D11/H9</f>
+        <v>12</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="N9">
+        <v>1.25129E-2</v>
+      </c>
+      <c r="O9">
+        <v>4.3395000000000003E-2</v>
+      </c>
+      <c r="P9" s="281">
+        <f>B11/M9</f>
+        <v>13.560000000000002</v>
+      </c>
+      <c r="Q9" s="281">
+        <f>C11/N9</f>
+        <v>14.516634832852496</v>
+      </c>
+      <c r="R9" s="281">
+        <f>D11/O9</f>
+        <v>18.117912201866574</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54" t="s">
@@ -10019,7 +10288,7 @@
         <v>0.99</v>
       </c>
       <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
@@ -10035,15 +10304,170 @@
         <v>0.7862268</v>
       </c>
       <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="282">
+        <f>F4/F$9</f>
+        <v>3.0800000000000005</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" ref="G11:H11" si="0">G4/G$9</f>
+        <v>1.54</v>
+      </c>
+      <c r="H11" s="36">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+      <c r="I11" s="281">
+        <f>F11/S11</f>
+        <v>2.000249781441239</v>
+      </c>
+      <c r="J11" s="281"/>
+      <c r="L11" s="36"/>
+      <c r="M11">
+        <f>M4*12</f>
+        <v>9.6084000000000003E-2</v>
+      </c>
+      <c r="N11" s="36">
+        <f t="shared" ref="N11:O11" si="1">N4*12</f>
+        <v>0.23123879999999999</v>
+      </c>
+      <c r="O11" s="36">
+        <f t="shared" si="1"/>
+        <v>0.80193599999999998</v>
+      </c>
+      <c r="P11" s="281">
+        <f>B6/M11</f>
+        <v>2.2602822530286</v>
+      </c>
+      <c r="Q11" s="281">
+        <f t="shared" ref="Q11:R16" si="2">C6/N11</f>
+        <v>1.2097174349633368</v>
+      </c>
+      <c r="R11" s="281">
+        <f t="shared" si="2"/>
+        <v>1.2345124797988867</v>
+      </c>
+      <c r="S11">
+        <f>M11/M$16</f>
+        <v>1.5398076923076924</v>
+      </c>
+      <c r="T11" s="36">
+        <f t="shared" ref="T11:U15" si="3">N11/N$16</f>
+        <v>1.5400027171958537</v>
+      </c>
+      <c r="U11" s="36">
+        <f t="shared" si="3"/>
+        <v>1.5399930867611475</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="282">
+        <f t="shared" ref="F12:H16" si="4">F5/F$9</f>
+        <v>3.74</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="4"/>
+        <v>1.87</v>
+      </c>
+      <c r="H12" s="282">
+        <f t="shared" si="4"/>
+        <v>1.54</v>
+      </c>
+      <c r="I12" s="281">
+        <f t="shared" ref="I12:I15" si="5">F12/S12</f>
+        <v>2.0002056978298879</v>
+      </c>
+      <c r="M12" s="36">
+        <f t="shared" ref="M12:O16" si="6">M5*12</f>
+        <v>0.116676</v>
+      </c>
+      <c r="N12" s="36">
+        <f t="shared" si="6"/>
+        <v>0.2807904</v>
+      </c>
+      <c r="O12" s="36">
+        <f t="shared" si="6"/>
+        <v>0.97377599999999997</v>
+      </c>
+      <c r="P12" s="281">
+        <f t="shared" ref="P12:P16" si="7">B7/M12</f>
+        <v>2.260232438547773</v>
+      </c>
+      <c r="Q12" s="281">
+        <f t="shared" si="2"/>
+        <v>1.2097155885671305</v>
+      </c>
+      <c r="R12" s="281">
+        <f t="shared" si="2"/>
+        <v>1.0166609158574458</v>
+      </c>
+      <c r="S12" s="36">
+        <f t="shared" ref="S12:S15" si="8">M12/M$16</f>
+        <v>1.8698076923076925</v>
+      </c>
+      <c r="T12" s="36">
+        <f t="shared" si="3"/>
+        <v>1.8700061536494337</v>
+      </c>
+      <c r="U12" s="36">
+        <f t="shared" si="3"/>
+        <v>1.8699850213158198</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="282">
+        <f t="shared" si="4"/>
+        <v>4.54</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="4"/>
+        <v>2.27</v>
+      </c>
+      <c r="H13" s="282">
+        <f t="shared" si="4"/>
+        <v>1.54</v>
+      </c>
+      <c r="I13" s="281">
+        <f t="shared" si="5"/>
+        <v>2.0001694484453107</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" si="6"/>
+        <v>0.14163599999999998</v>
+      </c>
+      <c r="N13" s="36">
+        <f t="shared" si="6"/>
+        <v>0.34085280000000001</v>
+      </c>
+      <c r="O13" s="36">
+        <f t="shared" si="6"/>
+        <v>1.182072</v>
+      </c>
+      <c r="P13" s="281">
+        <f t="shared" si="7"/>
+        <v>2.2601914767432012</v>
+      </c>
+      <c r="Q13" s="281">
+        <f t="shared" si="2"/>
+        <v>1.2097145864725183</v>
+      </c>
+      <c r="R13" s="281">
+        <f t="shared" si="2"/>
+        <v>0.83751243579071322</v>
+      </c>
+      <c r="S13" s="36">
+        <f t="shared" si="8"/>
+        <v>2.2698076923076922</v>
+      </c>
+      <c r="T13" s="36">
+        <f t="shared" si="3"/>
+        <v>2.2700093503504384</v>
+      </c>
+      <c r="U13" s="36">
+        <f t="shared" si="3"/>
+        <v>2.2699850213158199</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -10051,22 +10475,61 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="282">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="4"/>
+        <v>2.7499999999999996</v>
+      </c>
+      <c r="H14" s="282">
+        <f t="shared" si="4"/>
+        <v>1.54</v>
+      </c>
+      <c r="I14" s="281">
+        <f t="shared" si="5"/>
+        <v>2.0001398699209738</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="M14" s="36">
+        <f t="shared" si="6"/>
+        <v>0.17158799999999999</v>
+      </c>
+      <c r="N14" s="36">
+        <f t="shared" si="6"/>
+        <v>0.41292719999999999</v>
+      </c>
+      <c r="O14" s="36">
+        <f t="shared" si="6"/>
+        <v>1.432032</v>
+      </c>
+      <c r="P14" s="281">
+        <f t="shared" si="7"/>
+        <v>2.2601580530106999</v>
+      </c>
+      <c r="Q14" s="281">
+        <f t="shared" si="2"/>
+        <v>1.2097151749751529</v>
+      </c>
+      <c r="R14" s="281">
+        <f t="shared" si="2"/>
+        <v>0.69132533351210035</v>
+      </c>
+      <c r="S14" s="36">
+        <f t="shared" si="8"/>
+        <v>2.7498076923076922</v>
+      </c>
+      <c r="T14" s="36">
+        <f t="shared" si="3"/>
+        <v>2.7500099896906391</v>
+      </c>
+      <c r="U14" s="36">
+        <f t="shared" si="3"/>
+        <v>2.7499942389676231</v>
+      </c>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
@@ -10076,22 +10539,61 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="282">
+        <f t="shared" si="4"/>
+        <v>3.0800000000000005</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="4"/>
+        <v>1.54</v>
+      </c>
+      <c r="H15" s="36">
+        <f t="shared" si="4"/>
+        <v>1.54</v>
+      </c>
+      <c r="I15" s="281">
+        <f t="shared" si="5"/>
+        <v>2.000249781441239</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="M15" s="36">
+        <f t="shared" si="6"/>
+        <v>9.6084000000000003E-2</v>
+      </c>
+      <c r="N15" s="36">
+        <f t="shared" si="6"/>
+        <v>0.23123879999999999</v>
+      </c>
+      <c r="O15" s="36">
+        <f t="shared" si="6"/>
+        <v>0.80193599999999998</v>
+      </c>
+      <c r="P15" s="281">
+        <f t="shared" si="7"/>
+        <v>2.2602822530286</v>
+      </c>
+      <c r="Q15" s="281">
+        <f t="shared" si="2"/>
+        <v>1.2097174349633368</v>
+      </c>
+      <c r="R15" s="281">
+        <f t="shared" si="2"/>
+        <v>1.2345124797988867</v>
+      </c>
+      <c r="S15" s="36">
+        <f t="shared" si="8"/>
+        <v>1.5398076923076924</v>
+      </c>
+      <c r="T15" s="36">
+        <f t="shared" si="3"/>
+        <v>1.5400027171958537</v>
+      </c>
+      <c r="U15" s="36">
+        <f t="shared" si="3"/>
+        <v>1.5399930867611475</v>
+      </c>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
@@ -10101,19 +10603,46 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="M16" s="36">
+        <f t="shared" si="6"/>
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="N16" s="36">
+        <f t="shared" si="6"/>
+        <v>0.1501548</v>
+      </c>
+      <c r="O16" s="36">
+        <f t="shared" si="6"/>
+        <v>0.52073999999999998</v>
+      </c>
+      <c r="P16" s="281">
+        <f t="shared" si="7"/>
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="Q16" s="281">
+        <f t="shared" si="2"/>
+        <v>1.2097195694043748</v>
+      </c>
+      <c r="R16" s="281">
+        <f t="shared" si="2"/>
+        <v>1.5098260168222146</v>
+      </c>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
@@ -10122,7 +10651,7 @@
     </row>
     <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -10254,7 +10783,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="56">
-        <f t="shared" ref="B23:B28" si="0">20-4</f>
+        <f t="shared" ref="B23:B28" si="9">20-4</f>
         <v>16</v>
       </c>
       <c r="C23" s="56">
@@ -10273,7 +10802,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="C24" s="56">
@@ -10292,7 +10821,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="C25" s="56">
@@ -10311,7 +10840,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="C26" s="56">
@@ -10330,7 +10859,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="C27" s="56">
@@ -10349,7 +10878,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="C28" s="56">
@@ -10424,7 +10953,7 @@
     </row>
     <row r="35" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -10451,7 +10980,7 @@
     </row>
     <row r="36" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -10505,11 +11034,11 @@
     </row>
     <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="55"/>
-      <c r="B38" s="240" t="s">
+      <c r="B38" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="240"/>
-      <c r="D38" s="240"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="241"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38" t="s">
@@ -10784,7 +11313,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AA345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -10811,7 +11340,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -11034,7 +11563,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -11365,7 +11894,7 @@
     </row>
     <row r="26" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -11559,7 +12088,7 @@
     </row>
     <row r="35" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -11761,7 +12290,7 @@
     </row>
     <row r="46" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -11879,7 +12408,7 @@
     </row>
     <row r="54" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -11930,7 +12459,7 @@
     </row>
     <row r="57" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B57" s="56">
         <v>55</v>
@@ -15456,7 +15985,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -15522,7 +16051,7 @@
     </row>
     <row r="3" spans="1:75" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -15551,7 +16080,7 @@
         <v>178</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>187</v>
@@ -19345,7 +19874,7 @@
     </row>
     <row r="23" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -19374,7 +19903,7 @@
         <v>178</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F24" s="91" t="s">
         <v>187</v>
@@ -19660,7 +20189,7 @@
         <v>181</v>
       </c>
       <c r="AC30" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
@@ -20636,7 +21165,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -20716,7 +21245,7 @@
         <v>178</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F44" s="91" t="s">
         <v>187</v>
@@ -21103,7 +21632,7 @@
         <v>181</v>
       </c>
       <c r="AC49" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
@@ -22335,7 +22864,7 @@
     </row>
     <row r="71" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B71" s="82"/>
       <c r="C71" s="82"/>
@@ -22371,10 +22900,10 @@
       <c r="AG71" s="10"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="244" t="s">
+      <c r="A72" s="245" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="244"/>
+      <c r="B72" s="245"/>
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="I72" s="80"/>
@@ -22482,7 +23011,7 @@
     </row>
     <row r="82" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B82" s="82"/>
       <c r="C82" s="82"/>
@@ -22551,10 +23080,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="245" t="s">
+      <c r="A84" s="246" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="245"/>
+      <c r="B84" s="246"/>
       <c r="C84" s="80"/>
       <c r="D84" s="80"/>
       <c r="E84" s="80"/>
@@ -22682,7 +23211,7 @@
     </row>
     <row r="94" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -22717,7 +23246,7 @@
     </row>
     <row r="95" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -23009,45 +23538,45 @@
   <sheetData>
     <row r="1" spans="1:65" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="171" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="168" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -23281,7 +23810,7 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.35">
       <c r="B11" s="157" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="128">
         <v>0.59145199999999998</v>
@@ -23475,7 +24004,7 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.35">
       <c r="B12" s="158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="130">
         <v>0.43646124999999997</v>
@@ -23669,7 +24198,7 @@
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.35">
       <c r="B13" s="158" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="130">
         <v>0.26398274999999999</v>
@@ -23863,7 +24392,7 @@
     </row>
     <row r="14" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="159" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" s="132">
         <v>0.23293700000000003</v>
@@ -24057,7 +24586,7 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H16" s="111"/>
       <c r="M16" s="111"/>
@@ -24065,7 +24594,7 @@
     <row r="17" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="153"/>
       <c r="C17" s="154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="155" t="s">
         <v>172</v>
@@ -24074,7 +24603,7 @@
         <v>178</v>
       </c>
       <c r="F17" s="155" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M17" s="111"/>
     </row>
@@ -24116,7 +24645,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B20" s="151" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="153">
         <v>0.36799999999999999</v>
@@ -24156,10 +24685,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
@@ -24184,7 +24713,7 @@
         <v>178</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" s="91" t="s">
         <v>187</v>
@@ -24211,7 +24740,7 @@
         <v>178</v>
       </c>
       <c r="P24" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="91" t="s">
         <v>187</v>
@@ -24228,10 +24757,10 @@
     </row>
     <row r="25" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="146">
         <f t="array" ref="C25:C28">(C$18/SUM(C$18:C$20))*(E11:E14 + F11:F14 +G11:G14) + (C19/SUM(C$18:C$20))*(Z11:Z14 + AA11:AA14 + AB11:AB14) + (C$20/SUM(C$18:C$20))*(Z11:Z14+AA11:AA14 +AB11:AB14)*0.95</f>
@@ -24266,7 +24795,7 @@
         <v>0.10196696743063932</v>
       </c>
       <c r="L25" s="145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M25" s="148">
         <f t="array" ref="M25:M28">((AU11:AU14 + AV11:AV14 + AW11:AW14) - (Z11:Z14+AA11:AA14 +AB11:AB14)*0.95*(C20/SUM(C20:C21)))/(1-(C20/SUM(C20:C21)))</f>
@@ -24303,7 +24832,7 @@
     </row>
     <row r="26" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="80">
         <v>0.13448278127147767</v>
@@ -24330,7 +24859,7 @@
         <v>7.8506747135102528E-2</v>
       </c>
       <c r="L26" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M26" s="80">
         <v>3.9348954066985652E-2</v>
@@ -24359,7 +24888,7 @@
     </row>
     <row r="27" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" s="80">
         <v>9.6298402061855651E-2</v>
@@ -24386,7 +24915,7 @@
         <v>2.746671079613993E-2</v>
       </c>
       <c r="L27" s="143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M27" s="80">
         <v>2.7719267942583732E-2</v>
@@ -24415,7 +24944,7 @@
     </row>
     <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="144" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="109">
         <v>9.6298402061855637E-2</v>
@@ -24442,7 +24971,7 @@
         <v>1.4065155609167674E-2</v>
       </c>
       <c r="L28" s="144" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M28" s="109">
         <v>2.7719267942583746E-2</v>
@@ -24471,7 +25000,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="77.5" x14ac:dyDescent="0.35">
@@ -24488,7 +25017,7 @@
         <v>178</v>
       </c>
       <c r="F31" s="140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G31" s="142" t="s">
         <v>187</v>
@@ -24516,7 +25045,7 @@
         <v>178</v>
       </c>
       <c r="P31" s="140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="142" t="s">
         <v>187</v>
@@ -24535,7 +25064,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B32" s="172" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="173">
         <f t="shared" ref="C32:J34" si="0">C26/C$25</f>
@@ -24571,7 +25100,7 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="172" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M32" s="173">
         <f t="shared" ref="M32:T32" si="1">M26/M$25</f>
@@ -24610,7 +25139,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B33" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="173">
         <f t="shared" si="0"/>
@@ -24646,7 +25175,7 @@
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M33" s="173">
         <f t="shared" ref="M33:T33" si="2">M27/M$25</f>
@@ -24683,7 +25212,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B34" s="161" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="173">
         <f t="shared" si="0"/>
@@ -24719,7 +25248,7 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="161" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M34" s="173">
         <f t="shared" ref="M34:T34" si="3">M28/M$25</f>
@@ -24760,7 +25289,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -24797,7 +25326,7 @@
         <v>178</v>
       </c>
       <c r="F37" s="140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G37" s="142" t="s">
         <v>187</v>
@@ -24814,10 +25343,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="174">
         <f>AVERAGE(C32,M32)</f>
@@ -24854,7 +25383,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B39" s="149" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="174">
         <f t="shared" ref="C39:C40" si="5">AVERAGE(C33,M33)</f>
@@ -24891,7 +25420,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B40" s="150" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="174">
         <f t="shared" si="5"/>
@@ -25317,21 +25846,21 @@
   <sheetData>
     <row r="1" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="201"/>
-      <c r="C1" s="260" t="s">
+      <c r="C1" s="262" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="263" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="261" t="s">
+      <c r="G1" s="248"/>
+      <c r="H1" s="208" t="s">
         <v>251</v>
-      </c>
-      <c r="G1" s="251"/>
-      <c r="H1" s="208" t="s">
-        <v>252</v>
       </c>
       <c r="I1" s="207"/>
       <c r="J1" s="206" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K1" s="205"/>
       <c r="L1" s="205"/>
@@ -25342,503 +25871,503 @@
       <c r="Q1" s="205"/>
       <c r="R1" s="205"/>
       <c r="S1" s="205"/>
-      <c r="T1" s="262" t="s">
+      <c r="T1" s="264" t="s">
+        <v>253</v>
+      </c>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="265" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="263" t="s">
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="266" t="s">
         <v>255</v>
       </c>
-      <c r="Z1" s="251"/>
-      <c r="AA1" s="251"/>
-      <c r="AB1" s="251"/>
-      <c r="AC1" s="264" t="s">
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="267" t="s">
         <v>256</v>
       </c>
-      <c r="AD1" s="251"/>
-      <c r="AE1" s="251"/>
-      <c r="AF1" s="251"/>
-      <c r="AG1" s="266" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="267" t="s">
-        <v>349</v>
-      </c>
-      <c r="AJ1" s="268"/>
-      <c r="AK1" s="268"/>
-      <c r="AL1" s="268"/>
-      <c r="AM1" s="248" t="s">
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="260" t="s">
         <v>348</v>
       </c>
-      <c r="AN1" s="248"/>
-      <c r="AO1" s="248"/>
-      <c r="AP1" s="249" t="s">
+      <c r="AJ1" s="256"/>
+      <c r="AK1" s="256"/>
+      <c r="AL1" s="256"/>
+      <c r="AM1" s="275" t="s">
         <v>347</v>
       </c>
-      <c r="AQ1" s="249"/>
+      <c r="AN1" s="275"/>
+      <c r="AO1" s="275"/>
+      <c r="AP1" s="276" t="s">
+        <v>346</v>
+      </c>
+      <c r="AQ1" s="276"/>
     </row>
     <row r="2" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="177" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="248" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="251" t="s">
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="251" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="265" t="s">
+      <c r="G2" s="248"/>
+      <c r="H2" s="251" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="265" t="s">
+      <c r="I2" s="248"/>
+      <c r="J2" s="251" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="251"/>
-      <c r="J2" s="265" t="s">
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="251" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="265" t="s">
+      <c r="U2" s="248"/>
+      <c r="V2" s="248"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
+      <c r="Y2" s="251" t="s">
         <v>263</v>
       </c>
-      <c r="U2" s="251"/>
-      <c r="V2" s="251"/>
-      <c r="W2" s="251"/>
-      <c r="X2" s="251"/>
-      <c r="Y2" s="265" t="s">
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="248"/>
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="251" t="s">
         <v>264</v>
       </c>
-      <c r="Z2" s="251"/>
-      <c r="AA2" s="251"/>
-      <c r="AB2" s="251"/>
-      <c r="AC2" s="265" t="s">
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="248"/>
+      <c r="AG2" s="251" t="s">
         <v>265</v>
       </c>
-      <c r="AD2" s="251"/>
-      <c r="AE2" s="251"/>
-      <c r="AF2" s="251"/>
-      <c r="AG2" s="265" t="s">
-        <v>266</v>
-      </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="269" t="s">
-        <v>345</v>
-      </c>
-      <c r="AJ2" s="268"/>
-      <c r="AK2" s="268"/>
-      <c r="AL2" s="268"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="261" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ2" s="256"/>
+      <c r="AK2" s="256"/>
+      <c r="AL2" s="256"/>
       <c r="AM2" s="176" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AP2" s="176" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="201"/>
+      <c r="C3" s="268" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="258" t="s">
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="268" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="248"/>
+      <c r="H3" s="249" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="251"/>
-      <c r="H3" s="252" t="s">
+      <c r="I3" s="248"/>
+      <c r="J3" s="249" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="248"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="248"/>
+      <c r="P3" s="248"/>
+      <c r="Q3" s="248"/>
+      <c r="R3" s="248"/>
+      <c r="S3" s="248"/>
+      <c r="T3" s="249" t="s">
         <v>269</v>
       </c>
-      <c r="I3" s="251"/>
-      <c r="J3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="252" t="s">
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="249" t="s">
         <v>270</v>
       </c>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
-      <c r="X3" s="251"/>
-      <c r="Y3" s="252" t="s">
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="249" t="s">
         <v>271</v>
       </c>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252" t="s">
+      <c r="AB3" s="248"/>
+      <c r="AC3" s="249" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD3" s="248"/>
+      <c r="AE3" s="249" t="s">
         <v>272</v>
       </c>
-      <c r="AB3" s="251"/>
-      <c r="AC3" s="252" t="s">
+      <c r="AF3" s="248"/>
+      <c r="AG3" s="249" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH3" s="248"/>
+      <c r="AI3" s="255" t="s">
         <v>271</v>
       </c>
-      <c r="AD3" s="251"/>
-      <c r="AE3" s="252" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF3" s="251"/>
-      <c r="AG3" s="252" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="270" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ3" s="268"/>
-      <c r="AK3" s="270" t="s">
-        <v>354</v>
-      </c>
-      <c r="AL3" s="268"/>
+      <c r="AJ3" s="256"/>
+      <c r="AK3" s="255" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL3" s="256"/>
       <c r="AM3" s="176" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AP3" s="176" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="222" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="201"/>
       <c r="C4" s="224" t="s">
-        <v>341</v>
-      </c>
-      <c r="F4" s="271">
+        <v>340</v>
+      </c>
+      <c r="F4" s="250">
         <v>181</v>
       </c>
-      <c r="G4" s="271"/>
-      <c r="H4" s="265" t="s">
-        <v>339</v>
-      </c>
-      <c r="I4" s="252"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="251" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" s="249"/>
       <c r="J4" s="222" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T4" s="222" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y4" s="222" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA4" s="177"/>
       <c r="AC4" s="222" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AE4" s="177"/>
       <c r="AG4" s="222" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI4" s="223" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AK4" s="221"/>
       <c r="AM4" s="176" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AP4" s="176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="177" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="201"/>
+      <c r="C5" s="268" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="258" t="s">
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="249" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="252" t="s">
+      <c r="G5" s="248"/>
+      <c r="H5" s="249" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="251"/>
-      <c r="H5" s="252" t="s">
+      <c r="I5" s="248"/>
+      <c r="J5" s="249" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="248"/>
+      <c r="L5" s="249" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="248"/>
+      <c r="N5" s="252" t="s">
+        <v>326</v>
+      </c>
+      <c r="O5" s="252"/>
+      <c r="P5" s="249" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="248"/>
+      <c r="R5" s="249" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="248"/>
+      <c r="T5" s="249" t="s">
         <v>278</v>
       </c>
-      <c r="I5" s="251"/>
-      <c r="J5" s="252" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="251"/>
-      <c r="L5" s="252" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="251"/>
-      <c r="N5" s="272" t="s">
-        <v>327</v>
-      </c>
-      <c r="O5" s="272"/>
-      <c r="P5" s="252" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="252" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="251"/>
-      <c r="T5" s="252" t="s">
+      <c r="U5" s="248"/>
+      <c r="V5" s="248"/>
+      <c r="W5" s="248"/>
+      <c r="X5" s="248"/>
+      <c r="Y5" s="249" t="s">
         <v>279</v>
       </c>
-      <c r="U5" s="251"/>
-      <c r="V5" s="251"/>
-      <c r="W5" s="251"/>
-      <c r="X5" s="251"/>
-      <c r="Y5" s="252" t="s">
+      <c r="Z5" s="248"/>
+      <c r="AA5" s="248"/>
+      <c r="AB5" s="248"/>
+      <c r="AC5" s="249" t="s">
         <v>280</v>
       </c>
-      <c r="Z5" s="251"/>
-      <c r="AA5" s="251"/>
-      <c r="AB5" s="251"/>
-      <c r="AC5" s="252" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD5" s="251"/>
-      <c r="AE5" s="251"/>
-      <c r="AF5" s="251"/>
-      <c r="AG5" s="252" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH5" s="251"/>
-      <c r="AI5" s="270" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ5" s="268"/>
-      <c r="AK5" s="268"/>
-      <c r="AL5" s="268"/>
+      <c r="AD5" s="248"/>
+      <c r="AE5" s="248"/>
+      <c r="AF5" s="248"/>
+      <c r="AG5" s="249" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH5" s="248"/>
+      <c r="AI5" s="255" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ5" s="256"/>
+      <c r="AK5" s="256"/>
+      <c r="AL5" s="256"/>
       <c r="AM5" s="176" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AP5" s="176" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AQ5" s="176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="177" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="249" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="252" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="259" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" s="251"/>
-      <c r="H6" s="252" t="s">
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="272" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="248"/>
+      <c r="H6" s="249" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" s="248"/>
+      <c r="J6" s="249" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="251"/>
-      <c r="J6" s="252" t="s">
+      <c r="K6" s="249"/>
+      <c r="L6" s="249"/>
+      <c r="M6" s="249"/>
+      <c r="N6" s="249"/>
+      <c r="O6" s="249"/>
+      <c r="P6" s="249" t="s">
         <v>286</v>
       </c>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252" t="s">
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
+      <c r="T6" s="249" t="s">
         <v>287</v>
       </c>
-      <c r="Q6" s="251"/>
-      <c r="R6" s="251"/>
-      <c r="S6" s="251"/>
-      <c r="T6" s="252" t="s">
+      <c r="U6" s="248"/>
+      <c r="V6" s="249" t="s">
         <v>288</v>
       </c>
-      <c r="U6" s="251"/>
-      <c r="V6" s="252" t="s">
-        <v>289</v>
-      </c>
-      <c r="W6" s="251"/>
-      <c r="X6" s="251"/>
-      <c r="Y6" s="252" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z6" s="251"/>
-      <c r="AA6" s="251"/>
-      <c r="AB6" s="251"/>
-      <c r="AC6" s="252" t="s">
+      <c r="W6" s="248"/>
+      <c r="X6" s="248"/>
+      <c r="Y6" s="249" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z6" s="248"/>
+      <c r="AA6" s="248"/>
+      <c r="AB6" s="248"/>
+      <c r="AC6" s="249" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD6" s="248"/>
+      <c r="AE6" s="248"/>
+      <c r="AF6" s="248"/>
+      <c r="AG6" s="249" t="s">
         <v>291</v>
       </c>
-      <c r="AD6" s="251"/>
-      <c r="AE6" s="251"/>
-      <c r="AF6" s="251"/>
-      <c r="AG6" s="252" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH6" s="251"/>
-      <c r="AI6" s="270" t="s">
-        <v>322</v>
-      </c>
-      <c r="AJ6" s="268"/>
-      <c r="AK6" s="268"/>
-      <c r="AL6" s="268"/>
+      <c r="AH6" s="248"/>
+      <c r="AI6" s="255" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ6" s="256"/>
+      <c r="AK6" s="256"/>
+      <c r="AL6" s="256"/>
       <c r="AM6" s="176" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AP6" s="215" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="52" x14ac:dyDescent="0.3">
       <c r="B7" s="201" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="201" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="201" t="s">
+      <c r="D7" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="E7" s="201" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="201" t="s">
+      <c r="F7" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="201" t="s">
         <v>296</v>
       </c>
-      <c r="F7" s="201" t="s">
+      <c r="H7" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="201" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="201" t="s">
+      <c r="J7" s="201" t="s">
         <v>297</v>
       </c>
-      <c r="H7" s="201" t="s">
-        <v>295</v>
-      </c>
-      <c r="I7" s="201" t="s">
+      <c r="K7" s="201" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" s="201" t="s">
+        <v>299</v>
+      </c>
+      <c r="M7" s="201" t="s">
+        <v>300</v>
+      </c>
+      <c r="N7" s="201" t="s">
+        <v>299</v>
+      </c>
+      <c r="O7" s="201" t="s">
+        <v>300</v>
+      </c>
+      <c r="P7" s="201" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="201" t="s">
+        <v>298</v>
+      </c>
+      <c r="R7" s="201" t="s">
+        <v>299</v>
+      </c>
+      <c r="S7" s="201" t="s">
+        <v>300</v>
+      </c>
+      <c r="T7" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="U7" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="V7" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="W7" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="X7" s="201" t="s">
         <v>296</v>
       </c>
-      <c r="J7" s="201" t="s">
-        <v>298</v>
-      </c>
-      <c r="K7" s="201" t="s">
-        <v>299</v>
-      </c>
-      <c r="L7" s="201" t="s">
-        <v>300</v>
-      </c>
-      <c r="M7" s="201" t="s">
-        <v>301</v>
-      </c>
-      <c r="N7" s="201" t="s">
-        <v>300</v>
-      </c>
-      <c r="O7" s="201" t="s">
-        <v>301</v>
-      </c>
-      <c r="P7" s="201" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q7" s="201" t="s">
-        <v>299</v>
-      </c>
-      <c r="R7" s="201" t="s">
-        <v>300</v>
-      </c>
-      <c r="S7" s="201" t="s">
-        <v>301</v>
-      </c>
-      <c r="T7" s="201" t="s">
+      <c r="Y7" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="U7" s="201" t="s">
-        <v>295</v>
-      </c>
-      <c r="V7" s="201" t="s">
+      <c r="Z7" s="200" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA7" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="W7" s="201" t="s">
-        <v>295</v>
-      </c>
-      <c r="X7" s="201" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y7" s="201" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z7" s="200" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA7" s="201" t="s">
-        <v>295</v>
-      </c>
       <c r="AB7" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AC7" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AD7" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE7" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF7" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG7" s="200" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH7" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI7" s="239" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AJ7" s="239" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK7" s="239" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL7" s="239" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM7" s="239" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN7" s="239" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AO7" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AP7" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AQ7" s="200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="230" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="229"/>
       <c r="C8" s="231"/>
@@ -25883,7 +26412,7 @@
     </row>
     <row r="9" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="177">
         <v>16</v>
@@ -25949,7 +26478,7 @@
     </row>
     <row r="10" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="177">
         <v>18</v>
@@ -26013,8 +26542,8 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="247" t="s">
-        <v>305</v>
+      <c r="A11" s="271" t="s">
+        <v>304</v>
       </c>
       <c r="B11" s="177">
         <v>31</v>
@@ -26026,14 +26555,14 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E11" s="256">
+      <c r="E11" s="270">
         <f>SUM(D11:D15)</f>
         <v>0.30541871921182273</v>
       </c>
       <c r="H11" s="177">
         <v>7.3</v>
       </c>
-      <c r="I11" s="256">
+      <c r="I11" s="270">
         <f>(SUM(H11:H15)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.38227528089887641</v>
       </c>
@@ -26047,21 +26576,21 @@
         <f>V11/SUM(V9:V26)</f>
         <v>7.2289156626506035E-2</v>
       </c>
-      <c r="X11" s="257">
+      <c r="X11" s="258">
         <f>SUM(W11:W15)</f>
         <v>0.37349397590361455</v>
       </c>
       <c r="Y11" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z11" s="252">
+      <c r="Z11" s="249">
         <f>SUM(Y11:Y15)/100</f>
         <v>0.36799999999999999</v>
       </c>
       <c r="AA11" s="177">
         <v>8</v>
       </c>
-      <c r="AB11" s="252">
+      <c r="AB11" s="249">
         <f>SUM(AA11:AA15)/100</f>
         <v>0.318</v>
       </c>
@@ -26072,13 +26601,13 @@
         <f t="shared" ref="AN11:AN26" si="1">AM11/SUM(AM$9:AM$26)</f>
         <v>4.2282672974571271E-2</v>
       </c>
-      <c r="AO11" s="246">
+      <c r="AO11" s="274">
         <f>SUM(AN11:AN15)</f>
         <v>0.30829883698009075</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="247"/>
+      <c r="A12" s="271"/>
       <c r="B12" s="177">
         <v>33</v>
       </c>
@@ -26089,11 +26618,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E12" s="251"/>
+      <c r="E12" s="248"/>
       <c r="H12" s="177">
         <v>6.6</v>
       </c>
-      <c r="I12" s="251"/>
+      <c r="I12" s="248"/>
       <c r="T12" s="177">
         <v>0.7</v>
       </c>
@@ -26104,15 +26633,15 @@
         <f>V12/SUM(V9:V26)</f>
         <v>4.8192771084337359E-2</v>
       </c>
-      <c r="X12" s="251"/>
+      <c r="X12" s="248"/>
       <c r="Y12" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z12" s="251"/>
+      <c r="Z12" s="248"/>
       <c r="AA12" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB12" s="251"/>
+      <c r="AB12" s="248"/>
       <c r="AM12" s="176">
         <v>6.03</v>
       </c>
@@ -26120,10 +26649,10 @@
         <f t="shared" si="1"/>
         <v>5.9432288586635143E-2</v>
       </c>
-      <c r="AO12" s="247"/>
+      <c r="AO12" s="271"/>
     </row>
     <row r="13" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="247"/>
+      <c r="A13" s="271"/>
       <c r="B13" s="177">
         <v>45</v>
       </c>
@@ -26134,11 +26663,11 @@
         <f t="shared" si="0"/>
         <v>7.3891625615763554E-2</v>
       </c>
-      <c r="E13" s="251"/>
+      <c r="E13" s="248"/>
       <c r="H13" s="177">
         <v>6.1</v>
       </c>
-      <c r="I13" s="251"/>
+      <c r="I13" s="248"/>
       <c r="T13" s="177">
         <v>0.7</v>
       </c>
@@ -26149,15 +26678,15 @@
         <f>V13/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X13" s="251"/>
+      <c r="X13" s="248"/>
       <c r="Y13" s="177">
         <v>5.9</v>
       </c>
-      <c r="Z13" s="251"/>
+      <c r="Z13" s="248"/>
       <c r="AA13" s="177">
         <v>4.8</v>
       </c>
-      <c r="AB13" s="251"/>
+      <c r="AB13" s="248"/>
       <c r="AM13" s="176">
         <v>7.46</v>
       </c>
@@ -26165,10 +26694,10 @@
         <f t="shared" si="1"/>
         <v>7.3526512911492231E-2</v>
       </c>
-      <c r="AO13" s="247"/>
+      <c r="AO13" s="271"/>
     </row>
     <row r="14" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="247"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="177">
         <v>52</v>
       </c>
@@ -26179,11 +26708,11 @@
         <f t="shared" si="0"/>
         <v>6.4039408866995079E-2</v>
       </c>
-      <c r="E14" s="251"/>
+      <c r="E14" s="248"/>
       <c r="H14" s="177">
         <v>12.9</v>
       </c>
-      <c r="I14" s="251"/>
+      <c r="I14" s="248"/>
       <c r="T14" s="177">
         <v>3.2</v>
       </c>
@@ -26194,15 +26723,15 @@
         <f>V14/SUM(V9:V26)</f>
         <v>0.18072289156626509</v>
       </c>
-      <c r="X14" s="251"/>
+      <c r="X14" s="248"/>
       <c r="Y14" s="177">
         <v>8.6</v>
       </c>
-      <c r="Z14" s="251"/>
+      <c r="Z14" s="248"/>
       <c r="AA14" s="177">
         <v>8</v>
       </c>
-      <c r="AB14" s="251"/>
+      <c r="AB14" s="248"/>
       <c r="AM14" s="176">
         <v>5.64</v>
       </c>
@@ -26210,10 +26739,10 @@
         <f t="shared" si="1"/>
         <v>5.5588409225310477E-2</v>
       </c>
-      <c r="AO14" s="247"/>
+      <c r="AO14" s="271"/>
     </row>
     <row r="15" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="247"/>
+      <c r="A15" s="271"/>
       <c r="B15" s="177">
         <v>58</v>
       </c>
@@ -26224,11 +26753,11 @@
         <f t="shared" si="0"/>
         <v>7.8817733990147798E-2</v>
       </c>
-      <c r="E15" s="251"/>
+      <c r="E15" s="248"/>
       <c r="H15" s="177">
         <v>11</v>
       </c>
-      <c r="I15" s="251"/>
+      <c r="I15" s="248"/>
       <c r="T15" s="177">
         <v>0.6</v>
       </c>
@@ -26239,15 +26768,15 @@
         <f>V15/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X15" s="251"/>
+      <c r="X15" s="248"/>
       <c r="Y15" s="177">
         <v>10.7</v>
       </c>
-      <c r="Z15" s="251"/>
+      <c r="Z15" s="248"/>
       <c r="AA15" s="177">
         <v>6.3</v>
       </c>
-      <c r="AB15" s="251"/>
+      <c r="AB15" s="248"/>
       <c r="AM15" s="176">
         <v>7.86</v>
       </c>
@@ -26255,11 +26784,11 @@
         <f t="shared" si="1"/>
         <v>7.7468953282081629E-2</v>
       </c>
-      <c r="AO15" s="247"/>
+      <c r="AO15" s="271"/>
     </row>
     <row r="16" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="250" t="s">
-        <v>306</v>
+      <c r="A16" s="269" t="s">
+        <v>305</v>
       </c>
       <c r="B16" s="177">
         <v>26</v>
@@ -26271,24 +26800,24 @@
         <f t="shared" si="0"/>
         <v>9.8522167487684748E-3</v>
       </c>
-      <c r="E16" s="256">
+      <c r="E16" s="270">
         <f>SUM(D16:D26)</f>
         <v>0.53694581280788167</v>
       </c>
-      <c r="I16" s="256">
+      <c r="I16" s="270">
         <f>(SUM(H16:H26)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.39272471910112366</v>
       </c>
       <c r="W16" s="196"/>
-      <c r="X16" s="257">
+      <c r="X16" s="258">
         <f>SUM(V16:V26)/SUM(V9:V26)</f>
         <v>0.46987951807228928</v>
       </c>
-      <c r="Z16" s="253">
+      <c r="Z16" s="247">
         <f>1-SUM(Z9:Z15)</f>
         <v>0.41799999999999993</v>
       </c>
-      <c r="AB16" s="253">
+      <c r="AB16" s="247">
         <f>1-SUM(AB9:AB15)</f>
         <v>0.39400000000000002</v>
       </c>
@@ -26299,13 +26828,13 @@
         <f t="shared" si="1"/>
         <v>1.872659176029963E-2</v>
       </c>
-      <c r="AO16" s="246">
+      <c r="AO16" s="274">
         <f>SUM(AN16:AN26)</f>
         <v>0.52661147250147844</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="251"/>
+      <c r="A17" s="248"/>
       <c r="B17" s="177">
         <v>35</v>
       </c>
@@ -26316,11 +26845,11 @@
         <f t="shared" si="0"/>
         <v>9.3596059113300503E-2</v>
       </c>
-      <c r="E17" s="251"/>
+      <c r="E17" s="248"/>
       <c r="H17" s="177">
         <v>10.4</v>
       </c>
-      <c r="I17" s="251"/>
+      <c r="I17" s="248"/>
       <c r="T17" s="177">
         <v>1.9</v>
       </c>
@@ -26331,15 +26860,15 @@
         <f>V17/SUM(V9:V26)</f>
         <v>0.13253012048192775</v>
       </c>
-      <c r="X17" s="251"/>
+      <c r="X17" s="248"/>
       <c r="Y17" s="177">
         <v>6.6</v>
       </c>
-      <c r="Z17" s="251"/>
+      <c r="Z17" s="248"/>
       <c r="AA17" s="177">
         <v>3.4</v>
       </c>
-      <c r="AB17" s="251"/>
+      <c r="AB17" s="248"/>
       <c r="AM17" s="176">
         <v>6.59</v>
       </c>
@@ -26347,10 +26876,10 @@
         <f t="shared" si="1"/>
         <v>6.4951705105460292E-2</v>
       </c>
-      <c r="AO17" s="246"/>
+      <c r="AO17" s="274"/>
     </row>
     <row r="18" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="251"/>
+      <c r="A18" s="248"/>
       <c r="B18" s="177">
         <v>39</v>
       </c>
@@ -26361,11 +26890,11 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E18" s="251"/>
+      <c r="E18" s="248"/>
       <c r="H18" s="177">
         <v>6.1</v>
       </c>
-      <c r="I18" s="251"/>
+      <c r="I18" s="248"/>
       <c r="T18" s="177">
         <v>0.6</v>
       </c>
@@ -26376,12 +26905,12 @@
         <f>V18/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X18" s="251"/>
-      <c r="Z18" s="251"/>
+      <c r="X18" s="248"/>
+      <c r="Z18" s="248"/>
       <c r="AA18" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB18" s="251"/>
+      <c r="AB18" s="248"/>
       <c r="AM18" s="176">
         <v>5</v>
       </c>
@@ -26389,10 +26918,10 @@
         <f t="shared" si="1"/>
         <v>4.9280504632367446E-2</v>
       </c>
-      <c r="AO18" s="246"/>
+      <c r="AO18" s="274"/>
     </row>
     <row r="19" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="251"/>
+      <c r="A19" s="248"/>
       <c r="B19" s="177">
         <v>51</v>
       </c>
@@ -26403,11 +26932,11 @@
         <f t="shared" si="0"/>
         <v>4.9261083743842374E-2</v>
       </c>
-      <c r="E19" s="251"/>
+      <c r="E19" s="248"/>
       <c r="H19" s="177">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I19" s="251"/>
+      <c r="I19" s="248"/>
       <c r="T19" s="177">
         <v>2.1</v>
       </c>
@@ -26418,12 +26947,12 @@
         <f>V19/SUM(V9:V26)</f>
         <v>9.6385542168674718E-2</v>
       </c>
-      <c r="X19" s="251"/>
-      <c r="Z19" s="251"/>
+      <c r="X19" s="248"/>
+      <c r="Z19" s="248"/>
       <c r="AA19" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB19" s="251"/>
+      <c r="AB19" s="248"/>
       <c r="AM19" s="176">
         <v>9.2899999999999991</v>
       </c>
@@ -26431,10 +26960,10 @@
         <f t="shared" si="1"/>
         <v>9.1563177606938703E-2</v>
       </c>
-      <c r="AO19" s="246"/>
+      <c r="AO19" s="274"/>
     </row>
     <row r="20" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="251"/>
+      <c r="A20" s="248"/>
       <c r="B20" s="177">
         <v>53</v>
       </c>
@@ -26445,8 +26974,8 @@
         <f t="shared" si="0"/>
         <v>0.11330049261083744</v>
       </c>
-      <c r="E20" s="251"/>
-      <c r="I20" s="251"/>
+      <c r="E20" s="248"/>
+      <c r="I20" s="248"/>
       <c r="T20" s="177">
         <v>0.6</v>
       </c>
@@ -26457,9 +26986,9 @@
         <f>V20/SUM(V9:V26)</f>
         <v>2.4096385542168679E-2</v>
       </c>
-      <c r="X20" s="251"/>
-      <c r="Z20" s="251"/>
-      <c r="AB20" s="251"/>
+      <c r="X20" s="248"/>
+      <c r="Z20" s="248"/>
+      <c r="AB20" s="248"/>
       <c r="AM20" s="176">
         <v>9.1300000000000008</v>
       </c>
@@ -26467,10 +26996,10 @@
         <f t="shared" si="1"/>
         <v>8.9986201458702966E-2</v>
       </c>
-      <c r="AO20" s="246"/>
+      <c r="AO20" s="274"/>
     </row>
     <row r="21" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="251"/>
+      <c r="A21" s="248"/>
       <c r="B21" s="177">
         <v>56</v>
       </c>
@@ -26481,11 +27010,11 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E21" s="251"/>
+      <c r="E21" s="248"/>
       <c r="H21" s="177">
         <v>8</v>
       </c>
-      <c r="I21" s="251"/>
+      <c r="I21" s="248"/>
       <c r="T21" s="177">
         <v>0.9</v>
       </c>
@@ -26496,12 +27025,12 @@
         <f>V21/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X21" s="251"/>
-      <c r="Z21" s="251"/>
+      <c r="X21" s="248"/>
+      <c r="Z21" s="248"/>
       <c r="AA21" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB21" s="251"/>
+      <c r="AB21" s="248"/>
       <c r="AM21" s="176">
         <v>4.05</v>
       </c>
@@ -26509,10 +27038,10 @@
         <f t="shared" si="1"/>
         <v>3.9917208752217631E-2</v>
       </c>
-      <c r="AO21" s="246"/>
+      <c r="AO21" s="274"/>
     </row>
     <row r="22" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="251"/>
+      <c r="A22" s="248"/>
       <c r="B22" s="177">
         <v>59</v>
       </c>
@@ -26523,11 +27052,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E22" s="251"/>
+      <c r="E22" s="248"/>
       <c r="H22" s="177">
         <v>5</v>
       </c>
-      <c r="I22" s="251"/>
+      <c r="I22" s="248"/>
       <c r="T22" s="177">
         <v>0.1</v>
       </c>
@@ -26538,12 +27067,12 @@
         <f>V22/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X22" s="251"/>
-      <c r="Z22" s="251"/>
+      <c r="X22" s="248"/>
+      <c r="Z22" s="248"/>
       <c r="AA22" s="177">
         <v>3.2</v>
       </c>
-      <c r="AB22" s="251"/>
+      <c r="AB22" s="248"/>
       <c r="AM22" s="176">
         <v>2.94</v>
       </c>
@@ -26551,10 +27080,10 @@
         <f t="shared" si="1"/>
         <v>2.8976936723832059E-2</v>
       </c>
-      <c r="AO22" s="246"/>
+      <c r="AO22" s="274"/>
     </row>
     <row r="23" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="251"/>
+      <c r="A23" s="248"/>
       <c r="B23" s="177">
         <v>66</v>
       </c>
@@ -26565,8 +27094,8 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E23" s="251"/>
-      <c r="I23" s="251"/>
+      <c r="E23" s="248"/>
+      <c r="I23" s="248"/>
       <c r="T23" s="177">
         <v>1.6</v>
       </c>
@@ -26577,9 +27106,9 @@
         <f>V23/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X23" s="251"/>
-      <c r="Z23" s="251"/>
-      <c r="AB23" s="251"/>
+      <c r="X23" s="248"/>
+      <c r="Z23" s="248"/>
+      <c r="AB23" s="248"/>
       <c r="AM23" s="176">
         <v>5.43</v>
       </c>
@@ -26587,10 +27116,10 @@
         <f t="shared" si="1"/>
         <v>5.3518628030751046E-2</v>
       </c>
-      <c r="AO23" s="246"/>
+      <c r="AO23" s="274"/>
     </row>
     <row r="24" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="251"/>
+      <c r="A24" s="248"/>
       <c r="B24" s="177">
         <v>68</v>
       </c>
@@ -26601,11 +27130,11 @@
         <f t="shared" si="0"/>
         <v>5.9113300492610842E-2</v>
       </c>
-      <c r="E24" s="251"/>
+      <c r="E24" s="248"/>
       <c r="H24" s="177">
         <v>6.9</v>
       </c>
-      <c r="I24" s="251"/>
+      <c r="I24" s="248"/>
       <c r="T24" s="177">
         <v>1.1000000000000001</v>
       </c>
@@ -26616,12 +27145,12 @@
         <f>V24/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X24" s="251"/>
-      <c r="Z24" s="251"/>
+      <c r="X24" s="248"/>
+      <c r="Z24" s="248"/>
       <c r="AA24" s="177">
         <v>3.1</v>
       </c>
-      <c r="AB24" s="251"/>
+      <c r="AB24" s="248"/>
       <c r="AM24" s="176">
         <v>4.5999999999999996</v>
       </c>
@@ -26629,10 +27158,10 @@
         <f t="shared" si="1"/>
         <v>4.5338064261778048E-2</v>
       </c>
-      <c r="AO24" s="246"/>
+      <c r="AO24" s="274"/>
     </row>
     <row r="25" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="251"/>
+      <c r="A25" s="248"/>
       <c r="B25" s="177">
         <v>73</v>
       </c>
@@ -26643,12 +27172,12 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E25" s="251"/>
-      <c r="I25" s="251"/>
+      <c r="E25" s="248"/>
+      <c r="I25" s="248"/>
       <c r="W25" s="196"/>
-      <c r="X25" s="251"/>
-      <c r="Z25" s="251"/>
-      <c r="AB25" s="251"/>
+      <c r="X25" s="248"/>
+      <c r="Z25" s="248"/>
+      <c r="AB25" s="248"/>
       <c r="AM25" s="176">
         <v>2.4</v>
       </c>
@@ -26656,10 +27185,10 @@
         <f t="shared" si="1"/>
         <v>2.3654642223536373E-2</v>
       </c>
-      <c r="AO25" s="246"/>
+      <c r="AO25" s="274"/>
     </row>
     <row r="26" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="251"/>
+      <c r="A26" s="248"/>
       <c r="B26" s="177">
         <v>82</v>
       </c>
@@ -26670,8 +27199,8 @@
         <f t="shared" si="0"/>
         <v>1.970443349753695E-2</v>
       </c>
-      <c r="E26" s="251"/>
-      <c r="I26" s="251"/>
+      <c r="E26" s="248"/>
+      <c r="I26" s="248"/>
       <c r="T26" s="177">
         <v>0.3</v>
       </c>
@@ -26682,9 +27211,9 @@
         <f>V26/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X26" s="251"/>
-      <c r="Z26" s="251"/>
-      <c r="AB26" s="251"/>
+      <c r="X26" s="248"/>
+      <c r="Z26" s="248"/>
+      <c r="AB26" s="248"/>
       <c r="AM26" s="176">
         <v>2.1</v>
       </c>
@@ -26692,12 +27221,12 @@
         <f t="shared" si="1"/>
         <v>2.0697811945594329E-2</v>
       </c>
-      <c r="AO26" s="246"/>
+      <c r="AO26" s="274"/>
       <c r="AP26" s="236"/>
     </row>
     <row r="27" spans="1:42" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="230" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B27" s="229"/>
       <c r="C27" s="229"/>
@@ -26738,8 +27267,8 @@
       <c r="AL27" s="228"/>
     </row>
     <row r="28" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="250" t="s">
-        <v>308</v>
+      <c r="A28" s="269" t="s">
+        <v>307</v>
       </c>
       <c r="B28" s="177">
         <v>16</v>
@@ -26799,7 +27328,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="251"/>
+      <c r="A29" s="248"/>
       <c r="B29" s="177">
         <v>18</v>
       </c>
@@ -26858,7 +27387,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="251"/>
+      <c r="A30" s="248"/>
       <c r="B30" s="177">
         <v>31</v>
       </c>
@@ -26869,14 +27398,14 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E30" s="256">
+      <c r="E30" s="270">
         <f>SUM(D30:D34)</f>
         <v>0.30085736554949344</v>
       </c>
       <c r="H30" s="194">
         <v>8.4</v>
       </c>
-      <c r="I30" s="253">
+      <c r="I30" s="247">
         <f>(SUM(H30:H34)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.30589562547966231</v>
       </c>
@@ -26890,34 +27419,34 @@
         <f>V30/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X30" s="257">
+      <c r="X30" s="258">
         <f>SUM(W30:W34)</f>
         <v>0.44139650872817959</v>
       </c>
       <c r="Y30" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z30" s="252">
+      <c r="Z30" s="249">
         <f>SUM(Y30:Y34)/100</f>
         <v>0.42</v>
       </c>
       <c r="AA30" s="177">
         <v>9.5</v>
       </c>
-      <c r="AB30" s="252">
+      <c r="AB30" s="249">
         <f>SUM(AA30:AA34)/100</f>
         <v>0.35100000000000003</v>
       </c>
       <c r="AG30" s="177">
         <v>6.1</v>
       </c>
-      <c r="AH30" s="252">
+      <c r="AH30" s="249">
         <f>SUM(AG30:AG34)/100</f>
         <v>0.317</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="251"/>
+      <c r="A31" s="248"/>
       <c r="B31" s="177">
         <v>33</v>
       </c>
@@ -26928,11 +27457,11 @@
         <f t="shared" si="2"/>
         <v>5.4559625876851141E-2</v>
       </c>
-      <c r="E31" s="251"/>
+      <c r="E31" s="248"/>
       <c r="H31" s="194">
         <v>10</v>
       </c>
-      <c r="I31" s="251"/>
+      <c r="I31" s="248"/>
       <c r="T31" s="177">
         <v>3.2</v>
       </c>
@@ -26943,22 +27472,22 @@
         <f>V31/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X31" s="251"/>
+      <c r="X31" s="248"/>
       <c r="Y31" s="177">
         <v>8.5</v>
       </c>
-      <c r="Z31" s="251"/>
+      <c r="Z31" s="248"/>
       <c r="AA31" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB31" s="251"/>
+      <c r="AB31" s="248"/>
       <c r="AG31" s="177">
         <v>5.9</v>
       </c>
-      <c r="AH31" s="251"/>
+      <c r="AH31" s="248"/>
     </row>
     <row r="32" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="251"/>
+      <c r="A32" s="248"/>
       <c r="B32" s="177">
         <v>45</v>
       </c>
@@ -26969,11 +27498,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E32" s="251"/>
+      <c r="E32" s="248"/>
       <c r="H32" s="194">
         <v>11.3</v>
       </c>
-      <c r="I32" s="251"/>
+      <c r="I32" s="248"/>
       <c r="T32" s="177">
         <v>3.2</v>
       </c>
@@ -26984,22 +27513,22 @@
         <f>V32/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X32" s="251"/>
+      <c r="X32" s="248"/>
       <c r="Y32" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z32" s="251"/>
+      <c r="Z32" s="248"/>
       <c r="AA32" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB32" s="251"/>
+      <c r="AB32" s="248"/>
       <c r="AG32" s="177">
         <v>2.9</v>
       </c>
-      <c r="AH32" s="251"/>
+      <c r="AH32" s="248"/>
     </row>
     <row r="33" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="251"/>
+      <c r="A33" s="248"/>
       <c r="B33" s="177">
         <v>52</v>
       </c>
@@ -27010,11 +27539,11 @@
         <f t="shared" si="2"/>
         <v>0.13639906469212784</v>
       </c>
-      <c r="E33" s="251"/>
+      <c r="E33" s="248"/>
       <c r="H33" s="194">
         <v>16.8</v>
       </c>
-      <c r="I33" s="251"/>
+      <c r="I33" s="248"/>
       <c r="T33" s="177">
         <v>14.5</v>
       </c>
@@ -27025,22 +27554,22 @@
         <f>V33/SUM(V28:V45)</f>
         <v>0.16209476309226933</v>
       </c>
-      <c r="X33" s="251"/>
+      <c r="X33" s="248"/>
       <c r="Y33" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z33" s="251"/>
+      <c r="Z33" s="248"/>
       <c r="AA33" s="177">
         <v>8.1</v>
       </c>
-      <c r="AB33" s="251"/>
+      <c r="AB33" s="248"/>
       <c r="AG33" s="177">
         <v>6.8</v>
       </c>
-      <c r="AH33" s="251"/>
+      <c r="AH33" s="248"/>
     </row>
     <row r="34" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="251"/>
+      <c r="A34" s="248"/>
       <c r="B34" s="177">
         <v>58</v>
       </c>
@@ -27051,11 +27580,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E34" s="251"/>
+      <c r="E34" s="248"/>
       <c r="H34" s="194">
         <v>15.2</v>
       </c>
-      <c r="I34" s="251"/>
+      <c r="I34" s="248"/>
       <c r="T34" s="177">
         <v>8.1</v>
       </c>
@@ -27066,23 +27595,23 @@
         <f>V34/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X34" s="251"/>
+      <c r="X34" s="248"/>
       <c r="Y34" s="177">
         <v>10.8</v>
       </c>
-      <c r="Z34" s="251"/>
+      <c r="Z34" s="248"/>
       <c r="AA34" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB34" s="251"/>
+      <c r="AB34" s="248"/>
       <c r="AG34" s="177">
         <v>10</v>
       </c>
-      <c r="AH34" s="251"/>
+      <c r="AH34" s="248"/>
     </row>
     <row r="35" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="250" t="s">
-        <v>306</v>
+      <c r="A35" s="269" t="s">
+        <v>305</v>
       </c>
       <c r="B35" s="177">
         <v>26</v>
@@ -27094,34 +27623,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="256">
+      <c r="E35" s="270">
         <f>SUM(D35:D46)</f>
         <v>0.53468433359314127</v>
       </c>
-      <c r="I35" s="253">
+      <c r="I35" s="247">
         <f>(SUM(H35:H46)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.34010437452033765</v>
       </c>
       <c r="W35" s="196"/>
-      <c r="X35" s="257">
+      <c r="X35" s="258">
         <f>SUM(V35:V45)/SUM(V28:V45)</f>
         <v>0.399002493765586</v>
       </c>
-      <c r="Z35" s="252">
+      <c r="Z35" s="249">
         <f>1-SUM(Z28:Z34)</f>
         <v>0.32899999999999996</v>
       </c>
-      <c r="AB35" s="252">
+      <c r="AB35" s="249">
         <f>1-SUM(AB28:AB34)</f>
         <v>0.31099999999999994</v>
       </c>
-      <c r="AH35" s="252">
+      <c r="AH35" s="249">
         <f>1-SUM(AH28:AH34)</f>
         <v>0.42700000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="251"/>
+      <c r="A36" s="248"/>
       <c r="B36" s="177">
         <v>35</v>
       </c>
@@ -27132,11 +27661,11 @@
         <f t="shared" si="2"/>
         <v>9.5869056897895572E-2</v>
       </c>
-      <c r="E36" s="251"/>
+      <c r="E36" s="248"/>
       <c r="H36" s="194">
         <v>15.8</v>
       </c>
-      <c r="I36" s="251"/>
+      <c r="I36" s="248"/>
       <c r="T36" s="177">
         <v>12.9</v>
       </c>
@@ -27147,22 +27676,22 @@
         <f>V36/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X36" s="251"/>
+      <c r="X36" s="248"/>
       <c r="Y36" s="177">
         <v>7.9</v>
       </c>
-      <c r="Z36" s="251"/>
+      <c r="Z36" s="248"/>
       <c r="AA36" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB36" s="251"/>
+      <c r="AB36" s="248"/>
       <c r="AG36" s="177">
         <v>6.5</v>
       </c>
-      <c r="AH36" s="251"/>
+      <c r="AH36" s="248"/>
     </row>
     <row r="37" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="251"/>
+      <c r="A37" s="248"/>
       <c r="B37" s="177">
         <v>39</v>
       </c>
@@ -27173,11 +27702,11 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E37" s="251"/>
+      <c r="E37" s="248"/>
       <c r="H37" s="194">
         <v>9.5</v>
       </c>
-      <c r="I37" s="251"/>
+      <c r="I37" s="248"/>
       <c r="T37" s="177">
         <v>6.5</v>
       </c>
@@ -27188,19 +27717,19 @@
         <f>V37/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="251"/>
-      <c r="Z37" s="251"/>
+      <c r="X37" s="248"/>
+      <c r="Z37" s="248"/>
       <c r="AA37" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB37" s="251"/>
+      <c r="AB37" s="248"/>
       <c r="AG37" s="177">
         <v>2</v>
       </c>
-      <c r="AH37" s="251"/>
+      <c r="AH37" s="248"/>
     </row>
     <row r="38" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="251"/>
+      <c r="A38" s="248"/>
       <c r="B38" s="177">
         <v>51</v>
       </c>
@@ -27211,11 +27740,11 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E38" s="251"/>
+      <c r="E38" s="248"/>
       <c r="H38" s="194">
         <v>13.2</v>
       </c>
-      <c r="I38" s="251"/>
+      <c r="I38" s="248"/>
       <c r="T38" s="177">
         <v>12.9</v>
       </c>
@@ -27226,19 +27755,19 @@
         <f>V38/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X38" s="251"/>
-      <c r="Z38" s="251"/>
+      <c r="X38" s="248"/>
+      <c r="Z38" s="248"/>
       <c r="AA38" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB38" s="251"/>
+      <c r="AB38" s="248"/>
       <c r="AG38" s="177">
         <v>1.9</v>
       </c>
-      <c r="AH38" s="251"/>
+      <c r="AH38" s="248"/>
     </row>
     <row r="39" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="251"/>
+      <c r="A39" s="248"/>
       <c r="B39" s="177">
         <v>53</v>
       </c>
@@ -27249,8 +27778,8 @@
         <f t="shared" si="2"/>
         <v>0.12314886983632115</v>
       </c>
-      <c r="E39" s="251"/>
-      <c r="I39" s="251"/>
+      <c r="E39" s="248"/>
+      <c r="I39" s="248"/>
       <c r="T39" s="177">
         <v>6.5</v>
       </c>
@@ -27261,16 +27790,16 @@
         <f>V39/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X39" s="251"/>
-      <c r="Z39" s="251"/>
-      <c r="AB39" s="251"/>
+      <c r="X39" s="248"/>
+      <c r="Z39" s="248"/>
+      <c r="AB39" s="248"/>
       <c r="AG39" s="177">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AH39" s="251"/>
+      <c r="AH39" s="248"/>
     </row>
     <row r="40" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="251"/>
+      <c r="A40" s="248"/>
       <c r="B40" s="177">
         <v>56</v>
       </c>
@@ -27281,11 +27810,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E40" s="251"/>
+      <c r="E40" s="248"/>
       <c r="H40" s="194">
         <v>11.8</v>
       </c>
-      <c r="I40" s="251"/>
+      <c r="I40" s="248"/>
       <c r="T40" s="177">
         <v>9.6999999999999993</v>
       </c>
@@ -27296,19 +27825,19 @@
         <f>V40/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X40" s="251"/>
-      <c r="Z40" s="251"/>
+      <c r="X40" s="248"/>
+      <c r="Z40" s="248"/>
       <c r="AA40" s="177">
         <v>8.6</v>
       </c>
-      <c r="AB40" s="251"/>
+      <c r="AB40" s="248"/>
       <c r="AG40" s="177">
         <v>4</v>
       </c>
-      <c r="AH40" s="251"/>
+      <c r="AH40" s="248"/>
     </row>
     <row r="41" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="251"/>
+      <c r="A41" s="248"/>
       <c r="B41" s="177">
         <v>59</v>
       </c>
@@ -27319,11 +27848,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E41" s="251"/>
+      <c r="E41" s="248"/>
       <c r="H41" s="194">
         <v>8.9</v>
       </c>
-      <c r="I41" s="251"/>
+      <c r="I41" s="248"/>
       <c r="T41" s="177">
         <v>1.6</v>
       </c>
@@ -27334,19 +27863,19 @@
         <f>V41/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="251"/>
-      <c r="Z41" s="251"/>
+      <c r="X41" s="248"/>
+      <c r="Z41" s="248"/>
       <c r="AA41" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB41" s="251"/>
+      <c r="AB41" s="248"/>
       <c r="AG41" s="177">
         <v>2.8</v>
       </c>
-      <c r="AH41" s="251"/>
+      <c r="AH41" s="248"/>
     </row>
     <row r="42" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="251"/>
+      <c r="A42" s="248"/>
       <c r="B42" s="177">
         <v>66</v>
       </c>
@@ -27357,8 +27886,8 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E42" s="251"/>
-      <c r="I42" s="251"/>
+      <c r="E42" s="248"/>
+      <c r="I42" s="248"/>
       <c r="T42" s="177">
         <v>6.5</v>
       </c>
@@ -27369,16 +27898,16 @@
         <f>V42/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X42" s="251"/>
-      <c r="Z42" s="251"/>
-      <c r="AB42" s="251"/>
+      <c r="X42" s="248"/>
+      <c r="Z42" s="248"/>
+      <c r="AB42" s="248"/>
       <c r="AG42" s="177">
         <v>3</v>
       </c>
-      <c r="AH42" s="251"/>
+      <c r="AH42" s="248"/>
     </row>
     <row r="43" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="251"/>
+      <c r="A43" s="248"/>
       <c r="B43" s="177">
         <v>68</v>
       </c>
@@ -27389,11 +27918,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="251"/>
+      <c r="E43" s="248"/>
       <c r="H43" s="194">
         <v>9.4</v>
       </c>
-      <c r="I43" s="251"/>
+      <c r="I43" s="248"/>
       <c r="T43" s="177">
         <v>4.8</v>
       </c>
@@ -27404,16 +27933,16 @@
         <f>V43/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X43" s="251"/>
-      <c r="Z43" s="251"/>
+      <c r="X43" s="248"/>
+      <c r="Z43" s="248"/>
       <c r="AA43" s="177">
         <v>2.7</v>
       </c>
-      <c r="AB43" s="251"/>
-      <c r="AH43" s="251"/>
+      <c r="AB43" s="248"/>
+      <c r="AH43" s="248"/>
     </row>
     <row r="44" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="251"/>
+      <c r="A44" s="248"/>
       <c r="B44" s="177">
         <v>73</v>
       </c>
@@ -27424,16 +27953,16 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="I44" s="251"/>
+      <c r="E44" s="248"/>
+      <c r="I44" s="248"/>
       <c r="W44" s="196"/>
-      <c r="X44" s="251"/>
-      <c r="Z44" s="251"/>
-      <c r="AB44" s="251"/>
-      <c r="AH44" s="251"/>
+      <c r="X44" s="248"/>
+      <c r="Z44" s="248"/>
+      <c r="AB44" s="248"/>
+      <c r="AH44" s="248"/>
     </row>
     <row r="45" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="251"/>
+      <c r="A45" s="248"/>
       <c r="B45" s="177">
         <v>82</v>
       </c>
@@ -27444,8 +27973,8 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E45" s="251"/>
-      <c r="I45" s="251"/>
+      <c r="E45" s="248"/>
+      <c r="I45" s="248"/>
       <c r="T45" s="177">
         <v>1.6</v>
       </c>
@@ -27456,13 +27985,13 @@
         <f>V45/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="251"/>
-      <c r="Z45" s="251"/>
-      <c r="AB45" s="251"/>
-      <c r="AH45" s="251"/>
+      <c r="X45" s="248"/>
+      <c r="Z45" s="248"/>
+      <c r="AB45" s="248"/>
+      <c r="AH45" s="248"/>
     </row>
     <row r="46" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="251"/>
+      <c r="A46" s="248"/>
       <c r="B46" s="177">
         <v>82</v>
       </c>
@@ -27473,15 +28002,15 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E46" s="251"/>
-      <c r="I46" s="251"/>
-      <c r="Z46" s="251"/>
-      <c r="AB46" s="251"/>
-      <c r="AH46" s="251"/>
+      <c r="E46" s="248"/>
+      <c r="I46" s="248"/>
+      <c r="Z46" s="248"/>
+      <c r="AB46" s="248"/>
+      <c r="AH46" s="248"/>
     </row>
     <row r="47" spans="1:43" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="230" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B47" s="229"/>
       <c r="C47" s="229"/>
@@ -27522,8 +28051,8 @@
       <c r="AL47" s="228"/>
     </row>
     <row r="48" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="250" t="s">
-        <v>308</v>
+      <c r="A48" s="269" t="s">
+        <v>307</v>
       </c>
       <c r="B48" s="177">
         <v>16</v>
@@ -27574,17 +28103,17 @@
         <f>AA48/100</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AP48" s="246">
+      <c r="AP48" s="274">
         <f>79.6/(79.6+13.3)</f>
         <v>0.85683530678148545</v>
       </c>
-      <c r="AQ48" s="246">
+      <c r="AQ48" s="274">
         <f>77.8/(77.8+15.6)</f>
         <v>0.83297644539614568</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="251"/>
+      <c r="A49" s="248"/>
       <c r="B49" s="177">
         <v>18</v>
       </c>
@@ -27634,11 +28163,11 @@
         <f>AA49/100</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AP49" s="246"/>
-      <c r="AQ49" s="246"/>
+      <c r="AP49" s="274"/>
+      <c r="AQ49" s="274"/>
     </row>
     <row r="50" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="251"/>
+      <c r="A50" s="248"/>
       <c r="B50" s="177">
         <v>31</v>
       </c>
@@ -27649,14 +28178,14 @@
         <f t="shared" si="3"/>
         <v>9.3220338983050863E-2</v>
       </c>
-      <c r="E50" s="256">
+      <c r="E50" s="270">
         <f>SUM(D50:D54)</f>
         <v>0.36571056062581492</v>
       </c>
       <c r="H50" s="194">
         <v>13.9</v>
       </c>
-      <c r="I50" s="253">
+      <c r="I50" s="247">
         <f>(SUM(H50:H54)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.27666666666666667</v>
       </c>
@@ -27670,29 +28199,29 @@
         <f>V50/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X50" s="257">
+      <c r="X50" s="258">
         <f>SUM(W50:W54)</f>
         <v>0.39491525423728807</v>
       </c>
       <c r="Y50" s="177">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Z50" s="252">
+      <c r="Z50" s="249">
         <f>SUM(Y50:Y54)/100</f>
         <v>0.43400000000000005</v>
       </c>
       <c r="AA50" s="195">
         <v>11</v>
       </c>
-      <c r="AB50" s="252">
+      <c r="AB50" s="249">
         <f>SUM(AA50:AA54)/100</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="AP50" s="246"/>
-      <c r="AQ50" s="246"/>
+      <c r="AP50" s="274"/>
+      <c r="AQ50" s="274"/>
     </row>
     <row r="51" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="251"/>
+      <c r="A51" s="248"/>
       <c r="B51" s="177">
         <v>33</v>
       </c>
@@ -27703,11 +28232,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E51" s="251"/>
+      <c r="E51" s="248"/>
       <c r="H51" s="194">
         <v>14.5</v>
       </c>
-      <c r="I51" s="251"/>
+      <c r="I51" s="248"/>
       <c r="T51" s="177">
         <v>9.5</v>
       </c>
@@ -27718,20 +28247,20 @@
         <f>V51/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X51" s="251"/>
+      <c r="X51" s="248"/>
       <c r="Y51" s="177">
         <v>8.9</v>
       </c>
-      <c r="Z51" s="251"/>
+      <c r="Z51" s="248"/>
       <c r="AA51" s="195">
         <v>8.4</v>
       </c>
-      <c r="AB51" s="251"/>
-      <c r="AP51" s="246"/>
-      <c r="AQ51" s="246"/>
+      <c r="AB51" s="248"/>
+      <c r="AP51" s="274"/>
+      <c r="AQ51" s="274"/>
     </row>
     <row r="52" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="251"/>
+      <c r="A52" s="248"/>
       <c r="B52" s="177">
         <v>45</v>
       </c>
@@ -27742,11 +28271,11 @@
         <f t="shared" si="3"/>
         <v>4.6284224250325953E-2</v>
       </c>
-      <c r="E52" s="251"/>
+      <c r="E52" s="248"/>
       <c r="H52" s="194">
         <v>13</v>
       </c>
-      <c r="I52" s="251"/>
+      <c r="I52" s="248"/>
       <c r="T52" s="177">
         <v>3.6</v>
       </c>
@@ -27757,20 +28286,20 @@
         <f>V52/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X52" s="251"/>
+      <c r="X52" s="248"/>
       <c r="Y52" s="177">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z52" s="251"/>
+      <c r="Z52" s="248"/>
       <c r="AA52" s="195">
         <v>4.5</v>
       </c>
-      <c r="AB52" s="251"/>
-      <c r="AP52" s="246"/>
-      <c r="AQ52" s="246"/>
+      <c r="AB52" s="248"/>
+      <c r="AP52" s="274"/>
+      <c r="AQ52" s="274"/>
     </row>
     <row r="53" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="251"/>
+      <c r="A53" s="248"/>
       <c r="B53" s="177">
         <v>52</v>
       </c>
@@ -27781,11 +28310,11 @@
         <f t="shared" si="3"/>
         <v>0.10625814863103</v>
       </c>
-      <c r="E53" s="251"/>
+      <c r="E53" s="248"/>
       <c r="H53" s="194">
         <v>17.399999999999999</v>
       </c>
-      <c r="I53" s="251"/>
+      <c r="I53" s="248"/>
       <c r="T53" s="177">
         <v>24.1</v>
       </c>
@@ -27796,20 +28325,20 @@
         <f>V53/SUM(V48:V67)</f>
         <v>0.23559322033898303</v>
       </c>
-      <c r="X53" s="251"/>
+      <c r="X53" s="248"/>
       <c r="Y53" s="177">
         <v>11</v>
       </c>
-      <c r="Z53" s="251"/>
+      <c r="Z53" s="248"/>
       <c r="AA53" s="195">
         <v>9.6</v>
       </c>
-      <c r="AB53" s="251"/>
-      <c r="AP53" s="246"/>
-      <c r="AQ53" s="246"/>
+      <c r="AB53" s="248"/>
+      <c r="AP53" s="274"/>
+      <c r="AQ53" s="274"/>
     </row>
     <row r="54" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="251"/>
+      <c r="A54" s="248"/>
       <c r="B54" s="177">
         <v>58</v>
       </c>
@@ -27820,11 +28349,11 @@
         <f t="shared" si="3"/>
         <v>6.6492829204693613E-2</v>
       </c>
-      <c r="E54" s="251"/>
+      <c r="E54" s="248"/>
       <c r="H54" s="194">
         <v>24.2</v>
       </c>
-      <c r="I54" s="251"/>
+      <c r="I54" s="248"/>
       <c r="T54" s="177">
         <v>5.0999999999999996</v>
       </c>
@@ -27835,21 +28364,21 @@
         <f>V54/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X54" s="251"/>
+      <c r="X54" s="248"/>
       <c r="Y54" s="177">
         <v>11.2</v>
       </c>
-      <c r="Z54" s="251"/>
+      <c r="Z54" s="248"/>
       <c r="AA54" s="195">
         <v>7.9</v>
       </c>
-      <c r="AB54" s="251"/>
-      <c r="AP54" s="246"/>
-      <c r="AQ54" s="246"/>
+      <c r="AB54" s="248"/>
+      <c r="AP54" s="274"/>
+      <c r="AQ54" s="274"/>
     </row>
     <row r="55" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="250" t="s">
-        <v>306</v>
+      <c r="A55" s="269" t="s">
+        <v>305</v>
       </c>
       <c r="B55" s="177">
         <v>26</v>
@@ -27861,39 +28390,39 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E55" s="256">
+      <c r="E55" s="270">
         <f>SUM(D55:D67)</f>
         <v>0.41460234680573665</v>
       </c>
-      <c r="I55" s="253">
+      <c r="I55" s="247">
         <f>(SUM(H55:H67)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.25433333333333324</v>
       </c>
       <c r="W55" s="196"/>
-      <c r="X55" s="257">
+      <c r="X55" s="258">
         <f>SUM(T56:T67)/SUM(T48:T67)</f>
         <v>0.32680195941217638</v>
       </c>
-      <c r="Z55" s="252">
+      <c r="Z55" s="249">
         <f>1-SUM(Z48:Z54)</f>
         <v>0.17099999999999993</v>
       </c>
       <c r="AA55" s="191"/>
-      <c r="AB55" s="252">
+      <c r="AB55" s="249">
         <f>1-SUM(AB48:AB54)</f>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="AP55" s="246">
+      <c r="AP55" s="274">
         <f>1-AP48</f>
         <v>0.14316469321851455</v>
       </c>
-      <c r="AQ55" s="246">
+      <c r="AQ55" s="274">
         <f>1-AQ48</f>
         <v>0.16702355460385432</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="251"/>
+      <c r="A56" s="248"/>
       <c r="B56" s="177">
         <v>35</v>
       </c>
@@ -27904,11 +28433,11 @@
         <f t="shared" si="3"/>
         <v>0.11994784876140809</v>
       </c>
-      <c r="E56" s="251"/>
+      <c r="E56" s="248"/>
       <c r="H56" s="194">
         <v>21.8</v>
       </c>
-      <c r="I56" s="251"/>
+      <c r="I56" s="248"/>
       <c r="T56" s="177">
         <v>13.1</v>
       </c>
@@ -27919,20 +28448,20 @@
         <f>V56/SUM(V48:V67)</f>
         <v>8.6440677966101678E-2</v>
       </c>
-      <c r="X56" s="251"/>
+      <c r="X56" s="248"/>
       <c r="Y56" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z56" s="251"/>
+      <c r="Z56" s="248"/>
       <c r="AA56" s="195">
         <v>5.6</v>
       </c>
-      <c r="AB56" s="251"/>
-      <c r="AP56" s="246"/>
-      <c r="AQ56" s="246"/>
+      <c r="AB56" s="248"/>
+      <c r="AP56" s="274"/>
+      <c r="AQ56" s="274"/>
     </row>
     <row r="57" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="251"/>
+      <c r="A57" s="248"/>
       <c r="B57" s="177">
         <v>39</v>
       </c>
@@ -27943,11 +28472,11 @@
         <f t="shared" si="3"/>
         <v>2.020860495436767E-2</v>
       </c>
-      <c r="E57" s="251"/>
+      <c r="E57" s="248"/>
       <c r="H57" s="194">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I57" s="251"/>
+      <c r="I57" s="248"/>
       <c r="T57" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -27958,17 +28487,17 @@
         <f>V57/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X57" s="251"/>
-      <c r="Z57" s="251"/>
+      <c r="X57" s="248"/>
+      <c r="Z57" s="248"/>
       <c r="AA57" s="195">
         <v>4.2</v>
       </c>
-      <c r="AB57" s="251"/>
-      <c r="AP57" s="246"/>
-      <c r="AQ57" s="246"/>
+      <c r="AB57" s="248"/>
+      <c r="AP57" s="274"/>
+      <c r="AQ57" s="274"/>
     </row>
     <row r="58" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="251"/>
+      <c r="A58" s="248"/>
       <c r="B58" s="177">
         <v>51</v>
       </c>
@@ -27979,11 +28508,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E58" s="251"/>
+      <c r="E58" s="248"/>
       <c r="H58" s="194">
         <v>15.8</v>
       </c>
-      <c r="I58" s="251"/>
+      <c r="I58" s="248"/>
       <c r="T58" s="177">
         <v>7.3</v>
       </c>
@@ -27994,17 +28523,17 @@
         <f>V58/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X58" s="251"/>
-      <c r="Z58" s="251"/>
+      <c r="X58" s="248"/>
+      <c r="Z58" s="248"/>
       <c r="AA58" s="195">
         <v>6.7</v>
       </c>
-      <c r="AB58" s="251"/>
-      <c r="AP58" s="246"/>
-      <c r="AQ58" s="246"/>
+      <c r="AB58" s="248"/>
+      <c r="AP58" s="274"/>
+      <c r="AQ58" s="274"/>
     </row>
     <row r="59" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="251"/>
+      <c r="A59" s="248"/>
       <c r="B59" s="177">
         <v>53</v>
       </c>
@@ -28015,8 +28544,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E59" s="251"/>
-      <c r="I59" s="251"/>
+      <c r="E59" s="248"/>
+      <c r="I59" s="248"/>
       <c r="T59" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28027,15 +28556,15 @@
         <f>V59/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X59" s="251"/>
-      <c r="Z59" s="251"/>
+      <c r="X59" s="248"/>
+      <c r="Z59" s="248"/>
       <c r="AA59" s="191"/>
-      <c r="AB59" s="251"/>
-      <c r="AP59" s="246"/>
-      <c r="AQ59" s="246"/>
+      <c r="AB59" s="248"/>
+      <c r="AP59" s="274"/>
+      <c r="AQ59" s="274"/>
     </row>
     <row r="60" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="251"/>
+      <c r="A60" s="248"/>
       <c r="B60" s="177">
         <v>56</v>
       </c>
@@ -28046,11 +28575,11 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E60" s="251"/>
+      <c r="E60" s="248"/>
       <c r="H60" s="194">
         <v>11.9</v>
       </c>
-      <c r="I60" s="251"/>
+      <c r="I60" s="248"/>
       <c r="T60" s="177">
         <v>2.9</v>
       </c>
@@ -28061,17 +28590,17 @@
         <f>V60/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="251"/>
-      <c r="Z60" s="251"/>
+      <c r="X60" s="248"/>
+      <c r="Z60" s="248"/>
       <c r="AA60" s="195">
         <v>3.4</v>
       </c>
-      <c r="AB60" s="251"/>
-      <c r="AP60" s="246"/>
-      <c r="AQ60" s="246"/>
+      <c r="AB60" s="248"/>
+      <c r="AP60" s="274"/>
+      <c r="AQ60" s="274"/>
     </row>
     <row r="61" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="251"/>
+      <c r="A61" s="248"/>
       <c r="B61" s="177">
         <v>59</v>
       </c>
@@ -28082,12 +28611,12 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E61" s="251"/>
+      <c r="E61" s="248"/>
       <c r="F61" s="236"/>
       <c r="H61" s="194">
         <v>8</v>
       </c>
-      <c r="I61" s="251"/>
+      <c r="I61" s="248"/>
       <c r="T61" s="177">
         <v>0</v>
       </c>
@@ -28098,17 +28627,17 @@
         <f>V61/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X61" s="251"/>
-      <c r="Z61" s="251"/>
+      <c r="X61" s="248"/>
+      <c r="Z61" s="248"/>
       <c r="AA61" s="195">
         <v>2.9</v>
       </c>
-      <c r="AB61" s="251"/>
-      <c r="AP61" s="246"/>
-      <c r="AQ61" s="246"/>
+      <c r="AB61" s="248"/>
+      <c r="AP61" s="274"/>
+      <c r="AQ61" s="274"/>
     </row>
     <row r="62" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="251"/>
+      <c r="A62" s="248"/>
       <c r="B62" s="177">
         <v>66</v>
       </c>
@@ -28119,8 +28648,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E62" s="251"/>
-      <c r="I62" s="251"/>
+      <c r="E62" s="248"/>
+      <c r="I62" s="248"/>
       <c r="T62" s="177">
         <v>10.199999999999999</v>
       </c>
@@ -28131,15 +28660,15 @@
         <f>V62/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X62" s="251"/>
-      <c r="Z62" s="251"/>
+      <c r="X62" s="248"/>
+      <c r="Z62" s="248"/>
       <c r="AA62" s="191"/>
-      <c r="AB62" s="251"/>
-      <c r="AP62" s="246"/>
-      <c r="AQ62" s="246"/>
+      <c r="AB62" s="248"/>
+      <c r="AP62" s="274"/>
+      <c r="AQ62" s="274"/>
     </row>
     <row r="63" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="251"/>
+      <c r="A63" s="248"/>
       <c r="B63" s="177">
         <v>68</v>
       </c>
@@ -28150,11 +28679,11 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E63" s="251"/>
+      <c r="E63" s="248"/>
       <c r="H63" s="194">
         <v>9.1</v>
       </c>
-      <c r="I63" s="251"/>
+      <c r="I63" s="248"/>
       <c r="T63" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -28165,17 +28694,17 @@
         <f>V63/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X63" s="251"/>
-      <c r="Z63" s="251"/>
+      <c r="X63" s="248"/>
+      <c r="Z63" s="248"/>
       <c r="AA63" s="177">
         <v>2</v>
       </c>
-      <c r="AB63" s="251"/>
-      <c r="AP63" s="246"/>
-      <c r="AQ63" s="246"/>
+      <c r="AB63" s="248"/>
+      <c r="AP63" s="274"/>
+      <c r="AQ63" s="274"/>
     </row>
     <row r="64" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="251"/>
+      <c r="A64" s="248"/>
       <c r="B64" s="177">
         <v>69</v>
       </c>
@@ -28186,17 +28715,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E64" s="251"/>
-      <c r="I64" s="251"/>
+      <c r="E64" s="248"/>
+      <c r="I64" s="248"/>
       <c r="W64" s="192"/>
-      <c r="X64" s="251"/>
-      <c r="Z64" s="251"/>
-      <c r="AB64" s="251"/>
-      <c r="AP64" s="246"/>
-      <c r="AQ64" s="246"/>
+      <c r="X64" s="248"/>
+      <c r="Z64" s="248"/>
+      <c r="AB64" s="248"/>
+      <c r="AP64" s="274"/>
+      <c r="AQ64" s="274"/>
     </row>
     <row r="65" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="251"/>
+      <c r="A65" s="248"/>
       <c r="B65" s="177">
         <v>70</v>
       </c>
@@ -28207,17 +28736,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E65" s="251"/>
-      <c r="I65" s="251"/>
+      <c r="E65" s="248"/>
+      <c r="I65" s="248"/>
       <c r="W65" s="192"/>
-      <c r="X65" s="251"/>
-      <c r="Z65" s="251"/>
-      <c r="AB65" s="251"/>
-      <c r="AP65" s="246"/>
-      <c r="AQ65" s="246"/>
+      <c r="X65" s="248"/>
+      <c r="Z65" s="248"/>
+      <c r="AB65" s="248"/>
+      <c r="AP65" s="274"/>
+      <c r="AQ65" s="274"/>
     </row>
     <row r="66" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="251"/>
+      <c r="A66" s="248"/>
       <c r="B66" s="177">
         <v>73</v>
       </c>
@@ -28228,17 +28757,17 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E66" s="251"/>
-      <c r="I66" s="251"/>
+      <c r="E66" s="248"/>
+      <c r="I66" s="248"/>
       <c r="W66" s="192"/>
-      <c r="X66" s="251"/>
-      <c r="Z66" s="251"/>
-      <c r="AB66" s="251"/>
-      <c r="AP66" s="246"/>
-      <c r="AQ66" s="246"/>
+      <c r="X66" s="248"/>
+      <c r="Z66" s="248"/>
+      <c r="AB66" s="248"/>
+      <c r="AP66" s="274"/>
+      <c r="AQ66" s="274"/>
     </row>
     <row r="67" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="251"/>
+      <c r="A67" s="248"/>
       <c r="B67" s="177">
         <v>82</v>
       </c>
@@ -28249,8 +28778,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E67" s="251"/>
-      <c r="I67" s="251"/>
+      <c r="E67" s="248"/>
+      <c r="I67" s="248"/>
       <c r="T67" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28261,14 +28790,14 @@
         <f>V67/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X67" s="251"/>
+      <c r="X67" s="248"/>
       <c r="AB67" s="191"/>
-      <c r="AP67" s="246"/>
-      <c r="AQ67" s="246"/>
+      <c r="AP67" s="274"/>
+      <c r="AQ67" s="274"/>
     </row>
     <row r="68" spans="1:43" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="230" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B68" s="229"/>
       <c r="C68" s="229"/>
@@ -28309,8 +28838,8 @@
       <c r="AL68" s="228"/>
     </row>
     <row r="69" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="250" t="s">
-        <v>308</v>
+      <c r="A69" s="269" t="s">
+        <v>307</v>
       </c>
       <c r="B69" s="177">
         <v>16</v>
@@ -28415,7 +28944,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="251"/>
+      <c r="A70" s="248"/>
       <c r="B70" s="177">
         <v>18</v>
       </c>
@@ -28519,7 +29048,7 @@
       </c>
     </row>
     <row r="71" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="251"/>
+      <c r="A71" s="248"/>
       <c r="B71" s="177">
         <v>31</v>
       </c>
@@ -28530,42 +29059,42 @@
         <f t="shared" si="4"/>
         <v>2.9145728643216084E-2</v>
       </c>
-      <c r="E71" s="255">
+      <c r="E71" s="273">
         <f>SUM(D71:D75)</f>
         <v>0.19296482412060306</v>
       </c>
       <c r="F71" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G71" s="250">
+      <c r="G71" s="269">
         <f>SUM(F71:F75)</f>
         <v>0.17699999999999999</v>
       </c>
       <c r="H71" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I71" s="253">
+      <c r="I71" s="247">
         <f>(SUM(H71:H75)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.17699530516431927</v>
       </c>
       <c r="J71" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K71" s="254">
+      <c r="K71" s="259">
         <f>SUM(J71:J75)/100</f>
         <v>0.217</v>
       </c>
       <c r="L71" s="177">
         <v>3.8</v>
       </c>
-      <c r="M71" s="254">
+      <c r="M71" s="259">
         <f>SUM(L71:L75)/100</f>
         <v>0.20799999999999996</v>
       </c>
       <c r="N71" s="187">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O71" s="273">
+      <c r="O71" s="253">
         <f>SUM(N71:N75)/SUM(N69:N90)</f>
         <v>0.22842639593908629</v>
       </c>
@@ -28580,14 +29109,14 @@
       <c r="Y71" s="177">
         <v>2.6</v>
       </c>
-      <c r="Z71" s="252">
+      <c r="Z71" s="249">
         <f>SUM(Y71:Y75)/100</f>
         <v>0.21899999999999997</v>
       </c>
       <c r="AA71" s="177">
         <v>4</v>
       </c>
-      <c r="AB71" s="252">
+      <c r="AB71" s="249">
         <f>SUM(AA71:AA75)/100</f>
         <v>0.21700000000000003</v>
       </c>
@@ -28595,7 +29124,7 @@
         <f>10/544*100</f>
         <v>1.8382352941176472</v>
       </c>
-      <c r="AD71" s="252">
+      <c r="AD71" s="249">
         <f>SUM(AC71:AC75)/100</f>
         <v>0.16544117647058823</v>
       </c>
@@ -28603,27 +29132,27 @@
         <f>335/8977*100</f>
         <v>3.7317589395120865</v>
       </c>
-      <c r="AF71" s="252">
+      <c r="AF71" s="249">
         <f>SUM(AE71:AE75)/100</f>
         <v>0.1853625932939735</v>
       </c>
       <c r="AI71" s="221">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AJ71" s="275">
+      <c r="AJ71" s="257">
         <f>SUM(AI71:AI75)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>0.1722342342342342</v>
       </c>
       <c r="AK71" s="221">
         <v>0.03</v>
       </c>
-      <c r="AL71" s="275">
+      <c r="AL71" s="257">
         <f>SUM(AK71:AK75)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>0.19617647058823534</v>
       </c>
     </row>
     <row r="72" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="251"/>
+      <c r="A72" s="248"/>
       <c r="B72" s="177">
         <v>33</v>
       </c>
@@ -28634,27 +29163,27 @@
         <f t="shared" si="4"/>
         <v>7.3366834170854281E-2</v>
       </c>
-      <c r="E72" s="251"/>
+      <c r="E72" s="248"/>
       <c r="F72" s="177">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G72" s="251"/>
+      <c r="G72" s="248"/>
       <c r="H72" s="177">
         <v>5.2</v>
       </c>
-      <c r="I72" s="251"/>
+      <c r="I72" s="248"/>
       <c r="J72" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K72" s="251"/>
+      <c r="K72" s="248"/>
       <c r="L72" s="177">
         <v>5.7</v>
       </c>
-      <c r="M72" s="251"/>
+      <c r="M72" s="248"/>
       <c r="N72" s="176">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O72" s="274"/>
+      <c r="O72" s="254"/>
       <c r="P72" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -28666,32 +29195,32 @@
       <c r="Y72" s="177">
         <v>3.6</v>
       </c>
-      <c r="Z72" s="251"/>
+      <c r="Z72" s="248"/>
       <c r="AA72" s="177">
         <v>4.5</v>
       </c>
-      <c r="AB72" s="251"/>
+      <c r="AB72" s="248"/>
       <c r="AC72" s="183">
         <f>8/544*100</f>
         <v>1.4705882352941175</v>
       </c>
-      <c r="AD72" s="251"/>
+      <c r="AD72" s="248"/>
       <c r="AE72" s="182">
         <f>345/8977*100</f>
         <v>3.8431547287512533</v>
       </c>
-      <c r="AF72" s="251"/>
+      <c r="AF72" s="248"/>
       <c r="AI72" s="221">
         <v>4.7E-2</v>
       </c>
-      <c r="AJ72" s="268"/>
+      <c r="AJ72" s="256"/>
       <c r="AK72" s="221">
         <v>0.06</v>
       </c>
-      <c r="AL72" s="268"/>
+      <c r="AL72" s="256"/>
     </row>
     <row r="73" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="251"/>
+      <c r="A73" s="248"/>
       <c r="B73" s="177">
         <v>45</v>
       </c>
@@ -28702,27 +29231,27 @@
         <f t="shared" si="4"/>
         <v>5.6281407035175882E-2</v>
       </c>
-      <c r="E73" s="251"/>
+      <c r="E73" s="248"/>
       <c r="F73" s="177">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G73" s="251"/>
+      <c r="G73" s="248"/>
       <c r="H73" s="177">
         <v>15.5</v>
       </c>
-      <c r="I73" s="251"/>
+      <c r="I73" s="248"/>
       <c r="J73" s="177">
         <v>15.1</v>
       </c>
-      <c r="K73" s="251"/>
+      <c r="K73" s="248"/>
       <c r="L73" s="177">
         <v>4.7</v>
       </c>
-      <c r="M73" s="251"/>
+      <c r="M73" s="248"/>
       <c r="N73" s="176">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O73" s="274"/>
+      <c r="O73" s="254"/>
       <c r="P73" s="182">
         <f>13/77*100</f>
         <v>16.883116883116884</v>
@@ -28734,32 +29263,32 @@
       <c r="Y73" s="177">
         <v>11</v>
       </c>
-      <c r="Z73" s="251"/>
+      <c r="Z73" s="248"/>
       <c r="AA73" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB73" s="251"/>
+      <c r="AB73" s="248"/>
       <c r="AC73" s="183">
         <f>54/544*100</f>
         <v>9.9264705882352935</v>
       </c>
-      <c r="AD73" s="251"/>
+      <c r="AD73" s="248"/>
       <c r="AE73" s="182">
         <f>528/8977*100</f>
         <v>5.8816976718280047</v>
       </c>
-      <c r="AF73" s="251"/>
+      <c r="AF73" s="248"/>
       <c r="AI73" s="221">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AJ73" s="268"/>
+      <c r="AJ73" s="256"/>
       <c r="AK73" s="221">
         <v>0.08</v>
       </c>
-      <c r="AL73" s="268"/>
+      <c r="AL73" s="256"/>
     </row>
     <row r="74" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="251"/>
+      <c r="A74" s="248"/>
       <c r="B74" s="177">
         <v>52</v>
       </c>
@@ -28770,27 +29299,27 @@
         <f t="shared" si="4"/>
         <v>2.1105527638190957E-2</v>
       </c>
-      <c r="E74" s="251"/>
+      <c r="E74" s="248"/>
       <c r="F74" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G74" s="251"/>
+      <c r="G74" s="248"/>
       <c r="H74" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I74" s="251"/>
+      <c r="I74" s="248"/>
       <c r="J74" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K74" s="251"/>
+      <c r="K74" s="248"/>
       <c r="L74" s="177">
         <v>4.7</v>
       </c>
-      <c r="M74" s="251"/>
+      <c r="M74" s="248"/>
       <c r="N74" s="176">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O74" s="274"/>
+      <c r="O74" s="254"/>
       <c r="P74" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -28802,32 +29331,32 @@
       <c r="Y74" s="177">
         <v>3.4</v>
       </c>
-      <c r="Z74" s="251"/>
+      <c r="Z74" s="248"/>
       <c r="AA74" s="177">
         <v>3.5</v>
       </c>
-      <c r="AB74" s="251"/>
+      <c r="AB74" s="248"/>
       <c r="AC74" s="183">
         <f>14/544*100</f>
         <v>2.5735294117647056</v>
       </c>
-      <c r="AD74" s="251"/>
+      <c r="AD74" s="248"/>
       <c r="AE74" s="182">
         <f>253/8977*100</f>
         <v>2.8183134677509192</v>
       </c>
-      <c r="AF74" s="251"/>
+      <c r="AF74" s="248"/>
       <c r="AI74" s="221">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ74" s="268"/>
+      <c r="AJ74" s="256"/>
       <c r="AK74" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL74" s="268"/>
+      <c r="AL74" s="256"/>
     </row>
     <row r="75" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="251"/>
+      <c r="A75" s="248"/>
       <c r="B75" s="177">
         <v>58</v>
       </c>
@@ -28838,27 +29367,27 @@
         <f t="shared" si="4"/>
         <v>1.3065326633165831E-2</v>
       </c>
-      <c r="E75" s="251"/>
+      <c r="E75" s="248"/>
       <c r="F75" s="177">
         <v>0</v>
       </c>
-      <c r="G75" s="251"/>
+      <c r="G75" s="248"/>
       <c r="H75" s="177">
         <v>8.1</v>
       </c>
-      <c r="I75" s="251"/>
+      <c r="I75" s="248"/>
       <c r="J75" s="177">
         <v>0</v>
       </c>
-      <c r="K75" s="251"/>
+      <c r="K75" s="248"/>
       <c r="L75" s="177">
         <v>1.9</v>
       </c>
-      <c r="M75" s="251"/>
+      <c r="M75" s="248"/>
       <c r="N75" s="176">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O75" s="274"/>
+      <c r="O75" s="254"/>
       <c r="P75" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -28870,33 +29399,33 @@
       <c r="Y75" s="177">
         <v>1.3</v>
       </c>
-      <c r="Z75" s="251"/>
+      <c r="Z75" s="248"/>
       <c r="AA75" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB75" s="251"/>
+      <c r="AB75" s="248"/>
       <c r="AC75" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD75" s="251"/>
+      <c r="AD75" s="248"/>
       <c r="AE75" s="182">
         <f>203/8977*100</f>
         <v>2.2613345215550851</v>
       </c>
-      <c r="AF75" s="251"/>
+      <c r="AF75" s="248"/>
       <c r="AI75" s="221">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AJ75" s="268"/>
+      <c r="AJ75" s="256"/>
       <c r="AK75" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL75" s="268"/>
+      <c r="AL75" s="256"/>
     </row>
     <row r="76" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="250" t="s">
-        <v>306</v>
+      <c r="A76" s="269" t="s">
+        <v>305</v>
       </c>
       <c r="B76" s="177">
         <v>26</v>
@@ -28908,28 +29437,28 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E76" s="255">
+      <c r="E76" s="273">
         <f>SUM(D76:D88)</f>
         <v>0.16180904522613065</v>
       </c>
-      <c r="G76" s="250">
+      <c r="G76" s="269">
         <f>SUM(F77:F89)</f>
         <v>0.16700000000000001</v>
       </c>
-      <c r="I76" s="253">
+      <c r="I76" s="247">
         <f>(SUM(H76:H90)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.11300469483568076</v>
       </c>
-      <c r="K76" s="254">
+      <c r="K76" s="259">
         <f>SUM(J76:J89)/100</f>
         <v>0.10899999999999999</v>
       </c>
-      <c r="M76" s="254">
+      <c r="M76" s="259">
         <f>SUM(L76:L89)/100</f>
         <v>0.12200000000000001</v>
       </c>
       <c r="N76" s="187"/>
-      <c r="O76" s="273">
+      <c r="O76" s="253">
         <f>SUM(N76:N90)/SUM(N69:N90)</f>
         <v>0.10761421319796954</v>
       </c>
@@ -28937,16 +29466,16 @@
       <c r="Q76" s="232"/>
       <c r="R76" s="182"/>
       <c r="S76" s="232"/>
-      <c r="Z76" s="252">
+      <c r="Z76" s="249">
         <f>1-SUM(Z69:Z75)</f>
         <v>5.1999999999999935E-2</v>
       </c>
-      <c r="AB76" s="252">
+      <c r="AB76" s="249">
         <f>1-SUM(AB69:AB75)</f>
         <v>0</v>
       </c>
       <c r="AC76" s="182"/>
-      <c r="AD76" s="252">
+      <c r="AD76" s="249">
         <f>1-SUM(AD69:AD75)</f>
         <v>0.13235294117647067</v>
       </c>
@@ -28954,21 +29483,21 @@
         <f>31/8977*100</f>
         <v>0.34532694664141694</v>
       </c>
-      <c r="AF76" s="252">
+      <c r="AF76" s="249">
         <f>1-SUM(AF69:AF75)</f>
         <v>0.10649437451264343</v>
       </c>
-      <c r="AJ76" s="275">
+      <c r="AJ76" s="257">
         <f>SUM(AI76:AI90)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>6.9765765765765764E-2</v>
       </c>
-      <c r="AL76" s="275">
+      <c r="AL76" s="257">
         <f>SUM(AK76:AK90)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>9.3823529411764722E-2</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="251"/>
+      <c r="A77" s="248"/>
       <c r="B77" s="177">
         <v>35</v>
       </c>
@@ -28979,27 +29508,27 @@
         <f t="shared" si="4"/>
         <v>6.0301507537688454E-2</v>
       </c>
-      <c r="E77" s="251"/>
+      <c r="E77" s="248"/>
       <c r="F77" s="177">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G77" s="251"/>
+      <c r="G77" s="248"/>
       <c r="H77" s="177">
         <v>7.7</v>
       </c>
-      <c r="I77" s="251"/>
+      <c r="I77" s="248"/>
       <c r="J77" s="177">
         <v>6.5</v>
       </c>
-      <c r="K77" s="254"/>
+      <c r="K77" s="259"/>
       <c r="L77" s="177">
         <v>9.5</v>
       </c>
-      <c r="M77" s="254"/>
+      <c r="M77" s="259"/>
       <c r="N77" s="176">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="O77" s="274"/>
+      <c r="O77" s="254"/>
       <c r="P77" s="182">
         <f>7/77*100</f>
         <v>9.0909090909090917</v>
@@ -29011,32 +29540,32 @@
       <c r="Y77" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z77" s="251"/>
+      <c r="Z77" s="248"/>
       <c r="AA77" s="177">
         <v>1.7</v>
       </c>
-      <c r="AB77" s="251"/>
+      <c r="AB77" s="248"/>
       <c r="AC77" s="183">
         <f>27/544*100</f>
         <v>4.9632352941176467</v>
       </c>
-      <c r="AD77" s="251"/>
+      <c r="AD77" s="248"/>
       <c r="AE77" s="182">
         <f>175/8977*100</f>
         <v>1.9494263116854185</v>
       </c>
-      <c r="AF77" s="251"/>
+      <c r="AF77" s="248"/>
       <c r="AI77" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ77" s="268"/>
+      <c r="AJ77" s="256"/>
       <c r="AK77" s="221">
         <v>0.05</v>
       </c>
-      <c r="AL77" s="268"/>
+      <c r="AL77" s="256"/>
     </row>
     <row r="78" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="251"/>
+      <c r="A78" s="248"/>
       <c r="B78" s="177">
         <v>39</v>
       </c>
@@ -29047,15 +29576,15 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E78" s="251"/>
-      <c r="G78" s="251"/>
+      <c r="E78" s="248"/>
+      <c r="G78" s="248"/>
       <c r="H78" s="177">
         <v>3.3</v>
       </c>
-      <c r="I78" s="251"/>
-      <c r="K78" s="254"/>
-      <c r="M78" s="254"/>
-      <c r="O78" s="274"/>
+      <c r="I78" s="248"/>
+      <c r="K78" s="259"/>
+      <c r="M78" s="259"/>
+      <c r="O78" s="254"/>
       <c r="P78" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29064,29 +29593,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z78" s="251"/>
+      <c r="Z78" s="248"/>
       <c r="AA78" s="177">
         <v>1.4</v>
       </c>
-      <c r="AB78" s="251"/>
+      <c r="AB78" s="248"/>
       <c r="AC78" s="183">
         <f>3/544*100</f>
         <v>0.55147058823529416</v>
       </c>
-      <c r="AD78" s="251"/>
+      <c r="AD78" s="248"/>
       <c r="AE78" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF78" s="251"/>
+      <c r="AF78" s="248"/>
       <c r="AI78" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ78" s="268"/>
-      <c r="AL78" s="268"/>
+      <c r="AJ78" s="256"/>
+      <c r="AL78" s="256"/>
     </row>
     <row r="79" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="251"/>
+      <c r="A79" s="248"/>
       <c r="B79" s="177">
         <v>51</v>
       </c>
@@ -29097,25 +29626,25 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E79" s="251"/>
+      <c r="E79" s="248"/>
       <c r="F79" s="177"/>
-      <c r="G79" s="251"/>
+      <c r="G79" s="248"/>
       <c r="H79" s="177">
         <v>4.8</v>
       </c>
-      <c r="I79" s="251"/>
+      <c r="I79" s="248"/>
       <c r="J79" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K79" s="254"/>
+      <c r="K79" s="259"/>
       <c r="L79" s="177">
         <v>0</v>
       </c>
-      <c r="M79" s="254"/>
+      <c r="M79" s="259"/>
       <c r="N79" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O79" s="274"/>
+      <c r="O79" s="254"/>
       <c r="P79" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29124,32 +29653,32 @@
         <f>4/154*100</f>
         <v>2.5974025974025974</v>
       </c>
-      <c r="Z79" s="251"/>
+      <c r="Z79" s="248"/>
       <c r="AA79" s="177">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB79" s="251"/>
+      <c r="AB79" s="248"/>
       <c r="AC79" s="183">
         <f>13/544*100</f>
         <v>2.3897058823529411</v>
       </c>
-      <c r="AD79" s="251"/>
+      <c r="AD79" s="248"/>
       <c r="AE79" s="182">
         <f>114/8977*100</f>
         <v>1.269911997326501</v>
       </c>
-      <c r="AF79" s="251"/>
+      <c r="AF79" s="248"/>
       <c r="AI79" s="221">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ79" s="268"/>
+      <c r="AJ79" s="256"/>
       <c r="AK79" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL79" s="268"/>
+      <c r="AL79" s="256"/>
     </row>
     <row r="80" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="251"/>
+      <c r="A80" s="248"/>
       <c r="B80" s="177">
         <v>53</v>
       </c>
@@ -29160,32 +29689,32 @@
         <f t="shared" si="4"/>
         <v>1.6080402010050253E-2</v>
       </c>
-      <c r="E80" s="251"/>
+      <c r="E80" s="248"/>
       <c r="F80" s="177"/>
-      <c r="G80" s="251"/>
-      <c r="I80" s="251"/>
-      <c r="K80" s="254"/>
-      <c r="M80" s="254"/>
-      <c r="O80" s="274"/>
+      <c r="G80" s="248"/>
+      <c r="I80" s="248"/>
+      <c r="K80" s="259"/>
+      <c r="M80" s="259"/>
+      <c r="O80" s="254"/>
       <c r="P80" s="182"/>
       <c r="R80" s="182"/>
-      <c r="Z80" s="251"/>
-      <c r="AB80" s="251"/>
+      <c r="Z80" s="248"/>
+      <c r="AB80" s="248"/>
       <c r="AC80" s="182"/>
-      <c r="AD80" s="251"/>
+      <c r="AD80" s="248"/>
       <c r="AE80" s="182">
         <f>24/8977*100</f>
         <v>0.26734989417400024</v>
       </c>
-      <c r="AF80" s="251"/>
+      <c r="AF80" s="248"/>
       <c r="AI80" s="221">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ80" s="268"/>
-      <c r="AL80" s="268"/>
+      <c r="AJ80" s="256"/>
+      <c r="AL80" s="256"/>
     </row>
     <row r="81" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="251"/>
+      <c r="A81" s="248"/>
       <c r="B81" s="177">
         <v>56</v>
       </c>
@@ -29196,25 +29725,25 @@
         <f t="shared" si="4"/>
         <v>7.0351758793969852E-3</v>
       </c>
-      <c r="E81" s="251"/>
+      <c r="E81" s="248"/>
       <c r="F81" s="177"/>
-      <c r="G81" s="251"/>
+      <c r="G81" s="248"/>
       <c r="H81" s="177">
         <v>3</v>
       </c>
-      <c r="I81" s="251"/>
+      <c r="I81" s="248"/>
       <c r="J81" s="177">
         <v>0</v>
       </c>
-      <c r="K81" s="254"/>
+      <c r="K81" s="259"/>
       <c r="L81" s="177">
         <v>0.9</v>
       </c>
-      <c r="M81" s="254"/>
+      <c r="M81" s="259"/>
       <c r="N81" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O81" s="274"/>
+      <c r="O81" s="254"/>
       <c r="P81" s="183">
         <v>0</v>
       </c>
@@ -29222,29 +29751,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z81" s="251"/>
+      <c r="Z81" s="248"/>
       <c r="AA81" s="177">
         <v>0.9</v>
       </c>
-      <c r="AB81" s="251"/>
+      <c r="AB81" s="248"/>
       <c r="AC81" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD81" s="251"/>
+      <c r="AD81" s="248"/>
       <c r="AE81" s="182">
         <f>75/8977*100</f>
         <v>0.83546841929375071</v>
       </c>
-      <c r="AF81" s="251"/>
+      <c r="AF81" s="248"/>
       <c r="AI81" s="221">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ81" s="268"/>
-      <c r="AL81" s="268"/>
+      <c r="AJ81" s="256"/>
+      <c r="AL81" s="256"/>
     </row>
     <row r="82" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="251"/>
+      <c r="A82" s="248"/>
       <c r="B82" s="177">
         <v>59</v>
       </c>
@@ -29255,16 +29784,16 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E82" s="251"/>
+      <c r="E82" s="248"/>
       <c r="F82" s="177"/>
-      <c r="G82" s="251"/>
+      <c r="G82" s="248"/>
       <c r="H82" s="177">
         <v>3</v>
       </c>
-      <c r="I82" s="251"/>
-      <c r="K82" s="254"/>
-      <c r="M82" s="254"/>
-      <c r="O82" s="274"/>
+      <c r="I82" s="248"/>
+      <c r="K82" s="259"/>
+      <c r="M82" s="259"/>
+      <c r="O82" s="254"/>
       <c r="P82" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29272,29 +29801,29 @@
       <c r="R82" s="183">
         <v>0</v>
       </c>
-      <c r="Z82" s="251"/>
+      <c r="Z82" s="248"/>
       <c r="AA82" s="177">
         <v>1.3</v>
       </c>
-      <c r="AB82" s="251"/>
+      <c r="AB82" s="248"/>
       <c r="AC82" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD82" s="251"/>
+      <c r="AD82" s="248"/>
       <c r="AE82" s="182">
         <f>95/8977*100</f>
         <v>1.0582599977720841</v>
       </c>
-      <c r="AF82" s="251"/>
+      <c r="AF82" s="248"/>
       <c r="AI82" s="221">
         <v>1.4E-2</v>
       </c>
-      <c r="AJ82" s="268"/>
-      <c r="AL82" s="268"/>
+      <c r="AJ82" s="256"/>
+      <c r="AL82" s="256"/>
     </row>
     <row r="83" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="251"/>
+      <c r="A83" s="248"/>
       <c r="B83" s="177">
         <v>66</v>
       </c>
@@ -29305,35 +29834,35 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E83" s="251"/>
+      <c r="E83" s="248"/>
       <c r="F83" s="177"/>
-      <c r="G83" s="251"/>
-      <c r="I83" s="251"/>
-      <c r="K83" s="254"/>
-      <c r="M83" s="254"/>
-      <c r="O83" s="274"/>
+      <c r="G83" s="248"/>
+      <c r="I83" s="248"/>
+      <c r="K83" s="259"/>
+      <c r="M83" s="259"/>
+      <c r="O83" s="254"/>
       <c r="P83" s="182"/>
       <c r="R83" s="182"/>
-      <c r="Z83" s="251"/>
-      <c r="AB83" s="251"/>
+      <c r="Z83" s="248"/>
+      <c r="AB83" s="248"/>
       <c r="AC83" s="182">
         <f>2/544*100</f>
         <v>0.36764705882352938</v>
       </c>
-      <c r="AD83" s="251"/>
+      <c r="AD83" s="248"/>
       <c r="AE83" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF83" s="251"/>
+      <c r="AF83" s="248"/>
       <c r="AI83" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ83" s="268"/>
-      <c r="AL83" s="268"/>
+      <c r="AJ83" s="256"/>
+      <c r="AL83" s="256"/>
     </row>
     <row r="84" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="251"/>
+      <c r="A84" s="248"/>
       <c r="B84" s="177">
         <v>68</v>
       </c>
@@ -29344,18 +29873,18 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E84" s="251"/>
+      <c r="E84" s="248"/>
       <c r="F84" s="177">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G84" s="251"/>
+      <c r="G84" s="248"/>
       <c r="H84" s="177">
         <v>3.1</v>
       </c>
-      <c r="I84" s="251"/>
-      <c r="K84" s="254"/>
-      <c r="M84" s="254"/>
-      <c r="O84" s="274"/>
+      <c r="I84" s="248"/>
+      <c r="K84" s="259"/>
+      <c r="M84" s="259"/>
+      <c r="O84" s="254"/>
       <c r="P84" s="183">
         <v>0</v>
       </c>
@@ -29363,32 +29892,32 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z84" s="251"/>
+      <c r="Z84" s="248"/>
       <c r="AA84" s="177">
         <v>0.6</v>
       </c>
-      <c r="AB84" s="251"/>
+      <c r="AB84" s="248"/>
       <c r="AC84" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD84" s="251"/>
+      <c r="AD84" s="248"/>
       <c r="AE84" s="182">
         <f>59/8977*100</f>
         <v>0.65723515651108388</v>
       </c>
-      <c r="AF84" s="251"/>
+      <c r="AF84" s="248"/>
       <c r="AI84" s="221">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ84" s="268"/>
+      <c r="AJ84" s="256"/>
       <c r="AK84" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL84" s="268"/>
+      <c r="AL84" s="256"/>
     </row>
     <row r="85" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="251"/>
+      <c r="A85" s="248"/>
       <c r="B85" s="177">
         <v>69</v>
       </c>
@@ -29399,38 +29928,38 @@
         <f t="shared" si="4"/>
         <v>1.5075376884422113E-2</v>
       </c>
-      <c r="E85" s="251"/>
+      <c r="E85" s="248"/>
       <c r="F85" s="177"/>
-      <c r="G85" s="251"/>
-      <c r="I85" s="251"/>
+      <c r="G85" s="248"/>
+      <c r="I85" s="248"/>
       <c r="J85" s="177">
         <v>0</v>
       </c>
-      <c r="K85" s="254"/>
+      <c r="K85" s="259"/>
       <c r="L85" s="177">
         <v>0.9</v>
       </c>
-      <c r="M85" s="254"/>
-      <c r="O85" s="274"/>
+      <c r="M85" s="259"/>
+      <c r="O85" s="254"/>
       <c r="P85" s="182"/>
       <c r="R85" s="182"/>
-      <c r="Z85" s="251"/>
-      <c r="AB85" s="251"/>
+      <c r="Z85" s="248"/>
+      <c r="AB85" s="248"/>
       <c r="AC85" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD85" s="251"/>
+      <c r="AD85" s="248"/>
       <c r="AE85" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF85" s="251"/>
-      <c r="AJ85" s="268"/>
-      <c r="AL85" s="268"/>
+      <c r="AF85" s="248"/>
+      <c r="AJ85" s="256"/>
+      <c r="AL85" s="256"/>
     </row>
     <row r="86" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="251"/>
+      <c r="A86" s="248"/>
       <c r="B86" s="177">
         <v>70</v>
       </c>
@@ -29441,38 +29970,38 @@
         <f t="shared" si="4"/>
         <v>8.0402010050251264E-3</v>
       </c>
-      <c r="E86" s="251"/>
+      <c r="E86" s="248"/>
       <c r="F86" s="177"/>
-      <c r="G86" s="251"/>
-      <c r="I86" s="251"/>
+      <c r="G86" s="248"/>
+      <c r="I86" s="248"/>
       <c r="J86" s="177">
         <v>0</v>
       </c>
-      <c r="K86" s="254"/>
+      <c r="K86" s="259"/>
       <c r="L86" s="177">
         <v>0.9</v>
       </c>
-      <c r="M86" s="254"/>
-      <c r="O86" s="274"/>
+      <c r="M86" s="259"/>
+      <c r="O86" s="254"/>
       <c r="P86" s="182"/>
       <c r="R86" s="182"/>
-      <c r="Z86" s="251"/>
-      <c r="AB86" s="251"/>
+      <c r="Z86" s="248"/>
+      <c r="AB86" s="248"/>
       <c r="AC86" s="182"/>
-      <c r="AD86" s="251"/>
+      <c r="AD86" s="248"/>
       <c r="AE86" s="182">
         <f>9/8977*100</f>
         <v>0.10025621031525009</v>
       </c>
-      <c r="AF86" s="251"/>
+      <c r="AF86" s="248"/>
       <c r="AI86" s="221">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ86" s="268"/>
-      <c r="AL86" s="268"/>
+      <c r="AJ86" s="256"/>
+      <c r="AL86" s="256"/>
     </row>
     <row r="87" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="251"/>
+      <c r="A87" s="248"/>
       <c r="B87" s="177">
         <v>73</v>
       </c>
@@ -29483,24 +30012,24 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E87" s="251"/>
+      <c r="E87" s="248"/>
       <c r="F87" s="177">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G87" s="251"/>
-      <c r="I87" s="251"/>
+      <c r="G87" s="248"/>
+      <c r="I87" s="248"/>
       <c r="J87" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K87" s="254"/>
+      <c r="K87" s="259"/>
       <c r="L87" s="177">
         <v>0</v>
       </c>
-      <c r="M87" s="254"/>
+      <c r="M87" s="259"/>
       <c r="N87" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O87" s="274"/>
+      <c r="O87" s="254"/>
       <c r="P87" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29509,26 +30038,26 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z87" s="251"/>
-      <c r="AB87" s="251"/>
+      <c r="Z87" s="248"/>
+      <c r="AB87" s="248"/>
       <c r="AC87" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD87" s="251"/>
+      <c r="AD87" s="248"/>
       <c r="AE87" s="182">
         <f>43/8977*100</f>
         <v>0.47900189372841706</v>
       </c>
-      <c r="AF87" s="251"/>
+      <c r="AF87" s="248"/>
       <c r="AI87" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ87" s="268"/>
-      <c r="AL87" s="268"/>
+      <c r="AJ87" s="256"/>
+      <c r="AL87" s="256"/>
     </row>
     <row r="88" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="251"/>
+      <c r="A88" s="248"/>
       <c r="B88" s="177">
         <v>82</v>
       </c>
@@ -29539,19 +30068,19 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E88" s="251"/>
+      <c r="E88" s="248"/>
       <c r="F88" s="177"/>
-      <c r="G88" s="251"/>
-      <c r="I88" s="251"/>
+      <c r="G88" s="248"/>
+      <c r="I88" s="248"/>
       <c r="J88" s="177">
         <v>0</v>
       </c>
-      <c r="K88" s="254"/>
+      <c r="K88" s="259"/>
       <c r="L88" s="177">
         <v>0</v>
       </c>
-      <c r="M88" s="254"/>
-      <c r="O88" s="274"/>
+      <c r="M88" s="259"/>
+      <c r="O88" s="254"/>
       <c r="P88" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29560,22 +30089,22 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z88" s="251"/>
-      <c r="AB88" s="251"/>
+      <c r="Z88" s="248"/>
+      <c r="AB88" s="248"/>
       <c r="AC88" s="182"/>
-      <c r="AD88" s="251"/>
+      <c r="AD88" s="248"/>
       <c r="AE88" s="182">
         <f>6/8977*100</f>
         <v>6.6837473543500059E-2</v>
       </c>
-      <c r="AF88" s="251"/>
-      <c r="AJ88" s="268"/>
-      <c r="AL88" s="268"/>
+      <c r="AF88" s="248"/>
+      <c r="AJ88" s="256"/>
+      <c r="AL88" s="256"/>
     </row>
     <row r="89" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="251"/>
+      <c r="A89" s="248"/>
       <c r="B89" s="177" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C89" s="184"/>
       <c r="D89" s="184"/>
@@ -29584,29 +30113,29 @@
         <f>0.011 + 0.006 + 0.006 + 0.006</f>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="G89" s="251"/>
-      <c r="I89" s="251"/>
-      <c r="K89" s="254"/>
-      <c r="M89" s="254"/>
-      <c r="O89" s="274"/>
+      <c r="G89" s="248"/>
+      <c r="I89" s="248"/>
+      <c r="K89" s="259"/>
+      <c r="M89" s="259"/>
+      <c r="O89" s="254"/>
       <c r="P89" s="182"/>
       <c r="R89" s="182"/>
-      <c r="Z89" s="251"/>
-      <c r="AB89" s="251"/>
+      <c r="Z89" s="248"/>
+      <c r="AB89" s="248"/>
       <c r="AC89" s="182"/>
-      <c r="AD89" s="251"/>
+      <c r="AD89" s="248"/>
       <c r="AE89" s="182"/>
-      <c r="AF89" s="251"/>
+      <c r="AF89" s="248"/>
       <c r="AI89" s="221">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ89" s="268"/>
-      <c r="AL89" s="268"/>
+      <c r="AJ89" s="256"/>
+      <c r="AL89" s="256"/>
     </row>
     <row r="90" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="177"/>
       <c r="B90" s="177" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C90" s="177"/>
       <c r="D90" s="177"/>
@@ -29614,7 +30143,7 @@
       <c r="F90" s="177"/>
       <c r="G90" s="177"/>
       <c r="H90" s="177"/>
-      <c r="I90" s="251"/>
+      <c r="I90" s="248"/>
       <c r="J90" s="182">
         <f>1/46*100</f>
         <v>2.1739130434782608</v>
@@ -29623,7 +30152,7 @@
         <f>2/106*100</f>
         <v>1.8867924528301887</v>
       </c>
-      <c r="O90" s="274"/>
+      <c r="O90" s="254"/>
       <c r="P90" s="183">
         <f>32/77*100</f>
         <v>41.558441558441558</v>
@@ -29633,24 +30162,24 @@
         <v>23.376623376623375</v>
       </c>
       <c r="S90" s="177"/>
-      <c r="Z90" s="251"/>
-      <c r="AB90" s="251"/>
+      <c r="Z90" s="248"/>
+      <c r="AB90" s="248"/>
       <c r="AC90" s="182">
         <f>15/544*100</f>
         <v>2.7573529411764706</v>
       </c>
-      <c r="AD90" s="251"/>
+      <c r="AD90" s="248"/>
       <c r="AE90" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF90" s="251"/>
-      <c r="AJ90" s="268"/>
-      <c r="AL90" s="268"/>
+      <c r="AF90" s="248"/>
+      <c r="AJ90" s="256"/>
+      <c r="AL90" s="256"/>
     </row>
     <row r="91" spans="1:38" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="230" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B91" s="230"/>
       <c r="C91" s="230"/>
@@ -29691,8 +30220,8 @@
       <c r="AL91" s="228"/>
     </row>
     <row r="92" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="250" t="s">
-        <v>308</v>
+      <c r="A92" s="269" t="s">
+        <v>307</v>
       </c>
       <c r="B92" s="177">
         <v>16</v>
@@ -29713,7 +30242,7 @@
       </c>
     </row>
     <row r="93" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="251"/>
+      <c r="A93" s="248"/>
       <c r="B93" s="177">
         <v>18</v>
       </c>
@@ -29733,240 +30262,240 @@
       </c>
     </row>
     <row r="94" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="251"/>
+      <c r="A94" s="248"/>
       <c r="B94" s="177">
         <v>31</v>
       </c>
       <c r="H94" s="177">
         <v>6.8</v>
       </c>
-      <c r="I94" s="253">
+      <c r="I94" s="247">
         <f>(SUM(H94:H98)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.3216134598792062</v>
       </c>
       <c r="AA94" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB94" s="252">
+      <c r="AB94" s="249">
         <f>SUM(AA94:AA98)/100</f>
         <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="251"/>
+      <c r="A95" s="248"/>
       <c r="B95" s="177">
         <v>33</v>
       </c>
       <c r="H95" s="177">
         <v>8.9</v>
       </c>
-      <c r="I95" s="251"/>
+      <c r="I95" s="248"/>
       <c r="AA95" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB95" s="251"/>
+      <c r="AB95" s="248"/>
     </row>
     <row r="96" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="251"/>
+      <c r="A96" s="248"/>
       <c r="B96" s="177">
         <v>45</v>
       </c>
       <c r="H96" s="177">
         <v>9.9</v>
       </c>
-      <c r="I96" s="251"/>
+      <c r="I96" s="248"/>
       <c r="AA96" s="177">
         <v>4.2</v>
       </c>
-      <c r="AB96" s="251"/>
+      <c r="AB96" s="248"/>
     </row>
     <row r="97" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="251"/>
+      <c r="A97" s="248"/>
       <c r="B97" s="177">
         <v>52</v>
       </c>
       <c r="H97" s="177">
         <v>12.8</v>
       </c>
-      <c r="I97" s="251"/>
+      <c r="I97" s="248"/>
       <c r="AA97" s="177">
         <v>13.8</v>
       </c>
-      <c r="AB97" s="251"/>
+      <c r="AB97" s="248"/>
     </row>
     <row r="98" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="251"/>
+      <c r="A98" s="248"/>
       <c r="B98" s="177">
         <v>58</v>
       </c>
       <c r="H98" s="177">
         <v>14.1</v>
       </c>
-      <c r="I98" s="251"/>
+      <c r="I98" s="248"/>
       <c r="AA98" s="177">
         <v>7.9</v>
       </c>
-      <c r="AB98" s="251"/>
+      <c r="AB98" s="248"/>
     </row>
     <row r="99" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="250" t="s">
-        <v>306</v>
+      <c r="A99" s="269" t="s">
+        <v>305</v>
       </c>
       <c r="B99" s="177">
         <v>26</v>
       </c>
-      <c r="I99" s="253">
+      <c r="I99" s="247">
         <f>(SUM(H99:H112)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.38838654012079366</v>
       </c>
-      <c r="AB99" s="252">
+      <c r="AB99" s="249">
         <f>1-SUM(AB92:AB98)</f>
         <v>0.19600000000000006</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="251"/>
+      <c r="A100" s="248"/>
       <c r="B100" s="177">
         <v>35</v>
       </c>
       <c r="H100" s="177">
         <v>16.2</v>
       </c>
-      <c r="I100" s="251"/>
+      <c r="I100" s="248"/>
       <c r="AA100" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB100" s="251"/>
+      <c r="AB100" s="248"/>
     </row>
     <row r="101" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="251"/>
+      <c r="A101" s="248"/>
       <c r="B101" s="177">
         <v>39</v>
       </c>
       <c r="H101" s="177">
         <v>6.7</v>
       </c>
-      <c r="I101" s="251"/>
+      <c r="I101" s="248"/>
       <c r="AA101" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB101" s="251"/>
+      <c r="AB101" s="248"/>
     </row>
     <row r="102" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="251"/>
+      <c r="A102" s="248"/>
       <c r="B102" s="177">
         <v>51</v>
       </c>
       <c r="H102" s="177">
         <v>13.4</v>
       </c>
-      <c r="I102" s="251"/>
+      <c r="I102" s="248"/>
       <c r="AA102" s="177">
         <v>10.8</v>
       </c>
-      <c r="AB102" s="251"/>
+      <c r="AB102" s="248"/>
     </row>
     <row r="103" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="251"/>
+      <c r="A103" s="248"/>
       <c r="B103" s="177">
         <v>53</v>
       </c>
-      <c r="I103" s="251"/>
-      <c r="AB103" s="251"/>
+      <c r="I103" s="248"/>
+      <c r="AB103" s="248"/>
     </row>
     <row r="104" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="251"/>
+      <c r="A104" s="248"/>
       <c r="B104" s="177">
         <v>56</v>
       </c>
       <c r="H104" s="177">
         <v>10.7</v>
       </c>
-      <c r="I104" s="251"/>
+      <c r="I104" s="248"/>
       <c r="AA104" s="177">
         <v>7.7</v>
       </c>
-      <c r="AB104" s="251"/>
+      <c r="AB104" s="248"/>
     </row>
     <row r="105" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="251"/>
+      <c r="A105" s="248"/>
       <c r="B105" s="177">
         <v>59</v>
       </c>
       <c r="H105" s="177">
         <v>6.5</v>
       </c>
-      <c r="I105" s="251"/>
+      <c r="I105" s="248"/>
       <c r="AA105" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB105" s="251"/>
+      <c r="AB105" s="248"/>
     </row>
     <row r="106" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="251"/>
+      <c r="A106" s="248"/>
       <c r="B106" s="177">
         <v>66</v>
       </c>
-      <c r="I106" s="251"/>
-      <c r="AB106" s="251"/>
+      <c r="I106" s="248"/>
+      <c r="AB106" s="248"/>
     </row>
     <row r="107" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="251"/>
+      <c r="A107" s="248"/>
       <c r="B107" s="177">
         <v>68</v>
       </c>
       <c r="H107" s="177">
         <v>9.9</v>
       </c>
-      <c r="I107" s="251"/>
+      <c r="I107" s="248"/>
       <c r="AA107" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB107" s="251"/>
+      <c r="AB107" s="248"/>
     </row>
     <row r="108" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="251"/>
+      <c r="A108" s="248"/>
       <c r="B108" s="177">
         <v>69</v>
       </c>
-      <c r="I108" s="251"/>
-      <c r="AB108" s="251"/>
+      <c r="I108" s="248"/>
+      <c r="AB108" s="248"/>
     </row>
     <row r="109" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="251"/>
+      <c r="A109" s="248"/>
       <c r="B109" s="177">
         <v>70</v>
       </c>
-      <c r="I109" s="251"/>
-      <c r="AB109" s="251"/>
+      <c r="I109" s="248"/>
+      <c r="AB109" s="248"/>
     </row>
     <row r="110" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="251"/>
+      <c r="A110" s="248"/>
       <c r="B110" s="177">
         <v>73</v>
       </c>
-      <c r="I110" s="251"/>
-      <c r="AB110" s="251"/>
+      <c r="I110" s="248"/>
+      <c r="AB110" s="248"/>
     </row>
     <row r="111" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="251"/>
+      <c r="A111" s="248"/>
       <c r="B111" s="177">
         <v>82</v>
       </c>
-      <c r="I111" s="251"/>
-      <c r="AB111" s="251"/>
+      <c r="I111" s="248"/>
+      <c r="AB111" s="248"/>
     </row>
     <row r="112" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="251"/>
+      <c r="A112" s="248"/>
       <c r="B112" s="177" t="s">
-        <v>311</v>
-      </c>
-      <c r="I112" s="251"/>
-      <c r="AB112" s="251"/>
+        <v>310</v>
+      </c>
+      <c r="I112" s="248"/>
+      <c r="AB112" s="248"/>
     </row>
     <row r="113" spans="1:38" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="230" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B113" s="229"/>
       <c r="C113" s="229"/>
@@ -30007,8 +30536,8 @@
       <c r="AL113" s="228"/>
     </row>
     <row r="114" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="250" t="s">
-        <v>308</v>
+      <c r="A114" s="269" t="s">
+        <v>307</v>
       </c>
       <c r="B114" s="177">
         <v>16</v>
@@ -30029,7 +30558,7 @@
       </c>
     </row>
     <row r="115" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="251"/>
+      <c r="A115" s="248"/>
       <c r="B115" s="177">
         <v>18</v>
       </c>
@@ -30049,240 +30578,240 @@
       </c>
     </row>
     <row r="116" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="251"/>
+      <c r="A116" s="248"/>
       <c r="B116" s="177">
         <v>31</v>
       </c>
       <c r="H116" s="177">
         <v>16.100000000000001</v>
       </c>
-      <c r="I116" s="252">
+      <c r="I116" s="249">
         <f>(SUM(H116:H120)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.32012755102040802</v>
       </c>
       <c r="AA116" s="177">
         <v>11.6</v>
       </c>
-      <c r="AB116" s="252">
+      <c r="AB116" s="249">
         <f>SUM(AA116:AA120)/100</f>
         <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="251"/>
+      <c r="A117" s="248"/>
       <c r="B117" s="177">
         <v>33</v>
       </c>
       <c r="H117" s="177">
         <v>12</v>
       </c>
-      <c r="I117" s="251"/>
+      <c r="I117" s="248"/>
       <c r="AA117" s="177">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB117" s="251"/>
+      <c r="AB117" s="248"/>
     </row>
     <row r="118" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="251"/>
+      <c r="A118" s="248"/>
       <c r="B118" s="177">
         <v>45</v>
       </c>
       <c r="H118" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I118" s="251"/>
+      <c r="I118" s="248"/>
       <c r="AA118" s="177">
         <v>5</v>
       </c>
-      <c r="AB118" s="251"/>
+      <c r="AB118" s="248"/>
     </row>
     <row r="119" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="251"/>
+      <c r="A119" s="248"/>
       <c r="B119" s="177">
         <v>52</v>
       </c>
       <c r="H119" s="177">
         <v>10.6</v>
       </c>
-      <c r="I119" s="251"/>
+      <c r="I119" s="248"/>
       <c r="AA119" s="177">
         <v>16.399999999999999</v>
       </c>
-      <c r="AB119" s="251"/>
+      <c r="AB119" s="248"/>
     </row>
     <row r="120" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="251"/>
+      <c r="A120" s="248"/>
       <c r="B120" s="177">
         <v>58</v>
       </c>
       <c r="H120" s="177">
         <v>22.1</v>
       </c>
-      <c r="I120" s="251"/>
+      <c r="I120" s="248"/>
       <c r="AA120" s="177">
         <v>12.1</v>
       </c>
-      <c r="AB120" s="251"/>
+      <c r="AB120" s="248"/>
     </row>
     <row r="121" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="250" t="s">
-        <v>306</v>
+      <c r="A121" s="269" t="s">
+        <v>305</v>
       </c>
       <c r="B121" s="177">
         <v>26</v>
       </c>
-      <c r="I121" s="253">
+      <c r="I121" s="247">
         <f>(SUM(H121:H134)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.3028724489795917</v>
       </c>
-      <c r="AB121" s="252">
+      <c r="AB121" s="249">
         <f>1-SUM(AB114:AB120)</f>
         <v>-3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="122" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="251"/>
+      <c r="A122" s="248"/>
       <c r="B122" s="177">
         <v>35</v>
       </c>
       <c r="H122" s="177">
         <v>23.9</v>
       </c>
-      <c r="I122" s="251"/>
+      <c r="I122" s="248"/>
       <c r="AA122" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB122" s="251"/>
+      <c r="AB122" s="248"/>
     </row>
     <row r="123" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="251"/>
+      <c r="A123" s="248"/>
       <c r="B123" s="177">
         <v>39</v>
       </c>
       <c r="H123" s="177">
         <v>5.4</v>
       </c>
-      <c r="I123" s="251"/>
+      <c r="I123" s="248"/>
       <c r="AA123" s="177">
         <v>5.4</v>
       </c>
-      <c r="AB123" s="251"/>
+      <c r="AB123" s="248"/>
     </row>
     <row r="124" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="251"/>
+      <c r="A124" s="248"/>
       <c r="B124" s="177">
         <v>51</v>
       </c>
       <c r="H124" s="177">
         <v>12.9</v>
       </c>
-      <c r="I124" s="251"/>
+      <c r="I124" s="248"/>
       <c r="AA124" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB124" s="251"/>
+      <c r="AB124" s="248"/>
     </row>
     <row r="125" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="251"/>
+      <c r="A125" s="248"/>
       <c r="B125" s="177">
         <v>53</v>
       </c>
-      <c r="I125" s="251"/>
-      <c r="AB125" s="251"/>
+      <c r="I125" s="248"/>
+      <c r="AB125" s="248"/>
     </row>
     <row r="126" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="251"/>
+      <c r="A126" s="248"/>
       <c r="B126" s="177">
         <v>56</v>
       </c>
       <c r="H126" s="177">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I126" s="251"/>
+      <c r="I126" s="248"/>
       <c r="AA126" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB126" s="251"/>
+      <c r="AB126" s="248"/>
     </row>
     <row r="127" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="251"/>
+      <c r="A127" s="248"/>
       <c r="B127" s="177">
         <v>59</v>
       </c>
       <c r="H127" s="177">
         <v>6.5</v>
       </c>
-      <c r="I127" s="251"/>
+      <c r="I127" s="248"/>
       <c r="AA127" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB127" s="251"/>
+      <c r="AB127" s="248"/>
     </row>
     <row r="128" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="251"/>
+      <c r="A128" s="248"/>
       <c r="B128" s="177">
         <v>66</v>
       </c>
-      <c r="I128" s="251"/>
-      <c r="AB128" s="251"/>
+      <c r="I128" s="248"/>
+      <c r="AB128" s="248"/>
     </row>
     <row r="129" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="251"/>
+      <c r="A129" s="248"/>
       <c r="B129" s="177">
         <v>68</v>
       </c>
       <c r="H129" s="177">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I129" s="251"/>
+      <c r="I129" s="248"/>
       <c r="AA129" s="177">
         <v>2.9</v>
       </c>
-      <c r="AB129" s="251"/>
+      <c r="AB129" s="248"/>
     </row>
     <row r="130" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="251"/>
+      <c r="A130" s="248"/>
       <c r="B130" s="177">
         <v>69</v>
       </c>
-      <c r="I130" s="251"/>
-      <c r="AB130" s="251"/>
+      <c r="I130" s="248"/>
+      <c r="AB130" s="248"/>
     </row>
     <row r="131" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="251"/>
+      <c r="A131" s="248"/>
       <c r="B131" s="177">
         <v>70</v>
       </c>
-      <c r="I131" s="251"/>
-      <c r="AB131" s="251"/>
+      <c r="I131" s="248"/>
+      <c r="AB131" s="248"/>
     </row>
     <row r="132" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="251"/>
+      <c r="A132" s="248"/>
       <c r="B132" s="177">
         <v>73</v>
       </c>
-      <c r="I132" s="251"/>
-      <c r="AB132" s="251"/>
+      <c r="I132" s="248"/>
+      <c r="AB132" s="248"/>
     </row>
     <row r="133" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="251"/>
+      <c r="A133" s="248"/>
       <c r="B133" s="177">
         <v>82</v>
       </c>
-      <c r="I133" s="251"/>
-      <c r="AB133" s="251"/>
+      <c r="I133" s="248"/>
+      <c r="AB133" s="248"/>
     </row>
     <row r="134" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="251"/>
+      <c r="A134" s="248"/>
       <c r="B134" s="177" t="s">
-        <v>311</v>
-      </c>
-      <c r="I134" s="251"/>
-      <c r="AB134" s="251"/>
+        <v>310</v>
+      </c>
+      <c r="I134" s="248"/>
+      <c r="AB134" s="248"/>
     </row>
     <row r="135" spans="1:38" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="230" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B135" s="229"/>
       <c r="C135" s="229"/>
@@ -30323,8 +30852,8 @@
       <c r="AL135" s="228"/>
     </row>
     <row r="136" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="250" t="s">
-        <v>308</v>
+      <c r="A136" s="269" t="s">
+        <v>307</v>
       </c>
       <c r="B136" s="177">
         <v>16</v>
@@ -30345,7 +30874,7 @@
       </c>
     </row>
     <row r="137" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="251"/>
+      <c r="A137" s="248"/>
       <c r="B137" s="177">
         <v>18</v>
       </c>
@@ -30365,359 +30894,239 @@
       </c>
     </row>
     <row r="138" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="251"/>
+      <c r="A138" s="248"/>
       <c r="B138" s="177">
         <v>31</v>
       </c>
       <c r="H138" s="177">
         <v>10.6</v>
       </c>
-      <c r="I138" s="253">
+      <c r="I138" s="247">
         <f>(SUM(H138:H142)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.23775675675675673</v>
       </c>
       <c r="AA138" s="177">
         <v>11.7</v>
       </c>
-      <c r="AB138" s="252">
+      <c r="AB138" s="249">
         <f>SUM(AA138:AA142)/100</f>
         <v>0.43599999999999994</v>
       </c>
     </row>
     <row r="139" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="251"/>
+      <c r="A139" s="248"/>
       <c r="B139" s="177">
         <v>33</v>
       </c>
       <c r="H139" s="177">
         <v>13.8</v>
       </c>
-      <c r="I139" s="251"/>
+      <c r="I139" s="248"/>
       <c r="AA139" s="177">
         <v>9.1</v>
       </c>
-      <c r="AB139" s="251"/>
+      <c r="AB139" s="248"/>
     </row>
     <row r="140" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="251"/>
+      <c r="A140" s="248"/>
       <c r="B140" s="177">
         <v>45</v>
       </c>
       <c r="H140" s="177">
         <v>6.3</v>
       </c>
-      <c r="I140" s="251"/>
+      <c r="I140" s="248"/>
       <c r="AA140" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB140" s="251"/>
+      <c r="AB140" s="248"/>
     </row>
     <row r="141" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="251"/>
+      <c r="A141" s="248"/>
       <c r="B141" s="177">
         <v>52</v>
       </c>
       <c r="H141" s="177">
         <v>11.3</v>
       </c>
-      <c r="I141" s="251"/>
+      <c r="I141" s="248"/>
       <c r="AA141" s="177">
         <v>10.199999999999999</v>
       </c>
-      <c r="AB141" s="251"/>
+      <c r="AB141" s="248"/>
     </row>
     <row r="142" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="251"/>
+      <c r="A142" s="248"/>
       <c r="B142" s="177">
         <v>58</v>
       </c>
       <c r="H142" s="177">
         <v>18.8</v>
       </c>
-      <c r="I142" s="251"/>
+      <c r="I142" s="248"/>
       <c r="AA142" s="177">
         <v>9</v>
       </c>
-      <c r="AB142" s="251"/>
+      <c r="AB142" s="248"/>
     </row>
     <row r="143" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="250" t="s">
-        <v>306</v>
+      <c r="A143" s="269" t="s">
+        <v>305</v>
       </c>
       <c r="B143" s="177">
         <v>26</v>
       </c>
-      <c r="I143" s="253">
+      <c r="I143" s="247">
         <f>(SUM(H143:H156)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.22524324324324321</v>
       </c>
-      <c r="AB143" s="252">
+      <c r="AB143" s="249">
         <f>1-SUM(AB136:AB142)</f>
         <v>-9.2000000000000082E-2</v>
       </c>
     </row>
     <row r="144" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="251"/>
+      <c r="A144" s="248"/>
       <c r="B144" s="177">
         <v>35</v>
       </c>
       <c r="H144" s="177">
         <v>23.2</v>
       </c>
-      <c r="I144" s="251"/>
+      <c r="I144" s="248"/>
       <c r="AA144" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB144" s="251"/>
+      <c r="AB144" s="248"/>
     </row>
     <row r="145" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="251"/>
+      <c r="A145" s="248"/>
       <c r="B145" s="177">
         <v>39</v>
       </c>
       <c r="H145" s="177">
         <v>5.6</v>
       </c>
-      <c r="I145" s="251"/>
+      <c r="I145" s="248"/>
       <c r="AA145" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB145" s="251"/>
+      <c r="AB145" s="248"/>
     </row>
     <row r="146" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A146" s="251"/>
+      <c r="A146" s="248"/>
       <c r="B146" s="177">
         <v>51</v>
       </c>
       <c r="H146" s="177">
         <v>6.9</v>
       </c>
-      <c r="I146" s="251"/>
+      <c r="I146" s="248"/>
       <c r="AA146" s="177">
         <v>5.5</v>
       </c>
-      <c r="AB146" s="251"/>
+      <c r="AB146" s="248"/>
     </row>
     <row r="147" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="251"/>
+      <c r="A147" s="248"/>
       <c r="B147" s="177">
         <v>53</v>
       </c>
-      <c r="I147" s="251"/>
-      <c r="AB147" s="251"/>
+      <c r="I147" s="248"/>
+      <c r="AB147" s="248"/>
     </row>
     <row r="148" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="251"/>
+      <c r="A148" s="248"/>
       <c r="B148" s="177">
         <v>56</v>
       </c>
       <c r="H148" s="177">
         <v>10.6</v>
       </c>
-      <c r="I148" s="251"/>
+      <c r="I148" s="248"/>
       <c r="AA148" s="177">
         <v>2.5</v>
       </c>
-      <c r="AB148" s="251"/>
+      <c r="AB148" s="248"/>
     </row>
     <row r="149" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="251"/>
+      <c r="A149" s="248"/>
       <c r="B149" s="177">
         <v>59</v>
       </c>
       <c r="H149" s="177">
         <v>3.8</v>
       </c>
-      <c r="I149" s="251"/>
+      <c r="I149" s="248"/>
       <c r="AA149" s="177">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB149" s="251"/>
+      <c r="AB149" s="248"/>
     </row>
     <row r="150" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="251"/>
+      <c r="A150" s="248"/>
       <c r="B150" s="177">
         <v>66</v>
       </c>
-      <c r="I150" s="251"/>
-      <c r="AB150" s="251"/>
+      <c r="I150" s="248"/>
+      <c r="AB150" s="248"/>
     </row>
     <row r="151" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="251"/>
+      <c r="A151" s="248"/>
       <c r="B151" s="177">
         <v>68</v>
       </c>
       <c r="H151" s="177">
         <v>7.5</v>
       </c>
-      <c r="I151" s="251"/>
+      <c r="I151" s="248"/>
       <c r="AA151" s="177">
         <v>2</v>
       </c>
-      <c r="AB151" s="251"/>
+      <c r="AB151" s="248"/>
     </row>
     <row r="152" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="251"/>
+      <c r="A152" s="248"/>
       <c r="B152" s="177">
         <v>69</v>
       </c>
-      <c r="I152" s="251"/>
-      <c r="AB152" s="251"/>
+      <c r="I152" s="248"/>
+      <c r="AB152" s="248"/>
     </row>
     <row r="153" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="251"/>
+      <c r="A153" s="248"/>
       <c r="B153" s="177">
         <v>70</v>
       </c>
-      <c r="I153" s="251"/>
-      <c r="AB153" s="251"/>
+      <c r="I153" s="248"/>
+      <c r="AB153" s="248"/>
     </row>
     <row r="154" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="251"/>
+      <c r="A154" s="248"/>
       <c r="B154" s="177">
         <v>73</v>
       </c>
-      <c r="I154" s="251"/>
-      <c r="AB154" s="251"/>
+      <c r="I154" s="248"/>
+      <c r="AB154" s="248"/>
     </row>
     <row r="155" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="251"/>
+      <c r="A155" s="248"/>
       <c r="B155" s="177">
         <v>82</v>
       </c>
-      <c r="I155" s="251"/>
-      <c r="AB155" s="251"/>
+      <c r="I155" s="248"/>
+      <c r="AB155" s="248"/>
     </row>
     <row r="156" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="251"/>
+      <c r="A156" s="248"/>
       <c r="B156" s="177" t="s">
-        <v>311</v>
-      </c>
-      <c r="I156" s="251"/>
-      <c r="AB156" s="251"/>
+        <v>310</v>
+      </c>
+      <c r="I156" s="248"/>
+      <c r="AB156" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="Z16:Z26"/>
-    <mergeCell ref="AB16:AB26"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="Z11:Z15"/>
-    <mergeCell ref="AB11:AB15"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="O71:O75"/>
-    <mergeCell ref="O76:O90"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AJ71:AJ75"/>
-    <mergeCell ref="AL71:AL75"/>
-    <mergeCell ref="AJ76:AJ90"/>
-    <mergeCell ref="AL76:AL90"/>
-    <mergeCell ref="X16:X26"/>
-    <mergeCell ref="X11:X15"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="AH35:AH46"/>
-    <mergeCell ref="AF71:AF75"/>
-    <mergeCell ref="Z76:Z90"/>
-    <mergeCell ref="AD76:AD90"/>
-    <mergeCell ref="AF76:AF90"/>
-    <mergeCell ref="K76:K89"/>
-    <mergeCell ref="M76:M89"/>
-    <mergeCell ref="AB76:AB90"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="E16:E26"/>
-    <mergeCell ref="I16:I26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="X30:X34"/>
-    <mergeCell ref="Z30:Z34"/>
-    <mergeCell ref="AB30:AB34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="E35:E46"/>
-    <mergeCell ref="I35:I46"/>
-    <mergeCell ref="X35:X45"/>
-    <mergeCell ref="Z35:Z46"/>
-    <mergeCell ref="AB35:AB46"/>
-    <mergeCell ref="X50:X54"/>
-    <mergeCell ref="Z50:Z54"/>
-    <mergeCell ref="AB50:AB54"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="I55:I67"/>
-    <mergeCell ref="X55:X67"/>
-    <mergeCell ref="Z55:Z66"/>
-    <mergeCell ref="AB55:AB66"/>
-    <mergeCell ref="I76:I90"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="G71:G75"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="K71:K75"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="I143:I156"/>
-    <mergeCell ref="AB143:AB156"/>
-    <mergeCell ref="A121:A134"/>
-    <mergeCell ref="I121:I134"/>
-    <mergeCell ref="AB121:AB134"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="AB138:AB142"/>
     <mergeCell ref="AP55:AP67"/>
     <mergeCell ref="AQ55:AQ67"/>
     <mergeCell ref="AO11:AO15"/>
@@ -30742,6 +31151,126 @@
     <mergeCell ref="A76:A89"/>
     <mergeCell ref="E76:E88"/>
     <mergeCell ref="G76:G89"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="I143:I156"/>
+    <mergeCell ref="AB143:AB156"/>
+    <mergeCell ref="A121:A134"/>
+    <mergeCell ref="I121:I134"/>
+    <mergeCell ref="AB121:AB134"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="I138:I142"/>
+    <mergeCell ref="AB138:AB142"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="I55:I67"/>
+    <mergeCell ref="X55:X67"/>
+    <mergeCell ref="Z55:Z66"/>
+    <mergeCell ref="AB55:AB66"/>
+    <mergeCell ref="I76:I90"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="G71:G75"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="K71:K75"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="X30:X34"/>
+    <mergeCell ref="Z30:Z34"/>
+    <mergeCell ref="AB30:AB34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="E35:E46"/>
+    <mergeCell ref="I35:I46"/>
+    <mergeCell ref="X35:X45"/>
+    <mergeCell ref="Z35:Z46"/>
+    <mergeCell ref="AB35:AB46"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="E16:E26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K76:K89"/>
+    <mergeCell ref="M76:M89"/>
+    <mergeCell ref="AB76:AB90"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="X50:X54"/>
+    <mergeCell ref="Z50:Z54"/>
+    <mergeCell ref="AB50:AB54"/>
+    <mergeCell ref="O71:O75"/>
+    <mergeCell ref="O76:O90"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AJ71:AJ75"/>
+    <mergeCell ref="AL71:AL75"/>
+    <mergeCell ref="AJ76:AJ90"/>
+    <mergeCell ref="AL76:AL90"/>
+    <mergeCell ref="X16:X26"/>
+    <mergeCell ref="X11:X15"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AH35:AH46"/>
+    <mergeCell ref="AF71:AF75"/>
+    <mergeCell ref="Z76:Z90"/>
+    <mergeCell ref="AD76:AD90"/>
+    <mergeCell ref="AF76:AF90"/>
+    <mergeCell ref="Z16:Z26"/>
+    <mergeCell ref="AB16:AB26"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="Z11:Z15"/>
+    <mergeCell ref="AB11:AB15"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30767,128 +31296,128 @@
   <sheetData>
     <row r="1" spans="1:38" s="227" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="227" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="210" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="209" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="D2" s="208" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="E2" s="206" t="s">
         <v>252</v>
-      </c>
-      <c r="E2" s="206" t="s">
-        <v>253</v>
       </c>
       <c r="F2" s="205"/>
       <c r="G2" s="205"/>
       <c r="H2" s="204" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="280" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="J2" s="280"/>
+      <c r="K2" s="279" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="279"/>
-      <c r="K2" s="278" t="s">
+      <c r="L2" s="279"/>
+      <c r="M2" s="203" t="s">
         <v>256</v>
       </c>
-      <c r="L2" s="278"/>
-      <c r="M2" s="203" t="s">
-        <v>257</v>
-      </c>
-      <c r="N2" s="277" t="s">
-        <v>349</v>
-      </c>
-      <c r="O2" s="277"/>
+      <c r="N2" s="278" t="s">
+        <v>348</v>
+      </c>
+      <c r="O2" s="278"/>
       <c r="P2" s="226" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q2" s="249" t="s">
         <v>347</v>
       </c>
-      <c r="R2" s="249"/>
+      <c r="Q2" s="276" t="s">
+        <v>346</v>
+      </c>
+      <c r="R2" s="276"/>
       <c r="S2" s="225" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="177" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="176" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="C3" s="177" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="D3" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="177" t="s">
+      <c r="E3" s="177" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="H3" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="I3" s="177" t="s">
         <v>263</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="K3" s="177" t="s">
         <v>264</v>
       </c>
-      <c r="K3" s="177" t="s">
+      <c r="M3" s="177" t="s">
         <v>265</v>
       </c>
-      <c r="M3" s="177" t="s">
-        <v>266</v>
-      </c>
       <c r="N3" s="221" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O3" s="220"/>
       <c r="P3" s="176" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q3" s="176" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="222" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="224" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4" s="202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D4" s="222" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4" s="222" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H4" s="222" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I4" s="222" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K4" s="222" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M4" s="222" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N4" s="223" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P4" s="176" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="176" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA4" s="177"/>
       <c r="AE4" s="177"/>
@@ -30898,63 +31427,63 @@
     </row>
     <row r="5" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="202" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="C5" s="202" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="202" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="177" t="s">
+      <c r="E5" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="177" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="H5" s="177" t="s">
+      <c r="I5" s="177" t="s">
         <v>270</v>
       </c>
-      <c r="I5" s="177" t="s">
+      <c r="J5" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="J5" s="177" t="s">
+      <c r="K5" s="177" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="177" t="s">
         <v>272</v>
       </c>
-      <c r="K5" s="177" t="s">
+      <c r="M5" s="177" t="s">
+        <v>273</v>
+      </c>
+      <c r="N5" s="221" t="s">
         <v>271</v>
       </c>
-      <c r="L5" s="177" t="s">
-        <v>273</v>
-      </c>
-      <c r="M5" s="177" t="s">
-        <v>274</v>
-      </c>
-      <c r="N5" s="221" t="s">
-        <v>272</v>
-      </c>
       <c r="O5" s="221" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P5" s="176" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="177" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="202" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="202" t="s">
+      <c r="C6" s="177" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="D6" s="177" t="s">
         <v>277</v>
-      </c>
-      <c r="D6" s="177" t="s">
-        <v>278</v>
       </c>
       <c r="E6" s="177" t="s">
         <v>57</v>
@@ -30963,134 +31492,134 @@
         <v>31</v>
       </c>
       <c r="G6" s="222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H6" s="177" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="177" t="s">
         <v>279</v>
       </c>
-      <c r="I6" s="177" t="s">
+      <c r="K6" s="177" t="s">
         <v>280</v>
       </c>
-      <c r="K6" s="177" t="s">
-        <v>281</v>
-      </c>
       <c r="M6" s="177" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N6" s="221" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O6" s="220"/>
       <c r="P6" s="176" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="176" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R6" s="176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A7" s="177" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="177" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="C7" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="D7" s="177" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="E7" s="277" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="276" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="277"/>
       <c r="H7" s="177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I7" s="177" t="s">
+        <v>289</v>
+      </c>
+      <c r="K7" s="177" t="s">
         <v>290</v>
       </c>
-      <c r="K7" s="177" t="s">
+      <c r="M7" s="177" t="s">
         <v>291</v>
       </c>
-      <c r="M7" s="177" t="s">
-        <v>292</v>
-      </c>
       <c r="N7" s="221" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O7" s="220"/>
       <c r="P7" s="176" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="215" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S7" s="186" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="52" x14ac:dyDescent="0.3">
       <c r="B8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E8" s="201" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F8" s="201" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G8" s="201" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R8" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="180" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" s="179"/>
       <c r="C9" s="179"/>
@@ -31113,7 +31642,7 @@
     </row>
     <row r="10" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="197">
         <v>9.8522167487684748E-2</v>
@@ -31136,7 +31665,7 @@
     </row>
     <row r="11" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" s="197">
         <v>5.9113300492610842E-2</v>
@@ -31159,7 +31688,7 @@
     </row>
     <row r="12" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" s="197">
         <v>0.30541871921182273</v>
@@ -31184,12 +31713,12 @@
         <v>0.46822135734532</v>
       </c>
       <c r="T12" s="215" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="188" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" s="197">
         <v>0.53694581280788167</v>
@@ -31214,12 +31743,12 @@
         <v>0.53177864265468</v>
       </c>
       <c r="T13" s="215" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="180" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="198"/>
       <c r="C14" s="179"/>
@@ -31242,7 +31771,7 @@
     </row>
     <row r="15" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="197">
         <v>9.5869056897895572E-2</v>
@@ -31265,7 +31794,7 @@
     </row>
     <row r="16" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16" s="197">
         <v>6.8589243959470012E-2</v>
@@ -31288,7 +31817,7 @@
     </row>
     <row r="17" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17" s="197">
         <v>0.30085736554949344</v>
@@ -31313,12 +31842,12 @@
         <v>0.51915783320342934</v>
       </c>
       <c r="T17" s="215" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="188" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" s="197">
         <v>0.53468433359314127</v>
@@ -31343,12 +31872,12 @@
         <v>0.48084216679657066</v>
       </c>
       <c r="T18" s="215" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="180" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B19" s="198"/>
       <c r="C19" s="179"/>
@@ -31371,7 +31900,7 @@
     </row>
     <row r="20" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B20" s="197">
         <v>0.15971316818774448</v>
@@ -31391,7 +31920,7 @@
     </row>
     <row r="21" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B21" s="197">
         <v>5.9973924380704043E-2</v>
@@ -31411,7 +31940,7 @@
     </row>
     <row r="22" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B22" s="197">
         <v>0.36571056062581492</v>
@@ -31433,12 +31962,12 @@
         <v>0.73709892344552175</v>
       </c>
       <c r="T22" s="215" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="188" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B23" s="197">
         <v>0.41460234680573665</v>
@@ -31466,12 +31995,12 @@
         <v>0.26290107655447825</v>
       </c>
       <c r="T23" s="215" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="180" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" s="190"/>
       <c r="C24" s="179"/>
@@ -31494,7 +32023,7 @@
     </row>
     <row r="25" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B25" s="189">
         <v>0.50954773869346748</v>
@@ -31535,7 +32064,7 @@
     </row>
     <row r="26" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B26" s="189">
         <v>0.13567839195979903</v>
@@ -31576,7 +32105,7 @@
     </row>
     <row r="27" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B27" s="189">
         <v>0.19296482412060306</v>
@@ -31619,12 +32148,12 @@
         <v>0.85780595009985727</v>
       </c>
       <c r="T27" s="215" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="188" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B28" s="189">
         <v>0.16180904522613065</v>
@@ -31667,12 +32196,12 @@
         <v>0.14219404990014273</v>
       </c>
       <c r="T28" s="215" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="213" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B29" s="214"/>
       <c r="C29" s="213"/>
@@ -31687,7 +32216,7 @@
     </row>
     <row r="30" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="180" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B30" s="180"/>
       <c r="C30" s="180"/>
@@ -31706,7 +32235,7 @@
     </row>
     <row r="31" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D31" s="178">
         <v>0.183</v>
@@ -31717,7 +32246,7 @@
     </row>
     <row r="32" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D32" s="178">
         <v>0.107</v>
@@ -31728,7 +32257,7 @@
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="177">
         <v>0.3216134598792062</v>
@@ -31739,7 +32268,7 @@
     </row>
     <row r="34" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="188" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="177">
         <v>0.38838654012079366</v>
@@ -31750,7 +32279,7 @@
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="180" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" s="179"/>
       <c r="C35" s="179"/>
@@ -31769,7 +32298,7 @@
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D36" s="178">
         <v>0.23</v>
@@ -31780,7 +32309,7 @@
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D37" s="178">
         <v>0.14699999999999999</v>
@@ -31791,7 +32320,7 @@
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D38" s="177">
         <v>0.32012755102040802</v>
@@ -31802,7 +32331,7 @@
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="188" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" s="177">
         <v>0.3028724489795917</v>
@@ -31813,7 +32342,7 @@
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="180" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B40" s="179"/>
       <c r="C40" s="179"/>
@@ -31832,7 +32361,7 @@
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D41" s="178">
         <v>0.40600000000000003</v>
@@ -31843,7 +32372,7 @@
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D42" s="178">
         <v>0.13100000000000001</v>
@@ -31854,7 +32383,7 @@
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D43" s="177">
         <v>0.23775675675675673</v>
@@ -31865,7 +32394,7 @@
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="188" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D44" s="177">
         <v>0.22524324324324321</v>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="796" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="364">
   <si>
     <t>Age</t>
   </si>
@@ -1354,10 +1354,39 @@
     <t>Undetected CC Mortality Rates</t>
   </si>
   <si>
-    <t>Model appendix</t>
-  </si>
-  <si>
-    <t>Excel (monthly)</t>
+    <t>Values in Nick's paper model appendix (monthly)</t>
+  </si>
+  <si>
+    <t>Values in Nick's paper model appendix (yearly)</t>
+  </si>
+  <si>
+    <t>Multipliers for CD4 stage relative to HIV-negative mortality. Note: these match well with multipliers from Dryden-Peterson paper by CD4 stage</t>
+  </si>
+  <si>
+    <t>Values found in old version of Excel sheet (monthly)</t>
+  </si>
+  <si>
+    <t>Below: multipliers relative to HIV-negative mortality. It looks like they took the multipliers by CD4 stage and modified them for Stage 4 to be the minimum and for stage 1 to be 2x stage 2-3. This generally matches evidence from Dryden-Peterson paper that as CC stage progresses, HIV influence decreases.</t>
+  </si>
+  <si>
+    <t>Above: monthly values from old Excel sheet multiplied by 12 to get yearly values. Except for Stage 4 where a maximum rate was set at 0.99.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ratio with current values. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: not sure how baseline mortality rates in HIV-negative persons were determined</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1371,7 +1400,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1608,8 +1637,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1746,12 +1784,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2156,7 +2188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2502,6 +2534,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2520,31 +2553,42 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2552,33 +2596,22 @@
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2592,11 +2625,34 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9009,18 +9065,18 @@
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="242" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="F2" s="241" t="s">
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="F2" s="242" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
       <c r="J2" s="51"/>
       <c r="K2" s="104"/>
       <c r="L2" s="104"/>
@@ -9350,12 +9406,12 @@
       <c r="U15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -9562,12 +9618,12 @@
     </row>
     <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="54"/>
-      <c r="B28" s="242" t="s">
+      <c r="B28" s="243" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="245"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -9837,7 +9893,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9846,8 +9902,12 @@
     <col min="2" max="2" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" customWidth="1"/>
-    <col min="6" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" customWidth="1"/>
+    <col min="22" max="22" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
@@ -9931,61 +9991,65 @@
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
     </row>
-    <row r="4" spans="1:23" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="241" t="s">
+    <row r="4" spans="1:23" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="242" t="s">
         <v>356</v>
       </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="F4" s="285" t="s">
+        <v>360</v>
+      </c>
+      <c r="G4" s="93">
         <v>1.8098080000000002E-2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="93">
         <v>2.3311134000000001E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="93">
         <v>0.10089910600000002</v>
       </c>
-      <c r="I4" s="281">
-        <f>B6/F4</f>
+      <c r="J4" s="241">
+        <f>B6/G4</f>
         <v>11.999999999999998</v>
       </c>
-      <c r="J4" s="281">
-        <f>C6/G4</f>
+      <c r="K4" s="241">
+        <f>C6/H4</f>
         <v>12</v>
       </c>
-      <c r="K4" s="281">
-        <f>D6/H4</f>
+      <c r="L4" s="241">
+        <f>D6/I4</f>
         <v>9.8117816821885402</v>
       </c>
-      <c r="L4" s="284" t="s">
+      <c r="M4" s="36"/>
+      <c r="N4" s="286" t="s">
         <v>357</v>
       </c>
-      <c r="M4">
+      <c r="O4" s="282">
         <v>8.0070000000000002E-3</v>
       </c>
-      <c r="N4">
+      <c r="P4" s="282">
         <v>1.92699E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4" s="282">
         <v>6.6827999999999999E-2</v>
       </c>
-      <c r="P4" s="281">
-        <f>B6/M4</f>
+      <c r="R4" s="241">
+        <f>B6/O4</f>
         <v>27.1233870363432</v>
       </c>
-      <c r="Q4" s="281">
-        <f>C6/N4</f>
+      <c r="S4" s="241">
+        <f>C6/P4</f>
         <v>14.51660921956004</v>
       </c>
-      <c r="R4" s="281">
-        <f>D6/O4</f>
+      <c r="T4" s="241">
+        <f>D6/Q4</f>
         <v>14.814149757586641</v>
       </c>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
     </row>
     <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="54"/>
@@ -9998,49 +10062,54 @@
       <c r="D5" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="9">
+      <c r="F5" s="285"/>
+      <c r="G5" s="93">
         <v>2.1976240000000001E-2</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="93">
         <v>2.8306377000000004E-2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="93">
         <v>0.10089910600000002</v>
       </c>
-      <c r="I5" s="281">
-        <f>B7/F5</f>
+      <c r="J5" s="241">
+        <f>B7/G5</f>
         <v>11.999999999999998</v>
       </c>
-      <c r="J5" s="281">
-        <f>C7/G5</f>
+      <c r="K5" s="241">
+        <f>C7/H5</f>
         <v>11.999999999999998</v>
       </c>
-      <c r="K5" s="281">
-        <f>D7/H5</f>
+      <c r="L5" s="241">
+        <f>D7/I5</f>
         <v>9.8117816821885402</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="36"/>
+      <c r="N5" s="287"/>
+      <c r="O5" s="282">
         <v>9.7230000000000007E-3</v>
       </c>
-      <c r="N5">
+      <c r="P5" s="282">
         <v>2.3399199999999998E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5" s="282">
         <v>8.1147999999999998E-2</v>
       </c>
-      <c r="P5" s="281">
-        <f>B7/M5</f>
+      <c r="R5" s="241">
+        <f>B7/O5</f>
         <v>27.122789262573278</v>
       </c>
-      <c r="Q5" s="281">
-        <f>C7/N5</f>
+      <c r="S5" s="241">
+        <f>C7/P5</f>
         <v>14.516587062805566</v>
       </c>
-      <c r="R5" s="281">
-        <f>D7/O5</f>
+      <c r="T5" s="241">
+        <f>D7/Q5</f>
         <v>12.199930990289348</v>
       </c>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
     </row>
     <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="54" t="s">
@@ -10055,50 +10124,54 @@
       <c r="D6" s="64">
         <v>0.99</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="9">
+      <c r="F6" s="285"/>
+      <c r="G6" s="93">
         <v>2.6677040000000003E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="93">
         <v>3.4361216999999999E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="93">
         <v>0.10089910600000002</v>
       </c>
-      <c r="I6" s="281">
-        <f>B8/F6</f>
+      <c r="J6" s="241">
+        <f>B8/G6</f>
         <v>11.999999999999998</v>
       </c>
-      <c r="J6" s="281">
-        <f>C8/G6</f>
+      <c r="K6" s="241">
+        <f>C8/H6</f>
         <v>12</v>
       </c>
-      <c r="K6" s="281">
-        <f>D8/H6</f>
+      <c r="L6" s="241">
+        <f>D8/I6</f>
         <v>9.8117816821885402</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6">
+      <c r="M6" s="36"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="282">
         <v>1.1802999999999999E-2</v>
       </c>
-      <c r="N6">
+      <c r="P6" s="282">
         <v>2.84044E-2</v>
       </c>
-      <c r="O6">
+      <c r="Q6" s="282">
         <v>9.8505999999999996E-2</v>
       </c>
-      <c r="P6" s="281">
-        <f>B8/M6</f>
+      <c r="R6" s="241">
+        <f>B8/O6</f>
         <v>27.122297720918411</v>
       </c>
-      <c r="Q6" s="281">
-        <f>C8/N6</f>
+      <c r="S6" s="241">
+        <f>C8/P6</f>
         <v>14.51657503767022</v>
       </c>
-      <c r="R6" s="281">
-        <f>D8/O6</f>
+      <c r="T6" s="241">
+        <f>D8/Q6</f>
         <v>10.050149229488559</v>
       </c>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
     </row>
     <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
@@ -10113,50 +10186,54 @@
       <c r="D7" s="64">
         <v>0.99</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="9">
+      <c r="F7" s="285"/>
+      <c r="G7" s="93">
         <v>3.2318E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="93">
         <v>4.1627024999999998E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="93">
         <v>0.10089910600000002</v>
       </c>
-      <c r="I7" s="281">
-        <f>B9/F7</f>
+      <c r="J7" s="241">
+        <f>B9/G7</f>
         <v>12</v>
       </c>
-      <c r="J7" s="281">
-        <f>C9/G7</f>
+      <c r="K7" s="241">
+        <f>C9/H7</f>
         <v>12</v>
       </c>
-      <c r="K7" s="281">
-        <f>D9/H7</f>
+      <c r="L7" s="241">
+        <f>D9/I7</f>
         <v>9.8117816821885402</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7">
+      <c r="M7" s="36"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="282">
         <v>1.4298999999999999E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7" s="282">
         <v>3.44106E-2</v>
       </c>
-      <c r="O7">
+      <c r="Q7" s="282">
         <v>0.119336</v>
       </c>
-      <c r="P7" s="281">
-        <f>B9/M7</f>
+      <c r="R7" s="241">
+        <f>B9/O7</f>
         <v>27.121896636128401</v>
       </c>
-      <c r="Q7" s="281">
-        <f>C9/N7</f>
+      <c r="S7" s="241">
+        <f>C9/P7</f>
         <v>14.516582099701836</v>
       </c>
-      <c r="R7" s="281">
-        <f>D9/O7</f>
+      <c r="T7" s="241">
+        <f>D9/Q7</f>
         <v>8.2959040021452033</v>
       </c>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
     </row>
     <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="54" t="s">
@@ -10171,50 +10248,54 @@
       <c r="D8" s="64">
         <v>0.99</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="9">
+      <c r="F8" s="285"/>
+      <c r="G8" s="93">
         <v>1.8098080000000002E-2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="93">
         <v>2.3311134000000001E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="93">
         <v>0.10089910600000002</v>
       </c>
-      <c r="I8" s="281">
-        <f>B10/F8</f>
+      <c r="J8" s="241">
+        <f>B10/G8</f>
         <v>11.999999999999998</v>
       </c>
-      <c r="J8" s="281">
-        <f>C10/G8</f>
+      <c r="K8" s="241">
+        <f>C10/H8</f>
         <v>12</v>
       </c>
-      <c r="K8" s="281">
-        <f>D10/H8</f>
+      <c r="L8" s="241">
+        <f>D10/I8</f>
         <v>9.8117816821885402</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8">
+      <c r="M8" s="36"/>
+      <c r="N8" s="287"/>
+      <c r="O8" s="282">
         <v>8.0070000000000002E-3</v>
       </c>
-      <c r="N8">
+      <c r="P8" s="282">
         <v>1.92699E-2</v>
       </c>
-      <c r="O8">
+      <c r="Q8" s="282">
         <v>6.6827999999999999E-2</v>
       </c>
-      <c r="P8" s="281">
-        <f>B10/M8</f>
+      <c r="R8" s="241">
+        <f>B10/O8</f>
         <v>27.1233870363432</v>
       </c>
-      <c r="Q8" s="281">
-        <f>C10/N8</f>
+      <c r="S8" s="241">
+        <f>C10/P8</f>
         <v>14.51660921956004</v>
       </c>
-      <c r="R8" s="281">
-        <f>D10/O8</f>
+      <c r="T8" s="241">
+        <f>D10/Q8</f>
         <v>14.814149757586641</v>
       </c>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="54" t="s">
@@ -10229,52 +10310,56 @@
       <c r="D9" s="64">
         <v>0.99</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="283">
+      <c r="F9" s="285"/>
+      <c r="G9" s="283">
         <v>5.8760000000000001E-3</v>
       </c>
-      <c r="G9" s="283">
+      <c r="H9" s="283">
         <v>1.5137100000000001E-2</v>
       </c>
-      <c r="H9" s="283">
+      <c r="I9" s="283">
         <v>6.5518900000000005E-2</v>
       </c>
-      <c r="I9" s="281">
-        <f>B11/F9</f>
+      <c r="J9" s="241">
+        <f>B11/G9</f>
         <v>12</v>
       </c>
-      <c r="J9" s="281">
-        <f>C11/G9</f>
+      <c r="K9" s="241">
+        <f>C11/H9</f>
         <v>12</v>
       </c>
-      <c r="K9" s="281">
-        <f>D11/H9</f>
+      <c r="L9" s="241">
+        <f>D11/I9</f>
         <v>12</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9">
+      <c r="M9" s="36"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="282">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="N9">
+      <c r="P9" s="282">
         <v>1.25129E-2</v>
       </c>
-      <c r="O9">
+      <c r="Q9" s="282">
         <v>4.3395000000000003E-2</v>
       </c>
-      <c r="P9" s="281">
-        <f>B11/M9</f>
+      <c r="R9" s="241">
+        <f>B11/O9</f>
         <v>13.560000000000002</v>
       </c>
-      <c r="Q9" s="281">
-        <f>C11/N9</f>
+      <c r="S9" s="241">
+        <f>C11/P9</f>
         <v>14.516634832852496</v>
       </c>
-      <c r="R9" s="281">
-        <f>D11/O9</f>
+      <c r="T9" s="241">
+        <f>D11/Q9</f>
         <v>18.117912201866574</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+    </row>
+    <row r="10" spans="1:23" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54" t="s">
         <v>188</v>
       </c>
@@ -10287,10 +10372,34 @@
       <c r="D10" s="64">
         <v>0.99</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="38"/>
+      <c r="G10" s="289" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" s="290"/>
+      <c r="I10" s="291"/>
+      <c r="J10" s="292" t="s">
+        <v>362</v>
+      </c>
+      <c r="K10" s="284"/>
+      <c r="L10" s="284"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="289" t="s">
+        <v>363</v>
+      </c>
+      <c r="S10" s="290"/>
+      <c r="T10" s="291"/>
+      <c r="U10" s="289" t="s">
+        <v>359</v>
+      </c>
+      <c r="V10" s="290"/>
+      <c r="W10" s="291"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>17</v>
       </c>
@@ -10303,169 +10412,181 @@
       <c r="D11" s="64">
         <v>0.7862268</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="282">
-        <f>F4/F$9</f>
+      <c r="F11" s="38"/>
+      <c r="G11" s="35">
+        <f>G4/G$9</f>
         <v>3.0800000000000005</v>
       </c>
-      <c r="G11" s="36">
-        <f t="shared" ref="G11:H11" si="0">G4/G$9</f>
+      <c r="H11" s="35">
+        <f>H4/H$9</f>
         <v>1.54</v>
       </c>
-      <c r="H11" s="36">
+      <c r="I11" s="35">
+        <f>I4/I$9</f>
+        <v>1.54</v>
+      </c>
+      <c r="J11" s="241">
+        <f>G11/U11</f>
+        <v>2.000249781441239</v>
+      </c>
+      <c r="K11" s="241"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="286" t="s">
+        <v>358</v>
+      </c>
+      <c r="O11" s="282">
+        <f>O4*12</f>
+        <v>9.6084000000000003E-2</v>
+      </c>
+      <c r="P11" s="282">
+        <f t="shared" ref="P11:Q11" si="0">P4*12</f>
+        <v>0.23123879999999999</v>
+      </c>
+      <c r="Q11" s="282">
         <f t="shared" si="0"/>
+        <v>0.80193599999999998</v>
+      </c>
+      <c r="R11" s="241">
+        <f>B6/O11</f>
+        <v>2.2602822530286</v>
+      </c>
+      <c r="S11" s="241">
+        <f>C6/P11</f>
+        <v>1.2097174349633368</v>
+      </c>
+      <c r="T11" s="241">
+        <f>D6/Q11</f>
+        <v>1.2345124797988867</v>
+      </c>
+      <c r="U11" s="282">
+        <f>O11/O$16</f>
+        <v>1.5398076923076924</v>
+      </c>
+      <c r="V11" s="282">
+        <f>P11/P$16</f>
+        <v>1.5400027171958537</v>
+      </c>
+      <c r="W11" s="282">
+        <f>Q11/Q$16</f>
+        <v>1.5399930867611475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F12" s="38"/>
+      <c r="G12" s="35">
+        <f>G5/G$9</f>
+        <v>3.74</v>
+      </c>
+      <c r="H12" s="35">
+        <f>H5/H$9</f>
+        <v>1.87</v>
+      </c>
+      <c r="I12" s="35">
+        <f>I5/I$9</f>
         <v>1.54</v>
       </c>
-      <c r="I11" s="281">
-        <f>F11/S11</f>
-        <v>2.000249781441239</v>
-      </c>
-      <c r="J11" s="281"/>
-      <c r="L11" s="36"/>
-      <c r="M11">
-        <f>M4*12</f>
-        <v>9.6084000000000003E-2</v>
-      </c>
-      <c r="N11" s="36">
-        <f t="shared" ref="N11:O11" si="1">N4*12</f>
-        <v>0.23123879999999999</v>
-      </c>
-      <c r="O11" s="36">
+      <c r="J12" s="241">
+        <f>G12/U12</f>
+        <v>2.0002056978298879</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="287"/>
+      <c r="O12" s="282">
+        <f t="shared" ref="O12:Q16" si="1">O5*12</f>
+        <v>0.116676</v>
+      </c>
+      <c r="P12" s="282">
         <f t="shared" si="1"/>
-        <v>0.80193599999999998</v>
-      </c>
-      <c r="P11" s="281">
-        <f>B6/M11</f>
-        <v>2.2602822530286</v>
-      </c>
-      <c r="Q11" s="281">
-        <f t="shared" ref="Q11:R16" si="2">C6/N11</f>
-        <v>1.2097174349633368</v>
-      </c>
-      <c r="R11" s="281">
-        <f t="shared" si="2"/>
-        <v>1.2345124797988867</v>
-      </c>
-      <c r="S11">
-        <f>M11/M$16</f>
-        <v>1.5398076923076924</v>
-      </c>
-      <c r="T11" s="36">
-        <f t="shared" ref="T11:U15" si="3">N11/N$16</f>
-        <v>1.5400027171958537</v>
-      </c>
-      <c r="U11" s="36">
-        <f t="shared" si="3"/>
-        <v>1.5399930867611475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E12" s="38"/>
-      <c r="F12" s="282">
-        <f t="shared" ref="F12:H16" si="4">F5/F$9</f>
-        <v>3.74</v>
-      </c>
-      <c r="G12" s="36">
-        <f t="shared" si="4"/>
-        <v>1.87</v>
-      </c>
-      <c r="H12" s="282">
-        <f t="shared" si="4"/>
+        <v>0.2807904</v>
+      </c>
+      <c r="Q12" s="282">
+        <f t="shared" si="1"/>
+        <v>0.97377599999999997</v>
+      </c>
+      <c r="R12" s="241">
+        <f>B7/O12</f>
+        <v>2.260232438547773</v>
+      </c>
+      <c r="S12" s="241">
+        <f>C7/P12</f>
+        <v>1.2097155885671305</v>
+      </c>
+      <c r="T12" s="241">
+        <f>D7/Q12</f>
+        <v>1.0166609158574458</v>
+      </c>
+      <c r="U12" s="282">
+        <f>O12/O$16</f>
+        <v>1.8698076923076925</v>
+      </c>
+      <c r="V12" s="282">
+        <f>P12/P$16</f>
+        <v>1.8700061536494337</v>
+      </c>
+      <c r="W12" s="282">
+        <f>Q12/Q$16</f>
+        <v>1.8699850213158198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F13" s="38"/>
+      <c r="G13" s="35">
+        <f>G6/G$9</f>
+        <v>4.54</v>
+      </c>
+      <c r="H13" s="35">
+        <f>H6/H$9</f>
+        <v>2.27</v>
+      </c>
+      <c r="I13" s="35">
+        <f>I6/I$9</f>
         <v>1.54</v>
       </c>
-      <c r="I12" s="281">
-        <f t="shared" ref="I12:I15" si="5">F12/S12</f>
-        <v>2.0002056978298879</v>
-      </c>
-      <c r="M12" s="36">
-        <f t="shared" ref="M12:O16" si="6">M5*12</f>
-        <v>0.116676</v>
-      </c>
-      <c r="N12" s="36">
-        <f t="shared" si="6"/>
-        <v>0.2807904</v>
-      </c>
-      <c r="O12" s="36">
-        <f t="shared" si="6"/>
-        <v>0.97377599999999997</v>
-      </c>
-      <c r="P12" s="281">
-        <f t="shared" ref="P12:P16" si="7">B7/M12</f>
-        <v>2.260232438547773</v>
-      </c>
-      <c r="Q12" s="281">
-        <f t="shared" si="2"/>
-        <v>1.2097155885671305</v>
-      </c>
-      <c r="R12" s="281">
-        <f t="shared" si="2"/>
-        <v>1.0166609158574458</v>
-      </c>
-      <c r="S12" s="36">
-        <f t="shared" ref="S12:S15" si="8">M12/M$16</f>
-        <v>1.8698076923076925</v>
-      </c>
-      <c r="T12" s="36">
-        <f t="shared" si="3"/>
-        <v>1.8700061536494337</v>
-      </c>
-      <c r="U12" s="36">
-        <f t="shared" si="3"/>
-        <v>1.8699850213158198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E13" s="38"/>
-      <c r="F13" s="282">
-        <f t="shared" si="4"/>
-        <v>4.54</v>
-      </c>
-      <c r="G13" s="36">
-        <f t="shared" si="4"/>
-        <v>2.27</v>
-      </c>
-      <c r="H13" s="282">
-        <f t="shared" si="4"/>
-        <v>1.54</v>
-      </c>
-      <c r="I13" s="281">
-        <f t="shared" si="5"/>
+      <c r="J13" s="241">
+        <f>G13/U13</f>
         <v>2.0001694484453107</v>
       </c>
-      <c r="M13" s="36">
-        <f t="shared" si="6"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="287"/>
+      <c r="O13" s="282">
+        <f t="shared" si="1"/>
         <v>0.14163599999999998</v>
       </c>
-      <c r="N13" s="36">
-        <f t="shared" si="6"/>
+      <c r="P13" s="282">
+        <f t="shared" si="1"/>
         <v>0.34085280000000001</v>
       </c>
-      <c r="O13" s="36">
-        <f t="shared" si="6"/>
+      <c r="Q13" s="282">
+        <f t="shared" si="1"/>
         <v>1.182072</v>
       </c>
-      <c r="P13" s="281">
-        <f t="shared" si="7"/>
+      <c r="R13" s="241">
+        <f>B8/O13</f>
         <v>2.2601914767432012</v>
       </c>
-      <c r="Q13" s="281">
-        <f t="shared" si="2"/>
+      <c r="S13" s="241">
+        <f>C8/P13</f>
         <v>1.2097145864725183</v>
       </c>
-      <c r="R13" s="281">
-        <f t="shared" si="2"/>
+      <c r="T13" s="241">
+        <f>D8/Q13</f>
         <v>0.83751243579071322</v>
       </c>
-      <c r="S13" s="36">
-        <f t="shared" si="8"/>
+      <c r="U13" s="282">
+        <f>O13/O$16</f>
         <v>2.2698076923076922</v>
       </c>
-      <c r="T13" s="36">
-        <f t="shared" si="3"/>
+      <c r="V13" s="282">
+        <f>P13/P$16</f>
         <v>2.2700093503504384</v>
       </c>
-      <c r="U13" s="36">
-        <f t="shared" si="3"/>
+      <c r="W13" s="282">
+        <f>Q13/Q$16</f>
         <v>2.2699850213158199</v>
       </c>
     </row>
@@ -10474,177 +10595,174 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="282">
-        <f t="shared" si="4"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="35">
+        <f>G7/G$9</f>
         <v>5.5</v>
       </c>
-      <c r="G14" s="36">
-        <f t="shared" si="4"/>
+      <c r="H14" s="35">
+        <f>H7/H$9</f>
         <v>2.7499999999999996</v>
       </c>
-      <c r="H14" s="282">
-        <f t="shared" si="4"/>
+      <c r="I14" s="35">
+        <f>I7/I$9</f>
         <v>1.54</v>
       </c>
-      <c r="I14" s="281">
-        <f t="shared" si="5"/>
+      <c r="J14" s="241">
+        <f>G14/U14</f>
         <v>2.0001398699209738</v>
       </c>
-      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="36">
-        <f t="shared" si="6"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="287"/>
+      <c r="O14" s="282">
+        <f t="shared" si="1"/>
         <v>0.17158799999999999</v>
       </c>
-      <c r="N14" s="36">
-        <f t="shared" si="6"/>
+      <c r="P14" s="282">
+        <f t="shared" si="1"/>
         <v>0.41292719999999999</v>
       </c>
-      <c r="O14" s="36">
-        <f t="shared" si="6"/>
+      <c r="Q14" s="282">
+        <f t="shared" si="1"/>
         <v>1.432032</v>
       </c>
-      <c r="P14" s="281">
-        <f t="shared" si="7"/>
+      <c r="R14" s="241">
+        <f>B9/O14</f>
         <v>2.2601580530106999</v>
       </c>
-      <c r="Q14" s="281">
-        <f t="shared" si="2"/>
+      <c r="S14" s="241">
+        <f>C9/P14</f>
         <v>1.2097151749751529</v>
       </c>
-      <c r="R14" s="281">
-        <f t="shared" si="2"/>
+      <c r="T14" s="241">
+        <f>D9/Q14</f>
         <v>0.69132533351210035</v>
       </c>
-      <c r="S14" s="36">
-        <f t="shared" si="8"/>
+      <c r="U14" s="282">
+        <f>O14/O$16</f>
         <v>2.7498076923076922</v>
       </c>
-      <c r="T14" s="36">
-        <f t="shared" si="3"/>
+      <c r="V14" s="282">
+        <f>P14/P$16</f>
         <v>2.7500099896906391</v>
       </c>
-      <c r="U14" s="36">
-        <f t="shared" si="3"/>
+      <c r="W14" s="282">
+        <f>Q14/Q$16</f>
         <v>2.7499942389676231</v>
       </c>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="282">
-        <f t="shared" si="4"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="35">
+        <f>G8/G$9</f>
         <v>3.0800000000000005</v>
       </c>
-      <c r="G15" s="36">
-        <f t="shared" si="4"/>
+      <c r="H15" s="35">
+        <f>H8/H$9</f>
         <v>1.54</v>
       </c>
-      <c r="H15" s="36">
-        <f t="shared" si="4"/>
+      <c r="I15" s="35">
+        <f>I8/I$9</f>
         <v>1.54</v>
       </c>
-      <c r="I15" s="281">
-        <f t="shared" si="5"/>
+      <c r="J15" s="241">
+        <f>G15/U15</f>
         <v>2.000249781441239</v>
       </c>
-      <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="36">
-        <f t="shared" si="6"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="287"/>
+      <c r="O15" s="282">
+        <f t="shared" si="1"/>
         <v>9.6084000000000003E-2</v>
       </c>
-      <c r="N15" s="36">
-        <f t="shared" si="6"/>
+      <c r="P15" s="282">
+        <f t="shared" si="1"/>
         <v>0.23123879999999999</v>
       </c>
-      <c r="O15" s="36">
-        <f t="shared" si="6"/>
+      <c r="Q15" s="282">
+        <f t="shared" si="1"/>
         <v>0.80193599999999998</v>
       </c>
-      <c r="P15" s="281">
-        <f t="shared" si="7"/>
+      <c r="R15" s="241">
+        <f>B10/O15</f>
         <v>2.2602822530286</v>
       </c>
-      <c r="Q15" s="281">
-        <f t="shared" si="2"/>
+      <c r="S15" s="241">
+        <f>C10/P15</f>
         <v>1.2097174349633368</v>
       </c>
-      <c r="R15" s="281">
-        <f t="shared" si="2"/>
+      <c r="T15" s="241">
+        <f>D10/Q15</f>
         <v>1.2345124797988867</v>
       </c>
-      <c r="S15" s="36">
-        <f t="shared" si="8"/>
+      <c r="U15" s="282">
+        <f>O15/O$16</f>
         <v>1.5398076923076924</v>
       </c>
-      <c r="T15" s="36">
-        <f t="shared" si="3"/>
+      <c r="V15" s="282">
+        <f>P15/P$16</f>
         <v>1.5400027171958537</v>
       </c>
-      <c r="U15" s="36">
-        <f t="shared" si="3"/>
+      <c r="W15" s="282">
+        <f>Q15/Q$16</f>
         <v>1.5399930867611475</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="36">
-        <f t="shared" si="4"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="36">
+        <f>G9/G$9</f>
         <v>1</v>
       </c>
-      <c r="G16" s="36">
-        <f t="shared" si="4"/>
+      <c r="H16" s="36">
+        <f>H9/H$9</f>
         <v>1</v>
       </c>
-      <c r="H16" s="36">
-        <f t="shared" si="4"/>
+      <c r="I16" s="36">
+        <f>I9/I$9</f>
         <v>1</v>
       </c>
-      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="36">
-        <f t="shared" si="6"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="288"/>
+      <c r="O16" s="282">
+        <f t="shared" si="1"/>
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="N16" s="36">
-        <f t="shared" si="6"/>
+      <c r="P16" s="282">
+        <f t="shared" si="1"/>
         <v>0.1501548</v>
       </c>
-      <c r="O16" s="36">
-        <f t="shared" si="6"/>
+      <c r="Q16" s="282">
+        <f t="shared" si="1"/>
         <v>0.52073999999999998</v>
       </c>
-      <c r="P16" s="281">
-        <f t="shared" si="7"/>
+      <c r="R16" s="241">
+        <f>B11/O16</f>
         <v>1.1300000000000001</v>
       </c>
-      <c r="Q16" s="281">
-        <f t="shared" si="2"/>
+      <c r="S16" s="241">
+        <f>C11/P16</f>
         <v>1.2097195694043748</v>
       </c>
-      <c r="R16" s="281">
-        <f t="shared" si="2"/>
+      <c r="T16" s="241">
+        <f>D11/Q16</f>
         <v>1.5098260168222146</v>
       </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
@@ -10783,7 +10901,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="56">
-        <f t="shared" ref="B23:B28" si="9">20-4</f>
+        <f t="shared" ref="B23:B28" si="2">20-4</f>
         <v>16</v>
       </c>
       <c r="C23" s="56">
@@ -10802,7 +10920,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C24" s="56">
@@ -10821,7 +10939,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C25" s="56">
@@ -10840,7 +10958,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C26" s="56">
@@ -10859,7 +10977,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C27" s="56">
@@ -10878,7 +10996,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C28" s="56">
@@ -11034,11 +11152,11 @@
     </row>
     <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="55"/>
-      <c r="B38" s="241" t="s">
+      <c r="B38" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="241"/>
-      <c r="D38" s="241"/>
+      <c r="C38" s="242"/>
+      <c r="D38" s="242"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38" t="s">
@@ -11299,7 +11417,13 @@
       <c r="J53" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="N4:N9"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B38:D38"/>
   </mergeCells>
@@ -22900,10 +23024,10 @@
       <c r="AG71" s="10"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="245" t="s">
+      <c r="A72" s="246" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="245"/>
+      <c r="B72" s="246"/>
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="I72" s="80"/>
@@ -23080,10 +23204,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="246" t="s">
+      <c r="A84" s="247" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="246"/>
+      <c r="B84" s="247"/>
       <c r="C84" s="80"/>
       <c r="D84" s="80"/>
       <c r="E84" s="80"/>
@@ -25849,12 +25973,12 @@
       <c r="C1" s="262" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
       <c r="F1" s="263" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="248"/>
+      <c r="G1" s="253"/>
       <c r="H1" s="208" t="s">
         <v>251</v>
       </c>
@@ -25874,100 +25998,100 @@
       <c r="T1" s="264" t="s">
         <v>253</v>
       </c>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
-      <c r="X1" s="248"/>
+      <c r="U1" s="253"/>
+      <c r="V1" s="253"/>
+      <c r="W1" s="253"/>
+      <c r="X1" s="253"/>
       <c r="Y1" s="265" t="s">
         <v>254</v>
       </c>
-      <c r="Z1" s="248"/>
-      <c r="AA1" s="248"/>
-      <c r="AB1" s="248"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="253"/>
+      <c r="AB1" s="253"/>
       <c r="AC1" s="266" t="s">
         <v>255</v>
       </c>
-      <c r="AD1" s="248"/>
-      <c r="AE1" s="248"/>
-      <c r="AF1" s="248"/>
-      <c r="AG1" s="267" t="s">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="253"/>
+      <c r="AG1" s="268" t="s">
         <v>256</v>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="260" t="s">
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="269" t="s">
         <v>348</v>
       </c>
-      <c r="AJ1" s="256"/>
-      <c r="AK1" s="256"/>
-      <c r="AL1" s="256"/>
-      <c r="AM1" s="275" t="s">
+      <c r="AJ1" s="270"/>
+      <c r="AK1" s="270"/>
+      <c r="AL1" s="270"/>
+      <c r="AM1" s="250" t="s">
         <v>347</v>
       </c>
-      <c r="AN1" s="275"/>
-      <c r="AO1" s="275"/>
-      <c r="AP1" s="276" t="s">
+      <c r="AN1" s="250"/>
+      <c r="AO1" s="250"/>
+      <c r="AP1" s="251" t="s">
         <v>346</v>
       </c>
-      <c r="AQ1" s="276"/>
+      <c r="AQ1" s="251"/>
     </row>
     <row r="2" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="248" t="s">
+      <c r="C2" s="253" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="251" t="s">
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="267" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="248"/>
-      <c r="H2" s="251" t="s">
+      <c r="G2" s="253"/>
+      <c r="H2" s="267" t="s">
         <v>260</v>
       </c>
-      <c r="I2" s="248"/>
-      <c r="J2" s="251" t="s">
+      <c r="I2" s="253"/>
+      <c r="J2" s="267" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="248"/>
-      <c r="Q2" s="248"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="251" t="s">
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="U2" s="248"/>
-      <c r="V2" s="248"/>
-      <c r="W2" s="248"/>
-      <c r="X2" s="248"/>
-      <c r="Y2" s="251" t="s">
+      <c r="U2" s="253"/>
+      <c r="V2" s="253"/>
+      <c r="W2" s="253"/>
+      <c r="X2" s="253"/>
+      <c r="Y2" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="248"/>
-      <c r="AB2" s="248"/>
-      <c r="AC2" s="251" t="s">
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="253"/>
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="267" t="s">
         <v>264</v>
       </c>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="248"/>
-      <c r="AG2" s="251" t="s">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="253"/>
+      <c r="AG2" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="261" t="s">
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="271" t="s">
         <v>344</v>
       </c>
-      <c r="AJ2" s="256"/>
-      <c r="AK2" s="256"/>
-      <c r="AL2" s="256"/>
+      <c r="AJ2" s="270"/>
+      <c r="AK2" s="270"/>
+      <c r="AL2" s="270"/>
       <c r="AM2" s="176" t="s">
         <v>343</v>
       </c>
@@ -25980,66 +26104,66 @@
         <v>266</v>
       </c>
       <c r="B3" s="201"/>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="260" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="268" t="s">
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="260" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="249" t="s">
+      <c r="G3" s="253"/>
+      <c r="H3" s="254" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="249" t="s">
+      <c r="I3" s="253"/>
+      <c r="J3" s="254" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="248"/>
-      <c r="T3" s="249" t="s">
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="254" t="s">
         <v>269</v>
       </c>
-      <c r="U3" s="248"/>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="249" t="s">
+      <c r="U3" s="253"/>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="254" t="s">
         <v>270</v>
       </c>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="249" t="s">
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="254" t="s">
         <v>271</v>
       </c>
-      <c r="AB3" s="248"/>
-      <c r="AC3" s="249" t="s">
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="254" t="s">
         <v>270</v>
       </c>
-      <c r="AD3" s="248"/>
-      <c r="AE3" s="249" t="s">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="254" t="s">
         <v>272</v>
       </c>
-      <c r="AF3" s="248"/>
-      <c r="AG3" s="249" t="s">
+      <c r="AF3" s="253"/>
+      <c r="AG3" s="254" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="255" t="s">
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="272" t="s">
         <v>271</v>
       </c>
-      <c r="AJ3" s="256"/>
-      <c r="AK3" s="255" t="s">
+      <c r="AJ3" s="270"/>
+      <c r="AK3" s="272" t="s">
         <v>353</v>
       </c>
-      <c r="AL3" s="256"/>
+      <c r="AL3" s="270"/>
       <c r="AM3" s="176" t="s">
         <v>331</v>
       </c>
@@ -26055,14 +26179,14 @@
       <c r="C4" s="224" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="250">
+      <c r="F4" s="276">
         <v>181</v>
       </c>
-      <c r="G4" s="250"/>
-      <c r="H4" s="251" t="s">
+      <c r="G4" s="276"/>
+      <c r="H4" s="267" t="s">
         <v>338</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="254"/>
       <c r="J4" s="222" t="s">
         <v>337</v>
       </c>
@@ -26096,68 +26220,68 @@
         <v>274</v>
       </c>
       <c r="B5" s="201"/>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="260" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="249" t="s">
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="248"/>
-      <c r="H5" s="249" t="s">
+      <c r="G5" s="253"/>
+      <c r="H5" s="254" t="s">
         <v>277</v>
       </c>
-      <c r="I5" s="248"/>
-      <c r="J5" s="249" t="s">
+      <c r="I5" s="253"/>
+      <c r="J5" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="248"/>
-      <c r="L5" s="249" t="s">
+      <c r="K5" s="253"/>
+      <c r="L5" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="248"/>
-      <c r="N5" s="252" t="s">
+      <c r="M5" s="253"/>
+      <c r="N5" s="277" t="s">
         <v>326</v>
       </c>
-      <c r="O5" s="252"/>
-      <c r="P5" s="249" t="s">
+      <c r="O5" s="277"/>
+      <c r="P5" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="248"/>
-      <c r="R5" s="249" t="s">
+      <c r="Q5" s="253"/>
+      <c r="R5" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="248"/>
-      <c r="T5" s="249" t="s">
+      <c r="S5" s="253"/>
+      <c r="T5" s="254" t="s">
         <v>278</v>
       </c>
-      <c r="U5" s="248"/>
-      <c r="V5" s="248"/>
-      <c r="W5" s="248"/>
-      <c r="X5" s="248"/>
-      <c r="Y5" s="249" t="s">
+      <c r="U5" s="253"/>
+      <c r="V5" s="253"/>
+      <c r="W5" s="253"/>
+      <c r="X5" s="253"/>
+      <c r="Y5" s="254" t="s">
         <v>279</v>
       </c>
-      <c r="Z5" s="248"/>
-      <c r="AA5" s="248"/>
-      <c r="AB5" s="248"/>
-      <c r="AC5" s="249" t="s">
+      <c r="Z5" s="253"/>
+      <c r="AA5" s="253"/>
+      <c r="AB5" s="253"/>
+      <c r="AC5" s="254" t="s">
         <v>280</v>
       </c>
-      <c r="AD5" s="248"/>
-      <c r="AE5" s="248"/>
-      <c r="AF5" s="248"/>
-      <c r="AG5" s="249" t="s">
+      <c r="AD5" s="253"/>
+      <c r="AE5" s="253"/>
+      <c r="AF5" s="253"/>
+      <c r="AG5" s="254" t="s">
         <v>280</v>
       </c>
-      <c r="AH5" s="248"/>
-      <c r="AI5" s="255" t="s">
+      <c r="AH5" s="253"/>
+      <c r="AI5" s="272" t="s">
         <v>325</v>
       </c>
-      <c r="AJ5" s="256"/>
-      <c r="AK5" s="256"/>
-      <c r="AL5" s="256"/>
+      <c r="AJ5" s="270"/>
+      <c r="AK5" s="270"/>
+      <c r="AL5" s="270"/>
       <c r="AM5" s="176" t="s">
         <v>325</v>
       </c>
@@ -26172,64 +26296,64 @@
       <c r="A6" s="177" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="249" t="s">
+      <c r="C6" s="254" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="248"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="261" t="s">
         <v>352</v>
       </c>
-      <c r="G6" s="248"/>
-      <c r="H6" s="249" t="s">
+      <c r="G6" s="253"/>
+      <c r="H6" s="254" t="s">
         <v>284</v>
       </c>
-      <c r="I6" s="248"/>
-      <c r="J6" s="249" t="s">
+      <c r="I6" s="253"/>
+      <c r="J6" s="254" t="s">
         <v>285</v>
       </c>
-      <c r="K6" s="249"/>
-      <c r="L6" s="249"/>
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="249"/>
-      <c r="P6" s="249" t="s">
+      <c r="K6" s="254"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="254"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254" t="s">
         <v>286</v>
       </c>
-      <c r="Q6" s="248"/>
-      <c r="R6" s="248"/>
-      <c r="S6" s="248"/>
-      <c r="T6" s="249" t="s">
+      <c r="Q6" s="253"/>
+      <c r="R6" s="253"/>
+      <c r="S6" s="253"/>
+      <c r="T6" s="254" t="s">
         <v>287</v>
       </c>
-      <c r="U6" s="248"/>
-      <c r="V6" s="249" t="s">
+      <c r="U6" s="253"/>
+      <c r="V6" s="254" t="s">
         <v>288</v>
       </c>
-      <c r="W6" s="248"/>
-      <c r="X6" s="248"/>
-      <c r="Y6" s="249" t="s">
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="254" t="s">
         <v>351</v>
       </c>
-      <c r="Z6" s="248"/>
-      <c r="AA6" s="248"/>
-      <c r="AB6" s="248"/>
-      <c r="AC6" s="249" t="s">
+      <c r="Z6" s="253"/>
+      <c r="AA6" s="253"/>
+      <c r="AB6" s="253"/>
+      <c r="AC6" s="254" t="s">
         <v>290</v>
       </c>
-      <c r="AD6" s="248"/>
-      <c r="AE6" s="248"/>
-      <c r="AF6" s="248"/>
-      <c r="AG6" s="249" t="s">
+      <c r="AD6" s="253"/>
+      <c r="AE6" s="253"/>
+      <c r="AF6" s="253"/>
+      <c r="AG6" s="254" t="s">
         <v>291</v>
       </c>
-      <c r="AH6" s="248"/>
-      <c r="AI6" s="255" t="s">
+      <c r="AH6" s="253"/>
+      <c r="AI6" s="272" t="s">
         <v>321</v>
       </c>
-      <c r="AJ6" s="256"/>
-      <c r="AK6" s="256"/>
-      <c r="AL6" s="256"/>
+      <c r="AJ6" s="270"/>
+      <c r="AK6" s="270"/>
+      <c r="AL6" s="270"/>
       <c r="AM6" s="176" t="s">
         <v>320</v>
       </c>
@@ -26542,7 +26666,7 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="271" t="s">
+      <c r="A11" s="249" t="s">
         <v>304</v>
       </c>
       <c r="B11" s="177">
@@ -26555,14 +26679,14 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E11" s="270">
+      <c r="E11" s="258">
         <f>SUM(D11:D15)</f>
         <v>0.30541871921182273</v>
       </c>
       <c r="H11" s="177">
         <v>7.3</v>
       </c>
-      <c r="I11" s="270">
+      <c r="I11" s="258">
         <f>(SUM(H11:H15)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.38227528089887641</v>
       </c>
@@ -26576,21 +26700,21 @@
         <f>V11/SUM(V9:V26)</f>
         <v>7.2289156626506035E-2</v>
       </c>
-      <c r="X11" s="258">
+      <c r="X11" s="259">
         <f>SUM(W11:W15)</f>
         <v>0.37349397590361455</v>
       </c>
       <c r="Y11" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z11" s="249">
+      <c r="Z11" s="254">
         <f>SUM(Y11:Y15)/100</f>
         <v>0.36799999999999999</v>
       </c>
       <c r="AA11" s="177">
         <v>8</v>
       </c>
-      <c r="AB11" s="249">
+      <c r="AB11" s="254">
         <f>SUM(AA11:AA15)/100</f>
         <v>0.318</v>
       </c>
@@ -26601,13 +26725,13 @@
         <f t="shared" ref="AN11:AN26" si="1">AM11/SUM(AM$9:AM$26)</f>
         <v>4.2282672974571271E-2</v>
       </c>
-      <c r="AO11" s="274">
+      <c r="AO11" s="248">
         <f>SUM(AN11:AN15)</f>
         <v>0.30829883698009075</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="271"/>
+      <c r="A12" s="249"/>
       <c r="B12" s="177">
         <v>33</v>
       </c>
@@ -26618,11 +26742,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E12" s="248"/>
+      <c r="E12" s="253"/>
       <c r="H12" s="177">
         <v>6.6</v>
       </c>
-      <c r="I12" s="248"/>
+      <c r="I12" s="253"/>
       <c r="T12" s="177">
         <v>0.7</v>
       </c>
@@ -26633,15 +26757,15 @@
         <f>V12/SUM(V9:V26)</f>
         <v>4.8192771084337359E-2</v>
       </c>
-      <c r="X12" s="248"/>
+      <c r="X12" s="253"/>
       <c r="Y12" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z12" s="248"/>
+      <c r="Z12" s="253"/>
       <c r="AA12" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB12" s="248"/>
+      <c r="AB12" s="253"/>
       <c r="AM12" s="176">
         <v>6.03</v>
       </c>
@@ -26649,10 +26773,10 @@
         <f t="shared" si="1"/>
         <v>5.9432288586635143E-2</v>
       </c>
-      <c r="AO12" s="271"/>
+      <c r="AO12" s="249"/>
     </row>
     <row r="13" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="271"/>
+      <c r="A13" s="249"/>
       <c r="B13" s="177">
         <v>45</v>
       </c>
@@ -26663,11 +26787,11 @@
         <f t="shared" si="0"/>
         <v>7.3891625615763554E-2</v>
       </c>
-      <c r="E13" s="248"/>
+      <c r="E13" s="253"/>
       <c r="H13" s="177">
         <v>6.1</v>
       </c>
-      <c r="I13" s="248"/>
+      <c r="I13" s="253"/>
       <c r="T13" s="177">
         <v>0.7</v>
       </c>
@@ -26678,15 +26802,15 @@
         <f>V13/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X13" s="248"/>
+      <c r="X13" s="253"/>
       <c r="Y13" s="177">
         <v>5.9</v>
       </c>
-      <c r="Z13" s="248"/>
+      <c r="Z13" s="253"/>
       <c r="AA13" s="177">
         <v>4.8</v>
       </c>
-      <c r="AB13" s="248"/>
+      <c r="AB13" s="253"/>
       <c r="AM13" s="176">
         <v>7.46</v>
       </c>
@@ -26694,10 +26818,10 @@
         <f t="shared" si="1"/>
         <v>7.3526512911492231E-2</v>
       </c>
-      <c r="AO13" s="271"/>
+      <c r="AO13" s="249"/>
     </row>
     <row r="14" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="271"/>
+      <c r="A14" s="249"/>
       <c r="B14" s="177">
         <v>52</v>
       </c>
@@ -26708,11 +26832,11 @@
         <f t="shared" si="0"/>
         <v>6.4039408866995079E-2</v>
       </c>
-      <c r="E14" s="248"/>
+      <c r="E14" s="253"/>
       <c r="H14" s="177">
         <v>12.9</v>
       </c>
-      <c r="I14" s="248"/>
+      <c r="I14" s="253"/>
       <c r="T14" s="177">
         <v>3.2</v>
       </c>
@@ -26723,15 +26847,15 @@
         <f>V14/SUM(V9:V26)</f>
         <v>0.18072289156626509</v>
       </c>
-      <c r="X14" s="248"/>
+      <c r="X14" s="253"/>
       <c r="Y14" s="177">
         <v>8.6</v>
       </c>
-      <c r="Z14" s="248"/>
+      <c r="Z14" s="253"/>
       <c r="AA14" s="177">
         <v>8</v>
       </c>
-      <c r="AB14" s="248"/>
+      <c r="AB14" s="253"/>
       <c r="AM14" s="176">
         <v>5.64</v>
       </c>
@@ -26739,10 +26863,10 @@
         <f t="shared" si="1"/>
         <v>5.5588409225310477E-2</v>
       </c>
-      <c r="AO14" s="271"/>
+      <c r="AO14" s="249"/>
     </row>
     <row r="15" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="271"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="177">
         <v>58</v>
       </c>
@@ -26753,11 +26877,11 @@
         <f t="shared" si="0"/>
         <v>7.8817733990147798E-2</v>
       </c>
-      <c r="E15" s="248"/>
+      <c r="E15" s="253"/>
       <c r="H15" s="177">
         <v>11</v>
       </c>
-      <c r="I15" s="248"/>
+      <c r="I15" s="253"/>
       <c r="T15" s="177">
         <v>0.6</v>
       </c>
@@ -26768,15 +26892,15 @@
         <f>V15/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X15" s="248"/>
+      <c r="X15" s="253"/>
       <c r="Y15" s="177">
         <v>10.7</v>
       </c>
-      <c r="Z15" s="248"/>
+      <c r="Z15" s="253"/>
       <c r="AA15" s="177">
         <v>6.3</v>
       </c>
-      <c r="AB15" s="248"/>
+      <c r="AB15" s="253"/>
       <c r="AM15" s="176">
         <v>7.86</v>
       </c>
@@ -26784,10 +26908,10 @@
         <f t="shared" si="1"/>
         <v>7.7468953282081629E-2</v>
       </c>
-      <c r="AO15" s="271"/>
+      <c r="AO15" s="249"/>
     </row>
     <row r="16" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="269" t="s">
+      <c r="A16" s="252" t="s">
         <v>305</v>
       </c>
       <c r="B16" s="177">
@@ -26800,24 +26924,24 @@
         <f t="shared" si="0"/>
         <v>9.8522167487684748E-3</v>
       </c>
-      <c r="E16" s="270">
+      <c r="E16" s="258">
         <f>SUM(D16:D26)</f>
         <v>0.53694581280788167</v>
       </c>
-      <c r="I16" s="270">
+      <c r="I16" s="258">
         <f>(SUM(H16:H26)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.39272471910112366</v>
       </c>
       <c r="W16" s="196"/>
-      <c r="X16" s="258">
+      <c r="X16" s="259">
         <f>SUM(V16:V26)/SUM(V9:V26)</f>
         <v>0.46987951807228928</v>
       </c>
-      <c r="Z16" s="247">
+      <c r="Z16" s="255">
         <f>1-SUM(Z9:Z15)</f>
         <v>0.41799999999999993</v>
       </c>
-      <c r="AB16" s="247">
+      <c r="AB16" s="255">
         <f>1-SUM(AB9:AB15)</f>
         <v>0.39400000000000002</v>
       </c>
@@ -26828,13 +26952,13 @@
         <f t="shared" si="1"/>
         <v>1.872659176029963E-2</v>
       </c>
-      <c r="AO16" s="274">
+      <c r="AO16" s="248">
         <f>SUM(AN16:AN26)</f>
         <v>0.52661147250147844</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="248"/>
+      <c r="A17" s="253"/>
       <c r="B17" s="177">
         <v>35</v>
       </c>
@@ -26845,11 +26969,11 @@
         <f t="shared" si="0"/>
         <v>9.3596059113300503E-2</v>
       </c>
-      <c r="E17" s="248"/>
+      <c r="E17" s="253"/>
       <c r="H17" s="177">
         <v>10.4</v>
       </c>
-      <c r="I17" s="248"/>
+      <c r="I17" s="253"/>
       <c r="T17" s="177">
         <v>1.9</v>
       </c>
@@ -26860,15 +26984,15 @@
         <f>V17/SUM(V9:V26)</f>
         <v>0.13253012048192775</v>
       </c>
-      <c r="X17" s="248"/>
+      <c r="X17" s="253"/>
       <c r="Y17" s="177">
         <v>6.6</v>
       </c>
-      <c r="Z17" s="248"/>
+      <c r="Z17" s="253"/>
       <c r="AA17" s="177">
         <v>3.4</v>
       </c>
-      <c r="AB17" s="248"/>
+      <c r="AB17" s="253"/>
       <c r="AM17" s="176">
         <v>6.59</v>
       </c>
@@ -26876,10 +27000,10 @@
         <f t="shared" si="1"/>
         <v>6.4951705105460292E-2</v>
       </c>
-      <c r="AO17" s="274"/>
+      <c r="AO17" s="248"/>
     </row>
     <row r="18" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="248"/>
+      <c r="A18" s="253"/>
       <c r="B18" s="177">
         <v>39</v>
       </c>
@@ -26890,11 +27014,11 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E18" s="248"/>
+      <c r="E18" s="253"/>
       <c r="H18" s="177">
         <v>6.1</v>
       </c>
-      <c r="I18" s="248"/>
+      <c r="I18" s="253"/>
       <c r="T18" s="177">
         <v>0.6</v>
       </c>
@@ -26905,12 +27029,12 @@
         <f>V18/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X18" s="248"/>
-      <c r="Z18" s="248"/>
+      <c r="X18" s="253"/>
+      <c r="Z18" s="253"/>
       <c r="AA18" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB18" s="248"/>
+      <c r="AB18" s="253"/>
       <c r="AM18" s="176">
         <v>5</v>
       </c>
@@ -26918,10 +27042,10 @@
         <f t="shared" si="1"/>
         <v>4.9280504632367446E-2</v>
       </c>
-      <c r="AO18" s="274"/>
+      <c r="AO18" s="248"/>
     </row>
     <row r="19" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="248"/>
+      <c r="A19" s="253"/>
       <c r="B19" s="177">
         <v>51</v>
       </c>
@@ -26932,11 +27056,11 @@
         <f t="shared" si="0"/>
         <v>4.9261083743842374E-2</v>
       </c>
-      <c r="E19" s="248"/>
+      <c r="E19" s="253"/>
       <c r="H19" s="177">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I19" s="248"/>
+      <c r="I19" s="253"/>
       <c r="T19" s="177">
         <v>2.1</v>
       </c>
@@ -26947,12 +27071,12 @@
         <f>V19/SUM(V9:V26)</f>
         <v>9.6385542168674718E-2</v>
       </c>
-      <c r="X19" s="248"/>
-      <c r="Z19" s="248"/>
+      <c r="X19" s="253"/>
+      <c r="Z19" s="253"/>
       <c r="AA19" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB19" s="248"/>
+      <c r="AB19" s="253"/>
       <c r="AM19" s="176">
         <v>9.2899999999999991</v>
       </c>
@@ -26960,10 +27084,10 @@
         <f t="shared" si="1"/>
         <v>9.1563177606938703E-2</v>
       </c>
-      <c r="AO19" s="274"/>
+      <c r="AO19" s="248"/>
     </row>
     <row r="20" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="248"/>
+      <c r="A20" s="253"/>
       <c r="B20" s="177">
         <v>53</v>
       </c>
@@ -26974,8 +27098,8 @@
         <f t="shared" si="0"/>
         <v>0.11330049261083744</v>
       </c>
-      <c r="E20" s="248"/>
-      <c r="I20" s="248"/>
+      <c r="E20" s="253"/>
+      <c r="I20" s="253"/>
       <c r="T20" s="177">
         <v>0.6</v>
       </c>
@@ -26986,9 +27110,9 @@
         <f>V20/SUM(V9:V26)</f>
         <v>2.4096385542168679E-2</v>
       </c>
-      <c r="X20" s="248"/>
-      <c r="Z20" s="248"/>
-      <c r="AB20" s="248"/>
+      <c r="X20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AB20" s="253"/>
       <c r="AM20" s="176">
         <v>9.1300000000000008</v>
       </c>
@@ -26996,10 +27120,10 @@
         <f t="shared" si="1"/>
         <v>8.9986201458702966E-2</v>
       </c>
-      <c r="AO20" s="274"/>
+      <c r="AO20" s="248"/>
     </row>
     <row r="21" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="248"/>
+      <c r="A21" s="253"/>
       <c r="B21" s="177">
         <v>56</v>
       </c>
@@ -27010,11 +27134,11 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E21" s="248"/>
+      <c r="E21" s="253"/>
       <c r="H21" s="177">
         <v>8</v>
       </c>
-      <c r="I21" s="248"/>
+      <c r="I21" s="253"/>
       <c r="T21" s="177">
         <v>0.9</v>
       </c>
@@ -27025,12 +27149,12 @@
         <f>V21/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X21" s="248"/>
-      <c r="Z21" s="248"/>
+      <c r="X21" s="253"/>
+      <c r="Z21" s="253"/>
       <c r="AA21" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB21" s="248"/>
+      <c r="AB21" s="253"/>
       <c r="AM21" s="176">
         <v>4.05</v>
       </c>
@@ -27038,10 +27162,10 @@
         <f t="shared" si="1"/>
         <v>3.9917208752217631E-2</v>
       </c>
-      <c r="AO21" s="274"/>
+      <c r="AO21" s="248"/>
     </row>
     <row r="22" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="248"/>
+      <c r="A22" s="253"/>
       <c r="B22" s="177">
         <v>59</v>
       </c>
@@ -27052,11 +27176,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E22" s="248"/>
+      <c r="E22" s="253"/>
       <c r="H22" s="177">
         <v>5</v>
       </c>
-      <c r="I22" s="248"/>
+      <c r="I22" s="253"/>
       <c r="T22" s="177">
         <v>0.1</v>
       </c>
@@ -27067,12 +27191,12 @@
         <f>V22/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X22" s="248"/>
-      <c r="Z22" s="248"/>
+      <c r="X22" s="253"/>
+      <c r="Z22" s="253"/>
       <c r="AA22" s="177">
         <v>3.2</v>
       </c>
-      <c r="AB22" s="248"/>
+      <c r="AB22" s="253"/>
       <c r="AM22" s="176">
         <v>2.94</v>
       </c>
@@ -27080,10 +27204,10 @@
         <f t="shared" si="1"/>
         <v>2.8976936723832059E-2</v>
       </c>
-      <c r="AO22" s="274"/>
+      <c r="AO22" s="248"/>
     </row>
     <row r="23" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="248"/>
+      <c r="A23" s="253"/>
       <c r="B23" s="177">
         <v>66</v>
       </c>
@@ -27094,8 +27218,8 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E23" s="248"/>
-      <c r="I23" s="248"/>
+      <c r="E23" s="253"/>
+      <c r="I23" s="253"/>
       <c r="T23" s="177">
         <v>1.6</v>
       </c>
@@ -27106,9 +27230,9 @@
         <f>V23/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X23" s="248"/>
-      <c r="Z23" s="248"/>
-      <c r="AB23" s="248"/>
+      <c r="X23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AB23" s="253"/>
       <c r="AM23" s="176">
         <v>5.43</v>
       </c>
@@ -27116,10 +27240,10 @@
         <f t="shared" si="1"/>
         <v>5.3518628030751046E-2</v>
       </c>
-      <c r="AO23" s="274"/>
+      <c r="AO23" s="248"/>
     </row>
     <row r="24" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="248"/>
+      <c r="A24" s="253"/>
       <c r="B24" s="177">
         <v>68</v>
       </c>
@@ -27130,11 +27254,11 @@
         <f t="shared" si="0"/>
         <v>5.9113300492610842E-2</v>
       </c>
-      <c r="E24" s="248"/>
+      <c r="E24" s="253"/>
       <c r="H24" s="177">
         <v>6.9</v>
       </c>
-      <c r="I24" s="248"/>
+      <c r="I24" s="253"/>
       <c r="T24" s="177">
         <v>1.1000000000000001</v>
       </c>
@@ -27145,12 +27269,12 @@
         <f>V24/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X24" s="248"/>
-      <c r="Z24" s="248"/>
+      <c r="X24" s="253"/>
+      <c r="Z24" s="253"/>
       <c r="AA24" s="177">
         <v>3.1</v>
       </c>
-      <c r="AB24" s="248"/>
+      <c r="AB24" s="253"/>
       <c r="AM24" s="176">
         <v>4.5999999999999996</v>
       </c>
@@ -27158,10 +27282,10 @@
         <f t="shared" si="1"/>
         <v>4.5338064261778048E-2</v>
       </c>
-      <c r="AO24" s="274"/>
+      <c r="AO24" s="248"/>
     </row>
     <row r="25" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="248"/>
+      <c r="A25" s="253"/>
       <c r="B25" s="177">
         <v>73</v>
       </c>
@@ -27172,12 +27296,12 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E25" s="248"/>
-      <c r="I25" s="248"/>
+      <c r="E25" s="253"/>
+      <c r="I25" s="253"/>
       <c r="W25" s="196"/>
-      <c r="X25" s="248"/>
-      <c r="Z25" s="248"/>
-      <c r="AB25" s="248"/>
+      <c r="X25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AB25" s="253"/>
       <c r="AM25" s="176">
         <v>2.4</v>
       </c>
@@ -27185,10 +27309,10 @@
         <f t="shared" si="1"/>
         <v>2.3654642223536373E-2</v>
       </c>
-      <c r="AO25" s="274"/>
+      <c r="AO25" s="248"/>
     </row>
     <row r="26" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="248"/>
+      <c r="A26" s="253"/>
       <c r="B26" s="177">
         <v>82</v>
       </c>
@@ -27199,8 +27323,8 @@
         <f t="shared" si="0"/>
         <v>1.970443349753695E-2</v>
       </c>
-      <c r="E26" s="248"/>
-      <c r="I26" s="248"/>
+      <c r="E26" s="253"/>
+      <c r="I26" s="253"/>
       <c r="T26" s="177">
         <v>0.3</v>
       </c>
@@ -27211,9 +27335,9 @@
         <f>V26/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X26" s="248"/>
-      <c r="Z26" s="248"/>
-      <c r="AB26" s="248"/>
+      <c r="X26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AB26" s="253"/>
       <c r="AM26" s="176">
         <v>2.1</v>
       </c>
@@ -27221,7 +27345,7 @@
         <f t="shared" si="1"/>
         <v>2.0697811945594329E-2</v>
       </c>
-      <c r="AO26" s="274"/>
+      <c r="AO26" s="248"/>
       <c r="AP26" s="236"/>
     </row>
     <row r="27" spans="1:42" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
@@ -27267,7 +27391,7 @@
       <c r="AL27" s="228"/>
     </row>
     <row r="28" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="269" t="s">
+      <c r="A28" s="252" t="s">
         <v>307</v>
       </c>
       <c r="B28" s="177">
@@ -27328,7 +27452,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="248"/>
+      <c r="A29" s="253"/>
       <c r="B29" s="177">
         <v>18</v>
       </c>
@@ -27387,7 +27511,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="248"/>
+      <c r="A30" s="253"/>
       <c r="B30" s="177">
         <v>31</v>
       </c>
@@ -27398,14 +27522,14 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E30" s="270">
+      <c r="E30" s="258">
         <f>SUM(D30:D34)</f>
         <v>0.30085736554949344</v>
       </c>
       <c r="H30" s="194">
         <v>8.4</v>
       </c>
-      <c r="I30" s="247">
+      <c r="I30" s="255">
         <f>(SUM(H30:H34)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.30589562547966231</v>
       </c>
@@ -27419,34 +27543,34 @@
         <f>V30/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X30" s="258">
+      <c r="X30" s="259">
         <f>SUM(W30:W34)</f>
         <v>0.44139650872817959</v>
       </c>
       <c r="Y30" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z30" s="249">
+      <c r="Z30" s="254">
         <f>SUM(Y30:Y34)/100</f>
         <v>0.42</v>
       </c>
       <c r="AA30" s="177">
         <v>9.5</v>
       </c>
-      <c r="AB30" s="249">
+      <c r="AB30" s="254">
         <f>SUM(AA30:AA34)/100</f>
         <v>0.35100000000000003</v>
       </c>
       <c r="AG30" s="177">
         <v>6.1</v>
       </c>
-      <c r="AH30" s="249">
+      <c r="AH30" s="254">
         <f>SUM(AG30:AG34)/100</f>
         <v>0.317</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="248"/>
+      <c r="A31" s="253"/>
       <c r="B31" s="177">
         <v>33</v>
       </c>
@@ -27457,11 +27581,11 @@
         <f t="shared" si="2"/>
         <v>5.4559625876851141E-2</v>
       </c>
-      <c r="E31" s="248"/>
+      <c r="E31" s="253"/>
       <c r="H31" s="194">
         <v>10</v>
       </c>
-      <c r="I31" s="248"/>
+      <c r="I31" s="253"/>
       <c r="T31" s="177">
         <v>3.2</v>
       </c>
@@ -27472,22 +27596,22 @@
         <f>V31/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X31" s="248"/>
+      <c r="X31" s="253"/>
       <c r="Y31" s="177">
         <v>8.5</v>
       </c>
-      <c r="Z31" s="248"/>
+      <c r="Z31" s="253"/>
       <c r="AA31" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB31" s="248"/>
+      <c r="AB31" s="253"/>
       <c r="AG31" s="177">
         <v>5.9</v>
       </c>
-      <c r="AH31" s="248"/>
+      <c r="AH31" s="253"/>
     </row>
     <row r="32" spans="1:42" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="248"/>
+      <c r="A32" s="253"/>
       <c r="B32" s="177">
         <v>45</v>
       </c>
@@ -27498,11 +27622,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E32" s="248"/>
+      <c r="E32" s="253"/>
       <c r="H32" s="194">
         <v>11.3</v>
       </c>
-      <c r="I32" s="248"/>
+      <c r="I32" s="253"/>
       <c r="T32" s="177">
         <v>3.2</v>
       </c>
@@ -27513,22 +27637,22 @@
         <f>V32/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X32" s="248"/>
+      <c r="X32" s="253"/>
       <c r="Y32" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z32" s="248"/>
+      <c r="Z32" s="253"/>
       <c r="AA32" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB32" s="248"/>
+      <c r="AB32" s="253"/>
       <c r="AG32" s="177">
         <v>2.9</v>
       </c>
-      <c r="AH32" s="248"/>
+      <c r="AH32" s="253"/>
     </row>
     <row r="33" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="248"/>
+      <c r="A33" s="253"/>
       <c r="B33" s="177">
         <v>52</v>
       </c>
@@ -27539,11 +27663,11 @@
         <f t="shared" si="2"/>
         <v>0.13639906469212784</v>
       </c>
-      <c r="E33" s="248"/>
+      <c r="E33" s="253"/>
       <c r="H33" s="194">
         <v>16.8</v>
       </c>
-      <c r="I33" s="248"/>
+      <c r="I33" s="253"/>
       <c r="T33" s="177">
         <v>14.5</v>
       </c>
@@ -27554,22 +27678,22 @@
         <f>V33/SUM(V28:V45)</f>
         <v>0.16209476309226933</v>
       </c>
-      <c r="X33" s="248"/>
+      <c r="X33" s="253"/>
       <c r="Y33" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z33" s="248"/>
+      <c r="Z33" s="253"/>
       <c r="AA33" s="177">
         <v>8.1</v>
       </c>
-      <c r="AB33" s="248"/>
+      <c r="AB33" s="253"/>
       <c r="AG33" s="177">
         <v>6.8</v>
       </c>
-      <c r="AH33" s="248"/>
+      <c r="AH33" s="253"/>
     </row>
     <row r="34" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="248"/>
+      <c r="A34" s="253"/>
       <c r="B34" s="177">
         <v>58</v>
       </c>
@@ -27580,11 +27704,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E34" s="248"/>
+      <c r="E34" s="253"/>
       <c r="H34" s="194">
         <v>15.2</v>
       </c>
-      <c r="I34" s="248"/>
+      <c r="I34" s="253"/>
       <c r="T34" s="177">
         <v>8.1</v>
       </c>
@@ -27595,22 +27719,22 @@
         <f>V34/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X34" s="248"/>
+      <c r="X34" s="253"/>
       <c r="Y34" s="177">
         <v>10.8</v>
       </c>
-      <c r="Z34" s="248"/>
+      <c r="Z34" s="253"/>
       <c r="AA34" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB34" s="248"/>
+      <c r="AB34" s="253"/>
       <c r="AG34" s="177">
         <v>10</v>
       </c>
-      <c r="AH34" s="248"/>
+      <c r="AH34" s="253"/>
     </row>
     <row r="35" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="269" t="s">
+      <c r="A35" s="252" t="s">
         <v>305</v>
       </c>
       <c r="B35" s="177">
@@ -27623,34 +27747,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="270">
+      <c r="E35" s="258">
         <f>SUM(D35:D46)</f>
         <v>0.53468433359314127</v>
       </c>
-      <c r="I35" s="247">
+      <c r="I35" s="255">
         <f>(SUM(H35:H46)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.34010437452033765</v>
       </c>
       <c r="W35" s="196"/>
-      <c r="X35" s="258">
+      <c r="X35" s="259">
         <f>SUM(V35:V45)/SUM(V28:V45)</f>
         <v>0.399002493765586</v>
       </c>
-      <c r="Z35" s="249">
+      <c r="Z35" s="254">
         <f>1-SUM(Z28:Z34)</f>
         <v>0.32899999999999996</v>
       </c>
-      <c r="AB35" s="249">
+      <c r="AB35" s="254">
         <f>1-SUM(AB28:AB34)</f>
         <v>0.31099999999999994</v>
       </c>
-      <c r="AH35" s="249">
+      <c r="AH35" s="254">
         <f>1-SUM(AH28:AH34)</f>
         <v>0.42700000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="248"/>
+      <c r="A36" s="253"/>
       <c r="B36" s="177">
         <v>35</v>
       </c>
@@ -27661,11 +27785,11 @@
         <f t="shared" si="2"/>
         <v>9.5869056897895572E-2</v>
       </c>
-      <c r="E36" s="248"/>
+      <c r="E36" s="253"/>
       <c r="H36" s="194">
         <v>15.8</v>
       </c>
-      <c r="I36" s="248"/>
+      <c r="I36" s="253"/>
       <c r="T36" s="177">
         <v>12.9</v>
       </c>
@@ -27676,22 +27800,22 @@
         <f>V36/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X36" s="248"/>
+      <c r="X36" s="253"/>
       <c r="Y36" s="177">
         <v>7.9</v>
       </c>
-      <c r="Z36" s="248"/>
+      <c r="Z36" s="253"/>
       <c r="AA36" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB36" s="248"/>
+      <c r="AB36" s="253"/>
       <c r="AG36" s="177">
         <v>6.5</v>
       </c>
-      <c r="AH36" s="248"/>
+      <c r="AH36" s="253"/>
     </row>
     <row r="37" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="248"/>
+      <c r="A37" s="253"/>
       <c r="B37" s="177">
         <v>39</v>
       </c>
@@ -27702,11 +27826,11 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E37" s="248"/>
+      <c r="E37" s="253"/>
       <c r="H37" s="194">
         <v>9.5</v>
       </c>
-      <c r="I37" s="248"/>
+      <c r="I37" s="253"/>
       <c r="T37" s="177">
         <v>6.5</v>
       </c>
@@ -27717,19 +27841,19 @@
         <f>V37/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="248"/>
-      <c r="Z37" s="248"/>
+      <c r="X37" s="253"/>
+      <c r="Z37" s="253"/>
       <c r="AA37" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB37" s="248"/>
+      <c r="AB37" s="253"/>
       <c r="AG37" s="177">
         <v>2</v>
       </c>
-      <c r="AH37" s="248"/>
+      <c r="AH37" s="253"/>
     </row>
     <row r="38" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="248"/>
+      <c r="A38" s="253"/>
       <c r="B38" s="177">
         <v>51</v>
       </c>
@@ -27740,11 +27864,11 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E38" s="248"/>
+      <c r="E38" s="253"/>
       <c r="H38" s="194">
         <v>13.2</v>
       </c>
-      <c r="I38" s="248"/>
+      <c r="I38" s="253"/>
       <c r="T38" s="177">
         <v>12.9</v>
       </c>
@@ -27755,19 +27879,19 @@
         <f>V38/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X38" s="248"/>
-      <c r="Z38" s="248"/>
+      <c r="X38" s="253"/>
+      <c r="Z38" s="253"/>
       <c r="AA38" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB38" s="248"/>
+      <c r="AB38" s="253"/>
       <c r="AG38" s="177">
         <v>1.9</v>
       </c>
-      <c r="AH38" s="248"/>
+      <c r="AH38" s="253"/>
     </row>
     <row r="39" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="248"/>
+      <c r="A39" s="253"/>
       <c r="B39" s="177">
         <v>53</v>
       </c>
@@ -27778,8 +27902,8 @@
         <f t="shared" si="2"/>
         <v>0.12314886983632115</v>
       </c>
-      <c r="E39" s="248"/>
-      <c r="I39" s="248"/>
+      <c r="E39" s="253"/>
+      <c r="I39" s="253"/>
       <c r="T39" s="177">
         <v>6.5</v>
       </c>
@@ -27790,16 +27914,16 @@
         <f>V39/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X39" s="248"/>
-      <c r="Z39" s="248"/>
-      <c r="AB39" s="248"/>
+      <c r="X39" s="253"/>
+      <c r="Z39" s="253"/>
+      <c r="AB39" s="253"/>
       <c r="AG39" s="177">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AH39" s="248"/>
+      <c r="AH39" s="253"/>
     </row>
     <row r="40" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="248"/>
+      <c r="A40" s="253"/>
       <c r="B40" s="177">
         <v>56</v>
       </c>
@@ -27810,11 +27934,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E40" s="248"/>
+      <c r="E40" s="253"/>
       <c r="H40" s="194">
         <v>11.8</v>
       </c>
-      <c r="I40" s="248"/>
+      <c r="I40" s="253"/>
       <c r="T40" s="177">
         <v>9.6999999999999993</v>
       </c>
@@ -27825,19 +27949,19 @@
         <f>V40/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X40" s="248"/>
-      <c r="Z40" s="248"/>
+      <c r="X40" s="253"/>
+      <c r="Z40" s="253"/>
       <c r="AA40" s="177">
         <v>8.6</v>
       </c>
-      <c r="AB40" s="248"/>
+      <c r="AB40" s="253"/>
       <c r="AG40" s="177">
         <v>4</v>
       </c>
-      <c r="AH40" s="248"/>
+      <c r="AH40" s="253"/>
     </row>
     <row r="41" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="248"/>
+      <c r="A41" s="253"/>
       <c r="B41" s="177">
         <v>59</v>
       </c>
@@ -27848,11 +27972,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E41" s="248"/>
+      <c r="E41" s="253"/>
       <c r="H41" s="194">
         <v>8.9</v>
       </c>
-      <c r="I41" s="248"/>
+      <c r="I41" s="253"/>
       <c r="T41" s="177">
         <v>1.6</v>
       </c>
@@ -27863,19 +27987,19 @@
         <f>V41/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="248"/>
-      <c r="Z41" s="248"/>
+      <c r="X41" s="253"/>
+      <c r="Z41" s="253"/>
       <c r="AA41" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB41" s="248"/>
+      <c r="AB41" s="253"/>
       <c r="AG41" s="177">
         <v>2.8</v>
       </c>
-      <c r="AH41" s="248"/>
+      <c r="AH41" s="253"/>
     </row>
     <row r="42" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="248"/>
+      <c r="A42" s="253"/>
       <c r="B42" s="177">
         <v>66</v>
       </c>
@@ -27886,8 +28010,8 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E42" s="248"/>
-      <c r="I42" s="248"/>
+      <c r="E42" s="253"/>
+      <c r="I42" s="253"/>
       <c r="T42" s="177">
         <v>6.5</v>
       </c>
@@ -27898,16 +28022,16 @@
         <f>V42/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X42" s="248"/>
-      <c r="Z42" s="248"/>
-      <c r="AB42" s="248"/>
+      <c r="X42" s="253"/>
+      <c r="Z42" s="253"/>
+      <c r="AB42" s="253"/>
       <c r="AG42" s="177">
         <v>3</v>
       </c>
-      <c r="AH42" s="248"/>
+      <c r="AH42" s="253"/>
     </row>
     <row r="43" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="248"/>
+      <c r="A43" s="253"/>
       <c r="B43" s="177">
         <v>68</v>
       </c>
@@ -27918,11 +28042,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="248"/>
+      <c r="E43" s="253"/>
       <c r="H43" s="194">
         <v>9.4</v>
       </c>
-      <c r="I43" s="248"/>
+      <c r="I43" s="253"/>
       <c r="T43" s="177">
         <v>4.8</v>
       </c>
@@ -27933,16 +28057,16 @@
         <f>V43/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X43" s="248"/>
-      <c r="Z43" s="248"/>
+      <c r="X43" s="253"/>
+      <c r="Z43" s="253"/>
       <c r="AA43" s="177">
         <v>2.7</v>
       </c>
-      <c r="AB43" s="248"/>
-      <c r="AH43" s="248"/>
+      <c r="AB43" s="253"/>
+      <c r="AH43" s="253"/>
     </row>
     <row r="44" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="248"/>
+      <c r="A44" s="253"/>
       <c r="B44" s="177">
         <v>73</v>
       </c>
@@ -27953,16 +28077,16 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E44" s="248"/>
-      <c r="I44" s="248"/>
+      <c r="E44" s="253"/>
+      <c r="I44" s="253"/>
       <c r="W44" s="196"/>
-      <c r="X44" s="248"/>
-      <c r="Z44" s="248"/>
-      <c r="AB44" s="248"/>
-      <c r="AH44" s="248"/>
+      <c r="X44" s="253"/>
+      <c r="Z44" s="253"/>
+      <c r="AB44" s="253"/>
+      <c r="AH44" s="253"/>
     </row>
     <row r="45" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="248"/>
+      <c r="A45" s="253"/>
       <c r="B45" s="177">
         <v>82</v>
       </c>
@@ -27973,8 +28097,8 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E45" s="248"/>
-      <c r="I45" s="248"/>
+      <c r="E45" s="253"/>
+      <c r="I45" s="253"/>
       <c r="T45" s="177">
         <v>1.6</v>
       </c>
@@ -27985,13 +28109,13 @@
         <f>V45/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="248"/>
-      <c r="Z45" s="248"/>
-      <c r="AB45" s="248"/>
-      <c r="AH45" s="248"/>
+      <c r="X45" s="253"/>
+      <c r="Z45" s="253"/>
+      <c r="AB45" s="253"/>
+      <c r="AH45" s="253"/>
     </row>
     <row r="46" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="248"/>
+      <c r="A46" s="253"/>
       <c r="B46" s="177">
         <v>82</v>
       </c>
@@ -28002,11 +28126,11 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E46" s="248"/>
-      <c r="I46" s="248"/>
-      <c r="Z46" s="248"/>
-      <c r="AB46" s="248"/>
-      <c r="AH46" s="248"/>
+      <c r="E46" s="253"/>
+      <c r="I46" s="253"/>
+      <c r="Z46" s="253"/>
+      <c r="AB46" s="253"/>
+      <c r="AH46" s="253"/>
     </row>
     <row r="47" spans="1:43" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="230" t="s">
@@ -28051,7 +28175,7 @@
       <c r="AL47" s="228"/>
     </row>
     <row r="48" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="269" t="s">
+      <c r="A48" s="252" t="s">
         <v>307</v>
       </c>
       <c r="B48" s="177">
@@ -28103,17 +28227,17 @@
         <f>AA48/100</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AP48" s="274">
+      <c r="AP48" s="248">
         <f>79.6/(79.6+13.3)</f>
         <v>0.85683530678148545</v>
       </c>
-      <c r="AQ48" s="274">
+      <c r="AQ48" s="248">
         <f>77.8/(77.8+15.6)</f>
         <v>0.83297644539614568</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="248"/>
+      <c r="A49" s="253"/>
       <c r="B49" s="177">
         <v>18</v>
       </c>
@@ -28163,11 +28287,11 @@
         <f>AA49/100</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AP49" s="274"/>
-      <c r="AQ49" s="274"/>
+      <c r="AP49" s="248"/>
+      <c r="AQ49" s="248"/>
     </row>
     <row r="50" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="248"/>
+      <c r="A50" s="253"/>
       <c r="B50" s="177">
         <v>31</v>
       </c>
@@ -28178,14 +28302,14 @@
         <f t="shared" si="3"/>
         <v>9.3220338983050863E-2</v>
       </c>
-      <c r="E50" s="270">
+      <c r="E50" s="258">
         <f>SUM(D50:D54)</f>
         <v>0.36571056062581492</v>
       </c>
       <c r="H50" s="194">
         <v>13.9</v>
       </c>
-      <c r="I50" s="247">
+      <c r="I50" s="255">
         <f>(SUM(H50:H54)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.27666666666666667</v>
       </c>
@@ -28199,29 +28323,29 @@
         <f>V50/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X50" s="258">
+      <c r="X50" s="259">
         <f>SUM(W50:W54)</f>
         <v>0.39491525423728807</v>
       </c>
       <c r="Y50" s="177">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Z50" s="249">
+      <c r="Z50" s="254">
         <f>SUM(Y50:Y54)/100</f>
         <v>0.43400000000000005</v>
       </c>
       <c r="AA50" s="195">
         <v>11</v>
       </c>
-      <c r="AB50" s="249">
+      <c r="AB50" s="254">
         <f>SUM(AA50:AA54)/100</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="AP50" s="274"/>
-      <c r="AQ50" s="274"/>
+      <c r="AP50" s="248"/>
+      <c r="AQ50" s="248"/>
     </row>
     <row r="51" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="248"/>
+      <c r="A51" s="253"/>
       <c r="B51" s="177">
         <v>33</v>
       </c>
@@ -28232,11 +28356,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E51" s="248"/>
+      <c r="E51" s="253"/>
       <c r="H51" s="194">
         <v>14.5</v>
       </c>
-      <c r="I51" s="248"/>
+      <c r="I51" s="253"/>
       <c r="T51" s="177">
         <v>9.5</v>
       </c>
@@ -28247,20 +28371,20 @@
         <f>V51/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X51" s="248"/>
+      <c r="X51" s="253"/>
       <c r="Y51" s="177">
         <v>8.9</v>
       </c>
-      <c r="Z51" s="248"/>
+      <c r="Z51" s="253"/>
       <c r="AA51" s="195">
         <v>8.4</v>
       </c>
-      <c r="AB51" s="248"/>
-      <c r="AP51" s="274"/>
-      <c r="AQ51" s="274"/>
+      <c r="AB51" s="253"/>
+      <c r="AP51" s="248"/>
+      <c r="AQ51" s="248"/>
     </row>
     <row r="52" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="248"/>
+      <c r="A52" s="253"/>
       <c r="B52" s="177">
         <v>45</v>
       </c>
@@ -28271,11 +28395,11 @@
         <f t="shared" si="3"/>
         <v>4.6284224250325953E-2</v>
       </c>
-      <c r="E52" s="248"/>
+      <c r="E52" s="253"/>
       <c r="H52" s="194">
         <v>13</v>
       </c>
-      <c r="I52" s="248"/>
+      <c r="I52" s="253"/>
       <c r="T52" s="177">
         <v>3.6</v>
       </c>
@@ -28286,20 +28410,20 @@
         <f>V52/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X52" s="248"/>
+      <c r="X52" s="253"/>
       <c r="Y52" s="177">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z52" s="248"/>
+      <c r="Z52" s="253"/>
       <c r="AA52" s="195">
         <v>4.5</v>
       </c>
-      <c r="AB52" s="248"/>
-      <c r="AP52" s="274"/>
-      <c r="AQ52" s="274"/>
+      <c r="AB52" s="253"/>
+      <c r="AP52" s="248"/>
+      <c r="AQ52" s="248"/>
     </row>
     <row r="53" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="248"/>
+      <c r="A53" s="253"/>
       <c r="B53" s="177">
         <v>52</v>
       </c>
@@ -28310,11 +28434,11 @@
         <f t="shared" si="3"/>
         <v>0.10625814863103</v>
       </c>
-      <c r="E53" s="248"/>
+      <c r="E53" s="253"/>
       <c r="H53" s="194">
         <v>17.399999999999999</v>
       </c>
-      <c r="I53" s="248"/>
+      <c r="I53" s="253"/>
       <c r="T53" s="177">
         <v>24.1</v>
       </c>
@@ -28325,20 +28449,20 @@
         <f>V53/SUM(V48:V67)</f>
         <v>0.23559322033898303</v>
       </c>
-      <c r="X53" s="248"/>
+      <c r="X53" s="253"/>
       <c r="Y53" s="177">
         <v>11</v>
       </c>
-      <c r="Z53" s="248"/>
+      <c r="Z53" s="253"/>
       <c r="AA53" s="195">
         <v>9.6</v>
       </c>
-      <c r="AB53" s="248"/>
-      <c r="AP53" s="274"/>
-      <c r="AQ53" s="274"/>
+      <c r="AB53" s="253"/>
+      <c r="AP53" s="248"/>
+      <c r="AQ53" s="248"/>
     </row>
     <row r="54" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="248"/>
+      <c r="A54" s="253"/>
       <c r="B54" s="177">
         <v>58</v>
       </c>
@@ -28349,11 +28473,11 @@
         <f t="shared" si="3"/>
         <v>6.6492829204693613E-2</v>
       </c>
-      <c r="E54" s="248"/>
+      <c r="E54" s="253"/>
       <c r="H54" s="194">
         <v>24.2</v>
       </c>
-      <c r="I54" s="248"/>
+      <c r="I54" s="253"/>
       <c r="T54" s="177">
         <v>5.0999999999999996</v>
       </c>
@@ -28364,20 +28488,20 @@
         <f>V54/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X54" s="248"/>
+      <c r="X54" s="253"/>
       <c r="Y54" s="177">
         <v>11.2</v>
       </c>
-      <c r="Z54" s="248"/>
+      <c r="Z54" s="253"/>
       <c r="AA54" s="195">
         <v>7.9</v>
       </c>
-      <c r="AB54" s="248"/>
-      <c r="AP54" s="274"/>
-      <c r="AQ54" s="274"/>
+      <c r="AB54" s="253"/>
+      <c r="AP54" s="248"/>
+      <c r="AQ54" s="248"/>
     </row>
     <row r="55" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="269" t="s">
+      <c r="A55" s="252" t="s">
         <v>305</v>
       </c>
       <c r="B55" s="177">
@@ -28390,39 +28514,39 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E55" s="270">
+      <c r="E55" s="258">
         <f>SUM(D55:D67)</f>
         <v>0.41460234680573665</v>
       </c>
-      <c r="I55" s="247">
+      <c r="I55" s="255">
         <f>(SUM(H55:H67)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.25433333333333324</v>
       </c>
       <c r="W55" s="196"/>
-      <c r="X55" s="258">
+      <c r="X55" s="259">
         <f>SUM(T56:T67)/SUM(T48:T67)</f>
         <v>0.32680195941217638</v>
       </c>
-      <c r="Z55" s="249">
+      <c r="Z55" s="254">
         <f>1-SUM(Z48:Z54)</f>
         <v>0.17099999999999993</v>
       </c>
       <c r="AA55" s="191"/>
-      <c r="AB55" s="249">
+      <c r="AB55" s="254">
         <f>1-SUM(AB48:AB54)</f>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="AP55" s="274">
+      <c r="AP55" s="248">
         <f>1-AP48</f>
         <v>0.14316469321851455</v>
       </c>
-      <c r="AQ55" s="274">
+      <c r="AQ55" s="248">
         <f>1-AQ48</f>
         <v>0.16702355460385432</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="248"/>
+      <c r="A56" s="253"/>
       <c r="B56" s="177">
         <v>35</v>
       </c>
@@ -28433,11 +28557,11 @@
         <f t="shared" si="3"/>
         <v>0.11994784876140809</v>
       </c>
-      <c r="E56" s="248"/>
+      <c r="E56" s="253"/>
       <c r="H56" s="194">
         <v>21.8</v>
       </c>
-      <c r="I56" s="248"/>
+      <c r="I56" s="253"/>
       <c r="T56" s="177">
         <v>13.1</v>
       </c>
@@ -28448,20 +28572,20 @@
         <f>V56/SUM(V48:V67)</f>
         <v>8.6440677966101678E-2</v>
       </c>
-      <c r="X56" s="248"/>
+      <c r="X56" s="253"/>
       <c r="Y56" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z56" s="248"/>
+      <c r="Z56" s="253"/>
       <c r="AA56" s="195">
         <v>5.6</v>
       </c>
-      <c r="AB56" s="248"/>
-      <c r="AP56" s="274"/>
-      <c r="AQ56" s="274"/>
+      <c r="AB56" s="253"/>
+      <c r="AP56" s="248"/>
+      <c r="AQ56" s="248"/>
     </row>
     <row r="57" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="248"/>
+      <c r="A57" s="253"/>
       <c r="B57" s="177">
         <v>39</v>
       </c>
@@ -28472,11 +28596,11 @@
         <f t="shared" si="3"/>
         <v>2.020860495436767E-2</v>
       </c>
-      <c r="E57" s="248"/>
+      <c r="E57" s="253"/>
       <c r="H57" s="194">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I57" s="248"/>
+      <c r="I57" s="253"/>
       <c r="T57" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -28487,17 +28611,17 @@
         <f>V57/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X57" s="248"/>
-      <c r="Z57" s="248"/>
+      <c r="X57" s="253"/>
+      <c r="Z57" s="253"/>
       <c r="AA57" s="195">
         <v>4.2</v>
       </c>
-      <c r="AB57" s="248"/>
-      <c r="AP57" s="274"/>
-      <c r="AQ57" s="274"/>
+      <c r="AB57" s="253"/>
+      <c r="AP57" s="248"/>
+      <c r="AQ57" s="248"/>
     </row>
     <row r="58" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="248"/>
+      <c r="A58" s="253"/>
       <c r="B58" s="177">
         <v>51</v>
       </c>
@@ -28508,11 +28632,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E58" s="248"/>
+      <c r="E58" s="253"/>
       <c r="H58" s="194">
         <v>15.8</v>
       </c>
-      <c r="I58" s="248"/>
+      <c r="I58" s="253"/>
       <c r="T58" s="177">
         <v>7.3</v>
       </c>
@@ -28523,17 +28647,17 @@
         <f>V58/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X58" s="248"/>
-      <c r="Z58" s="248"/>
+      <c r="X58" s="253"/>
+      <c r="Z58" s="253"/>
       <c r="AA58" s="195">
         <v>6.7</v>
       </c>
-      <c r="AB58" s="248"/>
-      <c r="AP58" s="274"/>
-      <c r="AQ58" s="274"/>
+      <c r="AB58" s="253"/>
+      <c r="AP58" s="248"/>
+      <c r="AQ58" s="248"/>
     </row>
     <row r="59" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="248"/>
+      <c r="A59" s="253"/>
       <c r="B59" s="177">
         <v>53</v>
       </c>
@@ -28544,8 +28668,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E59" s="248"/>
-      <c r="I59" s="248"/>
+      <c r="E59" s="253"/>
+      <c r="I59" s="253"/>
       <c r="T59" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28556,15 +28680,15 @@
         <f>V59/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X59" s="248"/>
-      <c r="Z59" s="248"/>
+      <c r="X59" s="253"/>
+      <c r="Z59" s="253"/>
       <c r="AA59" s="191"/>
-      <c r="AB59" s="248"/>
-      <c r="AP59" s="274"/>
-      <c r="AQ59" s="274"/>
+      <c r="AB59" s="253"/>
+      <c r="AP59" s="248"/>
+      <c r="AQ59" s="248"/>
     </row>
     <row r="60" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="248"/>
+      <c r="A60" s="253"/>
       <c r="B60" s="177">
         <v>56</v>
       </c>
@@ -28575,11 +28699,11 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E60" s="248"/>
+      <c r="E60" s="253"/>
       <c r="H60" s="194">
         <v>11.9</v>
       </c>
-      <c r="I60" s="248"/>
+      <c r="I60" s="253"/>
       <c r="T60" s="177">
         <v>2.9</v>
       </c>
@@ -28590,17 +28714,17 @@
         <f>V60/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="248"/>
-      <c r="Z60" s="248"/>
+      <c r="X60" s="253"/>
+      <c r="Z60" s="253"/>
       <c r="AA60" s="195">
         <v>3.4</v>
       </c>
-      <c r="AB60" s="248"/>
-      <c r="AP60" s="274"/>
-      <c r="AQ60" s="274"/>
+      <c r="AB60" s="253"/>
+      <c r="AP60" s="248"/>
+      <c r="AQ60" s="248"/>
     </row>
     <row r="61" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="248"/>
+      <c r="A61" s="253"/>
       <c r="B61" s="177">
         <v>59</v>
       </c>
@@ -28611,12 +28735,12 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E61" s="248"/>
+      <c r="E61" s="253"/>
       <c r="F61" s="236"/>
       <c r="H61" s="194">
         <v>8</v>
       </c>
-      <c r="I61" s="248"/>
+      <c r="I61" s="253"/>
       <c r="T61" s="177">
         <v>0</v>
       </c>
@@ -28627,17 +28751,17 @@
         <f>V61/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X61" s="248"/>
-      <c r="Z61" s="248"/>
+      <c r="X61" s="253"/>
+      <c r="Z61" s="253"/>
       <c r="AA61" s="195">
         <v>2.9</v>
       </c>
-      <c r="AB61" s="248"/>
-      <c r="AP61" s="274"/>
-      <c r="AQ61" s="274"/>
+      <c r="AB61" s="253"/>
+      <c r="AP61" s="248"/>
+      <c r="AQ61" s="248"/>
     </row>
     <row r="62" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="248"/>
+      <c r="A62" s="253"/>
       <c r="B62" s="177">
         <v>66</v>
       </c>
@@ -28648,8 +28772,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E62" s="248"/>
-      <c r="I62" s="248"/>
+      <c r="E62" s="253"/>
+      <c r="I62" s="253"/>
       <c r="T62" s="177">
         <v>10.199999999999999</v>
       </c>
@@ -28660,15 +28784,15 @@
         <f>V62/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X62" s="248"/>
-      <c r="Z62" s="248"/>
+      <c r="X62" s="253"/>
+      <c r="Z62" s="253"/>
       <c r="AA62" s="191"/>
-      <c r="AB62" s="248"/>
-      <c r="AP62" s="274"/>
-      <c r="AQ62" s="274"/>
+      <c r="AB62" s="253"/>
+      <c r="AP62" s="248"/>
+      <c r="AQ62" s="248"/>
     </row>
     <row r="63" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="248"/>
+      <c r="A63" s="253"/>
       <c r="B63" s="177">
         <v>68</v>
       </c>
@@ -28679,11 +28803,11 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E63" s="248"/>
+      <c r="E63" s="253"/>
       <c r="H63" s="194">
         <v>9.1</v>
       </c>
-      <c r="I63" s="248"/>
+      <c r="I63" s="253"/>
       <c r="T63" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -28694,17 +28818,17 @@
         <f>V63/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X63" s="248"/>
-      <c r="Z63" s="248"/>
+      <c r="X63" s="253"/>
+      <c r="Z63" s="253"/>
       <c r="AA63" s="177">
         <v>2</v>
       </c>
-      <c r="AB63" s="248"/>
-      <c r="AP63" s="274"/>
-      <c r="AQ63" s="274"/>
+      <c r="AB63" s="253"/>
+      <c r="AP63" s="248"/>
+      <c r="AQ63" s="248"/>
     </row>
     <row r="64" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="248"/>
+      <c r="A64" s="253"/>
       <c r="B64" s="177">
         <v>69</v>
       </c>
@@ -28715,17 +28839,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E64" s="248"/>
-      <c r="I64" s="248"/>
+      <c r="E64" s="253"/>
+      <c r="I64" s="253"/>
       <c r="W64" s="192"/>
-      <c r="X64" s="248"/>
-      <c r="Z64" s="248"/>
-      <c r="AB64" s="248"/>
-      <c r="AP64" s="274"/>
-      <c r="AQ64" s="274"/>
+      <c r="X64" s="253"/>
+      <c r="Z64" s="253"/>
+      <c r="AB64" s="253"/>
+      <c r="AP64" s="248"/>
+      <c r="AQ64" s="248"/>
     </row>
     <row r="65" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="248"/>
+      <c r="A65" s="253"/>
       <c r="B65" s="177">
         <v>70</v>
       </c>
@@ -28736,17 +28860,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E65" s="248"/>
-      <c r="I65" s="248"/>
+      <c r="E65" s="253"/>
+      <c r="I65" s="253"/>
       <c r="W65" s="192"/>
-      <c r="X65" s="248"/>
-      <c r="Z65" s="248"/>
-      <c r="AB65" s="248"/>
-      <c r="AP65" s="274"/>
-      <c r="AQ65" s="274"/>
+      <c r="X65" s="253"/>
+      <c r="Z65" s="253"/>
+      <c r="AB65" s="253"/>
+      <c r="AP65" s="248"/>
+      <c r="AQ65" s="248"/>
     </row>
     <row r="66" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="248"/>
+      <c r="A66" s="253"/>
       <c r="B66" s="177">
         <v>73</v>
       </c>
@@ -28757,17 +28881,17 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E66" s="248"/>
-      <c r="I66" s="248"/>
+      <c r="E66" s="253"/>
+      <c r="I66" s="253"/>
       <c r="W66" s="192"/>
-      <c r="X66" s="248"/>
-      <c r="Z66" s="248"/>
-      <c r="AB66" s="248"/>
-      <c r="AP66" s="274"/>
-      <c r="AQ66" s="274"/>
+      <c r="X66" s="253"/>
+      <c r="Z66" s="253"/>
+      <c r="AB66" s="253"/>
+      <c r="AP66" s="248"/>
+      <c r="AQ66" s="248"/>
     </row>
     <row r="67" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="248"/>
+      <c r="A67" s="253"/>
       <c r="B67" s="177">
         <v>82</v>
       </c>
@@ -28778,8 +28902,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E67" s="248"/>
-      <c r="I67" s="248"/>
+      <c r="E67" s="253"/>
+      <c r="I67" s="253"/>
       <c r="T67" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28790,10 +28914,10 @@
         <f>V67/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X67" s="248"/>
+      <c r="X67" s="253"/>
       <c r="AB67" s="191"/>
-      <c r="AP67" s="274"/>
-      <c r="AQ67" s="274"/>
+      <c r="AP67" s="248"/>
+      <c r="AQ67" s="248"/>
     </row>
     <row r="68" spans="1:43" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="230" t="s">
@@ -28838,7 +28962,7 @@
       <c r="AL68" s="228"/>
     </row>
     <row r="69" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="269" t="s">
+      <c r="A69" s="252" t="s">
         <v>307</v>
       </c>
       <c r="B69" s="177">
@@ -28944,7 +29068,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="248"/>
+      <c r="A70" s="253"/>
       <c r="B70" s="177">
         <v>18</v>
       </c>
@@ -29048,7 +29172,7 @@
       </c>
     </row>
     <row r="71" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="248"/>
+      <c r="A71" s="253"/>
       <c r="B71" s="177">
         <v>31</v>
       </c>
@@ -29059,42 +29183,42 @@
         <f t="shared" si="4"/>
         <v>2.9145728643216084E-2</v>
       </c>
-      <c r="E71" s="273">
+      <c r="E71" s="257">
         <f>SUM(D71:D75)</f>
         <v>0.19296482412060306</v>
       </c>
       <c r="F71" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G71" s="269">
+      <c r="G71" s="252">
         <f>SUM(F71:F75)</f>
         <v>0.17699999999999999</v>
       </c>
       <c r="H71" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I71" s="247">
+      <c r="I71" s="255">
         <f>(SUM(H71:H75)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.17699530516431927</v>
       </c>
       <c r="J71" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K71" s="259">
+      <c r="K71" s="256">
         <f>SUM(J71:J75)/100</f>
         <v>0.217</v>
       </c>
       <c r="L71" s="177">
         <v>3.8</v>
       </c>
-      <c r="M71" s="259">
+      <c r="M71" s="256">
         <f>SUM(L71:L75)/100</f>
         <v>0.20799999999999996</v>
       </c>
       <c r="N71" s="187">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O71" s="253">
+      <c r="O71" s="273">
         <f>SUM(N71:N75)/SUM(N69:N90)</f>
         <v>0.22842639593908629</v>
       </c>
@@ -29109,14 +29233,14 @@
       <c r="Y71" s="177">
         <v>2.6</v>
       </c>
-      <c r="Z71" s="249">
+      <c r="Z71" s="254">
         <f>SUM(Y71:Y75)/100</f>
         <v>0.21899999999999997</v>
       </c>
       <c r="AA71" s="177">
         <v>4</v>
       </c>
-      <c r="AB71" s="249">
+      <c r="AB71" s="254">
         <f>SUM(AA71:AA75)/100</f>
         <v>0.21700000000000003</v>
       </c>
@@ -29124,7 +29248,7 @@
         <f>10/544*100</f>
         <v>1.8382352941176472</v>
       </c>
-      <c r="AD71" s="249">
+      <c r="AD71" s="254">
         <f>SUM(AC71:AC75)/100</f>
         <v>0.16544117647058823</v>
       </c>
@@ -29132,27 +29256,27 @@
         <f>335/8977*100</f>
         <v>3.7317589395120865</v>
       </c>
-      <c r="AF71" s="249">
+      <c r="AF71" s="254">
         <f>SUM(AE71:AE75)/100</f>
         <v>0.1853625932939735</v>
       </c>
       <c r="AI71" s="221">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AJ71" s="257">
+      <c r="AJ71" s="275">
         <f>SUM(AI71:AI75)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>0.1722342342342342</v>
       </c>
       <c r="AK71" s="221">
         <v>0.03</v>
       </c>
-      <c r="AL71" s="257">
+      <c r="AL71" s="275">
         <f>SUM(AK71:AK75)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>0.19617647058823534</v>
       </c>
     </row>
     <row r="72" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="248"/>
+      <c r="A72" s="253"/>
       <c r="B72" s="177">
         <v>33</v>
       </c>
@@ -29163,27 +29287,27 @@
         <f t="shared" si="4"/>
         <v>7.3366834170854281E-2</v>
       </c>
-      <c r="E72" s="248"/>
+      <c r="E72" s="253"/>
       <c r="F72" s="177">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G72" s="248"/>
+      <c r="G72" s="253"/>
       <c r="H72" s="177">
         <v>5.2</v>
       </c>
-      <c r="I72" s="248"/>
+      <c r="I72" s="253"/>
       <c r="J72" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K72" s="248"/>
+      <c r="K72" s="253"/>
       <c r="L72" s="177">
         <v>5.7</v>
       </c>
-      <c r="M72" s="248"/>
+      <c r="M72" s="253"/>
       <c r="N72" s="176">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O72" s="254"/>
+      <c r="O72" s="274"/>
       <c r="P72" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29195,32 +29319,32 @@
       <c r="Y72" s="177">
         <v>3.6</v>
       </c>
-      <c r="Z72" s="248"/>
+      <c r="Z72" s="253"/>
       <c r="AA72" s="177">
         <v>4.5</v>
       </c>
-      <c r="AB72" s="248"/>
+      <c r="AB72" s="253"/>
       <c r="AC72" s="183">
         <f>8/544*100</f>
         <v>1.4705882352941175</v>
       </c>
-      <c r="AD72" s="248"/>
+      <c r="AD72" s="253"/>
       <c r="AE72" s="182">
         <f>345/8977*100</f>
         <v>3.8431547287512533</v>
       </c>
-      <c r="AF72" s="248"/>
+      <c r="AF72" s="253"/>
       <c r="AI72" s="221">
         <v>4.7E-2</v>
       </c>
-      <c r="AJ72" s="256"/>
+      <c r="AJ72" s="270"/>
       <c r="AK72" s="221">
         <v>0.06</v>
       </c>
-      <c r="AL72" s="256"/>
+      <c r="AL72" s="270"/>
     </row>
     <row r="73" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="248"/>
+      <c r="A73" s="253"/>
       <c r="B73" s="177">
         <v>45</v>
       </c>
@@ -29231,27 +29355,27 @@
         <f t="shared" si="4"/>
         <v>5.6281407035175882E-2</v>
       </c>
-      <c r="E73" s="248"/>
+      <c r="E73" s="253"/>
       <c r="F73" s="177">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G73" s="248"/>
+      <c r="G73" s="253"/>
       <c r="H73" s="177">
         <v>15.5</v>
       </c>
-      <c r="I73" s="248"/>
+      <c r="I73" s="253"/>
       <c r="J73" s="177">
         <v>15.1</v>
       </c>
-      <c r="K73" s="248"/>
+      <c r="K73" s="253"/>
       <c r="L73" s="177">
         <v>4.7</v>
       </c>
-      <c r="M73" s="248"/>
+      <c r="M73" s="253"/>
       <c r="N73" s="176">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O73" s="254"/>
+      <c r="O73" s="274"/>
       <c r="P73" s="182">
         <f>13/77*100</f>
         <v>16.883116883116884</v>
@@ -29263,32 +29387,32 @@
       <c r="Y73" s="177">
         <v>11</v>
       </c>
-      <c r="Z73" s="248"/>
+      <c r="Z73" s="253"/>
       <c r="AA73" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB73" s="248"/>
+      <c r="AB73" s="253"/>
       <c r="AC73" s="183">
         <f>54/544*100</f>
         <v>9.9264705882352935</v>
       </c>
-      <c r="AD73" s="248"/>
+      <c r="AD73" s="253"/>
       <c r="AE73" s="182">
         <f>528/8977*100</f>
         <v>5.8816976718280047</v>
       </c>
-      <c r="AF73" s="248"/>
+      <c r="AF73" s="253"/>
       <c r="AI73" s="221">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AJ73" s="256"/>
+      <c r="AJ73" s="270"/>
       <c r="AK73" s="221">
         <v>0.08</v>
       </c>
-      <c r="AL73" s="256"/>
+      <c r="AL73" s="270"/>
     </row>
     <row r="74" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="248"/>
+      <c r="A74" s="253"/>
       <c r="B74" s="177">
         <v>52</v>
       </c>
@@ -29299,27 +29423,27 @@
         <f t="shared" si="4"/>
         <v>2.1105527638190957E-2</v>
       </c>
-      <c r="E74" s="248"/>
+      <c r="E74" s="253"/>
       <c r="F74" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G74" s="248"/>
+      <c r="G74" s="253"/>
       <c r="H74" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I74" s="248"/>
+      <c r="I74" s="253"/>
       <c r="J74" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K74" s="248"/>
+      <c r="K74" s="253"/>
       <c r="L74" s="177">
         <v>4.7</v>
       </c>
-      <c r="M74" s="248"/>
+      <c r="M74" s="253"/>
       <c r="N74" s="176">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O74" s="254"/>
+      <c r="O74" s="274"/>
       <c r="P74" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29331,32 +29455,32 @@
       <c r="Y74" s="177">
         <v>3.4</v>
       </c>
-      <c r="Z74" s="248"/>
+      <c r="Z74" s="253"/>
       <c r="AA74" s="177">
         <v>3.5</v>
       </c>
-      <c r="AB74" s="248"/>
+      <c r="AB74" s="253"/>
       <c r="AC74" s="183">
         <f>14/544*100</f>
         <v>2.5735294117647056</v>
       </c>
-      <c r="AD74" s="248"/>
+      <c r="AD74" s="253"/>
       <c r="AE74" s="182">
         <f>253/8977*100</f>
         <v>2.8183134677509192</v>
       </c>
-      <c r="AF74" s="248"/>
+      <c r="AF74" s="253"/>
       <c r="AI74" s="221">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ74" s="256"/>
+      <c r="AJ74" s="270"/>
       <c r="AK74" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL74" s="256"/>
+      <c r="AL74" s="270"/>
     </row>
     <row r="75" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="248"/>
+      <c r="A75" s="253"/>
       <c r="B75" s="177">
         <v>58</v>
       </c>
@@ -29367,27 +29491,27 @@
         <f t="shared" si="4"/>
         <v>1.3065326633165831E-2</v>
       </c>
-      <c r="E75" s="248"/>
+      <c r="E75" s="253"/>
       <c r="F75" s="177">
         <v>0</v>
       </c>
-      <c r="G75" s="248"/>
+      <c r="G75" s="253"/>
       <c r="H75" s="177">
         <v>8.1</v>
       </c>
-      <c r="I75" s="248"/>
+      <c r="I75" s="253"/>
       <c r="J75" s="177">
         <v>0</v>
       </c>
-      <c r="K75" s="248"/>
+      <c r="K75" s="253"/>
       <c r="L75" s="177">
         <v>1.9</v>
       </c>
-      <c r="M75" s="248"/>
+      <c r="M75" s="253"/>
       <c r="N75" s="176">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O75" s="254"/>
+      <c r="O75" s="274"/>
       <c r="P75" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29399,32 +29523,32 @@
       <c r="Y75" s="177">
         <v>1.3</v>
       </c>
-      <c r="Z75" s="248"/>
+      <c r="Z75" s="253"/>
       <c r="AA75" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB75" s="248"/>
+      <c r="AB75" s="253"/>
       <c r="AC75" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD75" s="248"/>
+      <c r="AD75" s="253"/>
       <c r="AE75" s="182">
         <f>203/8977*100</f>
         <v>2.2613345215550851</v>
       </c>
-      <c r="AF75" s="248"/>
+      <c r="AF75" s="253"/>
       <c r="AI75" s="221">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AJ75" s="256"/>
+      <c r="AJ75" s="270"/>
       <c r="AK75" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL75" s="256"/>
+      <c r="AL75" s="270"/>
     </row>
     <row r="76" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="269" t="s">
+      <c r="A76" s="252" t="s">
         <v>305</v>
       </c>
       <c r="B76" s="177">
@@ -29437,28 +29561,28 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E76" s="273">
+      <c r="E76" s="257">
         <f>SUM(D76:D88)</f>
         <v>0.16180904522613065</v>
       </c>
-      <c r="G76" s="269">
+      <c r="G76" s="252">
         <f>SUM(F77:F89)</f>
         <v>0.16700000000000001</v>
       </c>
-      <c r="I76" s="247">
+      <c r="I76" s="255">
         <f>(SUM(H76:H90)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.11300469483568076</v>
       </c>
-      <c r="K76" s="259">
+      <c r="K76" s="256">
         <f>SUM(J76:J89)/100</f>
         <v>0.10899999999999999</v>
       </c>
-      <c r="M76" s="259">
+      <c r="M76" s="256">
         <f>SUM(L76:L89)/100</f>
         <v>0.12200000000000001</v>
       </c>
       <c r="N76" s="187"/>
-      <c r="O76" s="253">
+      <c r="O76" s="273">
         <f>SUM(N76:N90)/SUM(N69:N90)</f>
         <v>0.10761421319796954</v>
       </c>
@@ -29466,16 +29590,16 @@
       <c r="Q76" s="232"/>
       <c r="R76" s="182"/>
       <c r="S76" s="232"/>
-      <c r="Z76" s="249">
+      <c r="Z76" s="254">
         <f>1-SUM(Z69:Z75)</f>
         <v>5.1999999999999935E-2</v>
       </c>
-      <c r="AB76" s="249">
+      <c r="AB76" s="254">
         <f>1-SUM(AB69:AB75)</f>
         <v>0</v>
       </c>
       <c r="AC76" s="182"/>
-      <c r="AD76" s="249">
+      <c r="AD76" s="254">
         <f>1-SUM(AD69:AD75)</f>
         <v>0.13235294117647067</v>
       </c>
@@ -29483,21 +29607,21 @@
         <f>31/8977*100</f>
         <v>0.34532694664141694</v>
       </c>
-      <c r="AF76" s="249">
+      <c r="AF76" s="254">
         <f>1-SUM(AF69:AF75)</f>
         <v>0.10649437451264343</v>
       </c>
-      <c r="AJ76" s="257">
+      <c r="AJ76" s="275">
         <f>SUM(AI76:AI90)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>6.9765765765765764E-2</v>
       </c>
-      <c r="AL76" s="257">
+      <c r="AL76" s="275">
         <f>SUM(AK76:AK90)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>9.3823529411764722E-2</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="248"/>
+      <c r="A77" s="253"/>
       <c r="B77" s="177">
         <v>35</v>
       </c>
@@ -29508,27 +29632,27 @@
         <f t="shared" si="4"/>
         <v>6.0301507537688454E-2</v>
       </c>
-      <c r="E77" s="248"/>
+      <c r="E77" s="253"/>
       <c r="F77" s="177">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G77" s="248"/>
+      <c r="G77" s="253"/>
       <c r="H77" s="177">
         <v>7.7</v>
       </c>
-      <c r="I77" s="248"/>
+      <c r="I77" s="253"/>
       <c r="J77" s="177">
         <v>6.5</v>
       </c>
-      <c r="K77" s="259"/>
+      <c r="K77" s="256"/>
       <c r="L77" s="177">
         <v>9.5</v>
       </c>
-      <c r="M77" s="259"/>
+      <c r="M77" s="256"/>
       <c r="N77" s="176">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="O77" s="254"/>
+      <c r="O77" s="274"/>
       <c r="P77" s="182">
         <f>7/77*100</f>
         <v>9.0909090909090917</v>
@@ -29540,32 +29664,32 @@
       <c r="Y77" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z77" s="248"/>
+      <c r="Z77" s="253"/>
       <c r="AA77" s="177">
         <v>1.7</v>
       </c>
-      <c r="AB77" s="248"/>
+      <c r="AB77" s="253"/>
       <c r="AC77" s="183">
         <f>27/544*100</f>
         <v>4.9632352941176467</v>
       </c>
-      <c r="AD77" s="248"/>
+      <c r="AD77" s="253"/>
       <c r="AE77" s="182">
         <f>175/8977*100</f>
         <v>1.9494263116854185</v>
       </c>
-      <c r="AF77" s="248"/>
+      <c r="AF77" s="253"/>
       <c r="AI77" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ77" s="256"/>
+      <c r="AJ77" s="270"/>
       <c r="AK77" s="221">
         <v>0.05</v>
       </c>
-      <c r="AL77" s="256"/>
+      <c r="AL77" s="270"/>
     </row>
     <row r="78" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="248"/>
+      <c r="A78" s="253"/>
       <c r="B78" s="177">
         <v>39</v>
       </c>
@@ -29576,15 +29700,15 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E78" s="248"/>
-      <c r="G78" s="248"/>
+      <c r="E78" s="253"/>
+      <c r="G78" s="253"/>
       <c r="H78" s="177">
         <v>3.3</v>
       </c>
-      <c r="I78" s="248"/>
-      <c r="K78" s="259"/>
-      <c r="M78" s="259"/>
-      <c r="O78" s="254"/>
+      <c r="I78" s="253"/>
+      <c r="K78" s="256"/>
+      <c r="M78" s="256"/>
+      <c r="O78" s="274"/>
       <c r="P78" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29593,29 +29717,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z78" s="248"/>
+      <c r="Z78" s="253"/>
       <c r="AA78" s="177">
         <v>1.4</v>
       </c>
-      <c r="AB78" s="248"/>
+      <c r="AB78" s="253"/>
       <c r="AC78" s="183">
         <f>3/544*100</f>
         <v>0.55147058823529416</v>
       </c>
-      <c r="AD78" s="248"/>
+      <c r="AD78" s="253"/>
       <c r="AE78" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF78" s="248"/>
+      <c r="AF78" s="253"/>
       <c r="AI78" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ78" s="256"/>
-      <c r="AL78" s="256"/>
+      <c r="AJ78" s="270"/>
+      <c r="AL78" s="270"/>
     </row>
     <row r="79" spans="1:43" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="248"/>
+      <c r="A79" s="253"/>
       <c r="B79" s="177">
         <v>51</v>
       </c>
@@ -29626,25 +29750,25 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E79" s="248"/>
+      <c r="E79" s="253"/>
       <c r="F79" s="177"/>
-      <c r="G79" s="248"/>
+      <c r="G79" s="253"/>
       <c r="H79" s="177">
         <v>4.8</v>
       </c>
-      <c r="I79" s="248"/>
+      <c r="I79" s="253"/>
       <c r="J79" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K79" s="259"/>
+      <c r="K79" s="256"/>
       <c r="L79" s="177">
         <v>0</v>
       </c>
-      <c r="M79" s="259"/>
+      <c r="M79" s="256"/>
       <c r="N79" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O79" s="254"/>
+      <c r="O79" s="274"/>
       <c r="P79" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29653,32 +29777,32 @@
         <f>4/154*100</f>
         <v>2.5974025974025974</v>
       </c>
-      <c r="Z79" s="248"/>
+      <c r="Z79" s="253"/>
       <c r="AA79" s="177">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB79" s="248"/>
+      <c r="AB79" s="253"/>
       <c r="AC79" s="183">
         <f>13/544*100</f>
         <v>2.3897058823529411</v>
       </c>
-      <c r="AD79" s="248"/>
+      <c r="AD79" s="253"/>
       <c r="AE79" s="182">
         <f>114/8977*100</f>
         <v>1.269911997326501</v>
       </c>
-      <c r="AF79" s="248"/>
+      <c r="AF79" s="253"/>
       <c r="AI79" s="221">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ79" s="256"/>
+      <c r="AJ79" s="270"/>
       <c r="AK79" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL79" s="256"/>
+      <c r="AL79" s="270"/>
     </row>
     <row r="80" spans="1:43" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="248"/>
+      <c r="A80" s="253"/>
       <c r="B80" s="177">
         <v>53</v>
       </c>
@@ -29689,32 +29813,32 @@
         <f t="shared" si="4"/>
         <v>1.6080402010050253E-2</v>
       </c>
-      <c r="E80" s="248"/>
+      <c r="E80" s="253"/>
       <c r="F80" s="177"/>
-      <c r="G80" s="248"/>
-      <c r="I80" s="248"/>
-      <c r="K80" s="259"/>
-      <c r="M80" s="259"/>
-      <c r="O80" s="254"/>
+      <c r="G80" s="253"/>
+      <c r="I80" s="253"/>
+      <c r="K80" s="256"/>
+      <c r="M80" s="256"/>
+      <c r="O80" s="274"/>
       <c r="P80" s="182"/>
       <c r="R80" s="182"/>
-      <c r="Z80" s="248"/>
-      <c r="AB80" s="248"/>
+      <c r="Z80" s="253"/>
+      <c r="AB80" s="253"/>
       <c r="AC80" s="182"/>
-      <c r="AD80" s="248"/>
+      <c r="AD80" s="253"/>
       <c r="AE80" s="182">
         <f>24/8977*100</f>
         <v>0.26734989417400024</v>
       </c>
-      <c r="AF80" s="248"/>
+      <c r="AF80" s="253"/>
       <c r="AI80" s="221">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ80" s="256"/>
-      <c r="AL80" s="256"/>
+      <c r="AJ80" s="270"/>
+      <c r="AL80" s="270"/>
     </row>
     <row r="81" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="248"/>
+      <c r="A81" s="253"/>
       <c r="B81" s="177">
         <v>56</v>
       </c>
@@ -29725,25 +29849,25 @@
         <f t="shared" si="4"/>
         <v>7.0351758793969852E-3</v>
       </c>
-      <c r="E81" s="248"/>
+      <c r="E81" s="253"/>
       <c r="F81" s="177"/>
-      <c r="G81" s="248"/>
+      <c r="G81" s="253"/>
       <c r="H81" s="177">
         <v>3</v>
       </c>
-      <c r="I81" s="248"/>
+      <c r="I81" s="253"/>
       <c r="J81" s="177">
         <v>0</v>
       </c>
-      <c r="K81" s="259"/>
+      <c r="K81" s="256"/>
       <c r="L81" s="177">
         <v>0.9</v>
       </c>
-      <c r="M81" s="259"/>
+      <c r="M81" s="256"/>
       <c r="N81" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O81" s="254"/>
+      <c r="O81" s="274"/>
       <c r="P81" s="183">
         <v>0</v>
       </c>
@@ -29751,29 +29875,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z81" s="248"/>
+      <c r="Z81" s="253"/>
       <c r="AA81" s="177">
         <v>0.9</v>
       </c>
-      <c r="AB81" s="248"/>
+      <c r="AB81" s="253"/>
       <c r="AC81" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD81" s="248"/>
+      <c r="AD81" s="253"/>
       <c r="AE81" s="182">
         <f>75/8977*100</f>
         <v>0.83546841929375071</v>
       </c>
-      <c r="AF81" s="248"/>
+      <c r="AF81" s="253"/>
       <c r="AI81" s="221">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ81" s="256"/>
-      <c r="AL81" s="256"/>
+      <c r="AJ81" s="270"/>
+      <c r="AL81" s="270"/>
     </row>
     <row r="82" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="248"/>
+      <c r="A82" s="253"/>
       <c r="B82" s="177">
         <v>59</v>
       </c>
@@ -29784,16 +29908,16 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E82" s="248"/>
+      <c r="E82" s="253"/>
       <c r="F82" s="177"/>
-      <c r="G82" s="248"/>
+      <c r="G82" s="253"/>
       <c r="H82" s="177">
         <v>3</v>
       </c>
-      <c r="I82" s="248"/>
-      <c r="K82" s="259"/>
-      <c r="M82" s="259"/>
-      <c r="O82" s="254"/>
+      <c r="I82" s="253"/>
+      <c r="K82" s="256"/>
+      <c r="M82" s="256"/>
+      <c r="O82" s="274"/>
       <c r="P82" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29801,29 +29925,29 @@
       <c r="R82" s="183">
         <v>0</v>
       </c>
-      <c r="Z82" s="248"/>
+      <c r="Z82" s="253"/>
       <c r="AA82" s="177">
         <v>1.3</v>
       </c>
-      <c r="AB82" s="248"/>
+      <c r="AB82" s="253"/>
       <c r="AC82" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD82" s="248"/>
+      <c r="AD82" s="253"/>
       <c r="AE82" s="182">
         <f>95/8977*100</f>
         <v>1.0582599977720841</v>
       </c>
-      <c r="AF82" s="248"/>
+      <c r="AF82" s="253"/>
       <c r="AI82" s="221">
         <v>1.4E-2</v>
       </c>
-      <c r="AJ82" s="256"/>
-      <c r="AL82" s="256"/>
+      <c r="AJ82" s="270"/>
+      <c r="AL82" s="270"/>
     </row>
     <row r="83" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="248"/>
+      <c r="A83" s="253"/>
       <c r="B83" s="177">
         <v>66</v>
       </c>
@@ -29834,35 +29958,35 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E83" s="248"/>
+      <c r="E83" s="253"/>
       <c r="F83" s="177"/>
-      <c r="G83" s="248"/>
-      <c r="I83" s="248"/>
-      <c r="K83" s="259"/>
-      <c r="M83" s="259"/>
-      <c r="O83" s="254"/>
+      <c r="G83" s="253"/>
+      <c r="I83" s="253"/>
+      <c r="K83" s="256"/>
+      <c r="M83" s="256"/>
+      <c r="O83" s="274"/>
       <c r="P83" s="182"/>
       <c r="R83" s="182"/>
-      <c r="Z83" s="248"/>
-      <c r="AB83" s="248"/>
+      <c r="Z83" s="253"/>
+      <c r="AB83" s="253"/>
       <c r="AC83" s="182">
         <f>2/544*100</f>
         <v>0.36764705882352938</v>
       </c>
-      <c r="AD83" s="248"/>
+      <c r="AD83" s="253"/>
       <c r="AE83" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF83" s="248"/>
+      <c r="AF83" s="253"/>
       <c r="AI83" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ83" s="256"/>
-      <c r="AL83" s="256"/>
+      <c r="AJ83" s="270"/>
+      <c r="AL83" s="270"/>
     </row>
     <row r="84" spans="1:38" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="248"/>
+      <c r="A84" s="253"/>
       <c r="B84" s="177">
         <v>68</v>
       </c>
@@ -29873,18 +29997,18 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E84" s="248"/>
+      <c r="E84" s="253"/>
       <c r="F84" s="177">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G84" s="248"/>
+      <c r="G84" s="253"/>
       <c r="H84" s="177">
         <v>3.1</v>
       </c>
-      <c r="I84" s="248"/>
-      <c r="K84" s="259"/>
-      <c r="M84" s="259"/>
-      <c r="O84" s="254"/>
+      <c r="I84" s="253"/>
+      <c r="K84" s="256"/>
+      <c r="M84" s="256"/>
+      <c r="O84" s="274"/>
       <c r="P84" s="183">
         <v>0</v>
       </c>
@@ -29892,32 +30016,32 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z84" s="248"/>
+      <c r="Z84" s="253"/>
       <c r="AA84" s="177">
         <v>0.6</v>
       </c>
-      <c r="AB84" s="248"/>
+      <c r="AB84" s="253"/>
       <c r="AC84" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD84" s="248"/>
+      <c r="AD84" s="253"/>
       <c r="AE84" s="182">
         <f>59/8977*100</f>
         <v>0.65723515651108388</v>
       </c>
-      <c r="AF84" s="248"/>
+      <c r="AF84" s="253"/>
       <c r="AI84" s="221">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ84" s="256"/>
+      <c r="AJ84" s="270"/>
       <c r="AK84" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL84" s="256"/>
+      <c r="AL84" s="270"/>
     </row>
     <row r="85" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="248"/>
+      <c r="A85" s="253"/>
       <c r="B85" s="177">
         <v>69</v>
       </c>
@@ -29928,38 +30052,38 @@
         <f t="shared" si="4"/>
         <v>1.5075376884422113E-2</v>
       </c>
-      <c r="E85" s="248"/>
+      <c r="E85" s="253"/>
       <c r="F85" s="177"/>
-      <c r="G85" s="248"/>
-      <c r="I85" s="248"/>
+      <c r="G85" s="253"/>
+      <c r="I85" s="253"/>
       <c r="J85" s="177">
         <v>0</v>
       </c>
-      <c r="K85" s="259"/>
+      <c r="K85" s="256"/>
       <c r="L85" s="177">
         <v>0.9</v>
       </c>
-      <c r="M85" s="259"/>
-      <c r="O85" s="254"/>
+      <c r="M85" s="256"/>
+      <c r="O85" s="274"/>
       <c r="P85" s="182"/>
       <c r="R85" s="182"/>
-      <c r="Z85" s="248"/>
-      <c r="AB85" s="248"/>
+      <c r="Z85" s="253"/>
+      <c r="AB85" s="253"/>
       <c r="AC85" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD85" s="248"/>
+      <c r="AD85" s="253"/>
       <c r="AE85" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF85" s="248"/>
-      <c r="AJ85" s="256"/>
-      <c r="AL85" s="256"/>
+      <c r="AF85" s="253"/>
+      <c r="AJ85" s="270"/>
+      <c r="AL85" s="270"/>
     </row>
     <row r="86" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="248"/>
+      <c r="A86" s="253"/>
       <c r="B86" s="177">
         <v>70</v>
       </c>
@@ -29970,38 +30094,38 @@
         <f t="shared" si="4"/>
         <v>8.0402010050251264E-3</v>
       </c>
-      <c r="E86" s="248"/>
+      <c r="E86" s="253"/>
       <c r="F86" s="177"/>
-      <c r="G86" s="248"/>
-      <c r="I86" s="248"/>
+      <c r="G86" s="253"/>
+      <c r="I86" s="253"/>
       <c r="J86" s="177">
         <v>0</v>
       </c>
-      <c r="K86" s="259"/>
+      <c r="K86" s="256"/>
       <c r="L86" s="177">
         <v>0.9</v>
       </c>
-      <c r="M86" s="259"/>
-      <c r="O86" s="254"/>
+      <c r="M86" s="256"/>
+      <c r="O86" s="274"/>
       <c r="P86" s="182"/>
       <c r="R86" s="182"/>
-      <c r="Z86" s="248"/>
-      <c r="AB86" s="248"/>
+      <c r="Z86" s="253"/>
+      <c r="AB86" s="253"/>
       <c r="AC86" s="182"/>
-      <c r="AD86" s="248"/>
+      <c r="AD86" s="253"/>
       <c r="AE86" s="182">
         <f>9/8977*100</f>
         <v>0.10025621031525009</v>
       </c>
-      <c r="AF86" s="248"/>
+      <c r="AF86" s="253"/>
       <c r="AI86" s="221">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ86" s="256"/>
-      <c r="AL86" s="256"/>
+      <c r="AJ86" s="270"/>
+      <c r="AL86" s="270"/>
     </row>
     <row r="87" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="248"/>
+      <c r="A87" s="253"/>
       <c r="B87" s="177">
         <v>73</v>
       </c>
@@ -30012,24 +30136,24 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E87" s="248"/>
+      <c r="E87" s="253"/>
       <c r="F87" s="177">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G87" s="248"/>
-      <c r="I87" s="248"/>
+      <c r="G87" s="253"/>
+      <c r="I87" s="253"/>
       <c r="J87" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K87" s="259"/>
+      <c r="K87" s="256"/>
       <c r="L87" s="177">
         <v>0</v>
       </c>
-      <c r="M87" s="259"/>
+      <c r="M87" s="256"/>
       <c r="N87" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O87" s="254"/>
+      <c r="O87" s="274"/>
       <c r="P87" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -30038,26 +30162,26 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z87" s="248"/>
-      <c r="AB87" s="248"/>
+      <c r="Z87" s="253"/>
+      <c r="AB87" s="253"/>
       <c r="AC87" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD87" s="248"/>
+      <c r="AD87" s="253"/>
       <c r="AE87" s="182">
         <f>43/8977*100</f>
         <v>0.47900189372841706</v>
       </c>
-      <c r="AF87" s="248"/>
+      <c r="AF87" s="253"/>
       <c r="AI87" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ87" s="256"/>
-      <c r="AL87" s="256"/>
+      <c r="AJ87" s="270"/>
+      <c r="AL87" s="270"/>
     </row>
     <row r="88" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="248"/>
+      <c r="A88" s="253"/>
       <c r="B88" s="177">
         <v>82</v>
       </c>
@@ -30068,19 +30192,19 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E88" s="248"/>
+      <c r="E88" s="253"/>
       <c r="F88" s="177"/>
-      <c r="G88" s="248"/>
-      <c r="I88" s="248"/>
+      <c r="G88" s="253"/>
+      <c r="I88" s="253"/>
       <c r="J88" s="177">
         <v>0</v>
       </c>
-      <c r="K88" s="259"/>
+      <c r="K88" s="256"/>
       <c r="L88" s="177">
         <v>0</v>
       </c>
-      <c r="M88" s="259"/>
-      <c r="O88" s="254"/>
+      <c r="M88" s="256"/>
+      <c r="O88" s="274"/>
       <c r="P88" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -30089,20 +30213,20 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z88" s="248"/>
-      <c r="AB88" s="248"/>
+      <c r="Z88" s="253"/>
+      <c r="AB88" s="253"/>
       <c r="AC88" s="182"/>
-      <c r="AD88" s="248"/>
+      <c r="AD88" s="253"/>
       <c r="AE88" s="182">
         <f>6/8977*100</f>
         <v>6.6837473543500059E-2</v>
       </c>
-      <c r="AF88" s="248"/>
-      <c r="AJ88" s="256"/>
-      <c r="AL88" s="256"/>
+      <c r="AF88" s="253"/>
+      <c r="AJ88" s="270"/>
+      <c r="AL88" s="270"/>
     </row>
     <row r="89" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="248"/>
+      <c r="A89" s="253"/>
       <c r="B89" s="177" t="s">
         <v>310</v>
       </c>
@@ -30113,24 +30237,24 @@
         <f>0.011 + 0.006 + 0.006 + 0.006</f>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="G89" s="248"/>
-      <c r="I89" s="248"/>
-      <c r="K89" s="259"/>
-      <c r="M89" s="259"/>
-      <c r="O89" s="254"/>
+      <c r="G89" s="253"/>
+      <c r="I89" s="253"/>
+      <c r="K89" s="256"/>
+      <c r="M89" s="256"/>
+      <c r="O89" s="274"/>
       <c r="P89" s="182"/>
       <c r="R89" s="182"/>
-      <c r="Z89" s="248"/>
-      <c r="AB89" s="248"/>
+      <c r="Z89" s="253"/>
+      <c r="AB89" s="253"/>
       <c r="AC89" s="182"/>
-      <c r="AD89" s="248"/>
+      <c r="AD89" s="253"/>
       <c r="AE89" s="182"/>
-      <c r="AF89" s="248"/>
+      <c r="AF89" s="253"/>
       <c r="AI89" s="221">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ89" s="256"/>
-      <c r="AL89" s="256"/>
+      <c r="AJ89" s="270"/>
+      <c r="AL89" s="270"/>
     </row>
     <row r="90" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="177"/>
@@ -30143,7 +30267,7 @@
       <c r="F90" s="177"/>
       <c r="G90" s="177"/>
       <c r="H90" s="177"/>
-      <c r="I90" s="248"/>
+      <c r="I90" s="253"/>
       <c r="J90" s="182">
         <f>1/46*100</f>
         <v>2.1739130434782608</v>
@@ -30152,7 +30276,7 @@
         <f>2/106*100</f>
         <v>1.8867924528301887</v>
       </c>
-      <c r="O90" s="254"/>
+      <c r="O90" s="274"/>
       <c r="P90" s="183">
         <f>32/77*100</f>
         <v>41.558441558441558</v>
@@ -30162,20 +30286,20 @@
         <v>23.376623376623375</v>
       </c>
       <c r="S90" s="177"/>
-      <c r="Z90" s="248"/>
-      <c r="AB90" s="248"/>
+      <c r="Z90" s="253"/>
+      <c r="AB90" s="253"/>
       <c r="AC90" s="182">
         <f>15/544*100</f>
         <v>2.7573529411764706</v>
       </c>
-      <c r="AD90" s="248"/>
+      <c r="AD90" s="253"/>
       <c r="AE90" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF90" s="248"/>
-      <c r="AJ90" s="256"/>
-      <c r="AL90" s="256"/>
+      <c r="AF90" s="253"/>
+      <c r="AJ90" s="270"/>
+      <c r="AL90" s="270"/>
     </row>
     <row r="91" spans="1:38" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="230" t="s">
@@ -30220,7 +30344,7 @@
       <c r="AL91" s="228"/>
     </row>
     <row r="92" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="269" t="s">
+      <c r="A92" s="252" t="s">
         <v>307</v>
       </c>
       <c r="B92" s="177">
@@ -30242,7 +30366,7 @@
       </c>
     </row>
     <row r="93" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="248"/>
+      <c r="A93" s="253"/>
       <c r="B93" s="177">
         <v>18</v>
       </c>
@@ -30262,236 +30386,236 @@
       </c>
     </row>
     <row r="94" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="248"/>
+      <c r="A94" s="253"/>
       <c r="B94" s="177">
         <v>31</v>
       </c>
       <c r="H94" s="177">
         <v>6.8</v>
       </c>
-      <c r="I94" s="247">
+      <c r="I94" s="255">
         <f>(SUM(H94:H98)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.3216134598792062</v>
       </c>
       <c r="AA94" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB94" s="249">
+      <c r="AB94" s="254">
         <f>SUM(AA94:AA98)/100</f>
         <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="248"/>
+      <c r="A95" s="253"/>
       <c r="B95" s="177">
         <v>33</v>
       </c>
       <c r="H95" s="177">
         <v>8.9</v>
       </c>
-      <c r="I95" s="248"/>
+      <c r="I95" s="253"/>
       <c r="AA95" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB95" s="248"/>
+      <c r="AB95" s="253"/>
     </row>
     <row r="96" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="248"/>
+      <c r="A96" s="253"/>
       <c r="B96" s="177">
         <v>45</v>
       </c>
       <c r="H96" s="177">
         <v>9.9</v>
       </c>
-      <c r="I96" s="248"/>
+      <c r="I96" s="253"/>
       <c r="AA96" s="177">
         <v>4.2</v>
       </c>
-      <c r="AB96" s="248"/>
+      <c r="AB96" s="253"/>
     </row>
     <row r="97" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="248"/>
+      <c r="A97" s="253"/>
       <c r="B97" s="177">
         <v>52</v>
       </c>
       <c r="H97" s="177">
         <v>12.8</v>
       </c>
-      <c r="I97" s="248"/>
+      <c r="I97" s="253"/>
       <c r="AA97" s="177">
         <v>13.8</v>
       </c>
-      <c r="AB97" s="248"/>
+      <c r="AB97" s="253"/>
     </row>
     <row r="98" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="248"/>
+      <c r="A98" s="253"/>
       <c r="B98" s="177">
         <v>58</v>
       </c>
       <c r="H98" s="177">
         <v>14.1</v>
       </c>
-      <c r="I98" s="248"/>
+      <c r="I98" s="253"/>
       <c r="AA98" s="177">
         <v>7.9</v>
       </c>
-      <c r="AB98" s="248"/>
+      <c r="AB98" s="253"/>
     </row>
     <row r="99" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="269" t="s">
+      <c r="A99" s="252" t="s">
         <v>305</v>
       </c>
       <c r="B99" s="177">
         <v>26</v>
       </c>
-      <c r="I99" s="247">
+      <c r="I99" s="255">
         <f>(SUM(H99:H112)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.38838654012079366</v>
       </c>
-      <c r="AB99" s="249">
+      <c r="AB99" s="254">
         <f>1-SUM(AB92:AB98)</f>
         <v>0.19600000000000006</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="248"/>
+      <c r="A100" s="253"/>
       <c r="B100" s="177">
         <v>35</v>
       </c>
       <c r="H100" s="177">
         <v>16.2</v>
       </c>
-      <c r="I100" s="248"/>
+      <c r="I100" s="253"/>
       <c r="AA100" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB100" s="248"/>
+      <c r="AB100" s="253"/>
     </row>
     <row r="101" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="248"/>
+      <c r="A101" s="253"/>
       <c r="B101" s="177">
         <v>39</v>
       </c>
       <c r="H101" s="177">
         <v>6.7</v>
       </c>
-      <c r="I101" s="248"/>
+      <c r="I101" s="253"/>
       <c r="AA101" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB101" s="248"/>
+      <c r="AB101" s="253"/>
     </row>
     <row r="102" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="248"/>
+      <c r="A102" s="253"/>
       <c r="B102" s="177">
         <v>51</v>
       </c>
       <c r="H102" s="177">
         <v>13.4</v>
       </c>
-      <c r="I102" s="248"/>
+      <c r="I102" s="253"/>
       <c r="AA102" s="177">
         <v>10.8</v>
       </c>
-      <c r="AB102" s="248"/>
+      <c r="AB102" s="253"/>
     </row>
     <row r="103" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="248"/>
+      <c r="A103" s="253"/>
       <c r="B103" s="177">
         <v>53</v>
       </c>
-      <c r="I103" s="248"/>
-      <c r="AB103" s="248"/>
+      <c r="I103" s="253"/>
+      <c r="AB103" s="253"/>
     </row>
     <row r="104" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="248"/>
+      <c r="A104" s="253"/>
       <c r="B104" s="177">
         <v>56</v>
       </c>
       <c r="H104" s="177">
         <v>10.7</v>
       </c>
-      <c r="I104" s="248"/>
+      <c r="I104" s="253"/>
       <c r="AA104" s="177">
         <v>7.7</v>
       </c>
-      <c r="AB104" s="248"/>
+      <c r="AB104" s="253"/>
     </row>
     <row r="105" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="248"/>
+      <c r="A105" s="253"/>
       <c r="B105" s="177">
         <v>59</v>
       </c>
       <c r="H105" s="177">
         <v>6.5</v>
       </c>
-      <c r="I105" s="248"/>
+      <c r="I105" s="253"/>
       <c r="AA105" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB105" s="248"/>
+      <c r="AB105" s="253"/>
     </row>
     <row r="106" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="248"/>
+      <c r="A106" s="253"/>
       <c r="B106" s="177">
         <v>66</v>
       </c>
-      <c r="I106" s="248"/>
-      <c r="AB106" s="248"/>
+      <c r="I106" s="253"/>
+      <c r="AB106" s="253"/>
     </row>
     <row r="107" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="248"/>
+      <c r="A107" s="253"/>
       <c r="B107" s="177">
         <v>68</v>
       </c>
       <c r="H107" s="177">
         <v>9.9</v>
       </c>
-      <c r="I107" s="248"/>
+      <c r="I107" s="253"/>
       <c r="AA107" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB107" s="248"/>
+      <c r="AB107" s="253"/>
     </row>
     <row r="108" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="248"/>
+      <c r="A108" s="253"/>
       <c r="B108" s="177">
         <v>69</v>
       </c>
-      <c r="I108" s="248"/>
-      <c r="AB108" s="248"/>
+      <c r="I108" s="253"/>
+      <c r="AB108" s="253"/>
     </row>
     <row r="109" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="248"/>
+      <c r="A109" s="253"/>
       <c r="B109" s="177">
         <v>70</v>
       </c>
-      <c r="I109" s="248"/>
-      <c r="AB109" s="248"/>
+      <c r="I109" s="253"/>
+      <c r="AB109" s="253"/>
     </row>
     <row r="110" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="248"/>
+      <c r="A110" s="253"/>
       <c r="B110" s="177">
         <v>73</v>
       </c>
-      <c r="I110" s="248"/>
-      <c r="AB110" s="248"/>
+      <c r="I110" s="253"/>
+      <c r="AB110" s="253"/>
     </row>
     <row r="111" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="248"/>
+      <c r="A111" s="253"/>
       <c r="B111" s="177">
         <v>82</v>
       </c>
-      <c r="I111" s="248"/>
-      <c r="AB111" s="248"/>
+      <c r="I111" s="253"/>
+      <c r="AB111" s="253"/>
     </row>
     <row r="112" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="248"/>
+      <c r="A112" s="253"/>
       <c r="B112" s="177" t="s">
         <v>310</v>
       </c>
-      <c r="I112" s="248"/>
-      <c r="AB112" s="248"/>
+      <c r="I112" s="253"/>
+      <c r="AB112" s="253"/>
     </row>
     <row r="113" spans="1:38" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="230" t="s">
@@ -30536,7 +30660,7 @@
       <c r="AL113" s="228"/>
     </row>
     <row r="114" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="269" t="s">
+      <c r="A114" s="252" t="s">
         <v>307</v>
       </c>
       <c r="B114" s="177">
@@ -30558,7 +30682,7 @@
       </c>
     </row>
     <row r="115" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="248"/>
+      <c r="A115" s="253"/>
       <c r="B115" s="177">
         <v>18</v>
       </c>
@@ -30578,236 +30702,236 @@
       </c>
     </row>
     <row r="116" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="248"/>
+      <c r="A116" s="253"/>
       <c r="B116" s="177">
         <v>31</v>
       </c>
       <c r="H116" s="177">
         <v>16.100000000000001</v>
       </c>
-      <c r="I116" s="249">
+      <c r="I116" s="254">
         <f>(SUM(H116:H120)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.32012755102040802</v>
       </c>
       <c r="AA116" s="177">
         <v>11.6</v>
       </c>
-      <c r="AB116" s="249">
+      <c r="AB116" s="254">
         <f>SUM(AA116:AA120)/100</f>
         <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="248"/>
+      <c r="A117" s="253"/>
       <c r="B117" s="177">
         <v>33</v>
       </c>
       <c r="H117" s="177">
         <v>12</v>
       </c>
-      <c r="I117" s="248"/>
+      <c r="I117" s="253"/>
       <c r="AA117" s="177">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB117" s="248"/>
+      <c r="AB117" s="253"/>
     </row>
     <row r="118" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="248"/>
+      <c r="A118" s="253"/>
       <c r="B118" s="177">
         <v>45</v>
       </c>
       <c r="H118" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I118" s="248"/>
+      <c r="I118" s="253"/>
       <c r="AA118" s="177">
         <v>5</v>
       </c>
-      <c r="AB118" s="248"/>
+      <c r="AB118" s="253"/>
     </row>
     <row r="119" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="248"/>
+      <c r="A119" s="253"/>
       <c r="B119" s="177">
         <v>52</v>
       </c>
       <c r="H119" s="177">
         <v>10.6</v>
       </c>
-      <c r="I119" s="248"/>
+      <c r="I119" s="253"/>
       <c r="AA119" s="177">
         <v>16.399999999999999</v>
       </c>
-      <c r="AB119" s="248"/>
+      <c r="AB119" s="253"/>
     </row>
     <row r="120" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="248"/>
+      <c r="A120" s="253"/>
       <c r="B120" s="177">
         <v>58</v>
       </c>
       <c r="H120" s="177">
         <v>22.1</v>
       </c>
-      <c r="I120" s="248"/>
+      <c r="I120" s="253"/>
       <c r="AA120" s="177">
         <v>12.1</v>
       </c>
-      <c r="AB120" s="248"/>
+      <c r="AB120" s="253"/>
     </row>
     <row r="121" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="269" t="s">
+      <c r="A121" s="252" t="s">
         <v>305</v>
       </c>
       <c r="B121" s="177">
         <v>26</v>
       </c>
-      <c r="I121" s="247">
+      <c r="I121" s="255">
         <f>(SUM(H121:H134)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.3028724489795917</v>
       </c>
-      <c r="AB121" s="249">
+      <c r="AB121" s="254">
         <f>1-SUM(AB114:AB120)</f>
         <v>-3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="122" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="248"/>
+      <c r="A122" s="253"/>
       <c r="B122" s="177">
         <v>35</v>
       </c>
       <c r="H122" s="177">
         <v>23.9</v>
       </c>
-      <c r="I122" s="248"/>
+      <c r="I122" s="253"/>
       <c r="AA122" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB122" s="248"/>
+      <c r="AB122" s="253"/>
     </row>
     <row r="123" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="248"/>
+      <c r="A123" s="253"/>
       <c r="B123" s="177">
         <v>39</v>
       </c>
       <c r="H123" s="177">
         <v>5.4</v>
       </c>
-      <c r="I123" s="248"/>
+      <c r="I123" s="253"/>
       <c r="AA123" s="177">
         <v>5.4</v>
       </c>
-      <c r="AB123" s="248"/>
+      <c r="AB123" s="253"/>
     </row>
     <row r="124" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="248"/>
+      <c r="A124" s="253"/>
       <c r="B124" s="177">
         <v>51</v>
       </c>
       <c r="H124" s="177">
         <v>12.9</v>
       </c>
-      <c r="I124" s="248"/>
+      <c r="I124" s="253"/>
       <c r="AA124" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB124" s="248"/>
+      <c r="AB124" s="253"/>
     </row>
     <row r="125" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="248"/>
+      <c r="A125" s="253"/>
       <c r="B125" s="177">
         <v>53</v>
       </c>
-      <c r="I125" s="248"/>
-      <c r="AB125" s="248"/>
+      <c r="I125" s="253"/>
+      <c r="AB125" s="253"/>
     </row>
     <row r="126" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="248"/>
+      <c r="A126" s="253"/>
       <c r="B126" s="177">
         <v>56</v>
       </c>
       <c r="H126" s="177">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I126" s="248"/>
+      <c r="I126" s="253"/>
       <c r="AA126" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB126" s="248"/>
+      <c r="AB126" s="253"/>
     </row>
     <row r="127" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="248"/>
+      <c r="A127" s="253"/>
       <c r="B127" s="177">
         <v>59</v>
       </c>
       <c r="H127" s="177">
         <v>6.5</v>
       </c>
-      <c r="I127" s="248"/>
+      <c r="I127" s="253"/>
       <c r="AA127" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB127" s="248"/>
+      <c r="AB127" s="253"/>
     </row>
     <row r="128" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="248"/>
+      <c r="A128" s="253"/>
       <c r="B128" s="177">
         <v>66</v>
       </c>
-      <c r="I128" s="248"/>
-      <c r="AB128" s="248"/>
+      <c r="I128" s="253"/>
+      <c r="AB128" s="253"/>
     </row>
     <row r="129" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="248"/>
+      <c r="A129" s="253"/>
       <c r="B129" s="177">
         <v>68</v>
       </c>
       <c r="H129" s="177">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I129" s="248"/>
+      <c r="I129" s="253"/>
       <c r="AA129" s="177">
         <v>2.9</v>
       </c>
-      <c r="AB129" s="248"/>
+      <c r="AB129" s="253"/>
     </row>
     <row r="130" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="248"/>
+      <c r="A130" s="253"/>
       <c r="B130" s="177">
         <v>69</v>
       </c>
-      <c r="I130" s="248"/>
-      <c r="AB130" s="248"/>
+      <c r="I130" s="253"/>
+      <c r="AB130" s="253"/>
     </row>
     <row r="131" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="248"/>
+      <c r="A131" s="253"/>
       <c r="B131" s="177">
         <v>70</v>
       </c>
-      <c r="I131" s="248"/>
-      <c r="AB131" s="248"/>
+      <c r="I131" s="253"/>
+      <c r="AB131" s="253"/>
     </row>
     <row r="132" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="248"/>
+      <c r="A132" s="253"/>
       <c r="B132" s="177">
         <v>73</v>
       </c>
-      <c r="I132" s="248"/>
-      <c r="AB132" s="248"/>
+      <c r="I132" s="253"/>
+      <c r="AB132" s="253"/>
     </row>
     <row r="133" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="248"/>
+      <c r="A133" s="253"/>
       <c r="B133" s="177">
         <v>82</v>
       </c>
-      <c r="I133" s="248"/>
-      <c r="AB133" s="248"/>
+      <c r="I133" s="253"/>
+      <c r="AB133" s="253"/>
     </row>
     <row r="134" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="248"/>
+      <c r="A134" s="253"/>
       <c r="B134" s="177" t="s">
         <v>310</v>
       </c>
-      <c r="I134" s="248"/>
-      <c r="AB134" s="248"/>
+      <c r="I134" s="253"/>
+      <c r="AB134" s="253"/>
     </row>
     <row r="135" spans="1:38" s="219" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="230" t="s">
@@ -30852,7 +30976,7 @@
       <c r="AL135" s="228"/>
     </row>
     <row r="136" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="269" t="s">
+      <c r="A136" s="252" t="s">
         <v>307</v>
       </c>
       <c r="B136" s="177">
@@ -30874,7 +30998,7 @@
       </c>
     </row>
     <row r="137" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="248"/>
+      <c r="A137" s="253"/>
       <c r="B137" s="177">
         <v>18</v>
       </c>
@@ -30894,239 +31018,359 @@
       </c>
     </row>
     <row r="138" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="248"/>
+      <c r="A138" s="253"/>
       <c r="B138" s="177">
         <v>31</v>
       </c>
       <c r="H138" s="177">
         <v>10.6</v>
       </c>
-      <c r="I138" s="247">
+      <c r="I138" s="255">
         <f>(SUM(H138:H142)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.23775675675675673</v>
       </c>
       <c r="AA138" s="177">
         <v>11.7</v>
       </c>
-      <c r="AB138" s="249">
+      <c r="AB138" s="254">
         <f>SUM(AA138:AA142)/100</f>
         <v>0.43599999999999994</v>
       </c>
     </row>
     <row r="139" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="248"/>
+      <c r="A139" s="253"/>
       <c r="B139" s="177">
         <v>33</v>
       </c>
       <c r="H139" s="177">
         <v>13.8</v>
       </c>
-      <c r="I139" s="248"/>
+      <c r="I139" s="253"/>
       <c r="AA139" s="177">
         <v>9.1</v>
       </c>
-      <c r="AB139" s="248"/>
+      <c r="AB139" s="253"/>
     </row>
     <row r="140" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="248"/>
+      <c r="A140" s="253"/>
       <c r="B140" s="177">
         <v>45</v>
       </c>
       <c r="H140" s="177">
         <v>6.3</v>
       </c>
-      <c r="I140" s="248"/>
+      <c r="I140" s="253"/>
       <c r="AA140" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB140" s="248"/>
+      <c r="AB140" s="253"/>
     </row>
     <row r="141" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="248"/>
+      <c r="A141" s="253"/>
       <c r="B141" s="177">
         <v>52</v>
       </c>
       <c r="H141" s="177">
         <v>11.3</v>
       </c>
-      <c r="I141" s="248"/>
+      <c r="I141" s="253"/>
       <c r="AA141" s="177">
         <v>10.199999999999999</v>
       </c>
-      <c r="AB141" s="248"/>
+      <c r="AB141" s="253"/>
     </row>
     <row r="142" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="248"/>
+      <c r="A142" s="253"/>
       <c r="B142" s="177">
         <v>58</v>
       </c>
       <c r="H142" s="177">
         <v>18.8</v>
       </c>
-      <c r="I142" s="248"/>
+      <c r="I142" s="253"/>
       <c r="AA142" s="177">
         <v>9</v>
       </c>
-      <c r="AB142" s="248"/>
+      <c r="AB142" s="253"/>
     </row>
     <row r="143" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="269" t="s">
+      <c r="A143" s="252" t="s">
         <v>305</v>
       </c>
       <c r="B143" s="177">
         <v>26</v>
       </c>
-      <c r="I143" s="247">
+      <c r="I143" s="255">
         <f>(SUM(H143:H156)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.22524324324324321</v>
       </c>
-      <c r="AB143" s="249">
+      <c r="AB143" s="254">
         <f>1-SUM(AB136:AB142)</f>
         <v>-9.2000000000000082E-2</v>
       </c>
     </row>
     <row r="144" spans="1:38" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="248"/>
+      <c r="A144" s="253"/>
       <c r="B144" s="177">
         <v>35</v>
       </c>
       <c r="H144" s="177">
         <v>23.2</v>
       </c>
-      <c r="I144" s="248"/>
+      <c r="I144" s="253"/>
       <c r="AA144" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB144" s="248"/>
+      <c r="AB144" s="253"/>
     </row>
     <row r="145" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="248"/>
+      <c r="A145" s="253"/>
       <c r="B145" s="177">
         <v>39</v>
       </c>
       <c r="H145" s="177">
         <v>5.6</v>
       </c>
-      <c r="I145" s="248"/>
+      <c r="I145" s="253"/>
       <c r="AA145" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB145" s="248"/>
+      <c r="AB145" s="253"/>
     </row>
     <row r="146" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A146" s="248"/>
+      <c r="A146" s="253"/>
       <c r="B146" s="177">
         <v>51</v>
       </c>
       <c r="H146" s="177">
         <v>6.9</v>
       </c>
-      <c r="I146" s="248"/>
+      <c r="I146" s="253"/>
       <c r="AA146" s="177">
         <v>5.5</v>
       </c>
-      <c r="AB146" s="248"/>
+      <c r="AB146" s="253"/>
     </row>
     <row r="147" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="248"/>
+      <c r="A147" s="253"/>
       <c r="B147" s="177">
         <v>53</v>
       </c>
-      <c r="I147" s="248"/>
-      <c r="AB147" s="248"/>
+      <c r="I147" s="253"/>
+      <c r="AB147" s="253"/>
     </row>
     <row r="148" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="248"/>
+      <c r="A148" s="253"/>
       <c r="B148" s="177">
         <v>56</v>
       </c>
       <c r="H148" s="177">
         <v>10.6</v>
       </c>
-      <c r="I148" s="248"/>
+      <c r="I148" s="253"/>
       <c r="AA148" s="177">
         <v>2.5</v>
       </c>
-      <c r="AB148" s="248"/>
+      <c r="AB148" s="253"/>
     </row>
     <row r="149" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="248"/>
+      <c r="A149" s="253"/>
       <c r="B149" s="177">
         <v>59</v>
       </c>
       <c r="H149" s="177">
         <v>3.8</v>
       </c>
-      <c r="I149" s="248"/>
+      <c r="I149" s="253"/>
       <c r="AA149" s="177">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB149" s="248"/>
+      <c r="AB149" s="253"/>
     </row>
     <row r="150" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="248"/>
+      <c r="A150" s="253"/>
       <c r="B150" s="177">
         <v>66</v>
       </c>
-      <c r="I150" s="248"/>
-      <c r="AB150" s="248"/>
+      <c r="I150" s="253"/>
+      <c r="AB150" s="253"/>
     </row>
     <row r="151" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="248"/>
+      <c r="A151" s="253"/>
       <c r="B151" s="177">
         <v>68</v>
       </c>
       <c r="H151" s="177">
         <v>7.5</v>
       </c>
-      <c r="I151" s="248"/>
+      <c r="I151" s="253"/>
       <c r="AA151" s="177">
         <v>2</v>
       </c>
-      <c r="AB151" s="248"/>
+      <c r="AB151" s="253"/>
     </row>
     <row r="152" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="248"/>
+      <c r="A152" s="253"/>
       <c r="B152" s="177">
         <v>69</v>
       </c>
-      <c r="I152" s="248"/>
-      <c r="AB152" s="248"/>
+      <c r="I152" s="253"/>
+      <c r="AB152" s="253"/>
     </row>
     <row r="153" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="248"/>
+      <c r="A153" s="253"/>
       <c r="B153" s="177">
         <v>70</v>
       </c>
-      <c r="I153" s="248"/>
-      <c r="AB153" s="248"/>
+      <c r="I153" s="253"/>
+      <c r="AB153" s="253"/>
     </row>
     <row r="154" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="248"/>
+      <c r="A154" s="253"/>
       <c r="B154" s="177">
         <v>73</v>
       </c>
-      <c r="I154" s="248"/>
-      <c r="AB154" s="248"/>
+      <c r="I154" s="253"/>
+      <c r="AB154" s="253"/>
     </row>
     <row r="155" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="248"/>
+      <c r="A155" s="253"/>
       <c r="B155" s="177">
         <v>82</v>
       </c>
-      <c r="I155" s="248"/>
-      <c r="AB155" s="248"/>
+      <c r="I155" s="253"/>
+      <c r="AB155" s="253"/>
     </row>
     <row r="156" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="248"/>
+      <c r="A156" s="253"/>
       <c r="B156" s="177" t="s">
         <v>310</v>
       </c>
-      <c r="I156" s="248"/>
-      <c r="AB156" s="248"/>
+      <c r="I156" s="253"/>
+      <c r="AB156" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="O76:O90"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AJ71:AJ75"/>
+    <mergeCell ref="AL71:AL75"/>
+    <mergeCell ref="AJ76:AJ90"/>
+    <mergeCell ref="AL76:AL90"/>
+    <mergeCell ref="X16:X26"/>
+    <mergeCell ref="X11:X15"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AH35:AH46"/>
+    <mergeCell ref="AF71:AF75"/>
+    <mergeCell ref="Z76:Z90"/>
+    <mergeCell ref="AD76:AD90"/>
+    <mergeCell ref="AF76:AF90"/>
+    <mergeCell ref="Z16:Z26"/>
+    <mergeCell ref="AB16:AB26"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="Z11:Z15"/>
+    <mergeCell ref="AB11:AB15"/>
+    <mergeCell ref="K76:K89"/>
+    <mergeCell ref="M76:M89"/>
+    <mergeCell ref="AB76:AB90"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="X50:X54"/>
+    <mergeCell ref="Z50:Z54"/>
+    <mergeCell ref="AB50:AB54"/>
+    <mergeCell ref="O71:O75"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="E16:E26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="X30:X34"/>
+    <mergeCell ref="Z30:Z34"/>
+    <mergeCell ref="AB30:AB34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="E35:E46"/>
+    <mergeCell ref="I35:I46"/>
+    <mergeCell ref="X35:X45"/>
+    <mergeCell ref="Z35:Z46"/>
+    <mergeCell ref="AB35:AB46"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="I143:I156"/>
+    <mergeCell ref="AB143:AB156"/>
+    <mergeCell ref="A121:A134"/>
+    <mergeCell ref="I121:I134"/>
+    <mergeCell ref="AB121:AB134"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="I138:I142"/>
+    <mergeCell ref="AB138:AB142"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="I55:I67"/>
+    <mergeCell ref="X55:X67"/>
+    <mergeCell ref="Z55:Z66"/>
+    <mergeCell ref="AB55:AB66"/>
+    <mergeCell ref="I76:I90"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="G71:G75"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="K71:K75"/>
     <mergeCell ref="AP55:AP67"/>
     <mergeCell ref="AQ55:AQ67"/>
     <mergeCell ref="AO11:AO15"/>
@@ -31151,126 +31395,6 @@
     <mergeCell ref="A76:A89"/>
     <mergeCell ref="E76:E88"/>
     <mergeCell ref="G76:G89"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="I143:I156"/>
-    <mergeCell ref="AB143:AB156"/>
-    <mergeCell ref="A121:A134"/>
-    <mergeCell ref="I121:I134"/>
-    <mergeCell ref="AB121:AB134"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="AB138:AB142"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="I55:I67"/>
-    <mergeCell ref="X55:X67"/>
-    <mergeCell ref="Z55:Z66"/>
-    <mergeCell ref="AB55:AB66"/>
-    <mergeCell ref="I76:I90"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="G71:G75"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="K71:K75"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="X30:X34"/>
-    <mergeCell ref="Z30:Z34"/>
-    <mergeCell ref="AB30:AB34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="E35:E46"/>
-    <mergeCell ref="I35:I46"/>
-    <mergeCell ref="X35:X45"/>
-    <mergeCell ref="Z35:Z46"/>
-    <mergeCell ref="AB35:AB46"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="E16:E26"/>
-    <mergeCell ref="I16:I26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K76:K89"/>
-    <mergeCell ref="M76:M89"/>
-    <mergeCell ref="AB76:AB90"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="X50:X54"/>
-    <mergeCell ref="Z50:Z54"/>
-    <mergeCell ref="AB50:AB54"/>
-    <mergeCell ref="O71:O75"/>
-    <mergeCell ref="O76:O90"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AJ71:AJ75"/>
-    <mergeCell ref="AL71:AL75"/>
-    <mergeCell ref="AJ76:AJ90"/>
-    <mergeCell ref="AL76:AL90"/>
-    <mergeCell ref="X16:X26"/>
-    <mergeCell ref="X11:X15"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="AH35:AH46"/>
-    <mergeCell ref="AF71:AF75"/>
-    <mergeCell ref="Z76:Z90"/>
-    <mergeCell ref="AD76:AD90"/>
-    <mergeCell ref="AF76:AF90"/>
-    <mergeCell ref="Z16:Z26"/>
-    <mergeCell ref="AB16:AB26"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="Z11:Z15"/>
-    <mergeCell ref="AB11:AB15"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31317,28 +31441,28 @@
       <c r="H2" s="204" t="s">
         <v>253</v>
       </c>
-      <c r="I2" s="280" t="s">
+      <c r="I2" s="281" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="280"/>
-      <c r="K2" s="279" t="s">
+      <c r="J2" s="281"/>
+      <c r="K2" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="279"/>
+      <c r="L2" s="280"/>
       <c r="M2" s="203" t="s">
         <v>256</v>
       </c>
-      <c r="N2" s="278" t="s">
+      <c r="N2" s="279" t="s">
         <v>348</v>
       </c>
-      <c r="O2" s="278"/>
+      <c r="O2" s="279"/>
       <c r="P2" s="226" t="s">
         <v>347</v>
       </c>
-      <c r="Q2" s="276" t="s">
+      <c r="Q2" s="251" t="s">
         <v>346</v>
       </c>
-      <c r="R2" s="276"/>
+      <c r="R2" s="251"/>
       <c r="S2" s="225" t="s">
         <v>345</v>
       </c>
@@ -31533,11 +31657,11 @@
       <c r="D7" s="177" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="277" t="s">
+      <c r="E7" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="277"/>
-      <c r="G7" s="277"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
       <c r="H7" s="177" t="s">
         <v>322</v>
       </c>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="796" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="358">
   <si>
     <t>Age</t>
   </si>
@@ -676,9 +676,6 @@
       </rPr>
       <t>Cervical cancer mortality rates in HIV negative women were obtained from Sankaranarayanan et al and mulitplied by the relative increase in cervical cancer mortality by CD4 count found in Dryden Peterson et al.</t>
     </r>
-  </si>
-  <si>
-    <t>R. Sankaranarayanan et al., Effect of visual screening on cervical cancer incidence and mortality in Tamil Nadu, India: a cluster-randomised trial. Lancet 370, 398-406 (2007).</t>
   </si>
   <si>
     <t>S. Dryden-Peterson et al., HIV Infection and Survival Among Women With Cervical Cancer. J Clin Oncol, (2016).</t>
@@ -1354,51 +1351,10 @@
     <t>Undetected CC Mortality Rates</t>
   </si>
   <si>
-    <t>Values in Nick's paper model appendix (monthly)</t>
-  </si>
-  <si>
-    <t>Values in Nick's paper model appendix (yearly)</t>
-  </si>
-  <si>
-    <t>Multipliers for CD4 stage relative to HIV-negative mortality. Note: these match well with multipliers from Dryden-Peterson paper by CD4 stage</t>
-  </si>
-  <si>
-    <t>Values found in old version of Excel sheet (monthly)</t>
-  </si>
-  <si>
-    <t>Below: multipliers relative to HIV-negative mortality. It looks like they took the multipliers by CD4 stage and modified them for Stage 4 to be the minimum and for stage 1 to be 2x stage 2-3. This generally matches evidence from Dryden-Peterson paper that as CC stage progresses, HIV influence decreases.</t>
-  </si>
-  <si>
-    <t>Above: monthly values from old Excel sheet multiplied by 12 to get yearly values. Except for Stage 4 where a maximum rate was set at 0.99.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ratio with current values. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note: not sure how baseline mortality rates in HIV-negative persons were determined</t>
-    </r>
-  </si>
-  <si>
     <t>Ratios relative to HIV-Negative</t>
   </si>
   <si>
-    <t>For Stage 2-3, the multipliers/ratios by CD4 stage relative to HIV-negative match well with the multipliers from the Dryden-Peterson paper.</t>
-  </si>
-  <si>
-    <t>The multipliers for Stage 1 are 2x those for Stage 2-3. For stage 4, took the minimum multiplier from Stage 2-3 (1.54) and adjusted this for a maximum mortality rate of 0.99. Applyling this constraint gives a multiplier of 1.25918. This generally matches evidence from the Dryden-Peterson paper that as CC stage progresses, HIV influence decreases.</t>
-  </si>
-  <si>
-    <t>CJB note: everything to the right is me trying to figure out where the baseline CC-associated mortality rates for HIV-negative women came from.</t>
+    <t>Sankaranarayanan et al. Cancer survival in Africa, Asia, and Central America: a population-based study. Lancet Oncol 2010;11;2:165-73.</t>
   </si>
 </sst>
 </file>
@@ -1651,15 +1607,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1673,6 +1620,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -2216,7 +2170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2562,18 +2516,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2586,14 +2528,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2601,58 +2540,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2661,6 +2552,54 @@
     <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2673,35 +2612,36 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9114,18 +9054,18 @@
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="241" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="F2" s="247" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="F2" s="241" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
       <c r="J2" s="51"/>
       <c r="K2" s="104"/>
       <c r="L2" s="104"/>
@@ -9153,7 +9093,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H3" s="54" t="s">
         <v>1</v>
@@ -9317,7 +9257,7 @@
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="F8" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
@@ -9334,7 +9274,7 @@
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="F9" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="1"/>
@@ -9455,12 +9395,12 @@
       <c r="U15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="247" t="s">
+      <c r="A16" s="241" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="247"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -9667,12 +9607,12 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="242" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="250"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -9939,10 +9879,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9950,9 +9890,11 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
@@ -9970,7 +9912,7 @@
     <col min="30" max="30" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>199</v>
       </c>
@@ -9998,9 +9940,9 @@
       <c r="W1" s="37"/>
       <c r="X1" s="37"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>200</v>
+    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="291" t="s">
+        <v>357</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -10026,9 +9968,9 @@
       <c r="W2" s="37"/>
       <c r="X2" s="37"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -10054,81 +9996,45 @@
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
     </row>
-    <row r="4" spans="1:32" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="247" t="s">
+    <row r="4" spans="1:34" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="241" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="F4" s="246" t="s">
         <v>356</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="F4" s="291" t="s">
-        <v>364</v>
-      </c>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="299" t="s">
-        <v>365</v>
-      </c>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="N4" s="298" t="s">
-        <v>367</v>
-      </c>
-      <c r="O4" s="297" t="s">
-        <v>360</v>
-      </c>
-      <c r="P4" s="93">
-        <v>1.8098080000000002E-2</v>
-      </c>
-      <c r="Q4" s="93">
-        <v>2.3311134000000001E-2</v>
-      </c>
-      <c r="R4" s="93">
-        <v>0.10089910600000002</v>
-      </c>
-      <c r="S4" s="241">
-        <f>B6/P4</f>
-        <v>11.999999999999998</v>
-      </c>
-      <c r="T4" s="241">
-        <f>C6/Q4</f>
-        <v>12</v>
-      </c>
-      <c r="U4" s="241">
-        <f>D6/R4</f>
-        <v>9.8117816821885402</v>
-      </c>
-      <c r="V4" s="36"/>
-      <c r="W4" s="251" t="s">
-        <v>357</v>
-      </c>
-      <c r="X4" s="242">
-        <v>8.0070000000000002E-3</v>
-      </c>
-      <c r="Y4" s="242">
-        <v>1.92699E-2</v>
-      </c>
-      <c r="Z4" s="242">
-        <v>6.6827999999999999E-2</v>
-      </c>
-      <c r="AA4" s="241">
-        <f>B6/X4</f>
-        <v>27.1233870363432</v>
-      </c>
-      <c r="AB4" s="241">
-        <f>C6/Y4</f>
-        <v>14.51660921956004</v>
-      </c>
-      <c r="AC4" s="241">
-        <f>D6/Z4</f>
-        <v>14.814149757586641</v>
-      </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-    </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="293"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="283"/>
+      <c r="T4" s="283"/>
+      <c r="U4" s="283"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="283"/>
+      <c r="AB4" s="283"/>
+      <c r="AC4" s="283"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="54" t="s">
         <v>184</v>
@@ -10148,826 +10054,477 @@
       <c r="H5" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="299"/>
-      <c r="J5" s="299"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
-      <c r="N5" s="298"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="93">
-        <v>2.1976240000000001E-2</v>
-      </c>
-      <c r="Q5" s="93">
-        <v>2.8306377000000004E-2</v>
-      </c>
-      <c r="R5" s="93">
-        <v>0.10089910600000002</v>
-      </c>
-      <c r="S5" s="241">
-        <f>B7/P5</f>
-        <v>11.999999999999998</v>
-      </c>
-      <c r="T5" s="241">
-        <f>C7/Q5</f>
-        <v>11.999999999999998</v>
-      </c>
-      <c r="U5" s="241">
-        <f>D7/R5</f>
-        <v>9.8117816821885402</v>
-      </c>
-      <c r="V5" s="36"/>
-      <c r="W5" s="252"/>
-      <c r="X5" s="242">
-        <v>9.7230000000000007E-3</v>
-      </c>
-      <c r="Y5" s="242">
-        <v>2.3399199999999998E-2</v>
-      </c>
-      <c r="Z5" s="242">
-        <v>8.1147999999999998E-2</v>
-      </c>
-      <c r="AA5" s="241">
-        <f>B7/X5</f>
-        <v>27.122789262573278</v>
-      </c>
-      <c r="AB5" s="241">
-        <f>C7/Y5</f>
-        <v>14.516587062805566</v>
-      </c>
-      <c r="AC5" s="241">
-        <f>D7/Z5</f>
-        <v>12.199930990289348</v>
-      </c>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-    </row>
-    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="290"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="294"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="294"/>
+      <c r="N5" s="294"/>
+      <c r="O5" s="294"/>
+      <c r="P5" s="294"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="283"/>
+      <c r="T5" s="283"/>
+      <c r="U5" s="283"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="283"/>
+      <c r="AB5" s="283"/>
+      <c r="AC5" s="283"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>189</v>
       </c>
       <c r="B6" s="64">
-        <v>0.21717696</v>
+        <f>F6*B$11</f>
+        <v>0.20707783810724914</v>
       </c>
       <c r="C6" s="64">
-        <v>0.27973360800000002</v>
+        <f t="shared" ref="C6:D10" si="0">G6*C$11</f>
+        <v>0.24174996650700001</v>
       </c>
       <c r="D6" s="64">
-        <v>0.99</v>
-      </c>
-      <c r="F6" s="242">
-        <f>B6/B$11</f>
-        <v>3.0799999999999996</v>
-      </c>
-      <c r="G6" s="242">
-        <f t="shared" ref="G6:H11" si="0">C6/C$11</f>
-        <v>1.54</v>
-      </c>
-      <c r="H6" s="242">
         <f t="shared" si="0"/>
-        <v>1.2591786492141961</v>
-      </c>
-      <c r="I6" s="299"/>
-      <c r="J6" s="299"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="299"/>
-      <c r="N6" s="298"/>
-      <c r="O6" s="297"/>
-      <c r="P6" s="93">
-        <v>2.6677040000000003E-2</v>
-      </c>
-      <c r="Q6" s="93">
-        <v>3.4361216999999999E-2</v>
-      </c>
-      <c r="R6" s="93">
-        <v>0.10089910600000002</v>
-      </c>
-      <c r="S6" s="241">
-        <f>B8/P6</f>
-        <v>11.999999999999998</v>
-      </c>
-      <c r="T6" s="241">
-        <f>C8/Q6</f>
-        <v>12</v>
-      </c>
-      <c r="U6" s="241">
-        <f>D8/R6</f>
-        <v>9.8117816821885402</v>
-      </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="242">
-        <v>1.1802999999999999E-2</v>
-      </c>
-      <c r="Y6" s="242">
-        <v>2.84044E-2</v>
-      </c>
-      <c r="Z6" s="242">
-        <v>9.8505999999999996E-2</v>
-      </c>
-      <c r="AA6" s="241">
-        <f>B8/X6</f>
-        <v>27.122297720918411</v>
-      </c>
-      <c r="AB6" s="241">
-        <f>C8/Y6</f>
-        <v>14.51657503767022</v>
-      </c>
-      <c r="AC6" s="241">
-        <f>D8/Z6</f>
-        <v>10.050149229488559</v>
-      </c>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-    </row>
-    <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5207380372</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="55">
+        <v>3.3188235289999999</v>
+      </c>
+      <c r="G6" s="55">
+        <v>1.61</v>
+      </c>
+      <c r="H6" s="55">
+        <v>1</v>
+      </c>
+      <c r="I6" s="290"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="294"/>
+      <c r="N6" s="294"/>
+      <c r="O6" s="294"/>
+      <c r="P6" s="294"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="283"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="283"/>
+      <c r="AB6" s="283"/>
+      <c r="AC6" s="283"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>190</v>
       </c>
       <c r="B7" s="64">
-        <v>0.26371487999999998</v>
+        <f t="shared" ref="B7:B10" si="1">F7*B$11</f>
+        <v>0.25145166059000001</v>
       </c>
       <c r="C7" s="64">
-        <v>0.33967652399999998</v>
+        <f t="shared" si="0"/>
+        <v>0.29355353075849999</v>
       </c>
       <c r="D7" s="64">
-        <v>0.99</v>
-      </c>
-      <c r="F7" s="242">
-        <f t="shared" ref="F7:F11" si="1">B7/B$11</f>
-        <v>3.7399999999999993</v>
-      </c>
-      <c r="G7" s="242">
         <f t="shared" si="0"/>
-        <v>1.8699999999999999</v>
-      </c>
-      <c r="H7" s="242">
-        <f t="shared" si="0"/>
-        <v>1.2591786492141961</v>
-      </c>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="N7" s="298"/>
-      <c r="O7" s="297"/>
-      <c r="P7" s="93">
-        <v>3.2318E-2</v>
-      </c>
-      <c r="Q7" s="93">
-        <v>4.1627024999999998E-2</v>
-      </c>
-      <c r="R7" s="93">
-        <v>0.10089910600000002</v>
-      </c>
-      <c r="S7" s="241">
-        <f>B9/P7</f>
-        <v>12</v>
-      </c>
-      <c r="T7" s="241">
-        <f>C9/Q7</f>
-        <v>12</v>
-      </c>
-      <c r="U7" s="241">
-        <f>D9/R7</f>
-        <v>9.8117816821885402</v>
-      </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="252"/>
-      <c r="X7" s="242">
-        <v>1.4298999999999999E-2</v>
-      </c>
-      <c r="Y7" s="242">
-        <v>3.44106E-2</v>
-      </c>
-      <c r="Z7" s="242">
-        <v>0.119336</v>
-      </c>
-      <c r="AA7" s="241">
-        <f>B9/X7</f>
-        <v>27.121896636128401</v>
-      </c>
-      <c r="AB7" s="241">
-        <f>C9/Y7</f>
-        <v>14.516582099701836</v>
-      </c>
-      <c r="AC7" s="241">
-        <f>D9/Z7</f>
-        <v>8.2959040021452033</v>
-      </c>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-    </row>
-    <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5207380372</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="55">
+        <v>4.03</v>
+      </c>
+      <c r="G7" s="55">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="H7" s="55">
+        <v>1</v>
+      </c>
+      <c r="I7" s="290"/>
+      <c r="J7" s="294"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="294"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="294"/>
+      <c r="P7" s="294"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="283"/>
+      <c r="T7" s="283"/>
+      <c r="U7" s="283"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="283"/>
+      <c r="AB7" s="283"/>
+      <c r="AC7" s="283"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="64">
-        <v>0.32012447999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.30523811208046198</v>
       </c>
       <c r="C8" s="64">
-        <v>0.41233460399999999</v>
+        <f t="shared" si="0"/>
+        <v>0.35634572982392626</v>
       </c>
       <c r="D8" s="64">
-        <v>0.99</v>
-      </c>
-      <c r="F8" s="242">
-        <f t="shared" si="1"/>
-        <v>4.5399999999999991</v>
-      </c>
-      <c r="G8" s="242">
         <f t="shared" si="0"/>
-        <v>2.27</v>
-      </c>
-      <c r="H8" s="242">
-        <f t="shared" si="0"/>
-        <v>1.2591786492141961</v>
-      </c>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="N8" s="298"/>
-      <c r="O8" s="297"/>
-      <c r="P8" s="93">
-        <v>1.8098080000000002E-2</v>
-      </c>
-      <c r="Q8" s="93">
-        <v>2.3311134000000001E-2</v>
-      </c>
-      <c r="R8" s="93">
-        <v>0.10089910600000002</v>
-      </c>
-      <c r="S8" s="241">
-        <f>B10/P8</f>
-        <v>11.999999999999998</v>
-      </c>
-      <c r="T8" s="241">
-        <f>C10/Q8</f>
-        <v>12</v>
-      </c>
-      <c r="U8" s="241">
-        <f>D10/R8</f>
-        <v>9.8117816821885402</v>
-      </c>
-      <c r="V8" s="36"/>
-      <c r="W8" s="252"/>
-      <c r="X8" s="242">
-        <v>8.0070000000000002E-3</v>
-      </c>
-      <c r="Y8" s="242">
-        <v>1.92699E-2</v>
-      </c>
-      <c r="Z8" s="242">
-        <v>6.6827999999999999E-2</v>
-      </c>
-      <c r="AA8" s="241">
-        <f>B10/X8</f>
-        <v>27.1233870363432</v>
-      </c>
-      <c r="AB8" s="241">
-        <f>C10/Y8</f>
-        <v>14.51660921956004</v>
-      </c>
-      <c r="AC8" s="241">
-        <f>D10/Z8</f>
-        <v>14.814149757586641</v>
-      </c>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-    </row>
-    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5207380372</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="55">
+        <v>4.8920320860000004</v>
+      </c>
+      <c r="G8" s="55">
+        <v>2.3731818179999999</v>
+      </c>
+      <c r="H8" s="55">
+        <v>1</v>
+      </c>
+      <c r="I8" s="290"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="294"/>
+      <c r="M8" s="294"/>
+      <c r="N8" s="294"/>
+      <c r="O8" s="294"/>
+      <c r="P8" s="294"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="283"/>
+      <c r="AB8" s="283"/>
+      <c r="AC8" s="283"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>192</v>
       </c>
       <c r="B9" s="64">
-        <v>0.38781599999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.44887957656689292</v>
       </c>
       <c r="C9" s="64">
-        <v>0.49952429999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.52403783801169279</v>
       </c>
       <c r="D9" s="64">
-        <v>0.99</v>
-      </c>
-      <c r="F9" s="242">
-        <f t="shared" si="1"/>
-        <v>5.4999999999999991</v>
-      </c>
-      <c r="G9" s="242">
         <f t="shared" si="0"/>
-        <v>2.7499999999999996</v>
-      </c>
-      <c r="H9" s="242">
-        <f t="shared" si="0"/>
-        <v>1.2591786492141961</v>
-      </c>
-      <c r="I9" s="299"/>
-      <c r="J9" s="299"/>
-      <c r="K9" s="299"/>
-      <c r="L9" s="299"/>
-      <c r="N9" s="298"/>
-      <c r="O9" s="297"/>
-      <c r="P9" s="243">
-        <v>5.8760000000000001E-3</v>
-      </c>
-      <c r="Q9" s="243">
-        <v>1.5137100000000001E-2</v>
-      </c>
-      <c r="R9" s="243">
-        <v>6.5518900000000005E-2</v>
-      </c>
-      <c r="S9" s="241">
-        <f>B11/P9</f>
-        <v>12</v>
-      </c>
-      <c r="T9" s="241">
-        <f>C11/Q9</f>
-        <v>12</v>
-      </c>
-      <c r="U9" s="241">
-        <f>D11/R9</f>
-        <v>12</v>
-      </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="253"/>
-      <c r="X9" s="242">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="Y9" s="242">
-        <v>1.25129E-2</v>
-      </c>
-      <c r="Z9" s="242">
-        <v>4.3395000000000003E-2</v>
-      </c>
-      <c r="AA9" s="241">
-        <f>B11/X9</f>
-        <v>13.560000000000002</v>
-      </c>
-      <c r="AB9" s="241">
-        <f>C11/Y9</f>
-        <v>14.516634832852496</v>
-      </c>
-      <c r="AC9" s="241">
-        <f>D11/Z9</f>
-        <v>18.117912201866574</v>
-      </c>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-    </row>
-    <row r="10" spans="1:32" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5207380372</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="55">
+        <v>7.1941648320000002</v>
+      </c>
+      <c r="G9" s="55">
+        <v>3.4899732619999999</v>
+      </c>
+      <c r="H9" s="55">
+        <v>1</v>
+      </c>
+      <c r="I9" s="290"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="294"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="294"/>
+      <c r="P9" s="294"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="283"/>
+      <c r="T9" s="283"/>
+      <c r="U9" s="283"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="283"/>
+      <c r="AB9" s="283"/>
+      <c r="AC9" s="283"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="64">
-        <v>0.21717696</v>
-      </c>
-      <c r="C10" s="64">
-        <v>0.27973360800000002</v>
-      </c>
-      <c r="D10" s="64">
-        <v>0.99</v>
-      </c>
-      <c r="F10" s="242">
+      <c r="B10" s="289">
         <f t="shared" si="1"/>
-        <v>3.0799999999999996</v>
-      </c>
-      <c r="G10" s="242">
+        <v>0.20707783810724914</v>
+      </c>
+      <c r="C10" s="289">
         <f t="shared" si="0"/>
-        <v>1.54</v>
-      </c>
-      <c r="H10" s="242">
+        <v>0.24174996650700001</v>
+      </c>
+      <c r="D10" s="289">
         <f t="shared" si="0"/>
-        <v>1.2591786492141961</v>
-      </c>
-      <c r="I10" s="299" t="s">
-        <v>366</v>
-      </c>
-      <c r="J10" s="299"/>
-      <c r="K10" s="299"/>
-      <c r="L10" s="299"/>
-      <c r="N10" s="298"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="292" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q10" s="293"/>
-      <c r="R10" s="294"/>
-      <c r="S10" s="295" t="s">
-        <v>362</v>
-      </c>
-      <c r="T10" s="244"/>
-      <c r="U10" s="244"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="296" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB10" s="245"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="296" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE10" s="245"/>
-      <c r="AF10" s="246"/>
-    </row>
-    <row r="11" spans="1:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+        <v>0.5207380372</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="55">
+        <v>3.3188235289999999</v>
+      </c>
+      <c r="G10" s="55">
+        <v>1.61</v>
+      </c>
+      <c r="H10" s="55">
+        <v>1</v>
+      </c>
+      <c r="I10" s="290"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="294"/>
+      <c r="M10" s="294"/>
+      <c r="N10" s="294"/>
+      <c r="O10" s="294"/>
+      <c r="P10" s="294"/>
+      <c r="Q10" s="287"/>
+      <c r="R10" s="287"/>
+      <c r="S10" s="284"/>
+      <c r="T10" s="285"/>
+      <c r="U10" s="285"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="284"/>
+      <c r="AB10" s="286"/>
+      <c r="AC10" s="286"/>
+      <c r="AD10" s="284"/>
+      <c r="AE10" s="286"/>
+      <c r="AF10" s="286"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="288" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="64">
-        <v>7.0512000000000005E-2</v>
-      </c>
-      <c r="C11" s="64">
-        <v>0.18164520000000001</v>
-      </c>
-      <c r="D11" s="64">
-        <v>0.7862268</v>
-      </c>
-      <c r="F11" s="242">
-        <f t="shared" si="1"/>
+      <c r="B11" s="295">
+        <v>6.2394953000000003E-2</v>
+      </c>
+      <c r="C11" s="295">
+        <v>0.15015525869999999</v>
+      </c>
+      <c r="D11" s="295">
+        <v>0.5207380372</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="55">
         <v>1</v>
       </c>
-      <c r="G11" s="242">
-        <f t="shared" si="0"/>
+      <c r="G11" s="55">
         <v>1</v>
       </c>
-      <c r="H11" s="242">
-        <f t="shared" si="0"/>
+      <c r="H11" s="55">
         <v>1</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="N11" s="298"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="35">
-        <f>P4/P$9</f>
-        <v>3.0800000000000005</v>
-      </c>
-      <c r="Q11" s="35">
-        <f>Q4/Q$9</f>
-        <v>1.54</v>
-      </c>
-      <c r="R11" s="35">
-        <f>R4/R$9</f>
-        <v>1.54</v>
-      </c>
-      <c r="S11" s="241">
-        <f>P11/AD11</f>
-        <v>2.000249781441239</v>
-      </c>
-      <c r="T11" s="241"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="251" t="s">
-        <v>358</v>
-      </c>
-      <c r="X11" s="242">
-        <f>X4*12</f>
-        <v>9.6084000000000003E-2</v>
-      </c>
-      <c r="Y11" s="242">
-        <f t="shared" ref="Y11:Z11" si="2">Y4*12</f>
-        <v>0.23123879999999999</v>
-      </c>
-      <c r="Z11" s="242">
-        <f t="shared" si="2"/>
-        <v>0.80193599999999998</v>
-      </c>
-      <c r="AA11" s="241">
-        <f>B6/X11</f>
-        <v>2.2602822530286</v>
-      </c>
-      <c r="AB11" s="241">
-        <f>C6/Y11</f>
-        <v>1.2097174349633368</v>
-      </c>
-      <c r="AC11" s="241">
-        <f>D6/Z11</f>
-        <v>1.2345124797988867</v>
-      </c>
-      <c r="AD11" s="242">
-        <f>X11/X$16</f>
-        <v>1.5398076923076924</v>
-      </c>
-      <c r="AE11" s="242">
-        <f>Y11/Y$16</f>
-        <v>1.5400027171958537</v>
-      </c>
-      <c r="AF11" s="242">
-        <f>Z11/Z$16</f>
-        <v>1.5399930867611475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N12" s="298"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="35">
-        <f>P5/P$9</f>
-        <v>3.74</v>
-      </c>
-      <c r="Q12" s="35">
-        <f>Q5/Q$9</f>
-        <v>1.87</v>
-      </c>
-      <c r="R12" s="35">
-        <f>R5/R$9</f>
-        <v>1.54</v>
-      </c>
-      <c r="S12" s="241">
-        <f>P12/AD12</f>
-        <v>2.0002056978298879</v>
-      </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="252"/>
-      <c r="X12" s="242">
-        <f t="shared" ref="X12:Z16" si="3">X5*12</f>
-        <v>0.116676</v>
-      </c>
-      <c r="Y12" s="242">
-        <f t="shared" si="3"/>
-        <v>0.2807904</v>
-      </c>
-      <c r="Z12" s="242">
-        <f t="shared" si="3"/>
-        <v>0.97377599999999997</v>
-      </c>
-      <c r="AA12" s="241">
-        <f>B7/X12</f>
-        <v>2.260232438547773</v>
-      </c>
-      <c r="AB12" s="241">
-        <f>C7/Y12</f>
-        <v>1.2097155885671305</v>
-      </c>
-      <c r="AC12" s="241">
-        <f>D7/Z12</f>
-        <v>1.0166609158574458</v>
-      </c>
-      <c r="AD12" s="242">
-        <f>X12/X$16</f>
-        <v>1.8698076923076925</v>
-      </c>
-      <c r="AE12" s="242">
-        <f>Y12/Y$16</f>
-        <v>1.8700061536494337</v>
-      </c>
-      <c r="AF12" s="242">
-        <f>Z12/Z$16</f>
-        <v>1.8699850213158198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N13" s="298"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="35">
-        <f>P6/P$9</f>
-        <v>4.54</v>
-      </c>
-      <c r="Q13" s="35">
-        <f>Q6/Q$9</f>
-        <v>2.27</v>
-      </c>
-      <c r="R13" s="35">
-        <f>R6/R$9</f>
-        <v>1.54</v>
-      </c>
-      <c r="S13" s="241">
-        <f>P13/AD13</f>
-        <v>2.0001694484453107</v>
-      </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="252"/>
-      <c r="X13" s="242">
-        <f t="shared" si="3"/>
-        <v>0.14163599999999998</v>
-      </c>
-      <c r="Y13" s="242">
-        <f t="shared" si="3"/>
-        <v>0.34085280000000001</v>
-      </c>
-      <c r="Z13" s="242">
-        <f t="shared" si="3"/>
-        <v>1.182072</v>
-      </c>
-      <c r="AA13" s="241">
-        <f>B8/X13</f>
-        <v>2.2601914767432012</v>
-      </c>
-      <c r="AB13" s="241">
-        <f>C8/Y13</f>
-        <v>1.2097145864725183</v>
-      </c>
-      <c r="AC13" s="241">
-        <f>D8/Z13</f>
-        <v>0.83751243579071322</v>
-      </c>
-      <c r="AD13" s="242">
-        <f>X13/X$16</f>
-        <v>2.2698076923076922</v>
-      </c>
-      <c r="AE13" s="242">
-        <f>Y13/Y$16</f>
-        <v>2.2700093503504384</v>
-      </c>
-      <c r="AF13" s="242">
-        <f>Z13/Z$16</f>
-        <v>2.2699850213158199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="294"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="294"/>
+      <c r="M11" s="294"/>
+      <c r="N11" s="294"/>
+      <c r="O11" s="294"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="283"/>
+      <c r="T11" s="283"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="283"/>
+      <c r="AB11" s="283"/>
+      <c r="AC11" s="283"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N12" s="292"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="283"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="283"/>
+      <c r="AB12" s="283"/>
+      <c r="AC12" s="283"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="292"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="283"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="283"/>
+      <c r="AB13" s="283"/>
+      <c r="AC13" s="283"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="N14" s="298"/>
+      <c r="N14" s="292"/>
       <c r="O14" s="104"/>
-      <c r="P14" s="35">
-        <f>P7/P$9</f>
-        <v>5.5</v>
-      </c>
-      <c r="Q14" s="35">
-        <f>Q7/Q$9</f>
-        <v>2.7499999999999996</v>
-      </c>
-      <c r="R14" s="35">
-        <f>R7/R$9</f>
-        <v>1.54</v>
-      </c>
-      <c r="S14" s="241">
-        <f>P14/AD14</f>
-        <v>2.0001398699209738</v>
-      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="283"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="252"/>
-      <c r="X14" s="242">
-        <f t="shared" si="3"/>
-        <v>0.17158799999999999</v>
-      </c>
-      <c r="Y14" s="242">
-        <f t="shared" si="3"/>
-        <v>0.41292719999999999</v>
-      </c>
-      <c r="Z14" s="242">
-        <f t="shared" si="3"/>
-        <v>1.432032</v>
-      </c>
-      <c r="AA14" s="241">
-        <f>B9/X14</f>
-        <v>2.2601580530106999</v>
-      </c>
-      <c r="AB14" s="241">
-        <f>C9/Y14</f>
-        <v>1.2097151749751529</v>
-      </c>
-      <c r="AC14" s="241">
-        <f>D9/Z14</f>
-        <v>0.69132533351210035</v>
-      </c>
-      <c r="AD14" s="242">
-        <f>X14/X$16</f>
-        <v>2.7498076923076922</v>
-      </c>
-      <c r="AE14" s="242">
-        <f>Y14/Y$16</f>
-        <v>2.7500099896906391</v>
-      </c>
-      <c r="AF14" s="242">
-        <f>Z14/Z$16</f>
-        <v>2.7499942389676231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="283"/>
+      <c r="AB14" s="283"/>
+      <c r="AC14" s="283"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="N15" s="298"/>
+      <c r="N15" s="292"/>
       <c r="O15" s="104"/>
-      <c r="P15" s="35">
-        <f>P8/P$9</f>
-        <v>3.0800000000000005</v>
-      </c>
-      <c r="Q15" s="35">
-        <f>Q8/Q$9</f>
-        <v>1.54</v>
-      </c>
-      <c r="R15" s="35">
-        <f>R8/R$9</f>
-        <v>1.54</v>
-      </c>
-      <c r="S15" s="241">
-        <f>P15/AD15</f>
-        <v>2.000249781441239</v>
-      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="283"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="252"/>
-      <c r="X15" s="242">
-        <f t="shared" si="3"/>
-        <v>9.6084000000000003E-2</v>
-      </c>
-      <c r="Y15" s="242">
-        <f t="shared" si="3"/>
-        <v>0.23123879999999999</v>
-      </c>
-      <c r="Z15" s="242">
-        <f t="shared" si="3"/>
-        <v>0.80193599999999998</v>
-      </c>
-      <c r="AA15" s="241">
-        <f>B10/X15</f>
-        <v>2.2602822530286</v>
-      </c>
-      <c r="AB15" s="241">
-        <f>C10/Y15</f>
-        <v>1.2097174349633368</v>
-      </c>
-      <c r="AC15" s="241">
-        <f>D10/Z15</f>
-        <v>1.2345124797988867</v>
-      </c>
-      <c r="AD15" s="242">
-        <f>X15/X$16</f>
-        <v>1.5398076923076924</v>
-      </c>
-      <c r="AE15" s="242">
-        <f>Y15/Y$16</f>
-        <v>1.5400027171958537</v>
-      </c>
-      <c r="AF15" s="242">
-        <f>Z15/Z$16</f>
-        <v>1.5399930867611475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V15" s="1"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="283"/>
+      <c r="AB15" s="283"/>
+      <c r="AC15" s="283"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="N16" s="298"/>
+      <c r="N16" s="292"/>
       <c r="O16" s="104"/>
-      <c r="P16" s="36">
-        <f>P9/P$9</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="36">
-        <f>Q9/Q$9</f>
-        <v>1</v>
-      </c>
-      <c r="R16" s="36">
-        <f>R9/R$9</f>
-        <v>1</v>
-      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="253"/>
-      <c r="X16" s="242">
-        <f t="shared" si="3"/>
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="Y16" s="242">
-        <f t="shared" si="3"/>
-        <v>0.1501548</v>
-      </c>
-      <c r="Z16" s="242">
-        <f t="shared" si="3"/>
-        <v>0.52073999999999998</v>
-      </c>
-      <c r="AA16" s="241">
-        <f>B11/X16</f>
-        <v>1.1300000000000001</v>
-      </c>
-      <c r="AB16" s="241">
-        <f>C11/Y16</f>
-        <v>1.2097195694043748</v>
-      </c>
-      <c r="AC16" s="241">
-        <f>D11/Z16</f>
-        <v>1.5098260168222146</v>
-      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="283"/>
+      <c r="AB16" s="283"/>
+      <c r="AC16" s="283"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -11101,7 +10658,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="56">
-        <f t="shared" ref="B23:B28" si="4">20-4</f>
+        <f t="shared" ref="B23:B28" si="2">20-4</f>
         <v>16</v>
       </c>
       <c r="C23" s="56">
@@ -11120,7 +10677,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C24" s="56">
@@ -11139,7 +10696,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C25" s="56">
@@ -11158,7 +10715,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C26" s="56">
@@ -11177,7 +10734,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C27" s="56">
@@ -11196,7 +10753,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C28" s="56">
@@ -11271,7 +10828,7 @@
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -11299,7 +10856,7 @@
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -11355,11 +10912,11 @@
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
-      <c r="B38" s="247" t="s">
+      <c r="B38" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="247"/>
-      <c r="D38" s="247"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="241"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38" t="s">
@@ -11490,10 +11047,10 @@
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
-      <c r="G44" s="290" t="s">
+      <c r="G44" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="290"/>
+      <c r="H44" s="245"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
     </row>
@@ -11620,18 +11177,11 @@
       <c r="J53" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="4">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="O4:O9"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="W4:W9"/>
-    <mergeCell ref="W11:W16"/>
-    <mergeCell ref="I4:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="N4:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11670,7 +11220,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -11893,7 +11443,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -12224,7 +11774,7 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -12418,7 +11968,7 @@
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -12620,7 +12170,7 @@
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -12738,7 +12288,7 @@
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -12789,7 +12339,7 @@
     </row>
     <row r="57" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B57" s="56">
         <v>55</v>
@@ -16315,7 +15865,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -16381,7 +15931,7 @@
     </row>
     <row r="3" spans="1:75" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -16410,7 +15960,7 @@
         <v>178</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>187</v>
@@ -20204,7 +19754,7 @@
     </row>
     <row r="23" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -20233,7 +19783,7 @@
         <v>178</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24" s="91" t="s">
         <v>187</v>
@@ -20519,7 +20069,7 @@
         <v>181</v>
       </c>
       <c r="AC30" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
@@ -21495,7 +21045,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -21575,7 +21125,7 @@
         <v>178</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F44" s="91" t="s">
         <v>187</v>
@@ -21962,7 +21512,7 @@
         <v>181</v>
       </c>
       <c r="AC49" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
@@ -23194,7 +22744,7 @@
     </row>
     <row r="71" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" s="82"/>
       <c r="C71" s="82"/>
@@ -23230,10 +22780,10 @@
       <c r="AG71" s="10"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="254" t="s">
+      <c r="A72" s="247" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="254"/>
+      <c r="B72" s="247"/>
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="I72" s="80"/>
@@ -23341,7 +22891,7 @@
     </row>
     <row r="82" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B82" s="82"/>
       <c r="C82" s="82"/>
@@ -23410,10 +22960,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="255" t="s">
+      <c r="A84" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="255"/>
+      <c r="B84" s="248"/>
       <c r="C84" s="80"/>
       <c r="D84" s="80"/>
       <c r="E84" s="80"/>
@@ -23541,7 +23091,7 @@
     </row>
     <row r="94" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -23576,7 +23126,7 @@
     </row>
     <row r="95" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -23868,45 +23418,45 @@
   <sheetData>
     <row r="1" spans="1:65" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="169" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="171" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="171" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="168" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -24140,7 +23690,7 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B11" s="157" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" s="128">
         <v>0.59145199999999998</v>
@@ -24334,7 +23884,7 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B12" s="158" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="130">
         <v>0.43646124999999997</v>
@@ -24528,7 +24078,7 @@
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B13" s="158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="130">
         <v>0.26398274999999999</v>
@@ -24722,7 +24272,7 @@
     </row>
     <row r="14" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="159" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="132">
         <v>0.23293700000000003</v>
@@ -24916,7 +24466,7 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16" s="111"/>
       <c r="M16" s="111"/>
@@ -24924,7 +24474,7 @@
     <row r="17" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="153"/>
       <c r="C17" s="154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" s="155" t="s">
         <v>172</v>
@@ -24933,7 +24483,7 @@
         <v>178</v>
       </c>
       <c r="F17" s="155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M17" s="111"/>
     </row>
@@ -24975,7 +24525,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" s="151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="153">
         <v>0.36799999999999999</v>
@@ -25015,10 +24565,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
@@ -25043,7 +24593,7 @@
         <v>178</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24" s="91" t="s">
         <v>187</v>
@@ -25070,7 +24620,7 @@
         <v>178</v>
       </c>
       <c r="P24" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="91" t="s">
         <v>187</v>
@@ -25087,10 +24637,10 @@
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="146">
         <f t="array" ref="C25:C28">(C$18/SUM(C$18:C$20))*(E11:E14 + F11:F14 +G11:G14) + (C19/SUM(C$18:C$20))*(Z11:Z14 + AA11:AA14 + AB11:AB14) + (C$20/SUM(C$18:C$20))*(Z11:Z14+AA11:AA14 +AB11:AB14)*0.95</f>
@@ -25125,7 +24675,7 @@
         <v>0.10196696743063932</v>
       </c>
       <c r="L25" s="145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M25" s="148">
         <f t="array" ref="M25:M28">((AU11:AU14 + AV11:AV14 + AW11:AW14) - (Z11:Z14+AA11:AA14 +AB11:AB14)*0.95*(C20/SUM(C20:C21)))/(1-(C20/SUM(C20:C21)))</f>
@@ -25162,7 +24712,7 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="143" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="80">
         <v>0.13448278127147767</v>
@@ -25189,7 +24739,7 @@
         <v>7.8506747135102528E-2</v>
       </c>
       <c r="L26" s="143" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M26" s="80">
         <v>3.9348954066985652E-2</v>
@@ -25218,7 +24768,7 @@
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="80">
         <v>9.6298402061855651E-2</v>
@@ -25245,7 +24795,7 @@
         <v>2.746671079613993E-2</v>
       </c>
       <c r="L27" s="143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M27" s="80">
         <v>2.7719267942583732E-2</v>
@@ -25274,7 +24824,7 @@
     </row>
     <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="144" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="109">
         <v>9.6298402061855637E-2</v>
@@ -25301,7 +24851,7 @@
         <v>1.4065155609167674E-2</v>
       </c>
       <c r="L28" s="144" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M28" s="109">
         <v>2.7719267942583746E-2</v>
@@ -25330,7 +24880,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
@@ -25347,7 +24897,7 @@
         <v>178</v>
       </c>
       <c r="F31" s="140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G31" s="142" t="s">
         <v>187</v>
@@ -25375,7 +24925,7 @@
         <v>178</v>
       </c>
       <c r="P31" s="140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="142" t="s">
         <v>187</v>
@@ -25394,7 +24944,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="172" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C32" s="173">
         <f t="shared" ref="C32:J34" si="0">C26/C$25</f>
@@ -25430,7 +24980,7 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="172" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M32" s="173">
         <f t="shared" ref="M32:T32" si="1">M26/M$25</f>
@@ -25469,7 +25019,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B33" s="160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" s="173">
         <f t="shared" si="0"/>
@@ -25505,7 +25055,7 @@
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M33" s="173">
         <f t="shared" ref="M33:T33" si="2">M27/M$25</f>
@@ -25542,7 +25092,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" s="161" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34" s="173">
         <f t="shared" si="0"/>
@@ -25578,7 +25128,7 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="161" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M34" s="173">
         <f t="shared" ref="M34:T34" si="3">M28/M$25</f>
@@ -25619,7 +25169,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -25656,7 +25206,7 @@
         <v>178</v>
       </c>
       <c r="F37" s="140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G37" s="142" t="s">
         <v>187</v>
@@ -25673,10 +25223,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C38" s="174">
         <f>AVERAGE(C32,M32)</f>
@@ -25713,7 +25263,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B39" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="174">
         <f t="shared" ref="C39:C40" si="5">AVERAGE(C33,M33)</f>
@@ -25750,7 +25300,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B40" s="150" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="174">
         <f t="shared" si="5"/>
@@ -26176,21 +25726,21 @@
   <sheetData>
     <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="201"/>
-      <c r="C1" s="271" t="s">
+      <c r="C1" s="267" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="268" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="272" t="s">
+      <c r="G1" s="254"/>
+      <c r="H1" s="208" t="s">
         <v>250</v>
-      </c>
-      <c r="G1" s="266"/>
-      <c r="H1" s="208" t="s">
-        <v>251</v>
       </c>
       <c r="I1" s="207"/>
       <c r="J1" s="206" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K1" s="205"/>
       <c r="L1" s="205"/>
@@ -26201,503 +25751,503 @@
       <c r="Q1" s="205"/>
       <c r="R1" s="205"/>
       <c r="S1" s="205"/>
-      <c r="T1" s="273" t="s">
+      <c r="T1" s="269" t="s">
+        <v>252</v>
+      </c>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="270" t="s">
         <v>253</v>
       </c>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="274" t="s">
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="254"/>
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="Z1" s="266"/>
-      <c r="AA1" s="266"/>
-      <c r="AB1" s="266"/>
-      <c r="AC1" s="275" t="s">
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="254"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="262" t="s">
         <v>255</v>
       </c>
-      <c r="AD1" s="266"/>
-      <c r="AE1" s="266"/>
-      <c r="AF1" s="266"/>
-      <c r="AG1" s="276" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="269" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ1" s="263"/>
-      <c r="AK1" s="263"/>
-      <c r="AL1" s="263"/>
-      <c r="AM1" s="284" t="s">
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="272" t="s">
         <v>347</v>
       </c>
-      <c r="AN1" s="284"/>
-      <c r="AO1" s="284"/>
-      <c r="AP1" s="285" t="s">
+      <c r="AJ1" s="273"/>
+      <c r="AK1" s="273"/>
+      <c r="AL1" s="273"/>
+      <c r="AM1" s="251" t="s">
         <v>346</v>
       </c>
-      <c r="AQ1" s="285"/>
+      <c r="AN1" s="251"/>
+      <c r="AO1" s="251"/>
+      <c r="AP1" s="252" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ1" s="252"/>
     </row>
     <row r="2" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="177" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="254" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="257" t="s">
+      <c r="G2" s="254"/>
+      <c r="H2" s="263" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="257" t="s">
+      <c r="I2" s="254"/>
+      <c r="J2" s="263" t="s">
         <v>260</v>
       </c>
-      <c r="I2" s="266"/>
-      <c r="J2" s="257" t="s">
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="263" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="266"/>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="257" t="s">
+      <c r="U2" s="254"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="254"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="263" t="s">
         <v>262</v>
       </c>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
-      <c r="Y2" s="257" t="s">
+      <c r="Z2" s="254"/>
+      <c r="AA2" s="254"/>
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="263" t="s">
         <v>263</v>
       </c>
-      <c r="Z2" s="266"/>
-      <c r="AA2" s="266"/>
-      <c r="AB2" s="266"/>
-      <c r="AC2" s="257" t="s">
+      <c r="AD2" s="254"/>
+      <c r="AE2" s="254"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="263" t="s">
         <v>264</v>
       </c>
-      <c r="AD2" s="266"/>
-      <c r="AE2" s="266"/>
-      <c r="AF2" s="266"/>
-      <c r="AG2" s="257" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="270" t="s">
-        <v>344</v>
-      </c>
-      <c r="AJ2" s="263"/>
-      <c r="AK2" s="263"/>
-      <c r="AL2" s="263"/>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="274" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ2" s="273"/>
+      <c r="AK2" s="273"/>
+      <c r="AL2" s="273"/>
       <c r="AM2" s="176" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AP2" s="176" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="177" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="201"/>
+      <c r="C3" s="264" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="277" t="s">
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="264" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="254"/>
+      <c r="H3" s="255" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="277" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="266"/>
-      <c r="H3" s="258" t="s">
+      <c r="I3" s="254"/>
+      <c r="J3" s="255" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="266"/>
-      <c r="J3" s="258" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="266"/>
-      <c r="S3" s="266"/>
-      <c r="T3" s="258" t="s">
+      <c r="U3" s="254"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="255" t="s">
         <v>269</v>
       </c>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="258" t="s">
+      <c r="Z3" s="254"/>
+      <c r="AA3" s="255" t="s">
         <v>270</v>
       </c>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="258" t="s">
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="255" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD3" s="254"/>
+      <c r="AE3" s="255" t="s">
         <v>271</v>
       </c>
-      <c r="AB3" s="266"/>
-      <c r="AC3" s="258" t="s">
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="255" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH3" s="254"/>
+      <c r="AI3" s="275" t="s">
         <v>270</v>
       </c>
-      <c r="AD3" s="266"/>
-      <c r="AE3" s="258" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF3" s="266"/>
-      <c r="AG3" s="258" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="262" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ3" s="263"/>
-      <c r="AK3" s="262" t="s">
-        <v>353</v>
-      </c>
-      <c r="AL3" s="263"/>
+      <c r="AJ3" s="273"/>
+      <c r="AK3" s="275" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL3" s="273"/>
       <c r="AM3" s="176" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AP3" s="176" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="222" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="201"/>
       <c r="C4" s="224" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="256">
+        <v>339</v>
+      </c>
+      <c r="F4" s="276">
         <v>181</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="257" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="258"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="263" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="255"/>
       <c r="J4" s="222" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T4" s="222" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y4" s="222" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA4" s="177"/>
       <c r="AC4" s="222" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AE4" s="177"/>
       <c r="AG4" s="222" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AI4" s="223" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AK4" s="221"/>
       <c r="AM4" s="176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AP4" s="176" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="177" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="201"/>
+      <c r="C5" s="264" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="277" t="s">
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="255" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="258" t="s">
+      <c r="G5" s="254"/>
+      <c r="H5" s="255" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="266"/>
-      <c r="H5" s="258" t="s">
+      <c r="I5" s="254"/>
+      <c r="J5" s="255" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="254"/>
+      <c r="L5" s="255" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="254"/>
+      <c r="N5" s="277" t="s">
+        <v>325</v>
+      </c>
+      <c r="O5" s="277"/>
+      <c r="P5" s="255" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="255" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="254"/>
+      <c r="T5" s="255" t="s">
         <v>277</v>
       </c>
-      <c r="I5" s="266"/>
-      <c r="J5" s="258" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="266"/>
-      <c r="L5" s="258" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="266"/>
-      <c r="N5" s="259" t="s">
-        <v>326</v>
-      </c>
-      <c r="O5" s="259"/>
-      <c r="P5" s="258" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="258" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="266"/>
-      <c r="T5" s="258" t="s">
+      <c r="U5" s="254"/>
+      <c r="V5" s="254"/>
+      <c r="W5" s="254"/>
+      <c r="X5" s="254"/>
+      <c r="Y5" s="255" t="s">
         <v>278</v>
       </c>
-      <c r="U5" s="266"/>
-      <c r="V5" s="266"/>
-      <c r="W5" s="266"/>
-      <c r="X5" s="266"/>
-      <c r="Y5" s="258" t="s">
+      <c r="Z5" s="254"/>
+      <c r="AA5" s="254"/>
+      <c r="AB5" s="254"/>
+      <c r="AC5" s="255" t="s">
         <v>279</v>
       </c>
-      <c r="Z5" s="266"/>
-      <c r="AA5" s="266"/>
-      <c r="AB5" s="266"/>
-      <c r="AC5" s="258" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD5" s="266"/>
-      <c r="AE5" s="266"/>
-      <c r="AF5" s="266"/>
-      <c r="AG5" s="258" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH5" s="266"/>
-      <c r="AI5" s="262" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ5" s="263"/>
-      <c r="AK5" s="263"/>
-      <c r="AL5" s="263"/>
+      <c r="AD5" s="254"/>
+      <c r="AE5" s="254"/>
+      <c r="AF5" s="254"/>
+      <c r="AG5" s="255" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH5" s="254"/>
+      <c r="AI5" s="275" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ5" s="273"/>
+      <c r="AK5" s="273"/>
+      <c r="AL5" s="273"/>
       <c r="AM5" s="176" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AP5" s="176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AQ5" s="176" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="177" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="255" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="258" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="281" t="s">
-        <v>352</v>
-      </c>
-      <c r="G6" s="266"/>
-      <c r="H6" s="258" t="s">
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="261" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="254"/>
+      <c r="H6" s="255" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="254"/>
+      <c r="J6" s="255" t="s">
         <v>284</v>
       </c>
-      <c r="I6" s="266"/>
-      <c r="J6" s="258" t="s">
+      <c r="K6" s="255"/>
+      <c r="L6" s="255"/>
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255" t="s">
         <v>285</v>
       </c>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258" t="s">
+      <c r="Q6" s="254"/>
+      <c r="R6" s="254"/>
+      <c r="S6" s="254"/>
+      <c r="T6" s="255" t="s">
         <v>286</v>
       </c>
-      <c r="Q6" s="266"/>
-      <c r="R6" s="266"/>
-      <c r="S6" s="266"/>
-      <c r="T6" s="258" t="s">
+      <c r="U6" s="254"/>
+      <c r="V6" s="255" t="s">
         <v>287</v>
       </c>
-      <c r="U6" s="266"/>
-      <c r="V6" s="258" t="s">
-        <v>288</v>
-      </c>
-      <c r="W6" s="266"/>
-      <c r="X6" s="266"/>
-      <c r="Y6" s="258" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z6" s="266"/>
-      <c r="AA6" s="266"/>
-      <c r="AB6" s="266"/>
-      <c r="AC6" s="258" t="s">
+      <c r="W6" s="254"/>
+      <c r="X6" s="254"/>
+      <c r="Y6" s="255" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z6" s="254"/>
+      <c r="AA6" s="254"/>
+      <c r="AB6" s="254"/>
+      <c r="AC6" s="255" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD6" s="254"/>
+      <c r="AE6" s="254"/>
+      <c r="AF6" s="254"/>
+      <c r="AG6" s="255" t="s">
         <v>290</v>
       </c>
-      <c r="AD6" s="266"/>
-      <c r="AE6" s="266"/>
-      <c r="AF6" s="266"/>
-      <c r="AG6" s="258" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH6" s="266"/>
-      <c r="AI6" s="262" t="s">
-        <v>321</v>
-      </c>
-      <c r="AJ6" s="263"/>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="263"/>
+      <c r="AH6" s="254"/>
+      <c r="AI6" s="275" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ6" s="273"/>
+      <c r="AK6" s="273"/>
+      <c r="AL6" s="273"/>
       <c r="AM6" s="176" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AP6" s="215" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="51" x14ac:dyDescent="0.2">
       <c r="B7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="201" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="201" t="s">
+      <c r="D7" s="201" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="E7" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="201" t="s">
+      <c r="F7" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="201" t="s">
         <v>295</v>
       </c>
-      <c r="F7" s="201" t="s">
+      <c r="H7" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="G7" s="201" t="s">
+      <c r="J7" s="201" t="s">
         <v>296</v>
       </c>
-      <c r="H7" s="201" t="s">
-        <v>294</v>
-      </c>
-      <c r="I7" s="201" t="s">
+      <c r="K7" s="201" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="201" t="s">
+        <v>298</v>
+      </c>
+      <c r="M7" s="201" t="s">
+        <v>299</v>
+      </c>
+      <c r="N7" s="201" t="s">
+        <v>298</v>
+      </c>
+      <c r="O7" s="201" t="s">
+        <v>299</v>
+      </c>
+      <c r="P7" s="201" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q7" s="201" t="s">
+        <v>297</v>
+      </c>
+      <c r="R7" s="201" t="s">
+        <v>298</v>
+      </c>
+      <c r="S7" s="201" t="s">
+        <v>299</v>
+      </c>
+      <c r="T7" s="201" t="s">
+        <v>292</v>
+      </c>
+      <c r="U7" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="V7" s="201" t="s">
+        <v>292</v>
+      </c>
+      <c r="W7" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="X7" s="201" t="s">
         <v>295</v>
       </c>
-      <c r="J7" s="201" t="s">
-        <v>297</v>
-      </c>
-      <c r="K7" s="201" t="s">
-        <v>298</v>
-      </c>
-      <c r="L7" s="201" t="s">
-        <v>299</v>
-      </c>
-      <c r="M7" s="201" t="s">
-        <v>300</v>
-      </c>
-      <c r="N7" s="201" t="s">
-        <v>299</v>
-      </c>
-      <c r="O7" s="201" t="s">
-        <v>300</v>
-      </c>
-      <c r="P7" s="201" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q7" s="201" t="s">
-        <v>298</v>
-      </c>
-      <c r="R7" s="201" t="s">
-        <v>299</v>
-      </c>
-      <c r="S7" s="201" t="s">
-        <v>300</v>
-      </c>
-      <c r="T7" s="201" t="s">
+      <c r="Y7" s="201" t="s">
         <v>293</v>
       </c>
-      <c r="U7" s="201" t="s">
-        <v>294</v>
-      </c>
-      <c r="V7" s="201" t="s">
+      <c r="Z7" s="200" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA7" s="201" t="s">
         <v>293</v>
       </c>
-      <c r="W7" s="201" t="s">
-        <v>294</v>
-      </c>
-      <c r="X7" s="201" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y7" s="201" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z7" s="200" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA7" s="201" t="s">
-        <v>294</v>
-      </c>
       <c r="AB7" s="200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AC7" s="201" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD7" s="200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE7" s="201" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF7" s="200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG7" s="200" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH7" s="200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AI7" s="239" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AJ7" s="239" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK7" s="239" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL7" s="239" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AM7" s="239" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN7" s="239" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO7" s="200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AP7" s="200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AQ7" s="200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="230" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" s="229"/>
       <c r="C8" s="231"/>
@@ -26742,7 +26292,7 @@
     </row>
     <row r="9" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" s="177">
         <v>16</v>
@@ -26808,7 +26358,7 @@
     </row>
     <row r="10" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="177">
         <v>18</v>
@@ -26872,8 +26422,8 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="280" t="s">
-        <v>304</v>
+      <c r="A11" s="250" t="s">
+        <v>303</v>
       </c>
       <c r="B11" s="177">
         <v>31</v>
@@ -26885,14 +26435,14 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E11" s="279">
+      <c r="E11" s="259">
         <f>SUM(D11:D15)</f>
         <v>0.30541871921182273</v>
       </c>
       <c r="H11" s="177">
         <v>7.3</v>
       </c>
-      <c r="I11" s="279">
+      <c r="I11" s="259">
         <f>(SUM(H11:H15)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.38227528089887641</v>
       </c>
@@ -26906,21 +26456,21 @@
         <f>V11/SUM(V9:V26)</f>
         <v>7.2289156626506035E-2</v>
       </c>
-      <c r="X11" s="265">
+      <c r="X11" s="260">
         <f>SUM(W11:W15)</f>
         <v>0.37349397590361455</v>
       </c>
       <c r="Y11" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z11" s="258">
+      <c r="Z11" s="255">
         <f>SUM(Y11:Y15)/100</f>
         <v>0.36799999999999999</v>
       </c>
       <c r="AA11" s="177">
         <v>8</v>
       </c>
-      <c r="AB11" s="258">
+      <c r="AB11" s="255">
         <f>SUM(AA11:AA15)/100</f>
         <v>0.318</v>
       </c>
@@ -26931,13 +26481,13 @@
         <f t="shared" ref="AN11:AN26" si="1">AM11/SUM(AM$9:AM$26)</f>
         <v>4.2282672974571271E-2</v>
       </c>
-      <c r="AO11" s="283">
+      <c r="AO11" s="249">
         <f>SUM(AN11:AN15)</f>
         <v>0.30829883698009075</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="280"/>
+      <c r="A12" s="250"/>
       <c r="B12" s="177">
         <v>33</v>
       </c>
@@ -26948,11 +26498,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E12" s="266"/>
+      <c r="E12" s="254"/>
       <c r="H12" s="177">
         <v>6.6</v>
       </c>
-      <c r="I12" s="266"/>
+      <c r="I12" s="254"/>
       <c r="T12" s="177">
         <v>0.7</v>
       </c>
@@ -26963,15 +26513,15 @@
         <f>V12/SUM(V9:V26)</f>
         <v>4.8192771084337359E-2</v>
       </c>
-      <c r="X12" s="266"/>
+      <c r="X12" s="254"/>
       <c r="Y12" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z12" s="266"/>
+      <c r="Z12" s="254"/>
       <c r="AA12" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB12" s="266"/>
+      <c r="AB12" s="254"/>
       <c r="AM12" s="176">
         <v>6.03</v>
       </c>
@@ -26979,10 +26529,10 @@
         <f t="shared" si="1"/>
         <v>5.9432288586635143E-2</v>
       </c>
-      <c r="AO12" s="280"/>
+      <c r="AO12" s="250"/>
     </row>
     <row r="13" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="280"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="177">
         <v>45</v>
       </c>
@@ -26993,11 +26543,11 @@
         <f t="shared" si="0"/>
         <v>7.3891625615763554E-2</v>
       </c>
-      <c r="E13" s="266"/>
+      <c r="E13" s="254"/>
       <c r="H13" s="177">
         <v>6.1</v>
       </c>
-      <c r="I13" s="266"/>
+      <c r="I13" s="254"/>
       <c r="T13" s="177">
         <v>0.7</v>
       </c>
@@ -27008,15 +26558,15 @@
         <f>V13/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X13" s="266"/>
+      <c r="X13" s="254"/>
       <c r="Y13" s="177">
         <v>5.9</v>
       </c>
-      <c r="Z13" s="266"/>
+      <c r="Z13" s="254"/>
       <c r="AA13" s="177">
         <v>4.8</v>
       </c>
-      <c r="AB13" s="266"/>
+      <c r="AB13" s="254"/>
       <c r="AM13" s="176">
         <v>7.46</v>
       </c>
@@ -27024,10 +26574,10 @@
         <f t="shared" si="1"/>
         <v>7.3526512911492231E-2</v>
       </c>
-      <c r="AO13" s="280"/>
+      <c r="AO13" s="250"/>
     </row>
     <row r="14" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="280"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="177">
         <v>52</v>
       </c>
@@ -27038,11 +26588,11 @@
         <f t="shared" si="0"/>
         <v>6.4039408866995079E-2</v>
       </c>
-      <c r="E14" s="266"/>
+      <c r="E14" s="254"/>
       <c r="H14" s="177">
         <v>12.9</v>
       </c>
-      <c r="I14" s="266"/>
+      <c r="I14" s="254"/>
       <c r="T14" s="177">
         <v>3.2</v>
       </c>
@@ -27053,15 +26603,15 @@
         <f>V14/SUM(V9:V26)</f>
         <v>0.18072289156626509</v>
       </c>
-      <c r="X14" s="266"/>
+      <c r="X14" s="254"/>
       <c r="Y14" s="177">
         <v>8.6</v>
       </c>
-      <c r="Z14" s="266"/>
+      <c r="Z14" s="254"/>
       <c r="AA14" s="177">
         <v>8</v>
       </c>
-      <c r="AB14" s="266"/>
+      <c r="AB14" s="254"/>
       <c r="AM14" s="176">
         <v>5.64</v>
       </c>
@@ -27069,10 +26619,10 @@
         <f t="shared" si="1"/>
         <v>5.5588409225310477E-2</v>
       </c>
-      <c r="AO14" s="280"/>
+      <c r="AO14" s="250"/>
     </row>
     <row r="15" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="280"/>
+      <c r="A15" s="250"/>
       <c r="B15" s="177">
         <v>58</v>
       </c>
@@ -27083,11 +26633,11 @@
         <f t="shared" si="0"/>
         <v>7.8817733990147798E-2</v>
       </c>
-      <c r="E15" s="266"/>
+      <c r="E15" s="254"/>
       <c r="H15" s="177">
         <v>11</v>
       </c>
-      <c r="I15" s="266"/>
+      <c r="I15" s="254"/>
       <c r="T15" s="177">
         <v>0.6</v>
       </c>
@@ -27098,15 +26648,15 @@
         <f>V15/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X15" s="266"/>
+      <c r="X15" s="254"/>
       <c r="Y15" s="177">
         <v>10.7</v>
       </c>
-      <c r="Z15" s="266"/>
+      <c r="Z15" s="254"/>
       <c r="AA15" s="177">
         <v>6.3</v>
       </c>
-      <c r="AB15" s="266"/>
+      <c r="AB15" s="254"/>
       <c r="AM15" s="176">
         <v>7.86</v>
       </c>
@@ -27114,11 +26664,11 @@
         <f t="shared" si="1"/>
         <v>7.7468953282081629E-2</v>
       </c>
-      <c r="AO15" s="280"/>
+      <c r="AO15" s="250"/>
     </row>
     <row r="16" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="278" t="s">
-        <v>305</v>
+      <c r="A16" s="253" t="s">
+        <v>304</v>
       </c>
       <c r="B16" s="177">
         <v>26</v>
@@ -27130,24 +26680,24 @@
         <f t="shared" si="0"/>
         <v>9.8522167487684748E-3</v>
       </c>
-      <c r="E16" s="279">
+      <c r="E16" s="259">
         <f>SUM(D16:D26)</f>
         <v>0.53694581280788167</v>
       </c>
-      <c r="I16" s="279">
+      <c r="I16" s="259">
         <f>(SUM(H16:H26)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.39272471910112366</v>
       </c>
       <c r="W16" s="196"/>
-      <c r="X16" s="265">
+      <c r="X16" s="260">
         <f>SUM(V16:V26)/SUM(V9:V26)</f>
         <v>0.46987951807228928</v>
       </c>
-      <c r="Z16" s="267">
+      <c r="Z16" s="256">
         <f>1-SUM(Z9:Z15)</f>
         <v>0.41799999999999993</v>
       </c>
-      <c r="AB16" s="267">
+      <c r="AB16" s="256">
         <f>1-SUM(AB9:AB15)</f>
         <v>0.39400000000000002</v>
       </c>
@@ -27158,13 +26708,13 @@
         <f t="shared" si="1"/>
         <v>1.872659176029963E-2</v>
       </c>
-      <c r="AO16" s="283">
+      <c r="AO16" s="249">
         <f>SUM(AN16:AN26)</f>
         <v>0.52661147250147844</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="266"/>
+      <c r="A17" s="254"/>
       <c r="B17" s="177">
         <v>35</v>
       </c>
@@ -27175,11 +26725,11 @@
         <f t="shared" si="0"/>
         <v>9.3596059113300503E-2</v>
       </c>
-      <c r="E17" s="266"/>
+      <c r="E17" s="254"/>
       <c r="H17" s="177">
         <v>10.4</v>
       </c>
-      <c r="I17" s="266"/>
+      <c r="I17" s="254"/>
       <c r="T17" s="177">
         <v>1.9</v>
       </c>
@@ -27190,15 +26740,15 @@
         <f>V17/SUM(V9:V26)</f>
         <v>0.13253012048192775</v>
       </c>
-      <c r="X17" s="266"/>
+      <c r="X17" s="254"/>
       <c r="Y17" s="177">
         <v>6.6</v>
       </c>
-      <c r="Z17" s="266"/>
+      <c r="Z17" s="254"/>
       <c r="AA17" s="177">
         <v>3.4</v>
       </c>
-      <c r="AB17" s="266"/>
+      <c r="AB17" s="254"/>
       <c r="AM17" s="176">
         <v>6.59</v>
       </c>
@@ -27206,10 +26756,10 @@
         <f t="shared" si="1"/>
         <v>6.4951705105460292E-2</v>
       </c>
-      <c r="AO17" s="283"/>
+      <c r="AO17" s="249"/>
     </row>
     <row r="18" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="266"/>
+      <c r="A18" s="254"/>
       <c r="B18" s="177">
         <v>39</v>
       </c>
@@ -27220,11 +26770,11 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E18" s="266"/>
+      <c r="E18" s="254"/>
       <c r="H18" s="177">
         <v>6.1</v>
       </c>
-      <c r="I18" s="266"/>
+      <c r="I18" s="254"/>
       <c r="T18" s="177">
         <v>0.6</v>
       </c>
@@ -27235,12 +26785,12 @@
         <f>V18/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X18" s="266"/>
-      <c r="Z18" s="266"/>
+      <c r="X18" s="254"/>
+      <c r="Z18" s="254"/>
       <c r="AA18" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB18" s="266"/>
+      <c r="AB18" s="254"/>
       <c r="AM18" s="176">
         <v>5</v>
       </c>
@@ -27248,10 +26798,10 @@
         <f t="shared" si="1"/>
         <v>4.9280504632367446E-2</v>
       </c>
-      <c r="AO18" s="283"/>
+      <c r="AO18" s="249"/>
     </row>
     <row r="19" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="266"/>
+      <c r="A19" s="254"/>
       <c r="B19" s="177">
         <v>51</v>
       </c>
@@ -27262,11 +26812,11 @@
         <f t="shared" si="0"/>
         <v>4.9261083743842374E-2</v>
       </c>
-      <c r="E19" s="266"/>
+      <c r="E19" s="254"/>
       <c r="H19" s="177">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I19" s="266"/>
+      <c r="I19" s="254"/>
       <c r="T19" s="177">
         <v>2.1</v>
       </c>
@@ -27277,12 +26827,12 @@
         <f>V19/SUM(V9:V26)</f>
         <v>9.6385542168674718E-2</v>
       </c>
-      <c r="X19" s="266"/>
-      <c r="Z19" s="266"/>
+      <c r="X19" s="254"/>
+      <c r="Z19" s="254"/>
       <c r="AA19" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB19" s="266"/>
+      <c r="AB19" s="254"/>
       <c r="AM19" s="176">
         <v>9.2899999999999991</v>
       </c>
@@ -27290,10 +26840,10 @@
         <f t="shared" si="1"/>
         <v>9.1563177606938703E-2</v>
       </c>
-      <c r="AO19" s="283"/>
+      <c r="AO19" s="249"/>
     </row>
     <row r="20" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="266"/>
+      <c r="A20" s="254"/>
       <c r="B20" s="177">
         <v>53</v>
       </c>
@@ -27304,8 +26854,8 @@
         <f t="shared" si="0"/>
         <v>0.11330049261083744</v>
       </c>
-      <c r="E20" s="266"/>
-      <c r="I20" s="266"/>
+      <c r="E20" s="254"/>
+      <c r="I20" s="254"/>
       <c r="T20" s="177">
         <v>0.6</v>
       </c>
@@ -27316,9 +26866,9 @@
         <f>V20/SUM(V9:V26)</f>
         <v>2.4096385542168679E-2</v>
       </c>
-      <c r="X20" s="266"/>
-      <c r="Z20" s="266"/>
-      <c r="AB20" s="266"/>
+      <c r="X20" s="254"/>
+      <c r="Z20" s="254"/>
+      <c r="AB20" s="254"/>
       <c r="AM20" s="176">
         <v>9.1300000000000008</v>
       </c>
@@ -27326,10 +26876,10 @@
         <f t="shared" si="1"/>
         <v>8.9986201458702966E-2</v>
       </c>
-      <c r="AO20" s="283"/>
+      <c r="AO20" s="249"/>
     </row>
     <row r="21" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="266"/>
+      <c r="A21" s="254"/>
       <c r="B21" s="177">
         <v>56</v>
       </c>
@@ -27340,11 +26890,11 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E21" s="266"/>
+      <c r="E21" s="254"/>
       <c r="H21" s="177">
         <v>8</v>
       </c>
-      <c r="I21" s="266"/>
+      <c r="I21" s="254"/>
       <c r="T21" s="177">
         <v>0.9</v>
       </c>
@@ -27355,12 +26905,12 @@
         <f>V21/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X21" s="266"/>
-      <c r="Z21" s="266"/>
+      <c r="X21" s="254"/>
+      <c r="Z21" s="254"/>
       <c r="AA21" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB21" s="266"/>
+      <c r="AB21" s="254"/>
       <c r="AM21" s="176">
         <v>4.05</v>
       </c>
@@ -27368,10 +26918,10 @@
         <f t="shared" si="1"/>
         <v>3.9917208752217631E-2</v>
       </c>
-      <c r="AO21" s="283"/>
+      <c r="AO21" s="249"/>
     </row>
     <row r="22" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="266"/>
+      <c r="A22" s="254"/>
       <c r="B22" s="177">
         <v>59</v>
       </c>
@@ -27382,11 +26932,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E22" s="266"/>
+      <c r="E22" s="254"/>
       <c r="H22" s="177">
         <v>5</v>
       </c>
-      <c r="I22" s="266"/>
+      <c r="I22" s="254"/>
       <c r="T22" s="177">
         <v>0.1</v>
       </c>
@@ -27397,12 +26947,12 @@
         <f>V22/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X22" s="266"/>
-      <c r="Z22" s="266"/>
+      <c r="X22" s="254"/>
+      <c r="Z22" s="254"/>
       <c r="AA22" s="177">
         <v>3.2</v>
       </c>
-      <c r="AB22" s="266"/>
+      <c r="AB22" s="254"/>
       <c r="AM22" s="176">
         <v>2.94</v>
       </c>
@@ -27410,10 +26960,10 @@
         <f t="shared" si="1"/>
         <v>2.8976936723832059E-2</v>
       </c>
-      <c r="AO22" s="283"/>
+      <c r="AO22" s="249"/>
     </row>
     <row r="23" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="266"/>
+      <c r="A23" s="254"/>
       <c r="B23" s="177">
         <v>66</v>
       </c>
@@ -27424,8 +26974,8 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E23" s="266"/>
-      <c r="I23" s="266"/>
+      <c r="E23" s="254"/>
+      <c r="I23" s="254"/>
       <c r="T23" s="177">
         <v>1.6</v>
       </c>
@@ -27436,9 +26986,9 @@
         <f>V23/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X23" s="266"/>
-      <c r="Z23" s="266"/>
-      <c r="AB23" s="266"/>
+      <c r="X23" s="254"/>
+      <c r="Z23" s="254"/>
+      <c r="AB23" s="254"/>
       <c r="AM23" s="176">
         <v>5.43</v>
       </c>
@@ -27446,10 +26996,10 @@
         <f t="shared" si="1"/>
         <v>5.3518628030751046E-2</v>
       </c>
-      <c r="AO23" s="283"/>
+      <c r="AO23" s="249"/>
     </row>
     <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="266"/>
+      <c r="A24" s="254"/>
       <c r="B24" s="177">
         <v>68</v>
       </c>
@@ -27460,11 +27010,11 @@
         <f t="shared" si="0"/>
         <v>5.9113300492610842E-2</v>
       </c>
-      <c r="E24" s="266"/>
+      <c r="E24" s="254"/>
       <c r="H24" s="177">
         <v>6.9</v>
       </c>
-      <c r="I24" s="266"/>
+      <c r="I24" s="254"/>
       <c r="T24" s="177">
         <v>1.1000000000000001</v>
       </c>
@@ -27475,12 +27025,12 @@
         <f>V24/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X24" s="266"/>
-      <c r="Z24" s="266"/>
+      <c r="X24" s="254"/>
+      <c r="Z24" s="254"/>
       <c r="AA24" s="177">
         <v>3.1</v>
       </c>
-      <c r="AB24" s="266"/>
+      <c r="AB24" s="254"/>
       <c r="AM24" s="176">
         <v>4.5999999999999996</v>
       </c>
@@ -27488,10 +27038,10 @@
         <f t="shared" si="1"/>
         <v>4.5338064261778048E-2</v>
       </c>
-      <c r="AO24" s="283"/>
+      <c r="AO24" s="249"/>
     </row>
     <row r="25" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="266"/>
+      <c r="A25" s="254"/>
       <c r="B25" s="177">
         <v>73</v>
       </c>
@@ -27502,12 +27052,12 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E25" s="266"/>
-      <c r="I25" s="266"/>
+      <c r="E25" s="254"/>
+      <c r="I25" s="254"/>
       <c r="W25" s="196"/>
-      <c r="X25" s="266"/>
-      <c r="Z25" s="266"/>
-      <c r="AB25" s="266"/>
+      <c r="X25" s="254"/>
+      <c r="Z25" s="254"/>
+      <c r="AB25" s="254"/>
       <c r="AM25" s="176">
         <v>2.4</v>
       </c>
@@ -27515,10 +27065,10 @@
         <f t="shared" si="1"/>
         <v>2.3654642223536373E-2</v>
       </c>
-      <c r="AO25" s="283"/>
+      <c r="AO25" s="249"/>
     </row>
     <row r="26" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="266"/>
+      <c r="A26" s="254"/>
       <c r="B26" s="177">
         <v>82</v>
       </c>
@@ -27529,8 +27079,8 @@
         <f t="shared" si="0"/>
         <v>1.970443349753695E-2</v>
       </c>
-      <c r="E26" s="266"/>
-      <c r="I26" s="266"/>
+      <c r="E26" s="254"/>
+      <c r="I26" s="254"/>
       <c r="T26" s="177">
         <v>0.3</v>
       </c>
@@ -27541,9 +27091,9 @@
         <f>V26/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X26" s="266"/>
-      <c r="Z26" s="266"/>
-      <c r="AB26" s="266"/>
+      <c r="X26" s="254"/>
+      <c r="Z26" s="254"/>
+      <c r="AB26" s="254"/>
       <c r="AM26" s="176">
         <v>2.1</v>
       </c>
@@ -27551,12 +27101,12 @@
         <f t="shared" si="1"/>
         <v>2.0697811945594329E-2</v>
       </c>
-      <c r="AO26" s="283"/>
+      <c r="AO26" s="249"/>
       <c r="AP26" s="236"/>
     </row>
     <row r="27" spans="1:42" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B27" s="229"/>
       <c r="C27" s="229"/>
@@ -27597,8 +27147,8 @@
       <c r="AL27" s="228"/>
     </row>
     <row r="28" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="278" t="s">
-        <v>307</v>
+      <c r="A28" s="253" t="s">
+        <v>306</v>
       </c>
       <c r="B28" s="177">
         <v>16</v>
@@ -27658,7 +27208,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="266"/>
+      <c r="A29" s="254"/>
       <c r="B29" s="177">
         <v>18</v>
       </c>
@@ -27717,7 +27267,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="266"/>
+      <c r="A30" s="254"/>
       <c r="B30" s="177">
         <v>31</v>
       </c>
@@ -27728,14 +27278,14 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E30" s="279">
+      <c r="E30" s="259">
         <f>SUM(D30:D34)</f>
         <v>0.30085736554949344</v>
       </c>
       <c r="H30" s="194">
         <v>8.4</v>
       </c>
-      <c r="I30" s="267">
+      <c r="I30" s="256">
         <f>(SUM(H30:H34)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.30589562547966231</v>
       </c>
@@ -27749,34 +27299,34 @@
         <f>V30/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X30" s="265">
+      <c r="X30" s="260">
         <f>SUM(W30:W34)</f>
         <v>0.44139650872817959</v>
       </c>
       <c r="Y30" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z30" s="258">
+      <c r="Z30" s="255">
         <f>SUM(Y30:Y34)/100</f>
         <v>0.42</v>
       </c>
       <c r="AA30" s="177">
         <v>9.5</v>
       </c>
-      <c r="AB30" s="258">
+      <c r="AB30" s="255">
         <f>SUM(AA30:AA34)/100</f>
         <v>0.35100000000000003</v>
       </c>
       <c r="AG30" s="177">
         <v>6.1</v>
       </c>
-      <c r="AH30" s="258">
+      <c r="AH30" s="255">
         <f>SUM(AG30:AG34)/100</f>
         <v>0.317</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="266"/>
+      <c r="A31" s="254"/>
       <c r="B31" s="177">
         <v>33</v>
       </c>
@@ -27787,11 +27337,11 @@
         <f t="shared" si="2"/>
         <v>5.4559625876851141E-2</v>
       </c>
-      <c r="E31" s="266"/>
+      <c r="E31" s="254"/>
       <c r="H31" s="194">
         <v>10</v>
       </c>
-      <c r="I31" s="266"/>
+      <c r="I31" s="254"/>
       <c r="T31" s="177">
         <v>3.2</v>
       </c>
@@ -27802,22 +27352,22 @@
         <f>V31/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X31" s="266"/>
+      <c r="X31" s="254"/>
       <c r="Y31" s="177">
         <v>8.5</v>
       </c>
-      <c r="Z31" s="266"/>
+      <c r="Z31" s="254"/>
       <c r="AA31" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB31" s="266"/>
+      <c r="AB31" s="254"/>
       <c r="AG31" s="177">
         <v>5.9</v>
       </c>
-      <c r="AH31" s="266"/>
+      <c r="AH31" s="254"/>
     </row>
     <row r="32" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="266"/>
+      <c r="A32" s="254"/>
       <c r="B32" s="177">
         <v>45</v>
       </c>
@@ -27828,11 +27378,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E32" s="266"/>
+      <c r="E32" s="254"/>
       <c r="H32" s="194">
         <v>11.3</v>
       </c>
-      <c r="I32" s="266"/>
+      <c r="I32" s="254"/>
       <c r="T32" s="177">
         <v>3.2</v>
       </c>
@@ -27843,22 +27393,22 @@
         <f>V32/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X32" s="266"/>
+      <c r="X32" s="254"/>
       <c r="Y32" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z32" s="266"/>
+      <c r="Z32" s="254"/>
       <c r="AA32" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB32" s="266"/>
+      <c r="AB32" s="254"/>
       <c r="AG32" s="177">
         <v>2.9</v>
       </c>
-      <c r="AH32" s="266"/>
+      <c r="AH32" s="254"/>
     </row>
     <row r="33" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="266"/>
+      <c r="A33" s="254"/>
       <c r="B33" s="177">
         <v>52</v>
       </c>
@@ -27869,11 +27419,11 @@
         <f t="shared" si="2"/>
         <v>0.13639906469212784</v>
       </c>
-      <c r="E33" s="266"/>
+      <c r="E33" s="254"/>
       <c r="H33" s="194">
         <v>16.8</v>
       </c>
-      <c r="I33" s="266"/>
+      <c r="I33" s="254"/>
       <c r="T33" s="177">
         <v>14.5</v>
       </c>
@@ -27884,22 +27434,22 @@
         <f>V33/SUM(V28:V45)</f>
         <v>0.16209476309226933</v>
       </c>
-      <c r="X33" s="266"/>
+      <c r="X33" s="254"/>
       <c r="Y33" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z33" s="266"/>
+      <c r="Z33" s="254"/>
       <c r="AA33" s="177">
         <v>8.1</v>
       </c>
-      <c r="AB33" s="266"/>
+      <c r="AB33" s="254"/>
       <c r="AG33" s="177">
         <v>6.8</v>
       </c>
-      <c r="AH33" s="266"/>
+      <c r="AH33" s="254"/>
     </row>
     <row r="34" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="266"/>
+      <c r="A34" s="254"/>
       <c r="B34" s="177">
         <v>58</v>
       </c>
@@ -27910,11 +27460,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E34" s="266"/>
+      <c r="E34" s="254"/>
       <c r="H34" s="194">
         <v>15.2</v>
       </c>
-      <c r="I34" s="266"/>
+      <c r="I34" s="254"/>
       <c r="T34" s="177">
         <v>8.1</v>
       </c>
@@ -27925,23 +27475,23 @@
         <f>V34/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X34" s="266"/>
+      <c r="X34" s="254"/>
       <c r="Y34" s="177">
         <v>10.8</v>
       </c>
-      <c r="Z34" s="266"/>
+      <c r="Z34" s="254"/>
       <c r="AA34" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB34" s="266"/>
+      <c r="AB34" s="254"/>
       <c r="AG34" s="177">
         <v>10</v>
       </c>
-      <c r="AH34" s="266"/>
+      <c r="AH34" s="254"/>
     </row>
     <row r="35" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="278" t="s">
-        <v>305</v>
+      <c r="A35" s="253" t="s">
+        <v>304</v>
       </c>
       <c r="B35" s="177">
         <v>26</v>
@@ -27953,34 +27503,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="279">
+      <c r="E35" s="259">
         <f>SUM(D35:D46)</f>
         <v>0.53468433359314127</v>
       </c>
-      <c r="I35" s="267">
+      <c r="I35" s="256">
         <f>(SUM(H35:H46)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.34010437452033765</v>
       </c>
       <c r="W35" s="196"/>
-      <c r="X35" s="265">
+      <c r="X35" s="260">
         <f>SUM(V35:V45)/SUM(V28:V45)</f>
         <v>0.399002493765586</v>
       </c>
-      <c r="Z35" s="258">
+      <c r="Z35" s="255">
         <f>1-SUM(Z28:Z34)</f>
         <v>0.32899999999999996</v>
       </c>
-      <c r="AB35" s="258">
+      <c r="AB35" s="255">
         <f>1-SUM(AB28:AB34)</f>
         <v>0.31099999999999994</v>
       </c>
-      <c r="AH35" s="258">
+      <c r="AH35" s="255">
         <f>1-SUM(AH28:AH34)</f>
         <v>0.42700000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="266"/>
+      <c r="A36" s="254"/>
       <c r="B36" s="177">
         <v>35</v>
       </c>
@@ -27991,11 +27541,11 @@
         <f t="shared" si="2"/>
         <v>9.5869056897895572E-2</v>
       </c>
-      <c r="E36" s="266"/>
+      <c r="E36" s="254"/>
       <c r="H36" s="194">
         <v>15.8</v>
       </c>
-      <c r="I36" s="266"/>
+      <c r="I36" s="254"/>
       <c r="T36" s="177">
         <v>12.9</v>
       </c>
@@ -28006,22 +27556,22 @@
         <f>V36/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X36" s="266"/>
+      <c r="X36" s="254"/>
       <c r="Y36" s="177">
         <v>7.9</v>
       </c>
-      <c r="Z36" s="266"/>
+      <c r="Z36" s="254"/>
       <c r="AA36" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB36" s="266"/>
+      <c r="AB36" s="254"/>
       <c r="AG36" s="177">
         <v>6.5</v>
       </c>
-      <c r="AH36" s="266"/>
+      <c r="AH36" s="254"/>
     </row>
     <row r="37" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="266"/>
+      <c r="A37" s="254"/>
       <c r="B37" s="177">
         <v>39</v>
       </c>
@@ -28032,11 +27582,11 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E37" s="266"/>
+      <c r="E37" s="254"/>
       <c r="H37" s="194">
         <v>9.5</v>
       </c>
-      <c r="I37" s="266"/>
+      <c r="I37" s="254"/>
       <c r="T37" s="177">
         <v>6.5</v>
       </c>
@@ -28047,19 +27597,19 @@
         <f>V37/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="266"/>
-      <c r="Z37" s="266"/>
+      <c r="X37" s="254"/>
+      <c r="Z37" s="254"/>
       <c r="AA37" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB37" s="266"/>
+      <c r="AB37" s="254"/>
       <c r="AG37" s="177">
         <v>2</v>
       </c>
-      <c r="AH37" s="266"/>
+      <c r="AH37" s="254"/>
     </row>
     <row r="38" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="266"/>
+      <c r="A38" s="254"/>
       <c r="B38" s="177">
         <v>51</v>
       </c>
@@ -28070,11 +27620,11 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E38" s="266"/>
+      <c r="E38" s="254"/>
       <c r="H38" s="194">
         <v>13.2</v>
       </c>
-      <c r="I38" s="266"/>
+      <c r="I38" s="254"/>
       <c r="T38" s="177">
         <v>12.9</v>
       </c>
@@ -28085,19 +27635,19 @@
         <f>V38/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X38" s="266"/>
-      <c r="Z38" s="266"/>
+      <c r="X38" s="254"/>
+      <c r="Z38" s="254"/>
       <c r="AA38" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB38" s="266"/>
+      <c r="AB38" s="254"/>
       <c r="AG38" s="177">
         <v>1.9</v>
       </c>
-      <c r="AH38" s="266"/>
+      <c r="AH38" s="254"/>
     </row>
     <row r="39" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="266"/>
+      <c r="A39" s="254"/>
       <c r="B39" s="177">
         <v>53</v>
       </c>
@@ -28108,8 +27658,8 @@
         <f t="shared" si="2"/>
         <v>0.12314886983632115</v>
       </c>
-      <c r="E39" s="266"/>
-      <c r="I39" s="266"/>
+      <c r="E39" s="254"/>
+      <c r="I39" s="254"/>
       <c r="T39" s="177">
         <v>6.5</v>
       </c>
@@ -28120,16 +27670,16 @@
         <f>V39/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X39" s="266"/>
-      <c r="Z39" s="266"/>
-      <c r="AB39" s="266"/>
+      <c r="X39" s="254"/>
+      <c r="Z39" s="254"/>
+      <c r="AB39" s="254"/>
       <c r="AG39" s="177">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AH39" s="266"/>
+      <c r="AH39" s="254"/>
     </row>
     <row r="40" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="266"/>
+      <c r="A40" s="254"/>
       <c r="B40" s="177">
         <v>56</v>
       </c>
@@ -28140,11 +27690,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E40" s="266"/>
+      <c r="E40" s="254"/>
       <c r="H40" s="194">
         <v>11.8</v>
       </c>
-      <c r="I40" s="266"/>
+      <c r="I40" s="254"/>
       <c r="T40" s="177">
         <v>9.6999999999999993</v>
       </c>
@@ -28155,19 +27705,19 @@
         <f>V40/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X40" s="266"/>
-      <c r="Z40" s="266"/>
+      <c r="X40" s="254"/>
+      <c r="Z40" s="254"/>
       <c r="AA40" s="177">
         <v>8.6</v>
       </c>
-      <c r="AB40" s="266"/>
+      <c r="AB40" s="254"/>
       <c r="AG40" s="177">
         <v>4</v>
       </c>
-      <c r="AH40" s="266"/>
+      <c r="AH40" s="254"/>
     </row>
     <row r="41" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="266"/>
+      <c r="A41" s="254"/>
       <c r="B41" s="177">
         <v>59</v>
       </c>
@@ -28178,11 +27728,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E41" s="266"/>
+      <c r="E41" s="254"/>
       <c r="H41" s="194">
         <v>8.9</v>
       </c>
-      <c r="I41" s="266"/>
+      <c r="I41" s="254"/>
       <c r="T41" s="177">
         <v>1.6</v>
       </c>
@@ -28193,19 +27743,19 @@
         <f>V41/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="266"/>
-      <c r="Z41" s="266"/>
+      <c r="X41" s="254"/>
+      <c r="Z41" s="254"/>
       <c r="AA41" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB41" s="266"/>
+      <c r="AB41" s="254"/>
       <c r="AG41" s="177">
         <v>2.8</v>
       </c>
-      <c r="AH41" s="266"/>
+      <c r="AH41" s="254"/>
     </row>
     <row r="42" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="266"/>
+      <c r="A42" s="254"/>
       <c r="B42" s="177">
         <v>66</v>
       </c>
@@ -28216,8 +27766,8 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E42" s="266"/>
-      <c r="I42" s="266"/>
+      <c r="E42" s="254"/>
+      <c r="I42" s="254"/>
       <c r="T42" s="177">
         <v>6.5</v>
       </c>
@@ -28228,16 +27778,16 @@
         <f>V42/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X42" s="266"/>
-      <c r="Z42" s="266"/>
-      <c r="AB42" s="266"/>
+      <c r="X42" s="254"/>
+      <c r="Z42" s="254"/>
+      <c r="AB42" s="254"/>
       <c r="AG42" s="177">
         <v>3</v>
       </c>
-      <c r="AH42" s="266"/>
+      <c r="AH42" s="254"/>
     </row>
     <row r="43" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="266"/>
+      <c r="A43" s="254"/>
       <c r="B43" s="177">
         <v>68</v>
       </c>
@@ -28248,11 +27798,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="266"/>
+      <c r="E43" s="254"/>
       <c r="H43" s="194">
         <v>9.4</v>
       </c>
-      <c r="I43" s="266"/>
+      <c r="I43" s="254"/>
       <c r="T43" s="177">
         <v>4.8</v>
       </c>
@@ -28263,16 +27813,16 @@
         <f>V43/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X43" s="266"/>
-      <c r="Z43" s="266"/>
+      <c r="X43" s="254"/>
+      <c r="Z43" s="254"/>
       <c r="AA43" s="177">
         <v>2.7</v>
       </c>
-      <c r="AB43" s="266"/>
-      <c r="AH43" s="266"/>
+      <c r="AB43" s="254"/>
+      <c r="AH43" s="254"/>
     </row>
     <row r="44" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="266"/>
+      <c r="A44" s="254"/>
       <c r="B44" s="177">
         <v>73</v>
       </c>
@@ -28283,16 +27833,16 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E44" s="266"/>
-      <c r="I44" s="266"/>
+      <c r="E44" s="254"/>
+      <c r="I44" s="254"/>
       <c r="W44" s="196"/>
-      <c r="X44" s="266"/>
-      <c r="Z44" s="266"/>
-      <c r="AB44" s="266"/>
-      <c r="AH44" s="266"/>
+      <c r="X44" s="254"/>
+      <c r="Z44" s="254"/>
+      <c r="AB44" s="254"/>
+      <c r="AH44" s="254"/>
     </row>
     <row r="45" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="266"/>
+      <c r="A45" s="254"/>
       <c r="B45" s="177">
         <v>82</v>
       </c>
@@ -28303,8 +27853,8 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E45" s="266"/>
-      <c r="I45" s="266"/>
+      <c r="E45" s="254"/>
+      <c r="I45" s="254"/>
       <c r="T45" s="177">
         <v>1.6</v>
       </c>
@@ -28315,13 +27865,13 @@
         <f>V45/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="266"/>
-      <c r="Z45" s="266"/>
-      <c r="AB45" s="266"/>
-      <c r="AH45" s="266"/>
+      <c r="X45" s="254"/>
+      <c r="Z45" s="254"/>
+      <c r="AB45" s="254"/>
+      <c r="AH45" s="254"/>
     </row>
     <row r="46" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="266"/>
+      <c r="A46" s="254"/>
       <c r="B46" s="177">
         <v>82</v>
       </c>
@@ -28332,15 +27882,15 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E46" s="266"/>
-      <c r="I46" s="266"/>
-      <c r="Z46" s="266"/>
-      <c r="AB46" s="266"/>
-      <c r="AH46" s="266"/>
+      <c r="E46" s="254"/>
+      <c r="I46" s="254"/>
+      <c r="Z46" s="254"/>
+      <c r="AB46" s="254"/>
+      <c r="AH46" s="254"/>
     </row>
     <row r="47" spans="1:43" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="230" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B47" s="229"/>
       <c r="C47" s="229"/>
@@ -28381,8 +27931,8 @@
       <c r="AL47" s="228"/>
     </row>
     <row r="48" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="278" t="s">
-        <v>307</v>
+      <c r="A48" s="253" t="s">
+        <v>306</v>
       </c>
       <c r="B48" s="177">
         <v>16</v>
@@ -28433,17 +27983,17 @@
         <f>AA48/100</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AP48" s="283">
+      <c r="AP48" s="249">
         <f>79.6/(79.6+13.3)</f>
         <v>0.85683530678148545</v>
       </c>
-      <c r="AQ48" s="283">
+      <c r="AQ48" s="249">
         <f>77.8/(77.8+15.6)</f>
         <v>0.83297644539614568</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="266"/>
+      <c r="A49" s="254"/>
       <c r="B49" s="177">
         <v>18</v>
       </c>
@@ -28493,11 +28043,11 @@
         <f>AA49/100</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AP49" s="283"/>
-      <c r="AQ49" s="283"/>
+      <c r="AP49" s="249"/>
+      <c r="AQ49" s="249"/>
     </row>
     <row r="50" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="266"/>
+      <c r="A50" s="254"/>
       <c r="B50" s="177">
         <v>31</v>
       </c>
@@ -28508,14 +28058,14 @@
         <f t="shared" si="3"/>
         <v>9.3220338983050863E-2</v>
       </c>
-      <c r="E50" s="279">
+      <c r="E50" s="259">
         <f>SUM(D50:D54)</f>
         <v>0.36571056062581492</v>
       </c>
       <c r="H50" s="194">
         <v>13.9</v>
       </c>
-      <c r="I50" s="267">
+      <c r="I50" s="256">
         <f>(SUM(H50:H54)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.27666666666666667</v>
       </c>
@@ -28529,29 +28079,29 @@
         <f>V50/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X50" s="265">
+      <c r="X50" s="260">
         <f>SUM(W50:W54)</f>
         <v>0.39491525423728807</v>
       </c>
       <c r="Y50" s="177">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Z50" s="258">
+      <c r="Z50" s="255">
         <f>SUM(Y50:Y54)/100</f>
         <v>0.43400000000000005</v>
       </c>
       <c r="AA50" s="195">
         <v>11</v>
       </c>
-      <c r="AB50" s="258">
+      <c r="AB50" s="255">
         <f>SUM(AA50:AA54)/100</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="AP50" s="283"/>
-      <c r="AQ50" s="283"/>
+      <c r="AP50" s="249"/>
+      <c r="AQ50" s="249"/>
     </row>
     <row r="51" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="266"/>
+      <c r="A51" s="254"/>
       <c r="B51" s="177">
         <v>33</v>
       </c>
@@ -28562,11 +28112,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E51" s="266"/>
+      <c r="E51" s="254"/>
       <c r="H51" s="194">
         <v>14.5</v>
       </c>
-      <c r="I51" s="266"/>
+      <c r="I51" s="254"/>
       <c r="T51" s="177">
         <v>9.5</v>
       </c>
@@ -28577,20 +28127,20 @@
         <f>V51/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X51" s="266"/>
+      <c r="X51" s="254"/>
       <c r="Y51" s="177">
         <v>8.9</v>
       </c>
-      <c r="Z51" s="266"/>
+      <c r="Z51" s="254"/>
       <c r="AA51" s="195">
         <v>8.4</v>
       </c>
-      <c r="AB51" s="266"/>
-      <c r="AP51" s="283"/>
-      <c r="AQ51" s="283"/>
+      <c r="AB51" s="254"/>
+      <c r="AP51" s="249"/>
+      <c r="AQ51" s="249"/>
     </row>
     <row r="52" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="266"/>
+      <c r="A52" s="254"/>
       <c r="B52" s="177">
         <v>45</v>
       </c>
@@ -28601,11 +28151,11 @@
         <f t="shared" si="3"/>
         <v>4.6284224250325953E-2</v>
       </c>
-      <c r="E52" s="266"/>
+      <c r="E52" s="254"/>
       <c r="H52" s="194">
         <v>13</v>
       </c>
-      <c r="I52" s="266"/>
+      <c r="I52" s="254"/>
       <c r="T52" s="177">
         <v>3.6</v>
       </c>
@@ -28616,20 +28166,20 @@
         <f>V52/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X52" s="266"/>
+      <c r="X52" s="254"/>
       <c r="Y52" s="177">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z52" s="266"/>
+      <c r="Z52" s="254"/>
       <c r="AA52" s="195">
         <v>4.5</v>
       </c>
-      <c r="AB52" s="266"/>
-      <c r="AP52" s="283"/>
-      <c r="AQ52" s="283"/>
+      <c r="AB52" s="254"/>
+      <c r="AP52" s="249"/>
+      <c r="AQ52" s="249"/>
     </row>
     <row r="53" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="266"/>
+      <c r="A53" s="254"/>
       <c r="B53" s="177">
         <v>52</v>
       </c>
@@ -28640,11 +28190,11 @@
         <f t="shared" si="3"/>
         <v>0.10625814863103</v>
       </c>
-      <c r="E53" s="266"/>
+      <c r="E53" s="254"/>
       <c r="H53" s="194">
         <v>17.399999999999999</v>
       </c>
-      <c r="I53" s="266"/>
+      <c r="I53" s="254"/>
       <c r="T53" s="177">
         <v>24.1</v>
       </c>
@@ -28655,20 +28205,20 @@
         <f>V53/SUM(V48:V67)</f>
         <v>0.23559322033898303</v>
       </c>
-      <c r="X53" s="266"/>
+      <c r="X53" s="254"/>
       <c r="Y53" s="177">
         <v>11</v>
       </c>
-      <c r="Z53" s="266"/>
+      <c r="Z53" s="254"/>
       <c r="AA53" s="195">
         <v>9.6</v>
       </c>
-      <c r="AB53" s="266"/>
-      <c r="AP53" s="283"/>
-      <c r="AQ53" s="283"/>
+      <c r="AB53" s="254"/>
+      <c r="AP53" s="249"/>
+      <c r="AQ53" s="249"/>
     </row>
     <row r="54" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="266"/>
+      <c r="A54" s="254"/>
       <c r="B54" s="177">
         <v>58</v>
       </c>
@@ -28679,11 +28229,11 @@
         <f t="shared" si="3"/>
         <v>6.6492829204693613E-2</v>
       </c>
-      <c r="E54" s="266"/>
+      <c r="E54" s="254"/>
       <c r="H54" s="194">
         <v>24.2</v>
       </c>
-      <c r="I54" s="266"/>
+      <c r="I54" s="254"/>
       <c r="T54" s="177">
         <v>5.0999999999999996</v>
       </c>
@@ -28694,21 +28244,21 @@
         <f>V54/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X54" s="266"/>
+      <c r="X54" s="254"/>
       <c r="Y54" s="177">
         <v>11.2</v>
       </c>
-      <c r="Z54" s="266"/>
+      <c r="Z54" s="254"/>
       <c r="AA54" s="195">
         <v>7.9</v>
       </c>
-      <c r="AB54" s="266"/>
-      <c r="AP54" s="283"/>
-      <c r="AQ54" s="283"/>
+      <c r="AB54" s="254"/>
+      <c r="AP54" s="249"/>
+      <c r="AQ54" s="249"/>
     </row>
     <row r="55" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="278" t="s">
-        <v>305</v>
+      <c r="A55" s="253" t="s">
+        <v>304</v>
       </c>
       <c r="B55" s="177">
         <v>26</v>
@@ -28720,39 +28270,39 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E55" s="279">
+      <c r="E55" s="259">
         <f>SUM(D55:D67)</f>
         <v>0.41460234680573665</v>
       </c>
-      <c r="I55" s="267">
+      <c r="I55" s="256">
         <f>(SUM(H55:H67)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.25433333333333324</v>
       </c>
       <c r="W55" s="196"/>
-      <c r="X55" s="265">
+      <c r="X55" s="260">
         <f>SUM(T56:T67)/SUM(T48:T67)</f>
         <v>0.32680195941217638</v>
       </c>
-      <c r="Z55" s="258">
+      <c r="Z55" s="255">
         <f>1-SUM(Z48:Z54)</f>
         <v>0.17099999999999993</v>
       </c>
       <c r="AA55" s="191"/>
-      <c r="AB55" s="258">
+      <c r="AB55" s="255">
         <f>1-SUM(AB48:AB54)</f>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="AP55" s="283">
+      <c r="AP55" s="249">
         <f>1-AP48</f>
         <v>0.14316469321851455</v>
       </c>
-      <c r="AQ55" s="283">
+      <c r="AQ55" s="249">
         <f>1-AQ48</f>
         <v>0.16702355460385432</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="266"/>
+      <c r="A56" s="254"/>
       <c r="B56" s="177">
         <v>35</v>
       </c>
@@ -28763,11 +28313,11 @@
         <f t="shared" si="3"/>
         <v>0.11994784876140809</v>
       </c>
-      <c r="E56" s="266"/>
+      <c r="E56" s="254"/>
       <c r="H56" s="194">
         <v>21.8</v>
       </c>
-      <c r="I56" s="266"/>
+      <c r="I56" s="254"/>
       <c r="T56" s="177">
         <v>13.1</v>
       </c>
@@ -28778,20 +28328,20 @@
         <f>V56/SUM(V48:V67)</f>
         <v>8.6440677966101678E-2</v>
       </c>
-      <c r="X56" s="266"/>
+      <c r="X56" s="254"/>
       <c r="Y56" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z56" s="266"/>
+      <c r="Z56" s="254"/>
       <c r="AA56" s="195">
         <v>5.6</v>
       </c>
-      <c r="AB56" s="266"/>
-      <c r="AP56" s="283"/>
-      <c r="AQ56" s="283"/>
+      <c r="AB56" s="254"/>
+      <c r="AP56" s="249"/>
+      <c r="AQ56" s="249"/>
     </row>
     <row r="57" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="266"/>
+      <c r="A57" s="254"/>
       <c r="B57" s="177">
         <v>39</v>
       </c>
@@ -28802,11 +28352,11 @@
         <f t="shared" si="3"/>
         <v>2.020860495436767E-2</v>
       </c>
-      <c r="E57" s="266"/>
+      <c r="E57" s="254"/>
       <c r="H57" s="194">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I57" s="266"/>
+      <c r="I57" s="254"/>
       <c r="T57" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -28817,17 +28367,17 @@
         <f>V57/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X57" s="266"/>
-      <c r="Z57" s="266"/>
+      <c r="X57" s="254"/>
+      <c r="Z57" s="254"/>
       <c r="AA57" s="195">
         <v>4.2</v>
       </c>
-      <c r="AB57" s="266"/>
-      <c r="AP57" s="283"/>
-      <c r="AQ57" s="283"/>
+      <c r="AB57" s="254"/>
+      <c r="AP57" s="249"/>
+      <c r="AQ57" s="249"/>
     </row>
     <row r="58" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="266"/>
+      <c r="A58" s="254"/>
       <c r="B58" s="177">
         <v>51</v>
       </c>
@@ -28838,11 +28388,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E58" s="266"/>
+      <c r="E58" s="254"/>
       <c r="H58" s="194">
         <v>15.8</v>
       </c>
-      <c r="I58" s="266"/>
+      <c r="I58" s="254"/>
       <c r="T58" s="177">
         <v>7.3</v>
       </c>
@@ -28853,17 +28403,17 @@
         <f>V58/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X58" s="266"/>
-      <c r="Z58" s="266"/>
+      <c r="X58" s="254"/>
+      <c r="Z58" s="254"/>
       <c r="AA58" s="195">
         <v>6.7</v>
       </c>
-      <c r="AB58" s="266"/>
-      <c r="AP58" s="283"/>
-      <c r="AQ58" s="283"/>
+      <c r="AB58" s="254"/>
+      <c r="AP58" s="249"/>
+      <c r="AQ58" s="249"/>
     </row>
     <row r="59" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="266"/>
+      <c r="A59" s="254"/>
       <c r="B59" s="177">
         <v>53</v>
       </c>
@@ -28874,8 +28424,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E59" s="266"/>
-      <c r="I59" s="266"/>
+      <c r="E59" s="254"/>
+      <c r="I59" s="254"/>
       <c r="T59" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28886,15 +28436,15 @@
         <f>V59/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X59" s="266"/>
-      <c r="Z59" s="266"/>
+      <c r="X59" s="254"/>
+      <c r="Z59" s="254"/>
       <c r="AA59" s="191"/>
-      <c r="AB59" s="266"/>
-      <c r="AP59" s="283"/>
-      <c r="AQ59" s="283"/>
+      <c r="AB59" s="254"/>
+      <c r="AP59" s="249"/>
+      <c r="AQ59" s="249"/>
     </row>
     <row r="60" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="266"/>
+      <c r="A60" s="254"/>
       <c r="B60" s="177">
         <v>56</v>
       </c>
@@ -28905,11 +28455,11 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E60" s="266"/>
+      <c r="E60" s="254"/>
       <c r="H60" s="194">
         <v>11.9</v>
       </c>
-      <c r="I60" s="266"/>
+      <c r="I60" s="254"/>
       <c r="T60" s="177">
         <v>2.9</v>
       </c>
@@ -28920,17 +28470,17 @@
         <f>V60/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="266"/>
-      <c r="Z60" s="266"/>
+      <c r="X60" s="254"/>
+      <c r="Z60" s="254"/>
       <c r="AA60" s="195">
         <v>3.4</v>
       </c>
-      <c r="AB60" s="266"/>
-      <c r="AP60" s="283"/>
-      <c r="AQ60" s="283"/>
+      <c r="AB60" s="254"/>
+      <c r="AP60" s="249"/>
+      <c r="AQ60" s="249"/>
     </row>
     <row r="61" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="266"/>
+      <c r="A61" s="254"/>
       <c r="B61" s="177">
         <v>59</v>
       </c>
@@ -28941,12 +28491,12 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E61" s="266"/>
+      <c r="E61" s="254"/>
       <c r="F61" s="236"/>
       <c r="H61" s="194">
         <v>8</v>
       </c>
-      <c r="I61" s="266"/>
+      <c r="I61" s="254"/>
       <c r="T61" s="177">
         <v>0</v>
       </c>
@@ -28957,17 +28507,17 @@
         <f>V61/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X61" s="266"/>
-      <c r="Z61" s="266"/>
+      <c r="X61" s="254"/>
+      <c r="Z61" s="254"/>
       <c r="AA61" s="195">
         <v>2.9</v>
       </c>
-      <c r="AB61" s="266"/>
-      <c r="AP61" s="283"/>
-      <c r="AQ61" s="283"/>
+      <c r="AB61" s="254"/>
+      <c r="AP61" s="249"/>
+      <c r="AQ61" s="249"/>
     </row>
     <row r="62" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="266"/>
+      <c r="A62" s="254"/>
       <c r="B62" s="177">
         <v>66</v>
       </c>
@@ -28978,8 +28528,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E62" s="266"/>
-      <c r="I62" s="266"/>
+      <c r="E62" s="254"/>
+      <c r="I62" s="254"/>
       <c r="T62" s="177">
         <v>10.199999999999999</v>
       </c>
@@ -28990,15 +28540,15 @@
         <f>V62/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X62" s="266"/>
-      <c r="Z62" s="266"/>
+      <c r="X62" s="254"/>
+      <c r="Z62" s="254"/>
       <c r="AA62" s="191"/>
-      <c r="AB62" s="266"/>
-      <c r="AP62" s="283"/>
-      <c r="AQ62" s="283"/>
+      <c r="AB62" s="254"/>
+      <c r="AP62" s="249"/>
+      <c r="AQ62" s="249"/>
     </row>
     <row r="63" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="266"/>
+      <c r="A63" s="254"/>
       <c r="B63" s="177">
         <v>68</v>
       </c>
@@ -29009,11 +28559,11 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E63" s="266"/>
+      <c r="E63" s="254"/>
       <c r="H63" s="194">
         <v>9.1</v>
       </c>
-      <c r="I63" s="266"/>
+      <c r="I63" s="254"/>
       <c r="T63" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -29024,17 +28574,17 @@
         <f>V63/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X63" s="266"/>
-      <c r="Z63" s="266"/>
+      <c r="X63" s="254"/>
+      <c r="Z63" s="254"/>
       <c r="AA63" s="177">
         <v>2</v>
       </c>
-      <c r="AB63" s="266"/>
-      <c r="AP63" s="283"/>
-      <c r="AQ63" s="283"/>
+      <c r="AB63" s="254"/>
+      <c r="AP63" s="249"/>
+      <c r="AQ63" s="249"/>
     </row>
     <row r="64" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="266"/>
+      <c r="A64" s="254"/>
       <c r="B64" s="177">
         <v>69</v>
       </c>
@@ -29045,17 +28595,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E64" s="266"/>
-      <c r="I64" s="266"/>
+      <c r="E64" s="254"/>
+      <c r="I64" s="254"/>
       <c r="W64" s="192"/>
-      <c r="X64" s="266"/>
-      <c r="Z64" s="266"/>
-      <c r="AB64" s="266"/>
-      <c r="AP64" s="283"/>
-      <c r="AQ64" s="283"/>
+      <c r="X64" s="254"/>
+      <c r="Z64" s="254"/>
+      <c r="AB64" s="254"/>
+      <c r="AP64" s="249"/>
+      <c r="AQ64" s="249"/>
     </row>
     <row r="65" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="266"/>
+      <c r="A65" s="254"/>
       <c r="B65" s="177">
         <v>70</v>
       </c>
@@ -29066,17 +28616,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E65" s="266"/>
-      <c r="I65" s="266"/>
+      <c r="E65" s="254"/>
+      <c r="I65" s="254"/>
       <c r="W65" s="192"/>
-      <c r="X65" s="266"/>
-      <c r="Z65" s="266"/>
-      <c r="AB65" s="266"/>
-      <c r="AP65" s="283"/>
-      <c r="AQ65" s="283"/>
+      <c r="X65" s="254"/>
+      <c r="Z65" s="254"/>
+      <c r="AB65" s="254"/>
+      <c r="AP65" s="249"/>
+      <c r="AQ65" s="249"/>
     </row>
     <row r="66" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="266"/>
+      <c r="A66" s="254"/>
       <c r="B66" s="177">
         <v>73</v>
       </c>
@@ -29087,17 +28637,17 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E66" s="266"/>
-      <c r="I66" s="266"/>
+      <c r="E66" s="254"/>
+      <c r="I66" s="254"/>
       <c r="W66" s="192"/>
-      <c r="X66" s="266"/>
-      <c r="Z66" s="266"/>
-      <c r="AB66" s="266"/>
-      <c r="AP66" s="283"/>
-      <c r="AQ66" s="283"/>
+      <c r="X66" s="254"/>
+      <c r="Z66" s="254"/>
+      <c r="AB66" s="254"/>
+      <c r="AP66" s="249"/>
+      <c r="AQ66" s="249"/>
     </row>
     <row r="67" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="266"/>
+      <c r="A67" s="254"/>
       <c r="B67" s="177">
         <v>82</v>
       </c>
@@ -29108,8 +28658,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E67" s="266"/>
-      <c r="I67" s="266"/>
+      <c r="E67" s="254"/>
+      <c r="I67" s="254"/>
       <c r="T67" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -29120,14 +28670,14 @@
         <f>V67/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X67" s="266"/>
+      <c r="X67" s="254"/>
       <c r="AB67" s="191"/>
-      <c r="AP67" s="283"/>
-      <c r="AQ67" s="283"/>
+      <c r="AP67" s="249"/>
+      <c r="AQ67" s="249"/>
     </row>
     <row r="68" spans="1:43" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="230" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="229"/>
       <c r="C68" s="229"/>
@@ -29168,8 +28718,8 @@
       <c r="AL68" s="228"/>
     </row>
     <row r="69" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="278" t="s">
-        <v>307</v>
+      <c r="A69" s="253" t="s">
+        <v>306</v>
       </c>
       <c r="B69" s="177">
         <v>16</v>
@@ -29274,7 +28824,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="266"/>
+      <c r="A70" s="254"/>
       <c r="B70" s="177">
         <v>18</v>
       </c>
@@ -29378,7 +28928,7 @@
       </c>
     </row>
     <row r="71" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="266"/>
+      <c r="A71" s="254"/>
       <c r="B71" s="177">
         <v>31</v>
       </c>
@@ -29389,42 +28939,42 @@
         <f t="shared" si="4"/>
         <v>2.9145728643216084E-2</v>
       </c>
-      <c r="E71" s="282">
+      <c r="E71" s="258">
         <f>SUM(D71:D75)</f>
         <v>0.19296482412060306</v>
       </c>
       <c r="F71" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G71" s="278">
+      <c r="G71" s="253">
         <f>SUM(F71:F75)</f>
         <v>0.17699999999999999</v>
       </c>
       <c r="H71" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I71" s="267">
+      <c r="I71" s="256">
         <f>(SUM(H71:H75)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.17699530516431927</v>
       </c>
       <c r="J71" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K71" s="268">
+      <c r="K71" s="257">
         <f>SUM(J71:J75)/100</f>
         <v>0.217</v>
       </c>
       <c r="L71" s="177">
         <v>3.8</v>
       </c>
-      <c r="M71" s="268">
+      <c r="M71" s="257">
         <f>SUM(L71:L75)/100</f>
         <v>0.20799999999999996</v>
       </c>
       <c r="N71" s="187">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O71" s="260">
+      <c r="O71" s="265">
         <f>SUM(N71:N75)/SUM(N69:N90)</f>
         <v>0.22842639593908629</v>
       </c>
@@ -29439,14 +28989,14 @@
       <c r="Y71" s="177">
         <v>2.6</v>
       </c>
-      <c r="Z71" s="258">
+      <c r="Z71" s="255">
         <f>SUM(Y71:Y75)/100</f>
         <v>0.21899999999999997</v>
       </c>
       <c r="AA71" s="177">
         <v>4</v>
       </c>
-      <c r="AB71" s="258">
+      <c r="AB71" s="255">
         <f>SUM(AA71:AA75)/100</f>
         <v>0.21700000000000003</v>
       </c>
@@ -29454,7 +29004,7 @@
         <f>10/544*100</f>
         <v>1.8382352941176472</v>
       </c>
-      <c r="AD71" s="258">
+      <c r="AD71" s="255">
         <f>SUM(AC71:AC75)/100</f>
         <v>0.16544117647058823</v>
       </c>
@@ -29462,27 +29012,27 @@
         <f>335/8977*100</f>
         <v>3.7317589395120865</v>
       </c>
-      <c r="AF71" s="258">
+      <c r="AF71" s="255">
         <f>SUM(AE71:AE75)/100</f>
         <v>0.1853625932939735</v>
       </c>
       <c r="AI71" s="221">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AJ71" s="264">
+      <c r="AJ71" s="278">
         <f>SUM(AI71:AI75)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>0.1722342342342342</v>
       </c>
       <c r="AK71" s="221">
         <v>0.03</v>
       </c>
-      <c r="AL71" s="264">
+      <c r="AL71" s="278">
         <f>SUM(AK71:AK75)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>0.19617647058823534</v>
       </c>
     </row>
     <row r="72" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="266"/>
+      <c r="A72" s="254"/>
       <c r="B72" s="177">
         <v>33</v>
       </c>
@@ -29493,27 +29043,27 @@
         <f t="shared" si="4"/>
         <v>7.3366834170854281E-2</v>
       </c>
-      <c r="E72" s="266"/>
+      <c r="E72" s="254"/>
       <c r="F72" s="177">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G72" s="266"/>
+      <c r="G72" s="254"/>
       <c r="H72" s="177">
         <v>5.2</v>
       </c>
-      <c r="I72" s="266"/>
+      <c r="I72" s="254"/>
       <c r="J72" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K72" s="266"/>
+      <c r="K72" s="254"/>
       <c r="L72" s="177">
         <v>5.7</v>
       </c>
-      <c r="M72" s="266"/>
+      <c r="M72" s="254"/>
       <c r="N72" s="176">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O72" s="261"/>
+      <c r="O72" s="266"/>
       <c r="P72" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29525,32 +29075,32 @@
       <c r="Y72" s="177">
         <v>3.6</v>
       </c>
-      <c r="Z72" s="266"/>
+      <c r="Z72" s="254"/>
       <c r="AA72" s="177">
         <v>4.5</v>
       </c>
-      <c r="AB72" s="266"/>
+      <c r="AB72" s="254"/>
       <c r="AC72" s="183">
         <f>8/544*100</f>
         <v>1.4705882352941175</v>
       </c>
-      <c r="AD72" s="266"/>
+      <c r="AD72" s="254"/>
       <c r="AE72" s="182">
         <f>345/8977*100</f>
         <v>3.8431547287512533</v>
       </c>
-      <c r="AF72" s="266"/>
+      <c r="AF72" s="254"/>
       <c r="AI72" s="221">
         <v>4.7E-2</v>
       </c>
-      <c r="AJ72" s="263"/>
+      <c r="AJ72" s="273"/>
       <c r="AK72" s="221">
         <v>0.06</v>
       </c>
-      <c r="AL72" s="263"/>
+      <c r="AL72" s="273"/>
     </row>
     <row r="73" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="266"/>
+      <c r="A73" s="254"/>
       <c r="B73" s="177">
         <v>45</v>
       </c>
@@ -29561,27 +29111,27 @@
         <f t="shared" si="4"/>
         <v>5.6281407035175882E-2</v>
       </c>
-      <c r="E73" s="266"/>
+      <c r="E73" s="254"/>
       <c r="F73" s="177">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G73" s="266"/>
+      <c r="G73" s="254"/>
       <c r="H73" s="177">
         <v>15.5</v>
       </c>
-      <c r="I73" s="266"/>
+      <c r="I73" s="254"/>
       <c r="J73" s="177">
         <v>15.1</v>
       </c>
-      <c r="K73" s="266"/>
+      <c r="K73" s="254"/>
       <c r="L73" s="177">
         <v>4.7</v>
       </c>
-      <c r="M73" s="266"/>
+      <c r="M73" s="254"/>
       <c r="N73" s="176">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O73" s="261"/>
+      <c r="O73" s="266"/>
       <c r="P73" s="182">
         <f>13/77*100</f>
         <v>16.883116883116884</v>
@@ -29593,32 +29143,32 @@
       <c r="Y73" s="177">
         <v>11</v>
       </c>
-      <c r="Z73" s="266"/>
+      <c r="Z73" s="254"/>
       <c r="AA73" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB73" s="266"/>
+      <c r="AB73" s="254"/>
       <c r="AC73" s="183">
         <f>54/544*100</f>
         <v>9.9264705882352935</v>
       </c>
-      <c r="AD73" s="266"/>
+      <c r="AD73" s="254"/>
       <c r="AE73" s="182">
         <f>528/8977*100</f>
         <v>5.8816976718280047</v>
       </c>
-      <c r="AF73" s="266"/>
+      <c r="AF73" s="254"/>
       <c r="AI73" s="221">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AJ73" s="263"/>
+      <c r="AJ73" s="273"/>
       <c r="AK73" s="221">
         <v>0.08</v>
       </c>
-      <c r="AL73" s="263"/>
+      <c r="AL73" s="273"/>
     </row>
     <row r="74" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="266"/>
+      <c r="A74" s="254"/>
       <c r="B74" s="177">
         <v>52</v>
       </c>
@@ -29629,27 +29179,27 @@
         <f t="shared" si="4"/>
         <v>2.1105527638190957E-2</v>
       </c>
-      <c r="E74" s="266"/>
+      <c r="E74" s="254"/>
       <c r="F74" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G74" s="266"/>
+      <c r="G74" s="254"/>
       <c r="H74" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I74" s="266"/>
+      <c r="I74" s="254"/>
       <c r="J74" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K74" s="266"/>
+      <c r="K74" s="254"/>
       <c r="L74" s="177">
         <v>4.7</v>
       </c>
-      <c r="M74" s="266"/>
+      <c r="M74" s="254"/>
       <c r="N74" s="176">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O74" s="261"/>
+      <c r="O74" s="266"/>
       <c r="P74" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29661,32 +29211,32 @@
       <c r="Y74" s="177">
         <v>3.4</v>
       </c>
-      <c r="Z74" s="266"/>
+      <c r="Z74" s="254"/>
       <c r="AA74" s="177">
         <v>3.5</v>
       </c>
-      <c r="AB74" s="266"/>
+      <c r="AB74" s="254"/>
       <c r="AC74" s="183">
         <f>14/544*100</f>
         <v>2.5735294117647056</v>
       </c>
-      <c r="AD74" s="266"/>
+      <c r="AD74" s="254"/>
       <c r="AE74" s="182">
         <f>253/8977*100</f>
         <v>2.8183134677509192</v>
       </c>
-      <c r="AF74" s="266"/>
+      <c r="AF74" s="254"/>
       <c r="AI74" s="221">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ74" s="263"/>
+      <c r="AJ74" s="273"/>
       <c r="AK74" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL74" s="263"/>
+      <c r="AL74" s="273"/>
     </row>
     <row r="75" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="266"/>
+      <c r="A75" s="254"/>
       <c r="B75" s="177">
         <v>58</v>
       </c>
@@ -29697,27 +29247,27 @@
         <f t="shared" si="4"/>
         <v>1.3065326633165831E-2</v>
       </c>
-      <c r="E75" s="266"/>
+      <c r="E75" s="254"/>
       <c r="F75" s="177">
         <v>0</v>
       </c>
-      <c r="G75" s="266"/>
+      <c r="G75" s="254"/>
       <c r="H75" s="177">
         <v>8.1</v>
       </c>
-      <c r="I75" s="266"/>
+      <c r="I75" s="254"/>
       <c r="J75" s="177">
         <v>0</v>
       </c>
-      <c r="K75" s="266"/>
+      <c r="K75" s="254"/>
       <c r="L75" s="177">
         <v>1.9</v>
       </c>
-      <c r="M75" s="266"/>
+      <c r="M75" s="254"/>
       <c r="N75" s="176">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O75" s="261"/>
+      <c r="O75" s="266"/>
       <c r="P75" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29729,33 +29279,33 @@
       <c r="Y75" s="177">
         <v>1.3</v>
       </c>
-      <c r="Z75" s="266"/>
+      <c r="Z75" s="254"/>
       <c r="AA75" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB75" s="266"/>
+      <c r="AB75" s="254"/>
       <c r="AC75" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD75" s="266"/>
+      <c r="AD75" s="254"/>
       <c r="AE75" s="182">
         <f>203/8977*100</f>
         <v>2.2613345215550851</v>
       </c>
-      <c r="AF75" s="266"/>
+      <c r="AF75" s="254"/>
       <c r="AI75" s="221">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AJ75" s="263"/>
+      <c r="AJ75" s="273"/>
       <c r="AK75" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL75" s="263"/>
+      <c r="AL75" s="273"/>
     </row>
     <row r="76" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="278" t="s">
-        <v>305</v>
+      <c r="A76" s="253" t="s">
+        <v>304</v>
       </c>
       <c r="B76" s="177">
         <v>26</v>
@@ -29767,28 +29317,28 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E76" s="282">
+      <c r="E76" s="258">
         <f>SUM(D76:D88)</f>
         <v>0.16180904522613065</v>
       </c>
-      <c r="G76" s="278">
+      <c r="G76" s="253">
         <f>SUM(F77:F89)</f>
         <v>0.16700000000000001</v>
       </c>
-      <c r="I76" s="267">
+      <c r="I76" s="256">
         <f>(SUM(H76:H90)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.11300469483568076</v>
       </c>
-      <c r="K76" s="268">
+      <c r="K76" s="257">
         <f>SUM(J76:J89)/100</f>
         <v>0.10899999999999999</v>
       </c>
-      <c r="M76" s="268">
+      <c r="M76" s="257">
         <f>SUM(L76:L89)/100</f>
         <v>0.12200000000000001</v>
       </c>
       <c r="N76" s="187"/>
-      <c r="O76" s="260">
+      <c r="O76" s="265">
         <f>SUM(N76:N90)/SUM(N69:N90)</f>
         <v>0.10761421319796954</v>
       </c>
@@ -29796,16 +29346,16 @@
       <c r="Q76" s="232"/>
       <c r="R76" s="182"/>
       <c r="S76" s="232"/>
-      <c r="Z76" s="258">
+      <c r="Z76" s="255">
         <f>1-SUM(Z69:Z75)</f>
         <v>5.1999999999999935E-2</v>
       </c>
-      <c r="AB76" s="258">
+      <c r="AB76" s="255">
         <f>1-SUM(AB69:AB75)</f>
         <v>0</v>
       </c>
       <c r="AC76" s="182"/>
-      <c r="AD76" s="258">
+      <c r="AD76" s="255">
         <f>1-SUM(AD69:AD75)</f>
         <v>0.13235294117647067</v>
       </c>
@@ -29813,21 +29363,21 @@
         <f>31/8977*100</f>
         <v>0.34532694664141694</v>
       </c>
-      <c r="AF76" s="258">
+      <c r="AF76" s="255">
         <f>1-SUM(AF69:AF75)</f>
         <v>0.10649437451264343</v>
       </c>
-      <c r="AJ76" s="264">
+      <c r="AJ76" s="278">
         <f>SUM(AI76:AI90)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>6.9765765765765764E-2</v>
       </c>
-      <c r="AL76" s="264">
+      <c r="AL76" s="278">
         <f>SUM(AK76:AK90)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>9.3823529411764722E-2</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="266"/>
+      <c r="A77" s="254"/>
       <c r="B77" s="177">
         <v>35</v>
       </c>
@@ -29838,27 +29388,27 @@
         <f t="shared" si="4"/>
         <v>6.0301507537688454E-2</v>
       </c>
-      <c r="E77" s="266"/>
+      <c r="E77" s="254"/>
       <c r="F77" s="177">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G77" s="266"/>
+      <c r="G77" s="254"/>
       <c r="H77" s="177">
         <v>7.7</v>
       </c>
-      <c r="I77" s="266"/>
+      <c r="I77" s="254"/>
       <c r="J77" s="177">
         <v>6.5</v>
       </c>
-      <c r="K77" s="268"/>
+      <c r="K77" s="257"/>
       <c r="L77" s="177">
         <v>9.5</v>
       </c>
-      <c r="M77" s="268"/>
+      <c r="M77" s="257"/>
       <c r="N77" s="176">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="O77" s="261"/>
+      <c r="O77" s="266"/>
       <c r="P77" s="182">
         <f>7/77*100</f>
         <v>9.0909090909090917</v>
@@ -29870,32 +29420,32 @@
       <c r="Y77" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z77" s="266"/>
+      <c r="Z77" s="254"/>
       <c r="AA77" s="177">
         <v>1.7</v>
       </c>
-      <c r="AB77" s="266"/>
+      <c r="AB77" s="254"/>
       <c r="AC77" s="183">
         <f>27/544*100</f>
         <v>4.9632352941176467</v>
       </c>
-      <c r="AD77" s="266"/>
+      <c r="AD77" s="254"/>
       <c r="AE77" s="182">
         <f>175/8977*100</f>
         <v>1.9494263116854185</v>
       </c>
-      <c r="AF77" s="266"/>
+      <c r="AF77" s="254"/>
       <c r="AI77" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ77" s="263"/>
+      <c r="AJ77" s="273"/>
       <c r="AK77" s="221">
         <v>0.05</v>
       </c>
-      <c r="AL77" s="263"/>
+      <c r="AL77" s="273"/>
     </row>
     <row r="78" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="266"/>
+      <c r="A78" s="254"/>
       <c r="B78" s="177">
         <v>39</v>
       </c>
@@ -29906,15 +29456,15 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E78" s="266"/>
-      <c r="G78" s="266"/>
+      <c r="E78" s="254"/>
+      <c r="G78" s="254"/>
       <c r="H78" s="177">
         <v>3.3</v>
       </c>
-      <c r="I78" s="266"/>
-      <c r="K78" s="268"/>
-      <c r="M78" s="268"/>
-      <c r="O78" s="261"/>
+      <c r="I78" s="254"/>
+      <c r="K78" s="257"/>
+      <c r="M78" s="257"/>
+      <c r="O78" s="266"/>
       <c r="P78" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29923,29 +29473,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z78" s="266"/>
+      <c r="Z78" s="254"/>
       <c r="AA78" s="177">
         <v>1.4</v>
       </c>
-      <c r="AB78" s="266"/>
+      <c r="AB78" s="254"/>
       <c r="AC78" s="183">
         <f>3/544*100</f>
         <v>0.55147058823529416</v>
       </c>
-      <c r="AD78" s="266"/>
+      <c r="AD78" s="254"/>
       <c r="AE78" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF78" s="266"/>
+      <c r="AF78" s="254"/>
       <c r="AI78" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ78" s="263"/>
-      <c r="AL78" s="263"/>
+      <c r="AJ78" s="273"/>
+      <c r="AL78" s="273"/>
     </row>
     <row r="79" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="266"/>
+      <c r="A79" s="254"/>
       <c r="B79" s="177">
         <v>51</v>
       </c>
@@ -29956,25 +29506,25 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E79" s="266"/>
+      <c r="E79" s="254"/>
       <c r="F79" s="177"/>
-      <c r="G79" s="266"/>
+      <c r="G79" s="254"/>
       <c r="H79" s="177">
         <v>4.8</v>
       </c>
-      <c r="I79" s="266"/>
+      <c r="I79" s="254"/>
       <c r="J79" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K79" s="268"/>
+      <c r="K79" s="257"/>
       <c r="L79" s="177">
         <v>0</v>
       </c>
-      <c r="M79" s="268"/>
+      <c r="M79" s="257"/>
       <c r="N79" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O79" s="261"/>
+      <c r="O79" s="266"/>
       <c r="P79" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29983,32 +29533,32 @@
         <f>4/154*100</f>
         <v>2.5974025974025974</v>
       </c>
-      <c r="Z79" s="266"/>
+      <c r="Z79" s="254"/>
       <c r="AA79" s="177">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB79" s="266"/>
+      <c r="AB79" s="254"/>
       <c r="AC79" s="183">
         <f>13/544*100</f>
         <v>2.3897058823529411</v>
       </c>
-      <c r="AD79" s="266"/>
+      <c r="AD79" s="254"/>
       <c r="AE79" s="182">
         <f>114/8977*100</f>
         <v>1.269911997326501</v>
       </c>
-      <c r="AF79" s="266"/>
+      <c r="AF79" s="254"/>
       <c r="AI79" s="221">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ79" s="263"/>
+      <c r="AJ79" s="273"/>
       <c r="AK79" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL79" s="263"/>
+      <c r="AL79" s="273"/>
     </row>
     <row r="80" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="266"/>
+      <c r="A80" s="254"/>
       <c r="B80" s="177">
         <v>53</v>
       </c>
@@ -30019,32 +29569,32 @@
         <f t="shared" si="4"/>
         <v>1.6080402010050253E-2</v>
       </c>
-      <c r="E80" s="266"/>
+      <c r="E80" s="254"/>
       <c r="F80" s="177"/>
-      <c r="G80" s="266"/>
-      <c r="I80" s="266"/>
-      <c r="K80" s="268"/>
-      <c r="M80" s="268"/>
-      <c r="O80" s="261"/>
+      <c r="G80" s="254"/>
+      <c r="I80" s="254"/>
+      <c r="K80" s="257"/>
+      <c r="M80" s="257"/>
+      <c r="O80" s="266"/>
       <c r="P80" s="182"/>
       <c r="R80" s="182"/>
-      <c r="Z80" s="266"/>
-      <c r="AB80" s="266"/>
+      <c r="Z80" s="254"/>
+      <c r="AB80" s="254"/>
       <c r="AC80" s="182"/>
-      <c r="AD80" s="266"/>
+      <c r="AD80" s="254"/>
       <c r="AE80" s="182">
         <f>24/8977*100</f>
         <v>0.26734989417400024</v>
       </c>
-      <c r="AF80" s="266"/>
+      <c r="AF80" s="254"/>
       <c r="AI80" s="221">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ80" s="263"/>
-      <c r="AL80" s="263"/>
+      <c r="AJ80" s="273"/>
+      <c r="AL80" s="273"/>
     </row>
     <row r="81" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="266"/>
+      <c r="A81" s="254"/>
       <c r="B81" s="177">
         <v>56</v>
       </c>
@@ -30055,25 +29605,25 @@
         <f t="shared" si="4"/>
         <v>7.0351758793969852E-3</v>
       </c>
-      <c r="E81" s="266"/>
+      <c r="E81" s="254"/>
       <c r="F81" s="177"/>
-      <c r="G81" s="266"/>
+      <c r="G81" s="254"/>
       <c r="H81" s="177">
         <v>3</v>
       </c>
-      <c r="I81" s="266"/>
+      <c r="I81" s="254"/>
       <c r="J81" s="177">
         <v>0</v>
       </c>
-      <c r="K81" s="268"/>
+      <c r="K81" s="257"/>
       <c r="L81" s="177">
         <v>0.9</v>
       </c>
-      <c r="M81" s="268"/>
+      <c r="M81" s="257"/>
       <c r="N81" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O81" s="261"/>
+      <c r="O81" s="266"/>
       <c r="P81" s="183">
         <v>0</v>
       </c>
@@ -30081,29 +29631,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z81" s="266"/>
+      <c r="Z81" s="254"/>
       <c r="AA81" s="177">
         <v>0.9</v>
       </c>
-      <c r="AB81" s="266"/>
+      <c r="AB81" s="254"/>
       <c r="AC81" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD81" s="266"/>
+      <c r="AD81" s="254"/>
       <c r="AE81" s="182">
         <f>75/8977*100</f>
         <v>0.83546841929375071</v>
       </c>
-      <c r="AF81" s="266"/>
+      <c r="AF81" s="254"/>
       <c r="AI81" s="221">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ81" s="263"/>
-      <c r="AL81" s="263"/>
+      <c r="AJ81" s="273"/>
+      <c r="AL81" s="273"/>
     </row>
     <row r="82" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="266"/>
+      <c r="A82" s="254"/>
       <c r="B82" s="177">
         <v>59</v>
       </c>
@@ -30114,16 +29664,16 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E82" s="266"/>
+      <c r="E82" s="254"/>
       <c r="F82" s="177"/>
-      <c r="G82" s="266"/>
+      <c r="G82" s="254"/>
       <c r="H82" s="177">
         <v>3</v>
       </c>
-      <c r="I82" s="266"/>
-      <c r="K82" s="268"/>
-      <c r="M82" s="268"/>
-      <c r="O82" s="261"/>
+      <c r="I82" s="254"/>
+      <c r="K82" s="257"/>
+      <c r="M82" s="257"/>
+      <c r="O82" s="266"/>
       <c r="P82" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -30131,29 +29681,29 @@
       <c r="R82" s="183">
         <v>0</v>
       </c>
-      <c r="Z82" s="266"/>
+      <c r="Z82" s="254"/>
       <c r="AA82" s="177">
         <v>1.3</v>
       </c>
-      <c r="AB82" s="266"/>
+      <c r="AB82" s="254"/>
       <c r="AC82" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD82" s="266"/>
+      <c r="AD82" s="254"/>
       <c r="AE82" s="182">
         <f>95/8977*100</f>
         <v>1.0582599977720841</v>
       </c>
-      <c r="AF82" s="266"/>
+      <c r="AF82" s="254"/>
       <c r="AI82" s="221">
         <v>1.4E-2</v>
       </c>
-      <c r="AJ82" s="263"/>
-      <c r="AL82" s="263"/>
+      <c r="AJ82" s="273"/>
+      <c r="AL82" s="273"/>
     </row>
     <row r="83" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="266"/>
+      <c r="A83" s="254"/>
       <c r="B83" s="177">
         <v>66</v>
       </c>
@@ -30164,35 +29714,35 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E83" s="266"/>
+      <c r="E83" s="254"/>
       <c r="F83" s="177"/>
-      <c r="G83" s="266"/>
-      <c r="I83" s="266"/>
-      <c r="K83" s="268"/>
-      <c r="M83" s="268"/>
-      <c r="O83" s="261"/>
+      <c r="G83" s="254"/>
+      <c r="I83" s="254"/>
+      <c r="K83" s="257"/>
+      <c r="M83" s="257"/>
+      <c r="O83" s="266"/>
       <c r="P83" s="182"/>
       <c r="R83" s="182"/>
-      <c r="Z83" s="266"/>
-      <c r="AB83" s="266"/>
+      <c r="Z83" s="254"/>
+      <c r="AB83" s="254"/>
       <c r="AC83" s="182">
         <f>2/544*100</f>
         <v>0.36764705882352938</v>
       </c>
-      <c r="AD83" s="266"/>
+      <c r="AD83" s="254"/>
       <c r="AE83" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF83" s="266"/>
+      <c r="AF83" s="254"/>
       <c r="AI83" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ83" s="263"/>
-      <c r="AL83" s="263"/>
+      <c r="AJ83" s="273"/>
+      <c r="AL83" s="273"/>
     </row>
     <row r="84" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="266"/>
+      <c r="A84" s="254"/>
       <c r="B84" s="177">
         <v>68</v>
       </c>
@@ -30203,18 +29753,18 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E84" s="266"/>
+      <c r="E84" s="254"/>
       <c r="F84" s="177">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G84" s="266"/>
+      <c r="G84" s="254"/>
       <c r="H84" s="177">
         <v>3.1</v>
       </c>
-      <c r="I84" s="266"/>
-      <c r="K84" s="268"/>
-      <c r="M84" s="268"/>
-      <c r="O84" s="261"/>
+      <c r="I84" s="254"/>
+      <c r="K84" s="257"/>
+      <c r="M84" s="257"/>
+      <c r="O84" s="266"/>
       <c r="P84" s="183">
         <v>0</v>
       </c>
@@ -30222,32 +29772,32 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z84" s="266"/>
+      <c r="Z84" s="254"/>
       <c r="AA84" s="177">
         <v>0.6</v>
       </c>
-      <c r="AB84" s="266"/>
+      <c r="AB84" s="254"/>
       <c r="AC84" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD84" s="266"/>
+      <c r="AD84" s="254"/>
       <c r="AE84" s="182">
         <f>59/8977*100</f>
         <v>0.65723515651108388</v>
       </c>
-      <c r="AF84" s="266"/>
+      <c r="AF84" s="254"/>
       <c r="AI84" s="221">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ84" s="263"/>
+      <c r="AJ84" s="273"/>
       <c r="AK84" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL84" s="263"/>
+      <c r="AL84" s="273"/>
     </row>
     <row r="85" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="266"/>
+      <c r="A85" s="254"/>
       <c r="B85" s="177">
         <v>69</v>
       </c>
@@ -30258,38 +29808,38 @@
         <f t="shared" si="4"/>
         <v>1.5075376884422113E-2</v>
       </c>
-      <c r="E85" s="266"/>
+      <c r="E85" s="254"/>
       <c r="F85" s="177"/>
-      <c r="G85" s="266"/>
-      <c r="I85" s="266"/>
+      <c r="G85" s="254"/>
+      <c r="I85" s="254"/>
       <c r="J85" s="177">
         <v>0</v>
       </c>
-      <c r="K85" s="268"/>
+      <c r="K85" s="257"/>
       <c r="L85" s="177">
         <v>0.9</v>
       </c>
-      <c r="M85" s="268"/>
-      <c r="O85" s="261"/>
+      <c r="M85" s="257"/>
+      <c r="O85" s="266"/>
       <c r="P85" s="182"/>
       <c r="R85" s="182"/>
-      <c r="Z85" s="266"/>
-      <c r="AB85" s="266"/>
+      <c r="Z85" s="254"/>
+      <c r="AB85" s="254"/>
       <c r="AC85" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD85" s="266"/>
+      <c r="AD85" s="254"/>
       <c r="AE85" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF85" s="266"/>
-      <c r="AJ85" s="263"/>
-      <c r="AL85" s="263"/>
+      <c r="AF85" s="254"/>
+      <c r="AJ85" s="273"/>
+      <c r="AL85" s="273"/>
     </row>
     <row r="86" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="266"/>
+      <c r="A86" s="254"/>
       <c r="B86" s="177">
         <v>70</v>
       </c>
@@ -30300,38 +29850,38 @@
         <f t="shared" si="4"/>
         <v>8.0402010050251264E-3</v>
       </c>
-      <c r="E86" s="266"/>
+      <c r="E86" s="254"/>
       <c r="F86" s="177"/>
-      <c r="G86" s="266"/>
-      <c r="I86" s="266"/>
+      <c r="G86" s="254"/>
+      <c r="I86" s="254"/>
       <c r="J86" s="177">
         <v>0</v>
       </c>
-      <c r="K86" s="268"/>
+      <c r="K86" s="257"/>
       <c r="L86" s="177">
         <v>0.9</v>
       </c>
-      <c r="M86" s="268"/>
-      <c r="O86" s="261"/>
+      <c r="M86" s="257"/>
+      <c r="O86" s="266"/>
       <c r="P86" s="182"/>
       <c r="R86" s="182"/>
-      <c r="Z86" s="266"/>
-      <c r="AB86" s="266"/>
+      <c r="Z86" s="254"/>
+      <c r="AB86" s="254"/>
       <c r="AC86" s="182"/>
-      <c r="AD86" s="266"/>
+      <c r="AD86" s="254"/>
       <c r="AE86" s="182">
         <f>9/8977*100</f>
         <v>0.10025621031525009</v>
       </c>
-      <c r="AF86" s="266"/>
+      <c r="AF86" s="254"/>
       <c r="AI86" s="221">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ86" s="263"/>
-      <c r="AL86" s="263"/>
+      <c r="AJ86" s="273"/>
+      <c r="AL86" s="273"/>
     </row>
     <row r="87" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="266"/>
+      <c r="A87" s="254"/>
       <c r="B87" s="177">
         <v>73</v>
       </c>
@@ -30342,24 +29892,24 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E87" s="266"/>
+      <c r="E87" s="254"/>
       <c r="F87" s="177">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G87" s="266"/>
-      <c r="I87" s="266"/>
+      <c r="G87" s="254"/>
+      <c r="I87" s="254"/>
       <c r="J87" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K87" s="268"/>
+      <c r="K87" s="257"/>
       <c r="L87" s="177">
         <v>0</v>
       </c>
-      <c r="M87" s="268"/>
+      <c r="M87" s="257"/>
       <c r="N87" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O87" s="261"/>
+      <c r="O87" s="266"/>
       <c r="P87" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -30368,26 +29918,26 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z87" s="266"/>
-      <c r="AB87" s="266"/>
+      <c r="Z87" s="254"/>
+      <c r="AB87" s="254"/>
       <c r="AC87" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD87" s="266"/>
+      <c r="AD87" s="254"/>
       <c r="AE87" s="182">
         <f>43/8977*100</f>
         <v>0.47900189372841706</v>
       </c>
-      <c r="AF87" s="266"/>
+      <c r="AF87" s="254"/>
       <c r="AI87" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ87" s="263"/>
-      <c r="AL87" s="263"/>
+      <c r="AJ87" s="273"/>
+      <c r="AL87" s="273"/>
     </row>
     <row r="88" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="266"/>
+      <c r="A88" s="254"/>
       <c r="B88" s="177">
         <v>82</v>
       </c>
@@ -30398,19 +29948,19 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E88" s="266"/>
+      <c r="E88" s="254"/>
       <c r="F88" s="177"/>
-      <c r="G88" s="266"/>
-      <c r="I88" s="266"/>
+      <c r="G88" s="254"/>
+      <c r="I88" s="254"/>
       <c r="J88" s="177">
         <v>0</v>
       </c>
-      <c r="K88" s="268"/>
+      <c r="K88" s="257"/>
       <c r="L88" s="177">
         <v>0</v>
       </c>
-      <c r="M88" s="268"/>
-      <c r="O88" s="261"/>
+      <c r="M88" s="257"/>
+      <c r="O88" s="266"/>
       <c r="P88" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -30419,22 +29969,22 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z88" s="266"/>
-      <c r="AB88" s="266"/>
+      <c r="Z88" s="254"/>
+      <c r="AB88" s="254"/>
       <c r="AC88" s="182"/>
-      <c r="AD88" s="266"/>
+      <c r="AD88" s="254"/>
       <c r="AE88" s="182">
         <f>6/8977*100</f>
         <v>6.6837473543500059E-2</v>
       </c>
-      <c r="AF88" s="266"/>
-      <c r="AJ88" s="263"/>
-      <c r="AL88" s="263"/>
+      <c r="AF88" s="254"/>
+      <c r="AJ88" s="273"/>
+      <c r="AL88" s="273"/>
     </row>
     <row r="89" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="266"/>
+      <c r="A89" s="254"/>
       <c r="B89" s="177" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C89" s="184"/>
       <c r="D89" s="184"/>
@@ -30443,29 +29993,29 @@
         <f>0.011 + 0.006 + 0.006 + 0.006</f>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="G89" s="266"/>
-      <c r="I89" s="266"/>
-      <c r="K89" s="268"/>
-      <c r="M89" s="268"/>
-      <c r="O89" s="261"/>
+      <c r="G89" s="254"/>
+      <c r="I89" s="254"/>
+      <c r="K89" s="257"/>
+      <c r="M89" s="257"/>
+      <c r="O89" s="266"/>
       <c r="P89" s="182"/>
       <c r="R89" s="182"/>
-      <c r="Z89" s="266"/>
-      <c r="AB89" s="266"/>
+      <c r="Z89" s="254"/>
+      <c r="AB89" s="254"/>
       <c r="AC89" s="182"/>
-      <c r="AD89" s="266"/>
+      <c r="AD89" s="254"/>
       <c r="AE89" s="182"/>
-      <c r="AF89" s="266"/>
+      <c r="AF89" s="254"/>
       <c r="AI89" s="221">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ89" s="263"/>
-      <c r="AL89" s="263"/>
+      <c r="AJ89" s="273"/>
+      <c r="AL89" s="273"/>
     </row>
     <row r="90" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="177"/>
       <c r="B90" s="177" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C90" s="177"/>
       <c r="D90" s="177"/>
@@ -30473,7 +30023,7 @@
       <c r="F90" s="177"/>
       <c r="G90" s="177"/>
       <c r="H90" s="177"/>
-      <c r="I90" s="266"/>
+      <c r="I90" s="254"/>
       <c r="J90" s="182">
         <f>1/46*100</f>
         <v>2.1739130434782608</v>
@@ -30482,7 +30032,7 @@
         <f>2/106*100</f>
         <v>1.8867924528301887</v>
       </c>
-      <c r="O90" s="261"/>
+      <c r="O90" s="266"/>
       <c r="P90" s="183">
         <f>32/77*100</f>
         <v>41.558441558441558</v>
@@ -30492,24 +30042,24 @@
         <v>23.376623376623375</v>
       </c>
       <c r="S90" s="177"/>
-      <c r="Z90" s="266"/>
-      <c r="AB90" s="266"/>
+      <c r="Z90" s="254"/>
+      <c r="AB90" s="254"/>
       <c r="AC90" s="182">
         <f>15/544*100</f>
         <v>2.7573529411764706</v>
       </c>
-      <c r="AD90" s="266"/>
+      <c r="AD90" s="254"/>
       <c r="AE90" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF90" s="266"/>
-      <c r="AJ90" s="263"/>
-      <c r="AL90" s="263"/>
+      <c r="AF90" s="254"/>
+      <c r="AJ90" s="273"/>
+      <c r="AL90" s="273"/>
     </row>
     <row r="91" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="230" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B91" s="230"/>
       <c r="C91" s="230"/>
@@ -30550,8 +30100,8 @@
       <c r="AL91" s="228"/>
     </row>
     <row r="92" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="278" t="s">
-        <v>307</v>
+      <c r="A92" s="253" t="s">
+        <v>306</v>
       </c>
       <c r="B92" s="177">
         <v>16</v>
@@ -30572,7 +30122,7 @@
       </c>
     </row>
     <row r="93" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="266"/>
+      <c r="A93" s="254"/>
       <c r="B93" s="177">
         <v>18</v>
       </c>
@@ -30592,240 +30142,240 @@
       </c>
     </row>
     <row r="94" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="266"/>
+      <c r="A94" s="254"/>
       <c r="B94" s="177">
         <v>31</v>
       </c>
       <c r="H94" s="177">
         <v>6.8</v>
       </c>
-      <c r="I94" s="267">
+      <c r="I94" s="256">
         <f>(SUM(H94:H98)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.3216134598792062</v>
       </c>
       <c r="AA94" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB94" s="258">
+      <c r="AB94" s="255">
         <f>SUM(AA94:AA98)/100</f>
         <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="266"/>
+      <c r="A95" s="254"/>
       <c r="B95" s="177">
         <v>33</v>
       </c>
       <c r="H95" s="177">
         <v>8.9</v>
       </c>
-      <c r="I95" s="266"/>
+      <c r="I95" s="254"/>
       <c r="AA95" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB95" s="266"/>
+      <c r="AB95" s="254"/>
     </row>
     <row r="96" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="266"/>
+      <c r="A96" s="254"/>
       <c r="B96" s="177">
         <v>45</v>
       </c>
       <c r="H96" s="177">
         <v>9.9</v>
       </c>
-      <c r="I96" s="266"/>
+      <c r="I96" s="254"/>
       <c r="AA96" s="177">
         <v>4.2</v>
       </c>
-      <c r="AB96" s="266"/>
+      <c r="AB96" s="254"/>
     </row>
     <row r="97" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="266"/>
+      <c r="A97" s="254"/>
       <c r="B97" s="177">
         <v>52</v>
       </c>
       <c r="H97" s="177">
         <v>12.8</v>
       </c>
-      <c r="I97" s="266"/>
+      <c r="I97" s="254"/>
       <c r="AA97" s="177">
         <v>13.8</v>
       </c>
-      <c r="AB97" s="266"/>
+      <c r="AB97" s="254"/>
     </row>
     <row r="98" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="266"/>
+      <c r="A98" s="254"/>
       <c r="B98" s="177">
         <v>58</v>
       </c>
       <c r="H98" s="177">
         <v>14.1</v>
       </c>
-      <c r="I98" s="266"/>
+      <c r="I98" s="254"/>
       <c r="AA98" s="177">
         <v>7.9</v>
       </c>
-      <c r="AB98" s="266"/>
+      <c r="AB98" s="254"/>
     </row>
     <row r="99" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="278" t="s">
-        <v>305</v>
+      <c r="A99" s="253" t="s">
+        <v>304</v>
       </c>
       <c r="B99" s="177">
         <v>26</v>
       </c>
-      <c r="I99" s="267">
+      <c r="I99" s="256">
         <f>(SUM(H99:H112)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.38838654012079366</v>
       </c>
-      <c r="AB99" s="258">
+      <c r="AB99" s="255">
         <f>1-SUM(AB92:AB98)</f>
         <v>0.19600000000000006</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="266"/>
+      <c r="A100" s="254"/>
       <c r="B100" s="177">
         <v>35</v>
       </c>
       <c r="H100" s="177">
         <v>16.2</v>
       </c>
-      <c r="I100" s="266"/>
+      <c r="I100" s="254"/>
       <c r="AA100" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB100" s="266"/>
+      <c r="AB100" s="254"/>
     </row>
     <row r="101" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="266"/>
+      <c r="A101" s="254"/>
       <c r="B101" s="177">
         <v>39</v>
       </c>
       <c r="H101" s="177">
         <v>6.7</v>
       </c>
-      <c r="I101" s="266"/>
+      <c r="I101" s="254"/>
       <c r="AA101" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB101" s="266"/>
+      <c r="AB101" s="254"/>
     </row>
     <row r="102" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="266"/>
+      <c r="A102" s="254"/>
       <c r="B102" s="177">
         <v>51</v>
       </c>
       <c r="H102" s="177">
         <v>13.4</v>
       </c>
-      <c r="I102" s="266"/>
+      <c r="I102" s="254"/>
       <c r="AA102" s="177">
         <v>10.8</v>
       </c>
-      <c r="AB102" s="266"/>
+      <c r="AB102" s="254"/>
     </row>
     <row r="103" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="266"/>
+      <c r="A103" s="254"/>
       <c r="B103" s="177">
         <v>53</v>
       </c>
-      <c r="I103" s="266"/>
-      <c r="AB103" s="266"/>
+      <c r="I103" s="254"/>
+      <c r="AB103" s="254"/>
     </row>
     <row r="104" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="266"/>
+      <c r="A104" s="254"/>
       <c r="B104" s="177">
         <v>56</v>
       </c>
       <c r="H104" s="177">
         <v>10.7</v>
       </c>
-      <c r="I104" s="266"/>
+      <c r="I104" s="254"/>
       <c r="AA104" s="177">
         <v>7.7</v>
       </c>
-      <c r="AB104" s="266"/>
+      <c r="AB104" s="254"/>
     </row>
     <row r="105" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="266"/>
+      <c r="A105" s="254"/>
       <c r="B105" s="177">
         <v>59</v>
       </c>
       <c r="H105" s="177">
         <v>6.5</v>
       </c>
-      <c r="I105" s="266"/>
+      <c r="I105" s="254"/>
       <c r="AA105" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB105" s="266"/>
+      <c r="AB105" s="254"/>
     </row>
     <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="266"/>
+      <c r="A106" s="254"/>
       <c r="B106" s="177">
         <v>66</v>
       </c>
-      <c r="I106" s="266"/>
-      <c r="AB106" s="266"/>
+      <c r="I106" s="254"/>
+      <c r="AB106" s="254"/>
     </row>
     <row r="107" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="266"/>
+      <c r="A107" s="254"/>
       <c r="B107" s="177">
         <v>68</v>
       </c>
       <c r="H107" s="177">
         <v>9.9</v>
       </c>
-      <c r="I107" s="266"/>
+      <c r="I107" s="254"/>
       <c r="AA107" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB107" s="266"/>
+      <c r="AB107" s="254"/>
     </row>
     <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="266"/>
+      <c r="A108" s="254"/>
       <c r="B108" s="177">
         <v>69</v>
       </c>
-      <c r="I108" s="266"/>
-      <c r="AB108" s="266"/>
+      <c r="I108" s="254"/>
+      <c r="AB108" s="254"/>
     </row>
     <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="266"/>
+      <c r="A109" s="254"/>
       <c r="B109" s="177">
         <v>70</v>
       </c>
-      <c r="I109" s="266"/>
-      <c r="AB109" s="266"/>
+      <c r="I109" s="254"/>
+      <c r="AB109" s="254"/>
     </row>
     <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="266"/>
+      <c r="A110" s="254"/>
       <c r="B110" s="177">
         <v>73</v>
       </c>
-      <c r="I110" s="266"/>
-      <c r="AB110" s="266"/>
+      <c r="I110" s="254"/>
+      <c r="AB110" s="254"/>
     </row>
     <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="266"/>
+      <c r="A111" s="254"/>
       <c r="B111" s="177">
         <v>82</v>
       </c>
-      <c r="I111" s="266"/>
-      <c r="AB111" s="266"/>
+      <c r="I111" s="254"/>
+      <c r="AB111" s="254"/>
     </row>
     <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="266"/>
+      <c r="A112" s="254"/>
       <c r="B112" s="177" t="s">
-        <v>310</v>
-      </c>
-      <c r="I112" s="266"/>
-      <c r="AB112" s="266"/>
+        <v>309</v>
+      </c>
+      <c r="I112" s="254"/>
+      <c r="AB112" s="254"/>
     </row>
     <row r="113" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="230" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B113" s="229"/>
       <c r="C113" s="229"/>
@@ -30866,8 +30416,8 @@
       <c r="AL113" s="228"/>
     </row>
     <row r="114" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="278" t="s">
-        <v>307</v>
+      <c r="A114" s="253" t="s">
+        <v>306</v>
       </c>
       <c r="B114" s="177">
         <v>16</v>
@@ -30888,7 +30438,7 @@
       </c>
     </row>
     <row r="115" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="266"/>
+      <c r="A115" s="254"/>
       <c r="B115" s="177">
         <v>18</v>
       </c>
@@ -30908,240 +30458,240 @@
       </c>
     </row>
     <row r="116" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="266"/>
+      <c r="A116" s="254"/>
       <c r="B116" s="177">
         <v>31</v>
       </c>
       <c r="H116" s="177">
         <v>16.100000000000001</v>
       </c>
-      <c r="I116" s="258">
+      <c r="I116" s="255">
         <f>(SUM(H116:H120)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.32012755102040802</v>
       </c>
       <c r="AA116" s="177">
         <v>11.6</v>
       </c>
-      <c r="AB116" s="258">
+      <c r="AB116" s="255">
         <f>SUM(AA116:AA120)/100</f>
         <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="266"/>
+      <c r="A117" s="254"/>
       <c r="B117" s="177">
         <v>33</v>
       </c>
       <c r="H117" s="177">
         <v>12</v>
       </c>
-      <c r="I117" s="266"/>
+      <c r="I117" s="254"/>
       <c r="AA117" s="177">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB117" s="266"/>
+      <c r="AB117" s="254"/>
     </row>
     <row r="118" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="266"/>
+      <c r="A118" s="254"/>
       <c r="B118" s="177">
         <v>45</v>
       </c>
       <c r="H118" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I118" s="266"/>
+      <c r="I118" s="254"/>
       <c r="AA118" s="177">
         <v>5</v>
       </c>
-      <c r="AB118" s="266"/>
+      <c r="AB118" s="254"/>
     </row>
     <row r="119" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="266"/>
+      <c r="A119" s="254"/>
       <c r="B119" s="177">
         <v>52</v>
       </c>
       <c r="H119" s="177">
         <v>10.6</v>
       </c>
-      <c r="I119" s="266"/>
+      <c r="I119" s="254"/>
       <c r="AA119" s="177">
         <v>16.399999999999999</v>
       </c>
-      <c r="AB119" s="266"/>
+      <c r="AB119" s="254"/>
     </row>
     <row r="120" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="266"/>
+      <c r="A120" s="254"/>
       <c r="B120" s="177">
         <v>58</v>
       </c>
       <c r="H120" s="177">
         <v>22.1</v>
       </c>
-      <c r="I120" s="266"/>
+      <c r="I120" s="254"/>
       <c r="AA120" s="177">
         <v>12.1</v>
       </c>
-      <c r="AB120" s="266"/>
+      <c r="AB120" s="254"/>
     </row>
     <row r="121" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="278" t="s">
-        <v>305</v>
+      <c r="A121" s="253" t="s">
+        <v>304</v>
       </c>
       <c r="B121" s="177">
         <v>26</v>
       </c>
-      <c r="I121" s="267">
+      <c r="I121" s="256">
         <f>(SUM(H121:H134)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.3028724489795917</v>
       </c>
-      <c r="AB121" s="258">
+      <c r="AB121" s="255">
         <f>1-SUM(AB114:AB120)</f>
         <v>-3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="122" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="266"/>
+      <c r="A122" s="254"/>
       <c r="B122" s="177">
         <v>35</v>
       </c>
       <c r="H122" s="177">
         <v>23.9</v>
       </c>
-      <c r="I122" s="266"/>
+      <c r="I122" s="254"/>
       <c r="AA122" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB122" s="266"/>
+      <c r="AB122" s="254"/>
     </row>
     <row r="123" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="266"/>
+      <c r="A123" s="254"/>
       <c r="B123" s="177">
         <v>39</v>
       </c>
       <c r="H123" s="177">
         <v>5.4</v>
       </c>
-      <c r="I123" s="266"/>
+      <c r="I123" s="254"/>
       <c r="AA123" s="177">
         <v>5.4</v>
       </c>
-      <c r="AB123" s="266"/>
+      <c r="AB123" s="254"/>
     </row>
     <row r="124" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="266"/>
+      <c r="A124" s="254"/>
       <c r="B124" s="177">
         <v>51</v>
       </c>
       <c r="H124" s="177">
         <v>12.9</v>
       </c>
-      <c r="I124" s="266"/>
+      <c r="I124" s="254"/>
       <c r="AA124" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB124" s="266"/>
+      <c r="AB124" s="254"/>
     </row>
     <row r="125" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="266"/>
+      <c r="A125" s="254"/>
       <c r="B125" s="177">
         <v>53</v>
       </c>
-      <c r="I125" s="266"/>
-      <c r="AB125" s="266"/>
+      <c r="I125" s="254"/>
+      <c r="AB125" s="254"/>
     </row>
     <row r="126" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="266"/>
+      <c r="A126" s="254"/>
       <c r="B126" s="177">
         <v>56</v>
       </c>
       <c r="H126" s="177">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I126" s="266"/>
+      <c r="I126" s="254"/>
       <c r="AA126" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB126" s="266"/>
+      <c r="AB126" s="254"/>
     </row>
     <row r="127" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="266"/>
+      <c r="A127" s="254"/>
       <c r="B127" s="177">
         <v>59</v>
       </c>
       <c r="H127" s="177">
         <v>6.5</v>
       </c>
-      <c r="I127" s="266"/>
+      <c r="I127" s="254"/>
       <c r="AA127" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB127" s="266"/>
+      <c r="AB127" s="254"/>
     </row>
     <row r="128" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="266"/>
+      <c r="A128" s="254"/>
       <c r="B128" s="177">
         <v>66</v>
       </c>
-      <c r="I128" s="266"/>
-      <c r="AB128" s="266"/>
+      <c r="I128" s="254"/>
+      <c r="AB128" s="254"/>
     </row>
     <row r="129" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="266"/>
+      <c r="A129" s="254"/>
       <c r="B129" s="177">
         <v>68</v>
       </c>
       <c r="H129" s="177">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I129" s="266"/>
+      <c r="I129" s="254"/>
       <c r="AA129" s="177">
         <v>2.9</v>
       </c>
-      <c r="AB129" s="266"/>
+      <c r="AB129" s="254"/>
     </row>
     <row r="130" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="266"/>
+      <c r="A130" s="254"/>
       <c r="B130" s="177">
         <v>69</v>
       </c>
-      <c r="I130" s="266"/>
-      <c r="AB130" s="266"/>
+      <c r="I130" s="254"/>
+      <c r="AB130" s="254"/>
     </row>
     <row r="131" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="266"/>
+      <c r="A131" s="254"/>
       <c r="B131" s="177">
         <v>70</v>
       </c>
-      <c r="I131" s="266"/>
-      <c r="AB131" s="266"/>
+      <c r="I131" s="254"/>
+      <c r="AB131" s="254"/>
     </row>
     <row r="132" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="266"/>
+      <c r="A132" s="254"/>
       <c r="B132" s="177">
         <v>73</v>
       </c>
-      <c r="I132" s="266"/>
-      <c r="AB132" s="266"/>
+      <c r="I132" s="254"/>
+      <c r="AB132" s="254"/>
     </row>
     <row r="133" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="266"/>
+      <c r="A133" s="254"/>
       <c r="B133" s="177">
         <v>82</v>
       </c>
-      <c r="I133" s="266"/>
-      <c r="AB133" s="266"/>
+      <c r="I133" s="254"/>
+      <c r="AB133" s="254"/>
     </row>
     <row r="134" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="266"/>
+      <c r="A134" s="254"/>
       <c r="B134" s="177" t="s">
-        <v>310</v>
-      </c>
-      <c r="I134" s="266"/>
-      <c r="AB134" s="266"/>
+        <v>309</v>
+      </c>
+      <c r="I134" s="254"/>
+      <c r="AB134" s="254"/>
     </row>
     <row r="135" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="230" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B135" s="229"/>
       <c r="C135" s="229"/>
@@ -31182,8 +30732,8 @@
       <c r="AL135" s="228"/>
     </row>
     <row r="136" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="278" t="s">
-        <v>307</v>
+      <c r="A136" s="253" t="s">
+        <v>306</v>
       </c>
       <c r="B136" s="177">
         <v>16</v>
@@ -31204,7 +30754,7 @@
       </c>
     </row>
     <row r="137" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="266"/>
+      <c r="A137" s="254"/>
       <c r="B137" s="177">
         <v>18</v>
       </c>
@@ -31224,239 +30774,359 @@
       </c>
     </row>
     <row r="138" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="266"/>
+      <c r="A138" s="254"/>
       <c r="B138" s="177">
         <v>31</v>
       </c>
       <c r="H138" s="177">
         <v>10.6</v>
       </c>
-      <c r="I138" s="267">
+      <c r="I138" s="256">
         <f>(SUM(H138:H142)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.23775675675675673</v>
       </c>
       <c r="AA138" s="177">
         <v>11.7</v>
       </c>
-      <c r="AB138" s="258">
+      <c r="AB138" s="255">
         <f>SUM(AA138:AA142)/100</f>
         <v>0.43599999999999994</v>
       </c>
     </row>
     <row r="139" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="266"/>
+      <c r="A139" s="254"/>
       <c r="B139" s="177">
         <v>33</v>
       </c>
       <c r="H139" s="177">
         <v>13.8</v>
       </c>
-      <c r="I139" s="266"/>
+      <c r="I139" s="254"/>
       <c r="AA139" s="177">
         <v>9.1</v>
       </c>
-      <c r="AB139" s="266"/>
+      <c r="AB139" s="254"/>
     </row>
     <row r="140" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="266"/>
+      <c r="A140" s="254"/>
       <c r="B140" s="177">
         <v>45</v>
       </c>
       <c r="H140" s="177">
         <v>6.3</v>
       </c>
-      <c r="I140" s="266"/>
+      <c r="I140" s="254"/>
       <c r="AA140" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB140" s="266"/>
+      <c r="AB140" s="254"/>
     </row>
     <row r="141" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="266"/>
+      <c r="A141" s="254"/>
       <c r="B141" s="177">
         <v>52</v>
       </c>
       <c r="H141" s="177">
         <v>11.3</v>
       </c>
-      <c r="I141" s="266"/>
+      <c r="I141" s="254"/>
       <c r="AA141" s="177">
         <v>10.199999999999999</v>
       </c>
-      <c r="AB141" s="266"/>
+      <c r="AB141" s="254"/>
     </row>
     <row r="142" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="266"/>
+      <c r="A142" s="254"/>
       <c r="B142" s="177">
         <v>58</v>
       </c>
       <c r="H142" s="177">
         <v>18.8</v>
       </c>
-      <c r="I142" s="266"/>
+      <c r="I142" s="254"/>
       <c r="AA142" s="177">
         <v>9</v>
       </c>
-      <c r="AB142" s="266"/>
+      <c r="AB142" s="254"/>
     </row>
     <row r="143" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="278" t="s">
-        <v>305</v>
+      <c r="A143" s="253" t="s">
+        <v>304</v>
       </c>
       <c r="B143" s="177">
         <v>26</v>
       </c>
-      <c r="I143" s="267">
+      <c r="I143" s="256">
         <f>(SUM(H143:H156)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.22524324324324321</v>
       </c>
-      <c r="AB143" s="258">
+      <c r="AB143" s="255">
         <f>1-SUM(AB136:AB142)</f>
         <v>-9.2000000000000082E-2</v>
       </c>
     </row>
     <row r="144" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="266"/>
+      <c r="A144" s="254"/>
       <c r="B144" s="177">
         <v>35</v>
       </c>
       <c r="H144" s="177">
         <v>23.2</v>
       </c>
-      <c r="I144" s="266"/>
+      <c r="I144" s="254"/>
       <c r="AA144" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB144" s="266"/>
+      <c r="AB144" s="254"/>
     </row>
     <row r="145" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="266"/>
+      <c r="A145" s="254"/>
       <c r="B145" s="177">
         <v>39</v>
       </c>
       <c r="H145" s="177">
         <v>5.6</v>
       </c>
-      <c r="I145" s="266"/>
+      <c r="I145" s="254"/>
       <c r="AA145" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB145" s="266"/>
+      <c r="AB145" s="254"/>
     </row>
     <row r="146" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="266"/>
+      <c r="A146" s="254"/>
       <c r="B146" s="177">
         <v>51</v>
       </c>
       <c r="H146" s="177">
         <v>6.9</v>
       </c>
-      <c r="I146" s="266"/>
+      <c r="I146" s="254"/>
       <c r="AA146" s="177">
         <v>5.5</v>
       </c>
-      <c r="AB146" s="266"/>
+      <c r="AB146" s="254"/>
     </row>
     <row r="147" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="266"/>
+      <c r="A147" s="254"/>
       <c r="B147" s="177">
         <v>53</v>
       </c>
-      <c r="I147" s="266"/>
-      <c r="AB147" s="266"/>
+      <c r="I147" s="254"/>
+      <c r="AB147" s="254"/>
     </row>
     <row r="148" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="266"/>
+      <c r="A148" s="254"/>
       <c r="B148" s="177">
         <v>56</v>
       </c>
       <c r="H148" s="177">
         <v>10.6</v>
       </c>
-      <c r="I148" s="266"/>
+      <c r="I148" s="254"/>
       <c r="AA148" s="177">
         <v>2.5</v>
       </c>
-      <c r="AB148" s="266"/>
+      <c r="AB148" s="254"/>
     </row>
     <row r="149" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="266"/>
+      <c r="A149" s="254"/>
       <c r="B149" s="177">
         <v>59</v>
       </c>
       <c r="H149" s="177">
         <v>3.8</v>
       </c>
-      <c r="I149" s="266"/>
+      <c r="I149" s="254"/>
       <c r="AA149" s="177">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB149" s="266"/>
+      <c r="AB149" s="254"/>
     </row>
     <row r="150" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="266"/>
+      <c r="A150" s="254"/>
       <c r="B150" s="177">
         <v>66</v>
       </c>
-      <c r="I150" s="266"/>
-      <c r="AB150" s="266"/>
+      <c r="I150" s="254"/>
+      <c r="AB150" s="254"/>
     </row>
     <row r="151" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="266"/>
+      <c r="A151" s="254"/>
       <c r="B151" s="177">
         <v>68</v>
       </c>
       <c r="H151" s="177">
         <v>7.5</v>
       </c>
-      <c r="I151" s="266"/>
+      <c r="I151" s="254"/>
       <c r="AA151" s="177">
         <v>2</v>
       </c>
-      <c r="AB151" s="266"/>
+      <c r="AB151" s="254"/>
     </row>
     <row r="152" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="266"/>
+      <c r="A152" s="254"/>
       <c r="B152" s="177">
         <v>69</v>
       </c>
-      <c r="I152" s="266"/>
-      <c r="AB152" s="266"/>
+      <c r="I152" s="254"/>
+      <c r="AB152" s="254"/>
     </row>
     <row r="153" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="266"/>
+      <c r="A153" s="254"/>
       <c r="B153" s="177">
         <v>70</v>
       </c>
-      <c r="I153" s="266"/>
-      <c r="AB153" s="266"/>
+      <c r="I153" s="254"/>
+      <c r="AB153" s="254"/>
     </row>
     <row r="154" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="266"/>
+      <c r="A154" s="254"/>
       <c r="B154" s="177">
         <v>73</v>
       </c>
-      <c r="I154" s="266"/>
-      <c r="AB154" s="266"/>
+      <c r="I154" s="254"/>
+      <c r="AB154" s="254"/>
     </row>
     <row r="155" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="266"/>
+      <c r="A155" s="254"/>
       <c r="B155" s="177">
         <v>82</v>
       </c>
-      <c r="I155" s="266"/>
-      <c r="AB155" s="266"/>
+      <c r="I155" s="254"/>
+      <c r="AB155" s="254"/>
     </row>
     <row r="156" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="266"/>
+      <c r="A156" s="254"/>
       <c r="B156" s="177" t="s">
-        <v>310</v>
-      </c>
-      <c r="I156" s="266"/>
-      <c r="AB156" s="266"/>
+        <v>309</v>
+      </c>
+      <c r="I156" s="254"/>
+      <c r="AB156" s="254"/>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="O76:O90"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AJ71:AJ75"/>
+    <mergeCell ref="AL71:AL75"/>
+    <mergeCell ref="AJ76:AJ90"/>
+    <mergeCell ref="AL76:AL90"/>
+    <mergeCell ref="X16:X26"/>
+    <mergeCell ref="X11:X15"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AH35:AH46"/>
+    <mergeCell ref="AF71:AF75"/>
+    <mergeCell ref="Z76:Z90"/>
+    <mergeCell ref="AD76:AD90"/>
+    <mergeCell ref="AF76:AF90"/>
+    <mergeCell ref="Z16:Z26"/>
+    <mergeCell ref="AB16:AB26"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="Z11:Z15"/>
+    <mergeCell ref="AB11:AB15"/>
+    <mergeCell ref="K76:K89"/>
+    <mergeCell ref="M76:M89"/>
+    <mergeCell ref="AB76:AB90"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="J3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="X50:X54"/>
+    <mergeCell ref="Z50:Z54"/>
+    <mergeCell ref="AB50:AB54"/>
+    <mergeCell ref="O71:O75"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="E16:E26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="X30:X34"/>
+    <mergeCell ref="Z30:Z34"/>
+    <mergeCell ref="AB30:AB34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="E35:E46"/>
+    <mergeCell ref="I35:I46"/>
+    <mergeCell ref="X35:X45"/>
+    <mergeCell ref="Z35:Z46"/>
+    <mergeCell ref="AB35:AB46"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="I143:I156"/>
+    <mergeCell ref="AB143:AB156"/>
+    <mergeCell ref="A121:A134"/>
+    <mergeCell ref="I121:I134"/>
+    <mergeCell ref="AB121:AB134"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="I138:I142"/>
+    <mergeCell ref="AB138:AB142"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="I55:I67"/>
+    <mergeCell ref="X55:X67"/>
+    <mergeCell ref="Z55:Z66"/>
+    <mergeCell ref="AB55:AB66"/>
+    <mergeCell ref="I76:I90"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="G71:G75"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="K71:K75"/>
     <mergeCell ref="AP55:AP67"/>
     <mergeCell ref="AQ55:AQ67"/>
     <mergeCell ref="AO11:AO15"/>
@@ -31481,126 +31151,6 @@
     <mergeCell ref="A76:A89"/>
     <mergeCell ref="E76:E88"/>
     <mergeCell ref="G76:G89"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="I143:I156"/>
-    <mergeCell ref="AB143:AB156"/>
-    <mergeCell ref="A121:A134"/>
-    <mergeCell ref="I121:I134"/>
-    <mergeCell ref="AB121:AB134"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="AB138:AB142"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="I55:I67"/>
-    <mergeCell ref="X55:X67"/>
-    <mergeCell ref="Z55:Z66"/>
-    <mergeCell ref="AB55:AB66"/>
-    <mergeCell ref="I76:I90"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="G71:G75"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="K71:K75"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="X30:X34"/>
-    <mergeCell ref="Z30:Z34"/>
-    <mergeCell ref="AB30:AB34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="E35:E46"/>
-    <mergeCell ref="I35:I46"/>
-    <mergeCell ref="X35:X45"/>
-    <mergeCell ref="Z35:Z46"/>
-    <mergeCell ref="AB35:AB46"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="E16:E26"/>
-    <mergeCell ref="I16:I26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z50:Z54"/>
-    <mergeCell ref="AB50:AB54"/>
-    <mergeCell ref="O71:O75"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="Z11:Z15"/>
-    <mergeCell ref="AB11:AB15"/>
-    <mergeCell ref="K76:K89"/>
-    <mergeCell ref="M76:M89"/>
-    <mergeCell ref="AB76:AB90"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="J3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="X50:X54"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="O76:O90"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AJ71:AJ75"/>
-    <mergeCell ref="AL71:AL75"/>
-    <mergeCell ref="AJ76:AJ90"/>
-    <mergeCell ref="AL76:AL90"/>
-    <mergeCell ref="X16:X26"/>
-    <mergeCell ref="X11:X15"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="AH35:AH46"/>
-    <mergeCell ref="AF71:AF75"/>
-    <mergeCell ref="Z76:Z90"/>
-    <mergeCell ref="AD76:AD90"/>
-    <mergeCell ref="AF76:AF90"/>
-    <mergeCell ref="Z16:Z26"/>
-    <mergeCell ref="AB16:AB26"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31626,128 +31176,128 @@
   <sheetData>
     <row r="1" spans="1:38" s="227" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="227" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="210" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="209" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="D2" s="208" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="E2" s="206" t="s">
         <v>251</v>
-      </c>
-      <c r="E2" s="206" t="s">
-        <v>252</v>
       </c>
       <c r="F2" s="205"/>
       <c r="G2" s="205"/>
       <c r="H2" s="204" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="282" t="s">
         <v>253</v>
       </c>
-      <c r="I2" s="289" t="s">
+      <c r="J2" s="282"/>
+      <c r="K2" s="281" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="289"/>
-      <c r="K2" s="288" t="s">
+      <c r="L2" s="281"/>
+      <c r="M2" s="203" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="288"/>
-      <c r="M2" s="203" t="s">
-        <v>256</v>
-      </c>
-      <c r="N2" s="287" t="s">
-        <v>348</v>
-      </c>
-      <c r="O2" s="287"/>
+      <c r="N2" s="280" t="s">
+        <v>347</v>
+      </c>
+      <c r="O2" s="280"/>
       <c r="P2" s="226" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q2" s="285" t="s">
         <v>346</v>
       </c>
-      <c r="R2" s="285"/>
+      <c r="Q2" s="252" t="s">
+        <v>345</v>
+      </c>
+      <c r="R2" s="252"/>
       <c r="S2" s="225" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="177" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="176" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="C3" s="177" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="D3" s="177" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="177" t="s">
+      <c r="E3" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="H3" s="177" t="s">
         <v>261</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="I3" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="K3" s="177" t="s">
         <v>263</v>
       </c>
-      <c r="K3" s="177" t="s">
+      <c r="M3" s="177" t="s">
         <v>264</v>
       </c>
-      <c r="M3" s="177" t="s">
-        <v>265</v>
-      </c>
       <c r="N3" s="221" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O3" s="220"/>
       <c r="P3" s="176" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q3" s="176" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="222" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="224" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="202" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="222" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" s="222" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H4" s="222" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I4" s="222" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K4" s="222" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M4" s="222" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N4" s="223" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P4" s="176" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="176" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA4" s="177"/>
       <c r="AE4" s="177"/>
@@ -31757,63 +31307,63 @@
     </row>
     <row r="5" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="177" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="202" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="C5" s="202" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="177" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="202" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="177" t="s">
+      <c r="E5" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="177" t="s">
+      <c r="I5" s="177" t="s">
         <v>269</v>
       </c>
-      <c r="I5" s="177" t="s">
+      <c r="J5" s="177" t="s">
         <v>270</v>
       </c>
-      <c r="J5" s="177" t="s">
+      <c r="K5" s="177" t="s">
+        <v>269</v>
+      </c>
+      <c r="L5" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="K5" s="177" t="s">
+      <c r="M5" s="177" t="s">
+        <v>272</v>
+      </c>
+      <c r="N5" s="221" t="s">
         <v>270</v>
       </c>
-      <c r="L5" s="177" t="s">
-        <v>272</v>
-      </c>
-      <c r="M5" s="177" t="s">
-        <v>273</v>
-      </c>
-      <c r="N5" s="221" t="s">
-        <v>271</v>
-      </c>
       <c r="O5" s="221" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P5" s="176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="176" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="177" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="202" t="s">
+      <c r="C6" s="177" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="D6" s="177" t="s">
         <v>276</v>
-      </c>
-      <c r="D6" s="177" t="s">
-        <v>277</v>
       </c>
       <c r="E6" s="177" t="s">
         <v>57</v>
@@ -31822,134 +31372,134 @@
         <v>31</v>
       </c>
       <c r="G6" s="222" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H6" s="177" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="177" t="s">
         <v>278</v>
       </c>
-      <c r="I6" s="177" t="s">
+      <c r="K6" s="177" t="s">
         <v>279</v>
       </c>
-      <c r="K6" s="177" t="s">
-        <v>280</v>
-      </c>
       <c r="M6" s="177" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N6" s="221" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O6" s="220"/>
       <c r="P6" s="176" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R6" s="176" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A7" s="177" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="177" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="C7" s="177" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="D7" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="E7" s="279" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="286" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="279"/>
       <c r="H7" s="177" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I7" s="177" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="177" t="s">
         <v>289</v>
       </c>
-      <c r="K7" s="177" t="s">
+      <c r="M7" s="177" t="s">
         <v>290</v>
       </c>
-      <c r="M7" s="177" t="s">
-        <v>291</v>
-      </c>
       <c r="N7" s="221" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O7" s="220"/>
       <c r="P7" s="176" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="215" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S7" s="186" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="B8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="201" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F8" s="201" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G8" s="201" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R8" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="180" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B9" s="179"/>
       <c r="C9" s="179"/>
@@ -31972,7 +31522,7 @@
     </row>
     <row r="10" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B10" s="197">
         <v>9.8522167487684748E-2</v>
@@ -31995,7 +31545,7 @@
     </row>
     <row r="11" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B11" s="197">
         <v>5.9113300492610842E-2</v>
@@ -32018,7 +31568,7 @@
     </row>
     <row r="12" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B12" s="197">
         <v>0.30541871921182273</v>
@@ -32043,12 +31593,12 @@
         <v>0.46822135734532</v>
       </c>
       <c r="T12" s="215" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B13" s="197">
         <v>0.53694581280788167</v>
@@ -32073,12 +31623,12 @@
         <v>0.53177864265468</v>
       </c>
       <c r="T13" s="215" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="180" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B14" s="198"/>
       <c r="C14" s="179"/>
@@ -32101,7 +31651,7 @@
     </row>
     <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" s="197">
         <v>9.5869056897895572E-2</v>
@@ -32124,7 +31674,7 @@
     </row>
     <row r="16" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" s="197">
         <v>6.8589243959470012E-2</v>
@@ -32147,7 +31697,7 @@
     </row>
     <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B17" s="197">
         <v>0.30085736554949344</v>
@@ -32172,12 +31722,12 @@
         <v>0.51915783320342934</v>
       </c>
       <c r="T17" s="215" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="197">
         <v>0.53468433359314127</v>
@@ -32202,12 +31752,12 @@
         <v>0.48084216679657066</v>
       </c>
       <c r="T18" s="215" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="180" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B19" s="198"/>
       <c r="C19" s="179"/>
@@ -32230,7 +31780,7 @@
     </row>
     <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" s="197">
         <v>0.15971316818774448</v>
@@ -32250,7 +31800,7 @@
     </row>
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B21" s="197">
         <v>5.9973924380704043E-2</v>
@@ -32270,7 +31820,7 @@
     </row>
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" s="197">
         <v>0.36571056062581492</v>
@@ -32292,12 +31842,12 @@
         <v>0.73709892344552175</v>
       </c>
       <c r="T22" s="215" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" s="197">
         <v>0.41460234680573665</v>
@@ -32325,12 +31875,12 @@
         <v>0.26290107655447825</v>
       </c>
       <c r="T23" s="215" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="180" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" s="190"/>
       <c r="C24" s="179"/>
@@ -32353,7 +31903,7 @@
     </row>
     <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" s="189">
         <v>0.50954773869346748</v>
@@ -32394,7 +31944,7 @@
     </row>
     <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" s="189">
         <v>0.13567839195979903</v>
@@ -32435,7 +31985,7 @@
     </row>
     <row r="27" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B27" s="189">
         <v>0.19296482412060306</v>
@@ -32478,12 +32028,12 @@
         <v>0.85780595009985727</v>
       </c>
       <c r="T27" s="215" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="189">
         <v>0.16180904522613065</v>
@@ -32526,12 +32076,12 @@
         <v>0.14219404990014273</v>
       </c>
       <c r="T28" s="215" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="213" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" s="214"/>
       <c r="C29" s="213"/>
@@ -32546,7 +32096,7 @@
     </row>
     <row r="30" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="180" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="180"/>
       <c r="C30" s="180"/>
@@ -32565,7 +32115,7 @@
     </row>
     <row r="31" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D31" s="178">
         <v>0.183</v>
@@ -32576,7 +32126,7 @@
     </row>
     <row r="32" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D32" s="178">
         <v>0.107</v>
@@ -32587,7 +32137,7 @@
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D33" s="177">
         <v>0.3216134598792062</v>
@@ -32598,7 +32148,7 @@
     </row>
     <row r="34" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D34" s="177">
         <v>0.38838654012079366</v>
@@ -32609,7 +32159,7 @@
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="180" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B35" s="179"/>
       <c r="C35" s="179"/>
@@ -32628,7 +32178,7 @@
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D36" s="178">
         <v>0.23</v>
@@ -32639,7 +32189,7 @@
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D37" s="178">
         <v>0.14699999999999999</v>
@@ -32650,7 +32200,7 @@
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D38" s="177">
         <v>0.32012755102040802</v>
@@ -32661,7 +32211,7 @@
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D39" s="177">
         <v>0.3028724489795917</v>
@@ -32672,7 +32222,7 @@
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="180" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" s="179"/>
       <c r="C40" s="179"/>
@@ -32691,7 +32241,7 @@
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="188" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D41" s="178">
         <v>0.40600000000000003</v>
@@ -32702,7 +32252,7 @@
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D42" s="178">
         <v>0.13100000000000001</v>
@@ -32713,7 +32263,7 @@
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D43" s="177">
         <v>0.23775675675675673</v>
@@ -32724,7 +32274,7 @@
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D44" s="177">
         <v>0.22524324324324321</v>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="796" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="701" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -892,9 +892,6 @@
     <t>We assume the type distribution for CIN2 to be the average of the type distributions for low- and high-grade lesions</t>
   </si>
   <si>
-    <t>Source for the type distributions = Africa-specific estimates from Guan P et al. Human papillomavirus types in 115,789 HPV-positive women: a meta-analysis from cervical infection to cancer. Int J Cancer. 2012 Nov 15;131(10):2349-59. doi: 10.1002/ijc.27485. Limitation is that these include HIV+ and HIV-, and the transitions in this table are specific to HIV-</t>
-  </si>
-  <si>
     <t>`10-25</t>
   </si>
   <si>
@@ -905,9 +902,6 @@
   </si>
   <si>
     <t>70+</t>
-  </si>
-  <si>
-    <t>Type distributions by stage of infection (based on distributions from Guan et al. 2012 -  see below)</t>
   </si>
   <si>
     <r>
@@ -1355,6 +1349,12 @@
   </si>
   <si>
     <t>Sankaranarayanan et al. Cancer survival in Africa, Asia, and Central America: a population-based study. Lancet Oncol 2010;11;2:165-73.</t>
+  </si>
+  <si>
+    <t>Type distributions by stage of infection (based on distributions in later tabs)</t>
+  </si>
+  <si>
+    <t>Source for the type distributions = see later tab</t>
   </si>
 </sst>
 </file>
@@ -2516,102 +2516,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2642,6 +2546,102 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9054,18 +9054,18 @@
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="254" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="F2" s="241" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="F2" s="254" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
       <c r="J2" s="51"/>
       <c r="K2" s="104"/>
       <c r="L2" s="104"/>
@@ -9395,12 +9395,12 @@
       <c r="U15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -9607,12 +9607,12 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="242" t="s">
+      <c r="B28" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="257"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -9881,7 +9881,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -9941,8 +9941,8 @@
       <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
-        <v>357</v>
+      <c r="A2" s="249" t="s">
+        <v>355</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -9997,37 +9997,37 @@
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="1:34" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="F4" s="246" t="s">
-        <v>356</v>
-      </c>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="N4" s="292"/>
-      <c r="O4" s="293"/>
+      <c r="A4" s="254" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="F4" s="259" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="259"/>
+      <c r="H4" s="259"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="N4" s="250"/>
+      <c r="O4" s="251"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
+      <c r="S4" s="241"/>
+      <c r="T4" s="241"/>
+      <c r="U4" s="241"/>
       <c r="V4" s="1"/>
       <c r="W4" s="7"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
+      <c r="AA4" s="241"/>
+      <c r="AB4" s="241"/>
+      <c r="AC4" s="241"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -10054,27 +10054,27 @@
       <c r="H5" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="290"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
-      <c r="N5" s="294"/>
-      <c r="O5" s="294"/>
-      <c r="P5" s="294"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="283"/>
-      <c r="T5" s="283"/>
-      <c r="U5" s="283"/>
+      <c r="S5" s="241"/>
+      <c r="T5" s="241"/>
+      <c r="U5" s="241"/>
       <c r="V5" s="1"/>
       <c r="W5" s="7"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="283"/>
-      <c r="AB5" s="283"/>
-      <c r="AC5" s="283"/>
+      <c r="AA5" s="241"/>
+      <c r="AB5" s="241"/>
+      <c r="AC5" s="241"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -10107,27 +10107,27 @@
       <c r="H6" s="55">
         <v>1</v>
       </c>
-      <c r="I6" s="290"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="294"/>
-      <c r="N6" s="294"/>
-      <c r="O6" s="294"/>
-      <c r="P6" s="294"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="283"/>
-      <c r="T6" s="283"/>
-      <c r="U6" s="283"/>
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
       <c r="V6" s="1"/>
       <c r="W6" s="7"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="283"/>
-      <c r="AB6" s="283"/>
-      <c r="AC6" s="283"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="241"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -10160,27 +10160,27 @@
       <c r="H7" s="55">
         <v>1</v>
       </c>
-      <c r="I7" s="290"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="294"/>
-      <c r="L7" s="294"/>
-      <c r="M7" s="294"/>
-      <c r="N7" s="294"/>
-      <c r="O7" s="294"/>
-      <c r="P7" s="294"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="252"/>
+      <c r="N7" s="252"/>
+      <c r="O7" s="252"/>
+      <c r="P7" s="252"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="283"/>
-      <c r="T7" s="283"/>
-      <c r="U7" s="283"/>
+      <c r="S7" s="241"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="241"/>
       <c r="V7" s="1"/>
       <c r="W7" s="7"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="283"/>
-      <c r="AB7" s="283"/>
-      <c r="AC7" s="283"/>
+      <c r="AA7" s="241"/>
+      <c r="AB7" s="241"/>
+      <c r="AC7" s="241"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -10213,27 +10213,27 @@
       <c r="H8" s="55">
         <v>1</v>
       </c>
-      <c r="I8" s="290"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
-      <c r="N8" s="294"/>
-      <c r="O8" s="294"/>
-      <c r="P8" s="294"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="252"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="252"/>
+      <c r="P8" s="252"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="283"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="283"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
       <c r="V8" s="1"/>
       <c r="W8" s="7"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="283"/>
-      <c r="AB8" s="283"/>
-      <c r="AC8" s="283"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="241"/>
+      <c r="AC8" s="241"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -10266,27 +10266,27 @@
       <c r="H9" s="55">
         <v>1</v>
       </c>
-      <c r="I9" s="290"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
-      <c r="M9" s="294"/>
-      <c r="N9" s="294"/>
-      <c r="O9" s="294"/>
-      <c r="P9" s="294"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="252"/>
+      <c r="O9" s="252"/>
+      <c r="P9" s="252"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="283"/>
-      <c r="T9" s="283"/>
-      <c r="U9" s="283"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
       <c r="V9" s="1"/>
       <c r="W9" s="7"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="283"/>
-      <c r="AB9" s="283"/>
-      <c r="AC9" s="283"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="241"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
@@ -10297,15 +10297,15 @@
       <c r="A10" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="289">
+      <c r="B10" s="247">
         <f t="shared" si="1"/>
         <v>0.20707783810724914</v>
       </c>
-      <c r="C10" s="289">
+      <c r="C10" s="247">
         <f t="shared" si="0"/>
         <v>0.24174996650700001</v>
       </c>
-      <c r="D10" s="289">
+      <c r="D10" s="247">
         <f t="shared" si="0"/>
         <v>0.5207380372</v>
       </c>
@@ -10319,44 +10319,44 @@
       <c r="H10" s="55">
         <v>1</v>
       </c>
-      <c r="I10" s="290"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="294"/>
-      <c r="M10" s="294"/>
-      <c r="N10" s="294"/>
-      <c r="O10" s="294"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="287"/>
-      <c r="R10" s="287"/>
-      <c r="S10" s="284"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="285"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="252"/>
+      <c r="N10" s="252"/>
+      <c r="O10" s="252"/>
+      <c r="P10" s="252"/>
+      <c r="Q10" s="245"/>
+      <c r="R10" s="245"/>
+      <c r="S10" s="242"/>
+      <c r="T10" s="243"/>
+      <c r="U10" s="243"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="284"/>
-      <c r="AB10" s="286"/>
-      <c r="AC10" s="286"/>
-      <c r="AD10" s="284"/>
-      <c r="AE10" s="286"/>
-      <c r="AF10" s="286"/>
+      <c r="AA10" s="242"/>
+      <c r="AB10" s="244"/>
+      <c r="AC10" s="244"/>
+      <c r="AD10" s="242"/>
+      <c r="AE10" s="244"/>
+      <c r="AF10" s="244"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="288" t="s">
+      <c r="A11" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="295">
+      <c r="B11" s="253">
         <v>6.2394953000000003E-2</v>
       </c>
-      <c r="C11" s="295">
+      <c r="C11" s="253">
         <v>0.15015525869999999</v>
       </c>
-      <c r="D11" s="295">
+      <c r="D11" s="253">
         <v>0.5207380372</v>
       </c>
       <c r="E11" s="38"/>
@@ -10369,26 +10369,26 @@
       <c r="H11" s="55">
         <v>1</v>
       </c>
-      <c r="J11" s="294"/>
-      <c r="K11" s="294"/>
-      <c r="L11" s="294"/>
-      <c r="M11" s="294"/>
-      <c r="N11" s="294"/>
-      <c r="O11" s="294"/>
-      <c r="P11" s="294"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="252"/>
+      <c r="O11" s="252"/>
+      <c r="P11" s="252"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="283"/>
-      <c r="T11" s="283"/>
+      <c r="S11" s="241"/>
+      <c r="T11" s="241"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="7"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="283"/>
-      <c r="AB11" s="283"/>
-      <c r="AC11" s="283"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="241"/>
+      <c r="AC11" s="241"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -10396,12 +10396,12 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N12" s="292"/>
+      <c r="N12" s="250"/>
       <c r="O12" s="51"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="283"/>
+      <c r="S12" s="241"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -10409,9 +10409,9 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="283"/>
-      <c r="AB12" s="283"/>
-      <c r="AC12" s="283"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="241"/>
+      <c r="AC12" s="241"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -10419,12 +10419,12 @@
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N13" s="292"/>
+      <c r="N13" s="250"/>
       <c r="O13" s="51"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="283"/>
+      <c r="S13" s="241"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -10432,9 +10432,9 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="283"/>
-      <c r="AB13" s="283"/>
-      <c r="AC13" s="283"/>
+      <c r="AA13" s="241"/>
+      <c r="AB13" s="241"/>
+      <c r="AC13" s="241"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -10446,12 +10446,12 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="N14" s="292"/>
+      <c r="N14" s="250"/>
       <c r="O14" s="104"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="283"/>
+      <c r="S14" s="241"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="1"/>
@@ -10459,9 +10459,9 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="283"/>
-      <c r="AB14" s="283"/>
-      <c r="AC14" s="283"/>
+      <c r="AA14" s="241"/>
+      <c r="AB14" s="241"/>
+      <c r="AC14" s="241"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -10473,12 +10473,12 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="N15" s="292"/>
+      <c r="N15" s="250"/>
       <c r="O15" s="104"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="283"/>
+      <c r="S15" s="241"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="1"/>
@@ -10486,9 +10486,9 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="283"/>
-      <c r="AB15" s="283"/>
-      <c r="AC15" s="283"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="241"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -10500,7 +10500,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="N16" s="292"/>
+      <c r="N16" s="250"/>
       <c r="O16" s="104"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -10513,9 +10513,9 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="283"/>
-      <c r="AB16" s="283"/>
-      <c r="AC16" s="283"/>
+      <c r="AA16" s="241"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="241"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
@@ -10912,11 +10912,11 @@
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
-      <c r="B38" s="241" t="s">
+      <c r="B38" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="241"/>
-      <c r="D38" s="241"/>
+      <c r="C38" s="254"/>
+      <c r="D38" s="254"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38" t="s">
@@ -11047,10 +11047,10 @@
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
-      <c r="G44" s="245" t="s">
+      <c r="G44" s="258" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="245"/>
+      <c r="H44" s="258"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
     </row>
@@ -11220,7 +11220,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -15820,8 +15820,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW113"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19754,7 +19754,7 @@
     </row>
     <row r="23" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -21045,7 +21045,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="83" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -22780,10 +22780,10 @@
       <c r="AG71" s="10"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="247" t="s">
+      <c r="A72" s="260" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="247"/>
+      <c r="B72" s="260"/>
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="I72" s="80"/>
@@ -22960,10 +22960,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="248" t="s">
+      <c r="A84" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="248"/>
+      <c r="B84" s="261"/>
       <c r="C84" s="80"/>
       <c r="D84" s="80"/>
       <c r="E84" s="80"/>
@@ -23390,8 +23390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23423,17 +23423,17 @@
     </row>
     <row r="2" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="169" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="170" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="171" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -23443,20 +23443,20 @@
     </row>
     <row r="6" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="171" t="s">
-        <v>227</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7" s="168" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -23690,7 +23690,7 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B11" s="157" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="128">
         <v>0.59145199999999998</v>
@@ -23884,7 +23884,7 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B12" s="158" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="130">
         <v>0.43646124999999997</v>
@@ -24078,7 +24078,7 @@
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B13" s="158" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" s="130">
         <v>0.26398274999999999</v>
@@ -24272,7 +24272,7 @@
     </row>
     <row r="14" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="159" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="132">
         <v>0.23293700000000003</v>
@@ -24466,7 +24466,7 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="H16" s="111"/>
       <c r="M16" s="111"/>
@@ -24637,10 +24637,10 @@
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25" s="145" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C25" s="146">
         <f t="array" ref="C25:C28">(C$18/SUM(C$18:C$20))*(E11:E14 + F11:F14 +G11:G14) + (C19/SUM(C$18:C$20))*(Z11:Z14 + AA11:AA14 + AB11:AB14) + (C$20/SUM(C$18:C$20))*(Z11:Z14+AA11:AA14 +AB11:AB14)*0.95</f>
@@ -24675,7 +24675,7 @@
         <v>0.10196696743063932</v>
       </c>
       <c r="L25" s="145" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M25" s="148">
         <f t="array" ref="M25:M28">((AU11:AU14 + AV11:AV14 + AW11:AW14) - (Z11:Z14+AA11:AA14 +AB11:AB14)*0.95*(C20/SUM(C20:C21)))/(1-(C20/SUM(C20:C21)))</f>
@@ -24712,7 +24712,7 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C26" s="80">
         <v>0.13448278127147767</v>
@@ -24739,7 +24739,7 @@
         <v>7.8506747135102528E-2</v>
       </c>
       <c r="L26" s="143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M26" s="80">
         <v>3.9348954066985652E-2</v>
@@ -24768,7 +24768,7 @@
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="143" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C27" s="80">
         <v>9.6298402061855651E-2</v>
@@ -24795,7 +24795,7 @@
         <v>2.746671079613993E-2</v>
       </c>
       <c r="L27" s="143" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M27" s="80">
         <v>2.7719267942583732E-2</v>
@@ -24824,7 +24824,7 @@
     </row>
     <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="109">
         <v>9.6298402061855637E-2</v>
@@ -24851,7 +24851,7 @@
         <v>1.4065155609167674E-2</v>
       </c>
       <c r="L28" s="144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M28" s="109">
         <v>2.7719267942583746E-2</v>
@@ -24880,7 +24880,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
@@ -24944,7 +24944,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="172" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C32" s="173">
         <f t="shared" ref="C32:J34" si="0">C26/C$25</f>
@@ -24980,7 +24980,7 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="172" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M32" s="173">
         <f t="shared" ref="M32:T32" si="1">M26/M$25</f>
@@ -25019,7 +25019,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B33" s="160" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C33" s="173">
         <f t="shared" si="0"/>
@@ -25055,7 +25055,7 @@
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="160" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M33" s="173">
         <f t="shared" ref="M33:T33" si="2">M27/M$25</f>
@@ -25092,7 +25092,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" s="161" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="173">
         <f t="shared" si="0"/>
@@ -25128,7 +25128,7 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="161" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M34" s="173">
         <f t="shared" ref="M34:T34" si="3">M28/M$25</f>
@@ -25169,7 +25169,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -25223,10 +25223,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B38" s="145" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C38" s="174">
         <f>AVERAGE(C32,M32)</f>
@@ -25263,7 +25263,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B39" s="149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="174">
         <f t="shared" ref="C39:C40" si="5">AVERAGE(C33,M33)</f>
@@ -25300,7 +25300,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B40" s="150" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="174">
         <f t="shared" si="5"/>
@@ -25726,21 +25726,21 @@
   <sheetData>
     <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="201"/>
-      <c r="C1" s="267" t="s">
+      <c r="C1" s="275" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="276" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="268"/>
+      <c r="H1" s="208" t="s">
         <v>248</v>
-      </c>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="208" t="s">
-        <v>250</v>
       </c>
       <c r="I1" s="207"/>
       <c r="J1" s="206" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K1" s="205"/>
       <c r="L1" s="205"/>
@@ -25751,503 +25751,503 @@
       <c r="Q1" s="205"/>
       <c r="R1" s="205"/>
       <c r="S1" s="205"/>
-      <c r="T1" s="269" t="s">
+      <c r="T1" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
+      <c r="Y1" s="278" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="279" t="s">
         <v>252</v>
       </c>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
-      <c r="Y1" s="270" t="s">
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="268"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="282" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="254"/>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD1" s="254"/>
-      <c r="AE1" s="254"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="262" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH1" s="254"/>
+      <c r="AH1" s="268"/>
       <c r="AI1" s="272" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ1" s="273"/>
-      <c r="AK1" s="273"/>
-      <c r="AL1" s="273"/>
-      <c r="AM1" s="251" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN1" s="251"/>
-      <c r="AO1" s="251"/>
-      <c r="AP1" s="252" t="s">
         <v>345</v>
       </c>
-      <c r="AQ1" s="252"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="290" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN1" s="290"/>
+      <c r="AO1" s="290"/>
+      <c r="AP1" s="291" t="s">
+        <v>343</v>
+      </c>
+      <c r="AQ1" s="291"/>
     </row>
     <row r="2" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="177" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="268" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="274" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="254" t="s">
+      <c r="G2" s="268"/>
+      <c r="H2" s="274" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="263" t="s">
+      <c r="I2" s="268"/>
+      <c r="J2" s="274" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="263" t="s">
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="274" t="s">
         <v>259</v>
       </c>
-      <c r="I2" s="254"/>
-      <c r="J2" s="263" t="s">
+      <c r="U2" s="268"/>
+      <c r="V2" s="268"/>
+      <c r="W2" s="268"/>
+      <c r="X2" s="268"/>
+      <c r="Y2" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="263" t="s">
+      <c r="Z2" s="268"/>
+      <c r="AA2" s="268"/>
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="263" t="s">
+      <c r="AD2" s="268"/>
+      <c r="AE2" s="268"/>
+      <c r="AF2" s="268"/>
+      <c r="AG2" s="274" t="s">
         <v>262</v>
       </c>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="254"/>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="263" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD2" s="254"/>
-      <c r="AE2" s="254"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="263" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="274" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ2" s="273"/>
-      <c r="AK2" s="273"/>
-      <c r="AL2" s="273"/>
+      <c r="AH2" s="268"/>
+      <c r="AI2" s="273" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ2" s="265"/>
+      <c r="AK2" s="265"/>
+      <c r="AL2" s="265"/>
       <c r="AM2" s="176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AP2" s="176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="177" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="201"/>
+      <c r="C3" s="283" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="283" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="268"/>
+      <c r="H3" s="269" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="264" t="s">
+      <c r="I3" s="268"/>
+      <c r="J3" s="269" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="268"/>
+      <c r="N3" s="268"/>
+      <c r="O3" s="268"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="268"/>
+      <c r="S3" s="268"/>
+      <c r="T3" s="269" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="264" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="254"/>
-      <c r="H3" s="255" t="s">
+      <c r="U3" s="268"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="268"/>
+      <c r="X3" s="268"/>
+      <c r="Y3" s="269" t="s">
         <v>267</v>
       </c>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255" t="s">
+      <c r="Z3" s="268"/>
+      <c r="AA3" s="269" t="s">
         <v>268</v>
       </c>
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="255" t="s">
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="269" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD3" s="268"/>
+      <c r="AE3" s="269" t="s">
         <v>269</v>
       </c>
-      <c r="Z3" s="254"/>
-      <c r="AA3" s="255" t="s">
+      <c r="AF3" s="268"/>
+      <c r="AG3" s="269" t="s">
         <v>270</v>
       </c>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="255" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD3" s="254"/>
-      <c r="AE3" s="255" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="255" t="s">
-        <v>272</v>
-      </c>
-      <c r="AH3" s="254"/>
-      <c r="AI3" s="275" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ3" s="273"/>
-      <c r="AK3" s="275" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL3" s="273"/>
+      <c r="AH3" s="268"/>
+      <c r="AI3" s="264" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ3" s="265"/>
+      <c r="AK3" s="264" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL3" s="265"/>
       <c r="AM3" s="176" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AP3" s="176" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="222" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B4" s="201"/>
       <c r="C4" s="224" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="276">
+        <v>337</v>
+      </c>
+      <c r="F4" s="280">
         <v>181</v>
       </c>
-      <c r="G4" s="276"/>
-      <c r="H4" s="263" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" s="255"/>
+      <c r="G4" s="280"/>
+      <c r="H4" s="274" t="s">
+        <v>335</v>
+      </c>
+      <c r="I4" s="269"/>
       <c r="J4" s="222" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="T4" s="222" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Y4" s="222" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AA4" s="177"/>
       <c r="AC4" s="222" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE4" s="177"/>
       <c r="AG4" s="222" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AI4" s="223" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AK4" s="221"/>
       <c r="AM4" s="176" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AP4" s="176" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="177" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="201"/>
+      <c r="C5" s="283" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="269" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="264" t="s">
+      <c r="G5" s="268"/>
+      <c r="H5" s="269" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="255" t="s">
+      <c r="I5" s="268"/>
+      <c r="J5" s="269" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="268"/>
+      <c r="L5" s="269" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="268"/>
+      <c r="N5" s="281" t="s">
+        <v>323</v>
+      </c>
+      <c r="O5" s="281"/>
+      <c r="P5" s="269" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="268"/>
+      <c r="R5" s="269" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="268"/>
+      <c r="T5" s="269" t="s">
         <v>275</v>
       </c>
-      <c r="G5" s="254"/>
-      <c r="H5" s="255" t="s">
+      <c r="U5" s="268"/>
+      <c r="V5" s="268"/>
+      <c r="W5" s="268"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="269" t="s">
         <v>276</v>
       </c>
-      <c r="I5" s="254"/>
-      <c r="J5" s="255" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="254"/>
-      <c r="L5" s="255" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="254"/>
-      <c r="N5" s="277" t="s">
-        <v>325</v>
-      </c>
-      <c r="O5" s="277"/>
-      <c r="P5" s="255" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="255" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="254"/>
-      <c r="T5" s="255" t="s">
+      <c r="Z5" s="268"/>
+      <c r="AA5" s="268"/>
+      <c r="AB5" s="268"/>
+      <c r="AC5" s="269" t="s">
         <v>277</v>
       </c>
-      <c r="U5" s="254"/>
-      <c r="V5" s="254"/>
-      <c r="W5" s="254"/>
-      <c r="X5" s="254"/>
-      <c r="Y5" s="255" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z5" s="254"/>
-      <c r="AA5" s="254"/>
-      <c r="AB5" s="254"/>
-      <c r="AC5" s="255" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD5" s="254"/>
-      <c r="AE5" s="254"/>
-      <c r="AF5" s="254"/>
-      <c r="AG5" s="255" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH5" s="254"/>
-      <c r="AI5" s="275" t="s">
-        <v>324</v>
-      </c>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="273"/>
-      <c r="AL5" s="273"/>
+      <c r="AD5" s="268"/>
+      <c r="AE5" s="268"/>
+      <c r="AF5" s="268"/>
+      <c r="AG5" s="269" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH5" s="268"/>
+      <c r="AI5" s="264" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ5" s="265"/>
+      <c r="AK5" s="265"/>
+      <c r="AL5" s="265"/>
       <c r="AM5" s="176" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AP5" s="176" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AQ5" s="176" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="177" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="255" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="269" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="287" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="268"/>
+      <c r="H6" s="269" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="261" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="255" t="s">
+      <c r="I6" s="268"/>
+      <c r="J6" s="269" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="269" t="s">
         <v>283</v>
       </c>
-      <c r="I6" s="254"/>
-      <c r="J6" s="255" t="s">
+      <c r="Q6" s="268"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="268"/>
+      <c r="T6" s="269" t="s">
         <v>284</v>
       </c>
-      <c r="K6" s="255"/>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255" t="s">
+      <c r="U6" s="268"/>
+      <c r="V6" s="269" t="s">
         <v>285</v>
       </c>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="254"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="255" t="s">
-        <v>286</v>
-      </c>
-      <c r="U6" s="254"/>
-      <c r="V6" s="255" t="s">
+      <c r="W6" s="268"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="269" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z6" s="268"/>
+      <c r="AA6" s="268"/>
+      <c r="AB6" s="268"/>
+      <c r="AC6" s="269" t="s">
         <v>287</v>
       </c>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="255" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z6" s="254"/>
-      <c r="AA6" s="254"/>
-      <c r="AB6" s="254"/>
-      <c r="AC6" s="255" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="254"/>
-      <c r="AF6" s="254"/>
-      <c r="AG6" s="255" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="275" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ6" s="273"/>
-      <c r="AK6" s="273"/>
-      <c r="AL6" s="273"/>
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="268"/>
+      <c r="AF6" s="268"/>
+      <c r="AG6" s="269" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH6" s="268"/>
+      <c r="AI6" s="264" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ6" s="265"/>
+      <c r="AK6" s="265"/>
+      <c r="AL6" s="265"/>
       <c r="AM6" s="176" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AP6" s="215" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="51" x14ac:dyDescent="0.2">
       <c r="B7" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="201" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="201" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="201" t="s">
+      <c r="E7" s="201" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="F7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="201" t="s">
         <v>293</v>
       </c>
-      <c r="E7" s="201" t="s">
+      <c r="H7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="201" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="201" t="s">
+      <c r="K7" s="201" t="s">
+        <v>295</v>
+      </c>
+      <c r="L7" s="201" t="s">
+        <v>296</v>
+      </c>
+      <c r="M7" s="201" t="s">
+        <v>297</v>
+      </c>
+      <c r="N7" s="201" t="s">
+        <v>296</v>
+      </c>
+      <c r="O7" s="201" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q7" s="201" t="s">
+        <v>295</v>
+      </c>
+      <c r="R7" s="201" t="s">
+        <v>296</v>
+      </c>
+      <c r="S7" s="201" t="s">
+        <v>297</v>
+      </c>
+      <c r="T7" s="201" t="s">
+        <v>290</v>
+      </c>
+      <c r="U7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="V7" s="201" t="s">
+        <v>290</v>
+      </c>
+      <c r="W7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="X7" s="201" t="s">
         <v>293</v>
       </c>
-      <c r="G7" s="201" t="s">
-        <v>295</v>
-      </c>
-      <c r="H7" s="201" t="s">
+      <c r="Y7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z7" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="I7" s="201" t="s">
-        <v>294</v>
-      </c>
-      <c r="J7" s="201" t="s">
-        <v>296</v>
-      </c>
-      <c r="K7" s="201" t="s">
-        <v>297</v>
-      </c>
-      <c r="L7" s="201" t="s">
-        <v>298</v>
-      </c>
-      <c r="M7" s="201" t="s">
-        <v>299</v>
-      </c>
-      <c r="N7" s="201" t="s">
-        <v>298</v>
-      </c>
-      <c r="O7" s="201" t="s">
-        <v>299</v>
-      </c>
-      <c r="P7" s="201" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q7" s="201" t="s">
-        <v>297</v>
-      </c>
-      <c r="R7" s="201" t="s">
-        <v>298</v>
-      </c>
-      <c r="S7" s="201" t="s">
-        <v>299</v>
-      </c>
-      <c r="T7" s="201" t="s">
-        <v>292</v>
-      </c>
-      <c r="U7" s="201" t="s">
+      <c r="AA7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB7" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="V7" s="201" t="s">
-        <v>292</v>
-      </c>
-      <c r="W7" s="201" t="s">
+      <c r="AC7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD7" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="X7" s="201" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y7" s="201" t="s">
+      <c r="AE7" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF7" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="Z7" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA7" s="201" t="s">
+      <c r="AG7" s="200" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH7" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="AB7" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC7" s="201" t="s">
+      <c r="AI7" s="239" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ7" s="239" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK7" s="239" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL7" s="239" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM7" s="239" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN7" s="239" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO7" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="AD7" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="AE7" s="201" t="s">
+      <c r="AP7" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="AF7" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="AG7" s="200" t="s">
+      <c r="AQ7" s="200" t="s">
         <v>293</v>
-      </c>
-      <c r="AH7" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI7" s="239" t="s">
-        <v>292</v>
-      </c>
-      <c r="AJ7" s="239" t="s">
-        <v>349</v>
-      </c>
-      <c r="AK7" s="239" t="s">
-        <v>292</v>
-      </c>
-      <c r="AL7" s="239" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM7" s="239" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN7" s="239" t="s">
-        <v>349</v>
-      </c>
-      <c r="AO7" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="AP7" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ7" s="200" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="230" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" s="229"/>
       <c r="C8" s="231"/>
@@ -26292,7 +26292,7 @@
     </row>
     <row r="9" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B9" s="177">
         <v>16</v>
@@ -26358,7 +26358,7 @@
     </row>
     <row r="10" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B10" s="177">
         <v>18</v>
@@ -26422,8 +26422,8 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="250" t="s">
-        <v>303</v>
+      <c r="A11" s="286" t="s">
+        <v>301</v>
       </c>
       <c r="B11" s="177">
         <v>31</v>
@@ -26435,14 +26435,14 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E11" s="259">
+      <c r="E11" s="285">
         <f>SUM(D11:D15)</f>
         <v>0.30541871921182273</v>
       </c>
       <c r="H11" s="177">
         <v>7.3</v>
       </c>
-      <c r="I11" s="259">
+      <c r="I11" s="285">
         <f>(SUM(H11:H15)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.38227528089887641</v>
       </c>
@@ -26456,21 +26456,21 @@
         <f>V11/SUM(V9:V26)</f>
         <v>7.2289156626506035E-2</v>
       </c>
-      <c r="X11" s="260">
+      <c r="X11" s="267">
         <f>SUM(W11:W15)</f>
         <v>0.37349397590361455</v>
       </c>
       <c r="Y11" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z11" s="255">
+      <c r="Z11" s="269">
         <f>SUM(Y11:Y15)/100</f>
         <v>0.36799999999999999</v>
       </c>
       <c r="AA11" s="177">
         <v>8</v>
       </c>
-      <c r="AB11" s="255">
+      <c r="AB11" s="269">
         <f>SUM(AA11:AA15)/100</f>
         <v>0.318</v>
       </c>
@@ -26481,13 +26481,13 @@
         <f t="shared" ref="AN11:AN26" si="1">AM11/SUM(AM$9:AM$26)</f>
         <v>4.2282672974571271E-2</v>
       </c>
-      <c r="AO11" s="249">
+      <c r="AO11" s="289">
         <f>SUM(AN11:AN15)</f>
         <v>0.30829883698009075</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="250"/>
+      <c r="A12" s="286"/>
       <c r="B12" s="177">
         <v>33</v>
       </c>
@@ -26498,11 +26498,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E12" s="254"/>
+      <c r="E12" s="268"/>
       <c r="H12" s="177">
         <v>6.6</v>
       </c>
-      <c r="I12" s="254"/>
+      <c r="I12" s="268"/>
       <c r="T12" s="177">
         <v>0.7</v>
       </c>
@@ -26513,15 +26513,15 @@
         <f>V12/SUM(V9:V26)</f>
         <v>4.8192771084337359E-2</v>
       </c>
-      <c r="X12" s="254"/>
+      <c r="X12" s="268"/>
       <c r="Y12" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z12" s="254"/>
+      <c r="Z12" s="268"/>
       <c r="AA12" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB12" s="254"/>
+      <c r="AB12" s="268"/>
       <c r="AM12" s="176">
         <v>6.03</v>
       </c>
@@ -26529,10 +26529,10 @@
         <f t="shared" si="1"/>
         <v>5.9432288586635143E-2</v>
       </c>
-      <c r="AO12" s="250"/>
+      <c r="AO12" s="286"/>
     </row>
     <row r="13" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="250"/>
+      <c r="A13" s="286"/>
       <c r="B13" s="177">
         <v>45</v>
       </c>
@@ -26543,11 +26543,11 @@
         <f t="shared" si="0"/>
         <v>7.3891625615763554E-2</v>
       </c>
-      <c r="E13" s="254"/>
+      <c r="E13" s="268"/>
       <c r="H13" s="177">
         <v>6.1</v>
       </c>
-      <c r="I13" s="254"/>
+      <c r="I13" s="268"/>
       <c r="T13" s="177">
         <v>0.7</v>
       </c>
@@ -26558,15 +26558,15 @@
         <f>V13/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X13" s="254"/>
+      <c r="X13" s="268"/>
       <c r="Y13" s="177">
         <v>5.9</v>
       </c>
-      <c r="Z13" s="254"/>
+      <c r="Z13" s="268"/>
       <c r="AA13" s="177">
         <v>4.8</v>
       </c>
-      <c r="AB13" s="254"/>
+      <c r="AB13" s="268"/>
       <c r="AM13" s="176">
         <v>7.46</v>
       </c>
@@ -26574,10 +26574,10 @@
         <f t="shared" si="1"/>
         <v>7.3526512911492231E-2</v>
       </c>
-      <c r="AO13" s="250"/>
+      <c r="AO13" s="286"/>
     </row>
     <row r="14" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="250"/>
+      <c r="A14" s="286"/>
       <c r="B14" s="177">
         <v>52</v>
       </c>
@@ -26588,11 +26588,11 @@
         <f t="shared" si="0"/>
         <v>6.4039408866995079E-2</v>
       </c>
-      <c r="E14" s="254"/>
+      <c r="E14" s="268"/>
       <c r="H14" s="177">
         <v>12.9</v>
       </c>
-      <c r="I14" s="254"/>
+      <c r="I14" s="268"/>
       <c r="T14" s="177">
         <v>3.2</v>
       </c>
@@ -26603,15 +26603,15 @@
         <f>V14/SUM(V9:V26)</f>
         <v>0.18072289156626509</v>
       </c>
-      <c r="X14" s="254"/>
+      <c r="X14" s="268"/>
       <c r="Y14" s="177">
         <v>8.6</v>
       </c>
-      <c r="Z14" s="254"/>
+      <c r="Z14" s="268"/>
       <c r="AA14" s="177">
         <v>8</v>
       </c>
-      <c r="AB14" s="254"/>
+      <c r="AB14" s="268"/>
       <c r="AM14" s="176">
         <v>5.64</v>
       </c>
@@ -26619,10 +26619,10 @@
         <f t="shared" si="1"/>
         <v>5.5588409225310477E-2</v>
       </c>
-      <c r="AO14" s="250"/>
+      <c r="AO14" s="286"/>
     </row>
     <row r="15" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="250"/>
+      <c r="A15" s="286"/>
       <c r="B15" s="177">
         <v>58</v>
       </c>
@@ -26633,11 +26633,11 @@
         <f t="shared" si="0"/>
         <v>7.8817733990147798E-2</v>
       </c>
-      <c r="E15" s="254"/>
+      <c r="E15" s="268"/>
       <c r="H15" s="177">
         <v>11</v>
       </c>
-      <c r="I15" s="254"/>
+      <c r="I15" s="268"/>
       <c r="T15" s="177">
         <v>0.6</v>
       </c>
@@ -26648,15 +26648,15 @@
         <f>V15/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X15" s="254"/>
+      <c r="X15" s="268"/>
       <c r="Y15" s="177">
         <v>10.7</v>
       </c>
-      <c r="Z15" s="254"/>
+      <c r="Z15" s="268"/>
       <c r="AA15" s="177">
         <v>6.3</v>
       </c>
-      <c r="AB15" s="254"/>
+      <c r="AB15" s="268"/>
       <c r="AM15" s="176">
         <v>7.86</v>
       </c>
@@ -26664,11 +26664,11 @@
         <f t="shared" si="1"/>
         <v>7.7468953282081629E-2</v>
       </c>
-      <c r="AO15" s="250"/>
+      <c r="AO15" s="286"/>
     </row>
     <row r="16" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="253" t="s">
-        <v>304</v>
+      <c r="A16" s="284" t="s">
+        <v>302</v>
       </c>
       <c r="B16" s="177">
         <v>26</v>
@@ -26680,24 +26680,24 @@
         <f t="shared" si="0"/>
         <v>9.8522167487684748E-3</v>
       </c>
-      <c r="E16" s="259">
+      <c r="E16" s="285">
         <f>SUM(D16:D26)</f>
         <v>0.53694581280788167</v>
       </c>
-      <c r="I16" s="259">
+      <c r="I16" s="285">
         <f>(SUM(H16:H26)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.39272471910112366</v>
       </c>
       <c r="W16" s="196"/>
-      <c r="X16" s="260">
+      <c r="X16" s="267">
         <f>SUM(V16:V26)/SUM(V9:V26)</f>
         <v>0.46987951807228928</v>
       </c>
-      <c r="Z16" s="256">
+      <c r="Z16" s="270">
         <f>1-SUM(Z9:Z15)</f>
         <v>0.41799999999999993</v>
       </c>
-      <c r="AB16" s="256">
+      <c r="AB16" s="270">
         <f>1-SUM(AB9:AB15)</f>
         <v>0.39400000000000002</v>
       </c>
@@ -26708,13 +26708,13 @@
         <f t="shared" si="1"/>
         <v>1.872659176029963E-2</v>
       </c>
-      <c r="AO16" s="249">
+      <c r="AO16" s="289">
         <f>SUM(AN16:AN26)</f>
         <v>0.52661147250147844</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="254"/>
+      <c r="A17" s="268"/>
       <c r="B17" s="177">
         <v>35</v>
       </c>
@@ -26725,11 +26725,11 @@
         <f t="shared" si="0"/>
         <v>9.3596059113300503E-2</v>
       </c>
-      <c r="E17" s="254"/>
+      <c r="E17" s="268"/>
       <c r="H17" s="177">
         <v>10.4</v>
       </c>
-      <c r="I17" s="254"/>
+      <c r="I17" s="268"/>
       <c r="T17" s="177">
         <v>1.9</v>
       </c>
@@ -26740,15 +26740,15 @@
         <f>V17/SUM(V9:V26)</f>
         <v>0.13253012048192775</v>
       </c>
-      <c r="X17" s="254"/>
+      <c r="X17" s="268"/>
       <c r="Y17" s="177">
         <v>6.6</v>
       </c>
-      <c r="Z17" s="254"/>
+      <c r="Z17" s="268"/>
       <c r="AA17" s="177">
         <v>3.4</v>
       </c>
-      <c r="AB17" s="254"/>
+      <c r="AB17" s="268"/>
       <c r="AM17" s="176">
         <v>6.59</v>
       </c>
@@ -26756,10 +26756,10 @@
         <f t="shared" si="1"/>
         <v>6.4951705105460292E-2</v>
       </c>
-      <c r="AO17" s="249"/>
+      <c r="AO17" s="289"/>
     </row>
     <row r="18" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="254"/>
+      <c r="A18" s="268"/>
       <c r="B18" s="177">
         <v>39</v>
       </c>
@@ -26770,11 +26770,11 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E18" s="254"/>
+      <c r="E18" s="268"/>
       <c r="H18" s="177">
         <v>6.1</v>
       </c>
-      <c r="I18" s="254"/>
+      <c r="I18" s="268"/>
       <c r="T18" s="177">
         <v>0.6</v>
       </c>
@@ -26785,12 +26785,12 @@
         <f>V18/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X18" s="254"/>
-      <c r="Z18" s="254"/>
+      <c r="X18" s="268"/>
+      <c r="Z18" s="268"/>
       <c r="AA18" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB18" s="254"/>
+      <c r="AB18" s="268"/>
       <c r="AM18" s="176">
         <v>5</v>
       </c>
@@ -26798,10 +26798,10 @@
         <f t="shared" si="1"/>
         <v>4.9280504632367446E-2</v>
       </c>
-      <c r="AO18" s="249"/>
+      <c r="AO18" s="289"/>
     </row>
     <row r="19" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="254"/>
+      <c r="A19" s="268"/>
       <c r="B19" s="177">
         <v>51</v>
       </c>
@@ -26812,11 +26812,11 @@
         <f t="shared" si="0"/>
         <v>4.9261083743842374E-2</v>
       </c>
-      <c r="E19" s="254"/>
+      <c r="E19" s="268"/>
       <c r="H19" s="177">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I19" s="254"/>
+      <c r="I19" s="268"/>
       <c r="T19" s="177">
         <v>2.1</v>
       </c>
@@ -26827,12 +26827,12 @@
         <f>V19/SUM(V9:V26)</f>
         <v>9.6385542168674718E-2</v>
       </c>
-      <c r="X19" s="254"/>
-      <c r="Z19" s="254"/>
+      <c r="X19" s="268"/>
+      <c r="Z19" s="268"/>
       <c r="AA19" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB19" s="254"/>
+      <c r="AB19" s="268"/>
       <c r="AM19" s="176">
         <v>9.2899999999999991</v>
       </c>
@@ -26840,10 +26840,10 @@
         <f t="shared" si="1"/>
         <v>9.1563177606938703E-2</v>
       </c>
-      <c r="AO19" s="249"/>
+      <c r="AO19" s="289"/>
     </row>
     <row r="20" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="254"/>
+      <c r="A20" s="268"/>
       <c r="B20" s="177">
         <v>53</v>
       </c>
@@ -26854,8 +26854,8 @@
         <f t="shared" si="0"/>
         <v>0.11330049261083744</v>
       </c>
-      <c r="E20" s="254"/>
-      <c r="I20" s="254"/>
+      <c r="E20" s="268"/>
+      <c r="I20" s="268"/>
       <c r="T20" s="177">
         <v>0.6</v>
       </c>
@@ -26866,9 +26866,9 @@
         <f>V20/SUM(V9:V26)</f>
         <v>2.4096385542168679E-2</v>
       </c>
-      <c r="X20" s="254"/>
-      <c r="Z20" s="254"/>
-      <c r="AB20" s="254"/>
+      <c r="X20" s="268"/>
+      <c r="Z20" s="268"/>
+      <c r="AB20" s="268"/>
       <c r="AM20" s="176">
         <v>9.1300000000000008</v>
       </c>
@@ -26876,10 +26876,10 @@
         <f t="shared" si="1"/>
         <v>8.9986201458702966E-2</v>
       </c>
-      <c r="AO20" s="249"/>
+      <c r="AO20" s="289"/>
     </row>
     <row r="21" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="254"/>
+      <c r="A21" s="268"/>
       <c r="B21" s="177">
         <v>56</v>
       </c>
@@ -26890,11 +26890,11 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E21" s="254"/>
+      <c r="E21" s="268"/>
       <c r="H21" s="177">
         <v>8</v>
       </c>
-      <c r="I21" s="254"/>
+      <c r="I21" s="268"/>
       <c r="T21" s="177">
         <v>0.9</v>
       </c>
@@ -26905,12 +26905,12 @@
         <f>V21/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X21" s="254"/>
-      <c r="Z21" s="254"/>
+      <c r="X21" s="268"/>
+      <c r="Z21" s="268"/>
       <c r="AA21" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB21" s="254"/>
+      <c r="AB21" s="268"/>
       <c r="AM21" s="176">
         <v>4.05</v>
       </c>
@@ -26918,10 +26918,10 @@
         <f t="shared" si="1"/>
         <v>3.9917208752217631E-2</v>
       </c>
-      <c r="AO21" s="249"/>
+      <c r="AO21" s="289"/>
     </row>
     <row r="22" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="254"/>
+      <c r="A22" s="268"/>
       <c r="B22" s="177">
         <v>59</v>
       </c>
@@ -26932,11 +26932,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E22" s="254"/>
+      <c r="E22" s="268"/>
       <c r="H22" s="177">
         <v>5</v>
       </c>
-      <c r="I22" s="254"/>
+      <c r="I22" s="268"/>
       <c r="T22" s="177">
         <v>0.1</v>
       </c>
@@ -26947,12 +26947,12 @@
         <f>V22/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X22" s="254"/>
-      <c r="Z22" s="254"/>
+      <c r="X22" s="268"/>
+      <c r="Z22" s="268"/>
       <c r="AA22" s="177">
         <v>3.2</v>
       </c>
-      <c r="AB22" s="254"/>
+      <c r="AB22" s="268"/>
       <c r="AM22" s="176">
         <v>2.94</v>
       </c>
@@ -26960,10 +26960,10 @@
         <f t="shared" si="1"/>
         <v>2.8976936723832059E-2</v>
       </c>
-      <c r="AO22" s="249"/>
+      <c r="AO22" s="289"/>
     </row>
     <row r="23" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="254"/>
+      <c r="A23" s="268"/>
       <c r="B23" s="177">
         <v>66</v>
       </c>
@@ -26974,8 +26974,8 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E23" s="254"/>
-      <c r="I23" s="254"/>
+      <c r="E23" s="268"/>
+      <c r="I23" s="268"/>
       <c r="T23" s="177">
         <v>1.6</v>
       </c>
@@ -26986,9 +26986,9 @@
         <f>V23/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X23" s="254"/>
-      <c r="Z23" s="254"/>
-      <c r="AB23" s="254"/>
+      <c r="X23" s="268"/>
+      <c r="Z23" s="268"/>
+      <c r="AB23" s="268"/>
       <c r="AM23" s="176">
         <v>5.43</v>
       </c>
@@ -26996,10 +26996,10 @@
         <f t="shared" si="1"/>
         <v>5.3518628030751046E-2</v>
       </c>
-      <c r="AO23" s="249"/>
+      <c r="AO23" s="289"/>
     </row>
     <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="254"/>
+      <c r="A24" s="268"/>
       <c r="B24" s="177">
         <v>68</v>
       </c>
@@ -27010,11 +27010,11 @@
         <f t="shared" si="0"/>
         <v>5.9113300492610842E-2</v>
       </c>
-      <c r="E24" s="254"/>
+      <c r="E24" s="268"/>
       <c r="H24" s="177">
         <v>6.9</v>
       </c>
-      <c r="I24" s="254"/>
+      <c r="I24" s="268"/>
       <c r="T24" s="177">
         <v>1.1000000000000001</v>
       </c>
@@ -27025,12 +27025,12 @@
         <f>V24/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X24" s="254"/>
-      <c r="Z24" s="254"/>
+      <c r="X24" s="268"/>
+      <c r="Z24" s="268"/>
       <c r="AA24" s="177">
         <v>3.1</v>
       </c>
-      <c r="AB24" s="254"/>
+      <c r="AB24" s="268"/>
       <c r="AM24" s="176">
         <v>4.5999999999999996</v>
       </c>
@@ -27038,10 +27038,10 @@
         <f t="shared" si="1"/>
         <v>4.5338064261778048E-2</v>
       </c>
-      <c r="AO24" s="249"/>
+      <c r="AO24" s="289"/>
     </row>
     <row r="25" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="254"/>
+      <c r="A25" s="268"/>
       <c r="B25" s="177">
         <v>73</v>
       </c>
@@ -27052,12 +27052,12 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E25" s="254"/>
-      <c r="I25" s="254"/>
+      <c r="E25" s="268"/>
+      <c r="I25" s="268"/>
       <c r="W25" s="196"/>
-      <c r="X25" s="254"/>
-      <c r="Z25" s="254"/>
-      <c r="AB25" s="254"/>
+      <c r="X25" s="268"/>
+      <c r="Z25" s="268"/>
+      <c r="AB25" s="268"/>
       <c r="AM25" s="176">
         <v>2.4</v>
       </c>
@@ -27065,10 +27065,10 @@
         <f t="shared" si="1"/>
         <v>2.3654642223536373E-2</v>
       </c>
-      <c r="AO25" s="249"/>
+      <c r="AO25" s="289"/>
     </row>
     <row r="26" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="254"/>
+      <c r="A26" s="268"/>
       <c r="B26" s="177">
         <v>82</v>
       </c>
@@ -27079,8 +27079,8 @@
         <f t="shared" si="0"/>
         <v>1.970443349753695E-2</v>
       </c>
-      <c r="E26" s="254"/>
-      <c r="I26" s="254"/>
+      <c r="E26" s="268"/>
+      <c r="I26" s="268"/>
       <c r="T26" s="177">
         <v>0.3</v>
       </c>
@@ -27091,9 +27091,9 @@
         <f>V26/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X26" s="254"/>
-      <c r="Z26" s="254"/>
-      <c r="AB26" s="254"/>
+      <c r="X26" s="268"/>
+      <c r="Z26" s="268"/>
+      <c r="AB26" s="268"/>
       <c r="AM26" s="176">
         <v>2.1</v>
       </c>
@@ -27101,12 +27101,12 @@
         <f t="shared" si="1"/>
         <v>2.0697811945594329E-2</v>
       </c>
-      <c r="AO26" s="249"/>
+      <c r="AO26" s="289"/>
       <c r="AP26" s="236"/>
     </row>
     <row r="27" spans="1:42" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="230" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B27" s="229"/>
       <c r="C27" s="229"/>
@@ -27147,8 +27147,8 @@
       <c r="AL27" s="228"/>
     </row>
     <row r="28" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="253" t="s">
-        <v>306</v>
+      <c r="A28" s="284" t="s">
+        <v>304</v>
       </c>
       <c r="B28" s="177">
         <v>16</v>
@@ -27208,7 +27208,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="254"/>
+      <c r="A29" s="268"/>
       <c r="B29" s="177">
         <v>18</v>
       </c>
@@ -27267,7 +27267,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="254"/>
+      <c r="A30" s="268"/>
       <c r="B30" s="177">
         <v>31</v>
       </c>
@@ -27278,14 +27278,14 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E30" s="259">
+      <c r="E30" s="285">
         <f>SUM(D30:D34)</f>
         <v>0.30085736554949344</v>
       </c>
       <c r="H30" s="194">
         <v>8.4</v>
       </c>
-      <c r="I30" s="256">
+      <c r="I30" s="270">
         <f>(SUM(H30:H34)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.30589562547966231</v>
       </c>
@@ -27299,34 +27299,34 @@
         <f>V30/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X30" s="260">
+      <c r="X30" s="267">
         <f>SUM(W30:W34)</f>
         <v>0.44139650872817959</v>
       </c>
       <c r="Y30" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z30" s="255">
+      <c r="Z30" s="269">
         <f>SUM(Y30:Y34)/100</f>
         <v>0.42</v>
       </c>
       <c r="AA30" s="177">
         <v>9.5</v>
       </c>
-      <c r="AB30" s="255">
+      <c r="AB30" s="269">
         <f>SUM(AA30:AA34)/100</f>
         <v>0.35100000000000003</v>
       </c>
       <c r="AG30" s="177">
         <v>6.1</v>
       </c>
-      <c r="AH30" s="255">
+      <c r="AH30" s="269">
         <f>SUM(AG30:AG34)/100</f>
         <v>0.317</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="254"/>
+      <c r="A31" s="268"/>
       <c r="B31" s="177">
         <v>33</v>
       </c>
@@ -27337,11 +27337,11 @@
         <f t="shared" si="2"/>
         <v>5.4559625876851141E-2</v>
       </c>
-      <c r="E31" s="254"/>
+      <c r="E31" s="268"/>
       <c r="H31" s="194">
         <v>10</v>
       </c>
-      <c r="I31" s="254"/>
+      <c r="I31" s="268"/>
       <c r="T31" s="177">
         <v>3.2</v>
       </c>
@@ -27352,22 +27352,22 @@
         <f>V31/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X31" s="254"/>
+      <c r="X31" s="268"/>
       <c r="Y31" s="177">
         <v>8.5</v>
       </c>
-      <c r="Z31" s="254"/>
+      <c r="Z31" s="268"/>
       <c r="AA31" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB31" s="254"/>
+      <c r="AB31" s="268"/>
       <c r="AG31" s="177">
         <v>5.9</v>
       </c>
-      <c r="AH31" s="254"/>
+      <c r="AH31" s="268"/>
     </row>
     <row r="32" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="254"/>
+      <c r="A32" s="268"/>
       <c r="B32" s="177">
         <v>45</v>
       </c>
@@ -27378,11 +27378,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E32" s="254"/>
+      <c r="E32" s="268"/>
       <c r="H32" s="194">
         <v>11.3</v>
       </c>
-      <c r="I32" s="254"/>
+      <c r="I32" s="268"/>
       <c r="T32" s="177">
         <v>3.2</v>
       </c>
@@ -27393,22 +27393,22 @@
         <f>V32/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X32" s="254"/>
+      <c r="X32" s="268"/>
       <c r="Y32" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z32" s="254"/>
+      <c r="Z32" s="268"/>
       <c r="AA32" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB32" s="254"/>
+      <c r="AB32" s="268"/>
       <c r="AG32" s="177">
         <v>2.9</v>
       </c>
-      <c r="AH32" s="254"/>
+      <c r="AH32" s="268"/>
     </row>
     <row r="33" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="254"/>
+      <c r="A33" s="268"/>
       <c r="B33" s="177">
         <v>52</v>
       </c>
@@ -27419,11 +27419,11 @@
         <f t="shared" si="2"/>
         <v>0.13639906469212784</v>
       </c>
-      <c r="E33" s="254"/>
+      <c r="E33" s="268"/>
       <c r="H33" s="194">
         <v>16.8</v>
       </c>
-      <c r="I33" s="254"/>
+      <c r="I33" s="268"/>
       <c r="T33" s="177">
         <v>14.5</v>
       </c>
@@ -27434,22 +27434,22 @@
         <f>V33/SUM(V28:V45)</f>
         <v>0.16209476309226933</v>
       </c>
-      <c r="X33" s="254"/>
+      <c r="X33" s="268"/>
       <c r="Y33" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z33" s="254"/>
+      <c r="Z33" s="268"/>
       <c r="AA33" s="177">
         <v>8.1</v>
       </c>
-      <c r="AB33" s="254"/>
+      <c r="AB33" s="268"/>
       <c r="AG33" s="177">
         <v>6.8</v>
       </c>
-      <c r="AH33" s="254"/>
+      <c r="AH33" s="268"/>
     </row>
     <row r="34" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="254"/>
+      <c r="A34" s="268"/>
       <c r="B34" s="177">
         <v>58</v>
       </c>
@@ -27460,11 +27460,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E34" s="254"/>
+      <c r="E34" s="268"/>
       <c r="H34" s="194">
         <v>15.2</v>
       </c>
-      <c r="I34" s="254"/>
+      <c r="I34" s="268"/>
       <c r="T34" s="177">
         <v>8.1</v>
       </c>
@@ -27475,23 +27475,23 @@
         <f>V34/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X34" s="254"/>
+      <c r="X34" s="268"/>
       <c r="Y34" s="177">
         <v>10.8</v>
       </c>
-      <c r="Z34" s="254"/>
+      <c r="Z34" s="268"/>
       <c r="AA34" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB34" s="254"/>
+      <c r="AB34" s="268"/>
       <c r="AG34" s="177">
         <v>10</v>
       </c>
-      <c r="AH34" s="254"/>
+      <c r="AH34" s="268"/>
     </row>
     <row r="35" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="253" t="s">
-        <v>304</v>
+      <c r="A35" s="284" t="s">
+        <v>302</v>
       </c>
       <c r="B35" s="177">
         <v>26</v>
@@ -27503,34 +27503,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="259">
+      <c r="E35" s="285">
         <f>SUM(D35:D46)</f>
         <v>0.53468433359314127</v>
       </c>
-      <c r="I35" s="256">
+      <c r="I35" s="270">
         <f>(SUM(H35:H46)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.34010437452033765</v>
       </c>
       <c r="W35" s="196"/>
-      <c r="X35" s="260">
+      <c r="X35" s="267">
         <f>SUM(V35:V45)/SUM(V28:V45)</f>
         <v>0.399002493765586</v>
       </c>
-      <c r="Z35" s="255">
+      <c r="Z35" s="269">
         <f>1-SUM(Z28:Z34)</f>
         <v>0.32899999999999996</v>
       </c>
-      <c r="AB35" s="255">
+      <c r="AB35" s="269">
         <f>1-SUM(AB28:AB34)</f>
         <v>0.31099999999999994</v>
       </c>
-      <c r="AH35" s="255">
+      <c r="AH35" s="269">
         <f>1-SUM(AH28:AH34)</f>
         <v>0.42700000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="254"/>
+      <c r="A36" s="268"/>
       <c r="B36" s="177">
         <v>35</v>
       </c>
@@ -27541,11 +27541,11 @@
         <f t="shared" si="2"/>
         <v>9.5869056897895572E-2</v>
       </c>
-      <c r="E36" s="254"/>
+      <c r="E36" s="268"/>
       <c r="H36" s="194">
         <v>15.8</v>
       </c>
-      <c r="I36" s="254"/>
+      <c r="I36" s="268"/>
       <c r="T36" s="177">
         <v>12.9</v>
       </c>
@@ -27556,22 +27556,22 @@
         <f>V36/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X36" s="254"/>
+      <c r="X36" s="268"/>
       <c r="Y36" s="177">
         <v>7.9</v>
       </c>
-      <c r="Z36" s="254"/>
+      <c r="Z36" s="268"/>
       <c r="AA36" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB36" s="254"/>
+      <c r="AB36" s="268"/>
       <c r="AG36" s="177">
         <v>6.5</v>
       </c>
-      <c r="AH36" s="254"/>
+      <c r="AH36" s="268"/>
     </row>
     <row r="37" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="254"/>
+      <c r="A37" s="268"/>
       <c r="B37" s="177">
         <v>39</v>
       </c>
@@ -27582,11 +27582,11 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E37" s="254"/>
+      <c r="E37" s="268"/>
       <c r="H37" s="194">
         <v>9.5</v>
       </c>
-      <c r="I37" s="254"/>
+      <c r="I37" s="268"/>
       <c r="T37" s="177">
         <v>6.5</v>
       </c>
@@ -27597,19 +27597,19 @@
         <f>V37/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="254"/>
-      <c r="Z37" s="254"/>
+      <c r="X37" s="268"/>
+      <c r="Z37" s="268"/>
       <c r="AA37" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB37" s="254"/>
+      <c r="AB37" s="268"/>
       <c r="AG37" s="177">
         <v>2</v>
       </c>
-      <c r="AH37" s="254"/>
+      <c r="AH37" s="268"/>
     </row>
     <row r="38" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="254"/>
+      <c r="A38" s="268"/>
       <c r="B38" s="177">
         <v>51</v>
       </c>
@@ -27620,11 +27620,11 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E38" s="254"/>
+      <c r="E38" s="268"/>
       <c r="H38" s="194">
         <v>13.2</v>
       </c>
-      <c r="I38" s="254"/>
+      <c r="I38" s="268"/>
       <c r="T38" s="177">
         <v>12.9</v>
       </c>
@@ -27635,19 +27635,19 @@
         <f>V38/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X38" s="254"/>
-      <c r="Z38" s="254"/>
+      <c r="X38" s="268"/>
+      <c r="Z38" s="268"/>
       <c r="AA38" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB38" s="254"/>
+      <c r="AB38" s="268"/>
       <c r="AG38" s="177">
         <v>1.9</v>
       </c>
-      <c r="AH38" s="254"/>
+      <c r="AH38" s="268"/>
     </row>
     <row r="39" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="254"/>
+      <c r="A39" s="268"/>
       <c r="B39" s="177">
         <v>53</v>
       </c>
@@ -27658,8 +27658,8 @@
         <f t="shared" si="2"/>
         <v>0.12314886983632115</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="I39" s="254"/>
+      <c r="E39" s="268"/>
+      <c r="I39" s="268"/>
       <c r="T39" s="177">
         <v>6.5</v>
       </c>
@@ -27670,16 +27670,16 @@
         <f>V39/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X39" s="254"/>
-      <c r="Z39" s="254"/>
-      <c r="AB39" s="254"/>
+      <c r="X39" s="268"/>
+      <c r="Z39" s="268"/>
+      <c r="AB39" s="268"/>
       <c r="AG39" s="177">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AH39" s="254"/>
+      <c r="AH39" s="268"/>
     </row>
     <row r="40" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="254"/>
+      <c r="A40" s="268"/>
       <c r="B40" s="177">
         <v>56</v>
       </c>
@@ -27690,11 +27690,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E40" s="254"/>
+      <c r="E40" s="268"/>
       <c r="H40" s="194">
         <v>11.8</v>
       </c>
-      <c r="I40" s="254"/>
+      <c r="I40" s="268"/>
       <c r="T40" s="177">
         <v>9.6999999999999993</v>
       </c>
@@ -27705,19 +27705,19 @@
         <f>V40/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X40" s="254"/>
-      <c r="Z40" s="254"/>
+      <c r="X40" s="268"/>
+      <c r="Z40" s="268"/>
       <c r="AA40" s="177">
         <v>8.6</v>
       </c>
-      <c r="AB40" s="254"/>
+      <c r="AB40" s="268"/>
       <c r="AG40" s="177">
         <v>4</v>
       </c>
-      <c r="AH40" s="254"/>
+      <c r="AH40" s="268"/>
     </row>
     <row r="41" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="254"/>
+      <c r="A41" s="268"/>
       <c r="B41" s="177">
         <v>59</v>
       </c>
@@ -27728,11 +27728,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E41" s="254"/>
+      <c r="E41" s="268"/>
       <c r="H41" s="194">
         <v>8.9</v>
       </c>
-      <c r="I41" s="254"/>
+      <c r="I41" s="268"/>
       <c r="T41" s="177">
         <v>1.6</v>
       </c>
@@ -27743,19 +27743,19 @@
         <f>V41/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="254"/>
-      <c r="Z41" s="254"/>
+      <c r="X41" s="268"/>
+      <c r="Z41" s="268"/>
       <c r="AA41" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB41" s="254"/>
+      <c r="AB41" s="268"/>
       <c r="AG41" s="177">
         <v>2.8</v>
       </c>
-      <c r="AH41" s="254"/>
+      <c r="AH41" s="268"/>
     </row>
     <row r="42" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="254"/>
+      <c r="A42" s="268"/>
       <c r="B42" s="177">
         <v>66</v>
       </c>
@@ -27766,8 +27766,8 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E42" s="254"/>
-      <c r="I42" s="254"/>
+      <c r="E42" s="268"/>
+      <c r="I42" s="268"/>
       <c r="T42" s="177">
         <v>6.5</v>
       </c>
@@ -27778,16 +27778,16 @@
         <f>V42/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X42" s="254"/>
-      <c r="Z42" s="254"/>
-      <c r="AB42" s="254"/>
+      <c r="X42" s="268"/>
+      <c r="Z42" s="268"/>
+      <c r="AB42" s="268"/>
       <c r="AG42" s="177">
         <v>3</v>
       </c>
-      <c r="AH42" s="254"/>
+      <c r="AH42" s="268"/>
     </row>
     <row r="43" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="254"/>
+      <c r="A43" s="268"/>
       <c r="B43" s="177">
         <v>68</v>
       </c>
@@ -27798,11 +27798,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="254"/>
+      <c r="E43" s="268"/>
       <c r="H43" s="194">
         <v>9.4</v>
       </c>
-      <c r="I43" s="254"/>
+      <c r="I43" s="268"/>
       <c r="T43" s="177">
         <v>4.8</v>
       </c>
@@ -27813,16 +27813,16 @@
         <f>V43/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X43" s="254"/>
-      <c r="Z43" s="254"/>
+      <c r="X43" s="268"/>
+      <c r="Z43" s="268"/>
       <c r="AA43" s="177">
         <v>2.7</v>
       </c>
-      <c r="AB43" s="254"/>
-      <c r="AH43" s="254"/>
+      <c r="AB43" s="268"/>
+      <c r="AH43" s="268"/>
     </row>
     <row r="44" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="254"/>
+      <c r="A44" s="268"/>
       <c r="B44" s="177">
         <v>73</v>
       </c>
@@ -27833,16 +27833,16 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E44" s="254"/>
-      <c r="I44" s="254"/>
+      <c r="E44" s="268"/>
+      <c r="I44" s="268"/>
       <c r="W44" s="196"/>
-      <c r="X44" s="254"/>
-      <c r="Z44" s="254"/>
-      <c r="AB44" s="254"/>
-      <c r="AH44" s="254"/>
+      <c r="X44" s="268"/>
+      <c r="Z44" s="268"/>
+      <c r="AB44" s="268"/>
+      <c r="AH44" s="268"/>
     </row>
     <row r="45" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="254"/>
+      <c r="A45" s="268"/>
       <c r="B45" s="177">
         <v>82</v>
       </c>
@@ -27853,8 +27853,8 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E45" s="254"/>
-      <c r="I45" s="254"/>
+      <c r="E45" s="268"/>
+      <c r="I45" s="268"/>
       <c r="T45" s="177">
         <v>1.6</v>
       </c>
@@ -27865,13 +27865,13 @@
         <f>V45/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="254"/>
-      <c r="Z45" s="254"/>
-      <c r="AB45" s="254"/>
-      <c r="AH45" s="254"/>
+      <c r="X45" s="268"/>
+      <c r="Z45" s="268"/>
+      <c r="AB45" s="268"/>
+      <c r="AH45" s="268"/>
     </row>
     <row r="46" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="254"/>
+      <c r="A46" s="268"/>
       <c r="B46" s="177">
         <v>82</v>
       </c>
@@ -27882,15 +27882,15 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E46" s="254"/>
-      <c r="I46" s="254"/>
-      <c r="Z46" s="254"/>
-      <c r="AB46" s="254"/>
-      <c r="AH46" s="254"/>
+      <c r="E46" s="268"/>
+      <c r="I46" s="268"/>
+      <c r="Z46" s="268"/>
+      <c r="AB46" s="268"/>
+      <c r="AH46" s="268"/>
     </row>
     <row r="47" spans="1:43" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="230" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B47" s="229"/>
       <c r="C47" s="229"/>
@@ -27931,8 +27931,8 @@
       <c r="AL47" s="228"/>
     </row>
     <row r="48" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="253" t="s">
-        <v>306</v>
+      <c r="A48" s="284" t="s">
+        <v>304</v>
       </c>
       <c r="B48" s="177">
         <v>16</v>
@@ -27983,17 +27983,17 @@
         <f>AA48/100</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AP48" s="249">
+      <c r="AP48" s="289">
         <f>79.6/(79.6+13.3)</f>
         <v>0.85683530678148545</v>
       </c>
-      <c r="AQ48" s="249">
+      <c r="AQ48" s="289">
         <f>77.8/(77.8+15.6)</f>
         <v>0.83297644539614568</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="254"/>
+      <c r="A49" s="268"/>
       <c r="B49" s="177">
         <v>18</v>
       </c>
@@ -28043,11 +28043,11 @@
         <f>AA49/100</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AP49" s="249"/>
-      <c r="AQ49" s="249"/>
+      <c r="AP49" s="289"/>
+      <c r="AQ49" s="289"/>
     </row>
     <row r="50" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="254"/>
+      <c r="A50" s="268"/>
       <c r="B50" s="177">
         <v>31</v>
       </c>
@@ -28058,14 +28058,14 @@
         <f t="shared" si="3"/>
         <v>9.3220338983050863E-2</v>
       </c>
-      <c r="E50" s="259">
+      <c r="E50" s="285">
         <f>SUM(D50:D54)</f>
         <v>0.36571056062581492</v>
       </c>
       <c r="H50" s="194">
         <v>13.9</v>
       </c>
-      <c r="I50" s="256">
+      <c r="I50" s="270">
         <f>(SUM(H50:H54)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.27666666666666667</v>
       </c>
@@ -28079,29 +28079,29 @@
         <f>V50/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X50" s="260">
+      <c r="X50" s="267">
         <f>SUM(W50:W54)</f>
         <v>0.39491525423728807</v>
       </c>
       <c r="Y50" s="177">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Z50" s="255">
+      <c r="Z50" s="269">
         <f>SUM(Y50:Y54)/100</f>
         <v>0.43400000000000005</v>
       </c>
       <c r="AA50" s="195">
         <v>11</v>
       </c>
-      <c r="AB50" s="255">
+      <c r="AB50" s="269">
         <f>SUM(AA50:AA54)/100</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="AP50" s="249"/>
-      <c r="AQ50" s="249"/>
+      <c r="AP50" s="289"/>
+      <c r="AQ50" s="289"/>
     </row>
     <row r="51" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="254"/>
+      <c r="A51" s="268"/>
       <c r="B51" s="177">
         <v>33</v>
       </c>
@@ -28112,11 +28112,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E51" s="254"/>
+      <c r="E51" s="268"/>
       <c r="H51" s="194">
         <v>14.5</v>
       </c>
-      <c r="I51" s="254"/>
+      <c r="I51" s="268"/>
       <c r="T51" s="177">
         <v>9.5</v>
       </c>
@@ -28127,20 +28127,20 @@
         <f>V51/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X51" s="254"/>
+      <c r="X51" s="268"/>
       <c r="Y51" s="177">
         <v>8.9</v>
       </c>
-      <c r="Z51" s="254"/>
+      <c r="Z51" s="268"/>
       <c r="AA51" s="195">
         <v>8.4</v>
       </c>
-      <c r="AB51" s="254"/>
-      <c r="AP51" s="249"/>
-      <c r="AQ51" s="249"/>
+      <c r="AB51" s="268"/>
+      <c r="AP51" s="289"/>
+      <c r="AQ51" s="289"/>
     </row>
     <row r="52" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="254"/>
+      <c r="A52" s="268"/>
       <c r="B52" s="177">
         <v>45</v>
       </c>
@@ -28151,11 +28151,11 @@
         <f t="shared" si="3"/>
         <v>4.6284224250325953E-2</v>
       </c>
-      <c r="E52" s="254"/>
+      <c r="E52" s="268"/>
       <c r="H52" s="194">
         <v>13</v>
       </c>
-      <c r="I52" s="254"/>
+      <c r="I52" s="268"/>
       <c r="T52" s="177">
         <v>3.6</v>
       </c>
@@ -28166,20 +28166,20 @@
         <f>V52/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X52" s="254"/>
+      <c r="X52" s="268"/>
       <c r="Y52" s="177">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z52" s="254"/>
+      <c r="Z52" s="268"/>
       <c r="AA52" s="195">
         <v>4.5</v>
       </c>
-      <c r="AB52" s="254"/>
-      <c r="AP52" s="249"/>
-      <c r="AQ52" s="249"/>
+      <c r="AB52" s="268"/>
+      <c r="AP52" s="289"/>
+      <c r="AQ52" s="289"/>
     </row>
     <row r="53" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="254"/>
+      <c r="A53" s="268"/>
       <c r="B53" s="177">
         <v>52</v>
       </c>
@@ -28190,11 +28190,11 @@
         <f t="shared" si="3"/>
         <v>0.10625814863103</v>
       </c>
-      <c r="E53" s="254"/>
+      <c r="E53" s="268"/>
       <c r="H53" s="194">
         <v>17.399999999999999</v>
       </c>
-      <c r="I53" s="254"/>
+      <c r="I53" s="268"/>
       <c r="T53" s="177">
         <v>24.1</v>
       </c>
@@ -28205,20 +28205,20 @@
         <f>V53/SUM(V48:V67)</f>
         <v>0.23559322033898303</v>
       </c>
-      <c r="X53" s="254"/>
+      <c r="X53" s="268"/>
       <c r="Y53" s="177">
         <v>11</v>
       </c>
-      <c r="Z53" s="254"/>
+      <c r="Z53" s="268"/>
       <c r="AA53" s="195">
         <v>9.6</v>
       </c>
-      <c r="AB53" s="254"/>
-      <c r="AP53" s="249"/>
-      <c r="AQ53" s="249"/>
+      <c r="AB53" s="268"/>
+      <c r="AP53" s="289"/>
+      <c r="AQ53" s="289"/>
     </row>
     <row r="54" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="254"/>
+      <c r="A54" s="268"/>
       <c r="B54" s="177">
         <v>58</v>
       </c>
@@ -28229,11 +28229,11 @@
         <f t="shared" si="3"/>
         <v>6.6492829204693613E-2</v>
       </c>
-      <c r="E54" s="254"/>
+      <c r="E54" s="268"/>
       <c r="H54" s="194">
         <v>24.2</v>
       </c>
-      <c r="I54" s="254"/>
+      <c r="I54" s="268"/>
       <c r="T54" s="177">
         <v>5.0999999999999996</v>
       </c>
@@ -28244,21 +28244,21 @@
         <f>V54/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X54" s="254"/>
+      <c r="X54" s="268"/>
       <c r="Y54" s="177">
         <v>11.2</v>
       </c>
-      <c r="Z54" s="254"/>
+      <c r="Z54" s="268"/>
       <c r="AA54" s="195">
         <v>7.9</v>
       </c>
-      <c r="AB54" s="254"/>
-      <c r="AP54" s="249"/>
-      <c r="AQ54" s="249"/>
+      <c r="AB54" s="268"/>
+      <c r="AP54" s="289"/>
+      <c r="AQ54" s="289"/>
     </row>
     <row r="55" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="253" t="s">
-        <v>304</v>
+      <c r="A55" s="284" t="s">
+        <v>302</v>
       </c>
       <c r="B55" s="177">
         <v>26</v>
@@ -28270,39 +28270,39 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E55" s="259">
+      <c r="E55" s="285">
         <f>SUM(D55:D67)</f>
         <v>0.41460234680573665</v>
       </c>
-      <c r="I55" s="256">
+      <c r="I55" s="270">
         <f>(SUM(H55:H67)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.25433333333333324</v>
       </c>
       <c r="W55" s="196"/>
-      <c r="X55" s="260">
+      <c r="X55" s="267">
         <f>SUM(T56:T67)/SUM(T48:T67)</f>
         <v>0.32680195941217638</v>
       </c>
-      <c r="Z55" s="255">
+      <c r="Z55" s="269">
         <f>1-SUM(Z48:Z54)</f>
         <v>0.17099999999999993</v>
       </c>
       <c r="AA55" s="191"/>
-      <c r="AB55" s="255">
+      <c r="AB55" s="269">
         <f>1-SUM(AB48:AB54)</f>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="AP55" s="249">
+      <c r="AP55" s="289">
         <f>1-AP48</f>
         <v>0.14316469321851455</v>
       </c>
-      <c r="AQ55" s="249">
+      <c r="AQ55" s="289">
         <f>1-AQ48</f>
         <v>0.16702355460385432</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="254"/>
+      <c r="A56" s="268"/>
       <c r="B56" s="177">
         <v>35</v>
       </c>
@@ -28313,11 +28313,11 @@
         <f t="shared" si="3"/>
         <v>0.11994784876140809</v>
       </c>
-      <c r="E56" s="254"/>
+      <c r="E56" s="268"/>
       <c r="H56" s="194">
         <v>21.8</v>
       </c>
-      <c r="I56" s="254"/>
+      <c r="I56" s="268"/>
       <c r="T56" s="177">
         <v>13.1</v>
       </c>
@@ -28328,20 +28328,20 @@
         <f>V56/SUM(V48:V67)</f>
         <v>8.6440677966101678E-2</v>
       </c>
-      <c r="X56" s="254"/>
+      <c r="X56" s="268"/>
       <c r="Y56" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z56" s="254"/>
+      <c r="Z56" s="268"/>
       <c r="AA56" s="195">
         <v>5.6</v>
       </c>
-      <c r="AB56" s="254"/>
-      <c r="AP56" s="249"/>
-      <c r="AQ56" s="249"/>
+      <c r="AB56" s="268"/>
+      <c r="AP56" s="289"/>
+      <c r="AQ56" s="289"/>
     </row>
     <row r="57" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="254"/>
+      <c r="A57" s="268"/>
       <c r="B57" s="177">
         <v>39</v>
       </c>
@@ -28352,11 +28352,11 @@
         <f t="shared" si="3"/>
         <v>2.020860495436767E-2</v>
       </c>
-      <c r="E57" s="254"/>
+      <c r="E57" s="268"/>
       <c r="H57" s="194">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I57" s="254"/>
+      <c r="I57" s="268"/>
       <c r="T57" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -28367,17 +28367,17 @@
         <f>V57/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X57" s="254"/>
-      <c r="Z57" s="254"/>
+      <c r="X57" s="268"/>
+      <c r="Z57" s="268"/>
       <c r="AA57" s="195">
         <v>4.2</v>
       </c>
-      <c r="AB57" s="254"/>
-      <c r="AP57" s="249"/>
-      <c r="AQ57" s="249"/>
+      <c r="AB57" s="268"/>
+      <c r="AP57" s="289"/>
+      <c r="AQ57" s="289"/>
     </row>
     <row r="58" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="254"/>
+      <c r="A58" s="268"/>
       <c r="B58" s="177">
         <v>51</v>
       </c>
@@ -28388,11 +28388,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E58" s="254"/>
+      <c r="E58" s="268"/>
       <c r="H58" s="194">
         <v>15.8</v>
       </c>
-      <c r="I58" s="254"/>
+      <c r="I58" s="268"/>
       <c r="T58" s="177">
         <v>7.3</v>
       </c>
@@ -28403,17 +28403,17 @@
         <f>V58/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X58" s="254"/>
-      <c r="Z58" s="254"/>
+      <c r="X58" s="268"/>
+      <c r="Z58" s="268"/>
       <c r="AA58" s="195">
         <v>6.7</v>
       </c>
-      <c r="AB58" s="254"/>
-      <c r="AP58" s="249"/>
-      <c r="AQ58" s="249"/>
+      <c r="AB58" s="268"/>
+      <c r="AP58" s="289"/>
+      <c r="AQ58" s="289"/>
     </row>
     <row r="59" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="254"/>
+      <c r="A59" s="268"/>
       <c r="B59" s="177">
         <v>53</v>
       </c>
@@ -28424,8 +28424,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E59" s="254"/>
-      <c r="I59" s="254"/>
+      <c r="E59" s="268"/>
+      <c r="I59" s="268"/>
       <c r="T59" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28436,15 +28436,15 @@
         <f>V59/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X59" s="254"/>
-      <c r="Z59" s="254"/>
+      <c r="X59" s="268"/>
+      <c r="Z59" s="268"/>
       <c r="AA59" s="191"/>
-      <c r="AB59" s="254"/>
-      <c r="AP59" s="249"/>
-      <c r="AQ59" s="249"/>
+      <c r="AB59" s="268"/>
+      <c r="AP59" s="289"/>
+      <c r="AQ59" s="289"/>
     </row>
     <row r="60" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="254"/>
+      <c r="A60" s="268"/>
       <c r="B60" s="177">
         <v>56</v>
       </c>
@@ -28455,11 +28455,11 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E60" s="254"/>
+      <c r="E60" s="268"/>
       <c r="H60" s="194">
         <v>11.9</v>
       </c>
-      <c r="I60" s="254"/>
+      <c r="I60" s="268"/>
       <c r="T60" s="177">
         <v>2.9</v>
       </c>
@@ -28470,17 +28470,17 @@
         <f>V60/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="254"/>
-      <c r="Z60" s="254"/>
+      <c r="X60" s="268"/>
+      <c r="Z60" s="268"/>
       <c r="AA60" s="195">
         <v>3.4</v>
       </c>
-      <c r="AB60" s="254"/>
-      <c r="AP60" s="249"/>
-      <c r="AQ60" s="249"/>
+      <c r="AB60" s="268"/>
+      <c r="AP60" s="289"/>
+      <c r="AQ60" s="289"/>
     </row>
     <row r="61" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="254"/>
+      <c r="A61" s="268"/>
       <c r="B61" s="177">
         <v>59</v>
       </c>
@@ -28491,12 +28491,12 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E61" s="254"/>
+      <c r="E61" s="268"/>
       <c r="F61" s="236"/>
       <c r="H61" s="194">
         <v>8</v>
       </c>
-      <c r="I61" s="254"/>
+      <c r="I61" s="268"/>
       <c r="T61" s="177">
         <v>0</v>
       </c>
@@ -28507,17 +28507,17 @@
         <f>V61/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X61" s="254"/>
-      <c r="Z61" s="254"/>
+      <c r="X61" s="268"/>
+      <c r="Z61" s="268"/>
       <c r="AA61" s="195">
         <v>2.9</v>
       </c>
-      <c r="AB61" s="254"/>
-      <c r="AP61" s="249"/>
-      <c r="AQ61" s="249"/>
+      <c r="AB61" s="268"/>
+      <c r="AP61" s="289"/>
+      <c r="AQ61" s="289"/>
     </row>
     <row r="62" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="254"/>
+      <c r="A62" s="268"/>
       <c r="B62" s="177">
         <v>66</v>
       </c>
@@ -28528,8 +28528,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E62" s="254"/>
-      <c r="I62" s="254"/>
+      <c r="E62" s="268"/>
+      <c r="I62" s="268"/>
       <c r="T62" s="177">
         <v>10.199999999999999</v>
       </c>
@@ -28540,15 +28540,15 @@
         <f>V62/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X62" s="254"/>
-      <c r="Z62" s="254"/>
+      <c r="X62" s="268"/>
+      <c r="Z62" s="268"/>
       <c r="AA62" s="191"/>
-      <c r="AB62" s="254"/>
-      <c r="AP62" s="249"/>
-      <c r="AQ62" s="249"/>
+      <c r="AB62" s="268"/>
+      <c r="AP62" s="289"/>
+      <c r="AQ62" s="289"/>
     </row>
     <row r="63" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="254"/>
+      <c r="A63" s="268"/>
       <c r="B63" s="177">
         <v>68</v>
       </c>
@@ -28559,11 +28559,11 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E63" s="254"/>
+      <c r="E63" s="268"/>
       <c r="H63" s="194">
         <v>9.1</v>
       </c>
-      <c r="I63" s="254"/>
+      <c r="I63" s="268"/>
       <c r="T63" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -28574,17 +28574,17 @@
         <f>V63/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X63" s="254"/>
-      <c r="Z63" s="254"/>
+      <c r="X63" s="268"/>
+      <c r="Z63" s="268"/>
       <c r="AA63" s="177">
         <v>2</v>
       </c>
-      <c r="AB63" s="254"/>
-      <c r="AP63" s="249"/>
-      <c r="AQ63" s="249"/>
+      <c r="AB63" s="268"/>
+      <c r="AP63" s="289"/>
+      <c r="AQ63" s="289"/>
     </row>
     <row r="64" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="254"/>
+      <c r="A64" s="268"/>
       <c r="B64" s="177">
         <v>69</v>
       </c>
@@ -28595,17 +28595,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E64" s="254"/>
-      <c r="I64" s="254"/>
+      <c r="E64" s="268"/>
+      <c r="I64" s="268"/>
       <c r="W64" s="192"/>
-      <c r="X64" s="254"/>
-      <c r="Z64" s="254"/>
-      <c r="AB64" s="254"/>
-      <c r="AP64" s="249"/>
-      <c r="AQ64" s="249"/>
+      <c r="X64" s="268"/>
+      <c r="Z64" s="268"/>
+      <c r="AB64" s="268"/>
+      <c r="AP64" s="289"/>
+      <c r="AQ64" s="289"/>
     </row>
     <row r="65" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="254"/>
+      <c r="A65" s="268"/>
       <c r="B65" s="177">
         <v>70</v>
       </c>
@@ -28616,17 +28616,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E65" s="254"/>
-      <c r="I65" s="254"/>
+      <c r="E65" s="268"/>
+      <c r="I65" s="268"/>
       <c r="W65" s="192"/>
-      <c r="X65" s="254"/>
-      <c r="Z65" s="254"/>
-      <c r="AB65" s="254"/>
-      <c r="AP65" s="249"/>
-      <c r="AQ65" s="249"/>
+      <c r="X65" s="268"/>
+      <c r="Z65" s="268"/>
+      <c r="AB65" s="268"/>
+      <c r="AP65" s="289"/>
+      <c r="AQ65" s="289"/>
     </row>
     <row r="66" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="254"/>
+      <c r="A66" s="268"/>
       <c r="B66" s="177">
         <v>73</v>
       </c>
@@ -28637,17 +28637,17 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E66" s="254"/>
-      <c r="I66" s="254"/>
+      <c r="E66" s="268"/>
+      <c r="I66" s="268"/>
       <c r="W66" s="192"/>
-      <c r="X66" s="254"/>
-      <c r="Z66" s="254"/>
-      <c r="AB66" s="254"/>
-      <c r="AP66" s="249"/>
-      <c r="AQ66" s="249"/>
+      <c r="X66" s="268"/>
+      <c r="Z66" s="268"/>
+      <c r="AB66" s="268"/>
+      <c r="AP66" s="289"/>
+      <c r="AQ66" s="289"/>
     </row>
     <row r="67" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="254"/>
+      <c r="A67" s="268"/>
       <c r="B67" s="177">
         <v>82</v>
       </c>
@@ -28658,8 +28658,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E67" s="254"/>
-      <c r="I67" s="254"/>
+      <c r="E67" s="268"/>
+      <c r="I67" s="268"/>
       <c r="T67" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28670,14 +28670,14 @@
         <f>V67/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X67" s="254"/>
+      <c r="X67" s="268"/>
       <c r="AB67" s="191"/>
-      <c r="AP67" s="249"/>
-      <c r="AQ67" s="249"/>
+      <c r="AP67" s="289"/>
+      <c r="AQ67" s="289"/>
     </row>
     <row r="68" spans="1:43" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="230" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B68" s="229"/>
       <c r="C68" s="229"/>
@@ -28718,8 +28718,8 @@
       <c r="AL68" s="228"/>
     </row>
     <row r="69" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="253" t="s">
-        <v>306</v>
+      <c r="A69" s="284" t="s">
+        <v>304</v>
       </c>
       <c r="B69" s="177">
         <v>16</v>
@@ -28824,7 +28824,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="254"/>
+      <c r="A70" s="268"/>
       <c r="B70" s="177">
         <v>18</v>
       </c>
@@ -28928,7 +28928,7 @@
       </c>
     </row>
     <row r="71" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="254"/>
+      <c r="A71" s="268"/>
       <c r="B71" s="177">
         <v>31</v>
       </c>
@@ -28939,42 +28939,42 @@
         <f t="shared" si="4"/>
         <v>2.9145728643216084E-2</v>
       </c>
-      <c r="E71" s="258">
+      <c r="E71" s="288">
         <f>SUM(D71:D75)</f>
         <v>0.19296482412060306</v>
       </c>
       <c r="F71" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G71" s="253">
+      <c r="G71" s="284">
         <f>SUM(F71:F75)</f>
         <v>0.17699999999999999</v>
       </c>
       <c r="H71" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I71" s="256">
+      <c r="I71" s="270">
         <f>(SUM(H71:H75)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.17699530516431927</v>
       </c>
       <c r="J71" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K71" s="257">
+      <c r="K71" s="271">
         <f>SUM(J71:J75)/100</f>
         <v>0.217</v>
       </c>
       <c r="L71" s="177">
         <v>3.8</v>
       </c>
-      <c r="M71" s="257">
+      <c r="M71" s="271">
         <f>SUM(L71:L75)/100</f>
         <v>0.20799999999999996</v>
       </c>
       <c r="N71" s="187">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O71" s="265">
+      <c r="O71" s="262">
         <f>SUM(N71:N75)/SUM(N69:N90)</f>
         <v>0.22842639593908629</v>
       </c>
@@ -28989,14 +28989,14 @@
       <c r="Y71" s="177">
         <v>2.6</v>
       </c>
-      <c r="Z71" s="255">
+      <c r="Z71" s="269">
         <f>SUM(Y71:Y75)/100</f>
         <v>0.21899999999999997</v>
       </c>
       <c r="AA71" s="177">
         <v>4</v>
       </c>
-      <c r="AB71" s="255">
+      <c r="AB71" s="269">
         <f>SUM(AA71:AA75)/100</f>
         <v>0.21700000000000003</v>
       </c>
@@ -29004,7 +29004,7 @@
         <f>10/544*100</f>
         <v>1.8382352941176472</v>
       </c>
-      <c r="AD71" s="255">
+      <c r="AD71" s="269">
         <f>SUM(AC71:AC75)/100</f>
         <v>0.16544117647058823</v>
       </c>
@@ -29012,27 +29012,27 @@
         <f>335/8977*100</f>
         <v>3.7317589395120865</v>
       </c>
-      <c r="AF71" s="255">
+      <c r="AF71" s="269">
         <f>SUM(AE71:AE75)/100</f>
         <v>0.1853625932939735</v>
       </c>
       <c r="AI71" s="221">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AJ71" s="278">
+      <c r="AJ71" s="266">
         <f>SUM(AI71:AI75)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>0.1722342342342342</v>
       </c>
       <c r="AK71" s="221">
         <v>0.03</v>
       </c>
-      <c r="AL71" s="278">
+      <c r="AL71" s="266">
         <f>SUM(AK71:AK75)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>0.19617647058823534</v>
       </c>
     </row>
     <row r="72" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="254"/>
+      <c r="A72" s="268"/>
       <c r="B72" s="177">
         <v>33</v>
       </c>
@@ -29043,27 +29043,27 @@
         <f t="shared" si="4"/>
         <v>7.3366834170854281E-2</v>
       </c>
-      <c r="E72" s="254"/>
+      <c r="E72" s="268"/>
       <c r="F72" s="177">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G72" s="254"/>
+      <c r="G72" s="268"/>
       <c r="H72" s="177">
         <v>5.2</v>
       </c>
-      <c r="I72" s="254"/>
+      <c r="I72" s="268"/>
       <c r="J72" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K72" s="254"/>
+      <c r="K72" s="268"/>
       <c r="L72" s="177">
         <v>5.7</v>
       </c>
-      <c r="M72" s="254"/>
+      <c r="M72" s="268"/>
       <c r="N72" s="176">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O72" s="266"/>
+      <c r="O72" s="263"/>
       <c r="P72" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29075,32 +29075,32 @@
       <c r="Y72" s="177">
         <v>3.6</v>
       </c>
-      <c r="Z72" s="254"/>
+      <c r="Z72" s="268"/>
       <c r="AA72" s="177">
         <v>4.5</v>
       </c>
-      <c r="AB72" s="254"/>
+      <c r="AB72" s="268"/>
       <c r="AC72" s="183">
         <f>8/544*100</f>
         <v>1.4705882352941175</v>
       </c>
-      <c r="AD72" s="254"/>
+      <c r="AD72" s="268"/>
       <c r="AE72" s="182">
         <f>345/8977*100</f>
         <v>3.8431547287512533</v>
       </c>
-      <c r="AF72" s="254"/>
+      <c r="AF72" s="268"/>
       <c r="AI72" s="221">
         <v>4.7E-2</v>
       </c>
-      <c r="AJ72" s="273"/>
+      <c r="AJ72" s="265"/>
       <c r="AK72" s="221">
         <v>0.06</v>
       </c>
-      <c r="AL72" s="273"/>
+      <c r="AL72" s="265"/>
     </row>
     <row r="73" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="254"/>
+      <c r="A73" s="268"/>
       <c r="B73" s="177">
         <v>45</v>
       </c>
@@ -29111,27 +29111,27 @@
         <f t="shared" si="4"/>
         <v>5.6281407035175882E-2</v>
       </c>
-      <c r="E73" s="254"/>
+      <c r="E73" s="268"/>
       <c r="F73" s="177">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G73" s="254"/>
+      <c r="G73" s="268"/>
       <c r="H73" s="177">
         <v>15.5</v>
       </c>
-      <c r="I73" s="254"/>
+      <c r="I73" s="268"/>
       <c r="J73" s="177">
         <v>15.1</v>
       </c>
-      <c r="K73" s="254"/>
+      <c r="K73" s="268"/>
       <c r="L73" s="177">
         <v>4.7</v>
       </c>
-      <c r="M73" s="254"/>
+      <c r="M73" s="268"/>
       <c r="N73" s="176">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O73" s="266"/>
+      <c r="O73" s="263"/>
       <c r="P73" s="182">
         <f>13/77*100</f>
         <v>16.883116883116884</v>
@@ -29143,32 +29143,32 @@
       <c r="Y73" s="177">
         <v>11</v>
       </c>
-      <c r="Z73" s="254"/>
+      <c r="Z73" s="268"/>
       <c r="AA73" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB73" s="254"/>
+      <c r="AB73" s="268"/>
       <c r="AC73" s="183">
         <f>54/544*100</f>
         <v>9.9264705882352935</v>
       </c>
-      <c r="AD73" s="254"/>
+      <c r="AD73" s="268"/>
       <c r="AE73" s="182">
         <f>528/8977*100</f>
         <v>5.8816976718280047</v>
       </c>
-      <c r="AF73" s="254"/>
+      <c r="AF73" s="268"/>
       <c r="AI73" s="221">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AJ73" s="273"/>
+      <c r="AJ73" s="265"/>
       <c r="AK73" s="221">
         <v>0.08</v>
       </c>
-      <c r="AL73" s="273"/>
+      <c r="AL73" s="265"/>
     </row>
     <row r="74" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="254"/>
+      <c r="A74" s="268"/>
       <c r="B74" s="177">
         <v>52</v>
       </c>
@@ -29179,27 +29179,27 @@
         <f t="shared" si="4"/>
         <v>2.1105527638190957E-2</v>
       </c>
-      <c r="E74" s="254"/>
+      <c r="E74" s="268"/>
       <c r="F74" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G74" s="254"/>
+      <c r="G74" s="268"/>
       <c r="H74" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I74" s="254"/>
+      <c r="I74" s="268"/>
       <c r="J74" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K74" s="254"/>
+      <c r="K74" s="268"/>
       <c r="L74" s="177">
         <v>4.7</v>
       </c>
-      <c r="M74" s="254"/>
+      <c r="M74" s="268"/>
       <c r="N74" s="176">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O74" s="266"/>
+      <c r="O74" s="263"/>
       <c r="P74" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29211,32 +29211,32 @@
       <c r="Y74" s="177">
         <v>3.4</v>
       </c>
-      <c r="Z74" s="254"/>
+      <c r="Z74" s="268"/>
       <c r="AA74" s="177">
         <v>3.5</v>
       </c>
-      <c r="AB74" s="254"/>
+      <c r="AB74" s="268"/>
       <c r="AC74" s="183">
         <f>14/544*100</f>
         <v>2.5735294117647056</v>
       </c>
-      <c r="AD74" s="254"/>
+      <c r="AD74" s="268"/>
       <c r="AE74" s="182">
         <f>253/8977*100</f>
         <v>2.8183134677509192</v>
       </c>
-      <c r="AF74" s="254"/>
+      <c r="AF74" s="268"/>
       <c r="AI74" s="221">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ74" s="273"/>
+      <c r="AJ74" s="265"/>
       <c r="AK74" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL74" s="273"/>
+      <c r="AL74" s="265"/>
     </row>
     <row r="75" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="254"/>
+      <c r="A75" s="268"/>
       <c r="B75" s="177">
         <v>58</v>
       </c>
@@ -29247,27 +29247,27 @@
         <f t="shared" si="4"/>
         <v>1.3065326633165831E-2</v>
       </c>
-      <c r="E75" s="254"/>
+      <c r="E75" s="268"/>
       <c r="F75" s="177">
         <v>0</v>
       </c>
-      <c r="G75" s="254"/>
+      <c r="G75" s="268"/>
       <c r="H75" s="177">
         <v>8.1</v>
       </c>
-      <c r="I75" s="254"/>
+      <c r="I75" s="268"/>
       <c r="J75" s="177">
         <v>0</v>
       </c>
-      <c r="K75" s="254"/>
+      <c r="K75" s="268"/>
       <c r="L75" s="177">
         <v>1.9</v>
       </c>
-      <c r="M75" s="254"/>
+      <c r="M75" s="268"/>
       <c r="N75" s="176">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O75" s="266"/>
+      <c r="O75" s="263"/>
       <c r="P75" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29279,33 +29279,33 @@
       <c r="Y75" s="177">
         <v>1.3</v>
       </c>
-      <c r="Z75" s="254"/>
+      <c r="Z75" s="268"/>
       <c r="AA75" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB75" s="254"/>
+      <c r="AB75" s="268"/>
       <c r="AC75" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD75" s="254"/>
+      <c r="AD75" s="268"/>
       <c r="AE75" s="182">
         <f>203/8977*100</f>
         <v>2.2613345215550851</v>
       </c>
-      <c r="AF75" s="254"/>
+      <c r="AF75" s="268"/>
       <c r="AI75" s="221">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AJ75" s="273"/>
+      <c r="AJ75" s="265"/>
       <c r="AK75" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL75" s="273"/>
+      <c r="AL75" s="265"/>
     </row>
     <row r="76" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="253" t="s">
-        <v>304</v>
+      <c r="A76" s="284" t="s">
+        <v>302</v>
       </c>
       <c r="B76" s="177">
         <v>26</v>
@@ -29317,28 +29317,28 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E76" s="258">
+      <c r="E76" s="288">
         <f>SUM(D76:D88)</f>
         <v>0.16180904522613065</v>
       </c>
-      <c r="G76" s="253">
+      <c r="G76" s="284">
         <f>SUM(F77:F89)</f>
         <v>0.16700000000000001</v>
       </c>
-      <c r="I76" s="256">
+      <c r="I76" s="270">
         <f>(SUM(H76:H90)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.11300469483568076</v>
       </c>
-      <c r="K76" s="257">
+      <c r="K76" s="271">
         <f>SUM(J76:J89)/100</f>
         <v>0.10899999999999999</v>
       </c>
-      <c r="M76" s="257">
+      <c r="M76" s="271">
         <f>SUM(L76:L89)/100</f>
         <v>0.12200000000000001</v>
       </c>
       <c r="N76" s="187"/>
-      <c r="O76" s="265">
+      <c r="O76" s="262">
         <f>SUM(N76:N90)/SUM(N69:N90)</f>
         <v>0.10761421319796954</v>
       </c>
@@ -29346,16 +29346,16 @@
       <c r="Q76" s="232"/>
       <c r="R76" s="182"/>
       <c r="S76" s="232"/>
-      <c r="Z76" s="255">
+      <c r="Z76" s="269">
         <f>1-SUM(Z69:Z75)</f>
         <v>5.1999999999999935E-2</v>
       </c>
-      <c r="AB76" s="255">
+      <c r="AB76" s="269">
         <f>1-SUM(AB69:AB75)</f>
         <v>0</v>
       </c>
       <c r="AC76" s="182"/>
-      <c r="AD76" s="255">
+      <c r="AD76" s="269">
         <f>1-SUM(AD69:AD75)</f>
         <v>0.13235294117647067</v>
       </c>
@@ -29363,21 +29363,21 @@
         <f>31/8977*100</f>
         <v>0.34532694664141694</v>
       </c>
-      <c r="AF76" s="255">
+      <c r="AF76" s="269">
         <f>1-SUM(AF69:AF75)</f>
         <v>0.10649437451264343</v>
       </c>
-      <c r="AJ76" s="278">
+      <c r="AJ76" s="266">
         <f>SUM(AI76:AI90)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>6.9765765765765764E-2</v>
       </c>
-      <c r="AL76" s="278">
+      <c r="AL76" s="266">
         <f>SUM(AK76:AK90)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>9.3823529411764722E-2</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="254"/>
+      <c r="A77" s="268"/>
       <c r="B77" s="177">
         <v>35</v>
       </c>
@@ -29388,27 +29388,27 @@
         <f t="shared" si="4"/>
         <v>6.0301507537688454E-2</v>
       </c>
-      <c r="E77" s="254"/>
+      <c r="E77" s="268"/>
       <c r="F77" s="177">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G77" s="254"/>
+      <c r="G77" s="268"/>
       <c r="H77" s="177">
         <v>7.7</v>
       </c>
-      <c r="I77" s="254"/>
+      <c r="I77" s="268"/>
       <c r="J77" s="177">
         <v>6.5</v>
       </c>
-      <c r="K77" s="257"/>
+      <c r="K77" s="271"/>
       <c r="L77" s="177">
         <v>9.5</v>
       </c>
-      <c r="M77" s="257"/>
+      <c r="M77" s="271"/>
       <c r="N77" s="176">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="O77" s="266"/>
+      <c r="O77" s="263"/>
       <c r="P77" s="182">
         <f>7/77*100</f>
         <v>9.0909090909090917</v>
@@ -29420,32 +29420,32 @@
       <c r="Y77" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z77" s="254"/>
+      <c r="Z77" s="268"/>
       <c r="AA77" s="177">
         <v>1.7</v>
       </c>
-      <c r="AB77" s="254"/>
+      <c r="AB77" s="268"/>
       <c r="AC77" s="183">
         <f>27/544*100</f>
         <v>4.9632352941176467</v>
       </c>
-      <c r="AD77" s="254"/>
+      <c r="AD77" s="268"/>
       <c r="AE77" s="182">
         <f>175/8977*100</f>
         <v>1.9494263116854185</v>
       </c>
-      <c r="AF77" s="254"/>
+      <c r="AF77" s="268"/>
       <c r="AI77" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ77" s="273"/>
+      <c r="AJ77" s="265"/>
       <c r="AK77" s="221">
         <v>0.05</v>
       </c>
-      <c r="AL77" s="273"/>
+      <c r="AL77" s="265"/>
     </row>
     <row r="78" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="254"/>
+      <c r="A78" s="268"/>
       <c r="B78" s="177">
         <v>39</v>
       </c>
@@ -29456,15 +29456,15 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E78" s="254"/>
-      <c r="G78" s="254"/>
+      <c r="E78" s="268"/>
+      <c r="G78" s="268"/>
       <c r="H78" s="177">
         <v>3.3</v>
       </c>
-      <c r="I78" s="254"/>
-      <c r="K78" s="257"/>
-      <c r="M78" s="257"/>
-      <c r="O78" s="266"/>
+      <c r="I78" s="268"/>
+      <c r="K78" s="271"/>
+      <c r="M78" s="271"/>
+      <c r="O78" s="263"/>
       <c r="P78" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29473,29 +29473,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z78" s="254"/>
+      <c r="Z78" s="268"/>
       <c r="AA78" s="177">
         <v>1.4</v>
       </c>
-      <c r="AB78" s="254"/>
+      <c r="AB78" s="268"/>
       <c r="AC78" s="183">
         <f>3/544*100</f>
         <v>0.55147058823529416</v>
       </c>
-      <c r="AD78" s="254"/>
+      <c r="AD78" s="268"/>
       <c r="AE78" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF78" s="254"/>
+      <c r="AF78" s="268"/>
       <c r="AI78" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ78" s="273"/>
-      <c r="AL78" s="273"/>
+      <c r="AJ78" s="265"/>
+      <c r="AL78" s="265"/>
     </row>
     <row r="79" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="254"/>
+      <c r="A79" s="268"/>
       <c r="B79" s="177">
         <v>51</v>
       </c>
@@ -29506,25 +29506,25 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E79" s="254"/>
+      <c r="E79" s="268"/>
       <c r="F79" s="177"/>
-      <c r="G79" s="254"/>
+      <c r="G79" s="268"/>
       <c r="H79" s="177">
         <v>4.8</v>
       </c>
-      <c r="I79" s="254"/>
+      <c r="I79" s="268"/>
       <c r="J79" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K79" s="257"/>
+      <c r="K79" s="271"/>
       <c r="L79" s="177">
         <v>0</v>
       </c>
-      <c r="M79" s="257"/>
+      <c r="M79" s="271"/>
       <c r="N79" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O79" s="266"/>
+      <c r="O79" s="263"/>
       <c r="P79" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29533,32 +29533,32 @@
         <f>4/154*100</f>
         <v>2.5974025974025974</v>
       </c>
-      <c r="Z79" s="254"/>
+      <c r="Z79" s="268"/>
       <c r="AA79" s="177">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB79" s="254"/>
+      <c r="AB79" s="268"/>
       <c r="AC79" s="183">
         <f>13/544*100</f>
         <v>2.3897058823529411</v>
       </c>
-      <c r="AD79" s="254"/>
+      <c r="AD79" s="268"/>
       <c r="AE79" s="182">
         <f>114/8977*100</f>
         <v>1.269911997326501</v>
       </c>
-      <c r="AF79" s="254"/>
+      <c r="AF79" s="268"/>
       <c r="AI79" s="221">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ79" s="273"/>
+      <c r="AJ79" s="265"/>
       <c r="AK79" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL79" s="273"/>
+      <c r="AL79" s="265"/>
     </row>
     <row r="80" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="254"/>
+      <c r="A80" s="268"/>
       <c r="B80" s="177">
         <v>53</v>
       </c>
@@ -29569,32 +29569,32 @@
         <f t="shared" si="4"/>
         <v>1.6080402010050253E-2</v>
       </c>
-      <c r="E80" s="254"/>
+      <c r="E80" s="268"/>
       <c r="F80" s="177"/>
-      <c r="G80" s="254"/>
-      <c r="I80" s="254"/>
-      <c r="K80" s="257"/>
-      <c r="M80" s="257"/>
-      <c r="O80" s="266"/>
+      <c r="G80" s="268"/>
+      <c r="I80" s="268"/>
+      <c r="K80" s="271"/>
+      <c r="M80" s="271"/>
+      <c r="O80" s="263"/>
       <c r="P80" s="182"/>
       <c r="R80" s="182"/>
-      <c r="Z80" s="254"/>
-      <c r="AB80" s="254"/>
+      <c r="Z80" s="268"/>
+      <c r="AB80" s="268"/>
       <c r="AC80" s="182"/>
-      <c r="AD80" s="254"/>
+      <c r="AD80" s="268"/>
       <c r="AE80" s="182">
         <f>24/8977*100</f>
         <v>0.26734989417400024</v>
       </c>
-      <c r="AF80" s="254"/>
+      <c r="AF80" s="268"/>
       <c r="AI80" s="221">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ80" s="273"/>
-      <c r="AL80" s="273"/>
+      <c r="AJ80" s="265"/>
+      <c r="AL80" s="265"/>
     </row>
     <row r="81" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="254"/>
+      <c r="A81" s="268"/>
       <c r="B81" s="177">
         <v>56</v>
       </c>
@@ -29605,25 +29605,25 @@
         <f t="shared" si="4"/>
         <v>7.0351758793969852E-3</v>
       </c>
-      <c r="E81" s="254"/>
+      <c r="E81" s="268"/>
       <c r="F81" s="177"/>
-      <c r="G81" s="254"/>
+      <c r="G81" s="268"/>
       <c r="H81" s="177">
         <v>3</v>
       </c>
-      <c r="I81" s="254"/>
+      <c r="I81" s="268"/>
       <c r="J81" s="177">
         <v>0</v>
       </c>
-      <c r="K81" s="257"/>
+      <c r="K81" s="271"/>
       <c r="L81" s="177">
         <v>0.9</v>
       </c>
-      <c r="M81" s="257"/>
+      <c r="M81" s="271"/>
       <c r="N81" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O81" s="266"/>
+      <c r="O81" s="263"/>
       <c r="P81" s="183">
         <v>0</v>
       </c>
@@ -29631,29 +29631,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z81" s="254"/>
+      <c r="Z81" s="268"/>
       <c r="AA81" s="177">
         <v>0.9</v>
       </c>
-      <c r="AB81" s="254"/>
+      <c r="AB81" s="268"/>
       <c r="AC81" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD81" s="254"/>
+      <c r="AD81" s="268"/>
       <c r="AE81" s="182">
         <f>75/8977*100</f>
         <v>0.83546841929375071</v>
       </c>
-      <c r="AF81" s="254"/>
+      <c r="AF81" s="268"/>
       <c r="AI81" s="221">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ81" s="273"/>
-      <c r="AL81" s="273"/>
+      <c r="AJ81" s="265"/>
+      <c r="AL81" s="265"/>
     </row>
     <row r="82" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="254"/>
+      <c r="A82" s="268"/>
       <c r="B82" s="177">
         <v>59</v>
       </c>
@@ -29664,16 +29664,16 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E82" s="254"/>
+      <c r="E82" s="268"/>
       <c r="F82" s="177"/>
-      <c r="G82" s="254"/>
+      <c r="G82" s="268"/>
       <c r="H82" s="177">
         <v>3</v>
       </c>
-      <c r="I82" s="254"/>
-      <c r="K82" s="257"/>
-      <c r="M82" s="257"/>
-      <c r="O82" s="266"/>
+      <c r="I82" s="268"/>
+      <c r="K82" s="271"/>
+      <c r="M82" s="271"/>
+      <c r="O82" s="263"/>
       <c r="P82" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29681,29 +29681,29 @@
       <c r="R82" s="183">
         <v>0</v>
       </c>
-      <c r="Z82" s="254"/>
+      <c r="Z82" s="268"/>
       <c r="AA82" s="177">
         <v>1.3</v>
       </c>
-      <c r="AB82" s="254"/>
+      <c r="AB82" s="268"/>
       <c r="AC82" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD82" s="254"/>
+      <c r="AD82" s="268"/>
       <c r="AE82" s="182">
         <f>95/8977*100</f>
         <v>1.0582599977720841</v>
       </c>
-      <c r="AF82" s="254"/>
+      <c r="AF82" s="268"/>
       <c r="AI82" s="221">
         <v>1.4E-2</v>
       </c>
-      <c r="AJ82" s="273"/>
-      <c r="AL82" s="273"/>
+      <c r="AJ82" s="265"/>
+      <c r="AL82" s="265"/>
     </row>
     <row r="83" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="254"/>
+      <c r="A83" s="268"/>
       <c r="B83" s="177">
         <v>66</v>
       </c>
@@ -29714,35 +29714,35 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E83" s="254"/>
+      <c r="E83" s="268"/>
       <c r="F83" s="177"/>
-      <c r="G83" s="254"/>
-      <c r="I83" s="254"/>
-      <c r="K83" s="257"/>
-      <c r="M83" s="257"/>
-      <c r="O83" s="266"/>
+      <c r="G83" s="268"/>
+      <c r="I83" s="268"/>
+      <c r="K83" s="271"/>
+      <c r="M83" s="271"/>
+      <c r="O83" s="263"/>
       <c r="P83" s="182"/>
       <c r="R83" s="182"/>
-      <c r="Z83" s="254"/>
-      <c r="AB83" s="254"/>
+      <c r="Z83" s="268"/>
+      <c r="AB83" s="268"/>
       <c r="AC83" s="182">
         <f>2/544*100</f>
         <v>0.36764705882352938</v>
       </c>
-      <c r="AD83" s="254"/>
+      <c r="AD83" s="268"/>
       <c r="AE83" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF83" s="254"/>
+      <c r="AF83" s="268"/>
       <c r="AI83" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ83" s="273"/>
-      <c r="AL83" s="273"/>
+      <c r="AJ83" s="265"/>
+      <c r="AL83" s="265"/>
     </row>
     <row r="84" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="254"/>
+      <c r="A84" s="268"/>
       <c r="B84" s="177">
         <v>68</v>
       </c>
@@ -29753,18 +29753,18 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E84" s="254"/>
+      <c r="E84" s="268"/>
       <c r="F84" s="177">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G84" s="254"/>
+      <c r="G84" s="268"/>
       <c r="H84" s="177">
         <v>3.1</v>
       </c>
-      <c r="I84" s="254"/>
-      <c r="K84" s="257"/>
-      <c r="M84" s="257"/>
-      <c r="O84" s="266"/>
+      <c r="I84" s="268"/>
+      <c r="K84" s="271"/>
+      <c r="M84" s="271"/>
+      <c r="O84" s="263"/>
       <c r="P84" s="183">
         <v>0</v>
       </c>
@@ -29772,32 +29772,32 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z84" s="254"/>
+      <c r="Z84" s="268"/>
       <c r="AA84" s="177">
         <v>0.6</v>
       </c>
-      <c r="AB84" s="254"/>
+      <c r="AB84" s="268"/>
       <c r="AC84" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD84" s="254"/>
+      <c r="AD84" s="268"/>
       <c r="AE84" s="182">
         <f>59/8977*100</f>
         <v>0.65723515651108388</v>
       </c>
-      <c r="AF84" s="254"/>
+      <c r="AF84" s="268"/>
       <c r="AI84" s="221">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ84" s="273"/>
+      <c r="AJ84" s="265"/>
       <c r="AK84" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL84" s="273"/>
+      <c r="AL84" s="265"/>
     </row>
     <row r="85" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="254"/>
+      <c r="A85" s="268"/>
       <c r="B85" s="177">
         <v>69</v>
       </c>
@@ -29808,38 +29808,38 @@
         <f t="shared" si="4"/>
         <v>1.5075376884422113E-2</v>
       </c>
-      <c r="E85" s="254"/>
+      <c r="E85" s="268"/>
       <c r="F85" s="177"/>
-      <c r="G85" s="254"/>
-      <c r="I85" s="254"/>
+      <c r="G85" s="268"/>
+      <c r="I85" s="268"/>
       <c r="J85" s="177">
         <v>0</v>
       </c>
-      <c r="K85" s="257"/>
+      <c r="K85" s="271"/>
       <c r="L85" s="177">
         <v>0.9</v>
       </c>
-      <c r="M85" s="257"/>
-      <c r="O85" s="266"/>
+      <c r="M85" s="271"/>
+      <c r="O85" s="263"/>
       <c r="P85" s="182"/>
       <c r="R85" s="182"/>
-      <c r="Z85" s="254"/>
-      <c r="AB85" s="254"/>
+      <c r="Z85" s="268"/>
+      <c r="AB85" s="268"/>
       <c r="AC85" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD85" s="254"/>
+      <c r="AD85" s="268"/>
       <c r="AE85" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF85" s="254"/>
-      <c r="AJ85" s="273"/>
-      <c r="AL85" s="273"/>
+      <c r="AF85" s="268"/>
+      <c r="AJ85" s="265"/>
+      <c r="AL85" s="265"/>
     </row>
     <row r="86" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="254"/>
+      <c r="A86" s="268"/>
       <c r="B86" s="177">
         <v>70</v>
       </c>
@@ -29850,38 +29850,38 @@
         <f t="shared" si="4"/>
         <v>8.0402010050251264E-3</v>
       </c>
-      <c r="E86" s="254"/>
+      <c r="E86" s="268"/>
       <c r="F86" s="177"/>
-      <c r="G86" s="254"/>
-      <c r="I86" s="254"/>
+      <c r="G86" s="268"/>
+      <c r="I86" s="268"/>
       <c r="J86" s="177">
         <v>0</v>
       </c>
-      <c r="K86" s="257"/>
+      <c r="K86" s="271"/>
       <c r="L86" s="177">
         <v>0.9</v>
       </c>
-      <c r="M86" s="257"/>
-      <c r="O86" s="266"/>
+      <c r="M86" s="271"/>
+      <c r="O86" s="263"/>
       <c r="P86" s="182"/>
       <c r="R86" s="182"/>
-      <c r="Z86" s="254"/>
-      <c r="AB86" s="254"/>
+      <c r="Z86" s="268"/>
+      <c r="AB86" s="268"/>
       <c r="AC86" s="182"/>
-      <c r="AD86" s="254"/>
+      <c r="AD86" s="268"/>
       <c r="AE86" s="182">
         <f>9/8977*100</f>
         <v>0.10025621031525009</v>
       </c>
-      <c r="AF86" s="254"/>
+      <c r="AF86" s="268"/>
       <c r="AI86" s="221">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ86" s="273"/>
-      <c r="AL86" s="273"/>
+      <c r="AJ86" s="265"/>
+      <c r="AL86" s="265"/>
     </row>
     <row r="87" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="254"/>
+      <c r="A87" s="268"/>
       <c r="B87" s="177">
         <v>73</v>
       </c>
@@ -29892,24 +29892,24 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E87" s="254"/>
+      <c r="E87" s="268"/>
       <c r="F87" s="177">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G87" s="254"/>
-      <c r="I87" s="254"/>
+      <c r="G87" s="268"/>
+      <c r="I87" s="268"/>
       <c r="J87" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K87" s="257"/>
+      <c r="K87" s="271"/>
       <c r="L87" s="177">
         <v>0</v>
       </c>
-      <c r="M87" s="257"/>
+      <c r="M87" s="271"/>
       <c r="N87" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O87" s="266"/>
+      <c r="O87" s="263"/>
       <c r="P87" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29918,26 +29918,26 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z87" s="254"/>
-      <c r="AB87" s="254"/>
+      <c r="Z87" s="268"/>
+      <c r="AB87" s="268"/>
       <c r="AC87" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD87" s="254"/>
+      <c r="AD87" s="268"/>
       <c r="AE87" s="182">
         <f>43/8977*100</f>
         <v>0.47900189372841706</v>
       </c>
-      <c r="AF87" s="254"/>
+      <c r="AF87" s="268"/>
       <c r="AI87" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ87" s="273"/>
-      <c r="AL87" s="273"/>
+      <c r="AJ87" s="265"/>
+      <c r="AL87" s="265"/>
     </row>
     <row r="88" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="254"/>
+      <c r="A88" s="268"/>
       <c r="B88" s="177">
         <v>82</v>
       </c>
@@ -29948,19 +29948,19 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E88" s="254"/>
+      <c r="E88" s="268"/>
       <c r="F88" s="177"/>
-      <c r="G88" s="254"/>
-      <c r="I88" s="254"/>
+      <c r="G88" s="268"/>
+      <c r="I88" s="268"/>
       <c r="J88" s="177">
         <v>0</v>
       </c>
-      <c r="K88" s="257"/>
+      <c r="K88" s="271"/>
       <c r="L88" s="177">
         <v>0</v>
       </c>
-      <c r="M88" s="257"/>
-      <c r="O88" s="266"/>
+      <c r="M88" s="271"/>
+      <c r="O88" s="263"/>
       <c r="P88" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29969,22 +29969,22 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z88" s="254"/>
-      <c r="AB88" s="254"/>
+      <c r="Z88" s="268"/>
+      <c r="AB88" s="268"/>
       <c r="AC88" s="182"/>
-      <c r="AD88" s="254"/>
+      <c r="AD88" s="268"/>
       <c r="AE88" s="182">
         <f>6/8977*100</f>
         <v>6.6837473543500059E-2</v>
       </c>
-      <c r="AF88" s="254"/>
-      <c r="AJ88" s="273"/>
-      <c r="AL88" s="273"/>
+      <c r="AF88" s="268"/>
+      <c r="AJ88" s="265"/>
+      <c r="AL88" s="265"/>
     </row>
     <row r="89" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="254"/>
+      <c r="A89" s="268"/>
       <c r="B89" s="177" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C89" s="184"/>
       <c r="D89" s="184"/>
@@ -29993,29 +29993,29 @@
         <f>0.011 + 0.006 + 0.006 + 0.006</f>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="G89" s="254"/>
-      <c r="I89" s="254"/>
-      <c r="K89" s="257"/>
-      <c r="M89" s="257"/>
-      <c r="O89" s="266"/>
+      <c r="G89" s="268"/>
+      <c r="I89" s="268"/>
+      <c r="K89" s="271"/>
+      <c r="M89" s="271"/>
+      <c r="O89" s="263"/>
       <c r="P89" s="182"/>
       <c r="R89" s="182"/>
-      <c r="Z89" s="254"/>
-      <c r="AB89" s="254"/>
+      <c r="Z89" s="268"/>
+      <c r="AB89" s="268"/>
       <c r="AC89" s="182"/>
-      <c r="AD89" s="254"/>
+      <c r="AD89" s="268"/>
       <c r="AE89" s="182"/>
-      <c r="AF89" s="254"/>
+      <c r="AF89" s="268"/>
       <c r="AI89" s="221">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ89" s="273"/>
-      <c r="AL89" s="273"/>
+      <c r="AJ89" s="265"/>
+      <c r="AL89" s="265"/>
     </row>
     <row r="90" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="177"/>
       <c r="B90" s="177" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C90" s="177"/>
       <c r="D90" s="177"/>
@@ -30023,7 +30023,7 @@
       <c r="F90" s="177"/>
       <c r="G90" s="177"/>
       <c r="H90" s="177"/>
-      <c r="I90" s="254"/>
+      <c r="I90" s="268"/>
       <c r="J90" s="182">
         <f>1/46*100</f>
         <v>2.1739130434782608</v>
@@ -30032,7 +30032,7 @@
         <f>2/106*100</f>
         <v>1.8867924528301887</v>
       </c>
-      <c r="O90" s="266"/>
+      <c r="O90" s="263"/>
       <c r="P90" s="183">
         <f>32/77*100</f>
         <v>41.558441558441558</v>
@@ -30042,24 +30042,24 @@
         <v>23.376623376623375</v>
       </c>
       <c r="S90" s="177"/>
-      <c r="Z90" s="254"/>
-      <c r="AB90" s="254"/>
+      <c r="Z90" s="268"/>
+      <c r="AB90" s="268"/>
       <c r="AC90" s="182">
         <f>15/544*100</f>
         <v>2.7573529411764706</v>
       </c>
-      <c r="AD90" s="254"/>
+      <c r="AD90" s="268"/>
       <c r="AE90" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF90" s="254"/>
-      <c r="AJ90" s="273"/>
-      <c r="AL90" s="273"/>
+      <c r="AF90" s="268"/>
+      <c r="AJ90" s="265"/>
+      <c r="AL90" s="265"/>
     </row>
     <row r="91" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="230" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B91" s="230"/>
       <c r="C91" s="230"/>
@@ -30100,8 +30100,8 @@
       <c r="AL91" s="228"/>
     </row>
     <row r="92" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="253" t="s">
-        <v>306</v>
+      <c r="A92" s="284" t="s">
+        <v>304</v>
       </c>
       <c r="B92" s="177">
         <v>16</v>
@@ -30122,7 +30122,7 @@
       </c>
     </row>
     <row r="93" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="254"/>
+      <c r="A93" s="268"/>
       <c r="B93" s="177">
         <v>18</v>
       </c>
@@ -30142,240 +30142,240 @@
       </c>
     </row>
     <row r="94" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="254"/>
+      <c r="A94" s="268"/>
       <c r="B94" s="177">
         <v>31</v>
       </c>
       <c r="H94" s="177">
         <v>6.8</v>
       </c>
-      <c r="I94" s="256">
+      <c r="I94" s="270">
         <f>(SUM(H94:H98)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.3216134598792062</v>
       </c>
       <c r="AA94" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB94" s="255">
+      <c r="AB94" s="269">
         <f>SUM(AA94:AA98)/100</f>
         <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="254"/>
+      <c r="A95" s="268"/>
       <c r="B95" s="177">
         <v>33</v>
       </c>
       <c r="H95" s="177">
         <v>8.9</v>
       </c>
-      <c r="I95" s="254"/>
+      <c r="I95" s="268"/>
       <c r="AA95" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB95" s="254"/>
+      <c r="AB95" s="268"/>
     </row>
     <row r="96" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="254"/>
+      <c r="A96" s="268"/>
       <c r="B96" s="177">
         <v>45</v>
       </c>
       <c r="H96" s="177">
         <v>9.9</v>
       </c>
-      <c r="I96" s="254"/>
+      <c r="I96" s="268"/>
       <c r="AA96" s="177">
         <v>4.2</v>
       </c>
-      <c r="AB96" s="254"/>
+      <c r="AB96" s="268"/>
     </row>
     <row r="97" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="254"/>
+      <c r="A97" s="268"/>
       <c r="B97" s="177">
         <v>52</v>
       </c>
       <c r="H97" s="177">
         <v>12.8</v>
       </c>
-      <c r="I97" s="254"/>
+      <c r="I97" s="268"/>
       <c r="AA97" s="177">
         <v>13.8</v>
       </c>
-      <c r="AB97" s="254"/>
+      <c r="AB97" s="268"/>
     </row>
     <row r="98" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="254"/>
+      <c r="A98" s="268"/>
       <c r="B98" s="177">
         <v>58</v>
       </c>
       <c r="H98" s="177">
         <v>14.1</v>
       </c>
-      <c r="I98" s="254"/>
+      <c r="I98" s="268"/>
       <c r="AA98" s="177">
         <v>7.9</v>
       </c>
-      <c r="AB98" s="254"/>
+      <c r="AB98" s="268"/>
     </row>
     <row r="99" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="253" t="s">
-        <v>304</v>
+      <c r="A99" s="284" t="s">
+        <v>302</v>
       </c>
       <c r="B99" s="177">
         <v>26</v>
       </c>
-      <c r="I99" s="256">
+      <c r="I99" s="270">
         <f>(SUM(H99:H112)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.38838654012079366</v>
       </c>
-      <c r="AB99" s="255">
+      <c r="AB99" s="269">
         <f>1-SUM(AB92:AB98)</f>
         <v>0.19600000000000006</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="254"/>
+      <c r="A100" s="268"/>
       <c r="B100" s="177">
         <v>35</v>
       </c>
       <c r="H100" s="177">
         <v>16.2</v>
       </c>
-      <c r="I100" s="254"/>
+      <c r="I100" s="268"/>
       <c r="AA100" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB100" s="254"/>
+      <c r="AB100" s="268"/>
     </row>
     <row r="101" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="254"/>
+      <c r="A101" s="268"/>
       <c r="B101" s="177">
         <v>39</v>
       </c>
       <c r="H101" s="177">
         <v>6.7</v>
       </c>
-      <c r="I101" s="254"/>
+      <c r="I101" s="268"/>
       <c r="AA101" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB101" s="254"/>
+      <c r="AB101" s="268"/>
     </row>
     <row r="102" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="254"/>
+      <c r="A102" s="268"/>
       <c r="B102" s="177">
         <v>51</v>
       </c>
       <c r="H102" s="177">
         <v>13.4</v>
       </c>
-      <c r="I102" s="254"/>
+      <c r="I102" s="268"/>
       <c r="AA102" s="177">
         <v>10.8</v>
       </c>
-      <c r="AB102" s="254"/>
+      <c r="AB102" s="268"/>
     </row>
     <row r="103" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="254"/>
+      <c r="A103" s="268"/>
       <c r="B103" s="177">
         <v>53</v>
       </c>
-      <c r="I103" s="254"/>
-      <c r="AB103" s="254"/>
+      <c r="I103" s="268"/>
+      <c r="AB103" s="268"/>
     </row>
     <row r="104" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="254"/>
+      <c r="A104" s="268"/>
       <c r="B104" s="177">
         <v>56</v>
       </c>
       <c r="H104" s="177">
         <v>10.7</v>
       </c>
-      <c r="I104" s="254"/>
+      <c r="I104" s="268"/>
       <c r="AA104" s="177">
         <v>7.7</v>
       </c>
-      <c r="AB104" s="254"/>
+      <c r="AB104" s="268"/>
     </row>
     <row r="105" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="254"/>
+      <c r="A105" s="268"/>
       <c r="B105" s="177">
         <v>59</v>
       </c>
       <c r="H105" s="177">
         <v>6.5</v>
       </c>
-      <c r="I105" s="254"/>
+      <c r="I105" s="268"/>
       <c r="AA105" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB105" s="254"/>
+      <c r="AB105" s="268"/>
     </row>
     <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="254"/>
+      <c r="A106" s="268"/>
       <c r="B106" s="177">
         <v>66</v>
       </c>
-      <c r="I106" s="254"/>
-      <c r="AB106" s="254"/>
+      <c r="I106" s="268"/>
+      <c r="AB106" s="268"/>
     </row>
     <row r="107" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="254"/>
+      <c r="A107" s="268"/>
       <c r="B107" s="177">
         <v>68</v>
       </c>
       <c r="H107" s="177">
         <v>9.9</v>
       </c>
-      <c r="I107" s="254"/>
+      <c r="I107" s="268"/>
       <c r="AA107" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB107" s="254"/>
+      <c r="AB107" s="268"/>
     </row>
     <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="254"/>
+      <c r="A108" s="268"/>
       <c r="B108" s="177">
         <v>69</v>
       </c>
-      <c r="I108" s="254"/>
-      <c r="AB108" s="254"/>
+      <c r="I108" s="268"/>
+      <c r="AB108" s="268"/>
     </row>
     <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="254"/>
+      <c r="A109" s="268"/>
       <c r="B109" s="177">
         <v>70</v>
       </c>
-      <c r="I109" s="254"/>
-      <c r="AB109" s="254"/>
+      <c r="I109" s="268"/>
+      <c r="AB109" s="268"/>
     </row>
     <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="254"/>
+      <c r="A110" s="268"/>
       <c r="B110" s="177">
         <v>73</v>
       </c>
-      <c r="I110" s="254"/>
-      <c r="AB110" s="254"/>
+      <c r="I110" s="268"/>
+      <c r="AB110" s="268"/>
     </row>
     <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="254"/>
+      <c r="A111" s="268"/>
       <c r="B111" s="177">
         <v>82</v>
       </c>
-      <c r="I111" s="254"/>
-      <c r="AB111" s="254"/>
+      <c r="I111" s="268"/>
+      <c r="AB111" s="268"/>
     </row>
     <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="254"/>
+      <c r="A112" s="268"/>
       <c r="B112" s="177" t="s">
-        <v>309</v>
-      </c>
-      <c r="I112" s="254"/>
-      <c r="AB112" s="254"/>
+        <v>307</v>
+      </c>
+      <c r="I112" s="268"/>
+      <c r="AB112" s="268"/>
     </row>
     <row r="113" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="230" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B113" s="229"/>
       <c r="C113" s="229"/>
@@ -30416,8 +30416,8 @@
       <c r="AL113" s="228"/>
     </row>
     <row r="114" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="253" t="s">
-        <v>306</v>
+      <c r="A114" s="284" t="s">
+        <v>304</v>
       </c>
       <c r="B114" s="177">
         <v>16</v>
@@ -30438,7 +30438,7 @@
       </c>
     </row>
     <row r="115" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="254"/>
+      <c r="A115" s="268"/>
       <c r="B115" s="177">
         <v>18</v>
       </c>
@@ -30458,240 +30458,240 @@
       </c>
     </row>
     <row r="116" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="254"/>
+      <c r="A116" s="268"/>
       <c r="B116" s="177">
         <v>31</v>
       </c>
       <c r="H116" s="177">
         <v>16.100000000000001</v>
       </c>
-      <c r="I116" s="255">
+      <c r="I116" s="269">
         <f>(SUM(H116:H120)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.32012755102040802</v>
       </c>
       <c r="AA116" s="177">
         <v>11.6</v>
       </c>
-      <c r="AB116" s="255">
+      <c r="AB116" s="269">
         <f>SUM(AA116:AA120)/100</f>
         <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="254"/>
+      <c r="A117" s="268"/>
       <c r="B117" s="177">
         <v>33</v>
       </c>
       <c r="H117" s="177">
         <v>12</v>
       </c>
-      <c r="I117" s="254"/>
+      <c r="I117" s="268"/>
       <c r="AA117" s="177">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB117" s="254"/>
+      <c r="AB117" s="268"/>
     </row>
     <row r="118" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="254"/>
+      <c r="A118" s="268"/>
       <c r="B118" s="177">
         <v>45</v>
       </c>
       <c r="H118" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I118" s="254"/>
+      <c r="I118" s="268"/>
       <c r="AA118" s="177">
         <v>5</v>
       </c>
-      <c r="AB118" s="254"/>
+      <c r="AB118" s="268"/>
     </row>
     <row r="119" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="254"/>
+      <c r="A119" s="268"/>
       <c r="B119" s="177">
         <v>52</v>
       </c>
       <c r="H119" s="177">
         <v>10.6</v>
       </c>
-      <c r="I119" s="254"/>
+      <c r="I119" s="268"/>
       <c r="AA119" s="177">
         <v>16.399999999999999</v>
       </c>
-      <c r="AB119" s="254"/>
+      <c r="AB119" s="268"/>
     </row>
     <row r="120" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="254"/>
+      <c r="A120" s="268"/>
       <c r="B120" s="177">
         <v>58</v>
       </c>
       <c r="H120" s="177">
         <v>22.1</v>
       </c>
-      <c r="I120" s="254"/>
+      <c r="I120" s="268"/>
       <c r="AA120" s="177">
         <v>12.1</v>
       </c>
-      <c r="AB120" s="254"/>
+      <c r="AB120" s="268"/>
     </row>
     <row r="121" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="253" t="s">
-        <v>304</v>
+      <c r="A121" s="284" t="s">
+        <v>302</v>
       </c>
       <c r="B121" s="177">
         <v>26</v>
       </c>
-      <c r="I121" s="256">
+      <c r="I121" s="270">
         <f>(SUM(H121:H134)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.3028724489795917</v>
       </c>
-      <c r="AB121" s="255">
+      <c r="AB121" s="269">
         <f>1-SUM(AB114:AB120)</f>
         <v>-3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="122" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="254"/>
+      <c r="A122" s="268"/>
       <c r="B122" s="177">
         <v>35</v>
       </c>
       <c r="H122" s="177">
         <v>23.9</v>
       </c>
-      <c r="I122" s="254"/>
+      <c r="I122" s="268"/>
       <c r="AA122" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB122" s="254"/>
+      <c r="AB122" s="268"/>
     </row>
     <row r="123" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="254"/>
+      <c r="A123" s="268"/>
       <c r="B123" s="177">
         <v>39</v>
       </c>
       <c r="H123" s="177">
         <v>5.4</v>
       </c>
-      <c r="I123" s="254"/>
+      <c r="I123" s="268"/>
       <c r="AA123" s="177">
         <v>5.4</v>
       </c>
-      <c r="AB123" s="254"/>
+      <c r="AB123" s="268"/>
     </row>
     <row r="124" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="254"/>
+      <c r="A124" s="268"/>
       <c r="B124" s="177">
         <v>51</v>
       </c>
       <c r="H124" s="177">
         <v>12.9</v>
       </c>
-      <c r="I124" s="254"/>
+      <c r="I124" s="268"/>
       <c r="AA124" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB124" s="254"/>
+      <c r="AB124" s="268"/>
     </row>
     <row r="125" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="254"/>
+      <c r="A125" s="268"/>
       <c r="B125" s="177">
         <v>53</v>
       </c>
-      <c r="I125" s="254"/>
-      <c r="AB125" s="254"/>
+      <c r="I125" s="268"/>
+      <c r="AB125" s="268"/>
     </row>
     <row r="126" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="254"/>
+      <c r="A126" s="268"/>
       <c r="B126" s="177">
         <v>56</v>
       </c>
       <c r="H126" s="177">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I126" s="254"/>
+      <c r="I126" s="268"/>
       <c r="AA126" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB126" s="254"/>
+      <c r="AB126" s="268"/>
     </row>
     <row r="127" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="254"/>
+      <c r="A127" s="268"/>
       <c r="B127" s="177">
         <v>59</v>
       </c>
       <c r="H127" s="177">
         <v>6.5</v>
       </c>
-      <c r="I127" s="254"/>
+      <c r="I127" s="268"/>
       <c r="AA127" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB127" s="254"/>
+      <c r="AB127" s="268"/>
     </row>
     <row r="128" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="254"/>
+      <c r="A128" s="268"/>
       <c r="B128" s="177">
         <v>66</v>
       </c>
-      <c r="I128" s="254"/>
-      <c r="AB128" s="254"/>
+      <c r="I128" s="268"/>
+      <c r="AB128" s="268"/>
     </row>
     <row r="129" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="254"/>
+      <c r="A129" s="268"/>
       <c r="B129" s="177">
         <v>68</v>
       </c>
       <c r="H129" s="177">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I129" s="254"/>
+      <c r="I129" s="268"/>
       <c r="AA129" s="177">
         <v>2.9</v>
       </c>
-      <c r="AB129" s="254"/>
+      <c r="AB129" s="268"/>
     </row>
     <row r="130" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="254"/>
+      <c r="A130" s="268"/>
       <c r="B130" s="177">
         <v>69</v>
       </c>
-      <c r="I130" s="254"/>
-      <c r="AB130" s="254"/>
+      <c r="I130" s="268"/>
+      <c r="AB130" s="268"/>
     </row>
     <row r="131" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="254"/>
+      <c r="A131" s="268"/>
       <c r="B131" s="177">
         <v>70</v>
       </c>
-      <c r="I131" s="254"/>
-      <c r="AB131" s="254"/>
+      <c r="I131" s="268"/>
+      <c r="AB131" s="268"/>
     </row>
     <row r="132" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="254"/>
+      <c r="A132" s="268"/>
       <c r="B132" s="177">
         <v>73</v>
       </c>
-      <c r="I132" s="254"/>
-      <c r="AB132" s="254"/>
+      <c r="I132" s="268"/>
+      <c r="AB132" s="268"/>
     </row>
     <row r="133" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="254"/>
+      <c r="A133" s="268"/>
       <c r="B133" s="177">
         <v>82</v>
       </c>
-      <c r="I133" s="254"/>
-      <c r="AB133" s="254"/>
+      <c r="I133" s="268"/>
+      <c r="AB133" s="268"/>
     </row>
     <row r="134" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="254"/>
+      <c r="A134" s="268"/>
       <c r="B134" s="177" t="s">
-        <v>309</v>
-      </c>
-      <c r="I134" s="254"/>
-      <c r="AB134" s="254"/>
+        <v>307</v>
+      </c>
+      <c r="I134" s="268"/>
+      <c r="AB134" s="268"/>
     </row>
     <row r="135" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="230" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B135" s="229"/>
       <c r="C135" s="229"/>
@@ -30732,8 +30732,8 @@
       <c r="AL135" s="228"/>
     </row>
     <row r="136" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="253" t="s">
-        <v>306</v>
+      <c r="A136" s="284" t="s">
+        <v>304</v>
       </c>
       <c r="B136" s="177">
         <v>16</v>
@@ -30754,7 +30754,7 @@
       </c>
     </row>
     <row r="137" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="254"/>
+      <c r="A137" s="268"/>
       <c r="B137" s="177">
         <v>18</v>
       </c>
@@ -30774,262 +30774,336 @@
       </c>
     </row>
     <row r="138" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="254"/>
+      <c r="A138" s="268"/>
       <c r="B138" s="177">
         <v>31</v>
       </c>
       <c r="H138" s="177">
         <v>10.6</v>
       </c>
-      <c r="I138" s="256">
+      <c r="I138" s="270">
         <f>(SUM(H138:H142)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.23775675675675673</v>
       </c>
       <c r="AA138" s="177">
         <v>11.7</v>
       </c>
-      <c r="AB138" s="255">
+      <c r="AB138" s="269">
         <f>SUM(AA138:AA142)/100</f>
         <v>0.43599999999999994</v>
       </c>
     </row>
     <row r="139" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="254"/>
+      <c r="A139" s="268"/>
       <c r="B139" s="177">
         <v>33</v>
       </c>
       <c r="H139" s="177">
         <v>13.8</v>
       </c>
-      <c r="I139" s="254"/>
+      <c r="I139" s="268"/>
       <c r="AA139" s="177">
         <v>9.1</v>
       </c>
-      <c r="AB139" s="254"/>
+      <c r="AB139" s="268"/>
     </row>
     <row r="140" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="254"/>
+      <c r="A140" s="268"/>
       <c r="B140" s="177">
         <v>45</v>
       </c>
       <c r="H140" s="177">
         <v>6.3</v>
       </c>
-      <c r="I140" s="254"/>
+      <c r="I140" s="268"/>
       <c r="AA140" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB140" s="254"/>
+      <c r="AB140" s="268"/>
     </row>
     <row r="141" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="254"/>
+      <c r="A141" s="268"/>
       <c r="B141" s="177">
         <v>52</v>
       </c>
       <c r="H141" s="177">
         <v>11.3</v>
       </c>
-      <c r="I141" s="254"/>
+      <c r="I141" s="268"/>
       <c r="AA141" s="177">
         <v>10.199999999999999</v>
       </c>
-      <c r="AB141" s="254"/>
+      <c r="AB141" s="268"/>
     </row>
     <row r="142" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="254"/>
+      <c r="A142" s="268"/>
       <c r="B142" s="177">
         <v>58</v>
       </c>
       <c r="H142" s="177">
         <v>18.8</v>
       </c>
-      <c r="I142" s="254"/>
+      <c r="I142" s="268"/>
       <c r="AA142" s="177">
         <v>9</v>
       </c>
-      <c r="AB142" s="254"/>
+      <c r="AB142" s="268"/>
     </row>
     <row r="143" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="253" t="s">
-        <v>304</v>
+      <c r="A143" s="284" t="s">
+        <v>302</v>
       </c>
       <c r="B143" s="177">
         <v>26</v>
       </c>
-      <c r="I143" s="256">
+      <c r="I143" s="270">
         <f>(SUM(H143:H156)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.22524324324324321</v>
       </c>
-      <c r="AB143" s="255">
+      <c r="AB143" s="269">
         <f>1-SUM(AB136:AB142)</f>
         <v>-9.2000000000000082E-2</v>
       </c>
     </row>
     <row r="144" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="254"/>
+      <c r="A144" s="268"/>
       <c r="B144" s="177">
         <v>35</v>
       </c>
       <c r="H144" s="177">
         <v>23.2</v>
       </c>
-      <c r="I144" s="254"/>
+      <c r="I144" s="268"/>
       <c r="AA144" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB144" s="254"/>
+      <c r="AB144" s="268"/>
     </row>
     <row r="145" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="254"/>
+      <c r="A145" s="268"/>
       <c r="B145" s="177">
         <v>39</v>
       </c>
       <c r="H145" s="177">
         <v>5.6</v>
       </c>
-      <c r="I145" s="254"/>
+      <c r="I145" s="268"/>
       <c r="AA145" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB145" s="254"/>
+      <c r="AB145" s="268"/>
     </row>
     <row r="146" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="254"/>
+      <c r="A146" s="268"/>
       <c r="B146" s="177">
         <v>51</v>
       </c>
       <c r="H146" s="177">
         <v>6.9</v>
       </c>
-      <c r="I146" s="254"/>
+      <c r="I146" s="268"/>
       <c r="AA146" s="177">
         <v>5.5</v>
       </c>
-      <c r="AB146" s="254"/>
+      <c r="AB146" s="268"/>
     </row>
     <row r="147" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="254"/>
+      <c r="A147" s="268"/>
       <c r="B147" s="177">
         <v>53</v>
       </c>
-      <c r="I147" s="254"/>
-      <c r="AB147" s="254"/>
+      <c r="I147" s="268"/>
+      <c r="AB147" s="268"/>
     </row>
     <row r="148" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="254"/>
+      <c r="A148" s="268"/>
       <c r="B148" s="177">
         <v>56</v>
       </c>
       <c r="H148" s="177">
         <v>10.6</v>
       </c>
-      <c r="I148" s="254"/>
+      <c r="I148" s="268"/>
       <c r="AA148" s="177">
         <v>2.5</v>
       </c>
-      <c r="AB148" s="254"/>
+      <c r="AB148" s="268"/>
     </row>
     <row r="149" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="254"/>
+      <c r="A149" s="268"/>
       <c r="B149" s="177">
         <v>59</v>
       </c>
       <c r="H149" s="177">
         <v>3.8</v>
       </c>
-      <c r="I149" s="254"/>
+      <c r="I149" s="268"/>
       <c r="AA149" s="177">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB149" s="254"/>
+      <c r="AB149" s="268"/>
     </row>
     <row r="150" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="254"/>
+      <c r="A150" s="268"/>
       <c r="B150" s="177">
         <v>66</v>
       </c>
-      <c r="I150" s="254"/>
-      <c r="AB150" s="254"/>
+      <c r="I150" s="268"/>
+      <c r="AB150" s="268"/>
     </row>
     <row r="151" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="254"/>
+      <c r="A151" s="268"/>
       <c r="B151" s="177">
         <v>68</v>
       </c>
       <c r="H151" s="177">
         <v>7.5</v>
       </c>
-      <c r="I151" s="254"/>
+      <c r="I151" s="268"/>
       <c r="AA151" s="177">
         <v>2</v>
       </c>
-      <c r="AB151" s="254"/>
+      <c r="AB151" s="268"/>
     </row>
     <row r="152" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="254"/>
+      <c r="A152" s="268"/>
       <c r="B152" s="177">
         <v>69</v>
       </c>
-      <c r="I152" s="254"/>
-      <c r="AB152" s="254"/>
+      <c r="I152" s="268"/>
+      <c r="AB152" s="268"/>
     </row>
     <row r="153" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="254"/>
+      <c r="A153" s="268"/>
       <c r="B153" s="177">
         <v>70</v>
       </c>
-      <c r="I153" s="254"/>
-      <c r="AB153" s="254"/>
+      <c r="I153" s="268"/>
+      <c r="AB153" s="268"/>
     </row>
     <row r="154" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="254"/>
+      <c r="A154" s="268"/>
       <c r="B154" s="177">
         <v>73</v>
       </c>
-      <c r="I154" s="254"/>
-      <c r="AB154" s="254"/>
+      <c r="I154" s="268"/>
+      <c r="AB154" s="268"/>
     </row>
     <row r="155" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="254"/>
+      <c r="A155" s="268"/>
       <c r="B155" s="177">
         <v>82</v>
       </c>
-      <c r="I155" s="254"/>
-      <c r="AB155" s="254"/>
+      <c r="I155" s="268"/>
+      <c r="AB155" s="268"/>
     </row>
     <row r="156" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="254"/>
+      <c r="A156" s="268"/>
       <c r="B156" s="177" t="s">
-        <v>309</v>
-      </c>
-      <c r="I156" s="254"/>
-      <c r="AB156" s="254"/>
+        <v>307</v>
+      </c>
+      <c r="I156" s="268"/>
+      <c r="AB156" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="O76:O90"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AJ71:AJ75"/>
-    <mergeCell ref="AL71:AL75"/>
-    <mergeCell ref="AJ76:AJ90"/>
-    <mergeCell ref="AL76:AL90"/>
-    <mergeCell ref="X16:X26"/>
-    <mergeCell ref="X11:X15"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="AH35:AH46"/>
-    <mergeCell ref="AF71:AF75"/>
-    <mergeCell ref="Z76:Z90"/>
-    <mergeCell ref="AD76:AD90"/>
-    <mergeCell ref="AF76:AF90"/>
-    <mergeCell ref="Z16:Z26"/>
-    <mergeCell ref="AB16:AB26"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="Z11:Z15"/>
-    <mergeCell ref="AB11:AB15"/>
+    <mergeCell ref="AP55:AP67"/>
+    <mergeCell ref="AQ55:AQ67"/>
+    <mergeCell ref="AO11:AO15"/>
+    <mergeCell ref="AO16:AO26"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AP48:AP54"/>
+    <mergeCell ref="AQ48:AQ54"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="I116:I120"/>
+    <mergeCell ref="AB116:AB120"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="AB94:AB98"/>
+    <mergeCell ref="Z71:Z75"/>
+    <mergeCell ref="AB71:AB75"/>
+    <mergeCell ref="AD71:AD75"/>
+    <mergeCell ref="M71:M75"/>
+    <mergeCell ref="A99:A112"/>
+    <mergeCell ref="I99:I112"/>
+    <mergeCell ref="AB99:AB112"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="E76:E88"/>
+    <mergeCell ref="G76:G89"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="I143:I156"/>
+    <mergeCell ref="AB143:AB156"/>
+    <mergeCell ref="A121:A134"/>
+    <mergeCell ref="I121:I134"/>
+    <mergeCell ref="AB121:AB134"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="I138:I142"/>
+    <mergeCell ref="AB138:AB142"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="I55:I67"/>
+    <mergeCell ref="X55:X67"/>
+    <mergeCell ref="Z55:Z66"/>
+    <mergeCell ref="AB55:AB66"/>
+    <mergeCell ref="I76:I90"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="G71:G75"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="K71:K75"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="X30:X34"/>
+    <mergeCell ref="Z30:Z34"/>
+    <mergeCell ref="AB30:AB34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="E35:E46"/>
+    <mergeCell ref="I35:I46"/>
+    <mergeCell ref="X35:X45"/>
+    <mergeCell ref="Z35:Z46"/>
+    <mergeCell ref="AB35:AB46"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="E16:E26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="K76:K89"/>
     <mergeCell ref="M76:M89"/>
     <mergeCell ref="AB76:AB90"/>
@@ -31054,103 +31128,29 @@
     <mergeCell ref="Z50:Z54"/>
     <mergeCell ref="AB50:AB54"/>
     <mergeCell ref="O71:O75"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="E16:E26"/>
-    <mergeCell ref="I16:I26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="X30:X34"/>
-    <mergeCell ref="Z30:Z34"/>
-    <mergeCell ref="AB30:AB34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="E35:E46"/>
-    <mergeCell ref="I35:I46"/>
-    <mergeCell ref="X35:X45"/>
-    <mergeCell ref="Z35:Z46"/>
-    <mergeCell ref="AB35:AB46"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="I143:I156"/>
-    <mergeCell ref="AB143:AB156"/>
-    <mergeCell ref="A121:A134"/>
-    <mergeCell ref="I121:I134"/>
-    <mergeCell ref="AB121:AB134"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="AB138:AB142"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="I55:I67"/>
-    <mergeCell ref="X55:X67"/>
-    <mergeCell ref="Z55:Z66"/>
-    <mergeCell ref="AB55:AB66"/>
-    <mergeCell ref="I76:I90"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="G71:G75"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="K71:K75"/>
-    <mergeCell ref="AP55:AP67"/>
-    <mergeCell ref="AQ55:AQ67"/>
-    <mergeCell ref="AO11:AO15"/>
-    <mergeCell ref="AO16:AO26"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AP48:AP54"/>
-    <mergeCell ref="AQ48:AQ54"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="I116:I120"/>
-    <mergeCell ref="AB116:AB120"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="AB94:AB98"/>
-    <mergeCell ref="Z71:Z75"/>
-    <mergeCell ref="AB71:AB75"/>
-    <mergeCell ref="AD71:AD75"/>
-    <mergeCell ref="M71:M75"/>
-    <mergeCell ref="A99:A112"/>
-    <mergeCell ref="I99:I112"/>
-    <mergeCell ref="AB99:AB112"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="E76:E88"/>
-    <mergeCell ref="G76:G89"/>
+    <mergeCell ref="O76:O90"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AJ71:AJ75"/>
+    <mergeCell ref="AL71:AL75"/>
+    <mergeCell ref="AJ76:AJ90"/>
+    <mergeCell ref="AL76:AL90"/>
+    <mergeCell ref="X16:X26"/>
+    <mergeCell ref="X11:X15"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AH35:AH46"/>
+    <mergeCell ref="AF71:AF75"/>
+    <mergeCell ref="Z76:Z90"/>
+    <mergeCell ref="AD76:AD90"/>
+    <mergeCell ref="AF76:AF90"/>
+    <mergeCell ref="Z16:Z26"/>
+    <mergeCell ref="AB16:AB26"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="Z11:Z15"/>
+    <mergeCell ref="AB11:AB15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31164,7 +31164,7 @@
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31176,128 +31176,128 @@
   <sheetData>
     <row r="1" spans="1:38" s="227" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="227" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="210" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="209" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="209" t="s">
+      <c r="E2" s="206" t="s">
         <v>249</v>
-      </c>
-      <c r="D2" s="208" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="206" t="s">
-        <v>251</v>
       </c>
       <c r="F2" s="205"/>
       <c r="G2" s="205"/>
       <c r="H2" s="204" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="295" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="295"/>
+      <c r="K2" s="294" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="282" t="s">
+      <c r="L2" s="294"/>
+      <c r="M2" s="203" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="282"/>
-      <c r="K2" s="281" t="s">
-        <v>254</v>
-      </c>
-      <c r="L2" s="281"/>
-      <c r="M2" s="203" t="s">
-        <v>255</v>
-      </c>
-      <c r="N2" s="280" t="s">
-        <v>347</v>
-      </c>
-      <c r="O2" s="280"/>
+      <c r="N2" s="293" t="s">
+        <v>345</v>
+      </c>
+      <c r="O2" s="293"/>
       <c r="P2" s="226" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q2" s="252" t="s">
-        <v>345</v>
-      </c>
-      <c r="R2" s="252"/>
+        <v>344</v>
+      </c>
+      <c r="Q2" s="291" t="s">
+        <v>343</v>
+      </c>
+      <c r="R2" s="291"/>
       <c r="S2" s="225" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="177" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="176" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="177" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="D3" s="177" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="E3" s="177" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="177" t="s">
+      <c r="H3" s="177" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="I3" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="K3" s="177" t="s">
         <v>261</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="M3" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="K3" s="177" t="s">
-        <v>263</v>
-      </c>
-      <c r="M3" s="177" t="s">
-        <v>264</v>
-      </c>
       <c r="N3" s="221" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O3" s="220"/>
       <c r="P3" s="176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q3" s="176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="222" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B4" s="224" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" s="202" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="222" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E4" s="222" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H4" s="222" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I4" s="222" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K4" s="222" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M4" s="222" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N4" s="223" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P4" s="176" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="176" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AA4" s="177"/>
       <c r="AE4" s="177"/>
@@ -31307,63 +31307,63 @@
     </row>
     <row r="5" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="177" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="177" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="E5" s="177" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="177" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="202" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="177" t="s">
+      <c r="I5" s="177" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="177" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="177" t="s">
+      <c r="J5" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="I5" s="177" t="s">
+      <c r="K5" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="177" t="s">
         <v>269</v>
       </c>
-      <c r="J5" s="177" t="s">
+      <c r="M5" s="177" t="s">
         <v>270</v>
       </c>
-      <c r="K5" s="177" t="s">
-        <v>269</v>
-      </c>
-      <c r="L5" s="177" t="s">
-        <v>271</v>
-      </c>
-      <c r="M5" s="177" t="s">
-        <v>272</v>
-      </c>
       <c r="N5" s="221" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O5" s="221" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P5" s="176" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="176" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="177" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="202" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="177" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="202" t="s">
+      <c r="D6" s="177" t="s">
         <v>274</v>
-      </c>
-      <c r="C6" s="177" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="177" t="s">
-        <v>276</v>
       </c>
       <c r="E6" s="177" t="s">
         <v>57</v>
@@ -31372,134 +31372,134 @@
         <v>31</v>
       </c>
       <c r="G6" s="222" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H6" s="177" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="177" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6" s="177" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="177" t="s">
-        <v>278</v>
-      </c>
-      <c r="K6" s="177" t="s">
-        <v>279</v>
-      </c>
       <c r="M6" s="177" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N6" s="221" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O6" s="220"/>
       <c r="P6" s="176" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="176" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R6" s="176" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A7" s="177" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="177" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="177" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="D7" s="177" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="E7" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>283</v>
-      </c>
-      <c r="E7" s="279" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
       <c r="H7" s="177" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I7" s="177" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="177" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="K7" s="177" t="s">
-        <v>289</v>
-      </c>
-      <c r="M7" s="177" t="s">
-        <v>290</v>
-      </c>
       <c r="N7" s="221" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O7" s="220"/>
       <c r="P7" s="176" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="215" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S7" s="186" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="B8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E8" s="201" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F8" s="201" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G8" s="201" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R8" s="201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="180" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B9" s="179"/>
       <c r="C9" s="179"/>
@@ -31522,7 +31522,7 @@
     </row>
     <row r="10" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" s="197">
         <v>9.8522167487684748E-2</v>
@@ -31545,7 +31545,7 @@
     </row>
     <row r="11" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="197">
         <v>5.9113300492610842E-2</v>
@@ -31568,7 +31568,7 @@
     </row>
     <row r="12" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="176" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12" s="197">
         <v>0.30541871921182273</v>
@@ -31593,12 +31593,12 @@
         <v>0.46822135734532</v>
       </c>
       <c r="T12" s="215" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="188" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B13" s="197">
         <v>0.53694581280788167</v>
@@ -31623,12 +31623,12 @@
         <v>0.53177864265468</v>
       </c>
       <c r="T13" s="215" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="180" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" s="198"/>
       <c r="C14" s="179"/>
@@ -31651,7 +31651,7 @@
     </row>
     <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B15" s="197">
         <v>9.5869056897895572E-2</v>
@@ -31674,7 +31674,7 @@
     </row>
     <row r="16" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B16" s="197">
         <v>6.8589243959470012E-2</v>
@@ -31697,7 +31697,7 @@
     </row>
     <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="176" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B17" s="197">
         <v>0.30085736554949344</v>
@@ -31722,12 +31722,12 @@
         <v>0.51915783320342934</v>
       </c>
       <c r="T17" s="215" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="188" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B18" s="197">
         <v>0.53468433359314127</v>
@@ -31752,12 +31752,12 @@
         <v>0.48084216679657066</v>
       </c>
       <c r="T18" s="215" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="180" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" s="198"/>
       <c r="C19" s="179"/>
@@ -31780,7 +31780,7 @@
     </row>
     <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B20" s="197">
         <v>0.15971316818774448</v>
@@ -31800,7 +31800,7 @@
     </row>
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B21" s="197">
         <v>5.9973924380704043E-2</v>
@@ -31820,7 +31820,7 @@
     </row>
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="176" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B22" s="197">
         <v>0.36571056062581492</v>
@@ -31842,12 +31842,12 @@
         <v>0.73709892344552175</v>
       </c>
       <c r="T22" s="215" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="188" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B23" s="197">
         <v>0.41460234680573665</v>
@@ -31875,12 +31875,12 @@
         <v>0.26290107655447825</v>
       </c>
       <c r="T23" s="215" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="180" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B24" s="190"/>
       <c r="C24" s="179"/>
@@ -31903,7 +31903,7 @@
     </row>
     <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B25" s="189">
         <v>0.50954773869346748</v>
@@ -31944,7 +31944,7 @@
     </row>
     <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B26" s="189">
         <v>0.13567839195979903</v>
@@ -31985,7 +31985,7 @@
     </row>
     <row r="27" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="176" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B27" s="189">
         <v>0.19296482412060306</v>
@@ -32028,12 +32028,12 @@
         <v>0.85780595009985727</v>
       </c>
       <c r="T27" s="215" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="188" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B28" s="189">
         <v>0.16180904522613065</v>
@@ -32076,12 +32076,12 @@
         <v>0.14219404990014273</v>
       </c>
       <c r="T28" s="215" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="213" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B29" s="214"/>
       <c r="C29" s="213"/>
@@ -32096,7 +32096,7 @@
     </row>
     <row r="30" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="180" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" s="180"/>
       <c r="C30" s="180"/>
@@ -32115,7 +32115,7 @@
     </row>
     <row r="31" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D31" s="178">
         <v>0.183</v>
@@ -32126,7 +32126,7 @@
     </row>
     <row r="32" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D32" s="178">
         <v>0.107</v>
@@ -32137,7 +32137,7 @@
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="176" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D33" s="177">
         <v>0.3216134598792062</v>
@@ -32148,7 +32148,7 @@
     </row>
     <row r="34" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="188" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D34" s="177">
         <v>0.38838654012079366</v>
@@ -32159,7 +32159,7 @@
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="180" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B35" s="179"/>
       <c r="C35" s="179"/>
@@ -32178,7 +32178,7 @@
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D36" s="178">
         <v>0.23</v>
@@ -32189,7 +32189,7 @@
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D37" s="178">
         <v>0.14699999999999999</v>
@@ -32200,7 +32200,7 @@
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="176" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D38" s="177">
         <v>0.32012755102040802</v>
@@ -32211,7 +32211,7 @@
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="188" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D39" s="177">
         <v>0.3028724489795917</v>
@@ -32222,7 +32222,7 @@
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="180" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B40" s="179"/>
       <c r="C40" s="179"/>
@@ -32241,7 +32241,7 @@
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="188" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D41" s="178">
         <v>0.40600000000000003</v>
@@ -32252,7 +32252,7 @@
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D42" s="178">
         <v>0.13100000000000001</v>
@@ -32263,7 +32263,7 @@
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="176" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D43" s="177">
         <v>0.23775675675675673</v>
@@ -32274,7 +32274,7 @@
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="188" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D44" s="177">
         <v>0.22524324324324321</v>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76925E1-CFF1-4FAC-8FF4-B97CB43DC570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="796" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -20,23 +21,17 @@
     <sheet name="Type distribution edited" sheetId="12" r:id="rId6"/>
     <sheet name="Plots and final type dist" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="360">
   <si>
     <t>Age</t>
   </si>
@@ -1356,11 +1351,17 @@
   <si>
     <t>Sankaranarayanan et al. Cancer survival in Africa, Asia, and Central America: a population-based study. Lancet Oncol 2010;11;2:165-73.</t>
   </si>
+  <si>
+    <t>combined relative risks by 5-year age group (ref = 10-25 yo)</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2516,102 +2517,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2643,10 +2548,106 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="72">
     <dxf>
@@ -9001,7 +9002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U44"/>
   <sheetViews>
@@ -9054,18 +9055,18 @@
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="254" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="F2" s="241" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="F2" s="254" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
       <c r="J2" s="51"/>
       <c r="K2" s="104"/>
       <c r="L2" s="104"/>
@@ -9395,12 +9396,12 @@
       <c r="U15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -9607,12 +9608,12 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="242" t="s">
+      <c r="B28" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="257"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -9877,11 +9878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -9941,7 +9942,7 @@
       <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="249" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="44"/>
@@ -9997,37 +9998,37 @@
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="1:34" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="254" t="s">
         <v>355</v>
       </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="F4" s="246" t="s">
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="F4" s="259" t="s">
         <v>356</v>
       </c>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="N4" s="292"/>
-      <c r="O4" s="293"/>
+      <c r="G4" s="259"/>
+      <c r="H4" s="259"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="N4" s="250"/>
+      <c r="O4" s="251"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
+      <c r="S4" s="241"/>
+      <c r="T4" s="241"/>
+      <c r="U4" s="241"/>
       <c r="V4" s="1"/>
       <c r="W4" s="7"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
+      <c r="AA4" s="241"/>
+      <c r="AB4" s="241"/>
+      <c r="AC4" s="241"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -10054,27 +10055,27 @@
       <c r="H5" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="290"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
-      <c r="N5" s="294"/>
-      <c r="O5" s="294"/>
-      <c r="P5" s="294"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="283"/>
-      <c r="T5" s="283"/>
-      <c r="U5" s="283"/>
+      <c r="S5" s="241"/>
+      <c r="T5" s="241"/>
+      <c r="U5" s="241"/>
       <c r="V5" s="1"/>
       <c r="W5" s="7"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="283"/>
-      <c r="AB5" s="283"/>
-      <c r="AC5" s="283"/>
+      <c r="AA5" s="241"/>
+      <c r="AB5" s="241"/>
+      <c r="AC5" s="241"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -10107,27 +10108,27 @@
       <c r="H6" s="55">
         <v>1</v>
       </c>
-      <c r="I6" s="290"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="294"/>
-      <c r="N6" s="294"/>
-      <c r="O6" s="294"/>
-      <c r="P6" s="294"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="283"/>
-      <c r="T6" s="283"/>
-      <c r="U6" s="283"/>
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
       <c r="V6" s="1"/>
       <c r="W6" s="7"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="283"/>
-      <c r="AB6" s="283"/>
-      <c r="AC6" s="283"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="241"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -10160,27 +10161,27 @@
       <c r="H7" s="55">
         <v>1</v>
       </c>
-      <c r="I7" s="290"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="294"/>
-      <c r="L7" s="294"/>
-      <c r="M7" s="294"/>
-      <c r="N7" s="294"/>
-      <c r="O7" s="294"/>
-      <c r="P7" s="294"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="252"/>
+      <c r="N7" s="252"/>
+      <c r="O7" s="252"/>
+      <c r="P7" s="252"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="283"/>
-      <c r="T7" s="283"/>
-      <c r="U7" s="283"/>
+      <c r="S7" s="241"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="241"/>
       <c r="V7" s="1"/>
       <c r="W7" s="7"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="283"/>
-      <c r="AB7" s="283"/>
-      <c r="AC7" s="283"/>
+      <c r="AA7" s="241"/>
+      <c r="AB7" s="241"/>
+      <c r="AC7" s="241"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -10213,27 +10214,27 @@
       <c r="H8" s="55">
         <v>1</v>
       </c>
-      <c r="I8" s="290"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
-      <c r="N8" s="294"/>
-      <c r="O8" s="294"/>
-      <c r="P8" s="294"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="252"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="252"/>
+      <c r="P8" s="252"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="283"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="283"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
       <c r="V8" s="1"/>
       <c r="W8" s="7"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="283"/>
-      <c r="AB8" s="283"/>
-      <c r="AC8" s="283"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="241"/>
+      <c r="AC8" s="241"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -10266,27 +10267,27 @@
       <c r="H9" s="55">
         <v>1</v>
       </c>
-      <c r="I9" s="290"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
-      <c r="M9" s="294"/>
-      <c r="N9" s="294"/>
-      <c r="O9" s="294"/>
-      <c r="P9" s="294"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="252"/>
+      <c r="O9" s="252"/>
+      <c r="P9" s="252"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="283"/>
-      <c r="T9" s="283"/>
-      <c r="U9" s="283"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
       <c r="V9" s="1"/>
       <c r="W9" s="7"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="283"/>
-      <c r="AB9" s="283"/>
-      <c r="AC9" s="283"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="241"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
@@ -10297,15 +10298,15 @@
       <c r="A10" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="289">
+      <c r="B10" s="247">
         <f t="shared" si="1"/>
         <v>0.20707783810724914</v>
       </c>
-      <c r="C10" s="289">
+      <c r="C10" s="247">
         <f t="shared" si="0"/>
         <v>0.24174996650700001</v>
       </c>
-      <c r="D10" s="289">
+      <c r="D10" s="247">
         <f t="shared" si="0"/>
         <v>0.5207380372</v>
       </c>
@@ -10319,44 +10320,44 @@
       <c r="H10" s="55">
         <v>1</v>
       </c>
-      <c r="I10" s="290"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="294"/>
-      <c r="M10" s="294"/>
-      <c r="N10" s="294"/>
-      <c r="O10" s="294"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="287"/>
-      <c r="R10" s="287"/>
-      <c r="S10" s="284"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="285"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="252"/>
+      <c r="N10" s="252"/>
+      <c r="O10" s="252"/>
+      <c r="P10" s="252"/>
+      <c r="Q10" s="245"/>
+      <c r="R10" s="245"/>
+      <c r="S10" s="242"/>
+      <c r="T10" s="243"/>
+      <c r="U10" s="243"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="284"/>
-      <c r="AB10" s="286"/>
-      <c r="AC10" s="286"/>
-      <c r="AD10" s="284"/>
-      <c r="AE10" s="286"/>
-      <c r="AF10" s="286"/>
+      <c r="AA10" s="242"/>
+      <c r="AB10" s="244"/>
+      <c r="AC10" s="244"/>
+      <c r="AD10" s="242"/>
+      <c r="AE10" s="244"/>
+      <c r="AF10" s="244"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="288" t="s">
+      <c r="A11" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="295">
+      <c r="B11" s="253">
         <v>6.2394953000000003E-2</v>
       </c>
-      <c r="C11" s="295">
+      <c r="C11" s="253">
         <v>0.15015525869999999</v>
       </c>
-      <c r="D11" s="295">
+      <c r="D11" s="253">
         <v>0.5207380372</v>
       </c>
       <c r="E11" s="38"/>
@@ -10369,26 +10370,26 @@
       <c r="H11" s="55">
         <v>1</v>
       </c>
-      <c r="J11" s="294"/>
-      <c r="K11" s="294"/>
-      <c r="L11" s="294"/>
-      <c r="M11" s="294"/>
-      <c r="N11" s="294"/>
-      <c r="O11" s="294"/>
-      <c r="P11" s="294"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="252"/>
+      <c r="O11" s="252"/>
+      <c r="P11" s="252"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="283"/>
-      <c r="T11" s="283"/>
+      <c r="S11" s="241"/>
+      <c r="T11" s="241"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="7"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="283"/>
-      <c r="AB11" s="283"/>
-      <c r="AC11" s="283"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="241"/>
+      <c r="AC11" s="241"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -10396,12 +10397,12 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N12" s="292"/>
+      <c r="N12" s="250"/>
       <c r="O12" s="51"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="283"/>
+      <c r="S12" s="241"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -10409,9 +10410,9 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="283"/>
-      <c r="AB12" s="283"/>
-      <c r="AC12" s="283"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="241"/>
+      <c r="AC12" s="241"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -10419,12 +10420,12 @@
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N13" s="292"/>
+      <c r="N13" s="250"/>
       <c r="O13" s="51"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="283"/>
+      <c r="S13" s="241"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -10432,9 +10433,9 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="283"/>
-      <c r="AB13" s="283"/>
-      <c r="AC13" s="283"/>
+      <c r="AA13" s="241"/>
+      <c r="AB13" s="241"/>
+      <c r="AC13" s="241"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -10446,12 +10447,12 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="N14" s="292"/>
+      <c r="N14" s="250"/>
       <c r="O14" s="104"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="283"/>
+      <c r="S14" s="241"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="1"/>
@@ -10459,9 +10460,9 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="283"/>
-      <c r="AB14" s="283"/>
-      <c r="AC14" s="283"/>
+      <c r="AA14" s="241"/>
+      <c r="AB14" s="241"/>
+      <c r="AC14" s="241"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -10473,12 +10474,12 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="N15" s="292"/>
+      <c r="N15" s="250"/>
       <c r="O15" s="104"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="283"/>
+      <c r="S15" s="241"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="1"/>
@@ -10486,9 +10487,9 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="283"/>
-      <c r="AB15" s="283"/>
-      <c r="AC15" s="283"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="241"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -10500,7 +10501,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="N16" s="292"/>
+      <c r="N16" s="250"/>
       <c r="O16" s="104"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -10513,9 +10514,9 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="283"/>
-      <c r="AB16" s="283"/>
-      <c r="AC16" s="283"/>
+      <c r="AA16" s="241"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="241"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
@@ -10912,11 +10913,11 @@
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
-      <c r="B38" s="241" t="s">
+      <c r="B38" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="241"/>
-      <c r="D38" s="241"/>
+      <c r="C38" s="254"/>
+      <c r="D38" s="254"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38" t="s">
@@ -11047,10 +11048,10 @@
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
-      <c r="G44" s="245" t="s">
+      <c r="G44" s="258" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="245"/>
+      <c r="H44" s="258"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
     </row>
@@ -11189,7 +11190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AA345"/>
   <sheetViews>
@@ -15816,7 +15817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW113"/>
   <sheetViews>
@@ -22780,10 +22781,10 @@
       <c r="AG71" s="10"/>
     </row>
     <row r="72" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="247" t="s">
+      <c r="A72" s="260" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="247"/>
+      <c r="B72" s="260"/>
       <c r="C72" s="80"/>
       <c r="D72" s="80"/>
       <c r="I72" s="80"/>
@@ -22960,10 +22961,10 @@
       <c r="AE83" s="10"/>
     </row>
     <row r="84" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="248" t="s">
+      <c r="A84" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="248"/>
+      <c r="B84" s="261"/>
       <c r="C84" s="80"/>
       <c r="D84" s="80"/>
       <c r="E84" s="80"/>
@@ -23387,11 +23388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:BM55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25332,6 +25333,383 @@
       </c>
       <c r="J40" s="174">
         <f t="shared" si="11"/>
+        <v>0.14007817515653775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="63" x14ac:dyDescent="0.25">
+      <c r="B44" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="142" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="142" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="140" t="s">
+        <v>209</v>
+      </c>
+      <c r="G44" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="142" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="145" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="174">
+        <v>1</v>
+      </c>
+      <c r="D45" s="174">
+        <v>1</v>
+      </c>
+      <c r="E45" s="174">
+        <v>1</v>
+      </c>
+      <c r="F45" s="174">
+        <v>1</v>
+      </c>
+      <c r="G45" s="174">
+        <v>1</v>
+      </c>
+      <c r="H45" s="174">
+        <v>1</v>
+      </c>
+      <c r="I45" s="174">
+        <v>1</v>
+      </c>
+      <c r="J45" s="174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="174">
+        <v>0.87224999999999997</v>
+      </c>
+      <c r="D46" s="174">
+        <v>1.04325</v>
+      </c>
+      <c r="E46" s="174">
+        <v>1.1995</v>
+      </c>
+      <c r="F46" s="174">
+        <v>3.4645000000000001</v>
+      </c>
+      <c r="G46" s="174">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="H46" s="174">
+        <f t="shared" ref="H45:H46" si="13">AVERAGE(H40,R40)</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="174">
+        <f t="shared" ref="I45:I46" si="14">AVERAGE(I40,S40)</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="174">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B47" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="174">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="D47" s="174">
+        <v>1.0865</v>
+      </c>
+      <c r="E47" s="174">
+        <v>1.399</v>
+      </c>
+      <c r="F47" s="174">
+        <v>5.9290000000000003</v>
+      </c>
+      <c r="G47" s="174">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="H47" s="174">
+        <v>1</v>
+      </c>
+      <c r="I47" s="174">
+        <v>1</v>
+      </c>
+      <c r="J47" s="174">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B48" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="174">
+        <v>0.61675000000000002</v>
+      </c>
+      <c r="D48" s="174">
+        <v>1.12975</v>
+      </c>
+      <c r="E48" s="174">
+        <v>1.5985</v>
+      </c>
+      <c r="F48" s="174">
+        <v>8.3934999999999995</v>
+      </c>
+      <c r="G48" s="174">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="H48" s="174">
+        <v>1</v>
+      </c>
+      <c r="I48" s="174">
+        <v>1</v>
+      </c>
+      <c r="J48" s="174">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="174">
+        <f>C38</f>
+        <v>0.48944795817465359</v>
+      </c>
+      <c r="D49" s="174">
+        <f>D38</f>
+        <v>1.1729912913984499</v>
+      </c>
+      <c r="E49" s="174">
+        <f t="shared" ref="E49:J49" si="15">E38</f>
+        <v>1.7891858675127252</v>
+      </c>
+      <c r="F49" s="174">
+        <f t="shared" si="15"/>
+        <v>10.857720749193415</v>
+      </c>
+      <c r="G49" s="174">
+        <f t="shared" si="15"/>
+        <v>0.78591470002416575</v>
+      </c>
+      <c r="H49" s="174">
+        <v>1</v>
+      </c>
+      <c r="I49" s="174">
+        <f t="shared" si="15"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J49" s="174">
+        <f t="shared" si="15"/>
+        <v>0.77196583339849734</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="174">
+        <v>0.45374999999999999</v>
+      </c>
+      <c r="D50" s="174">
+        <v>1.2344999999999999</v>
+      </c>
+      <c r="E50" s="174">
+        <v>1.978</v>
+      </c>
+      <c r="F50" s="174">
+        <v>14.5734999999999</v>
+      </c>
+      <c r="G50" s="174">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H50" s="174">
+        <v>1</v>
+      </c>
+      <c r="I50" s="174">
+        <v>1</v>
+      </c>
+      <c r="J50" s="174">
+        <v>0.64724999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="174">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="D51" s="174">
+        <v>1.296</v>
+      </c>
+      <c r="E51" s="174">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="F51" s="174">
+        <v>18.289000000000001</v>
+      </c>
+      <c r="G51" s="174">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H51" s="174">
+        <v>1</v>
+      </c>
+      <c r="I51" s="174">
+        <v>1</v>
+      </c>
+      <c r="J51" s="174">
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="149" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="174">
+        <v>0.38324999999999998</v>
+      </c>
+      <c r="D52" s="174">
+        <v>1.3574999999999999</v>
+      </c>
+      <c r="E52" s="174">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="F52" s="174">
+        <v>22.0045</v>
+      </c>
+      <c r="G52" s="174">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H52" s="174">
+        <v>1</v>
+      </c>
+      <c r="I52" s="174">
+        <v>1</v>
+      </c>
+      <c r="J52" s="174">
+        <v>0.39774999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="174">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D53" s="174">
+        <f>D39</f>
+        <v>1.4186938532050637</v>
+      </c>
+      <c r="E53" s="174">
+        <f t="shared" ref="E53:J53" si="16">E39</f>
+        <v>2.5446232554141313</v>
+      </c>
+      <c r="F53" s="174">
+        <f t="shared" si="16"/>
+        <v>25.720135320539878</v>
+      </c>
+      <c r="G53" s="174">
+        <f t="shared" si="16"/>
+        <v>0.50569741058011941</v>
+      </c>
+      <c r="H53" s="174">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="174">
+        <f t="shared" si="16"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J53" s="174">
+        <f t="shared" si="16"/>
+        <v>0.27265866520169058</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="174">
+        <v>0.34772385265511974</v>
+      </c>
+      <c r="D54" s="174">
+        <v>1.4186938532050637</v>
+      </c>
+      <c r="E54" s="174">
+        <v>3.0437403301232431</v>
+      </c>
+      <c r="F54" s="174">
+        <v>30.638661757492507</v>
+      </c>
+      <c r="G54" s="174">
+        <v>0.45174647755582192</v>
+      </c>
+      <c r="H54" s="174">
+        <v>1</v>
+      </c>
+      <c r="I54" s="174">
+        <v>1</v>
+      </c>
+      <c r="J54" s="174">
+        <v>0.14007817515653775</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="150" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="174">
+        <f>C40</f>
+        <v>0.34772385265511974</v>
+      </c>
+      <c r="D55" s="174">
+        <f t="shared" ref="D54:J55" si="17">D40</f>
+        <v>1.4186938532050637</v>
+      </c>
+      <c r="E55" s="174">
+        <f t="shared" si="17"/>
+        <v>3.0437403301232431</v>
+      </c>
+      <c r="F55" s="174">
+        <f t="shared" si="17"/>
+        <v>30.638661757492507</v>
+      </c>
+      <c r="G55" s="174">
+        <f t="shared" si="17"/>
+        <v>0.45174647755582192</v>
+      </c>
+      <c r="H55" s="174">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="174">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="174">
+        <f t="shared" si="17"/>
         <v>0.14007817515653775</v>
       </c>
     </row>
@@ -25702,7 +26080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -25726,15 +26104,15 @@
   <sheetData>
     <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="201"/>
-      <c r="C1" s="267" t="s">
+      <c r="C1" s="275" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="268" t="s">
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="276" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="254"/>
+      <c r="G1" s="268"/>
       <c r="H1" s="208" t="s">
         <v>250</v>
       </c>
@@ -25751,103 +26129,103 @@
       <c r="Q1" s="205"/>
       <c r="R1" s="205"/>
       <c r="S1" s="205"/>
-      <c r="T1" s="269" t="s">
+      <c r="T1" s="277" t="s">
         <v>252</v>
       </c>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
-      <c r="Y1" s="270" t="s">
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
+      <c r="Y1" s="278" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="254"/>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="271" t="s">
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="279" t="s">
         <v>254</v>
       </c>
-      <c r="AD1" s="254"/>
-      <c r="AE1" s="254"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="262" t="s">
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="268"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="282" t="s">
         <v>255</v>
       </c>
-      <c r="AH1" s="254"/>
+      <c r="AH1" s="268"/>
       <c r="AI1" s="272" t="s">
         <v>347</v>
       </c>
-      <c r="AJ1" s="273"/>
-      <c r="AK1" s="273"/>
-      <c r="AL1" s="273"/>
-      <c r="AM1" s="251" t="s">
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="290" t="s">
         <v>346</v>
       </c>
-      <c r="AN1" s="251"/>
-      <c r="AO1" s="251"/>
-      <c r="AP1" s="252" t="s">
+      <c r="AN1" s="290"/>
+      <c r="AO1" s="290"/>
+      <c r="AP1" s="291" t="s">
         <v>345</v>
       </c>
-      <c r="AQ1" s="252"/>
+      <c r="AQ1" s="291"/>
     </row>
     <row r="2" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="177" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="254" t="s">
+      <c r="C2" s="268" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="263" t="s">
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="274" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="263" t="s">
+      <c r="G2" s="268"/>
+      <c r="H2" s="274" t="s">
         <v>259</v>
       </c>
-      <c r="I2" s="254"/>
-      <c r="J2" s="263" t="s">
+      <c r="I2" s="268"/>
+      <c r="J2" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="263" t="s">
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="263" t="s">
+      <c r="U2" s="268"/>
+      <c r="V2" s="268"/>
+      <c r="W2" s="268"/>
+      <c r="X2" s="268"/>
+      <c r="Y2" s="274" t="s">
         <v>262</v>
       </c>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="254"/>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="263" t="s">
+      <c r="Z2" s="268"/>
+      <c r="AA2" s="268"/>
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="274" t="s">
         <v>263</v>
       </c>
-      <c r="AD2" s="254"/>
-      <c r="AE2" s="254"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="263" t="s">
+      <c r="AD2" s="268"/>
+      <c r="AE2" s="268"/>
+      <c r="AF2" s="268"/>
+      <c r="AG2" s="274" t="s">
         <v>264</v>
       </c>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="274" t="s">
+      <c r="AH2" s="268"/>
+      <c r="AI2" s="273" t="s">
         <v>343</v>
       </c>
-      <c r="AJ2" s="273"/>
-      <c r="AK2" s="273"/>
-      <c r="AL2" s="273"/>
+      <c r="AJ2" s="265"/>
+      <c r="AK2" s="265"/>
+      <c r="AL2" s="265"/>
       <c r="AM2" s="176" t="s">
         <v>342</v>
       </c>
@@ -25860,66 +26238,66 @@
         <v>265</v>
       </c>
       <c r="B3" s="201"/>
-      <c r="C3" s="264" t="s">
+      <c r="C3" s="283" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="264" t="s">
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="283" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="254"/>
-      <c r="H3" s="255" t="s">
+      <c r="G3" s="268"/>
+      <c r="H3" s="269" t="s">
         <v>267</v>
       </c>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255" t="s">
+      <c r="I3" s="268"/>
+      <c r="J3" s="269" t="s">
         <v>266</v>
       </c>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255" t="s">
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="268"/>
+      <c r="N3" s="268"/>
+      <c r="O3" s="268"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="268"/>
+      <c r="S3" s="268"/>
+      <c r="T3" s="269" t="s">
         <v>268</v>
       </c>
-      <c r="U3" s="254"/>
-      <c r="V3" s="254"/>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="255" t="s">
+      <c r="U3" s="268"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="268"/>
+      <c r="X3" s="268"/>
+      <c r="Y3" s="269" t="s">
         <v>269</v>
       </c>
-      <c r="Z3" s="254"/>
-      <c r="AA3" s="255" t="s">
+      <c r="Z3" s="268"/>
+      <c r="AA3" s="269" t="s">
         <v>270</v>
       </c>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="255" t="s">
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="269" t="s">
         <v>269</v>
       </c>
-      <c r="AD3" s="254"/>
-      <c r="AE3" s="255" t="s">
+      <c r="AD3" s="268"/>
+      <c r="AE3" s="269" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="255" t="s">
+      <c r="AF3" s="268"/>
+      <c r="AG3" s="269" t="s">
         <v>272</v>
       </c>
-      <c r="AH3" s="254"/>
-      <c r="AI3" s="275" t="s">
+      <c r="AH3" s="268"/>
+      <c r="AI3" s="264" t="s">
         <v>270</v>
       </c>
-      <c r="AJ3" s="273"/>
-      <c r="AK3" s="275" t="s">
+      <c r="AJ3" s="265"/>
+      <c r="AK3" s="264" t="s">
         <v>352</v>
       </c>
-      <c r="AL3" s="273"/>
+      <c r="AL3" s="265"/>
       <c r="AM3" s="176" t="s">
         <v>330</v>
       </c>
@@ -25935,14 +26313,14 @@
       <c r="C4" s="224" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="276">
+      <c r="F4" s="280">
         <v>181</v>
       </c>
-      <c r="G4" s="276"/>
-      <c r="H4" s="263" t="s">
+      <c r="G4" s="280"/>
+      <c r="H4" s="274" t="s">
         <v>337</v>
       </c>
-      <c r="I4" s="255"/>
+      <c r="I4" s="269"/>
       <c r="J4" s="222" t="s">
         <v>336</v>
       </c>
@@ -25976,68 +26354,68 @@
         <v>273</v>
       </c>
       <c r="B5" s="201"/>
-      <c r="C5" s="264" t="s">
+      <c r="C5" s="283" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="255" t="s">
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="269" t="s">
         <v>275</v>
       </c>
-      <c r="G5" s="254"/>
-      <c r="H5" s="255" t="s">
+      <c r="G5" s="268"/>
+      <c r="H5" s="269" t="s">
         <v>276</v>
       </c>
-      <c r="I5" s="254"/>
-      <c r="J5" s="255" t="s">
+      <c r="I5" s="268"/>
+      <c r="J5" s="269" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="254"/>
-      <c r="L5" s="255" t="s">
+      <c r="K5" s="268"/>
+      <c r="L5" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="254"/>
-      <c r="N5" s="277" t="s">
+      <c r="M5" s="268"/>
+      <c r="N5" s="281" t="s">
         <v>325</v>
       </c>
-      <c r="O5" s="277"/>
-      <c r="P5" s="255" t="s">
+      <c r="O5" s="281"/>
+      <c r="P5" s="269" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="255" t="s">
+      <c r="Q5" s="268"/>
+      <c r="R5" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="254"/>
-      <c r="T5" s="255" t="s">
+      <c r="S5" s="268"/>
+      <c r="T5" s="269" t="s">
         <v>277</v>
       </c>
-      <c r="U5" s="254"/>
-      <c r="V5" s="254"/>
-      <c r="W5" s="254"/>
-      <c r="X5" s="254"/>
-      <c r="Y5" s="255" t="s">
+      <c r="U5" s="268"/>
+      <c r="V5" s="268"/>
+      <c r="W5" s="268"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="269" t="s">
         <v>278</v>
       </c>
-      <c r="Z5" s="254"/>
-      <c r="AA5" s="254"/>
-      <c r="AB5" s="254"/>
-      <c r="AC5" s="255" t="s">
+      <c r="Z5" s="268"/>
+      <c r="AA5" s="268"/>
+      <c r="AB5" s="268"/>
+      <c r="AC5" s="269" t="s">
         <v>279</v>
       </c>
-      <c r="AD5" s="254"/>
-      <c r="AE5" s="254"/>
-      <c r="AF5" s="254"/>
-      <c r="AG5" s="255" t="s">
+      <c r="AD5" s="268"/>
+      <c r="AE5" s="268"/>
+      <c r="AF5" s="268"/>
+      <c r="AG5" s="269" t="s">
         <v>279</v>
       </c>
-      <c r="AH5" s="254"/>
-      <c r="AI5" s="275" t="s">
+      <c r="AH5" s="268"/>
+      <c r="AI5" s="264" t="s">
         <v>324</v>
       </c>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="273"/>
-      <c r="AL5" s="273"/>
+      <c r="AJ5" s="265"/>
+      <c r="AK5" s="265"/>
+      <c r="AL5" s="265"/>
       <c r="AM5" s="176" t="s">
         <v>324</v>
       </c>
@@ -26052,64 +26430,64 @@
       <c r="A6" s="177" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="255" t="s">
+      <c r="C6" s="269" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="261" t="s">
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="287" t="s">
         <v>351</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="255" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="269" t="s">
         <v>283</v>
       </c>
-      <c r="I6" s="254"/>
-      <c r="J6" s="255" t="s">
+      <c r="I6" s="268"/>
+      <c r="J6" s="269" t="s">
         <v>284</v>
       </c>
-      <c r="K6" s="255"/>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255" t="s">
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="269" t="s">
         <v>285</v>
       </c>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="254"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="255" t="s">
+      <c r="Q6" s="268"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="268"/>
+      <c r="T6" s="269" t="s">
         <v>286</v>
       </c>
-      <c r="U6" s="254"/>
-      <c r="V6" s="255" t="s">
+      <c r="U6" s="268"/>
+      <c r="V6" s="269" t="s">
         <v>287</v>
       </c>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="255" t="s">
+      <c r="W6" s="268"/>
+      <c r="X6" s="268"/>
+      <c r="Y6" s="269" t="s">
         <v>350</v>
       </c>
-      <c r="Z6" s="254"/>
-      <c r="AA6" s="254"/>
-      <c r="AB6" s="254"/>
-      <c r="AC6" s="255" t="s">
+      <c r="Z6" s="268"/>
+      <c r="AA6" s="268"/>
+      <c r="AB6" s="268"/>
+      <c r="AC6" s="269" t="s">
         <v>289</v>
       </c>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="254"/>
-      <c r="AF6" s="254"/>
-      <c r="AG6" s="255" t="s">
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="268"/>
+      <c r="AF6" s="268"/>
+      <c r="AG6" s="269" t="s">
         <v>290</v>
       </c>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="275" t="s">
+      <c r="AH6" s="268"/>
+      <c r="AI6" s="264" t="s">
         <v>320</v>
       </c>
-      <c r="AJ6" s="273"/>
-      <c r="AK6" s="273"/>
-      <c r="AL6" s="273"/>
+      <c r="AJ6" s="265"/>
+      <c r="AK6" s="265"/>
+      <c r="AL6" s="265"/>
       <c r="AM6" s="176" t="s">
         <v>319</v>
       </c>
@@ -26422,7 +26800,7 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="250" t="s">
+      <c r="A11" s="286" t="s">
         <v>303</v>
       </c>
       <c r="B11" s="177">
@@ -26435,14 +26813,14 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E11" s="259">
+      <c r="E11" s="285">
         <f>SUM(D11:D15)</f>
         <v>0.30541871921182273</v>
       </c>
       <c r="H11" s="177">
         <v>7.3</v>
       </c>
-      <c r="I11" s="259">
+      <c r="I11" s="285">
         <f>(SUM(H11:H15)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.38227528089887641</v>
       </c>
@@ -26456,21 +26834,21 @@
         <f>V11/SUM(V9:V26)</f>
         <v>7.2289156626506035E-2</v>
       </c>
-      <c r="X11" s="260">
+      <c r="X11" s="267">
         <f>SUM(W11:W15)</f>
         <v>0.37349397590361455</v>
       </c>
       <c r="Y11" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z11" s="255">
+      <c r="Z11" s="269">
         <f>SUM(Y11:Y15)/100</f>
         <v>0.36799999999999999</v>
       </c>
       <c r="AA11" s="177">
         <v>8</v>
       </c>
-      <c r="AB11" s="255">
+      <c r="AB11" s="269">
         <f>SUM(AA11:AA15)/100</f>
         <v>0.318</v>
       </c>
@@ -26481,13 +26859,13 @@
         <f t="shared" ref="AN11:AN26" si="1">AM11/SUM(AM$9:AM$26)</f>
         <v>4.2282672974571271E-2</v>
       </c>
-      <c r="AO11" s="249">
+      <c r="AO11" s="289">
         <f>SUM(AN11:AN15)</f>
         <v>0.30829883698009075</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="250"/>
+      <c r="A12" s="286"/>
       <c r="B12" s="177">
         <v>33</v>
       </c>
@@ -26498,11 +26876,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E12" s="254"/>
+      <c r="E12" s="268"/>
       <c r="H12" s="177">
         <v>6.6</v>
       </c>
-      <c r="I12" s="254"/>
+      <c r="I12" s="268"/>
       <c r="T12" s="177">
         <v>0.7</v>
       </c>
@@ -26513,15 +26891,15 @@
         <f>V12/SUM(V9:V26)</f>
         <v>4.8192771084337359E-2</v>
       </c>
-      <c r="X12" s="254"/>
+      <c r="X12" s="268"/>
       <c r="Y12" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z12" s="254"/>
+      <c r="Z12" s="268"/>
       <c r="AA12" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB12" s="254"/>
+      <c r="AB12" s="268"/>
       <c r="AM12" s="176">
         <v>6.03</v>
       </c>
@@ -26529,10 +26907,10 @@
         <f t="shared" si="1"/>
         <v>5.9432288586635143E-2</v>
       </c>
-      <c r="AO12" s="250"/>
+      <c r="AO12" s="286"/>
     </row>
     <row r="13" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="250"/>
+      <c r="A13" s="286"/>
       <c r="B13" s="177">
         <v>45</v>
       </c>
@@ -26543,11 +26921,11 @@
         <f t="shared" si="0"/>
         <v>7.3891625615763554E-2</v>
       </c>
-      <c r="E13" s="254"/>
+      <c r="E13" s="268"/>
       <c r="H13" s="177">
         <v>6.1</v>
       </c>
-      <c r="I13" s="254"/>
+      <c r="I13" s="268"/>
       <c r="T13" s="177">
         <v>0.7</v>
       </c>
@@ -26558,15 +26936,15 @@
         <f>V13/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X13" s="254"/>
+      <c r="X13" s="268"/>
       <c r="Y13" s="177">
         <v>5.9</v>
       </c>
-      <c r="Z13" s="254"/>
+      <c r="Z13" s="268"/>
       <c r="AA13" s="177">
         <v>4.8</v>
       </c>
-      <c r="AB13" s="254"/>
+      <c r="AB13" s="268"/>
       <c r="AM13" s="176">
         <v>7.46</v>
       </c>
@@ -26574,10 +26952,10 @@
         <f t="shared" si="1"/>
         <v>7.3526512911492231E-2</v>
       </c>
-      <c r="AO13" s="250"/>
+      <c r="AO13" s="286"/>
     </row>
     <row r="14" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="250"/>
+      <c r="A14" s="286"/>
       <c r="B14" s="177">
         <v>52</v>
       </c>
@@ -26588,11 +26966,11 @@
         <f t="shared" si="0"/>
         <v>6.4039408866995079E-2</v>
       </c>
-      <c r="E14" s="254"/>
+      <c r="E14" s="268"/>
       <c r="H14" s="177">
         <v>12.9</v>
       </c>
-      <c r="I14" s="254"/>
+      <c r="I14" s="268"/>
       <c r="T14" s="177">
         <v>3.2</v>
       </c>
@@ -26603,15 +26981,15 @@
         <f>V14/SUM(V9:V26)</f>
         <v>0.18072289156626509</v>
       </c>
-      <c r="X14" s="254"/>
+      <c r="X14" s="268"/>
       <c r="Y14" s="177">
         <v>8.6</v>
       </c>
-      <c r="Z14" s="254"/>
+      <c r="Z14" s="268"/>
       <c r="AA14" s="177">
         <v>8</v>
       </c>
-      <c r="AB14" s="254"/>
+      <c r="AB14" s="268"/>
       <c r="AM14" s="176">
         <v>5.64</v>
       </c>
@@ -26619,10 +26997,10 @@
         <f t="shared" si="1"/>
         <v>5.5588409225310477E-2</v>
       </c>
-      <c r="AO14" s="250"/>
+      <c r="AO14" s="286"/>
     </row>
     <row r="15" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="250"/>
+      <c r="A15" s="286"/>
       <c r="B15" s="177">
         <v>58</v>
       </c>
@@ -26633,11 +27011,11 @@
         <f t="shared" si="0"/>
         <v>7.8817733990147798E-2</v>
       </c>
-      <c r="E15" s="254"/>
+      <c r="E15" s="268"/>
       <c r="H15" s="177">
         <v>11</v>
       </c>
-      <c r="I15" s="254"/>
+      <c r="I15" s="268"/>
       <c r="T15" s="177">
         <v>0.6</v>
       </c>
@@ -26648,15 +27026,15 @@
         <f>V15/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X15" s="254"/>
+      <c r="X15" s="268"/>
       <c r="Y15" s="177">
         <v>10.7</v>
       </c>
-      <c r="Z15" s="254"/>
+      <c r="Z15" s="268"/>
       <c r="AA15" s="177">
         <v>6.3</v>
       </c>
-      <c r="AB15" s="254"/>
+      <c r="AB15" s="268"/>
       <c r="AM15" s="176">
         <v>7.86</v>
       </c>
@@ -26664,10 +27042,10 @@
         <f t="shared" si="1"/>
         <v>7.7468953282081629E-2</v>
       </c>
-      <c r="AO15" s="250"/>
+      <c r="AO15" s="286"/>
     </row>
     <row r="16" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="253" t="s">
+      <c r="A16" s="284" t="s">
         <v>304</v>
       </c>
       <c r="B16" s="177">
@@ -26680,24 +27058,24 @@
         <f t="shared" si="0"/>
         <v>9.8522167487684748E-3</v>
       </c>
-      <c r="E16" s="259">
+      <c r="E16" s="285">
         <f>SUM(D16:D26)</f>
         <v>0.53694581280788167</v>
       </c>
-      <c r="I16" s="259">
+      <c r="I16" s="285">
         <f>(SUM(H16:H26)/SUM(H11:H26))* (1 - SUM(I9:I10))</f>
         <v>0.39272471910112366</v>
       </c>
       <c r="W16" s="196"/>
-      <c r="X16" s="260">
+      <c r="X16" s="267">
         <f>SUM(V16:V26)/SUM(V9:V26)</f>
         <v>0.46987951807228928</v>
       </c>
-      <c r="Z16" s="256">
+      <c r="Z16" s="270">
         <f>1-SUM(Z9:Z15)</f>
         <v>0.41799999999999993</v>
       </c>
-      <c r="AB16" s="256">
+      <c r="AB16" s="270">
         <f>1-SUM(AB9:AB15)</f>
         <v>0.39400000000000002</v>
       </c>
@@ -26708,13 +27086,13 @@
         <f t="shared" si="1"/>
         <v>1.872659176029963E-2</v>
       </c>
-      <c r="AO16" s="249">
+      <c r="AO16" s="289">
         <f>SUM(AN16:AN26)</f>
         <v>0.52661147250147844</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="254"/>
+      <c r="A17" s="268"/>
       <c r="B17" s="177">
         <v>35</v>
       </c>
@@ -26725,11 +27103,11 @@
         <f t="shared" si="0"/>
         <v>9.3596059113300503E-2</v>
       </c>
-      <c r="E17" s="254"/>
+      <c r="E17" s="268"/>
       <c r="H17" s="177">
         <v>10.4</v>
       </c>
-      <c r="I17" s="254"/>
+      <c r="I17" s="268"/>
       <c r="T17" s="177">
         <v>1.9</v>
       </c>
@@ -26740,15 +27118,15 @@
         <f>V17/SUM(V9:V26)</f>
         <v>0.13253012048192775</v>
       </c>
-      <c r="X17" s="254"/>
+      <c r="X17" s="268"/>
       <c r="Y17" s="177">
         <v>6.6</v>
       </c>
-      <c r="Z17" s="254"/>
+      <c r="Z17" s="268"/>
       <c r="AA17" s="177">
         <v>3.4</v>
       </c>
-      <c r="AB17" s="254"/>
+      <c r="AB17" s="268"/>
       <c r="AM17" s="176">
         <v>6.59</v>
       </c>
@@ -26756,10 +27134,10 @@
         <f t="shared" si="1"/>
         <v>6.4951705105460292E-2</v>
       </c>
-      <c r="AO17" s="249"/>
+      <c r="AO17" s="289"/>
     </row>
     <row r="18" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="254"/>
+      <c r="A18" s="268"/>
       <c r="B18" s="177">
         <v>39</v>
       </c>
@@ -26770,11 +27148,11 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E18" s="254"/>
+      <c r="E18" s="268"/>
       <c r="H18" s="177">
         <v>6.1</v>
       </c>
-      <c r="I18" s="254"/>
+      <c r="I18" s="268"/>
       <c r="T18" s="177">
         <v>0.6</v>
       </c>
@@ -26785,12 +27163,12 @@
         <f>V18/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X18" s="254"/>
-      <c r="Z18" s="254"/>
+      <c r="X18" s="268"/>
+      <c r="Z18" s="268"/>
       <c r="AA18" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB18" s="254"/>
+      <c r="AB18" s="268"/>
       <c r="AM18" s="176">
         <v>5</v>
       </c>
@@ -26798,10 +27176,10 @@
         <f t="shared" si="1"/>
         <v>4.9280504632367446E-2</v>
       </c>
-      <c r="AO18" s="249"/>
+      <c r="AO18" s="289"/>
     </row>
     <row r="19" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="254"/>
+      <c r="A19" s="268"/>
       <c r="B19" s="177">
         <v>51</v>
       </c>
@@ -26812,11 +27190,11 @@
         <f t="shared" si="0"/>
         <v>4.9261083743842374E-2</v>
       </c>
-      <c r="E19" s="254"/>
+      <c r="E19" s="268"/>
       <c r="H19" s="177">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I19" s="254"/>
+      <c r="I19" s="268"/>
       <c r="T19" s="177">
         <v>2.1</v>
       </c>
@@ -26827,12 +27205,12 @@
         <f>V19/SUM(V9:V26)</f>
         <v>9.6385542168674718E-2</v>
       </c>
-      <c r="X19" s="254"/>
-      <c r="Z19" s="254"/>
+      <c r="X19" s="268"/>
+      <c r="Z19" s="268"/>
       <c r="AA19" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB19" s="254"/>
+      <c r="AB19" s="268"/>
       <c r="AM19" s="176">
         <v>9.2899999999999991</v>
       </c>
@@ -26840,10 +27218,10 @@
         <f t="shared" si="1"/>
         <v>9.1563177606938703E-2</v>
       </c>
-      <c r="AO19" s="249"/>
+      <c r="AO19" s="289"/>
     </row>
     <row r="20" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="254"/>
+      <c r="A20" s="268"/>
       <c r="B20" s="177">
         <v>53</v>
       </c>
@@ -26854,8 +27232,8 @@
         <f t="shared" si="0"/>
         <v>0.11330049261083744</v>
       </c>
-      <c r="E20" s="254"/>
-      <c r="I20" s="254"/>
+      <c r="E20" s="268"/>
+      <c r="I20" s="268"/>
       <c r="T20" s="177">
         <v>0.6</v>
       </c>
@@ -26866,9 +27244,9 @@
         <f>V20/SUM(V9:V26)</f>
         <v>2.4096385542168679E-2</v>
       </c>
-      <c r="X20" s="254"/>
-      <c r="Z20" s="254"/>
-      <c r="AB20" s="254"/>
+      <c r="X20" s="268"/>
+      <c r="Z20" s="268"/>
+      <c r="AB20" s="268"/>
       <c r="AM20" s="176">
         <v>9.1300000000000008</v>
       </c>
@@ -26876,10 +27254,10 @@
         <f t="shared" si="1"/>
         <v>8.9986201458702966E-2</v>
       </c>
-      <c r="AO20" s="249"/>
+      <c r="AO20" s="289"/>
     </row>
     <row r="21" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="254"/>
+      <c r="A21" s="268"/>
       <c r="B21" s="177">
         <v>56</v>
       </c>
@@ -26890,11 +27268,11 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E21" s="254"/>
+      <c r="E21" s="268"/>
       <c r="H21" s="177">
         <v>8</v>
       </c>
-      <c r="I21" s="254"/>
+      <c r="I21" s="268"/>
       <c r="T21" s="177">
         <v>0.9</v>
       </c>
@@ -26905,12 +27283,12 @@
         <f>V21/SUM(V9:V26)</f>
         <v>3.6144578313253017E-2</v>
       </c>
-      <c r="X21" s="254"/>
-      <c r="Z21" s="254"/>
+      <c r="X21" s="268"/>
+      <c r="Z21" s="268"/>
       <c r="AA21" s="177">
         <v>5.2</v>
       </c>
-      <c r="AB21" s="254"/>
+      <c r="AB21" s="268"/>
       <c r="AM21" s="176">
         <v>4.05</v>
       </c>
@@ -26918,10 +27296,10 @@
         <f t="shared" si="1"/>
         <v>3.9917208752217631E-2</v>
       </c>
-      <c r="AO21" s="249"/>
+      <c r="AO21" s="289"/>
     </row>
     <row r="22" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="254"/>
+      <c r="A22" s="268"/>
       <c r="B22" s="177">
         <v>59</v>
       </c>
@@ -26932,11 +27310,11 @@
         <f t="shared" si="0"/>
         <v>4.4334975369458136E-2</v>
       </c>
-      <c r="E22" s="254"/>
+      <c r="E22" s="268"/>
       <c r="H22" s="177">
         <v>5</v>
       </c>
-      <c r="I22" s="254"/>
+      <c r="I22" s="268"/>
       <c r="T22" s="177">
         <v>0.1</v>
       </c>
@@ -26947,12 +27325,12 @@
         <f>V22/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X22" s="254"/>
-      <c r="Z22" s="254"/>
+      <c r="X22" s="268"/>
+      <c r="Z22" s="268"/>
       <c r="AA22" s="177">
         <v>3.2</v>
       </c>
-      <c r="AB22" s="254"/>
+      <c r="AB22" s="268"/>
       <c r="AM22" s="176">
         <v>2.94</v>
       </c>
@@ -26960,10 +27338,10 @@
         <f t="shared" si="1"/>
         <v>2.8976936723832059E-2</v>
       </c>
-      <c r="AO22" s="249"/>
+      <c r="AO22" s="289"/>
     </row>
     <row r="23" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="254"/>
+      <c r="A23" s="268"/>
       <c r="B23" s="177">
         <v>66</v>
       </c>
@@ -26974,8 +27352,8 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E23" s="254"/>
-      <c r="I23" s="254"/>
+      <c r="E23" s="268"/>
+      <c r="I23" s="268"/>
       <c r="T23" s="177">
         <v>1.6</v>
       </c>
@@ -26986,9 +27364,9 @@
         <f>V23/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X23" s="254"/>
-      <c r="Z23" s="254"/>
-      <c r="AB23" s="254"/>
+      <c r="X23" s="268"/>
+      <c r="Z23" s="268"/>
+      <c r="AB23" s="268"/>
       <c r="AM23" s="176">
         <v>5.43</v>
       </c>
@@ -26996,10 +27374,10 @@
         <f t="shared" si="1"/>
         <v>5.3518628030751046E-2</v>
       </c>
-      <c r="AO23" s="249"/>
+      <c r="AO23" s="289"/>
     </row>
     <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="254"/>
+      <c r="A24" s="268"/>
       <c r="B24" s="177">
         <v>68</v>
       </c>
@@ -27010,11 +27388,11 @@
         <f t="shared" si="0"/>
         <v>5.9113300492610842E-2</v>
       </c>
-      <c r="E24" s="254"/>
+      <c r="E24" s="268"/>
       <c r="H24" s="177">
         <v>6.9</v>
       </c>
-      <c r="I24" s="254"/>
+      <c r="I24" s="268"/>
       <c r="T24" s="177">
         <v>1.1000000000000001</v>
       </c>
@@ -27025,12 +27403,12 @@
         <f>V24/SUM(V9:V26)</f>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="X24" s="254"/>
-      <c r="Z24" s="254"/>
+      <c r="X24" s="268"/>
+      <c r="Z24" s="268"/>
       <c r="AA24" s="177">
         <v>3.1</v>
       </c>
-      <c r="AB24" s="254"/>
+      <c r="AB24" s="268"/>
       <c r="AM24" s="176">
         <v>4.5999999999999996</v>
       </c>
@@ -27038,10 +27416,10 @@
         <f t="shared" si="1"/>
         <v>4.5338064261778048E-2</v>
       </c>
-      <c r="AO24" s="249"/>
+      <c r="AO24" s="289"/>
     </row>
     <row r="25" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="254"/>
+      <c r="A25" s="268"/>
       <c r="B25" s="177">
         <v>73</v>
       </c>
@@ -27052,12 +27430,12 @@
         <f t="shared" si="0"/>
         <v>3.9408866995073899E-2</v>
       </c>
-      <c r="E25" s="254"/>
-      <c r="I25" s="254"/>
+      <c r="E25" s="268"/>
+      <c r="I25" s="268"/>
       <c r="W25" s="196"/>
-      <c r="X25" s="254"/>
-      <c r="Z25" s="254"/>
-      <c r="AB25" s="254"/>
+      <c r="X25" s="268"/>
+      <c r="Z25" s="268"/>
+      <c r="AB25" s="268"/>
       <c r="AM25" s="176">
         <v>2.4</v>
       </c>
@@ -27065,10 +27443,10 @@
         <f t="shared" si="1"/>
         <v>2.3654642223536373E-2</v>
       </c>
-      <c r="AO25" s="249"/>
+      <c r="AO25" s="289"/>
     </row>
     <row r="26" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="254"/>
+      <c r="A26" s="268"/>
       <c r="B26" s="177">
         <v>82</v>
       </c>
@@ -27079,8 +27457,8 @@
         <f t="shared" si="0"/>
         <v>1.970443349753695E-2</v>
       </c>
-      <c r="E26" s="254"/>
-      <c r="I26" s="254"/>
+      <c r="E26" s="268"/>
+      <c r="I26" s="268"/>
       <c r="T26" s="177">
         <v>0.3</v>
       </c>
@@ -27091,9 +27469,9 @@
         <f>V26/SUM(V9:V26)</f>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="X26" s="254"/>
-      <c r="Z26" s="254"/>
-      <c r="AB26" s="254"/>
+      <c r="X26" s="268"/>
+      <c r="Z26" s="268"/>
+      <c r="AB26" s="268"/>
       <c r="AM26" s="176">
         <v>2.1</v>
       </c>
@@ -27101,7 +27479,7 @@
         <f t="shared" si="1"/>
         <v>2.0697811945594329E-2</v>
       </c>
-      <c r="AO26" s="249"/>
+      <c r="AO26" s="289"/>
       <c r="AP26" s="236"/>
     </row>
     <row r="27" spans="1:42" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -27147,7 +27525,7 @@
       <c r="AL27" s="228"/>
     </row>
     <row r="28" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="253" t="s">
+      <c r="A28" s="284" t="s">
         <v>306</v>
       </c>
       <c r="B28" s="177">
@@ -27208,7 +27586,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="254"/>
+      <c r="A29" s="268"/>
       <c r="B29" s="177">
         <v>18</v>
       </c>
@@ -27267,7 +27645,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="254"/>
+      <c r="A30" s="268"/>
       <c r="B30" s="177">
         <v>31</v>
       </c>
@@ -27278,14 +27656,14 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E30" s="259">
+      <c r="E30" s="285">
         <f>SUM(D30:D34)</f>
         <v>0.30085736554949344</v>
       </c>
       <c r="H30" s="194">
         <v>8.4</v>
       </c>
-      <c r="I30" s="256">
+      <c r="I30" s="270">
         <f>(SUM(H30:H34)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.30589562547966231</v>
       </c>
@@ -27299,34 +27677,34 @@
         <f>V30/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X30" s="260">
+      <c r="X30" s="267">
         <f>SUM(W30:W34)</f>
         <v>0.44139650872817959</v>
       </c>
       <c r="Y30" s="177">
         <v>6.5</v>
       </c>
-      <c r="Z30" s="255">
+      <c r="Z30" s="269">
         <f>SUM(Y30:Y34)/100</f>
         <v>0.42</v>
       </c>
       <c r="AA30" s="177">
         <v>9.5</v>
       </c>
-      <c r="AB30" s="255">
+      <c r="AB30" s="269">
         <f>SUM(AA30:AA34)/100</f>
         <v>0.35100000000000003</v>
       </c>
       <c r="AG30" s="177">
         <v>6.1</v>
       </c>
-      <c r="AH30" s="255">
+      <c r="AH30" s="269">
         <f>SUM(AG30:AG34)/100</f>
         <v>0.317</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="254"/>
+      <c r="A31" s="268"/>
       <c r="B31" s="177">
         <v>33</v>
       </c>
@@ -27337,11 +27715,11 @@
         <f t="shared" si="2"/>
         <v>5.4559625876851141E-2</v>
       </c>
-      <c r="E31" s="254"/>
+      <c r="E31" s="268"/>
       <c r="H31" s="194">
         <v>10</v>
       </c>
-      <c r="I31" s="254"/>
+      <c r="I31" s="268"/>
       <c r="T31" s="177">
         <v>3.2</v>
       </c>
@@ -27352,22 +27730,22 @@
         <f>V31/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X31" s="254"/>
+      <c r="X31" s="268"/>
       <c r="Y31" s="177">
         <v>8.5</v>
       </c>
-      <c r="Z31" s="254"/>
+      <c r="Z31" s="268"/>
       <c r="AA31" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB31" s="254"/>
+      <c r="AB31" s="268"/>
       <c r="AG31" s="177">
         <v>5.9</v>
       </c>
-      <c r="AH31" s="254"/>
+      <c r="AH31" s="268"/>
     </row>
     <row r="32" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="254"/>
+      <c r="A32" s="268"/>
       <c r="B32" s="177">
         <v>45</v>
       </c>
@@ -27378,11 +27756,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E32" s="254"/>
+      <c r="E32" s="268"/>
       <c r="H32" s="194">
         <v>11.3</v>
       </c>
-      <c r="I32" s="254"/>
+      <c r="I32" s="268"/>
       <c r="T32" s="177">
         <v>3.2</v>
       </c>
@@ -27393,22 +27771,22 @@
         <f>V32/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X32" s="254"/>
+      <c r="X32" s="268"/>
       <c r="Y32" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z32" s="254"/>
+      <c r="Z32" s="268"/>
       <c r="AA32" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB32" s="254"/>
+      <c r="AB32" s="268"/>
       <c r="AG32" s="177">
         <v>2.9</v>
       </c>
-      <c r="AH32" s="254"/>
+      <c r="AH32" s="268"/>
     </row>
     <row r="33" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="254"/>
+      <c r="A33" s="268"/>
       <c r="B33" s="177">
         <v>52</v>
       </c>
@@ -27419,11 +27797,11 @@
         <f t="shared" si="2"/>
         <v>0.13639906469212784</v>
       </c>
-      <c r="E33" s="254"/>
+      <c r="E33" s="268"/>
       <c r="H33" s="194">
         <v>16.8</v>
       </c>
-      <c r="I33" s="254"/>
+      <c r="I33" s="268"/>
       <c r="T33" s="177">
         <v>14.5</v>
       </c>
@@ -27434,22 +27812,22 @@
         <f>V33/SUM(V28:V45)</f>
         <v>0.16209476309226933</v>
       </c>
-      <c r="X33" s="254"/>
+      <c r="X33" s="268"/>
       <c r="Y33" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z33" s="254"/>
+      <c r="Z33" s="268"/>
       <c r="AA33" s="177">
         <v>8.1</v>
       </c>
-      <c r="AB33" s="254"/>
+      <c r="AB33" s="268"/>
       <c r="AG33" s="177">
         <v>6.8</v>
       </c>
-      <c r="AH33" s="254"/>
+      <c r="AH33" s="268"/>
     </row>
     <row r="34" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="254"/>
+      <c r="A34" s="268"/>
       <c r="B34" s="177">
         <v>58</v>
       </c>
@@ -27460,11 +27838,11 @@
         <f t="shared" si="2"/>
         <v>4.1309431021044431E-2</v>
       </c>
-      <c r="E34" s="254"/>
+      <c r="E34" s="268"/>
       <c r="H34" s="194">
         <v>15.2</v>
       </c>
-      <c r="I34" s="254"/>
+      <c r="I34" s="268"/>
       <c r="T34" s="177">
         <v>8.1</v>
       </c>
@@ -27475,22 +27853,22 @@
         <f>V34/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X34" s="254"/>
+      <c r="X34" s="268"/>
       <c r="Y34" s="177">
         <v>10.8</v>
       </c>
-      <c r="Z34" s="254"/>
+      <c r="Z34" s="268"/>
       <c r="AA34" s="177">
         <v>7.1</v>
       </c>
-      <c r="AB34" s="254"/>
+      <c r="AB34" s="268"/>
       <c r="AG34" s="177">
         <v>10</v>
       </c>
-      <c r="AH34" s="254"/>
+      <c r="AH34" s="268"/>
     </row>
     <row r="35" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="253" t="s">
+      <c r="A35" s="284" t="s">
         <v>304</v>
       </c>
       <c r="B35" s="177">
@@ -27503,34 +27881,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="259">
+      <c r="E35" s="285">
         <f>SUM(D35:D46)</f>
         <v>0.53468433359314127</v>
       </c>
-      <c r="I35" s="256">
+      <c r="I35" s="270">
         <f>(SUM(H35:H46)/SUM(H$30:H$46))* (1 - (SUM(I28:I29)))</f>
         <v>0.34010437452033765</v>
       </c>
       <c r="W35" s="196"/>
-      <c r="X35" s="260">
+      <c r="X35" s="267">
         <f>SUM(V35:V45)/SUM(V28:V45)</f>
         <v>0.399002493765586</v>
       </c>
-      <c r="Z35" s="255">
+      <c r="Z35" s="269">
         <f>1-SUM(Z28:Z34)</f>
         <v>0.32899999999999996</v>
       </c>
-      <c r="AB35" s="255">
+      <c r="AB35" s="269">
         <f>1-SUM(AB28:AB34)</f>
         <v>0.31099999999999994</v>
       </c>
-      <c r="AH35" s="255">
+      <c r="AH35" s="269">
         <f>1-SUM(AH28:AH34)</f>
         <v>0.42700000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="254"/>
+      <c r="A36" s="268"/>
       <c r="B36" s="177">
         <v>35</v>
       </c>
@@ -27541,11 +27919,11 @@
         <f t="shared" si="2"/>
         <v>9.5869056897895572E-2</v>
       </c>
-      <c r="E36" s="254"/>
+      <c r="E36" s="268"/>
       <c r="H36" s="194">
         <v>15.8</v>
       </c>
-      <c r="I36" s="254"/>
+      <c r="I36" s="268"/>
       <c r="T36" s="177">
         <v>12.9</v>
       </c>
@@ -27556,22 +27934,22 @@
         <f>V36/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X36" s="254"/>
+      <c r="X36" s="268"/>
       <c r="Y36" s="177">
         <v>7.9</v>
       </c>
-      <c r="Z36" s="254"/>
+      <c r="Z36" s="268"/>
       <c r="AA36" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB36" s="254"/>
+      <c r="AB36" s="268"/>
       <c r="AG36" s="177">
         <v>6.5</v>
       </c>
-      <c r="AH36" s="254"/>
+      <c r="AH36" s="268"/>
     </row>
     <row r="37" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="254"/>
+      <c r="A37" s="268"/>
       <c r="B37" s="177">
         <v>39</v>
       </c>
@@ -27582,11 +27960,11 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E37" s="254"/>
+      <c r="E37" s="268"/>
       <c r="H37" s="194">
         <v>9.5</v>
       </c>
-      <c r="I37" s="254"/>
+      <c r="I37" s="268"/>
       <c r="T37" s="177">
         <v>6.5</v>
       </c>
@@ -27597,19 +27975,19 @@
         <f>V37/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="254"/>
-      <c r="Z37" s="254"/>
+      <c r="X37" s="268"/>
+      <c r="Z37" s="268"/>
       <c r="AA37" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB37" s="254"/>
+      <c r="AB37" s="268"/>
       <c r="AG37" s="177">
         <v>2</v>
       </c>
-      <c r="AH37" s="254"/>
+      <c r="AH37" s="268"/>
     </row>
     <row r="38" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="254"/>
+      <c r="A38" s="268"/>
       <c r="B38" s="177">
         <v>51</v>
       </c>
@@ -27620,11 +27998,11 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E38" s="254"/>
+      <c r="E38" s="268"/>
       <c r="H38" s="194">
         <v>13.2</v>
       </c>
-      <c r="I38" s="254"/>
+      <c r="I38" s="268"/>
       <c r="T38" s="177">
         <v>12.9</v>
       </c>
@@ -27635,19 +28013,19 @@
         <f>V38/SUM(V28:V45)</f>
         <v>0.11970074812967581</v>
       </c>
-      <c r="X38" s="254"/>
-      <c r="Z38" s="254"/>
+      <c r="X38" s="268"/>
+      <c r="Z38" s="268"/>
       <c r="AA38" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB38" s="254"/>
+      <c r="AB38" s="268"/>
       <c r="AG38" s="177">
         <v>1.9</v>
       </c>
-      <c r="AH38" s="254"/>
+      <c r="AH38" s="268"/>
     </row>
     <row r="39" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="254"/>
+      <c r="A39" s="268"/>
       <c r="B39" s="177">
         <v>53</v>
       </c>
@@ -27658,8 +28036,8 @@
         <f t="shared" si="2"/>
         <v>0.12314886983632115</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="I39" s="254"/>
+      <c r="E39" s="268"/>
+      <c r="I39" s="268"/>
       <c r="T39" s="177">
         <v>6.5</v>
       </c>
@@ -27670,16 +28048,16 @@
         <f>V39/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X39" s="254"/>
-      <c r="Z39" s="254"/>
-      <c r="AB39" s="254"/>
+      <c r="X39" s="268"/>
+      <c r="Z39" s="268"/>
+      <c r="AB39" s="268"/>
       <c r="AG39" s="177">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AH39" s="254"/>
+      <c r="AH39" s="268"/>
     </row>
     <row r="40" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="254"/>
+      <c r="A40" s="268"/>
       <c r="B40" s="177">
         <v>56</v>
       </c>
@@ -27690,11 +28068,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E40" s="254"/>
+      <c r="E40" s="268"/>
       <c r="H40" s="194">
         <v>11.8</v>
       </c>
-      <c r="I40" s="254"/>
+      <c r="I40" s="268"/>
       <c r="T40" s="177">
         <v>9.6999999999999993</v>
       </c>
@@ -27705,19 +28083,19 @@
         <f>V40/SUM(V28:V45)</f>
         <v>7.9800498753117205E-2</v>
       </c>
-      <c r="X40" s="254"/>
-      <c r="Z40" s="254"/>
+      <c r="X40" s="268"/>
+      <c r="Z40" s="268"/>
       <c r="AA40" s="177">
         <v>8.6</v>
       </c>
-      <c r="AB40" s="254"/>
+      <c r="AB40" s="268"/>
       <c r="AG40" s="177">
         <v>4</v>
       </c>
-      <c r="AH40" s="254"/>
+      <c r="AH40" s="268"/>
     </row>
     <row r="41" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="254"/>
+      <c r="A41" s="268"/>
       <c r="B41" s="177">
         <v>59</v>
       </c>
@@ -27728,11 +28106,11 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E41" s="254"/>
+      <c r="E41" s="268"/>
       <c r="H41" s="194">
         <v>8.9</v>
       </c>
-      <c r="I41" s="254"/>
+      <c r="I41" s="268"/>
       <c r="T41" s="177">
         <v>1.6</v>
       </c>
@@ -27743,19 +28121,19 @@
         <f>V41/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="254"/>
-      <c r="Z41" s="254"/>
+      <c r="X41" s="268"/>
+      <c r="Z41" s="268"/>
       <c r="AA41" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB41" s="254"/>
+      <c r="AB41" s="268"/>
       <c r="AG41" s="177">
         <v>2.8</v>
       </c>
-      <c r="AH41" s="254"/>
+      <c r="AH41" s="268"/>
     </row>
     <row r="42" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="254"/>
+      <c r="A42" s="268"/>
       <c r="B42" s="177">
         <v>66</v>
       </c>
@@ -27766,8 +28144,8 @@
         <f t="shared" si="2"/>
         <v>2.727981293842557E-2</v>
       </c>
-      <c r="E42" s="254"/>
-      <c r="I42" s="254"/>
+      <c r="E42" s="268"/>
+      <c r="I42" s="268"/>
       <c r="T42" s="177">
         <v>6.5</v>
       </c>
@@ -27778,16 +28156,16 @@
         <f>V42/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X42" s="254"/>
-      <c r="Z42" s="254"/>
-      <c r="AB42" s="254"/>
+      <c r="X42" s="268"/>
+      <c r="Z42" s="268"/>
+      <c r="AB42" s="268"/>
       <c r="AG42" s="177">
         <v>3</v>
       </c>
-      <c r="AH42" s="254"/>
+      <c r="AH42" s="268"/>
     </row>
     <row r="43" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="254"/>
+      <c r="A43" s="268"/>
       <c r="B43" s="177">
         <v>68</v>
       </c>
@@ -27798,11 +28176,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="254"/>
+      <c r="E43" s="268"/>
       <c r="H43" s="194">
         <v>9.4</v>
       </c>
-      <c r="I43" s="254"/>
+      <c r="I43" s="268"/>
       <c r="T43" s="177">
         <v>4.8</v>
       </c>
@@ -27813,16 +28191,16 @@
         <f>V43/SUM(V28:V45)</f>
         <v>3.9900249376558602E-2</v>
       </c>
-      <c r="X43" s="254"/>
-      <c r="Z43" s="254"/>
+      <c r="X43" s="268"/>
+      <c r="Z43" s="268"/>
       <c r="AA43" s="177">
         <v>2.7</v>
       </c>
-      <c r="AB43" s="254"/>
-      <c r="AH43" s="254"/>
+      <c r="AB43" s="268"/>
+      <c r="AH43" s="268"/>
     </row>
     <row r="44" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="254"/>
+      <c r="A44" s="268"/>
       <c r="B44" s="177">
         <v>73</v>
       </c>
@@ -27833,16 +28211,16 @@
         <f t="shared" si="2"/>
         <v>1.4029618082618864E-2</v>
       </c>
-      <c r="E44" s="254"/>
-      <c r="I44" s="254"/>
+      <c r="E44" s="268"/>
+      <c r="I44" s="268"/>
       <c r="W44" s="196"/>
-      <c r="X44" s="254"/>
-      <c r="Z44" s="254"/>
-      <c r="AB44" s="254"/>
-      <c r="AH44" s="254"/>
+      <c r="X44" s="268"/>
+      <c r="Z44" s="268"/>
+      <c r="AB44" s="268"/>
+      <c r="AH44" s="268"/>
     </row>
     <row r="45" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="254"/>
+      <c r="A45" s="268"/>
       <c r="B45" s="177">
         <v>82</v>
       </c>
@@ -27853,8 +28231,8 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E45" s="254"/>
-      <c r="I45" s="254"/>
+      <c r="E45" s="268"/>
+      <c r="I45" s="268"/>
       <c r="T45" s="177">
         <v>1.6</v>
       </c>
@@ -27865,13 +28243,13 @@
         <f>V45/SUM(V28:V45)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="254"/>
-      <c r="Z45" s="254"/>
-      <c r="AB45" s="254"/>
-      <c r="AH45" s="254"/>
+      <c r="X45" s="268"/>
+      <c r="Z45" s="268"/>
+      <c r="AB45" s="268"/>
+      <c r="AH45" s="268"/>
     </row>
     <row r="46" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="254"/>
+      <c r="A46" s="268"/>
       <c r="B46" s="177">
         <v>82</v>
       </c>
@@ -27882,11 +28260,11 @@
         <f t="shared" si="2"/>
         <v>6.8589243959470012E-2</v>
       </c>
-      <c r="E46" s="254"/>
-      <c r="I46" s="254"/>
-      <c r="Z46" s="254"/>
-      <c r="AB46" s="254"/>
-      <c r="AH46" s="254"/>
+      <c r="E46" s="268"/>
+      <c r="I46" s="268"/>
+      <c r="Z46" s="268"/>
+      <c r="AB46" s="268"/>
+      <c r="AH46" s="268"/>
     </row>
     <row r="47" spans="1:43" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="230" t="s">
@@ -27931,7 +28309,7 @@
       <c r="AL47" s="228"/>
     </row>
     <row r="48" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="253" t="s">
+      <c r="A48" s="284" t="s">
         <v>306</v>
       </c>
       <c r="B48" s="177">
@@ -27983,17 +28361,17 @@
         <f>AA48/100</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AP48" s="249">
+      <c r="AP48" s="289">
         <f>79.6/(79.6+13.3)</f>
         <v>0.85683530678148545</v>
       </c>
-      <c r="AQ48" s="249">
+      <c r="AQ48" s="289">
         <f>77.8/(77.8+15.6)</f>
         <v>0.83297644539614568</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="254"/>
+      <c r="A49" s="268"/>
       <c r="B49" s="177">
         <v>18</v>
       </c>
@@ -28043,11 +28421,11 @@
         <f>AA49/100</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AP49" s="249"/>
-      <c r="AQ49" s="249"/>
+      <c r="AP49" s="289"/>
+      <c r="AQ49" s="289"/>
     </row>
     <row r="50" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="254"/>
+      <c r="A50" s="268"/>
       <c r="B50" s="177">
         <v>31</v>
       </c>
@@ -28058,14 +28436,14 @@
         <f t="shared" si="3"/>
         <v>9.3220338983050863E-2</v>
       </c>
-      <c r="E50" s="259">
+      <c r="E50" s="285">
         <f>SUM(D50:D54)</f>
         <v>0.36571056062581492</v>
       </c>
       <c r="H50" s="194">
         <v>13.9</v>
       </c>
-      <c r="I50" s="256">
+      <c r="I50" s="270">
         <f>(SUM(H50:H54)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.27666666666666667</v>
       </c>
@@ -28079,29 +28457,29 @@
         <f>V50/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X50" s="260">
+      <c r="X50" s="267">
         <f>SUM(W50:W54)</f>
         <v>0.39491525423728807</v>
       </c>
       <c r="Y50" s="177">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Z50" s="255">
+      <c r="Z50" s="269">
         <f>SUM(Y50:Y54)/100</f>
         <v>0.43400000000000005</v>
       </c>
       <c r="AA50" s="195">
         <v>11</v>
       </c>
-      <c r="AB50" s="255">
+      <c r="AB50" s="269">
         <f>SUM(AA50:AA54)/100</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="AP50" s="249"/>
-      <c r="AQ50" s="249"/>
+      <c r="AP50" s="289"/>
+      <c r="AQ50" s="289"/>
     </row>
     <row r="51" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="254"/>
+      <c r="A51" s="268"/>
       <c r="B51" s="177">
         <v>33</v>
       </c>
@@ -28112,11 +28490,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E51" s="254"/>
+      <c r="E51" s="268"/>
       <c r="H51" s="194">
         <v>14.5</v>
       </c>
-      <c r="I51" s="254"/>
+      <c r="I51" s="268"/>
       <c r="T51" s="177">
         <v>9.5</v>
       </c>
@@ -28127,20 +28505,20 @@
         <f>V51/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X51" s="254"/>
+      <c r="X51" s="268"/>
       <c r="Y51" s="177">
         <v>8.9</v>
       </c>
-      <c r="Z51" s="254"/>
+      <c r="Z51" s="268"/>
       <c r="AA51" s="195">
         <v>8.4</v>
       </c>
-      <c r="AB51" s="254"/>
-      <c r="AP51" s="249"/>
-      <c r="AQ51" s="249"/>
+      <c r="AB51" s="268"/>
+      <c r="AP51" s="289"/>
+      <c r="AQ51" s="289"/>
     </row>
     <row r="52" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="254"/>
+      <c r="A52" s="268"/>
       <c r="B52" s="177">
         <v>45</v>
       </c>
@@ -28151,11 +28529,11 @@
         <f t="shared" si="3"/>
         <v>4.6284224250325953E-2</v>
       </c>
-      <c r="E52" s="254"/>
+      <c r="E52" s="268"/>
       <c r="H52" s="194">
         <v>13</v>
       </c>
-      <c r="I52" s="254"/>
+      <c r="I52" s="268"/>
       <c r="T52" s="177">
         <v>3.6</v>
       </c>
@@ -28166,20 +28544,20 @@
         <f>V52/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X52" s="254"/>
+      <c r="X52" s="268"/>
       <c r="Y52" s="177">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z52" s="254"/>
+      <c r="Z52" s="268"/>
       <c r="AA52" s="195">
         <v>4.5</v>
       </c>
-      <c r="AB52" s="254"/>
-      <c r="AP52" s="249"/>
-      <c r="AQ52" s="249"/>
+      <c r="AB52" s="268"/>
+      <c r="AP52" s="289"/>
+      <c r="AQ52" s="289"/>
     </row>
     <row r="53" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="254"/>
+      <c r="A53" s="268"/>
       <c r="B53" s="177">
         <v>52</v>
       </c>
@@ -28190,11 +28568,11 @@
         <f t="shared" si="3"/>
         <v>0.10625814863103</v>
       </c>
-      <c r="E53" s="254"/>
+      <c r="E53" s="268"/>
       <c r="H53" s="194">
         <v>17.399999999999999</v>
       </c>
-      <c r="I53" s="254"/>
+      <c r="I53" s="268"/>
       <c r="T53" s="177">
         <v>24.1</v>
       </c>
@@ -28205,20 +28583,20 @@
         <f>V53/SUM(V48:V67)</f>
         <v>0.23559322033898303</v>
       </c>
-      <c r="X53" s="254"/>
+      <c r="X53" s="268"/>
       <c r="Y53" s="177">
         <v>11</v>
       </c>
-      <c r="Z53" s="254"/>
+      <c r="Z53" s="268"/>
       <c r="AA53" s="195">
         <v>9.6</v>
       </c>
-      <c r="AB53" s="254"/>
-      <c r="AP53" s="249"/>
-      <c r="AQ53" s="249"/>
+      <c r="AB53" s="268"/>
+      <c r="AP53" s="289"/>
+      <c r="AQ53" s="289"/>
     </row>
     <row r="54" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="254"/>
+      <c r="A54" s="268"/>
       <c r="B54" s="177">
         <v>58</v>
       </c>
@@ -28229,11 +28607,11 @@
         <f t="shared" si="3"/>
         <v>6.6492829204693613E-2</v>
       </c>
-      <c r="E54" s="254"/>
+      <c r="E54" s="268"/>
       <c r="H54" s="194">
         <v>24.2</v>
       </c>
-      <c r="I54" s="254"/>
+      <c r="I54" s="268"/>
       <c r="T54" s="177">
         <v>5.0999999999999996</v>
       </c>
@@ -28244,20 +28622,20 @@
         <f>V54/SUM(V48:V67)</f>
         <v>6.1016949152542369E-2</v>
       </c>
-      <c r="X54" s="254"/>
+      <c r="X54" s="268"/>
       <c r="Y54" s="177">
         <v>11.2</v>
       </c>
-      <c r="Z54" s="254"/>
+      <c r="Z54" s="268"/>
       <c r="AA54" s="195">
         <v>7.9</v>
       </c>
-      <c r="AB54" s="254"/>
-      <c r="AP54" s="249"/>
-      <c r="AQ54" s="249"/>
+      <c r="AB54" s="268"/>
+      <c r="AP54" s="289"/>
+      <c r="AQ54" s="289"/>
     </row>
     <row r="55" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="253" t="s">
+      <c r="A55" s="284" t="s">
         <v>304</v>
       </c>
       <c r="B55" s="177">
@@ -28270,39 +28648,39 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E55" s="259">
+      <c r="E55" s="285">
         <f>SUM(D55:D67)</f>
         <v>0.41460234680573665</v>
       </c>
-      <c r="I55" s="256">
+      <c r="I55" s="270">
         <f>(SUM(H55:H67)/(SUM(H50:H67))*(1-(SUM(I48:I49))))</f>
         <v>0.25433333333333324</v>
       </c>
       <c r="W55" s="196"/>
-      <c r="X55" s="260">
+      <c r="X55" s="267">
         <f>SUM(T56:T67)/SUM(T48:T67)</f>
         <v>0.32680195941217638</v>
       </c>
-      <c r="Z55" s="255">
+      <c r="Z55" s="269">
         <f>1-SUM(Z48:Z54)</f>
         <v>0.17099999999999993</v>
       </c>
       <c r="AA55" s="191"/>
-      <c r="AB55" s="255">
+      <c r="AB55" s="269">
         <f>1-SUM(AB48:AB54)</f>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="AP55" s="249">
+      <c r="AP55" s="289">
         <f>1-AP48</f>
         <v>0.14316469321851455</v>
       </c>
-      <c r="AQ55" s="249">
+      <c r="AQ55" s="289">
         <f>1-AQ48</f>
         <v>0.16702355460385432</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="254"/>
+      <c r="A56" s="268"/>
       <c r="B56" s="177">
         <v>35</v>
       </c>
@@ -28313,11 +28691,11 @@
         <f t="shared" si="3"/>
         <v>0.11994784876140809</v>
       </c>
-      <c r="E56" s="254"/>
+      <c r="E56" s="268"/>
       <c r="H56" s="194">
         <v>21.8</v>
       </c>
-      <c r="I56" s="254"/>
+      <c r="I56" s="268"/>
       <c r="T56" s="177">
         <v>13.1</v>
       </c>
@@ -28328,20 +28706,20 @@
         <f>V56/SUM(V48:V67)</f>
         <v>8.6440677966101678E-2</v>
       </c>
-      <c r="X56" s="254"/>
+      <c r="X56" s="268"/>
       <c r="Y56" s="177">
         <v>11.8</v>
       </c>
-      <c r="Z56" s="254"/>
+      <c r="Z56" s="268"/>
       <c r="AA56" s="195">
         <v>5.6</v>
       </c>
-      <c r="AB56" s="254"/>
-      <c r="AP56" s="249"/>
-      <c r="AQ56" s="249"/>
+      <c r="AB56" s="268"/>
+      <c r="AP56" s="289"/>
+      <c r="AQ56" s="289"/>
     </row>
     <row r="57" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="254"/>
+      <c r="A57" s="268"/>
       <c r="B57" s="177">
         <v>39</v>
       </c>
@@ -28352,11 +28730,11 @@
         <f t="shared" si="3"/>
         <v>2.020860495436767E-2</v>
       </c>
-      <c r="E57" s="254"/>
+      <c r="E57" s="268"/>
       <c r="H57" s="194">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I57" s="254"/>
+      <c r="I57" s="268"/>
       <c r="T57" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -28367,17 +28745,17 @@
         <f>V57/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X57" s="254"/>
-      <c r="Z57" s="254"/>
+      <c r="X57" s="268"/>
+      <c r="Z57" s="268"/>
       <c r="AA57" s="195">
         <v>4.2</v>
       </c>
-      <c r="AB57" s="254"/>
-      <c r="AP57" s="249"/>
-      <c r="AQ57" s="249"/>
+      <c r="AB57" s="268"/>
+      <c r="AP57" s="289"/>
+      <c r="AQ57" s="289"/>
     </row>
     <row r="58" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="254"/>
+      <c r="A58" s="268"/>
       <c r="B58" s="177">
         <v>51</v>
       </c>
@@ -28388,11 +28766,11 @@
         <f t="shared" si="3"/>
         <v>5.3455019556714473E-2</v>
       </c>
-      <c r="E58" s="254"/>
+      <c r="E58" s="268"/>
       <c r="H58" s="194">
         <v>15.8</v>
       </c>
-      <c r="I58" s="254"/>
+      <c r="I58" s="268"/>
       <c r="T58" s="177">
         <v>7.3</v>
       </c>
@@ -28403,17 +28781,17 @@
         <f>V58/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X58" s="254"/>
-      <c r="Z58" s="254"/>
+      <c r="X58" s="268"/>
+      <c r="Z58" s="268"/>
       <c r="AA58" s="195">
         <v>6.7</v>
       </c>
-      <c r="AB58" s="254"/>
-      <c r="AP58" s="249"/>
-      <c r="AQ58" s="249"/>
+      <c r="AB58" s="268"/>
+      <c r="AP58" s="289"/>
+      <c r="AQ58" s="289"/>
     </row>
     <row r="59" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="254"/>
+      <c r="A59" s="268"/>
       <c r="B59" s="177">
         <v>53</v>
       </c>
@@ -28424,8 +28802,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E59" s="254"/>
-      <c r="I59" s="254"/>
+      <c r="E59" s="268"/>
+      <c r="I59" s="268"/>
       <c r="T59" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28436,15 +28814,15 @@
         <f>V59/SUM(V48:V67)</f>
         <v>2.542372881355932E-2</v>
       </c>
-      <c r="X59" s="254"/>
-      <c r="Z59" s="254"/>
+      <c r="X59" s="268"/>
+      <c r="Z59" s="268"/>
       <c r="AA59" s="191"/>
-      <c r="AB59" s="254"/>
-      <c r="AP59" s="249"/>
-      <c r="AQ59" s="249"/>
+      <c r="AB59" s="268"/>
+      <c r="AP59" s="289"/>
+      <c r="AQ59" s="289"/>
     </row>
     <row r="60" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="254"/>
+      <c r="A60" s="268"/>
       <c r="B60" s="177">
         <v>56</v>
       </c>
@@ -28455,11 +28833,11 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E60" s="254"/>
+      <c r="E60" s="268"/>
       <c r="H60" s="194">
         <v>11.9</v>
       </c>
-      <c r="I60" s="254"/>
+      <c r="I60" s="268"/>
       <c r="T60" s="177">
         <v>2.9</v>
       </c>
@@ -28470,17 +28848,17 @@
         <f>V60/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="254"/>
-      <c r="Z60" s="254"/>
+      <c r="X60" s="268"/>
+      <c r="Z60" s="268"/>
       <c r="AA60" s="195">
         <v>3.4</v>
       </c>
-      <c r="AB60" s="254"/>
-      <c r="AP60" s="249"/>
-      <c r="AQ60" s="249"/>
+      <c r="AB60" s="268"/>
+      <c r="AP60" s="289"/>
+      <c r="AQ60" s="289"/>
     </row>
     <row r="61" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="254"/>
+      <c r="A61" s="268"/>
       <c r="B61" s="177">
         <v>59</v>
       </c>
@@ -28491,12 +28869,12 @@
         <f t="shared" si="3"/>
         <v>1.3037809647979142E-2</v>
       </c>
-      <c r="E61" s="254"/>
+      <c r="E61" s="268"/>
       <c r="F61" s="236"/>
       <c r="H61" s="194">
         <v>8</v>
       </c>
-      <c r="I61" s="254"/>
+      <c r="I61" s="268"/>
       <c r="T61" s="177">
         <v>0</v>
       </c>
@@ -28507,17 +28885,17 @@
         <f>V61/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X61" s="254"/>
-      <c r="Z61" s="254"/>
+      <c r="X61" s="268"/>
+      <c r="Z61" s="268"/>
       <c r="AA61" s="195">
         <v>2.9</v>
       </c>
-      <c r="AB61" s="254"/>
-      <c r="AP61" s="249"/>
-      <c r="AQ61" s="249"/>
+      <c r="AB61" s="268"/>
+      <c r="AP61" s="289"/>
+      <c r="AQ61" s="289"/>
     </row>
     <row r="62" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="254"/>
+      <c r="A62" s="268"/>
       <c r="B62" s="177">
         <v>66</v>
       </c>
@@ -28528,8 +28906,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E62" s="254"/>
-      <c r="I62" s="254"/>
+      <c r="E62" s="268"/>
+      <c r="I62" s="268"/>
       <c r="T62" s="177">
         <v>10.199999999999999</v>
       </c>
@@ -28540,15 +28918,15 @@
         <f>V62/SUM(V48:V67)</f>
         <v>1.1864406779661016E-2</v>
       </c>
-      <c r="X62" s="254"/>
-      <c r="Z62" s="254"/>
+      <c r="X62" s="268"/>
+      <c r="Z62" s="268"/>
       <c r="AA62" s="191"/>
-      <c r="AB62" s="254"/>
-      <c r="AP62" s="249"/>
-      <c r="AQ62" s="249"/>
+      <c r="AB62" s="268"/>
+      <c r="AP62" s="289"/>
+      <c r="AQ62" s="289"/>
     </row>
     <row r="63" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="254"/>
+      <c r="A63" s="268"/>
       <c r="B63" s="177">
         <v>68</v>
       </c>
@@ -28559,11 +28937,11 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E63" s="254"/>
+      <c r="E63" s="268"/>
       <c r="H63" s="194">
         <v>9.1</v>
       </c>
-      <c r="I63" s="254"/>
+      <c r="I63" s="268"/>
       <c r="T63" s="177">
         <v>2.2000000000000002</v>
       </c>
@@ -28574,17 +28952,17 @@
         <f>V63/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X63" s="254"/>
-      <c r="Z63" s="254"/>
+      <c r="X63" s="268"/>
+      <c r="Z63" s="268"/>
       <c r="AA63" s="177">
         <v>2</v>
       </c>
-      <c r="AB63" s="254"/>
-      <c r="AP63" s="249"/>
-      <c r="AQ63" s="249"/>
+      <c r="AB63" s="268"/>
+      <c r="AP63" s="289"/>
+      <c r="AQ63" s="289"/>
     </row>
     <row r="64" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="254"/>
+      <c r="A64" s="268"/>
       <c r="B64" s="177">
         <v>69</v>
       </c>
@@ -28595,17 +28973,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E64" s="254"/>
-      <c r="I64" s="254"/>
+      <c r="E64" s="268"/>
+      <c r="I64" s="268"/>
       <c r="W64" s="192"/>
-      <c r="X64" s="254"/>
-      <c r="Z64" s="254"/>
-      <c r="AB64" s="254"/>
-      <c r="AP64" s="249"/>
-      <c r="AQ64" s="249"/>
+      <c r="X64" s="268"/>
+      <c r="Z64" s="268"/>
+      <c r="AB64" s="268"/>
+      <c r="AP64" s="289"/>
+      <c r="AQ64" s="289"/>
     </row>
     <row r="65" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="254"/>
+      <c r="A65" s="268"/>
       <c r="B65" s="177">
         <v>70</v>
       </c>
@@ -28616,17 +28994,17 @@
         <f t="shared" si="3"/>
         <v>1.4341590612777056E-2</v>
       </c>
-      <c r="E65" s="254"/>
-      <c r="I65" s="254"/>
+      <c r="E65" s="268"/>
+      <c r="I65" s="268"/>
       <c r="W65" s="192"/>
-      <c r="X65" s="254"/>
-      <c r="Z65" s="254"/>
-      <c r="AB65" s="254"/>
-      <c r="AP65" s="249"/>
-      <c r="AQ65" s="249"/>
+      <c r="X65" s="268"/>
+      <c r="Z65" s="268"/>
+      <c r="AB65" s="268"/>
+      <c r="AP65" s="289"/>
+      <c r="AQ65" s="289"/>
     </row>
     <row r="66" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="254"/>
+      <c r="A66" s="268"/>
       <c r="B66" s="177">
         <v>73</v>
       </c>
@@ -28637,17 +29015,17 @@
         <f t="shared" si="3"/>
         <v>2.6727509778357236E-2</v>
       </c>
-      <c r="E66" s="254"/>
-      <c r="I66" s="254"/>
+      <c r="E66" s="268"/>
+      <c r="I66" s="268"/>
       <c r="W66" s="192"/>
-      <c r="X66" s="254"/>
-      <c r="Z66" s="254"/>
-      <c r="AB66" s="254"/>
-      <c r="AP66" s="249"/>
-      <c r="AQ66" s="249"/>
+      <c r="X66" s="268"/>
+      <c r="Z66" s="268"/>
+      <c r="AB66" s="268"/>
+      <c r="AP66" s="289"/>
+      <c r="AQ66" s="289"/>
     </row>
     <row r="67" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="254"/>
+      <c r="A67" s="268"/>
       <c r="B67" s="177">
         <v>82</v>
       </c>
@@ -28658,8 +29036,8 @@
         <f t="shared" si="3"/>
         <v>3.3246414602346806E-2</v>
       </c>
-      <c r="E67" s="254"/>
-      <c r="I67" s="254"/>
+      <c r="E67" s="268"/>
+      <c r="I67" s="268"/>
       <c r="T67" s="177">
         <v>4.4000000000000004</v>
       </c>
@@ -28670,10 +29048,10 @@
         <f>V67/SUM(V48:V67)</f>
         <v>0</v>
       </c>
-      <c r="X67" s="254"/>
+      <c r="X67" s="268"/>
       <c r="AB67" s="191"/>
-      <c r="AP67" s="249"/>
-      <c r="AQ67" s="249"/>
+      <c r="AP67" s="289"/>
+      <c r="AQ67" s="289"/>
     </row>
     <row r="68" spans="1:43" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="230" t="s">
@@ -28718,7 +29096,7 @@
       <c r="AL68" s="228"/>
     </row>
     <row r="69" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="253" t="s">
+      <c r="A69" s="284" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="177">
@@ -28824,7 +29202,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="254"/>
+      <c r="A70" s="268"/>
       <c r="B70" s="177">
         <v>18</v>
       </c>
@@ -28928,7 +29306,7 @@
       </c>
     </row>
     <row r="71" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="254"/>
+      <c r="A71" s="268"/>
       <c r="B71" s="177">
         <v>31</v>
       </c>
@@ -28939,42 +29317,42 @@
         <f t="shared" si="4"/>
         <v>2.9145728643216084E-2</v>
       </c>
-      <c r="E71" s="258">
+      <c r="E71" s="288">
         <f>SUM(D71:D75)</f>
         <v>0.19296482412060306</v>
       </c>
       <c r="F71" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G71" s="253">
+      <c r="G71" s="284">
         <f>SUM(F71:F75)</f>
         <v>0.17699999999999999</v>
       </c>
       <c r="H71" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I71" s="256">
+      <c r="I71" s="270">
         <f>(SUM(H71:H75)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.17699530516431927</v>
       </c>
       <c r="J71" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K71" s="257">
+      <c r="K71" s="271">
         <f>SUM(J71:J75)/100</f>
         <v>0.217</v>
       </c>
       <c r="L71" s="177">
         <v>3.8</v>
       </c>
-      <c r="M71" s="257">
+      <c r="M71" s="271">
         <f>SUM(L71:L75)/100</f>
         <v>0.20799999999999996</v>
       </c>
       <c r="N71" s="187">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O71" s="265">
+      <c r="O71" s="262">
         <f>SUM(N71:N75)/SUM(N69:N90)</f>
         <v>0.22842639593908629</v>
       </c>
@@ -28989,14 +29367,14 @@
       <c r="Y71" s="177">
         <v>2.6</v>
       </c>
-      <c r="Z71" s="255">
+      <c r="Z71" s="269">
         <f>SUM(Y71:Y75)/100</f>
         <v>0.21899999999999997</v>
       </c>
       <c r="AA71" s="177">
         <v>4</v>
       </c>
-      <c r="AB71" s="255">
+      <c r="AB71" s="269">
         <f>SUM(AA71:AA75)/100</f>
         <v>0.21700000000000003</v>
       </c>
@@ -29004,7 +29382,7 @@
         <f>10/544*100</f>
         <v>1.8382352941176472</v>
       </c>
-      <c r="AD71" s="255">
+      <c r="AD71" s="269">
         <f>SUM(AC71:AC75)/100</f>
         <v>0.16544117647058823</v>
       </c>
@@ -29012,27 +29390,27 @@
         <f>335/8977*100</f>
         <v>3.7317589395120865</v>
       </c>
-      <c r="AF71" s="255">
+      <c r="AF71" s="269">
         <f>SUM(AE71:AE75)/100</f>
         <v>0.1853625932939735</v>
       </c>
       <c r="AI71" s="221">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AJ71" s="278">
+      <c r="AJ71" s="266">
         <f>SUM(AI71:AI75)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>0.1722342342342342</v>
       </c>
       <c r="AK71" s="221">
         <v>0.03</v>
       </c>
-      <c r="AL71" s="278">
+      <c r="AL71" s="266">
         <f>SUM(AK71:AK75)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>0.19617647058823534</v>
       </c>
     </row>
     <row r="72" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="254"/>
+      <c r="A72" s="268"/>
       <c r="B72" s="177">
         <v>33</v>
       </c>
@@ -29043,27 +29421,27 @@
         <f t="shared" si="4"/>
         <v>7.3366834170854281E-2</v>
       </c>
-      <c r="E72" s="254"/>
+      <c r="E72" s="268"/>
       <c r="F72" s="177">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G72" s="254"/>
+      <c r="G72" s="268"/>
       <c r="H72" s="177">
         <v>5.2</v>
       </c>
-      <c r="I72" s="254"/>
+      <c r="I72" s="268"/>
       <c r="J72" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K72" s="254"/>
+      <c r="K72" s="268"/>
       <c r="L72" s="177">
         <v>5.7</v>
       </c>
-      <c r="M72" s="254"/>
+      <c r="M72" s="268"/>
       <c r="N72" s="176">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O72" s="266"/>
+      <c r="O72" s="263"/>
       <c r="P72" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29075,32 +29453,32 @@
       <c r="Y72" s="177">
         <v>3.6</v>
       </c>
-      <c r="Z72" s="254"/>
+      <c r="Z72" s="268"/>
       <c r="AA72" s="177">
         <v>4.5</v>
       </c>
-      <c r="AB72" s="254"/>
+      <c r="AB72" s="268"/>
       <c r="AC72" s="183">
         <f>8/544*100</f>
         <v>1.4705882352941175</v>
       </c>
-      <c r="AD72" s="254"/>
+      <c r="AD72" s="268"/>
       <c r="AE72" s="182">
         <f>345/8977*100</f>
         <v>3.8431547287512533</v>
       </c>
-      <c r="AF72" s="254"/>
+      <c r="AF72" s="268"/>
       <c r="AI72" s="221">
         <v>4.7E-2</v>
       </c>
-      <c r="AJ72" s="273"/>
+      <c r="AJ72" s="265"/>
       <c r="AK72" s="221">
         <v>0.06</v>
       </c>
-      <c r="AL72" s="273"/>
+      <c r="AL72" s="265"/>
     </row>
     <row r="73" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="254"/>
+      <c r="A73" s="268"/>
       <c r="B73" s="177">
         <v>45</v>
       </c>
@@ -29111,27 +29489,27 @@
         <f t="shared" si="4"/>
         <v>5.6281407035175882E-2</v>
       </c>
-      <c r="E73" s="254"/>
+      <c r="E73" s="268"/>
       <c r="F73" s="177">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G73" s="254"/>
+      <c r="G73" s="268"/>
       <c r="H73" s="177">
         <v>15.5</v>
       </c>
-      <c r="I73" s="254"/>
+      <c r="I73" s="268"/>
       <c r="J73" s="177">
         <v>15.1</v>
       </c>
-      <c r="K73" s="254"/>
+      <c r="K73" s="268"/>
       <c r="L73" s="177">
         <v>4.7</v>
       </c>
-      <c r="M73" s="254"/>
+      <c r="M73" s="268"/>
       <c r="N73" s="176">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O73" s="266"/>
+      <c r="O73" s="263"/>
       <c r="P73" s="182">
         <f>13/77*100</f>
         <v>16.883116883116884</v>
@@ -29143,32 +29521,32 @@
       <c r="Y73" s="177">
         <v>11</v>
       </c>
-      <c r="Z73" s="254"/>
+      <c r="Z73" s="268"/>
       <c r="AA73" s="177">
         <v>5.3</v>
       </c>
-      <c r="AB73" s="254"/>
+      <c r="AB73" s="268"/>
       <c r="AC73" s="183">
         <f>54/544*100</f>
         <v>9.9264705882352935</v>
       </c>
-      <c r="AD73" s="254"/>
+      <c r="AD73" s="268"/>
       <c r="AE73" s="182">
         <f>528/8977*100</f>
         <v>5.8816976718280047</v>
       </c>
-      <c r="AF73" s="254"/>
+      <c r="AF73" s="268"/>
       <c r="AI73" s="221">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AJ73" s="273"/>
+      <c r="AJ73" s="265"/>
       <c r="AK73" s="221">
         <v>0.08</v>
       </c>
-      <c r="AL73" s="273"/>
+      <c r="AL73" s="265"/>
     </row>
     <row r="74" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="254"/>
+      <c r="A74" s="268"/>
       <c r="B74" s="177">
         <v>52</v>
       </c>
@@ -29179,27 +29557,27 @@
         <f t="shared" si="4"/>
         <v>2.1105527638190957E-2</v>
       </c>
-      <c r="E74" s="254"/>
+      <c r="E74" s="268"/>
       <c r="F74" s="177">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G74" s="254"/>
+      <c r="G74" s="268"/>
       <c r="H74" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I74" s="254"/>
+      <c r="I74" s="268"/>
       <c r="J74" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K74" s="254"/>
+      <c r="K74" s="268"/>
       <c r="L74" s="177">
         <v>4.7</v>
       </c>
-      <c r="M74" s="254"/>
+      <c r="M74" s="268"/>
       <c r="N74" s="176">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O74" s="266"/>
+      <c r="O74" s="263"/>
       <c r="P74" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29211,32 +29589,32 @@
       <c r="Y74" s="177">
         <v>3.4</v>
       </c>
-      <c r="Z74" s="254"/>
+      <c r="Z74" s="268"/>
       <c r="AA74" s="177">
         <v>3.5</v>
       </c>
-      <c r="AB74" s="254"/>
+      <c r="AB74" s="268"/>
       <c r="AC74" s="183">
         <f>14/544*100</f>
         <v>2.5735294117647056</v>
       </c>
-      <c r="AD74" s="254"/>
+      <c r="AD74" s="268"/>
       <c r="AE74" s="182">
         <f>253/8977*100</f>
         <v>2.8183134677509192</v>
       </c>
-      <c r="AF74" s="254"/>
+      <c r="AF74" s="268"/>
       <c r="AI74" s="221">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ74" s="273"/>
+      <c r="AJ74" s="265"/>
       <c r="AK74" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL74" s="273"/>
+      <c r="AL74" s="265"/>
     </row>
     <row r="75" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="254"/>
+      <c r="A75" s="268"/>
       <c r="B75" s="177">
         <v>58</v>
       </c>
@@ -29247,27 +29625,27 @@
         <f t="shared" si="4"/>
         <v>1.3065326633165831E-2</v>
       </c>
-      <c r="E75" s="254"/>
+      <c r="E75" s="268"/>
       <c r="F75" s="177">
         <v>0</v>
       </c>
-      <c r="G75" s="254"/>
+      <c r="G75" s="268"/>
       <c r="H75" s="177">
         <v>8.1</v>
       </c>
-      <c r="I75" s="254"/>
+      <c r="I75" s="268"/>
       <c r="J75" s="177">
         <v>0</v>
       </c>
-      <c r="K75" s="254"/>
+      <c r="K75" s="268"/>
       <c r="L75" s="177">
         <v>1.9</v>
       </c>
-      <c r="M75" s="254"/>
+      <c r="M75" s="268"/>
       <c r="N75" s="176">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O75" s="266"/>
+      <c r="O75" s="263"/>
       <c r="P75" s="182">
         <f>8/77*100</f>
         <v>10.38961038961039</v>
@@ -29279,32 +29657,32 @@
       <c r="Y75" s="177">
         <v>1.3</v>
       </c>
-      <c r="Z75" s="254"/>
+      <c r="Z75" s="268"/>
       <c r="AA75" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB75" s="254"/>
+      <c r="AB75" s="268"/>
       <c r="AC75" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD75" s="254"/>
+      <c r="AD75" s="268"/>
       <c r="AE75" s="182">
         <f>203/8977*100</f>
         <v>2.2613345215550851</v>
       </c>
-      <c r="AF75" s="254"/>
+      <c r="AF75" s="268"/>
       <c r="AI75" s="221">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AJ75" s="273"/>
+      <c r="AJ75" s="265"/>
       <c r="AK75" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL75" s="273"/>
+      <c r="AL75" s="265"/>
     </row>
     <row r="76" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="253" t="s">
+      <c r="A76" s="284" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="177">
@@ -29317,28 +29695,28 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E76" s="258">
+      <c r="E76" s="288">
         <f>SUM(D76:D88)</f>
         <v>0.16180904522613065</v>
       </c>
-      <c r="G76" s="253">
+      <c r="G76" s="284">
         <f>SUM(F77:F89)</f>
         <v>0.16700000000000001</v>
       </c>
-      <c r="I76" s="256">
+      <c r="I76" s="270">
         <f>(SUM(H76:H90)/SUM(H71:H90))*(1-SUM(I69:I70))</f>
         <v>0.11300469483568076</v>
       </c>
-      <c r="K76" s="257">
+      <c r="K76" s="271">
         <f>SUM(J76:J89)/100</f>
         <v>0.10899999999999999</v>
       </c>
-      <c r="M76" s="257">
+      <c r="M76" s="271">
         <f>SUM(L76:L89)/100</f>
         <v>0.12200000000000001</v>
       </c>
       <c r="N76" s="187"/>
-      <c r="O76" s="265">
+      <c r="O76" s="262">
         <f>SUM(N76:N90)/SUM(N69:N90)</f>
         <v>0.10761421319796954</v>
       </c>
@@ -29346,16 +29724,16 @@
       <c r="Q76" s="232"/>
       <c r="R76" s="182"/>
       <c r="S76" s="232"/>
-      <c r="Z76" s="255">
+      <c r="Z76" s="269">
         <f>1-SUM(Z69:Z75)</f>
         <v>5.1999999999999935E-2</v>
       </c>
-      <c r="AB76" s="255">
+      <c r="AB76" s="269">
         <f>1-SUM(AB69:AB75)</f>
         <v>0</v>
       </c>
       <c r="AC76" s="182"/>
-      <c r="AD76" s="255">
+      <c r="AD76" s="269">
         <f>1-SUM(AD69:AD75)</f>
         <v>0.13235294117647067</v>
       </c>
@@ -29363,21 +29741,21 @@
         <f>31/8977*100</f>
         <v>0.34532694664141694</v>
       </c>
-      <c r="AF76" s="255">
+      <c r="AF76" s="269">
         <f>1-SUM(AF69:AF75)</f>
         <v>0.10649437451264343</v>
       </c>
-      <c r="AJ76" s="278">
+      <c r="AJ76" s="266">
         <f>SUM(AI76:AI90)/SUM(AI71:AI90) * (1-SUM(AJ69:AJ70))</f>
         <v>6.9765765765765764E-2</v>
       </c>
-      <c r="AL76" s="278">
+      <c r="AL76" s="266">
         <f>SUM(AK76:AK90)/SUM(AK71:AK90) * (1-SUM(AL69:AL70))</f>
         <v>9.3823529411764722E-2</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="254"/>
+      <c r="A77" s="268"/>
       <c r="B77" s="177">
         <v>35</v>
       </c>
@@ -29388,27 +29766,27 @@
         <f t="shared" si="4"/>
         <v>6.0301507537688454E-2</v>
       </c>
-      <c r="E77" s="254"/>
+      <c r="E77" s="268"/>
       <c r="F77" s="177">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G77" s="254"/>
+      <c r="G77" s="268"/>
       <c r="H77" s="177">
         <v>7.7</v>
       </c>
-      <c r="I77" s="254"/>
+      <c r="I77" s="268"/>
       <c r="J77" s="177">
         <v>6.5</v>
       </c>
-      <c r="K77" s="257"/>
+      <c r="K77" s="271"/>
       <c r="L77" s="177">
         <v>9.5</v>
       </c>
-      <c r="M77" s="257"/>
+      <c r="M77" s="271"/>
       <c r="N77" s="176">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="O77" s="266"/>
+      <c r="O77" s="263"/>
       <c r="P77" s="182">
         <f>7/77*100</f>
         <v>9.0909090909090917</v>
@@ -29420,32 +29798,32 @@
       <c r="Y77" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z77" s="254"/>
+      <c r="Z77" s="268"/>
       <c r="AA77" s="177">
         <v>1.7</v>
       </c>
-      <c r="AB77" s="254"/>
+      <c r="AB77" s="268"/>
       <c r="AC77" s="183">
         <f>27/544*100</f>
         <v>4.9632352941176467</v>
       </c>
-      <c r="AD77" s="254"/>
+      <c r="AD77" s="268"/>
       <c r="AE77" s="182">
         <f>175/8977*100</f>
         <v>1.9494263116854185</v>
       </c>
-      <c r="AF77" s="254"/>
+      <c r="AF77" s="268"/>
       <c r="AI77" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ77" s="273"/>
+      <c r="AJ77" s="265"/>
       <c r="AK77" s="221">
         <v>0.05</v>
       </c>
-      <c r="AL77" s="273"/>
+      <c r="AL77" s="265"/>
     </row>
     <row r="78" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="254"/>
+      <c r="A78" s="268"/>
       <c r="B78" s="177">
         <v>39</v>
       </c>
@@ -29456,15 +29834,15 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E78" s="254"/>
-      <c r="G78" s="254"/>
+      <c r="E78" s="268"/>
+      <c r="G78" s="268"/>
       <c r="H78" s="177">
         <v>3.3</v>
       </c>
-      <c r="I78" s="254"/>
-      <c r="K78" s="257"/>
-      <c r="M78" s="257"/>
-      <c r="O78" s="266"/>
+      <c r="I78" s="268"/>
+      <c r="K78" s="271"/>
+      <c r="M78" s="271"/>
+      <c r="O78" s="263"/>
       <c r="P78" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29473,29 +29851,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z78" s="254"/>
+      <c r="Z78" s="268"/>
       <c r="AA78" s="177">
         <v>1.4</v>
       </c>
-      <c r="AB78" s="254"/>
+      <c r="AB78" s="268"/>
       <c r="AC78" s="183">
         <f>3/544*100</f>
         <v>0.55147058823529416</v>
       </c>
-      <c r="AD78" s="254"/>
+      <c r="AD78" s="268"/>
       <c r="AE78" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF78" s="254"/>
+      <c r="AF78" s="268"/>
       <c r="AI78" s="221">
         <v>1.6E-2</v>
       </c>
-      <c r="AJ78" s="273"/>
-      <c r="AL78" s="273"/>
+      <c r="AJ78" s="265"/>
+      <c r="AL78" s="265"/>
     </row>
     <row r="79" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="254"/>
+      <c r="A79" s="268"/>
       <c r="B79" s="177">
         <v>51</v>
       </c>
@@ -29506,25 +29884,25 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E79" s="254"/>
+      <c r="E79" s="268"/>
       <c r="F79" s="177"/>
-      <c r="G79" s="254"/>
+      <c r="G79" s="268"/>
       <c r="H79" s="177">
         <v>4.8</v>
       </c>
-      <c r="I79" s="254"/>
+      <c r="I79" s="268"/>
       <c r="J79" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K79" s="257"/>
+      <c r="K79" s="271"/>
       <c r="L79" s="177">
         <v>0</v>
       </c>
-      <c r="M79" s="257"/>
+      <c r="M79" s="271"/>
       <c r="N79" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O79" s="266"/>
+      <c r="O79" s="263"/>
       <c r="P79" s="182">
         <f>2/77*100</f>
         <v>2.5974025974025974</v>
@@ -29533,32 +29911,32 @@
         <f>4/154*100</f>
         <v>2.5974025974025974</v>
       </c>
-      <c r="Z79" s="254"/>
+      <c r="Z79" s="268"/>
       <c r="AA79" s="177">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB79" s="254"/>
+      <c r="AB79" s="268"/>
       <c r="AC79" s="183">
         <f>13/544*100</f>
         <v>2.3897058823529411</v>
       </c>
-      <c r="AD79" s="254"/>
+      <c r="AD79" s="268"/>
       <c r="AE79" s="182">
         <f>114/8977*100</f>
         <v>1.269911997326501</v>
       </c>
-      <c r="AF79" s="254"/>
+      <c r="AF79" s="268"/>
       <c r="AI79" s="221">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ79" s="273"/>
+      <c r="AJ79" s="265"/>
       <c r="AK79" s="221">
         <v>0.04</v>
       </c>
-      <c r="AL79" s="273"/>
+      <c r="AL79" s="265"/>
     </row>
     <row r="80" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="254"/>
+      <c r="A80" s="268"/>
       <c r="B80" s="177">
         <v>53</v>
       </c>
@@ -29569,32 +29947,32 @@
         <f t="shared" si="4"/>
         <v>1.6080402010050253E-2</v>
       </c>
-      <c r="E80" s="254"/>
+      <c r="E80" s="268"/>
       <c r="F80" s="177"/>
-      <c r="G80" s="254"/>
-      <c r="I80" s="254"/>
-      <c r="K80" s="257"/>
-      <c r="M80" s="257"/>
-      <c r="O80" s="266"/>
+      <c r="G80" s="268"/>
+      <c r="I80" s="268"/>
+      <c r="K80" s="271"/>
+      <c r="M80" s="271"/>
+      <c r="O80" s="263"/>
       <c r="P80" s="182"/>
       <c r="R80" s="182"/>
-      <c r="Z80" s="254"/>
-      <c r="AB80" s="254"/>
+      <c r="Z80" s="268"/>
+      <c r="AB80" s="268"/>
       <c r="AC80" s="182"/>
-      <c r="AD80" s="254"/>
+      <c r="AD80" s="268"/>
       <c r="AE80" s="182">
         <f>24/8977*100</f>
         <v>0.26734989417400024</v>
       </c>
-      <c r="AF80" s="254"/>
+      <c r="AF80" s="268"/>
       <c r="AI80" s="221">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ80" s="273"/>
-      <c r="AL80" s="273"/>
+      <c r="AJ80" s="265"/>
+      <c r="AL80" s="265"/>
     </row>
     <row r="81" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="254"/>
+      <c r="A81" s="268"/>
       <c r="B81" s="177">
         <v>56</v>
       </c>
@@ -29605,25 +29983,25 @@
         <f t="shared" si="4"/>
         <v>7.0351758793969852E-3</v>
       </c>
-      <c r="E81" s="254"/>
+      <c r="E81" s="268"/>
       <c r="F81" s="177"/>
-      <c r="G81" s="254"/>
+      <c r="G81" s="268"/>
       <c r="H81" s="177">
         <v>3</v>
       </c>
-      <c r="I81" s="254"/>
+      <c r="I81" s="268"/>
       <c r="J81" s="177">
         <v>0</v>
       </c>
-      <c r="K81" s="257"/>
+      <c r="K81" s="271"/>
       <c r="L81" s="177">
         <v>0.9</v>
       </c>
-      <c r="M81" s="257"/>
+      <c r="M81" s="271"/>
       <c r="N81" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O81" s="266"/>
+      <c r="O81" s="263"/>
       <c r="P81" s="183">
         <v>0</v>
       </c>
@@ -29631,29 +30009,29 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z81" s="254"/>
+      <c r="Z81" s="268"/>
       <c r="AA81" s="177">
         <v>0.9</v>
       </c>
-      <c r="AB81" s="254"/>
+      <c r="AB81" s="268"/>
       <c r="AC81" s="183">
         <f>4/544*100</f>
         <v>0.73529411764705876</v>
       </c>
-      <c r="AD81" s="254"/>
+      <c r="AD81" s="268"/>
       <c r="AE81" s="182">
         <f>75/8977*100</f>
         <v>0.83546841929375071</v>
       </c>
-      <c r="AF81" s="254"/>
+      <c r="AF81" s="268"/>
       <c r="AI81" s="221">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ81" s="273"/>
-      <c r="AL81" s="273"/>
+      <c r="AJ81" s="265"/>
+      <c r="AL81" s="265"/>
     </row>
     <row r="82" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="254"/>
+      <c r="A82" s="268"/>
       <c r="B82" s="177">
         <v>59</v>
       </c>
@@ -29664,16 +30042,16 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E82" s="254"/>
+      <c r="E82" s="268"/>
       <c r="F82" s="177"/>
-      <c r="G82" s="254"/>
+      <c r="G82" s="268"/>
       <c r="H82" s="177">
         <v>3</v>
       </c>
-      <c r="I82" s="254"/>
-      <c r="K82" s="257"/>
-      <c r="M82" s="257"/>
-      <c r="O82" s="266"/>
+      <c r="I82" s="268"/>
+      <c r="K82" s="271"/>
+      <c r="M82" s="271"/>
+      <c r="O82" s="263"/>
       <c r="P82" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29681,29 +30059,29 @@
       <c r="R82" s="183">
         <v>0</v>
       </c>
-      <c r="Z82" s="254"/>
+      <c r="Z82" s="268"/>
       <c r="AA82" s="177">
         <v>1.3</v>
       </c>
-      <c r="AB82" s="254"/>
+      <c r="AB82" s="268"/>
       <c r="AC82" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD82" s="254"/>
+      <c r="AD82" s="268"/>
       <c r="AE82" s="182">
         <f>95/8977*100</f>
         <v>1.0582599977720841</v>
       </c>
-      <c r="AF82" s="254"/>
+      <c r="AF82" s="268"/>
       <c r="AI82" s="221">
         <v>1.4E-2</v>
       </c>
-      <c r="AJ82" s="273"/>
-      <c r="AL82" s="273"/>
+      <c r="AJ82" s="265"/>
+      <c r="AL82" s="265"/>
     </row>
     <row r="83" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="254"/>
+      <c r="A83" s="268"/>
       <c r="B83" s="177">
         <v>66</v>
       </c>
@@ -29714,35 +30092,35 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E83" s="254"/>
+      <c r="E83" s="268"/>
       <c r="F83" s="177"/>
-      <c r="G83" s="254"/>
-      <c r="I83" s="254"/>
-      <c r="K83" s="257"/>
-      <c r="M83" s="257"/>
-      <c r="O83" s="266"/>
+      <c r="G83" s="268"/>
+      <c r="I83" s="268"/>
+      <c r="K83" s="271"/>
+      <c r="M83" s="271"/>
+      <c r="O83" s="263"/>
       <c r="P83" s="182"/>
       <c r="R83" s="182"/>
-      <c r="Z83" s="254"/>
-      <c r="AB83" s="254"/>
+      <c r="Z83" s="268"/>
+      <c r="AB83" s="268"/>
       <c r="AC83" s="182">
         <f>2/544*100</f>
         <v>0.36764705882352938</v>
       </c>
-      <c r="AD83" s="254"/>
+      <c r="AD83" s="268"/>
       <c r="AE83" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF83" s="254"/>
+      <c r="AF83" s="268"/>
       <c r="AI83" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ83" s="273"/>
-      <c r="AL83" s="273"/>
+      <c r="AJ83" s="265"/>
+      <c r="AL83" s="265"/>
     </row>
     <row r="84" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="254"/>
+      <c r="A84" s="268"/>
       <c r="B84" s="177">
         <v>68</v>
       </c>
@@ -29753,18 +30131,18 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E84" s="254"/>
+      <c r="E84" s="268"/>
       <c r="F84" s="177">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G84" s="254"/>
+      <c r="G84" s="268"/>
       <c r="H84" s="177">
         <v>3.1</v>
       </c>
-      <c r="I84" s="254"/>
-      <c r="K84" s="257"/>
-      <c r="M84" s="257"/>
-      <c r="O84" s="266"/>
+      <c r="I84" s="268"/>
+      <c r="K84" s="271"/>
+      <c r="M84" s="271"/>
+      <c r="O84" s="263"/>
       <c r="P84" s="183">
         <v>0</v>
       </c>
@@ -29772,32 +30150,32 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z84" s="254"/>
+      <c r="Z84" s="268"/>
       <c r="AA84" s="177">
         <v>0.6</v>
       </c>
-      <c r="AB84" s="254"/>
+      <c r="AB84" s="268"/>
       <c r="AC84" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD84" s="254"/>
+      <c r="AD84" s="268"/>
       <c r="AE84" s="182">
         <f>59/8977*100</f>
         <v>0.65723515651108388</v>
       </c>
-      <c r="AF84" s="254"/>
+      <c r="AF84" s="268"/>
       <c r="AI84" s="221">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ84" s="273"/>
+      <c r="AJ84" s="265"/>
       <c r="AK84" s="221">
         <v>0.02</v>
       </c>
-      <c r="AL84" s="273"/>
+      <c r="AL84" s="265"/>
     </row>
     <row r="85" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="254"/>
+      <c r="A85" s="268"/>
       <c r="B85" s="177">
         <v>69</v>
       </c>
@@ -29808,38 +30186,38 @@
         <f t="shared" si="4"/>
         <v>1.5075376884422113E-2</v>
       </c>
-      <c r="E85" s="254"/>
+      <c r="E85" s="268"/>
       <c r="F85" s="177"/>
-      <c r="G85" s="254"/>
-      <c r="I85" s="254"/>
+      <c r="G85" s="268"/>
+      <c r="I85" s="268"/>
       <c r="J85" s="177">
         <v>0</v>
       </c>
-      <c r="K85" s="257"/>
+      <c r="K85" s="271"/>
       <c r="L85" s="177">
         <v>0.9</v>
       </c>
-      <c r="M85" s="257"/>
-      <c r="O85" s="266"/>
+      <c r="M85" s="271"/>
+      <c r="O85" s="263"/>
       <c r="P85" s="182"/>
       <c r="R85" s="182"/>
-      <c r="Z85" s="254"/>
-      <c r="AB85" s="254"/>
+      <c r="Z85" s="268"/>
+      <c r="AB85" s="268"/>
       <c r="AC85" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD85" s="254"/>
+      <c r="AD85" s="268"/>
       <c r="AE85" s="182">
         <f>7/8977*100</f>
         <v>7.7977052467416735E-2</v>
       </c>
-      <c r="AF85" s="254"/>
-      <c r="AJ85" s="273"/>
-      <c r="AL85" s="273"/>
+      <c r="AF85" s="268"/>
+      <c r="AJ85" s="265"/>
+      <c r="AL85" s="265"/>
     </row>
     <row r="86" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="254"/>
+      <c r="A86" s="268"/>
       <c r="B86" s="177">
         <v>70</v>
       </c>
@@ -29850,38 +30228,38 @@
         <f t="shared" si="4"/>
         <v>8.0402010050251264E-3</v>
       </c>
-      <c r="E86" s="254"/>
+      <c r="E86" s="268"/>
       <c r="F86" s="177"/>
-      <c r="G86" s="254"/>
-      <c r="I86" s="254"/>
+      <c r="G86" s="268"/>
+      <c r="I86" s="268"/>
       <c r="J86" s="177">
         <v>0</v>
       </c>
-      <c r="K86" s="257"/>
+      <c r="K86" s="271"/>
       <c r="L86" s="177">
         <v>0.9</v>
       </c>
-      <c r="M86" s="257"/>
-      <c r="O86" s="266"/>
+      <c r="M86" s="271"/>
+      <c r="O86" s="263"/>
       <c r="P86" s="182"/>
       <c r="R86" s="182"/>
-      <c r="Z86" s="254"/>
-      <c r="AB86" s="254"/>
+      <c r="Z86" s="268"/>
+      <c r="AB86" s="268"/>
       <c r="AC86" s="182"/>
-      <c r="AD86" s="254"/>
+      <c r="AD86" s="268"/>
       <c r="AE86" s="182">
         <f>9/8977*100</f>
         <v>0.10025621031525009</v>
       </c>
-      <c r="AF86" s="254"/>
+      <c r="AF86" s="268"/>
       <c r="AI86" s="221">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AJ86" s="273"/>
-      <c r="AL86" s="273"/>
+      <c r="AJ86" s="265"/>
+      <c r="AL86" s="265"/>
     </row>
     <row r="87" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="254"/>
+      <c r="A87" s="268"/>
       <c r="B87" s="177">
         <v>73</v>
       </c>
@@ -29892,24 +30270,24 @@
         <f t="shared" si="4"/>
         <v>5.0251256281407045E-3</v>
       </c>
-      <c r="E87" s="254"/>
+      <c r="E87" s="268"/>
       <c r="F87" s="177">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G87" s="254"/>
-      <c r="I87" s="254"/>
+      <c r="G87" s="268"/>
+      <c r="I87" s="268"/>
       <c r="J87" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K87" s="257"/>
+      <c r="K87" s="271"/>
       <c r="L87" s="177">
         <v>0</v>
       </c>
-      <c r="M87" s="257"/>
+      <c r="M87" s="271"/>
       <c r="N87" s="176">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O87" s="266"/>
+      <c r="O87" s="263"/>
       <c r="P87" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29918,26 +30296,26 @@
         <f>1/154*100</f>
         <v>0.64935064935064934</v>
       </c>
-      <c r="Z87" s="254"/>
-      <c r="AB87" s="254"/>
+      <c r="Z87" s="268"/>
+      <c r="AB87" s="268"/>
       <c r="AC87" s="182">
         <f>1/544*100</f>
         <v>0.18382352941176469</v>
       </c>
-      <c r="AD87" s="254"/>
+      <c r="AD87" s="268"/>
       <c r="AE87" s="182">
         <f>43/8977*100</f>
         <v>0.47900189372841706</v>
       </c>
-      <c r="AF87" s="254"/>
+      <c r="AF87" s="268"/>
       <c r="AI87" s="221">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AJ87" s="273"/>
-      <c r="AL87" s="273"/>
+      <c r="AJ87" s="265"/>
+      <c r="AL87" s="265"/>
     </row>
     <row r="88" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="254"/>
+      <c r="A88" s="268"/>
       <c r="B88" s="177">
         <v>82</v>
       </c>
@@ -29948,19 +30326,19 @@
         <f t="shared" si="4"/>
         <v>1.0050251256281409E-2</v>
       </c>
-      <c r="E88" s="254"/>
+      <c r="E88" s="268"/>
       <c r="F88" s="177"/>
-      <c r="G88" s="254"/>
-      <c r="I88" s="254"/>
+      <c r="G88" s="268"/>
+      <c r="I88" s="268"/>
       <c r="J88" s="177">
         <v>0</v>
       </c>
-      <c r="K88" s="257"/>
+      <c r="K88" s="271"/>
       <c r="L88" s="177">
         <v>0</v>
       </c>
-      <c r="M88" s="257"/>
-      <c r="O88" s="266"/>
+      <c r="M88" s="271"/>
+      <c r="O88" s="263"/>
       <c r="P88" s="182">
         <f>1/77*100</f>
         <v>1.2987012987012987</v>
@@ -29969,20 +30347,20 @@
         <f>2/154*100</f>
         <v>1.2987012987012987</v>
       </c>
-      <c r="Z88" s="254"/>
-      <c r="AB88" s="254"/>
+      <c r="Z88" s="268"/>
+      <c r="AB88" s="268"/>
       <c r="AC88" s="182"/>
-      <c r="AD88" s="254"/>
+      <c r="AD88" s="268"/>
       <c r="AE88" s="182">
         <f>6/8977*100</f>
         <v>6.6837473543500059E-2</v>
       </c>
-      <c r="AF88" s="254"/>
-      <c r="AJ88" s="273"/>
-      <c r="AL88" s="273"/>
+      <c r="AF88" s="268"/>
+      <c r="AJ88" s="265"/>
+      <c r="AL88" s="265"/>
     </row>
     <row r="89" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="254"/>
+      <c r="A89" s="268"/>
       <c r="B89" s="177" t="s">
         <v>309</v>
       </c>
@@ -29993,24 +30371,24 @@
         <f>0.011 + 0.006 + 0.006 + 0.006</f>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="G89" s="254"/>
-      <c r="I89" s="254"/>
-      <c r="K89" s="257"/>
-      <c r="M89" s="257"/>
-      <c r="O89" s="266"/>
+      <c r="G89" s="268"/>
+      <c r="I89" s="268"/>
+      <c r="K89" s="271"/>
+      <c r="M89" s="271"/>
+      <c r="O89" s="263"/>
       <c r="P89" s="182"/>
       <c r="R89" s="182"/>
-      <c r="Z89" s="254"/>
-      <c r="AB89" s="254"/>
+      <c r="Z89" s="268"/>
+      <c r="AB89" s="268"/>
       <c r="AC89" s="182"/>
-      <c r="AD89" s="254"/>
+      <c r="AD89" s="268"/>
       <c r="AE89" s="182"/>
-      <c r="AF89" s="254"/>
+      <c r="AF89" s="268"/>
       <c r="AI89" s="221">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ89" s="273"/>
-      <c r="AL89" s="273"/>
+      <c r="AJ89" s="265"/>
+      <c r="AL89" s="265"/>
     </row>
     <row r="90" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="177"/>
@@ -30023,7 +30401,7 @@
       <c r="F90" s="177"/>
       <c r="G90" s="177"/>
       <c r="H90" s="177"/>
-      <c r="I90" s="254"/>
+      <c r="I90" s="268"/>
       <c r="J90" s="182">
         <f>1/46*100</f>
         <v>2.1739130434782608</v>
@@ -30032,7 +30410,7 @@
         <f>2/106*100</f>
         <v>1.8867924528301887</v>
       </c>
-      <c r="O90" s="266"/>
+      <c r="O90" s="263"/>
       <c r="P90" s="183">
         <f>32/77*100</f>
         <v>41.558441558441558</v>
@@ -30042,20 +30420,20 @@
         <v>23.376623376623375</v>
       </c>
       <c r="S90" s="177"/>
-      <c r="Z90" s="254"/>
-      <c r="AB90" s="254"/>
+      <c r="Z90" s="268"/>
+      <c r="AB90" s="268"/>
       <c r="AC90" s="182">
         <f>15/544*100</f>
         <v>2.7573529411764706</v>
       </c>
-      <c r="AD90" s="254"/>
+      <c r="AD90" s="268"/>
       <c r="AE90" s="182">
         <f>143/8977*100</f>
         <v>1.5929597861200846</v>
       </c>
-      <c r="AF90" s="254"/>
-      <c r="AJ90" s="273"/>
-      <c r="AL90" s="273"/>
+      <c r="AF90" s="268"/>
+      <c r="AJ90" s="265"/>
+      <c r="AL90" s="265"/>
     </row>
     <row r="91" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="230" t="s">
@@ -30100,7 +30478,7 @@
       <c r="AL91" s="228"/>
     </row>
     <row r="92" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="253" t="s">
+      <c r="A92" s="284" t="s">
         <v>306</v>
       </c>
       <c r="B92" s="177">
@@ -30122,7 +30500,7 @@
       </c>
     </row>
     <row r="93" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="254"/>
+      <c r="A93" s="268"/>
       <c r="B93" s="177">
         <v>18</v>
       </c>
@@ -30142,236 +30520,236 @@
       </c>
     </row>
     <row r="94" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="254"/>
+      <c r="A94" s="268"/>
       <c r="B94" s="177">
         <v>31</v>
       </c>
       <c r="H94" s="177">
         <v>6.8</v>
       </c>
-      <c r="I94" s="256">
+      <c r="I94" s="270">
         <f>(SUM(H94:H98)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.3216134598792062</v>
       </c>
       <c r="AA94" s="177">
         <v>11.8</v>
       </c>
-      <c r="AB94" s="255">
+      <c r="AB94" s="269">
         <f>SUM(AA94:AA98)/100</f>
         <v>0.43799999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="254"/>
+      <c r="A95" s="268"/>
       <c r="B95" s="177">
         <v>33</v>
       </c>
       <c r="H95" s="177">
         <v>8.9</v>
       </c>
-      <c r="I95" s="254"/>
+      <c r="I95" s="268"/>
       <c r="AA95" s="177">
         <v>6.1</v>
       </c>
-      <c r="AB95" s="254"/>
+      <c r="AB95" s="268"/>
     </row>
     <row r="96" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="254"/>
+      <c r="A96" s="268"/>
       <c r="B96" s="177">
         <v>45</v>
       </c>
       <c r="H96" s="177">
         <v>9.9</v>
       </c>
-      <c r="I96" s="254"/>
+      <c r="I96" s="268"/>
       <c r="AA96" s="177">
         <v>4.2</v>
       </c>
-      <c r="AB96" s="254"/>
+      <c r="AB96" s="268"/>
     </row>
     <row r="97" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="254"/>
+      <c r="A97" s="268"/>
       <c r="B97" s="177">
         <v>52</v>
       </c>
       <c r="H97" s="177">
         <v>12.8</v>
       </c>
-      <c r="I97" s="254"/>
+      <c r="I97" s="268"/>
       <c r="AA97" s="177">
         <v>13.8</v>
       </c>
-      <c r="AB97" s="254"/>
+      <c r="AB97" s="268"/>
     </row>
     <row r="98" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="254"/>
+      <c r="A98" s="268"/>
       <c r="B98" s="177">
         <v>58</v>
       </c>
       <c r="H98" s="177">
         <v>14.1</v>
       </c>
-      <c r="I98" s="254"/>
+      <c r="I98" s="268"/>
       <c r="AA98" s="177">
         <v>7.9</v>
       </c>
-      <c r="AB98" s="254"/>
+      <c r="AB98" s="268"/>
     </row>
     <row r="99" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="253" t="s">
+      <c r="A99" s="284" t="s">
         <v>304</v>
       </c>
       <c r="B99" s="177">
         <v>26</v>
       </c>
-      <c r="I99" s="256">
+      <c r="I99" s="270">
         <f>(SUM(H99:H112)/SUM(H94:H112))*(1-SUM(I92:I93))</f>
         <v>0.38838654012079366</v>
       </c>
-      <c r="AB99" s="255">
+      <c r="AB99" s="269">
         <f>1-SUM(AB92:AB98)</f>
         <v>0.19600000000000006</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="254"/>
+      <c r="A100" s="268"/>
       <c r="B100" s="177">
         <v>35</v>
       </c>
       <c r="H100" s="177">
         <v>16.2</v>
       </c>
-      <c r="I100" s="254"/>
+      <c r="I100" s="268"/>
       <c r="AA100" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB100" s="254"/>
+      <c r="AB100" s="268"/>
     </row>
     <row r="101" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="254"/>
+      <c r="A101" s="268"/>
       <c r="B101" s="177">
         <v>39</v>
       </c>
       <c r="H101" s="177">
         <v>6.7</v>
       </c>
-      <c r="I101" s="254"/>
+      <c r="I101" s="268"/>
       <c r="AA101" s="177">
         <v>6.8</v>
       </c>
-      <c r="AB101" s="254"/>
+      <c r="AB101" s="268"/>
     </row>
     <row r="102" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="254"/>
+      <c r="A102" s="268"/>
       <c r="B102" s="177">
         <v>51</v>
       </c>
       <c r="H102" s="177">
         <v>13.4</v>
       </c>
-      <c r="I102" s="254"/>
+      <c r="I102" s="268"/>
       <c r="AA102" s="177">
         <v>10.8</v>
       </c>
-      <c r="AB102" s="254"/>
+      <c r="AB102" s="268"/>
     </row>
     <row r="103" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="254"/>
+      <c r="A103" s="268"/>
       <c r="B103" s="177">
         <v>53</v>
       </c>
-      <c r="I103" s="254"/>
-      <c r="AB103" s="254"/>
+      <c r="I103" s="268"/>
+      <c r="AB103" s="268"/>
     </row>
     <row r="104" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="254"/>
+      <c r="A104" s="268"/>
       <c r="B104" s="177">
         <v>56</v>
       </c>
       <c r="H104" s="177">
         <v>10.7</v>
       </c>
-      <c r="I104" s="254"/>
+      <c r="I104" s="268"/>
       <c r="AA104" s="177">
         <v>7.7</v>
       </c>
-      <c r="AB104" s="254"/>
+      <c r="AB104" s="268"/>
     </row>
     <row r="105" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="254"/>
+      <c r="A105" s="268"/>
       <c r="B105" s="177">
         <v>59</v>
       </c>
       <c r="H105" s="177">
         <v>6.5</v>
       </c>
-      <c r="I105" s="254"/>
+      <c r="I105" s="268"/>
       <c r="AA105" s="177">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB105" s="254"/>
+      <c r="AB105" s="268"/>
     </row>
     <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="254"/>
+      <c r="A106" s="268"/>
       <c r="B106" s="177">
         <v>66</v>
       </c>
-      <c r="I106" s="254"/>
-      <c r="AB106" s="254"/>
+      <c r="I106" s="268"/>
+      <c r="AB106" s="268"/>
     </row>
     <row r="107" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="254"/>
+      <c r="A107" s="268"/>
       <c r="B107" s="177">
         <v>68</v>
       </c>
       <c r="H107" s="177">
         <v>9.9</v>
       </c>
-      <c r="I107" s="254"/>
+      <c r="I107" s="268"/>
       <c r="AA107" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB107" s="254"/>
+      <c r="AB107" s="268"/>
     </row>
     <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="254"/>
+      <c r="A108" s="268"/>
       <c r="B108" s="177">
         <v>69</v>
       </c>
-      <c r="I108" s="254"/>
-      <c r="AB108" s="254"/>
+      <c r="I108" s="268"/>
+      <c r="AB108" s="268"/>
     </row>
     <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="254"/>
+      <c r="A109" s="268"/>
       <c r="B109" s="177">
         <v>70</v>
       </c>
-      <c r="I109" s="254"/>
-      <c r="AB109" s="254"/>
+      <c r="I109" s="268"/>
+      <c r="AB109" s="268"/>
     </row>
     <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="254"/>
+      <c r="A110" s="268"/>
       <c r="B110" s="177">
         <v>73</v>
       </c>
-      <c r="I110" s="254"/>
-      <c r="AB110" s="254"/>
+      <c r="I110" s="268"/>
+      <c r="AB110" s="268"/>
     </row>
     <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="254"/>
+      <c r="A111" s="268"/>
       <c r="B111" s="177">
         <v>82</v>
       </c>
-      <c r="I111" s="254"/>
-      <c r="AB111" s="254"/>
+      <c r="I111" s="268"/>
+      <c r="AB111" s="268"/>
     </row>
     <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="254"/>
+      <c r="A112" s="268"/>
       <c r="B112" s="177" t="s">
         <v>309</v>
       </c>
-      <c r="I112" s="254"/>
-      <c r="AB112" s="254"/>
+      <c r="I112" s="268"/>
+      <c r="AB112" s="268"/>
     </row>
     <row r="113" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="230" t="s">
@@ -30416,7 +30794,7 @@
       <c r="AL113" s="228"/>
     </row>
     <row r="114" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="253" t="s">
+      <c r="A114" s="284" t="s">
         <v>306</v>
       </c>
       <c r="B114" s="177">
@@ -30438,7 +30816,7 @@
       </c>
     </row>
     <row r="115" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="254"/>
+      <c r="A115" s="268"/>
       <c r="B115" s="177">
         <v>18</v>
       </c>
@@ -30458,236 +30836,236 @@
       </c>
     </row>
     <row r="116" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="254"/>
+      <c r="A116" s="268"/>
       <c r="B116" s="177">
         <v>31</v>
       </c>
       <c r="H116" s="177">
         <v>16.100000000000001</v>
       </c>
-      <c r="I116" s="255">
+      <c r="I116" s="269">
         <f>(SUM(H116:H120)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.32012755102040802</v>
       </c>
       <c r="AA116" s="177">
         <v>11.6</v>
       </c>
-      <c r="AB116" s="255">
+      <c r="AB116" s="269">
         <f>SUM(AA116:AA120)/100</f>
         <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="254"/>
+      <c r="A117" s="268"/>
       <c r="B117" s="177">
         <v>33</v>
       </c>
       <c r="H117" s="177">
         <v>12</v>
       </c>
-      <c r="I117" s="254"/>
+      <c r="I117" s="268"/>
       <c r="AA117" s="177">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB117" s="254"/>
+      <c r="AB117" s="268"/>
     </row>
     <row r="118" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="254"/>
+      <c r="A118" s="268"/>
       <c r="B118" s="177">
         <v>45</v>
       </c>
       <c r="H118" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I118" s="254"/>
+      <c r="I118" s="268"/>
       <c r="AA118" s="177">
         <v>5</v>
       </c>
-      <c r="AB118" s="254"/>
+      <c r="AB118" s="268"/>
     </row>
     <row r="119" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="254"/>
+      <c r="A119" s="268"/>
       <c r="B119" s="177">
         <v>52</v>
       </c>
       <c r="H119" s="177">
         <v>10.6</v>
       </c>
-      <c r="I119" s="254"/>
+      <c r="I119" s="268"/>
       <c r="AA119" s="177">
         <v>16.399999999999999</v>
       </c>
-      <c r="AB119" s="254"/>
+      <c r="AB119" s="268"/>
     </row>
     <row r="120" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="254"/>
+      <c r="A120" s="268"/>
       <c r="B120" s="177">
         <v>58</v>
       </c>
       <c r="H120" s="177">
         <v>22.1</v>
       </c>
-      <c r="I120" s="254"/>
+      <c r="I120" s="268"/>
       <c r="AA120" s="177">
         <v>12.1</v>
       </c>
-      <c r="AB120" s="254"/>
+      <c r="AB120" s="268"/>
     </row>
     <row r="121" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="253" t="s">
+      <c r="A121" s="284" t="s">
         <v>304</v>
       </c>
       <c r="B121" s="177">
         <v>26</v>
       </c>
-      <c r="I121" s="256">
+      <c r="I121" s="270">
         <f>(SUM(H121:H134)/SUM(H116:H134))*(1-SUM(I114:I115))</f>
         <v>0.3028724489795917</v>
       </c>
-      <c r="AB121" s="255">
+      <c r="AB121" s="269">
         <f>1-SUM(AB114:AB120)</f>
         <v>-3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="122" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="254"/>
+      <c r="A122" s="268"/>
       <c r="B122" s="177">
         <v>35</v>
       </c>
       <c r="H122" s="177">
         <v>23.9</v>
       </c>
-      <c r="I122" s="254"/>
+      <c r="I122" s="268"/>
       <c r="AA122" s="177">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB122" s="254"/>
+      <c r="AB122" s="268"/>
     </row>
     <row r="123" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="254"/>
+      <c r="A123" s="268"/>
       <c r="B123" s="177">
         <v>39</v>
       </c>
       <c r="H123" s="177">
         <v>5.4</v>
       </c>
-      <c r="I123" s="254"/>
+      <c r="I123" s="268"/>
       <c r="AA123" s="177">
         <v>5.4</v>
       </c>
-      <c r="AB123" s="254"/>
+      <c r="AB123" s="268"/>
     </row>
     <row r="124" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="254"/>
+      <c r="A124" s="268"/>
       <c r="B124" s="177">
         <v>51</v>
       </c>
       <c r="H124" s="177">
         <v>12.9</v>
       </c>
-      <c r="I124" s="254"/>
+      <c r="I124" s="268"/>
       <c r="AA124" s="177">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB124" s="254"/>
+      <c r="AB124" s="268"/>
     </row>
     <row r="125" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="254"/>
+      <c r="A125" s="268"/>
       <c r="B125" s="177">
         <v>53</v>
       </c>
-      <c r="I125" s="254"/>
-      <c r="AB125" s="254"/>
+      <c r="I125" s="268"/>
+      <c r="AB125" s="268"/>
     </row>
     <row r="126" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="254"/>
+      <c r="A126" s="268"/>
       <c r="B126" s="177">
         <v>56</v>
       </c>
       <c r="H126" s="177">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I126" s="254"/>
+      <c r="I126" s="268"/>
       <c r="AA126" s="177">
         <v>4.3</v>
       </c>
-      <c r="AB126" s="254"/>
+      <c r="AB126" s="268"/>
     </row>
     <row r="127" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="254"/>
+      <c r="A127" s="268"/>
       <c r="B127" s="177">
         <v>59</v>
       </c>
       <c r="H127" s="177">
         <v>6.5</v>
       </c>
-      <c r="I127" s="254"/>
+      <c r="I127" s="268"/>
       <c r="AA127" s="177">
         <v>4.7</v>
       </c>
-      <c r="AB127" s="254"/>
+      <c r="AB127" s="268"/>
     </row>
     <row r="128" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="254"/>
+      <c r="A128" s="268"/>
       <c r="B128" s="177">
         <v>66</v>
       </c>
-      <c r="I128" s="254"/>
-      <c r="AB128" s="254"/>
+      <c r="I128" s="268"/>
+      <c r="AB128" s="268"/>
     </row>
     <row r="129" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="254"/>
+      <c r="A129" s="268"/>
       <c r="B129" s="177">
         <v>68</v>
       </c>
       <c r="H129" s="177">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I129" s="254"/>
+      <c r="I129" s="268"/>
       <c r="AA129" s="177">
         <v>2.9</v>
       </c>
-      <c r="AB129" s="254"/>
+      <c r="AB129" s="268"/>
     </row>
     <row r="130" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="254"/>
+      <c r="A130" s="268"/>
       <c r="B130" s="177">
         <v>69</v>
       </c>
-      <c r="I130" s="254"/>
-      <c r="AB130" s="254"/>
+      <c r="I130" s="268"/>
+      <c r="AB130" s="268"/>
     </row>
     <row r="131" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="254"/>
+      <c r="A131" s="268"/>
       <c r="B131" s="177">
         <v>70</v>
       </c>
-      <c r="I131" s="254"/>
-      <c r="AB131" s="254"/>
+      <c r="I131" s="268"/>
+      <c r="AB131" s="268"/>
     </row>
     <row r="132" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="254"/>
+      <c r="A132" s="268"/>
       <c r="B132" s="177">
         <v>73</v>
       </c>
-      <c r="I132" s="254"/>
-      <c r="AB132" s="254"/>
+      <c r="I132" s="268"/>
+      <c r="AB132" s="268"/>
     </row>
     <row r="133" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="254"/>
+      <c r="A133" s="268"/>
       <c r="B133" s="177">
         <v>82</v>
       </c>
-      <c r="I133" s="254"/>
-      <c r="AB133" s="254"/>
+      <c r="I133" s="268"/>
+      <c r="AB133" s="268"/>
     </row>
     <row r="134" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="254"/>
+      <c r="A134" s="268"/>
       <c r="B134" s="177" t="s">
         <v>309</v>
       </c>
-      <c r="I134" s="254"/>
-      <c r="AB134" s="254"/>
+      <c r="I134" s="268"/>
+      <c r="AB134" s="268"/>
     </row>
     <row r="135" spans="1:38" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="230" t="s">
@@ -30732,7 +31110,7 @@
       <c r="AL135" s="228"/>
     </row>
     <row r="136" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="253" t="s">
+      <c r="A136" s="284" t="s">
         <v>306</v>
       </c>
       <c r="B136" s="177">
@@ -30754,7 +31132,7 @@
       </c>
     </row>
     <row r="137" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="254"/>
+      <c r="A137" s="268"/>
       <c r="B137" s="177">
         <v>18</v>
       </c>
@@ -30774,262 +31152,336 @@
       </c>
     </row>
     <row r="138" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="254"/>
+      <c r="A138" s="268"/>
       <c r="B138" s="177">
         <v>31</v>
       </c>
       <c r="H138" s="177">
         <v>10.6</v>
       </c>
-      <c r="I138" s="256">
+      <c r="I138" s="270">
         <f>(SUM(H138:H142)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.23775675675675673</v>
       </c>
       <c r="AA138" s="177">
         <v>11.7</v>
       </c>
-      <c r="AB138" s="255">
+      <c r="AB138" s="269">
         <f>SUM(AA138:AA142)/100</f>
         <v>0.43599999999999994</v>
       </c>
     </row>
     <row r="139" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="254"/>
+      <c r="A139" s="268"/>
       <c r="B139" s="177">
         <v>33</v>
       </c>
       <c r="H139" s="177">
         <v>13.8</v>
       </c>
-      <c r="I139" s="254"/>
+      <c r="I139" s="268"/>
       <c r="AA139" s="177">
         <v>9.1</v>
       </c>
-      <c r="AB139" s="254"/>
+      <c r="AB139" s="268"/>
     </row>
     <row r="140" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="254"/>
+      <c r="A140" s="268"/>
       <c r="B140" s="177">
         <v>45</v>
       </c>
       <c r="H140" s="177">
         <v>6.3</v>
       </c>
-      <c r="I140" s="254"/>
+      <c r="I140" s="268"/>
       <c r="AA140" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB140" s="254"/>
+      <c r="AB140" s="268"/>
     </row>
     <row r="141" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="254"/>
+      <c r="A141" s="268"/>
       <c r="B141" s="177">
         <v>52</v>
       </c>
       <c r="H141" s="177">
         <v>11.3</v>
       </c>
-      <c r="I141" s="254"/>
+      <c r="I141" s="268"/>
       <c r="AA141" s="177">
         <v>10.199999999999999</v>
       </c>
-      <c r="AB141" s="254"/>
+      <c r="AB141" s="268"/>
     </row>
     <row r="142" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="254"/>
+      <c r="A142" s="268"/>
       <c r="B142" s="177">
         <v>58</v>
       </c>
       <c r="H142" s="177">
         <v>18.8</v>
       </c>
-      <c r="I142" s="254"/>
+      <c r="I142" s="268"/>
       <c r="AA142" s="177">
         <v>9</v>
       </c>
-      <c r="AB142" s="254"/>
+      <c r="AB142" s="268"/>
     </row>
     <row r="143" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="253" t="s">
+      <c r="A143" s="284" t="s">
         <v>304</v>
       </c>
       <c r="B143" s="177">
         <v>26</v>
       </c>
-      <c r="I143" s="256">
+      <c r="I143" s="270">
         <f>(SUM(H143:H156)/SUM(H138:H156))*(1-SUM(I136:I137))</f>
         <v>0.22524324324324321</v>
       </c>
-      <c r="AB143" s="255">
+      <c r="AB143" s="269">
         <f>1-SUM(AB136:AB142)</f>
         <v>-9.2000000000000082E-2</v>
       </c>
     </row>
     <row r="144" spans="1:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="254"/>
+      <c r="A144" s="268"/>
       <c r="B144" s="177">
         <v>35</v>
       </c>
       <c r="H144" s="177">
         <v>23.2</v>
       </c>
-      <c r="I144" s="254"/>
+      <c r="I144" s="268"/>
       <c r="AA144" s="177">
         <v>3.6</v>
       </c>
-      <c r="AB144" s="254"/>
+      <c r="AB144" s="268"/>
     </row>
     <row r="145" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="254"/>
+      <c r="A145" s="268"/>
       <c r="B145" s="177">
         <v>39</v>
       </c>
       <c r="H145" s="177">
         <v>5.6</v>
       </c>
-      <c r="I145" s="254"/>
+      <c r="I145" s="268"/>
       <c r="AA145" s="177">
         <v>3.3</v>
       </c>
-      <c r="AB145" s="254"/>
+      <c r="AB145" s="268"/>
     </row>
     <row r="146" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="254"/>
+      <c r="A146" s="268"/>
       <c r="B146" s="177">
         <v>51</v>
       </c>
       <c r="H146" s="177">
         <v>6.9</v>
       </c>
-      <c r="I146" s="254"/>
+      <c r="I146" s="268"/>
       <c r="AA146" s="177">
         <v>5.5</v>
       </c>
-      <c r="AB146" s="254"/>
+      <c r="AB146" s="268"/>
     </row>
     <row r="147" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="254"/>
+      <c r="A147" s="268"/>
       <c r="B147" s="177">
         <v>53</v>
       </c>
-      <c r="I147" s="254"/>
-      <c r="AB147" s="254"/>
+      <c r="I147" s="268"/>
+      <c r="AB147" s="268"/>
     </row>
     <row r="148" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="254"/>
+      <c r="A148" s="268"/>
       <c r="B148" s="177">
         <v>56</v>
       </c>
       <c r="H148" s="177">
         <v>10.6</v>
       </c>
-      <c r="I148" s="254"/>
+      <c r="I148" s="268"/>
       <c r="AA148" s="177">
         <v>2.5</v>
       </c>
-      <c r="AB148" s="254"/>
+      <c r="AB148" s="268"/>
     </row>
     <row r="149" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="254"/>
+      <c r="A149" s="268"/>
       <c r="B149" s="177">
         <v>59</v>
       </c>
       <c r="H149" s="177">
         <v>3.8</v>
       </c>
-      <c r="I149" s="254"/>
+      <c r="I149" s="268"/>
       <c r="AA149" s="177">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB149" s="254"/>
+      <c r="AB149" s="268"/>
     </row>
     <row r="150" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="254"/>
+      <c r="A150" s="268"/>
       <c r="B150" s="177">
         <v>66</v>
       </c>
-      <c r="I150" s="254"/>
-      <c r="AB150" s="254"/>
+      <c r="I150" s="268"/>
+      <c r="AB150" s="268"/>
     </row>
     <row r="151" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="254"/>
+      <c r="A151" s="268"/>
       <c r="B151" s="177">
         <v>68</v>
       </c>
       <c r="H151" s="177">
         <v>7.5</v>
       </c>
-      <c r="I151" s="254"/>
+      <c r="I151" s="268"/>
       <c r="AA151" s="177">
         <v>2</v>
       </c>
-      <c r="AB151" s="254"/>
+      <c r="AB151" s="268"/>
     </row>
     <row r="152" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="254"/>
+      <c r="A152" s="268"/>
       <c r="B152" s="177">
         <v>69</v>
       </c>
-      <c r="I152" s="254"/>
-      <c r="AB152" s="254"/>
+      <c r="I152" s="268"/>
+      <c r="AB152" s="268"/>
     </row>
     <row r="153" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="254"/>
+      <c r="A153" s="268"/>
       <c r="B153" s="177">
         <v>70</v>
       </c>
-      <c r="I153" s="254"/>
-      <c r="AB153" s="254"/>
+      <c r="I153" s="268"/>
+      <c r="AB153" s="268"/>
     </row>
     <row r="154" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="254"/>
+      <c r="A154" s="268"/>
       <c r="B154" s="177">
         <v>73</v>
       </c>
-      <c r="I154" s="254"/>
-      <c r="AB154" s="254"/>
+      <c r="I154" s="268"/>
+      <c r="AB154" s="268"/>
     </row>
     <row r="155" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="254"/>
+      <c r="A155" s="268"/>
       <c r="B155" s="177">
         <v>82</v>
       </c>
-      <c r="I155" s="254"/>
-      <c r="AB155" s="254"/>
+      <c r="I155" s="268"/>
+      <c r="AB155" s="268"/>
     </row>
     <row r="156" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="254"/>
+      <c r="A156" s="268"/>
       <c r="B156" s="177" t="s">
         <v>309</v>
       </c>
-      <c r="I156" s="254"/>
-      <c r="AB156" s="254"/>
+      <c r="I156" s="268"/>
+      <c r="AB156" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="O76:O90"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AJ71:AJ75"/>
-    <mergeCell ref="AL71:AL75"/>
-    <mergeCell ref="AJ76:AJ90"/>
-    <mergeCell ref="AL76:AL90"/>
-    <mergeCell ref="X16:X26"/>
-    <mergeCell ref="X11:X15"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="AH35:AH46"/>
-    <mergeCell ref="AF71:AF75"/>
-    <mergeCell ref="Z76:Z90"/>
-    <mergeCell ref="AD76:AD90"/>
-    <mergeCell ref="AF76:AF90"/>
-    <mergeCell ref="Z16:Z26"/>
-    <mergeCell ref="AB16:AB26"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="Z11:Z15"/>
-    <mergeCell ref="AB11:AB15"/>
+    <mergeCell ref="AP55:AP67"/>
+    <mergeCell ref="AQ55:AQ67"/>
+    <mergeCell ref="AO11:AO15"/>
+    <mergeCell ref="AO16:AO26"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AP48:AP54"/>
+    <mergeCell ref="AQ48:AQ54"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="I116:I120"/>
+    <mergeCell ref="AB116:AB120"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="AB94:AB98"/>
+    <mergeCell ref="Z71:Z75"/>
+    <mergeCell ref="AB71:AB75"/>
+    <mergeCell ref="AD71:AD75"/>
+    <mergeCell ref="M71:M75"/>
+    <mergeCell ref="A99:A112"/>
+    <mergeCell ref="I99:I112"/>
+    <mergeCell ref="AB99:AB112"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="E76:E88"/>
+    <mergeCell ref="G76:G89"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="I143:I156"/>
+    <mergeCell ref="AB143:AB156"/>
+    <mergeCell ref="A121:A134"/>
+    <mergeCell ref="I121:I134"/>
+    <mergeCell ref="AB121:AB134"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="I138:I142"/>
+    <mergeCell ref="AB138:AB142"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="E55:E67"/>
+    <mergeCell ref="I55:I67"/>
+    <mergeCell ref="X55:X67"/>
+    <mergeCell ref="Z55:Z66"/>
+    <mergeCell ref="AB55:AB66"/>
+    <mergeCell ref="I76:I90"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="G71:G75"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="K71:K75"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="X30:X34"/>
+    <mergeCell ref="Z30:Z34"/>
+    <mergeCell ref="AB30:AB34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="E35:E46"/>
+    <mergeCell ref="I35:I46"/>
+    <mergeCell ref="X35:X45"/>
+    <mergeCell ref="Z35:Z46"/>
+    <mergeCell ref="AB35:AB46"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="E16:E26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:O6"/>
     <mergeCell ref="K76:K89"/>
     <mergeCell ref="M76:M89"/>
     <mergeCell ref="AB76:AB90"/>
@@ -31054,110 +31506,36 @@
     <mergeCell ref="Z50:Z54"/>
     <mergeCell ref="AB50:AB54"/>
     <mergeCell ref="O71:O75"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="E16:E26"/>
-    <mergeCell ref="I16:I26"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="X30:X34"/>
-    <mergeCell ref="Z30:Z34"/>
-    <mergeCell ref="AB30:AB34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="E35:E46"/>
-    <mergeCell ref="I35:I46"/>
-    <mergeCell ref="X35:X45"/>
-    <mergeCell ref="Z35:Z46"/>
-    <mergeCell ref="AB35:AB46"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="I143:I156"/>
-    <mergeCell ref="AB143:AB156"/>
-    <mergeCell ref="A121:A134"/>
-    <mergeCell ref="I121:I134"/>
-    <mergeCell ref="AB121:AB134"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="I138:I142"/>
-    <mergeCell ref="AB138:AB142"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="E55:E67"/>
-    <mergeCell ref="I55:I67"/>
-    <mergeCell ref="X55:X67"/>
-    <mergeCell ref="Z55:Z66"/>
-    <mergeCell ref="AB55:AB66"/>
-    <mergeCell ref="I76:I90"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="G71:G75"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="K71:K75"/>
-    <mergeCell ref="AP55:AP67"/>
-    <mergeCell ref="AQ55:AQ67"/>
-    <mergeCell ref="AO11:AO15"/>
-    <mergeCell ref="AO16:AO26"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AP48:AP54"/>
-    <mergeCell ref="AQ48:AQ54"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="I116:I120"/>
-    <mergeCell ref="AB116:AB120"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="AB94:AB98"/>
-    <mergeCell ref="Z71:Z75"/>
-    <mergeCell ref="AB71:AB75"/>
-    <mergeCell ref="AD71:AD75"/>
-    <mergeCell ref="M71:M75"/>
-    <mergeCell ref="A99:A112"/>
-    <mergeCell ref="I99:I112"/>
-    <mergeCell ref="AB99:AB112"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="E76:E88"/>
-    <mergeCell ref="G76:G89"/>
+    <mergeCell ref="O76:O90"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AJ71:AJ75"/>
+    <mergeCell ref="AL71:AL75"/>
+    <mergeCell ref="AJ76:AJ90"/>
+    <mergeCell ref="AL76:AL90"/>
+    <mergeCell ref="X16:X26"/>
+    <mergeCell ref="X11:X15"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AH35:AH46"/>
+    <mergeCell ref="AF71:AF75"/>
+    <mergeCell ref="Z76:Z90"/>
+    <mergeCell ref="AD76:AD90"/>
+    <mergeCell ref="AF76:AF90"/>
+    <mergeCell ref="Z16:Z26"/>
+    <mergeCell ref="AB16:AB26"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="Z11:Z15"/>
+    <mergeCell ref="AB11:AB15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31197,28 +31575,28 @@
       <c r="H2" s="204" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="282" t="s">
+      <c r="I2" s="295" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="282"/>
-      <c r="K2" s="281" t="s">
+      <c r="J2" s="295"/>
+      <c r="K2" s="294" t="s">
         <v>254</v>
       </c>
-      <c r="L2" s="281"/>
+      <c r="L2" s="294"/>
       <c r="M2" s="203" t="s">
         <v>255</v>
       </c>
-      <c r="N2" s="280" t="s">
+      <c r="N2" s="293" t="s">
         <v>347</v>
       </c>
-      <c r="O2" s="280"/>
+      <c r="O2" s="293"/>
       <c r="P2" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="Q2" s="252" t="s">
+      <c r="Q2" s="291" t="s">
         <v>345</v>
       </c>
-      <c r="R2" s="252"/>
+      <c r="R2" s="291"/>
       <c r="S2" s="225" t="s">
         <v>344</v>
       </c>
@@ -31413,11 +31791,11 @@
       <c r="D7" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="279" t="s">
+      <c r="E7" s="292" t="s">
         <v>284</v>
       </c>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
       <c r="H7" s="177" t="s">
         <v>321</v>
       </c>

--- a/Config/HPV_parameters.xlsx
+++ b/Config/HPV_parameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_Feb20\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716A68AD-2F01-4DE9-B698-F3FB65EEC53E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="796" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="7500" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HPV" sheetId="6" r:id="rId1"/>
@@ -20,23 +21,17 @@
     <sheet name="Type distribution edited" sheetId="12" r:id="rId6"/>
     <sheet name="Plots and final type dist" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="360">
   <si>
     <t>Age</t>
   </si>
@@ -1356,11 +1351,17 @@
   <si>
     <t>Sankaranarayanan et al. Cancer survival in Africa, Asia, and Central America: a population-based study. Lancet Oncol 2010;11;2:165-73.</t>
   </si>
+  <si>
+    <t>combined relative risks by 5-year age group (ref = 10-25 yo)</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2516,102 +2517,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2643,10 +2548,106 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="72">
     <dxf>
@@ -8739,6 +8740,34 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82019AC2-96A5-40B1-9AFA-4D152C48584F}" name="Table2" displayName="Table2" ref="B44:J55" totalsRowShown="0">
+  <autoFilter ref="B44:J55" xr:uid="{C920D32D-0CA7-4DC6-9102-BD29B436122C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{519F5AA9-C94D-4E82-8B87-C23DBD47E983}" name="Age Index"/>
+    <tableColumn id="2" xr3:uid="{5ADB48B7-90DF-43CA-AB0C-C6DF502BF5CF}" name="HPV to CIN 1"/>
+    <tableColumn id="3" xr3:uid="{59683378-3CE6-4A5C-AB7D-88E1C5B01AA3}" name="CIN1 to CIN2"/>
+    <tableColumn id="4" xr3:uid="{C82CE529-271F-445B-B83F-0B3F0FA7D187}" name="CIN2 to CIN3"/>
+    <tableColumn id="5" xr3:uid="{247A0B1A-39EE-430E-9A67-BDC1518A32AB}" name="CIN3 to Un-localized"/>
+    <tableColumn id="6" xr3:uid="{E6BEA0DC-DA36-4278-ABBC-A3D31863C183}" name="HPV to Well (Natural Immunity)"/>
+    <tableColumn id="7" xr3:uid="{9BAB5E2A-52FB-4836-92CE-D05AFD377E51}" name="CIN1 to HPV"/>
+    <tableColumn id="8" xr3:uid="{80B1583F-3027-4444-B03E-26423BC0B9F9}" name="CIN2 to CIN1"/>
+    <tableColumn id="9" xr3:uid="{0839A244-D9B3-4621-B6A3-C252F93D0F0C}" name="CIN3 to CIN2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9001,7 +9030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U44"/>
   <sheetViews>
@@ -9054,18 +9083,18 @@
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="254" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="F2" s="241" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="F2" s="254" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
       <c r="J2" s="51"/>
       <c r="K2" s="104"/>
       <c r="L2" s="104"/>
@@ -9395,12 +9424,12 @@
       <c r="U15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -9607,12 +9636,12 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="242" t="s">
+      <c r="B28" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="257"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -9877,11 +9906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -9941,7 +9970,7 @@
       <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="249" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="44"/>
@@ -9997,37 +10026,37 @@
       <c r="X3" s="37"/>
     </row>
     <row r="4" spans="1:34" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="254" t="s">
         <v>355</v>
       </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="F4" s="246" t="s">
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="F4" s="259" t="s">
         <v>356</v>
       </c>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="N4" s="292"/>
-      <c r="O4" s="293"/>
+      <c r="G4" s="259"/>
+      <c r="H4" s="259"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="N4" s="250"/>
+      <c r="O4" s="251"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
+      <c r="S4" s="241"/>
+      <c r="T4" s="241"/>
+      <c r="U4" s="241"/>
       <c r="V4" s="1"/>
       <c r="W4" s="7"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="283"/>
+      <c r="AA4" s="241"/>
+      <c r="AB4" s="241"/>
+      <c r="AC4" s="241"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -10054,27 +10083,27 @@
       <c r="H5" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="290"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
-      <c r="N5" s="294"/>
-      <c r="O5" s="294"/>
-      <c r="P5" s="294"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="283"/>
-      <c r="T5" s="283"/>
-      <c r="U5" s="283"/>
+      <c r="S5" s="241"/>
+      <c r="T5" s="241"/>
+      <c r="U5" s="241"/>
       <c r="V5" s="1"/>
       <c r="W5" s="7"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="283"/>
-      <c r="AB5" s="283"/>
-      <c r="AC5" s="283"/>
+      <c r="AA5" s="241"/>
+      <c r="AB5" s="241"/>
+      <c r="AC5" s="241"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -10107,27 +10136,27 @@
       <c r="H6" s="55">
         <v>1</v>
       </c>
-      <c r="I6" s="290"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="294"/>
-      <c r="N6" s="294"/>
-      <c r="O6" s="294"/>
-      <c r="P6" s="294"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="252"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="283"/>
-      <c r="T6" s="283"/>
-      <c r="U6" s="283"/>
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
       <c r="V6" s="1"/>
       <c r="W6" s="7"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="283"/>
-      <c r="AB6" s="283"/>
-      <c r="AC6" s="283"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="241"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -10160,27 +10189,27 @@
       <c r="H7" s="55">
         <v>1</v>
       </c>
-      <c r="I7" s="290"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="294"/>
-      <c r="L7" s="294"/>
-      <c r="M7" s="294"/>
-      <c r="N7" s="294"/>
-      <c r="O7" s="294"/>
-      <c r="P7" s="294"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="252"/>
+      <c r="N7" s="252"/>
+      <c r="O7" s="252"/>
+      <c r="P7" s="252"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="283"/>
-      <c r="T7" s="283"/>
-      <c r="U7" s="283"/>
+      <c r="S7" s="241"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="241"/>
       <c r="V7" s="1"/>
       <c r="W7" s="7"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="283"/>
-      <c r="AB7" s="283"/>
-      <c r="AC7" s="283"/>
+      <c r="AA7" s="241"/>
+      <c r="AB7" s="241"/>
+      <c r="AC7" s="241"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -10213,27 +10242,27 @@
       <c r="H8" s="55">
         <v>1</v>
       </c>
-      <c r="I8" s="290"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
-      <c r="N8" s="294"/>
-      <c r="O8" s="294"/>
-      <c r="P8" s="294"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="252"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="252"/>
+      <c r="P8" s="252"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="283"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="283"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
       <c r="V8" s="1"/>
       <c r="W8" s="7"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="283"/>
-      <c r="AB8" s="283"/>
-      <c r="AC8" s="283"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="241"/>
+      <c r="AC8" s="241"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -10266,27 +10295,27 @@
       <c r="H9" s="55">
         <v>1</v>
       </c>
-      <c r="I9" s="290"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
-      <c r="M9" s="294"/>
-      <c r="N9" s="294"/>
-      <c r="O9" s="294"/>
-      <c r="P9" s="294"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="252"/>
+      <c r="O9" s="252"/>
+      <c r="P9" s="252"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="283"/>
-      <c r="T9" s="283"/>
-      <c r="U9" s="283"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
       <c r="V9" s="1"/>
       <c r="W9" s="7"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="283"/>
-      <c r="AB9" s="283"/>
-      <c r="AC9" s="283"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="241"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
@@ -10297,15 +10326,15 @@
       <c r="A10" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="289">
+      <c r="B10" s="247">
         <f t="shared" si="1"/>
         <v>0.20707783810724914</v>
       </c>
-      <c r="C10" s="289">
+      <c r="C10" s="247">
         <f t="shared" si="0"/>
         <v>0.24174996650700001</v>
       </c>
-      <c r="D10" s="289">
+      <c r="D10" s="247">
         <f t="shared" si="0"/>
         <v>0.5207380372</v>
       </c>
@@ -10319,44 +10348,44 @@
       <c r="H10" s="55">
         <v>1</v>
       </c>
-      <c r="I10" s="290"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="294"/>
-      <c r="M10" s="294"/>
-      <c r="N10" s="294"/>
-      <c r="O10" s="294"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="287"/>
-      <c r="R10" s="287"/>
-      <c r="S10" s="284"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="285"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="252"/>
+      <c r="N10" s="252"/>
+      <c r="O10" s="252"/>
+      <c r="P10" s="252"/>
+      <c r="Q10" s="245"/>
+      <c r="R10" s="245"/>
+      <c r="S10" s="242"/>
+      <c r="T10" s="243"/>
+      <c r="U10" s="243"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="284"/>
-      <c r="AB10" s="286"/>
-      <c r="AC10" s="286"/>
-      <c r="AD10" s="284"/>
-      <c r="AE10" s="286"/>
-      <c r="AF10" s="286"/>
+      <c r="AA10" s="242"/>
+      <c r="AB10" s="244"/>
+      <c r="AC10"